--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175582</v>
+        <v>0.726888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187398</v>
+        <v>0.661748</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196981</v>
+        <v>0.641996</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175593</v>
+        <v>0.735939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18811</v>
+        <v>0.657037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197429</v>
+        <v>0.648265</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176977</v>
+        <v>0.728667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188968</v>
+        <v>0.671854</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198779</v>
+        <v>0.654282</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17769</v>
+        <v>0.743497</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19052</v>
+        <v>0.6389629999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200464</v>
+        <v>0.6443449999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178599</v>
+        <v>0.7186439999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192027</v>
+        <v>0.6598270000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20246</v>
+        <v>0.6692630000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.18004</v>
+        <v>0.750194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194634</v>
+        <v>0.666678</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205486</v>
+        <v>0.663604</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182486</v>
+        <v>0.72376</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197555</v>
+        <v>0.643312</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210282</v>
+        <v>0.683882</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.18621</v>
+        <v>0.7337050000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201365</v>
+        <v>0.67831</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193639</v>
+        <v>0.672343</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.183707</v>
+        <v>0.765377</v>
       </c>
       <c r="C10" t="n">
-        <v>0.188636</v>
+        <v>0.644373</v>
       </c>
       <c r="D10" t="n">
-        <v>0.195159</v>
+        <v>0.685604</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.184576</v>
+        <v>0.736259</v>
       </c>
       <c r="C11" t="n">
-        <v>0.189457</v>
+        <v>0.646908</v>
       </c>
       <c r="D11" t="n">
-        <v>0.196928</v>
+        <v>0.663075</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.181526</v>
+        <v>0.729637</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187113</v>
+        <v>0.672462</v>
       </c>
       <c r="D12" t="n">
-        <v>0.194229</v>
+        <v>0.669915</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.183858</v>
+        <v>0.743629</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187459</v>
+        <v>0.641093</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194593</v>
+        <v>0.653672</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.184466</v>
+        <v>0.725882</v>
       </c>
       <c r="C14" t="n">
-        <v>0.189711</v>
+        <v>0.647497</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196403</v>
+        <v>0.657706</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.185488</v>
+        <v>0.722747</v>
       </c>
       <c r="C15" t="n">
-        <v>0.18919</v>
+        <v>0.657212</v>
       </c>
       <c r="D15" t="n">
-        <v>0.196249</v>
+        <v>0.684316</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.182308</v>
+        <v>0.738052</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189207</v>
+        <v>0.659995</v>
       </c>
       <c r="D16" t="n">
-        <v>0.19629</v>
+        <v>0.655023</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.184681</v>
+        <v>0.75903</v>
       </c>
       <c r="C17" t="n">
-        <v>0.190861</v>
+        <v>0.671125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197142</v>
+        <v>0.660728</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.184225</v>
+        <v>0.733428</v>
       </c>
       <c r="C18" t="n">
-        <v>0.192238</v>
+        <v>0.64457</v>
       </c>
       <c r="D18" t="n">
-        <v>0.198369</v>
+        <v>0.663552</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.185597</v>
+        <v>0.762792</v>
       </c>
       <c r="C19" t="n">
-        <v>0.193545</v>
+        <v>0.658309</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200681</v>
+        <v>0.681603</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187712</v>
+        <v>0.728951</v>
       </c>
       <c r="C20" t="n">
-        <v>0.194244</v>
+        <v>0.653816</v>
       </c>
       <c r="D20" t="n">
-        <v>0.202277</v>
+        <v>0.67418</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.189019</v>
+        <v>0.763452</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196579</v>
+        <v>0.649462</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205238</v>
+        <v>0.660489</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.192023</v>
+        <v>0.738919</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198476</v>
+        <v>0.646618</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208539</v>
+        <v>0.66956</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.194005</v>
+        <v>0.7711519999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.201895</v>
+        <v>0.654784</v>
       </c>
       <c r="D23" t="n">
-        <v>0.201314</v>
+        <v>0.681155</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.203676</v>
+        <v>0.790272</v>
       </c>
       <c r="C24" t="n">
-        <v>0.189455</v>
+        <v>0.6853359999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201696</v>
+        <v>0.690204</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.20453</v>
+        <v>0.801137</v>
       </c>
       <c r="C25" t="n">
-        <v>0.189835</v>
+        <v>0.665199</v>
       </c>
       <c r="D25" t="n">
-        <v>0.201456</v>
+        <v>0.672704</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.203239</v>
+        <v>0.769648</v>
       </c>
       <c r="C26" t="n">
-        <v>0.191911</v>
+        <v>0.663224</v>
       </c>
       <c r="D26" t="n">
-        <v>0.201374</v>
+        <v>0.683261</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.20221</v>
+        <v>0.776403</v>
       </c>
       <c r="C27" t="n">
-        <v>0.191548</v>
+        <v>0.664927</v>
       </c>
       <c r="D27" t="n">
-        <v>0.202851</v>
+        <v>0.696008</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.202521</v>
+        <v>0.773306</v>
       </c>
       <c r="C28" t="n">
-        <v>0.192591</v>
+        <v>0.682921</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20341</v>
+        <v>0.688035</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.201388</v>
+        <v>0.773295</v>
       </c>
       <c r="C29" t="n">
-        <v>0.192623</v>
+        <v>0.669641</v>
       </c>
       <c r="D29" t="n">
-        <v>0.204009</v>
+        <v>0.683982</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2018</v>
+        <v>0.769635</v>
       </c>
       <c r="C30" t="n">
-        <v>0.193874</v>
+        <v>0.668505</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206042</v>
+        <v>0.695153</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202342</v>
+        <v>0.818204</v>
       </c>
       <c r="C31" t="n">
-        <v>0.194468</v>
+        <v>0.692922</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205299</v>
+        <v>0.687351</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202944</v>
+        <v>0.7860819999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194848</v>
+        <v>0.670327</v>
       </c>
       <c r="D32" t="n">
-        <v>0.206398</v>
+        <v>0.674544</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.203647</v>
+        <v>0.771516</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196121</v>
+        <v>0.664548</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208303</v>
+        <v>0.674115</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.204892</v>
+        <v>0.788339</v>
       </c>
       <c r="C34" t="n">
-        <v>0.19851</v>
+        <v>0.669532</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209739</v>
+        <v>0.698515</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.205945</v>
+        <v>0.778525</v>
       </c>
       <c r="C35" t="n">
-        <v>0.199843</v>
+        <v>0.683359</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212553</v>
+        <v>0.709728</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.207623</v>
+        <v>0.773783</v>
       </c>
       <c r="C36" t="n">
-        <v>0.202885</v>
+        <v>0.69706</v>
       </c>
       <c r="D36" t="n">
-        <v>0.216344</v>
+        <v>0.682104</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21211</v>
+        <v>0.7929580000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207161</v>
+        <v>0.688789</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220482</v>
+        <v>0.695291</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.234247</v>
+        <v>0.832288</v>
       </c>
       <c r="C38" t="n">
-        <v>0.20804</v>
+        <v>0.674052</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219658</v>
+        <v>0.712737</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232953</v>
+        <v>0.819864</v>
       </c>
       <c r="C39" t="n">
-        <v>0.208877</v>
+        <v>0.692442</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220178</v>
+        <v>0.705491</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233497</v>
+        <v>0.821438</v>
       </c>
       <c r="C40" t="n">
-        <v>0.209484</v>
+        <v>0.699011</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220446</v>
+        <v>0.728644</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234541</v>
+        <v>0.798531</v>
       </c>
       <c r="C41" t="n">
-        <v>0.209716</v>
+        <v>0.700549</v>
       </c>
       <c r="D41" t="n">
-        <v>0.220578</v>
+        <v>0.693792</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.233453</v>
+        <v>0.837186</v>
       </c>
       <c r="C42" t="n">
-        <v>0.211874</v>
+        <v>0.719482</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222485</v>
+        <v>0.713934</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.233087</v>
+        <v>0.813485</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213347</v>
+        <v>0.718161</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22283</v>
+        <v>0.729943</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.233432</v>
+        <v>0.8485470000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.212713</v>
+        <v>0.711558</v>
       </c>
       <c r="D44" t="n">
-        <v>0.222711</v>
+        <v>0.707532</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.23335</v>
+        <v>0.812414</v>
       </c>
       <c r="C45" t="n">
-        <v>0.214313</v>
+        <v>0.695725</v>
       </c>
       <c r="D45" t="n">
-        <v>0.224372</v>
+        <v>0.721149</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.233815</v>
+        <v>0.799468</v>
       </c>
       <c r="C46" t="n">
-        <v>0.215508</v>
+        <v>0.678872</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22563</v>
+        <v>0.699335</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.233932</v>
+        <v>0.821038</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216277</v>
+        <v>0.706215</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226924</v>
+        <v>0.713309</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.234269</v>
+        <v>0.82873</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218531</v>
+        <v>0.7059299999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229042</v>
+        <v>0.695516</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235322</v>
+        <v>0.835236</v>
       </c>
       <c r="C49" t="n">
-        <v>0.221933</v>
+        <v>0.69863</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232807</v>
+        <v>0.747119</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237015</v>
+        <v>0.814028</v>
       </c>
       <c r="C50" t="n">
-        <v>0.224533</v>
+        <v>0.696359</v>
       </c>
       <c r="D50" t="n">
-        <v>0.236966</v>
+        <v>0.717718</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.242067</v>
+        <v>0.82285</v>
       </c>
       <c r="C51" t="n">
-        <v>0.228914</v>
+        <v>0.697788</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23446</v>
+        <v>0.756034</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.243919</v>
+        <v>0.844903</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235722</v>
+        <v>0.730697</v>
       </c>
       <c r="D52" t="n">
-        <v>0.234614</v>
+        <v>0.749459</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.258437</v>
+        <v>0.893953</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226194</v>
+        <v>0.727491</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233565</v>
+        <v>0.746347</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.258033</v>
+        <v>0.900142</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226792</v>
+        <v>0.730393</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232832</v>
+        <v>0.751873</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259284</v>
+        <v>0.879506</v>
       </c>
       <c r="C55" t="n">
-        <v>0.228052</v>
+        <v>0.723791</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234463</v>
+        <v>0.7757849999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259109</v>
+        <v>0.901044</v>
       </c>
       <c r="C56" t="n">
-        <v>0.228121</v>
+        <v>0.729463</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235231</v>
+        <v>0.761247</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.260179</v>
+        <v>0.91352</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228773</v>
+        <v>0.757756</v>
       </c>
       <c r="D57" t="n">
-        <v>0.234888</v>
+        <v>0.752403</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.259784</v>
+        <v>0.887558</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230134</v>
+        <v>0.742775</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236632</v>
+        <v>0.745568</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.260977</v>
+        <v>0.90183</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231585</v>
+        <v>0.749969</v>
       </c>
       <c r="D59" t="n">
-        <v>0.237538</v>
+        <v>0.786562</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.260374</v>
+        <v>0.9043600000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.233296</v>
+        <v>0.746255</v>
       </c>
       <c r="D60" t="n">
-        <v>0.23909</v>
+        <v>0.774406</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260882</v>
+        <v>0.918489</v>
       </c>
       <c r="C61" t="n">
-        <v>0.234622</v>
+        <v>0.751872</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24117</v>
+        <v>0.758233</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.262431</v>
+        <v>0.899174</v>
       </c>
       <c r="C62" t="n">
-        <v>0.236642</v>
+        <v>0.744016</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242845</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.261495</v>
+        <v>0.922086</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238526</v>
+        <v>0.728373</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246182</v>
+        <v>0.765232</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265897</v>
+        <v>0.908013</v>
       </c>
       <c r="C64" t="n">
-        <v>0.24342</v>
+        <v>0.766873</v>
       </c>
       <c r="D64" t="n">
-        <v>0.25187</v>
+        <v>0.770622</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266474</v>
+        <v>0.900904</v>
       </c>
       <c r="C65" t="n">
-        <v>0.247159</v>
+        <v>0.762233</v>
       </c>
       <c r="D65" t="n">
-        <v>0.257727</v>
+        <v>0.786992</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.271543</v>
+        <v>0.899987</v>
       </c>
       <c r="C66" t="n">
-        <v>0.252401</v>
+        <v>0.775123</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241435</v>
+        <v>0.893574</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.277518</v>
+        <v>1.16999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.237543</v>
+        <v>0.929129</v>
       </c>
       <c r="D67" t="n">
-        <v>0.241139</v>
+        <v>0.88234</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.277904</v>
+        <v>1.14968</v>
       </c>
       <c r="C68" t="n">
-        <v>0.237824</v>
+        <v>0.929616</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24118</v>
+        <v>0.917453</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.27775</v>
+        <v>1.18192</v>
       </c>
       <c r="C69" t="n">
-        <v>0.238483</v>
+        <v>0.925389</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241698</v>
+        <v>0.914207</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.278386</v>
+        <v>1.21431</v>
       </c>
       <c r="C70" t="n">
-        <v>0.238761</v>
+        <v>0.93091</v>
       </c>
       <c r="D70" t="n">
-        <v>0.242322</v>
+        <v>0.912774</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.27793</v>
+        <v>1.17833</v>
       </c>
       <c r="C71" t="n">
-        <v>0.239257</v>
+        <v>0.932481</v>
       </c>
       <c r="D71" t="n">
-        <v>0.242804</v>
+        <v>0.90332</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278796</v>
+        <v>1.13634</v>
       </c>
       <c r="C72" t="n">
-        <v>0.239872</v>
+        <v>0.916161</v>
       </c>
       <c r="D72" t="n">
-        <v>0.243515</v>
+        <v>0.924373</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.278233</v>
+        <v>1.17912</v>
       </c>
       <c r="C73" t="n">
-        <v>0.241485</v>
+        <v>0.912726</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24489</v>
+        <v>0.891406</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279076</v>
+        <v>1.12132</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24288</v>
+        <v>0.891818</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246551</v>
+        <v>0.927698</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279777</v>
+        <v>1.17329</v>
       </c>
       <c r="C75" t="n">
-        <v>0.24434</v>
+        <v>0.92976</v>
       </c>
       <c r="D75" t="n">
-        <v>0.248422</v>
+        <v>0.9186029999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280362</v>
+        <v>1.1527</v>
       </c>
       <c r="C76" t="n">
-        <v>0.246544</v>
+        <v>0.909706</v>
       </c>
       <c r="D76" t="n">
-        <v>0.251149</v>
+        <v>0.9136030000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.28151</v>
+        <v>1.16607</v>
       </c>
       <c r="C77" t="n">
-        <v>0.247136</v>
+        <v>0.936693</v>
       </c>
       <c r="D77" t="n">
-        <v>0.254003</v>
+        <v>0.916809</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.283404</v>
+        <v>1.13042</v>
       </c>
       <c r="C78" t="n">
-        <v>0.251426</v>
+        <v>0.942276</v>
       </c>
       <c r="D78" t="n">
-        <v>0.258767</v>
+        <v>0.9204290000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.28619</v>
+        <v>1.16781</v>
       </c>
       <c r="C79" t="n">
-        <v>0.255823</v>
+        <v>0.935638</v>
       </c>
       <c r="D79" t="n">
-        <v>0.265637</v>
+        <v>0.946815</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290359</v>
+        <v>1.13534</v>
       </c>
       <c r="C80" t="n">
-        <v>0.260164</v>
+        <v>0.9391890000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.254739</v>
+        <v>1.26679</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.295387</v>
+        <v>1.51711</v>
       </c>
       <c r="C81" t="n">
-        <v>0.233</v>
+        <v>1.24603</v>
       </c>
       <c r="D81" t="n">
-        <v>0.245329</v>
+        <v>1.27506</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.288776</v>
+        <v>1.48801</v>
       </c>
       <c r="C82" t="n">
-        <v>0.246822</v>
+        <v>1.26445</v>
       </c>
       <c r="D82" t="n">
-        <v>0.258101</v>
+        <v>1.2927</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.304821</v>
+        <v>1.51512</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241656</v>
+        <v>1.24598</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253278</v>
+        <v>1.29913</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.29939</v>
+        <v>1.54969</v>
       </c>
       <c r="C84" t="n">
-        <v>0.238541</v>
+        <v>1.31352</v>
       </c>
       <c r="D84" t="n">
-        <v>0.251525</v>
+        <v>1.29525</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.292841</v>
+        <v>1.51309</v>
       </c>
       <c r="C85" t="n">
-        <v>0.244436</v>
+        <v>1.27722</v>
       </c>
       <c r="D85" t="n">
-        <v>0.254599</v>
+        <v>1.23616</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.300968</v>
+        <v>1.51032</v>
       </c>
       <c r="C86" t="n">
-        <v>0.238515</v>
+        <v>1.24164</v>
       </c>
       <c r="D86" t="n">
-        <v>0.249057</v>
+        <v>1.25597</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.293985</v>
+        <v>1.48888</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243792</v>
+        <v>1.28535</v>
       </c>
       <c r="D87" t="n">
-        <v>0.256547</v>
+        <v>1.28461</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300239</v>
+        <v>1.52863</v>
       </c>
       <c r="C88" t="n">
-        <v>0.244854</v>
+        <v>1.31065</v>
       </c>
       <c r="D88" t="n">
-        <v>0.257352</v>
+        <v>1.30123</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.303749</v>
+        <v>1.54059</v>
       </c>
       <c r="C89" t="n">
-        <v>0.243893</v>
+        <v>1.21006</v>
       </c>
       <c r="D89" t="n">
-        <v>0.254544</v>
+        <v>1.26333</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.300578</v>
+        <v>1.50513</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248155</v>
+        <v>1.30461</v>
       </c>
       <c r="D90" t="n">
-        <v>0.26131</v>
+        <v>1.28015</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.305305</v>
+        <v>1.54136</v>
       </c>
       <c r="C91" t="n">
-        <v>0.24974</v>
+        <v>1.28646</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264361</v>
+        <v>1.29198</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.305304</v>
+        <v>1.53758</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253491</v>
+        <v>1.24319</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269643</v>
+        <v>1.27468</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.307001</v>
+        <v>1.46229</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258732</v>
+        <v>1.2748</v>
       </c>
       <c r="D93" t="n">
-        <v>0.276767</v>
+        <v>1.22873</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.31263</v>
+        <v>1.51011</v>
       </c>
       <c r="C94" t="n">
-        <v>0.263013</v>
+        <v>1.27741</v>
       </c>
       <c r="D94" t="n">
-        <v>0.400516</v>
+        <v>1.56403</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.476803</v>
+        <v>1.8425</v>
       </c>
       <c r="C95" t="n">
-        <v>0.417707</v>
+        <v>1.52353</v>
       </c>
       <c r="D95" t="n">
-        <v>0.403098</v>
+        <v>1.55024</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.477214</v>
+        <v>1.80898</v>
       </c>
       <c r="C96" t="n">
-        <v>0.412554</v>
+        <v>1.58053</v>
       </c>
       <c r="D96" t="n">
-        <v>0.39846</v>
+        <v>1.58026</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.48104</v>
+        <v>1.81611</v>
       </c>
       <c r="C97" t="n">
-        <v>0.407924</v>
+        <v>1.53091</v>
       </c>
       <c r="D97" t="n">
-        <v>0.395149</v>
+        <v>1.58634</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.477036</v>
+        <v>1.81752</v>
       </c>
       <c r="C98" t="n">
-        <v>0.409837</v>
+        <v>1.56194</v>
       </c>
       <c r="D98" t="n">
-        <v>0.390914</v>
+        <v>1.62026</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.481234</v>
+        <v>1.83112</v>
       </c>
       <c r="C99" t="n">
-        <v>0.411013</v>
+        <v>1.53165</v>
       </c>
       <c r="D99" t="n">
-        <v>0.399393</v>
+        <v>1.57662</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.488578</v>
+        <v>1.79263</v>
       </c>
       <c r="C100" t="n">
-        <v>0.417174</v>
+        <v>1.57088</v>
       </c>
       <c r="D100" t="n">
-        <v>0.393679</v>
+        <v>1.5997</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.490411</v>
+        <v>1.81592</v>
       </c>
       <c r="C101" t="n">
-        <v>0.409481</v>
+        <v>1.58427</v>
       </c>
       <c r="D101" t="n">
-        <v>0.388526</v>
+        <v>1.63576</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.478422</v>
+        <v>1.85104</v>
       </c>
       <c r="C102" t="n">
-        <v>0.408886</v>
+        <v>1.54971</v>
       </c>
       <c r="D102" t="n">
-        <v>0.401719</v>
+        <v>1.60929</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.486595</v>
+        <v>1.83685</v>
       </c>
       <c r="C103" t="n">
-        <v>0.415632</v>
+        <v>1.56669</v>
       </c>
       <c r="D103" t="n">
-        <v>0.408842</v>
+        <v>1.61732</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.477532</v>
+        <v>1.85988</v>
       </c>
       <c r="C104" t="n">
-        <v>0.419316</v>
+        <v>1.55915</v>
       </c>
       <c r="D104" t="n">
-        <v>0.412563</v>
+        <v>1.60759</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.480502</v>
+        <v>1.79729</v>
       </c>
       <c r="C105" t="n">
-        <v>0.418588</v>
+        <v>1.61179</v>
       </c>
       <c r="D105" t="n">
-        <v>0.410654</v>
+        <v>1.59092</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.475954</v>
+        <v>1.77902</v>
       </c>
       <c r="C106" t="n">
-        <v>0.384605</v>
+        <v>1.5417</v>
       </c>
       <c r="D106" t="n">
-        <v>0.367507</v>
+        <v>1.57479</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.444713</v>
+        <v>1.84041</v>
       </c>
       <c r="C107" t="n">
-        <v>0.423627</v>
+        <v>1.62333</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4079</v>
+        <v>1.6336</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.48205</v>
+        <v>1.82253</v>
       </c>
       <c r="C108" t="n">
-        <v>0.426169</v>
+        <v>1.57805</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6649350000000001</v>
+        <v>1.76623</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.492807</v>
+        <v>1.77807</v>
       </c>
       <c r="C109" t="n">
-        <v>0.433394</v>
+        <v>1.58045</v>
       </c>
       <c r="D109" t="n">
-        <v>0.665007</v>
+        <v>1.75931</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7757540000000001</v>
+        <v>2.16117</v>
       </c>
       <c r="C110" t="n">
-        <v>0.663028</v>
+        <v>1.74027</v>
       </c>
       <c r="D110" t="n">
-        <v>0.666459</v>
+        <v>1.79208</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.772755</v>
+        <v>2.20673</v>
       </c>
       <c r="C111" t="n">
-        <v>0.663344</v>
+        <v>1.72181</v>
       </c>
       <c r="D111" t="n">
-        <v>0.656247</v>
+        <v>1.78294</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.778676</v>
+        <v>2.15879</v>
       </c>
       <c r="C112" t="n">
-        <v>0.66453</v>
+        <v>1.74706</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6685179999999999</v>
+        <v>1.80114</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.77629</v>
+        <v>2.19369</v>
       </c>
       <c r="C113" t="n">
-        <v>0.664819</v>
+        <v>1.73317</v>
       </c>
       <c r="D113" t="n">
-        <v>0.669671</v>
+        <v>1.82277</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.780725</v>
+        <v>2.16835</v>
       </c>
       <c r="C114" t="n">
-        <v>0.666248</v>
+        <v>1.71414</v>
       </c>
       <c r="D114" t="n">
-        <v>0.658605</v>
+        <v>1.79288</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.777699</v>
+        <v>2.17112</v>
       </c>
       <c r="C115" t="n">
-        <v>0.669109</v>
+        <v>1.71152</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6609159999999999</v>
+        <v>1.78064</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.773817</v>
+        <v>2.18211</v>
       </c>
       <c r="C116" t="n">
-        <v>0.65315</v>
+        <v>1.74444</v>
       </c>
       <c r="D116" t="n">
-        <v>0.675315</v>
+        <v>1.79868</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.776245</v>
+        <v>2.169</v>
       </c>
       <c r="C117" t="n">
-        <v>0.671681</v>
+        <v>1.75018</v>
       </c>
       <c r="D117" t="n">
-        <v>0.677643</v>
+        <v>1.79786</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.771709</v>
+        <v>2.17139</v>
       </c>
       <c r="C118" t="n">
-        <v>0.674525</v>
+        <v>1.74821</v>
       </c>
       <c r="D118" t="n">
-        <v>0.680607</v>
+        <v>1.79765</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.774236</v>
+        <v>2.14095</v>
       </c>
       <c r="C119" t="n">
-        <v>0.677685</v>
+        <v>1.73877</v>
       </c>
       <c r="D119" t="n">
-        <v>0.671281</v>
+        <v>1.81945</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.776613</v>
+        <v>2.1707</v>
       </c>
       <c r="C120" t="n">
-        <v>0.681552</v>
+        <v>1.79106</v>
       </c>
       <c r="D120" t="n">
-        <v>0.689898</v>
+        <v>1.84084</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.76011</v>
+        <v>2.11815</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6865250000000001</v>
+        <v>1.79133</v>
       </c>
       <c r="D121" t="n">
-        <v>0.69617</v>
+        <v>1.81687</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.790106</v>
+        <v>2.17111</v>
       </c>
       <c r="C122" t="n">
-        <v>0.678732</v>
+        <v>1.79554</v>
       </c>
       <c r="D122" t="n">
-        <v>0.693424</v>
+        <v>1.87287</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.777213</v>
+        <v>2.17651</v>
       </c>
       <c r="C123" t="n">
-        <v>0.703301</v>
+        <v>1.81449</v>
       </c>
       <c r="D123" t="n">
-        <v>0.777894</v>
+        <v>1.91163</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.032</v>
+        <v>2.51665</v>
       </c>
       <c r="C124" t="n">
-        <v>0.769261</v>
+        <v>1.90037</v>
       </c>
       <c r="D124" t="n">
-        <v>0.779385</v>
+        <v>1.93461</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.04384</v>
+        <v>2.51706</v>
       </c>
       <c r="C125" t="n">
-        <v>0.763287</v>
+        <v>1.8695</v>
       </c>
       <c r="D125" t="n">
-        <v>0.781417</v>
+        <v>1.92937</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03512</v>
+        <v>2.54401</v>
       </c>
       <c r="C126" t="n">
-        <v>0.764727</v>
+        <v>1.88033</v>
       </c>
       <c r="D126" t="n">
-        <v>0.781675</v>
+        <v>1.97736</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03478</v>
+        <v>2.5477</v>
       </c>
       <c r="C127" t="n">
-        <v>0.772716</v>
+        <v>1.91399</v>
       </c>
       <c r="D127" t="n">
-        <v>0.77679</v>
+        <v>1.96496</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03908</v>
+        <v>2.50428</v>
       </c>
       <c r="C128" t="n">
-        <v>0.773665</v>
+        <v>1.88854</v>
       </c>
       <c r="D128" t="n">
-        <v>0.778334</v>
+        <v>1.98269</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.02628</v>
+        <v>2.54235</v>
       </c>
       <c r="C129" t="n">
-        <v>0.776442</v>
+        <v>1.87769</v>
       </c>
       <c r="D129" t="n">
-        <v>0.788753</v>
+        <v>1.97344</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03808</v>
+        <v>2.50889</v>
       </c>
       <c r="C130" t="n">
-        <v>0.771387</v>
+        <v>1.94761</v>
       </c>
       <c r="D130" t="n">
-        <v>0.790849</v>
+        <v>1.97661</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.01243</v>
+        <v>2.55405</v>
       </c>
       <c r="C131" t="n">
-        <v>0.782213</v>
+        <v>1.95927</v>
       </c>
       <c r="D131" t="n">
-        <v>0.788184</v>
+        <v>1.98925</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04498</v>
+        <v>2.5428</v>
       </c>
       <c r="C132" t="n">
-        <v>0.785311</v>
+        <v>1.93787</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7913520000000001</v>
+        <v>2.01378</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.01934</v>
+        <v>2.51612</v>
       </c>
       <c r="C133" t="n">
-        <v>0.788792</v>
+        <v>1.95057</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8030890000000001</v>
+        <v>2.01379</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04257</v>
+        <v>2.53504</v>
       </c>
       <c r="C134" t="n">
-        <v>0.794122</v>
+        <v>1.97537</v>
       </c>
       <c r="D134" t="n">
-        <v>0.811127</v>
+        <v>2.00767</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.02015</v>
+        <v>2.52589</v>
       </c>
       <c r="C135" t="n">
-        <v>0.801991</v>
+        <v>1.99732</v>
       </c>
       <c r="D135" t="n">
-        <v>0.820533</v>
+        <v>2.09493</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.04755</v>
+        <v>2.70238</v>
       </c>
       <c r="C136" t="n">
-        <v>0.804652</v>
+        <v>1.93379</v>
       </c>
       <c r="D136" t="n">
-        <v>0.83536</v>
+        <v>2.03616</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05496</v>
+        <v>2.52946</v>
       </c>
       <c r="C137" t="n">
-        <v>0.824147</v>
+        <v>1.97882</v>
       </c>
       <c r="D137" t="n">
-        <v>0.829619</v>
+        <v>2.0977</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.25008</v>
+        <v>2.8655</v>
       </c>
       <c r="C138" t="n">
-        <v>0.816793</v>
+        <v>2.03868</v>
       </c>
       <c r="D138" t="n">
-        <v>0.827971</v>
+        <v>2.09202</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26411</v>
+        <v>2.85241</v>
       </c>
       <c r="C139" t="n">
-        <v>0.818452</v>
+        <v>2.05976</v>
       </c>
       <c r="D139" t="n">
-        <v>0.833684</v>
+        <v>2.1503</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26271</v>
+        <v>2.86908</v>
       </c>
       <c r="C140" t="n">
-        <v>0.821253</v>
+        <v>2.0567</v>
       </c>
       <c r="D140" t="n">
-        <v>0.834429</v>
+        <v>2.12043</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26331</v>
+        <v>2.86044</v>
       </c>
       <c r="C141" t="n">
-        <v>0.820883</v>
+        <v>2.08281</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8359</v>
+        <v>2.11909</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26367</v>
+        <v>2.84431</v>
       </c>
       <c r="C142" t="n">
-        <v>0.823438</v>
+        <v>2.07096</v>
       </c>
       <c r="D142" t="n">
-        <v>0.838637</v>
+        <v>2.1357</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26437</v>
+        <v>2.90577</v>
       </c>
       <c r="C143" t="n">
-        <v>0.823267</v>
+        <v>2.08326</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8421920000000001</v>
+        <v>2.2172</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.726888</v>
+        <v>0.747298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.661748</v>
+        <v>0.639745</v>
       </c>
       <c r="D2" t="n">
-        <v>0.641996</v>
+        <v>0.670158</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.735939</v>
+        <v>0.744318</v>
       </c>
       <c r="C3" t="n">
-        <v>0.657037</v>
+        <v>0.644741</v>
       </c>
       <c r="D3" t="n">
-        <v>0.648265</v>
+        <v>0.660817</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.728667</v>
+        <v>0.721512</v>
       </c>
       <c r="C4" t="n">
-        <v>0.671854</v>
+        <v>0.63746</v>
       </c>
       <c r="D4" t="n">
-        <v>0.654282</v>
+        <v>0.664585</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.743497</v>
+        <v>0.720361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6389629999999999</v>
+        <v>0.629342</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6443449999999999</v>
+        <v>0.659791</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7186439999999999</v>
+        <v>0.725025</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6598270000000001</v>
+        <v>0.646423</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6692630000000001</v>
+        <v>0.660483</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.750194</v>
+        <v>0.7266359999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.666678</v>
+        <v>0.643567</v>
       </c>
       <c r="D7" t="n">
-        <v>0.663604</v>
+        <v>0.6607150000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.72376</v>
+        <v>0.71489</v>
       </c>
       <c r="C8" t="n">
-        <v>0.643312</v>
+        <v>0.660647</v>
       </c>
       <c r="D8" t="n">
-        <v>0.683882</v>
+        <v>0.658259</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7337050000000001</v>
+        <v>0.730809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.67831</v>
+        <v>0.663167</v>
       </c>
       <c r="D9" t="n">
-        <v>0.672343</v>
+        <v>0.658452</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.765377</v>
+        <v>0.7295199999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.644373</v>
+        <v>0.632742</v>
       </c>
       <c r="D10" t="n">
-        <v>0.685604</v>
+        <v>0.650711</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.736259</v>
+        <v>0.733961</v>
       </c>
       <c r="C11" t="n">
-        <v>0.646908</v>
+        <v>0.63182</v>
       </c>
       <c r="D11" t="n">
-        <v>0.663075</v>
+        <v>0.651987</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.729637</v>
+        <v>0.746982</v>
       </c>
       <c r="C12" t="n">
-        <v>0.672462</v>
+        <v>0.654765</v>
       </c>
       <c r="D12" t="n">
-        <v>0.669915</v>
+        <v>0.660651</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.743629</v>
+        <v>0.741211</v>
       </c>
       <c r="C13" t="n">
-        <v>0.641093</v>
+        <v>0.652401</v>
       </c>
       <c r="D13" t="n">
-        <v>0.653672</v>
+        <v>0.6550280000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.725882</v>
+        <v>0.7368479999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.647497</v>
+        <v>0.65879</v>
       </c>
       <c r="D14" t="n">
-        <v>0.657706</v>
+        <v>0.659915</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.722747</v>
+        <v>0.750401</v>
       </c>
       <c r="C15" t="n">
-        <v>0.657212</v>
+        <v>0.654704</v>
       </c>
       <c r="D15" t="n">
-        <v>0.684316</v>
+        <v>0.681701</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.738052</v>
+        <v>0.7466</v>
       </c>
       <c r="C16" t="n">
-        <v>0.659995</v>
+        <v>0.655244</v>
       </c>
       <c r="D16" t="n">
-        <v>0.655023</v>
+        <v>0.647328</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.75903</v>
+        <v>0.768373</v>
       </c>
       <c r="C17" t="n">
-        <v>0.671125</v>
+        <v>0.659852</v>
       </c>
       <c r="D17" t="n">
-        <v>0.660728</v>
+        <v>0.661347</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.733428</v>
+        <v>0.76545</v>
       </c>
       <c r="C18" t="n">
-        <v>0.64457</v>
+        <v>0.664215</v>
       </c>
       <c r="D18" t="n">
-        <v>0.663552</v>
+        <v>0.653006</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.762792</v>
+        <v>0.777691</v>
       </c>
       <c r="C19" t="n">
-        <v>0.658309</v>
+        <v>0.659131</v>
       </c>
       <c r="D19" t="n">
-        <v>0.681603</v>
+        <v>0.662475</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.728951</v>
+        <v>0.776885</v>
       </c>
       <c r="C20" t="n">
-        <v>0.653816</v>
+        <v>0.663838</v>
       </c>
       <c r="D20" t="n">
-        <v>0.67418</v>
+        <v>0.667959</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.763452</v>
+        <v>0.748229</v>
       </c>
       <c r="C21" t="n">
-        <v>0.649462</v>
+        <v>0.6574410000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.660489</v>
+        <v>0.6567229999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.738919</v>
+        <v>0.767875</v>
       </c>
       <c r="C22" t="n">
-        <v>0.646618</v>
+        <v>0.652876</v>
       </c>
       <c r="D22" t="n">
-        <v>0.66956</v>
+        <v>0.656168</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7711519999999999</v>
+        <v>0.748667</v>
       </c>
       <c r="C23" t="n">
-        <v>0.654784</v>
+        <v>0.650726</v>
       </c>
       <c r="D23" t="n">
-        <v>0.681155</v>
+        <v>0.674448</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.790272</v>
+        <v>0.782237</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6853359999999999</v>
+        <v>0.651623</v>
       </c>
       <c r="D24" t="n">
-        <v>0.690204</v>
+        <v>0.687558</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.801137</v>
+        <v>0.7894679999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.665199</v>
+        <v>0.663813</v>
       </c>
       <c r="D25" t="n">
-        <v>0.672704</v>
+        <v>0.701841</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.769648</v>
+        <v>0.7876840000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.663224</v>
+        <v>0.656551</v>
       </c>
       <c r="D26" t="n">
-        <v>0.683261</v>
+        <v>0.668777</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.776403</v>
+        <v>0.778085</v>
       </c>
       <c r="C27" t="n">
-        <v>0.664927</v>
+        <v>0.661206</v>
       </c>
       <c r="D27" t="n">
-        <v>0.696008</v>
+        <v>0.679393</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.773306</v>
+        <v>0.770483</v>
       </c>
       <c r="C28" t="n">
-        <v>0.682921</v>
+        <v>0.675406</v>
       </c>
       <c r="D28" t="n">
-        <v>0.688035</v>
+        <v>0.69317</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.773295</v>
+        <v>0.776027</v>
       </c>
       <c r="C29" t="n">
-        <v>0.669641</v>
+        <v>0.672937</v>
       </c>
       <c r="D29" t="n">
-        <v>0.683982</v>
+        <v>0.674771</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.769635</v>
+        <v>0.775576</v>
       </c>
       <c r="C30" t="n">
-        <v>0.668505</v>
+        <v>0.672137</v>
       </c>
       <c r="D30" t="n">
-        <v>0.695153</v>
+        <v>0.689463</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.818204</v>
+        <v>0.780246</v>
       </c>
       <c r="C31" t="n">
-        <v>0.692922</v>
+        <v>0.6676879999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.687351</v>
+        <v>0.6893820000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7860819999999999</v>
+        <v>0.771461</v>
       </c>
       <c r="C32" t="n">
-        <v>0.670327</v>
+        <v>0.676973</v>
       </c>
       <c r="D32" t="n">
-        <v>0.674544</v>
+        <v>0.679514</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.771516</v>
+        <v>0.773981</v>
       </c>
       <c r="C33" t="n">
-        <v>0.664548</v>
+        <v>0.675102</v>
       </c>
       <c r="D33" t="n">
-        <v>0.674115</v>
+        <v>0.70364</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.788339</v>
+        <v>0.797704</v>
       </c>
       <c r="C34" t="n">
-        <v>0.669532</v>
+        <v>0.67754</v>
       </c>
       <c r="D34" t="n">
-        <v>0.698515</v>
+        <v>0.67306</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.778525</v>
+        <v>0.772519</v>
       </c>
       <c r="C35" t="n">
-        <v>0.683359</v>
+        <v>0.682337</v>
       </c>
       <c r="D35" t="n">
-        <v>0.709728</v>
+        <v>0.688982</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.773783</v>
+        <v>0.7822249999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.69706</v>
+        <v>0.685436</v>
       </c>
       <c r="D36" t="n">
-        <v>0.682104</v>
+        <v>0.69063</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7929580000000001</v>
+        <v>0.799773</v>
       </c>
       <c r="C37" t="n">
-        <v>0.688789</v>
+        <v>0.693057</v>
       </c>
       <c r="D37" t="n">
-        <v>0.695291</v>
+        <v>0.689317</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.832288</v>
+        <v>0.787419</v>
       </c>
       <c r="C38" t="n">
-        <v>0.674052</v>
+        <v>0.6712050000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.712737</v>
+        <v>0.712235</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.819864</v>
+        <v>0.808461</v>
       </c>
       <c r="C39" t="n">
-        <v>0.692442</v>
+        <v>0.681033</v>
       </c>
       <c r="D39" t="n">
-        <v>0.705491</v>
+        <v>0.68607</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.821438</v>
+        <v>0.795658</v>
       </c>
       <c r="C40" t="n">
-        <v>0.699011</v>
+        <v>0.675075</v>
       </c>
       <c r="D40" t="n">
-        <v>0.728644</v>
+        <v>0.707584</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.798531</v>
+        <v>0.802207</v>
       </c>
       <c r="C41" t="n">
-        <v>0.700549</v>
+        <v>0.683084</v>
       </c>
       <c r="D41" t="n">
-        <v>0.693792</v>
+        <v>0.718851</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.837186</v>
+        <v>0.802887</v>
       </c>
       <c r="C42" t="n">
-        <v>0.719482</v>
+        <v>0.711292</v>
       </c>
       <c r="D42" t="n">
-        <v>0.713934</v>
+        <v>0.685105</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.813485</v>
+        <v>0.812171</v>
       </c>
       <c r="C43" t="n">
-        <v>0.718161</v>
+        <v>0.684918</v>
       </c>
       <c r="D43" t="n">
-        <v>0.729943</v>
+        <v>0.697986</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8485470000000001</v>
+        <v>0.812735</v>
       </c>
       <c r="C44" t="n">
-        <v>0.711558</v>
+        <v>0.710306</v>
       </c>
       <c r="D44" t="n">
-        <v>0.707532</v>
+        <v>0.696918</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.812414</v>
+        <v>0.8088610000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.695725</v>
+        <v>0.6738730000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.721149</v>
+        <v>0.6898069999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.799468</v>
+        <v>0.803546</v>
       </c>
       <c r="C46" t="n">
-        <v>0.678872</v>
+        <v>0.7224080000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.699335</v>
+        <v>0.701399</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.821038</v>
+        <v>0.791139</v>
       </c>
       <c r="C47" t="n">
-        <v>0.706215</v>
+        <v>0.6985479999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.713309</v>
+        <v>0.714211</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.82873</v>
+        <v>0.803717</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7059299999999999</v>
+        <v>0.690227</v>
       </c>
       <c r="D48" t="n">
-        <v>0.695516</v>
+        <v>0.70664</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.835236</v>
+        <v>0.810115</v>
       </c>
       <c r="C49" t="n">
-        <v>0.69863</v>
+        <v>0.69641</v>
       </c>
       <c r="D49" t="n">
-        <v>0.747119</v>
+        <v>0.719651</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.814028</v>
+        <v>0.829521</v>
       </c>
       <c r="C50" t="n">
-        <v>0.696359</v>
+        <v>0.68869</v>
       </c>
       <c r="D50" t="n">
-        <v>0.717718</v>
+        <v>0.706643</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.82285</v>
+        <v>0.827269</v>
       </c>
       <c r="C51" t="n">
-        <v>0.697788</v>
+        <v>0.683377</v>
       </c>
       <c r="D51" t="n">
-        <v>0.756034</v>
+        <v>0.734235</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.844903</v>
+        <v>0.82977</v>
       </c>
       <c r="C52" t="n">
-        <v>0.730697</v>
+        <v>0.712059</v>
       </c>
       <c r="D52" t="n">
-        <v>0.749459</v>
+        <v>0.752093</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.893953</v>
+        <v>0.893295</v>
       </c>
       <c r="C53" t="n">
-        <v>0.727491</v>
+        <v>0.7582449999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.746347</v>
+        <v>0.758881</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.900142</v>
+        <v>0.875638</v>
       </c>
       <c r="C54" t="n">
-        <v>0.730393</v>
+        <v>0.728614</v>
       </c>
       <c r="D54" t="n">
-        <v>0.751873</v>
+        <v>0.740758</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.879506</v>
+        <v>0.869608</v>
       </c>
       <c r="C55" t="n">
-        <v>0.723791</v>
+        <v>0.736219</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7757849999999999</v>
+        <v>0.755874</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.901044</v>
+        <v>0.882734</v>
       </c>
       <c r="C56" t="n">
-        <v>0.729463</v>
+        <v>0.730535</v>
       </c>
       <c r="D56" t="n">
-        <v>0.761247</v>
+        <v>0.740565</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.91352</v>
+        <v>0.884848</v>
       </c>
       <c r="C57" t="n">
-        <v>0.757756</v>
+        <v>0.744888</v>
       </c>
       <c r="D57" t="n">
-        <v>0.752403</v>
+        <v>0.748838</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.887558</v>
+        <v>0.872901</v>
       </c>
       <c r="C58" t="n">
-        <v>0.742775</v>
+        <v>0.750325</v>
       </c>
       <c r="D58" t="n">
-        <v>0.745568</v>
+        <v>0.760355</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.90183</v>
+        <v>0.8613459999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.749969</v>
+        <v>0.721139</v>
       </c>
       <c r="D59" t="n">
-        <v>0.786562</v>
+        <v>0.733385</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9043600000000001</v>
+        <v>0.877436</v>
       </c>
       <c r="C60" t="n">
-        <v>0.746255</v>
+        <v>0.724256</v>
       </c>
       <c r="D60" t="n">
-        <v>0.774406</v>
+        <v>0.744266</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.918489</v>
+        <v>0.849565</v>
       </c>
       <c r="C61" t="n">
-        <v>0.751872</v>
+        <v>0.725075</v>
       </c>
       <c r="D61" t="n">
-        <v>0.758233</v>
+        <v>0.753653</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.899174</v>
+        <v>0.869302</v>
       </c>
       <c r="C62" t="n">
-        <v>0.744016</v>
+        <v>0.729524</v>
       </c>
       <c r="D62" t="n">
-        <v>0.768</v>
+        <v>0.75276</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.922086</v>
+        <v>0.874066</v>
       </c>
       <c r="C63" t="n">
-        <v>0.728373</v>
+        <v>0.735634</v>
       </c>
       <c r="D63" t="n">
-        <v>0.765232</v>
+        <v>0.782668</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.908013</v>
+        <v>0.893603</v>
       </c>
       <c r="C64" t="n">
-        <v>0.766873</v>
+        <v>0.744465</v>
       </c>
       <c r="D64" t="n">
-        <v>0.770622</v>
+        <v>0.755512</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.900904</v>
+        <v>0.868134</v>
       </c>
       <c r="C65" t="n">
-        <v>0.762233</v>
+        <v>0.734588</v>
       </c>
       <c r="D65" t="n">
-        <v>0.786992</v>
+        <v>0.7629089999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.899987</v>
+        <v>0.878649</v>
       </c>
       <c r="C66" t="n">
-        <v>0.775123</v>
+        <v>0.769736</v>
       </c>
       <c r="D66" t="n">
-        <v>0.893574</v>
+        <v>0.8780559999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.16999</v>
+        <v>1.07203</v>
       </c>
       <c r="C67" t="n">
-        <v>0.929129</v>
+        <v>0.870699</v>
       </c>
       <c r="D67" t="n">
-        <v>0.88234</v>
+        <v>0.903591</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.14968</v>
+        <v>1.05267</v>
       </c>
       <c r="C68" t="n">
-        <v>0.929616</v>
+        <v>0.881589</v>
       </c>
       <c r="D68" t="n">
-        <v>0.917453</v>
+        <v>0.855249</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.18192</v>
+        <v>1.1074</v>
       </c>
       <c r="C69" t="n">
-        <v>0.925389</v>
+        <v>0.879592</v>
       </c>
       <c r="D69" t="n">
-        <v>0.914207</v>
+        <v>0.860958</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.21431</v>
+        <v>1.09646</v>
       </c>
       <c r="C70" t="n">
-        <v>0.93091</v>
+        <v>0.8800750000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.912774</v>
+        <v>0.871561</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.17833</v>
+        <v>1.06631</v>
       </c>
       <c r="C71" t="n">
-        <v>0.932481</v>
+        <v>0.876548</v>
       </c>
       <c r="D71" t="n">
-        <v>0.90332</v>
+        <v>0.872069</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.13634</v>
+        <v>1.05128</v>
       </c>
       <c r="C72" t="n">
-        <v>0.916161</v>
+        <v>0.858808</v>
       </c>
       <c r="D72" t="n">
-        <v>0.924373</v>
+        <v>0.871555</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.17912</v>
+        <v>1.06275</v>
       </c>
       <c r="C73" t="n">
-        <v>0.912726</v>
+        <v>0.890298</v>
       </c>
       <c r="D73" t="n">
-        <v>0.891406</v>
+        <v>0.869191</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.12132</v>
+        <v>1.0655</v>
       </c>
       <c r="C74" t="n">
-        <v>0.891818</v>
+        <v>0.871961</v>
       </c>
       <c r="D74" t="n">
-        <v>0.927698</v>
+        <v>0.864964</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.17329</v>
+        <v>1.05433</v>
       </c>
       <c r="C75" t="n">
-        <v>0.92976</v>
+        <v>0.8629</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9186029999999999</v>
+        <v>0.873658</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.1527</v>
+        <v>1.0599</v>
       </c>
       <c r="C76" t="n">
-        <v>0.909706</v>
+        <v>0.910941</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9136030000000001</v>
+        <v>0.8789090000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.16607</v>
+        <v>1.06681</v>
       </c>
       <c r="C77" t="n">
-        <v>0.936693</v>
+        <v>0.868496</v>
       </c>
       <c r="D77" t="n">
-        <v>0.916809</v>
+        <v>0.88228</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.13042</v>
+        <v>1.06492</v>
       </c>
       <c r="C78" t="n">
-        <v>0.942276</v>
+        <v>0.8850980000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9204290000000001</v>
+        <v>0.885949</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.16781</v>
+        <v>1.03895</v>
       </c>
       <c r="C79" t="n">
-        <v>0.935638</v>
+        <v>0.885752</v>
       </c>
       <c r="D79" t="n">
-        <v>0.946815</v>
+        <v>0.866938</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.13534</v>
+        <v>1.07221</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9391890000000001</v>
+        <v>0.903116</v>
       </c>
       <c r="D80" t="n">
-        <v>1.26679</v>
+        <v>1.18643</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.51711</v>
+        <v>1.44036</v>
       </c>
       <c r="C81" t="n">
-        <v>1.24603</v>
+        <v>1.17136</v>
       </c>
       <c r="D81" t="n">
-        <v>1.27506</v>
+        <v>1.19024</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.48801</v>
+        <v>1.41144</v>
       </c>
       <c r="C82" t="n">
-        <v>1.26445</v>
+        <v>1.20862</v>
       </c>
       <c r="D82" t="n">
-        <v>1.2927</v>
+        <v>1.18117</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.51512</v>
+        <v>1.4521</v>
       </c>
       <c r="C83" t="n">
-        <v>1.24598</v>
+        <v>1.1978</v>
       </c>
       <c r="D83" t="n">
-        <v>1.29913</v>
+        <v>1.19985</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.54969</v>
+        <v>1.41818</v>
       </c>
       <c r="C84" t="n">
-        <v>1.31352</v>
+        <v>1.17339</v>
       </c>
       <c r="D84" t="n">
-        <v>1.29525</v>
+        <v>1.18647</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.51309</v>
+        <v>1.41516</v>
       </c>
       <c r="C85" t="n">
-        <v>1.27722</v>
+        <v>1.21631</v>
       </c>
       <c r="D85" t="n">
-        <v>1.23616</v>
+        <v>1.17929</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.51032</v>
+        <v>1.46304</v>
       </c>
       <c r="C86" t="n">
-        <v>1.24164</v>
+        <v>1.19058</v>
       </c>
       <c r="D86" t="n">
-        <v>1.25597</v>
+        <v>1.22736</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.48888</v>
+        <v>1.39492</v>
       </c>
       <c r="C87" t="n">
-        <v>1.28535</v>
+        <v>1.20869</v>
       </c>
       <c r="D87" t="n">
-        <v>1.28461</v>
+        <v>1.15101</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.52863</v>
+        <v>1.46843</v>
       </c>
       <c r="C88" t="n">
-        <v>1.31065</v>
+        <v>1.19215</v>
       </c>
       <c r="D88" t="n">
-        <v>1.30123</v>
+        <v>1.16053</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.54059</v>
+        <v>1.39483</v>
       </c>
       <c r="C89" t="n">
-        <v>1.21006</v>
+        <v>1.20357</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26333</v>
+        <v>1.19923</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.50513</v>
+        <v>1.47851</v>
       </c>
       <c r="C90" t="n">
-        <v>1.30461</v>
+        <v>1.19062</v>
       </c>
       <c r="D90" t="n">
-        <v>1.28015</v>
+        <v>1.19925</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.54136</v>
+        <v>1.47904</v>
       </c>
       <c r="C91" t="n">
-        <v>1.28646</v>
+        <v>1.1968</v>
       </c>
       <c r="D91" t="n">
-        <v>1.29198</v>
+        <v>1.26505</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.53758</v>
+        <v>1.42282</v>
       </c>
       <c r="C92" t="n">
-        <v>1.24319</v>
+        <v>1.2556</v>
       </c>
       <c r="D92" t="n">
-        <v>1.27468</v>
+        <v>1.17001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.46229</v>
+        <v>1.41493</v>
       </c>
       <c r="C93" t="n">
-        <v>1.2748</v>
+        <v>1.23983</v>
       </c>
       <c r="D93" t="n">
-        <v>1.22873</v>
+        <v>1.22139</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.51011</v>
+        <v>1.47992</v>
       </c>
       <c r="C94" t="n">
-        <v>1.27741</v>
+        <v>1.19702</v>
       </c>
       <c r="D94" t="n">
-        <v>1.56403</v>
+        <v>1.51764</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.8425</v>
+        <v>1.74983</v>
       </c>
       <c r="C95" t="n">
-        <v>1.52353</v>
+        <v>1.5192</v>
       </c>
       <c r="D95" t="n">
-        <v>1.55024</v>
+        <v>1.56337</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.80898</v>
+        <v>1.74895</v>
       </c>
       <c r="C96" t="n">
-        <v>1.58053</v>
+        <v>1.5269</v>
       </c>
       <c r="D96" t="n">
-        <v>1.58026</v>
+        <v>1.57145</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.81611</v>
+        <v>1.74095</v>
       </c>
       <c r="C97" t="n">
-        <v>1.53091</v>
+        <v>1.56356</v>
       </c>
       <c r="D97" t="n">
-        <v>1.58634</v>
+        <v>1.57726</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.81752</v>
+        <v>1.76295</v>
       </c>
       <c r="C98" t="n">
-        <v>1.56194</v>
+        <v>1.55148</v>
       </c>
       <c r="D98" t="n">
-        <v>1.62026</v>
+        <v>1.55014</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.83112</v>
+        <v>1.75724</v>
       </c>
       <c r="C99" t="n">
-        <v>1.53165</v>
+        <v>1.56117</v>
       </c>
       <c r="D99" t="n">
-        <v>1.57662</v>
+        <v>1.55875</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.79263</v>
+        <v>1.79135</v>
       </c>
       <c r="C100" t="n">
-        <v>1.57088</v>
+        <v>1.49355</v>
       </c>
       <c r="D100" t="n">
-        <v>1.5997</v>
+        <v>1.56226</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.81592</v>
+        <v>1.77344</v>
       </c>
       <c r="C101" t="n">
-        <v>1.58427</v>
+        <v>1.54803</v>
       </c>
       <c r="D101" t="n">
-        <v>1.63576</v>
+        <v>1.56364</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.85104</v>
+        <v>1.76242</v>
       </c>
       <c r="C102" t="n">
-        <v>1.54971</v>
+        <v>1.54118</v>
       </c>
       <c r="D102" t="n">
-        <v>1.60929</v>
+        <v>1.56491</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.83685</v>
+        <v>1.74696</v>
       </c>
       <c r="C103" t="n">
-        <v>1.56669</v>
+        <v>1.54248</v>
       </c>
       <c r="D103" t="n">
-        <v>1.61732</v>
+        <v>1.57937</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.85988</v>
+        <v>1.74789</v>
       </c>
       <c r="C104" t="n">
-        <v>1.55915</v>
+        <v>1.55401</v>
       </c>
       <c r="D104" t="n">
-        <v>1.60759</v>
+        <v>1.53527</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.79729</v>
+        <v>1.77425</v>
       </c>
       <c r="C105" t="n">
-        <v>1.61179</v>
+        <v>1.5694</v>
       </c>
       <c r="D105" t="n">
-        <v>1.59092</v>
+        <v>1.55977</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.77902</v>
+        <v>1.77679</v>
       </c>
       <c r="C106" t="n">
-        <v>1.5417</v>
+        <v>1.58275</v>
       </c>
       <c r="D106" t="n">
-        <v>1.57479</v>
+        <v>1.60439</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.84041</v>
+        <v>1.7592</v>
       </c>
       <c r="C107" t="n">
-        <v>1.62333</v>
+        <v>1.54975</v>
       </c>
       <c r="D107" t="n">
-        <v>1.6336</v>
+        <v>1.57231</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.82253</v>
+        <v>1.80654</v>
       </c>
       <c r="C108" t="n">
-        <v>1.57805</v>
+        <v>1.58208</v>
       </c>
       <c r="D108" t="n">
-        <v>1.76623</v>
+        <v>1.73811</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.77807</v>
+        <v>1.79897</v>
       </c>
       <c r="C109" t="n">
-        <v>1.58045</v>
+        <v>1.58912</v>
       </c>
       <c r="D109" t="n">
-        <v>1.75931</v>
+        <v>1.74163</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.16117</v>
+        <v>2.15511</v>
       </c>
       <c r="C110" t="n">
-        <v>1.74027</v>
+        <v>1.69723</v>
       </c>
       <c r="D110" t="n">
-        <v>1.79208</v>
+        <v>1.76274</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.20673</v>
+        <v>2.15694</v>
       </c>
       <c r="C111" t="n">
-        <v>1.72181</v>
+        <v>1.75312</v>
       </c>
       <c r="D111" t="n">
-        <v>1.78294</v>
+        <v>1.8099</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.15879</v>
+        <v>2.14313</v>
       </c>
       <c r="C112" t="n">
-        <v>1.74706</v>
+        <v>1.71524</v>
       </c>
       <c r="D112" t="n">
-        <v>1.80114</v>
+        <v>1.7441</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.19369</v>
+        <v>2.14584</v>
       </c>
       <c r="C113" t="n">
-        <v>1.73317</v>
+        <v>1.71795</v>
       </c>
       <c r="D113" t="n">
-        <v>1.82277</v>
+        <v>1.76589</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.16835</v>
+        <v>2.1609</v>
       </c>
       <c r="C114" t="n">
-        <v>1.71414</v>
+        <v>1.72841</v>
       </c>
       <c r="D114" t="n">
-        <v>1.79288</v>
+        <v>1.79815</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.17112</v>
+        <v>2.14797</v>
       </c>
       <c r="C115" t="n">
-        <v>1.71152</v>
+        <v>1.71793</v>
       </c>
       <c r="D115" t="n">
-        <v>1.78064</v>
+        <v>1.79533</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.18211</v>
+        <v>2.10601</v>
       </c>
       <c r="C116" t="n">
-        <v>1.74444</v>
+        <v>1.7543</v>
       </c>
       <c r="D116" t="n">
-        <v>1.79868</v>
+        <v>1.82696</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.169</v>
+        <v>2.11744</v>
       </c>
       <c r="C117" t="n">
-        <v>1.75018</v>
+        <v>1.74872</v>
       </c>
       <c r="D117" t="n">
-        <v>1.79786</v>
+        <v>1.79355</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.17139</v>
+        <v>2.14829</v>
       </c>
       <c r="C118" t="n">
-        <v>1.74821</v>
+        <v>1.75608</v>
       </c>
       <c r="D118" t="n">
-        <v>1.79765</v>
+        <v>1.81186</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.14095</v>
+        <v>2.16356</v>
       </c>
       <c r="C119" t="n">
-        <v>1.73877</v>
+        <v>1.75949</v>
       </c>
       <c r="D119" t="n">
-        <v>1.81945</v>
+        <v>1.82035</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>2.1707</v>
+        <v>2.15562</v>
       </c>
       <c r="C120" t="n">
-        <v>1.79106</v>
+        <v>1.76425</v>
       </c>
       <c r="D120" t="n">
-        <v>1.84084</v>
+        <v>1.8207</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>2.11815</v>
+        <v>2.13176</v>
       </c>
       <c r="C121" t="n">
-        <v>1.79133</v>
+        <v>1.8035</v>
       </c>
       <c r="D121" t="n">
-        <v>1.81687</v>
+        <v>1.82031</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>2.17111</v>
+        <v>2.16891</v>
       </c>
       <c r="C122" t="n">
-        <v>1.79554</v>
+        <v>1.79661</v>
       </c>
       <c r="D122" t="n">
-        <v>1.87287</v>
+        <v>1.84601</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>2.17651</v>
+        <v>2.14513</v>
       </c>
       <c r="C123" t="n">
-        <v>1.81449</v>
+        <v>1.83294</v>
       </c>
       <c r="D123" t="n">
-        <v>1.91163</v>
+        <v>1.95161</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.51665</v>
+        <v>2.53132</v>
       </c>
       <c r="C124" t="n">
-        <v>1.90037</v>
+        <v>1.84071</v>
       </c>
       <c r="D124" t="n">
-        <v>1.93461</v>
+        <v>1.92548</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.51706</v>
+        <v>2.54615</v>
       </c>
       <c r="C125" t="n">
-        <v>1.8695</v>
+        <v>1.85956</v>
       </c>
       <c r="D125" t="n">
-        <v>1.92937</v>
+        <v>1.94728</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.54401</v>
+        <v>2.50905</v>
       </c>
       <c r="C126" t="n">
-        <v>1.88033</v>
+        <v>1.8564</v>
       </c>
       <c r="D126" t="n">
-        <v>1.97736</v>
+        <v>1.94592</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.5477</v>
+        <v>2.50273</v>
       </c>
       <c r="C127" t="n">
-        <v>1.91399</v>
+        <v>1.90555</v>
       </c>
       <c r="D127" t="n">
-        <v>1.96496</v>
+        <v>1.94107</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.50428</v>
+        <v>2.53899</v>
       </c>
       <c r="C128" t="n">
-        <v>1.88854</v>
+        <v>1.91568</v>
       </c>
       <c r="D128" t="n">
-        <v>1.98269</v>
+        <v>1.96368</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.54235</v>
+        <v>2.53509</v>
       </c>
       <c r="C129" t="n">
-        <v>1.87769</v>
+        <v>1.89504</v>
       </c>
       <c r="D129" t="n">
-        <v>1.97344</v>
+        <v>1.9508</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.50889</v>
+        <v>2.53793</v>
       </c>
       <c r="C130" t="n">
-        <v>1.94761</v>
+        <v>1.88245</v>
       </c>
       <c r="D130" t="n">
-        <v>1.97661</v>
+        <v>1.95771</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.55405</v>
+        <v>2.53064</v>
       </c>
       <c r="C131" t="n">
-        <v>1.95927</v>
+        <v>1.92794</v>
       </c>
       <c r="D131" t="n">
-        <v>1.98925</v>
+        <v>1.97751</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.5428</v>
+        <v>2.48798</v>
       </c>
       <c r="C132" t="n">
-        <v>1.93787</v>
+        <v>1.91465</v>
       </c>
       <c r="D132" t="n">
-        <v>2.01378</v>
+        <v>1.99024</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.51612</v>
+        <v>2.54107</v>
       </c>
       <c r="C133" t="n">
-        <v>1.95057</v>
+        <v>1.89146</v>
       </c>
       <c r="D133" t="n">
-        <v>2.01379</v>
+        <v>1.98211</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.53504</v>
+        <v>2.53904</v>
       </c>
       <c r="C134" t="n">
-        <v>1.97537</v>
+        <v>1.92512</v>
       </c>
       <c r="D134" t="n">
-        <v>2.00767</v>
+        <v>2.01838</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.52589</v>
+        <v>2.54564</v>
       </c>
       <c r="C135" t="n">
-        <v>1.99732</v>
+        <v>1.95164</v>
       </c>
       <c r="D135" t="n">
-        <v>2.09493</v>
+        <v>2.00438</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.70238</v>
+        <v>2.54277</v>
       </c>
       <c r="C136" t="n">
-        <v>1.93379</v>
+        <v>1.9603</v>
       </c>
       <c r="D136" t="n">
-        <v>2.03616</v>
+        <v>2.02711</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.52946</v>
+        <v>2.53708</v>
       </c>
       <c r="C137" t="n">
-        <v>1.97882</v>
+        <v>1.96904</v>
       </c>
       <c r="D137" t="n">
-        <v>2.0977</v>
+        <v>2.07422</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.8655</v>
+        <v>2.80822</v>
       </c>
       <c r="C138" t="n">
-        <v>2.03868</v>
+        <v>2.03502</v>
       </c>
       <c r="D138" t="n">
-        <v>2.09202</v>
+        <v>2.08974</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.85241</v>
+        <v>2.87676</v>
       </c>
       <c r="C139" t="n">
-        <v>2.05976</v>
+        <v>2.05677</v>
       </c>
       <c r="D139" t="n">
-        <v>2.1503</v>
+        <v>2.11118</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.86908</v>
+        <v>2.83525</v>
       </c>
       <c r="C140" t="n">
-        <v>2.0567</v>
+        <v>2.04877</v>
       </c>
       <c r="D140" t="n">
-        <v>2.12043</v>
+        <v>2.1067</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.86044</v>
+        <v>2.83679</v>
       </c>
       <c r="C141" t="n">
-        <v>2.08281</v>
+        <v>2.05172</v>
       </c>
       <c r="D141" t="n">
-        <v>2.11909</v>
+        <v>2.09729</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.84431</v>
+        <v>2.88015</v>
       </c>
       <c r="C142" t="n">
-        <v>2.07096</v>
+        <v>2.04176</v>
       </c>
       <c r="D142" t="n">
-        <v>2.1357</v>
+        <v>2.11141</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.90577</v>
+        <v>2.84559</v>
       </c>
       <c r="C143" t="n">
-        <v>2.08326</v>
+        <v>2.07633</v>
       </c>
       <c r="D143" t="n">
-        <v>2.2172</v>
+        <v>2.12832</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.747298</v>
+        <v>0.7468939999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.639745</v>
+        <v>0.663053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.670158</v>
+        <v>0.676335</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.744318</v>
+        <v>0.738918</v>
       </c>
       <c r="C3" t="n">
-        <v>0.644741</v>
+        <v>0.672131</v>
       </c>
       <c r="D3" t="n">
-        <v>0.660817</v>
+        <v>0.658666</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.721512</v>
+        <v>0.745909</v>
       </c>
       <c r="C4" t="n">
-        <v>0.63746</v>
+        <v>0.673517</v>
       </c>
       <c r="D4" t="n">
-        <v>0.664585</v>
+        <v>0.679074</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.720361</v>
+        <v>0.76231</v>
       </c>
       <c r="C5" t="n">
-        <v>0.629342</v>
+        <v>0.669534</v>
       </c>
       <c r="D5" t="n">
-        <v>0.659791</v>
+        <v>0.681706</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.725025</v>
+        <v>0.765292</v>
       </c>
       <c r="C6" t="n">
-        <v>0.646423</v>
+        <v>0.673084</v>
       </c>
       <c r="D6" t="n">
-        <v>0.660483</v>
+        <v>0.661399</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7266359999999999</v>
+        <v>0.739824</v>
       </c>
       <c r="C7" t="n">
-        <v>0.643567</v>
+        <v>0.681809</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6607150000000001</v>
+        <v>0.657886</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.71489</v>
+        <v>0.708639</v>
       </c>
       <c r="C8" t="n">
-        <v>0.660647</v>
+        <v>0.669086</v>
       </c>
       <c r="D8" t="n">
-        <v>0.658259</v>
+        <v>0.674641</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.730809</v>
+        <v>0.7492</v>
       </c>
       <c r="C9" t="n">
-        <v>0.663167</v>
+        <v>0.667228</v>
       </c>
       <c r="D9" t="n">
-        <v>0.658452</v>
+        <v>0.6848379999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7295199999999999</v>
+        <v>0.783432</v>
       </c>
       <c r="C10" t="n">
-        <v>0.632742</v>
+        <v>0.682976</v>
       </c>
       <c r="D10" t="n">
-        <v>0.650711</v>
+        <v>0.678637</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.733961</v>
+        <v>0.765353</v>
       </c>
       <c r="C11" t="n">
-        <v>0.63182</v>
+        <v>0.676766</v>
       </c>
       <c r="D11" t="n">
-        <v>0.651987</v>
+        <v>0.687348</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.746982</v>
+        <v>0.744999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.654765</v>
+        <v>0.675898</v>
       </c>
       <c r="D12" t="n">
-        <v>0.660651</v>
+        <v>0.668793</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.741211</v>
+        <v>0.742304</v>
       </c>
       <c r="C13" t="n">
-        <v>0.652401</v>
+        <v>0.6370479999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6550280000000001</v>
+        <v>0.680266</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7368479999999999</v>
+        <v>0.754146</v>
       </c>
       <c r="C14" t="n">
-        <v>0.65879</v>
+        <v>0.640429</v>
       </c>
       <c r="D14" t="n">
-        <v>0.659915</v>
+        <v>0.676721</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.750401</v>
+        <v>0.77573</v>
       </c>
       <c r="C15" t="n">
-        <v>0.654704</v>
+        <v>0.657151</v>
       </c>
       <c r="D15" t="n">
-        <v>0.681701</v>
+        <v>0.654856</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7466</v>
+        <v>0.7585229999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.655244</v>
+        <v>0.654938</v>
       </c>
       <c r="D16" t="n">
-        <v>0.647328</v>
+        <v>0.665365</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.768373</v>
+        <v>0.716867</v>
       </c>
       <c r="C17" t="n">
-        <v>0.659852</v>
+        <v>0.654661</v>
       </c>
       <c r="D17" t="n">
-        <v>0.661347</v>
+        <v>0.654532</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.76545</v>
+        <v>0.741776</v>
       </c>
       <c r="C18" t="n">
-        <v>0.664215</v>
+        <v>0.653521</v>
       </c>
       <c r="D18" t="n">
-        <v>0.653006</v>
+        <v>0.676771</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.777691</v>
+        <v>0.762482</v>
       </c>
       <c r="C19" t="n">
-        <v>0.659131</v>
+        <v>0.646527</v>
       </c>
       <c r="D19" t="n">
-        <v>0.662475</v>
+        <v>0.67143</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.776885</v>
+        <v>0.739619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.663838</v>
+        <v>0.6511169999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.667959</v>
+        <v>0.679402</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.748229</v>
+        <v>0.74578</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6574410000000001</v>
+        <v>0.661841</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6567229999999999</v>
+        <v>0.675144</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.767875</v>
+        <v>0.745939</v>
       </c>
       <c r="C22" t="n">
-        <v>0.652876</v>
+        <v>0.646949</v>
       </c>
       <c r="D22" t="n">
-        <v>0.656168</v>
+        <v>0.681216</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.748667</v>
+        <v>0.784893</v>
       </c>
       <c r="C23" t="n">
-        <v>0.650726</v>
+        <v>0.653132</v>
       </c>
       <c r="D23" t="n">
-        <v>0.674448</v>
+        <v>0.6871969999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.782237</v>
+        <v>0.778451</v>
       </c>
       <c r="C24" t="n">
-        <v>0.651623</v>
+        <v>0.661029</v>
       </c>
       <c r="D24" t="n">
-        <v>0.687558</v>
+        <v>0.667461</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7894679999999999</v>
+        <v>0.800574</v>
       </c>
       <c r="C25" t="n">
-        <v>0.663813</v>
+        <v>0.67509</v>
       </c>
       <c r="D25" t="n">
-        <v>0.701841</v>
+        <v>0.675513</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7876840000000001</v>
+        <v>0.773173</v>
       </c>
       <c r="C26" t="n">
-        <v>0.656551</v>
+        <v>0.668118</v>
       </c>
       <c r="D26" t="n">
-        <v>0.668777</v>
+        <v>0.684553</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.778085</v>
+        <v>0.7735069999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.661206</v>
+        <v>0.673827</v>
       </c>
       <c r="D27" t="n">
-        <v>0.679393</v>
+        <v>0.672284</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.770483</v>
+        <v>0.766936</v>
       </c>
       <c r="C28" t="n">
-        <v>0.675406</v>
+        <v>0.667376</v>
       </c>
       <c r="D28" t="n">
-        <v>0.69317</v>
+        <v>0.6689889999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.776027</v>
+        <v>0.790797</v>
       </c>
       <c r="C29" t="n">
-        <v>0.672937</v>
+        <v>0.674615</v>
       </c>
       <c r="D29" t="n">
-        <v>0.674771</v>
+        <v>0.690636</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.775576</v>
+        <v>0.79122</v>
       </c>
       <c r="C30" t="n">
-        <v>0.672137</v>
+        <v>0.702299</v>
       </c>
       <c r="D30" t="n">
-        <v>0.689463</v>
+        <v>0.679806</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.780246</v>
+        <v>0.776857</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6676879999999999</v>
+        <v>0.660172</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6893820000000001</v>
+        <v>0.6791970000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.771461</v>
+        <v>0.767541</v>
       </c>
       <c r="C32" t="n">
-        <v>0.676973</v>
+        <v>0.686184</v>
       </c>
       <c r="D32" t="n">
-        <v>0.679514</v>
+        <v>0.675594</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.773981</v>
+        <v>0.795627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.675102</v>
+        <v>0.6731</v>
       </c>
       <c r="D33" t="n">
-        <v>0.70364</v>
+        <v>0.681276</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.797704</v>
+        <v>0.775799</v>
       </c>
       <c r="C34" t="n">
-        <v>0.67754</v>
+        <v>0.676709</v>
       </c>
       <c r="D34" t="n">
-        <v>0.67306</v>
+        <v>0.680644</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.772519</v>
+        <v>0.780257</v>
       </c>
       <c r="C35" t="n">
-        <v>0.682337</v>
+        <v>0.6977680000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.688982</v>
+        <v>0.69025</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7822249999999999</v>
+        <v>0.779814</v>
       </c>
       <c r="C36" t="n">
-        <v>0.685436</v>
+        <v>0.670174</v>
       </c>
       <c r="D36" t="n">
-        <v>0.69063</v>
+        <v>0.686129</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.799773</v>
+        <v>0.8013209999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.693057</v>
+        <v>0.715292</v>
       </c>
       <c r="D37" t="n">
-        <v>0.689317</v>
+        <v>0.715046</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.787419</v>
+        <v>0.803956</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6712050000000001</v>
+        <v>0.672354</v>
       </c>
       <c r="D38" t="n">
-        <v>0.712235</v>
+        <v>0.7021579999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.808461</v>
+        <v>0.807239</v>
       </c>
       <c r="C39" t="n">
-        <v>0.681033</v>
+        <v>0.690003</v>
       </c>
       <c r="D39" t="n">
-        <v>0.68607</v>
+        <v>0.684364</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.795658</v>
+        <v>0.813932</v>
       </c>
       <c r="C40" t="n">
-        <v>0.675075</v>
+        <v>0.683961</v>
       </c>
       <c r="D40" t="n">
-        <v>0.707584</v>
+        <v>0.711347</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.802207</v>
+        <v>0.822861</v>
       </c>
       <c r="C41" t="n">
-        <v>0.683084</v>
+        <v>0.680163</v>
       </c>
       <c r="D41" t="n">
-        <v>0.718851</v>
+        <v>0.698036</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.802887</v>
+        <v>0.800641</v>
       </c>
       <c r="C42" t="n">
-        <v>0.711292</v>
+        <v>0.698968</v>
       </c>
       <c r="D42" t="n">
-        <v>0.685105</v>
+        <v>0.708376</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.812171</v>
+        <v>0.812016</v>
       </c>
       <c r="C43" t="n">
-        <v>0.684918</v>
+        <v>0.694414</v>
       </c>
       <c r="D43" t="n">
-        <v>0.697986</v>
+        <v>0.697231</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.812735</v>
+        <v>0.817487</v>
       </c>
       <c r="C44" t="n">
-        <v>0.710306</v>
+        <v>0.688875</v>
       </c>
       <c r="D44" t="n">
-        <v>0.696918</v>
+        <v>0.702371</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8088610000000001</v>
+        <v>0.7996799999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6738730000000001</v>
+        <v>0.681335</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6898069999999999</v>
+        <v>0.702921</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.803546</v>
+        <v>0.802963</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7224080000000001</v>
+        <v>0.692904</v>
       </c>
       <c r="D46" t="n">
-        <v>0.701399</v>
+        <v>0.719061</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.791139</v>
+        <v>0.815757</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6985479999999999</v>
+        <v>0.6865599999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.714211</v>
+        <v>0.703561</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.803717</v>
+        <v>0.819083</v>
       </c>
       <c r="C48" t="n">
-        <v>0.690227</v>
+        <v>0.684466</v>
       </c>
       <c r="D48" t="n">
-        <v>0.70664</v>
+        <v>0.719324</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.810115</v>
+        <v>0.808585</v>
       </c>
       <c r="C49" t="n">
-        <v>0.69641</v>
+        <v>0.71395</v>
       </c>
       <c r="D49" t="n">
-        <v>0.719651</v>
+        <v>0.726147</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.829521</v>
+        <v>0.820446</v>
       </c>
       <c r="C50" t="n">
-        <v>0.68869</v>
+        <v>0.706335</v>
       </c>
       <c r="D50" t="n">
-        <v>0.706643</v>
+        <v>0.710107</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.827269</v>
+        <v>0.829529</v>
       </c>
       <c r="C51" t="n">
-        <v>0.683377</v>
+        <v>0.704277</v>
       </c>
       <c r="D51" t="n">
-        <v>0.734235</v>
+        <v>0.748715</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.82977</v>
+        <v>0.830157</v>
       </c>
       <c r="C52" t="n">
-        <v>0.712059</v>
+        <v>0.728286</v>
       </c>
       <c r="D52" t="n">
-        <v>0.752093</v>
+        <v>0.739496</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.893295</v>
+        <v>0.876791</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7582449999999999</v>
+        <v>0.737865</v>
       </c>
       <c r="D53" t="n">
-        <v>0.758881</v>
+        <v>0.735124</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.875638</v>
+        <v>0.863077</v>
       </c>
       <c r="C54" t="n">
-        <v>0.728614</v>
+        <v>0.733746</v>
       </c>
       <c r="D54" t="n">
-        <v>0.740758</v>
+        <v>0.747641</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.869608</v>
+        <v>0.88239</v>
       </c>
       <c r="C55" t="n">
-        <v>0.736219</v>
+        <v>0.733585</v>
       </c>
       <c r="D55" t="n">
-        <v>0.755874</v>
+        <v>0.779601</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.882734</v>
+        <v>0.884088</v>
       </c>
       <c r="C56" t="n">
-        <v>0.730535</v>
+        <v>0.750351</v>
       </c>
       <c r="D56" t="n">
-        <v>0.740565</v>
+        <v>0.740897</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.884848</v>
+        <v>0.876211</v>
       </c>
       <c r="C57" t="n">
-        <v>0.744888</v>
+        <v>0.729301</v>
       </c>
       <c r="D57" t="n">
-        <v>0.748838</v>
+        <v>0.7513300000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.872901</v>
+        <v>0.8578519999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.750325</v>
+        <v>0.720262</v>
       </c>
       <c r="D58" t="n">
-        <v>0.760355</v>
+        <v>0.734222</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8613459999999999</v>
+        <v>0.892781</v>
       </c>
       <c r="C59" t="n">
-        <v>0.721139</v>
+        <v>0.741834</v>
       </c>
       <c r="D59" t="n">
-        <v>0.733385</v>
+        <v>0.762494</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.877436</v>
+        <v>0.8898740000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.724256</v>
+        <v>0.749123</v>
       </c>
       <c r="D60" t="n">
-        <v>0.744266</v>
+        <v>0.746743</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.849565</v>
+        <v>0.867071</v>
       </c>
       <c r="C61" t="n">
-        <v>0.725075</v>
+        <v>0.745959</v>
       </c>
       <c r="D61" t="n">
-        <v>0.753653</v>
+        <v>0.748631</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.869302</v>
+        <v>0.881578</v>
       </c>
       <c r="C62" t="n">
-        <v>0.729524</v>
+        <v>0.76128</v>
       </c>
       <c r="D62" t="n">
-        <v>0.75276</v>
+        <v>0.770382</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.874066</v>
+        <v>0.88576</v>
       </c>
       <c r="C63" t="n">
-        <v>0.735634</v>
+        <v>0.746407</v>
       </c>
       <c r="D63" t="n">
-        <v>0.782668</v>
+        <v>0.774242</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.893603</v>
+        <v>0.867835</v>
       </c>
       <c r="C64" t="n">
-        <v>0.744465</v>
+        <v>0.752924</v>
       </c>
       <c r="D64" t="n">
-        <v>0.755512</v>
+        <v>0.7766150000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.868134</v>
+        <v>0.880298</v>
       </c>
       <c r="C65" t="n">
-        <v>0.734588</v>
+        <v>0.7448</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7629089999999999</v>
+        <v>0.773242</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.878649</v>
+        <v>0.882167</v>
       </c>
       <c r="C66" t="n">
-        <v>0.769736</v>
+        <v>0.735764</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8780559999999999</v>
+        <v>0.858467</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.07203</v>
+        <v>1.08149</v>
       </c>
       <c r="C67" t="n">
-        <v>0.870699</v>
+        <v>0.874084</v>
       </c>
       <c r="D67" t="n">
-        <v>0.903591</v>
+        <v>0.875423</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.05267</v>
+        <v>1.08284</v>
       </c>
       <c r="C68" t="n">
-        <v>0.881589</v>
+        <v>0.885456</v>
       </c>
       <c r="D68" t="n">
-        <v>0.855249</v>
+        <v>0.8770210000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.1074</v>
+        <v>1.1185</v>
       </c>
       <c r="C69" t="n">
-        <v>0.879592</v>
+        <v>0.882028</v>
       </c>
       <c r="D69" t="n">
-        <v>0.860958</v>
+        <v>0.898788</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.09646</v>
+        <v>1.05906</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8800750000000001</v>
+        <v>0.867641</v>
       </c>
       <c r="D70" t="n">
-        <v>0.871561</v>
+        <v>0.880755</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.06631</v>
+        <v>1.06608</v>
       </c>
       <c r="C71" t="n">
-        <v>0.876548</v>
+        <v>0.886791</v>
       </c>
       <c r="D71" t="n">
-        <v>0.872069</v>
+        <v>0.873951</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.05128</v>
+        <v>1.08458</v>
       </c>
       <c r="C72" t="n">
-        <v>0.858808</v>
+        <v>0.876907</v>
       </c>
       <c r="D72" t="n">
-        <v>0.871555</v>
+        <v>0.875606</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.06275</v>
+        <v>1.06291</v>
       </c>
       <c r="C73" t="n">
-        <v>0.890298</v>
+        <v>0.86572</v>
       </c>
       <c r="D73" t="n">
-        <v>0.869191</v>
+        <v>0.884439</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.0655</v>
+        <v>1.06658</v>
       </c>
       <c r="C74" t="n">
-        <v>0.871961</v>
+        <v>0.898369</v>
       </c>
       <c r="D74" t="n">
-        <v>0.864964</v>
+        <v>0.8784729999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.05433</v>
+        <v>1.08648</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8629</v>
+        <v>0.89379</v>
       </c>
       <c r="D75" t="n">
-        <v>0.873658</v>
+        <v>0.873004</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.0599</v>
+        <v>1.11125</v>
       </c>
       <c r="C76" t="n">
-        <v>0.910941</v>
+        <v>0.885334</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8789090000000001</v>
+        <v>0.905622</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.06681</v>
+        <v>1.07168</v>
       </c>
       <c r="C77" t="n">
-        <v>0.868496</v>
+        <v>0.939975</v>
       </c>
       <c r="D77" t="n">
-        <v>0.88228</v>
+        <v>0.921824</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.06492</v>
+        <v>1.06822</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8850980000000001</v>
+        <v>0.877852</v>
       </c>
       <c r="D78" t="n">
-        <v>0.885949</v>
+        <v>0.888344</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.03895</v>
+        <v>1.05228</v>
       </c>
       <c r="C79" t="n">
-        <v>0.885752</v>
+        <v>0.880464</v>
       </c>
       <c r="D79" t="n">
-        <v>0.866938</v>
+        <v>0.892165</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.07221</v>
+        <v>1.05243</v>
       </c>
       <c r="C80" t="n">
-        <v>0.903116</v>
+        <v>0.881623</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18643</v>
+        <v>1.24228</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.44036</v>
+        <v>1.4425</v>
       </c>
       <c r="C81" t="n">
-        <v>1.17136</v>
+        <v>1.18596</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19024</v>
+        <v>1.17173</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.41144</v>
+        <v>1.3817</v>
       </c>
       <c r="C82" t="n">
-        <v>1.20862</v>
+        <v>1.18795</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18117</v>
+        <v>1.15816</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.4521</v>
+        <v>1.41095</v>
       </c>
       <c r="C83" t="n">
-        <v>1.1978</v>
+        <v>1.18649</v>
       </c>
       <c r="D83" t="n">
-        <v>1.19985</v>
+        <v>1.17265</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.41818</v>
+        <v>1.39193</v>
       </c>
       <c r="C84" t="n">
-        <v>1.17339</v>
+        <v>1.23281</v>
       </c>
       <c r="D84" t="n">
-        <v>1.18647</v>
+        <v>1.17006</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.41516</v>
+        <v>1.39012</v>
       </c>
       <c r="C85" t="n">
-        <v>1.21631</v>
+        <v>1.19677</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17929</v>
+        <v>1.18352</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.46304</v>
+        <v>1.42106</v>
       </c>
       <c r="C86" t="n">
-        <v>1.19058</v>
+        <v>1.19115</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22736</v>
+        <v>1.15438</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.39492</v>
+        <v>1.39667</v>
       </c>
       <c r="C87" t="n">
-        <v>1.20869</v>
+        <v>1.16427</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15101</v>
+        <v>1.18181</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.46843</v>
+        <v>1.37643</v>
       </c>
       <c r="C88" t="n">
-        <v>1.19215</v>
+        <v>1.22676</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16053</v>
+        <v>1.22217</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.39483</v>
+        <v>1.46982</v>
       </c>
       <c r="C89" t="n">
-        <v>1.20357</v>
+        <v>1.23368</v>
       </c>
       <c r="D89" t="n">
-        <v>1.19923</v>
+        <v>1.23513</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.47851</v>
+        <v>1.42729</v>
       </c>
       <c r="C90" t="n">
-        <v>1.19062</v>
+        <v>1.21108</v>
       </c>
       <c r="D90" t="n">
-        <v>1.19925</v>
+        <v>1.15717</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.47904</v>
+        <v>1.37724</v>
       </c>
       <c r="C91" t="n">
-        <v>1.1968</v>
+        <v>1.21004</v>
       </c>
       <c r="D91" t="n">
-        <v>1.26505</v>
+        <v>1.22133</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.42282</v>
+        <v>1.38837</v>
       </c>
       <c r="C92" t="n">
-        <v>1.2556</v>
+        <v>1.20465</v>
       </c>
       <c r="D92" t="n">
-        <v>1.17001</v>
+        <v>1.23241</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.41493</v>
+        <v>1.38351</v>
       </c>
       <c r="C93" t="n">
-        <v>1.23983</v>
+        <v>1.25484</v>
       </c>
       <c r="D93" t="n">
-        <v>1.22139</v>
+        <v>1.24279</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.47992</v>
+        <v>1.42053</v>
       </c>
       <c r="C94" t="n">
-        <v>1.19702</v>
+        <v>1.24674</v>
       </c>
       <c r="D94" t="n">
-        <v>1.51764</v>
+        <v>1.53569</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.74983</v>
+        <v>1.77121</v>
       </c>
       <c r="C95" t="n">
-        <v>1.5192</v>
+        <v>1.55311</v>
       </c>
       <c r="D95" t="n">
-        <v>1.56337</v>
+        <v>1.54522</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.74895</v>
+        <v>1.75728</v>
       </c>
       <c r="C96" t="n">
-        <v>1.5269</v>
+        <v>1.53112</v>
       </c>
       <c r="D96" t="n">
-        <v>1.57145</v>
+        <v>1.56047</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.74095</v>
+        <v>1.77365</v>
       </c>
       <c r="C97" t="n">
-        <v>1.56356</v>
+        <v>1.54995</v>
       </c>
       <c r="D97" t="n">
-        <v>1.57726</v>
+        <v>1.54893</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.76295</v>
+        <v>1.79767</v>
       </c>
       <c r="C98" t="n">
-        <v>1.55148</v>
+        <v>1.54151</v>
       </c>
       <c r="D98" t="n">
-        <v>1.55014</v>
+        <v>1.55281</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.75724</v>
+        <v>1.80915</v>
       </c>
       <c r="C99" t="n">
-        <v>1.56117</v>
+        <v>1.5855</v>
       </c>
       <c r="D99" t="n">
-        <v>1.55875</v>
+        <v>1.58133</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.79135</v>
+        <v>1.7793</v>
       </c>
       <c r="C100" t="n">
-        <v>1.49355</v>
+        <v>1.54646</v>
       </c>
       <c r="D100" t="n">
-        <v>1.56226</v>
+        <v>1.57763</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.77344</v>
+        <v>1.79679</v>
       </c>
       <c r="C101" t="n">
-        <v>1.54803</v>
+        <v>1.53721</v>
       </c>
       <c r="D101" t="n">
-        <v>1.56364</v>
+        <v>1.55156</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.76242</v>
+        <v>1.76155</v>
       </c>
       <c r="C102" t="n">
-        <v>1.54118</v>
+        <v>1.55079</v>
       </c>
       <c r="D102" t="n">
-        <v>1.56491</v>
+        <v>1.56656</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.74696</v>
+        <v>1.73777</v>
       </c>
       <c r="C103" t="n">
-        <v>1.54248</v>
+        <v>1.53845</v>
       </c>
       <c r="D103" t="n">
-        <v>1.57937</v>
+        <v>1.54845</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.74789</v>
+        <v>1.79446</v>
       </c>
       <c r="C104" t="n">
-        <v>1.55401</v>
+        <v>1.57666</v>
       </c>
       <c r="D104" t="n">
-        <v>1.53527</v>
+        <v>1.58819</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.77425</v>
+        <v>1.80046</v>
       </c>
       <c r="C105" t="n">
-        <v>1.5694</v>
+        <v>1.57563</v>
       </c>
       <c r="D105" t="n">
-        <v>1.55977</v>
+        <v>1.62131</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.77679</v>
+        <v>1.77759</v>
       </c>
       <c r="C106" t="n">
-        <v>1.58275</v>
+        <v>1.55669</v>
       </c>
       <c r="D106" t="n">
-        <v>1.60439</v>
+        <v>1.54427</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.7592</v>
+        <v>1.76651</v>
       </c>
       <c r="C107" t="n">
-        <v>1.54975</v>
+        <v>1.53337</v>
       </c>
       <c r="D107" t="n">
-        <v>1.57231</v>
+        <v>1.5596</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.80654</v>
+        <v>1.79379</v>
       </c>
       <c r="C108" t="n">
-        <v>1.58208</v>
+        <v>1.5671</v>
       </c>
       <c r="D108" t="n">
-        <v>1.73811</v>
+        <v>1.72204</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.79897</v>
+        <v>1.76454</v>
       </c>
       <c r="C109" t="n">
-        <v>1.58912</v>
+        <v>1.59762</v>
       </c>
       <c r="D109" t="n">
-        <v>1.74163</v>
+        <v>1.75624</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.15511</v>
+        <v>2.13699</v>
       </c>
       <c r="C110" t="n">
-        <v>1.69723</v>
+        <v>1.71657</v>
       </c>
       <c r="D110" t="n">
-        <v>1.76274</v>
+        <v>1.75561</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.15694</v>
+        <v>2.15725</v>
       </c>
       <c r="C111" t="n">
-        <v>1.75312</v>
+        <v>1.71745</v>
       </c>
       <c r="D111" t="n">
-        <v>1.8099</v>
+        <v>1.7415</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.14313</v>
+        <v>2.1192</v>
       </c>
       <c r="C112" t="n">
-        <v>1.71524</v>
+        <v>1.71447</v>
       </c>
       <c r="D112" t="n">
-        <v>1.7441</v>
+        <v>1.77771</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.14584</v>
+        <v>2.1322</v>
       </c>
       <c r="C113" t="n">
-        <v>1.71795</v>
+        <v>1.69581</v>
       </c>
       <c r="D113" t="n">
-        <v>1.76589</v>
+        <v>1.8034</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.1609</v>
+        <v>2.1824</v>
       </c>
       <c r="C114" t="n">
-        <v>1.72841</v>
+        <v>1.72123</v>
       </c>
       <c r="D114" t="n">
-        <v>1.79815</v>
+        <v>1.77838</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.14797</v>
+        <v>2.21752</v>
       </c>
       <c r="C115" t="n">
-        <v>1.71793</v>
+        <v>1.71087</v>
       </c>
       <c r="D115" t="n">
-        <v>1.79533</v>
+        <v>1.81763</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.10601</v>
+        <v>2.15789</v>
       </c>
       <c r="C116" t="n">
-        <v>1.7543</v>
+        <v>1.76775</v>
       </c>
       <c r="D116" t="n">
-        <v>1.82696</v>
+        <v>1.79755</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.11744</v>
+        <v>2.14978</v>
       </c>
       <c r="C117" t="n">
-        <v>1.74872</v>
+        <v>1.7553</v>
       </c>
       <c r="D117" t="n">
-        <v>1.79355</v>
+        <v>1.84748</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.14829</v>
+        <v>2.17116</v>
       </c>
       <c r="C118" t="n">
-        <v>1.75608</v>
+        <v>1.74065</v>
       </c>
       <c r="D118" t="n">
-        <v>1.81186</v>
+        <v>1.80798</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.16356</v>
+        <v>2.13894</v>
       </c>
       <c r="C119" t="n">
-        <v>1.75949</v>
+        <v>1.7665</v>
       </c>
       <c r="D119" t="n">
-        <v>1.82035</v>
+        <v>1.82061</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>2.15562</v>
+        <v>2.18574</v>
       </c>
       <c r="C120" t="n">
-        <v>1.76425</v>
+        <v>1.75925</v>
       </c>
       <c r="D120" t="n">
-        <v>1.8207</v>
+        <v>1.83221</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>2.13176</v>
+        <v>2.15832</v>
       </c>
       <c r="C121" t="n">
-        <v>1.8035</v>
+        <v>1.7867</v>
       </c>
       <c r="D121" t="n">
-        <v>1.82031</v>
+        <v>1.83611</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>2.16891</v>
+        <v>2.15586</v>
       </c>
       <c r="C122" t="n">
-        <v>1.79661</v>
+        <v>1.81167</v>
       </c>
       <c r="D122" t="n">
-        <v>1.84601</v>
+        <v>1.84718</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>2.14513</v>
+        <v>2.18261</v>
       </c>
       <c r="C123" t="n">
-        <v>1.83294</v>
+        <v>1.80801</v>
       </c>
       <c r="D123" t="n">
-        <v>1.95161</v>
+        <v>1.95368</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.53132</v>
+        <v>2.50417</v>
       </c>
       <c r="C124" t="n">
-        <v>1.84071</v>
+        <v>1.85856</v>
       </c>
       <c r="D124" t="n">
-        <v>1.92548</v>
+        <v>1.90608</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.54615</v>
+        <v>2.5428</v>
       </c>
       <c r="C125" t="n">
-        <v>1.85956</v>
+        <v>1.89506</v>
       </c>
       <c r="D125" t="n">
-        <v>1.94728</v>
+        <v>1.92078</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.50905</v>
+        <v>2.53524</v>
       </c>
       <c r="C126" t="n">
-        <v>1.8564</v>
+        <v>1.92806</v>
       </c>
       <c r="D126" t="n">
-        <v>1.94592</v>
+        <v>1.95457</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.50273</v>
+        <v>2.5244</v>
       </c>
       <c r="C127" t="n">
-        <v>1.90555</v>
+        <v>1.88019</v>
       </c>
       <c r="D127" t="n">
-        <v>1.94107</v>
+        <v>1.99101</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.53899</v>
+        <v>2.51293</v>
       </c>
       <c r="C128" t="n">
-        <v>1.91568</v>
+        <v>1.89815</v>
       </c>
       <c r="D128" t="n">
-        <v>1.96368</v>
+        <v>1.94629</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.53509</v>
+        <v>2.53315</v>
       </c>
       <c r="C129" t="n">
-        <v>1.89504</v>
+        <v>1.91228</v>
       </c>
       <c r="D129" t="n">
-        <v>1.9508</v>
+        <v>1.99395</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.53793</v>
+        <v>2.53935</v>
       </c>
       <c r="C130" t="n">
-        <v>1.88245</v>
+        <v>1.90321</v>
       </c>
       <c r="D130" t="n">
-        <v>1.95771</v>
+        <v>1.97329</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.53064</v>
+        <v>2.54334</v>
       </c>
       <c r="C131" t="n">
-        <v>1.92794</v>
+        <v>1.916</v>
       </c>
       <c r="D131" t="n">
-        <v>1.97751</v>
+        <v>1.97771</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.48798</v>
+        <v>2.54119</v>
       </c>
       <c r="C132" t="n">
-        <v>1.91465</v>
+        <v>1.90434</v>
       </c>
       <c r="D132" t="n">
-        <v>1.99024</v>
+        <v>1.96471</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.54107</v>
+        <v>2.56955</v>
       </c>
       <c r="C133" t="n">
-        <v>1.89146</v>
+        <v>1.91536</v>
       </c>
       <c r="D133" t="n">
-        <v>1.98211</v>
+        <v>1.98258</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.53904</v>
+        <v>2.53732</v>
       </c>
       <c r="C134" t="n">
-        <v>1.92512</v>
+        <v>1.94013</v>
       </c>
       <c r="D134" t="n">
-        <v>2.01838</v>
+        <v>2.01012</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.54564</v>
+        <v>2.53458</v>
       </c>
       <c r="C135" t="n">
-        <v>1.95164</v>
+        <v>2.01039</v>
       </c>
       <c r="D135" t="n">
-        <v>2.00438</v>
+        <v>2.01388</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.54277</v>
+        <v>2.55902</v>
       </c>
       <c r="C136" t="n">
-        <v>1.9603</v>
+        <v>1.96289</v>
       </c>
       <c r="D136" t="n">
-        <v>2.02711</v>
+        <v>2.03042</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.53708</v>
+        <v>2.56582</v>
       </c>
       <c r="C137" t="n">
-        <v>1.96904</v>
+        <v>1.99837</v>
       </c>
       <c r="D137" t="n">
-        <v>2.07422</v>
+        <v>2.09059</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.80822</v>
+        <v>2.86829</v>
       </c>
       <c r="C138" t="n">
-        <v>2.03502</v>
+        <v>2.06303</v>
       </c>
       <c r="D138" t="n">
-        <v>2.08974</v>
+        <v>2.11437</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.87676</v>
+        <v>2.87941</v>
       </c>
       <c r="C139" t="n">
-        <v>2.05677</v>
+        <v>2.05594</v>
       </c>
       <c r="D139" t="n">
-        <v>2.11118</v>
+        <v>2.10445</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.83525</v>
+        <v>2.87241</v>
       </c>
       <c r="C140" t="n">
-        <v>2.04877</v>
+        <v>2.05548</v>
       </c>
       <c r="D140" t="n">
-        <v>2.1067</v>
+        <v>2.12635</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.83679</v>
+        <v>2.87865</v>
       </c>
       <c r="C141" t="n">
-        <v>2.05172</v>
+        <v>2.06441</v>
       </c>
       <c r="D141" t="n">
-        <v>2.09729</v>
+        <v>2.1137</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.88015</v>
+        <v>2.8744</v>
       </c>
       <c r="C142" t="n">
-        <v>2.04176</v>
+        <v>2.07204</v>
       </c>
       <c r="D142" t="n">
-        <v>2.11141</v>
+        <v>2.11958</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.84559</v>
+        <v>2.869</v>
       </c>
       <c r="C143" t="n">
-        <v>2.07633</v>
+        <v>2.07604</v>
       </c>
       <c r="D143" t="n">
-        <v>2.12832</v>
+        <v>2.13304</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7468939999999999</v>
+        <v>0.747082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.663053</v>
+        <v>0.663276</v>
       </c>
       <c r="D2" t="n">
-        <v>0.676335</v>
+        <v>0.654401</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.738918</v>
+        <v>0.74042</v>
       </c>
       <c r="C3" t="n">
-        <v>0.672131</v>
+        <v>0.697711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.658666</v>
+        <v>0.699287</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.745909</v>
+        <v>0.741182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.673517</v>
+        <v>0.678136</v>
       </c>
       <c r="D4" t="n">
-        <v>0.679074</v>
+        <v>0.685405</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.76231</v>
+        <v>0.736911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.669534</v>
+        <v>0.6460630000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.681706</v>
+        <v>0.661856</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.765292</v>
+        <v>0.720407</v>
       </c>
       <c r="C6" t="n">
-        <v>0.673084</v>
+        <v>0.669746</v>
       </c>
       <c r="D6" t="n">
-        <v>0.661399</v>
+        <v>0.673405</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.739824</v>
+        <v>0.755611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.681809</v>
+        <v>0.69803</v>
       </c>
       <c r="D7" t="n">
-        <v>0.657886</v>
+        <v>0.670863</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.708639</v>
+        <v>0.739852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.669086</v>
+        <v>0.65813</v>
       </c>
       <c r="D8" t="n">
-        <v>0.674641</v>
+        <v>0.691951</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7492</v>
+        <v>0.740452</v>
       </c>
       <c r="C9" t="n">
-        <v>0.667228</v>
+        <v>0.677298</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6848379999999999</v>
+        <v>0.691685</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.783432</v>
+        <v>0.778201</v>
       </c>
       <c r="C10" t="n">
-        <v>0.682976</v>
+        <v>0.663895</v>
       </c>
       <c r="D10" t="n">
-        <v>0.678637</v>
+        <v>0.65966</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.765353</v>
+        <v>0.759721</v>
       </c>
       <c r="C11" t="n">
-        <v>0.676766</v>
+        <v>0.657967</v>
       </c>
       <c r="D11" t="n">
-        <v>0.687348</v>
+        <v>0.65826</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.744999</v>
+        <v>0.753731</v>
       </c>
       <c r="C12" t="n">
-        <v>0.675898</v>
+        <v>0.67459</v>
       </c>
       <c r="D12" t="n">
-        <v>0.668793</v>
+        <v>0.655984</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.742304</v>
+        <v>0.754663</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6370479999999999</v>
+        <v>0.6739270000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.680266</v>
+        <v>0.665638</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.754146</v>
+        <v>0.746521</v>
       </c>
       <c r="C14" t="n">
-        <v>0.640429</v>
+        <v>0.654582</v>
       </c>
       <c r="D14" t="n">
-        <v>0.676721</v>
+        <v>0.65068</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.77573</v>
+        <v>0.738531</v>
       </c>
       <c r="C15" t="n">
-        <v>0.657151</v>
+        <v>0.651008</v>
       </c>
       <c r="D15" t="n">
-        <v>0.654856</v>
+        <v>0.64938</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7585229999999999</v>
+        <v>0.767304</v>
       </c>
       <c r="C16" t="n">
-        <v>0.654938</v>
+        <v>0.655199</v>
       </c>
       <c r="D16" t="n">
-        <v>0.665365</v>
+        <v>0.678759</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.716867</v>
+        <v>0.781635</v>
       </c>
       <c r="C17" t="n">
-        <v>0.654661</v>
+        <v>0.649662</v>
       </c>
       <c r="D17" t="n">
-        <v>0.654532</v>
+        <v>0.653323</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.741776</v>
+        <v>0.739887</v>
       </c>
       <c r="C18" t="n">
-        <v>0.653521</v>
+        <v>0.651336</v>
       </c>
       <c r="D18" t="n">
-        <v>0.676771</v>
+        <v>0.655803</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.762482</v>
+        <v>0.747016</v>
       </c>
       <c r="C19" t="n">
-        <v>0.646527</v>
+        <v>0.656845</v>
       </c>
       <c r="D19" t="n">
-        <v>0.67143</v>
+        <v>0.660856</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.739619</v>
+        <v>0.739578</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6511169999999999</v>
+        <v>0.6556149999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.679402</v>
+        <v>0.653137</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.74578</v>
+        <v>0.75262</v>
       </c>
       <c r="C21" t="n">
-        <v>0.661841</v>
+        <v>0.675184</v>
       </c>
       <c r="D21" t="n">
-        <v>0.675144</v>
+        <v>0.680655</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.745939</v>
+        <v>0.752216</v>
       </c>
       <c r="C22" t="n">
-        <v>0.646949</v>
+        <v>0.651963</v>
       </c>
       <c r="D22" t="n">
-        <v>0.681216</v>
+        <v>0.673107</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.784893</v>
+        <v>0.742456</v>
       </c>
       <c r="C23" t="n">
-        <v>0.653132</v>
+        <v>0.658139</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6871969999999999</v>
+        <v>0.690204</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.778451</v>
+        <v>0.791831</v>
       </c>
       <c r="C24" t="n">
-        <v>0.661029</v>
+        <v>0.667285</v>
       </c>
       <c r="D24" t="n">
-        <v>0.667461</v>
+        <v>0.672864</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.800574</v>
+        <v>0.795515</v>
       </c>
       <c r="C25" t="n">
-        <v>0.67509</v>
+        <v>0.655103</v>
       </c>
       <c r="D25" t="n">
-        <v>0.675513</v>
+        <v>0.6806449999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.773173</v>
+        <v>0.792635</v>
       </c>
       <c r="C26" t="n">
-        <v>0.668118</v>
+        <v>0.716504</v>
       </c>
       <c r="D26" t="n">
-        <v>0.684553</v>
+        <v>0.6862780000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7735069999999999</v>
+        <v>0.783071</v>
       </c>
       <c r="C27" t="n">
-        <v>0.673827</v>
+        <v>0.65724</v>
       </c>
       <c r="D27" t="n">
-        <v>0.672284</v>
+        <v>0.715857</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.766936</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.667376</v>
+        <v>0.662178</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6689889999999999</v>
+        <v>0.674886</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.790797</v>
+        <v>0.7678160000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.674615</v>
+        <v>0.6730969999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.690636</v>
+        <v>0.680216</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.79122</v>
+        <v>0.770027</v>
       </c>
       <c r="C30" t="n">
-        <v>0.702299</v>
+        <v>0.669849</v>
       </c>
       <c r="D30" t="n">
-        <v>0.679806</v>
+        <v>0.67122</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.776857</v>
+        <v>0.765269</v>
       </c>
       <c r="C31" t="n">
-        <v>0.660172</v>
+        <v>0.701863</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6791970000000001</v>
+        <v>0.686967</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.767541</v>
+        <v>0.780659</v>
       </c>
       <c r="C32" t="n">
-        <v>0.686184</v>
+        <v>0.672773</v>
       </c>
       <c r="D32" t="n">
-        <v>0.675594</v>
+        <v>0.691004</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.795627</v>
+        <v>0.774299</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6731</v>
+        <v>0.663081</v>
       </c>
       <c r="D33" t="n">
-        <v>0.681276</v>
+        <v>0.709306</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.775799</v>
+        <v>0.824669</v>
       </c>
       <c r="C34" t="n">
-        <v>0.676709</v>
+        <v>0.717766</v>
       </c>
       <c r="D34" t="n">
-        <v>0.680644</v>
+        <v>0.7886570000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.780257</v>
+        <v>0.81843</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6977680000000001</v>
+        <v>0.6697070000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.69025</v>
+        <v>0.687339</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.779814</v>
+        <v>0.774965</v>
       </c>
       <c r="C36" t="n">
-        <v>0.670174</v>
+        <v>0.686047</v>
       </c>
       <c r="D36" t="n">
-        <v>0.686129</v>
+        <v>0.688924</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8013209999999999</v>
+        <v>0.793185</v>
       </c>
       <c r="C37" t="n">
-        <v>0.715292</v>
+        <v>0.673957</v>
       </c>
       <c r="D37" t="n">
-        <v>0.715046</v>
+        <v>0.702964</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.803956</v>
+        <v>0.82459</v>
       </c>
       <c r="C38" t="n">
-        <v>0.672354</v>
+        <v>0.688385</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7021579999999999</v>
+        <v>0.736565</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.807239</v>
+        <v>0.859707</v>
       </c>
       <c r="C39" t="n">
-        <v>0.690003</v>
+        <v>0.727073</v>
       </c>
       <c r="D39" t="n">
-        <v>0.684364</v>
+        <v>0.717535</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.813932</v>
+        <v>0.81697</v>
       </c>
       <c r="C40" t="n">
-        <v>0.683961</v>
+        <v>0.723397</v>
       </c>
       <c r="D40" t="n">
-        <v>0.711347</v>
+        <v>0.70499</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.822861</v>
+        <v>0.812949</v>
       </c>
       <c r="C41" t="n">
-        <v>0.680163</v>
+        <v>0.684416</v>
       </c>
       <c r="D41" t="n">
-        <v>0.698036</v>
+        <v>0.693209</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.800641</v>
+        <v>0.817735</v>
       </c>
       <c r="C42" t="n">
-        <v>0.698968</v>
+        <v>0.6857839999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.708376</v>
+        <v>0.7029879999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.812016</v>
+        <v>0.81147</v>
       </c>
       <c r="C43" t="n">
-        <v>0.694414</v>
+        <v>0.6867</v>
       </c>
       <c r="D43" t="n">
-        <v>0.697231</v>
+        <v>0.707395</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.817487</v>
+        <v>0.827503</v>
       </c>
       <c r="C44" t="n">
-        <v>0.688875</v>
+        <v>0.683538</v>
       </c>
       <c r="D44" t="n">
-        <v>0.702371</v>
+        <v>0.712724</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7996799999999999</v>
+        <v>0.813918</v>
       </c>
       <c r="C45" t="n">
-        <v>0.681335</v>
+        <v>0.687988</v>
       </c>
       <c r="D45" t="n">
-        <v>0.702921</v>
+        <v>0.708599</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.802963</v>
+        <v>0.949466</v>
       </c>
       <c r="C46" t="n">
-        <v>0.692904</v>
+        <v>0.867218</v>
       </c>
       <c r="D46" t="n">
-        <v>0.719061</v>
+        <v>0.869563</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.815757</v>
+        <v>0.803902</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6865599999999999</v>
+        <v>0.694972</v>
       </c>
       <c r="D47" t="n">
-        <v>0.703561</v>
+        <v>0.7017099999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.819083</v>
+        <v>0.8131389999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.684466</v>
+        <v>0.732731</v>
       </c>
       <c r="D48" t="n">
-        <v>0.719324</v>
+        <v>0.7804990000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.808585</v>
+        <v>0.818038</v>
       </c>
       <c r="C49" t="n">
-        <v>0.71395</v>
+        <v>0.6963549999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.726147</v>
+        <v>0.72281</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.820446</v>
+        <v>0.818973</v>
       </c>
       <c r="C50" t="n">
-        <v>0.706335</v>
+        <v>0.708497</v>
       </c>
       <c r="D50" t="n">
-        <v>0.710107</v>
+        <v>0.719509</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.829529</v>
+        <v>0.826808</v>
       </c>
       <c r="C51" t="n">
-        <v>0.704277</v>
+        <v>0.710431</v>
       </c>
       <c r="D51" t="n">
-        <v>0.748715</v>
+        <v>0.755871</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.830157</v>
+        <v>0.827867</v>
       </c>
       <c r="C52" t="n">
-        <v>0.728286</v>
+        <v>0.717</v>
       </c>
       <c r="D52" t="n">
-        <v>0.739496</v>
+        <v>0.734663</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.876791</v>
+        <v>0.927312</v>
       </c>
       <c r="C53" t="n">
-        <v>0.737865</v>
+        <v>0.742847</v>
       </c>
       <c r="D53" t="n">
-        <v>0.735124</v>
+        <v>0.749377</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.863077</v>
+        <v>0.938292</v>
       </c>
       <c r="C54" t="n">
-        <v>0.733746</v>
+        <v>0.764308</v>
       </c>
       <c r="D54" t="n">
-        <v>0.747641</v>
+        <v>0.7454190000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.88239</v>
+        <v>0.94569</v>
       </c>
       <c r="C55" t="n">
-        <v>0.733585</v>
+        <v>0.773984</v>
       </c>
       <c r="D55" t="n">
-        <v>0.779601</v>
+        <v>0.7728120000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.884088</v>
+        <v>0.946603</v>
       </c>
       <c r="C56" t="n">
-        <v>0.750351</v>
+        <v>0.746741</v>
       </c>
       <c r="D56" t="n">
-        <v>0.740897</v>
+        <v>0.743445</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.876211</v>
+        <v>0.952702</v>
       </c>
       <c r="C57" t="n">
-        <v>0.729301</v>
+        <v>0.736515</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7513300000000001</v>
+        <v>0.740543</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8578519999999999</v>
+        <v>0.925536</v>
       </c>
       <c r="C58" t="n">
-        <v>0.720262</v>
+        <v>0.760267</v>
       </c>
       <c r="D58" t="n">
-        <v>0.734222</v>
+        <v>0.834842</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.892781</v>
+        <v>0.946024</v>
       </c>
       <c r="C59" t="n">
-        <v>0.741834</v>
+        <v>0.756895</v>
       </c>
       <c r="D59" t="n">
-        <v>0.762494</v>
+        <v>0.735162</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8898740000000001</v>
+        <v>0.99671</v>
       </c>
       <c r="C60" t="n">
-        <v>0.749123</v>
+        <v>0.7562179999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.746743</v>
+        <v>0.762858</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.867071</v>
+        <v>0.960507</v>
       </c>
       <c r="C61" t="n">
-        <v>0.745959</v>
+        <v>0.775698</v>
       </c>
       <c r="D61" t="n">
-        <v>0.748631</v>
+        <v>0.7533339999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.881578</v>
+        <v>0.986296</v>
       </c>
       <c r="C62" t="n">
-        <v>0.76128</v>
+        <v>0.761256</v>
       </c>
       <c r="D62" t="n">
-        <v>0.770382</v>
+        <v>0.755378</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.88576</v>
+        <v>0.916281</v>
       </c>
       <c r="C63" t="n">
-        <v>0.746407</v>
+        <v>0.757906</v>
       </c>
       <c r="D63" t="n">
-        <v>0.774242</v>
+        <v>0.7584880000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.867835</v>
+        <v>0.991357</v>
       </c>
       <c r="C64" t="n">
-        <v>0.752924</v>
+        <v>0.762649</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7766150000000001</v>
+        <v>0.870667</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.880298</v>
+        <v>1.02491</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7448</v>
+        <v>0.762301</v>
       </c>
       <c r="D65" t="n">
-        <v>0.773242</v>
+        <v>0.76667</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.882167</v>
+        <v>0.948504</v>
       </c>
       <c r="C66" t="n">
-        <v>0.735764</v>
+        <v>0.766198</v>
       </c>
       <c r="D66" t="n">
-        <v>0.858467</v>
+        <v>0.981707</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.08149</v>
+        <v>1.32471</v>
       </c>
       <c r="C67" t="n">
-        <v>0.874084</v>
+        <v>0.994929</v>
       </c>
       <c r="D67" t="n">
-        <v>0.875423</v>
+        <v>1.0042</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.08284</v>
+        <v>1.35322</v>
       </c>
       <c r="C68" t="n">
-        <v>0.885456</v>
+        <v>1.00389</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8770210000000001</v>
+        <v>1.05094</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.1185</v>
+        <v>1.36386</v>
       </c>
       <c r="C69" t="n">
-        <v>0.882028</v>
+        <v>1.07691</v>
       </c>
       <c r="D69" t="n">
-        <v>0.898788</v>
+        <v>1.00886</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.05906</v>
+        <v>1.39905</v>
       </c>
       <c r="C70" t="n">
-        <v>0.867641</v>
+        <v>0.967616</v>
       </c>
       <c r="D70" t="n">
-        <v>0.880755</v>
+        <v>1.0361</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.06608</v>
+        <v>1.35263</v>
       </c>
       <c r="C71" t="n">
-        <v>0.886791</v>
+        <v>1.02967</v>
       </c>
       <c r="D71" t="n">
-        <v>0.873951</v>
+        <v>1.04372</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.08458</v>
+        <v>1.36473</v>
       </c>
       <c r="C72" t="n">
-        <v>0.876907</v>
+        <v>0.968828</v>
       </c>
       <c r="D72" t="n">
-        <v>0.875606</v>
+        <v>1.08365</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.06291</v>
+        <v>1.35731</v>
       </c>
       <c r="C73" t="n">
-        <v>0.86572</v>
+        <v>1.05192</v>
       </c>
       <c r="D73" t="n">
-        <v>0.884439</v>
+        <v>0.992335</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.06658</v>
+        <v>1.35451</v>
       </c>
       <c r="C74" t="n">
-        <v>0.898369</v>
+        <v>1.00306</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8784729999999999</v>
+        <v>0.998391</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.08648</v>
+        <v>1.35628</v>
       </c>
       <c r="C75" t="n">
-        <v>0.89379</v>
+        <v>1.0171</v>
       </c>
       <c r="D75" t="n">
-        <v>0.873004</v>
+        <v>1.01316</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.11125</v>
+        <v>1.34887</v>
       </c>
       <c r="C76" t="n">
-        <v>0.885334</v>
+        <v>0.990251</v>
       </c>
       <c r="D76" t="n">
-        <v>0.905622</v>
+        <v>1.01574</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.07168</v>
+        <v>1.33782</v>
       </c>
       <c r="C77" t="n">
-        <v>0.939975</v>
+        <v>1.00765</v>
       </c>
       <c r="D77" t="n">
-        <v>0.921824</v>
+        <v>1.03924</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.06822</v>
+        <v>1.32287</v>
       </c>
       <c r="C78" t="n">
-        <v>0.877852</v>
+        <v>1.00854</v>
       </c>
       <c r="D78" t="n">
-        <v>0.888344</v>
+        <v>1.05964</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.05228</v>
+        <v>1.36429</v>
       </c>
       <c r="C79" t="n">
-        <v>0.880464</v>
+        <v>1.03708</v>
       </c>
       <c r="D79" t="n">
-        <v>0.892165</v>
+        <v>1.02698</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.05243</v>
+        <v>1.40539</v>
       </c>
       <c r="C80" t="n">
-        <v>0.881623</v>
+        <v>1.03509</v>
       </c>
       <c r="D80" t="n">
-        <v>1.24228</v>
+        <v>1.39556</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.4425</v>
+        <v>1.68781</v>
       </c>
       <c r="C81" t="n">
-        <v>1.18596</v>
+        <v>1.37393</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17173</v>
+        <v>1.39219</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.3817</v>
+        <v>1.66979</v>
       </c>
       <c r="C82" t="n">
-        <v>1.18795</v>
+        <v>1.43843</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15816</v>
+        <v>1.40774</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.41095</v>
+        <v>1.67488</v>
       </c>
       <c r="C83" t="n">
-        <v>1.18649</v>
+        <v>1.3673</v>
       </c>
       <c r="D83" t="n">
-        <v>1.17265</v>
+        <v>1.37875</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.39193</v>
+        <v>1.66422</v>
       </c>
       <c r="C84" t="n">
-        <v>1.23281</v>
+        <v>1.3881</v>
       </c>
       <c r="D84" t="n">
-        <v>1.17006</v>
+        <v>1.40326</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.39012</v>
+        <v>1.74775</v>
       </c>
       <c r="C85" t="n">
-        <v>1.19677</v>
+        <v>1.39228</v>
       </c>
       <c r="D85" t="n">
-        <v>1.18352</v>
+        <v>1.40191</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.42106</v>
+        <v>1.66708</v>
       </c>
       <c r="C86" t="n">
-        <v>1.19115</v>
+        <v>1.41559</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15438</v>
+        <v>1.41222</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.39667</v>
+        <v>1.67955</v>
       </c>
       <c r="C87" t="n">
-        <v>1.16427</v>
+        <v>1.40698</v>
       </c>
       <c r="D87" t="n">
-        <v>1.18181</v>
+        <v>1.46226</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.37643</v>
+        <v>1.6668</v>
       </c>
       <c r="C88" t="n">
-        <v>1.22676</v>
+        <v>1.39497</v>
       </c>
       <c r="D88" t="n">
-        <v>1.22217</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.46982</v>
+        <v>1.6836</v>
       </c>
       <c r="C89" t="n">
-        <v>1.23368</v>
+        <v>1.42911</v>
       </c>
       <c r="D89" t="n">
-        <v>1.23513</v>
+        <v>1.4276</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.42729</v>
+        <v>1.68582</v>
       </c>
       <c r="C90" t="n">
-        <v>1.21108</v>
+        <v>1.40109</v>
       </c>
       <c r="D90" t="n">
-        <v>1.15717</v>
+        <v>1.40873</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.37724</v>
+        <v>1.66619</v>
       </c>
       <c r="C91" t="n">
-        <v>1.21004</v>
+        <v>1.40976</v>
       </c>
       <c r="D91" t="n">
-        <v>1.22133</v>
+        <v>1.41772</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.38837</v>
+        <v>1.66718</v>
       </c>
       <c r="C92" t="n">
-        <v>1.20465</v>
+        <v>1.40444</v>
       </c>
       <c r="D92" t="n">
-        <v>1.23241</v>
+        <v>1.41347</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.38351</v>
+        <v>1.67303</v>
       </c>
       <c r="C93" t="n">
-        <v>1.25484</v>
+        <v>1.46101</v>
       </c>
       <c r="D93" t="n">
-        <v>1.24279</v>
+        <v>1.4072</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.42053</v>
+        <v>1.67337</v>
       </c>
       <c r="C94" t="n">
-        <v>1.24674</v>
+        <v>1.46306</v>
       </c>
       <c r="D94" t="n">
-        <v>1.53569</v>
+        <v>1.6496</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.77121</v>
+        <v>2.03273</v>
       </c>
       <c r="C95" t="n">
-        <v>1.55311</v>
+        <v>1.62721</v>
       </c>
       <c r="D95" t="n">
-        <v>1.54522</v>
+        <v>1.67624</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.75728</v>
+        <v>2.04211</v>
       </c>
       <c r="C96" t="n">
-        <v>1.53112</v>
+        <v>1.61265</v>
       </c>
       <c r="D96" t="n">
-        <v>1.56047</v>
+        <v>1.66505</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.77365</v>
+        <v>2.06328</v>
       </c>
       <c r="C97" t="n">
-        <v>1.54995</v>
+        <v>1.61181</v>
       </c>
       <c r="D97" t="n">
-        <v>1.54893</v>
+        <v>1.67877</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.79767</v>
+        <v>2.1475</v>
       </c>
       <c r="C98" t="n">
-        <v>1.54151</v>
+        <v>1.62833</v>
       </c>
       <c r="D98" t="n">
-        <v>1.55281</v>
+        <v>1.66954</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.80915</v>
+        <v>2.02284</v>
       </c>
       <c r="C99" t="n">
-        <v>1.5855</v>
+        <v>1.61702</v>
       </c>
       <c r="D99" t="n">
-        <v>1.58133</v>
+        <v>1.68635</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.7793</v>
+        <v>2.02596</v>
       </c>
       <c r="C100" t="n">
-        <v>1.54646</v>
+        <v>1.66861</v>
       </c>
       <c r="D100" t="n">
-        <v>1.57763</v>
+        <v>1.68749</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.79679</v>
+        <v>2.03529</v>
       </c>
       <c r="C101" t="n">
-        <v>1.53721</v>
+        <v>1.68673</v>
       </c>
       <c r="D101" t="n">
-        <v>1.55156</v>
+        <v>1.75793</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.76155</v>
+        <v>2.05039</v>
       </c>
       <c r="C102" t="n">
-        <v>1.55079</v>
+        <v>1.68527</v>
       </c>
       <c r="D102" t="n">
-        <v>1.56656</v>
+        <v>1.69096</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.73777</v>
+        <v>2.09221</v>
       </c>
       <c r="C103" t="n">
-        <v>1.53845</v>
+        <v>1.6582</v>
       </c>
       <c r="D103" t="n">
-        <v>1.54845</v>
+        <v>1.71552</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.79446</v>
+        <v>2.04838</v>
       </c>
       <c r="C104" t="n">
-        <v>1.57666</v>
+        <v>1.65705</v>
       </c>
       <c r="D104" t="n">
-        <v>1.58819</v>
+        <v>1.79219</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.80046</v>
+        <v>1.99231</v>
       </c>
       <c r="C105" t="n">
-        <v>1.57563</v>
+        <v>1.66535</v>
       </c>
       <c r="D105" t="n">
-        <v>1.62131</v>
+        <v>1.70271</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.77759</v>
+        <v>2.01589</v>
       </c>
       <c r="C106" t="n">
-        <v>1.55669</v>
+        <v>1.67132</v>
       </c>
       <c r="D106" t="n">
-        <v>1.54427</v>
+        <v>1.73378</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.76651</v>
+        <v>2.0316</v>
       </c>
       <c r="C107" t="n">
-        <v>1.53337</v>
+        <v>1.69352</v>
       </c>
       <c r="D107" t="n">
-        <v>1.5596</v>
+        <v>1.74117</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.79379</v>
+        <v>2.03959</v>
       </c>
       <c r="C108" t="n">
-        <v>1.5671</v>
+        <v>1.711</v>
       </c>
       <c r="D108" t="n">
-        <v>1.72204</v>
+        <v>1.87146</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.76454</v>
+        <v>2.03436</v>
       </c>
       <c r="C109" t="n">
-        <v>1.59762</v>
+        <v>1.72061</v>
       </c>
       <c r="D109" t="n">
-        <v>1.75624</v>
+        <v>1.88296</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.13699</v>
+        <v>2.44812</v>
       </c>
       <c r="C110" t="n">
-        <v>1.71657</v>
+        <v>1.75536</v>
       </c>
       <c r="D110" t="n">
-        <v>1.75561</v>
+        <v>1.84887</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.15725</v>
+        <v>2.44643</v>
       </c>
       <c r="C111" t="n">
-        <v>1.71745</v>
+        <v>1.76919</v>
       </c>
       <c r="D111" t="n">
-        <v>1.7415</v>
+        <v>1.86164</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.1192</v>
+        <v>2.45499</v>
       </c>
       <c r="C112" t="n">
-        <v>1.71447</v>
+        <v>1.80377</v>
       </c>
       <c r="D112" t="n">
-        <v>1.77771</v>
+        <v>1.87239</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.1322</v>
+        <v>2.52313</v>
       </c>
       <c r="C113" t="n">
-        <v>1.69581</v>
+        <v>1.79526</v>
       </c>
       <c r="D113" t="n">
-        <v>1.8034</v>
+        <v>1.86427</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.1824</v>
+        <v>2.42335</v>
       </c>
       <c r="C114" t="n">
-        <v>1.72123</v>
+        <v>1.79533</v>
       </c>
       <c r="D114" t="n">
-        <v>1.77838</v>
+        <v>1.88263</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.21752</v>
+        <v>2.46088</v>
       </c>
       <c r="C115" t="n">
-        <v>1.71087</v>
+        <v>1.92782</v>
       </c>
       <c r="D115" t="n">
-        <v>1.81763</v>
+        <v>1.90512</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.15789</v>
+        <v>2.46497</v>
       </c>
       <c r="C116" t="n">
-        <v>1.76775</v>
+        <v>1.83144</v>
       </c>
       <c r="D116" t="n">
-        <v>1.79755</v>
+        <v>1.89567</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.14978</v>
+        <v>2.48432</v>
       </c>
       <c r="C117" t="n">
-        <v>1.7553</v>
+        <v>1.81352</v>
       </c>
       <c r="D117" t="n">
-        <v>1.84748</v>
+        <v>1.90434</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.17116</v>
+        <v>2.48453</v>
       </c>
       <c r="C118" t="n">
-        <v>1.74065</v>
+        <v>1.93793</v>
       </c>
       <c r="D118" t="n">
-        <v>1.80798</v>
+        <v>1.92581</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.13894</v>
+        <v>2.48663</v>
       </c>
       <c r="C119" t="n">
-        <v>1.7665</v>
+        <v>1.82908</v>
       </c>
       <c r="D119" t="n">
-        <v>1.82061</v>
+        <v>1.92135</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>2.18574</v>
+        <v>2.49975</v>
       </c>
       <c r="C120" t="n">
-        <v>1.75925</v>
+        <v>1.86993</v>
       </c>
       <c r="D120" t="n">
-        <v>1.83221</v>
+        <v>1.9443</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>2.15832</v>
+        <v>2.48002</v>
       </c>
       <c r="C121" t="n">
-        <v>1.7867</v>
+        <v>1.85868</v>
       </c>
       <c r="D121" t="n">
-        <v>1.83611</v>
+        <v>1.93981</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>2.15586</v>
+        <v>2.52808</v>
       </c>
       <c r="C122" t="n">
-        <v>1.81167</v>
+        <v>1.87697</v>
       </c>
       <c r="D122" t="n">
-        <v>1.84718</v>
+        <v>1.96456</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>2.18261</v>
+        <v>2.48547</v>
       </c>
       <c r="C123" t="n">
-        <v>1.80801</v>
+        <v>1.90664</v>
       </c>
       <c r="D123" t="n">
-        <v>1.95368</v>
+        <v>1.99954</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.50417</v>
+        <v>2.76829</v>
       </c>
       <c r="C124" t="n">
-        <v>1.85856</v>
+        <v>1.97545</v>
       </c>
       <c r="D124" t="n">
-        <v>1.90608</v>
+        <v>2.03354</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.5428</v>
+        <v>2.80115</v>
       </c>
       <c r="C125" t="n">
-        <v>1.89506</v>
+        <v>1.94356</v>
       </c>
       <c r="D125" t="n">
-        <v>1.92078</v>
+        <v>2.00581</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.53524</v>
+        <v>2.77396</v>
       </c>
       <c r="C126" t="n">
-        <v>1.92806</v>
+        <v>1.97161</v>
       </c>
       <c r="D126" t="n">
-        <v>1.95457</v>
+        <v>2.03384</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.5244</v>
+        <v>2.83877</v>
       </c>
       <c r="C127" t="n">
-        <v>1.88019</v>
+        <v>1.97802</v>
       </c>
       <c r="D127" t="n">
-        <v>1.99101</v>
+        <v>2.06244</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.51293</v>
+        <v>2.83417</v>
       </c>
       <c r="C128" t="n">
-        <v>1.89815</v>
+        <v>1.96796</v>
       </c>
       <c r="D128" t="n">
-        <v>1.94629</v>
+        <v>2.03623</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.53315</v>
+        <v>2.81929</v>
       </c>
       <c r="C129" t="n">
-        <v>1.91228</v>
+        <v>2.49186</v>
       </c>
       <c r="D129" t="n">
-        <v>1.99395</v>
+        <v>2.40447</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.53935</v>
+        <v>3.0503</v>
       </c>
       <c r="C130" t="n">
-        <v>1.90321</v>
+        <v>2.22226</v>
       </c>
       <c r="D130" t="n">
-        <v>1.97329</v>
+        <v>2.28295</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.54334</v>
+        <v>3.02852</v>
       </c>
       <c r="C131" t="n">
-        <v>1.916</v>
+        <v>2.35064</v>
       </c>
       <c r="D131" t="n">
-        <v>1.97771</v>
+        <v>2.30366</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.54119</v>
+        <v>3.03953</v>
       </c>
       <c r="C132" t="n">
-        <v>1.90434</v>
+        <v>2.27593</v>
       </c>
       <c r="D132" t="n">
-        <v>1.96471</v>
+        <v>2.21043</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.56955</v>
+        <v>2.92459</v>
       </c>
       <c r="C133" t="n">
-        <v>1.91536</v>
+        <v>2.20856</v>
       </c>
       <c r="D133" t="n">
-        <v>1.98258</v>
+        <v>2.39147</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.53732</v>
+        <v>2.921</v>
       </c>
       <c r="C134" t="n">
-        <v>1.94013</v>
+        <v>2.17919</v>
       </c>
       <c r="D134" t="n">
-        <v>2.01012</v>
+        <v>2.35139</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.53458</v>
+        <v>3.33806</v>
       </c>
       <c r="C135" t="n">
-        <v>2.01039</v>
+        <v>2.53784</v>
       </c>
       <c r="D135" t="n">
-        <v>2.01388</v>
+        <v>2.61423</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.55902</v>
+        <v>3.47337</v>
       </c>
       <c r="C136" t="n">
-        <v>1.96289</v>
+        <v>2.69016</v>
       </c>
       <c r="D136" t="n">
-        <v>2.03042</v>
+        <v>2.26545</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.56582</v>
+        <v>2.76007</v>
       </c>
       <c r="C137" t="n">
-        <v>1.99837</v>
+        <v>2.05902</v>
       </c>
       <c r="D137" t="n">
-        <v>2.09059</v>
+        <v>2.19635</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.86829</v>
+        <v>3.04462</v>
       </c>
       <c r="C138" t="n">
-        <v>2.06303</v>
+        <v>2.25</v>
       </c>
       <c r="D138" t="n">
-        <v>2.11437</v>
+        <v>2.17185</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.87941</v>
+        <v>3.01684</v>
       </c>
       <c r="C139" t="n">
-        <v>2.05594</v>
+        <v>2.14919</v>
       </c>
       <c r="D139" t="n">
-        <v>2.10445</v>
+        <v>2.19118</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.87241</v>
+        <v>3.03739</v>
       </c>
       <c r="C140" t="n">
-        <v>2.05548</v>
+        <v>2.18136</v>
       </c>
       <c r="D140" t="n">
-        <v>2.12635</v>
+        <v>2.21856</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.87865</v>
+        <v>3.05852</v>
       </c>
       <c r="C141" t="n">
-        <v>2.06441</v>
+        <v>2.24946</v>
       </c>
       <c r="D141" t="n">
-        <v>2.1137</v>
+        <v>2.31533</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.8744</v>
+        <v>3.17148</v>
       </c>
       <c r="C142" t="n">
-        <v>2.07204</v>
+        <v>2.3385</v>
       </c>
       <c r="D142" t="n">
-        <v>2.11958</v>
+        <v>2.46844</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.869</v>
+        <v>3.27498</v>
       </c>
       <c r="C143" t="n">
-        <v>2.07604</v>
+        <v>2.35886</v>
       </c>
       <c r="D143" t="n">
-        <v>2.13304</v>
+        <v>2.35967</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.747082</v>
+        <v>0.745101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.663276</v>
+        <v>0.647444</v>
       </c>
       <c r="D2" t="n">
-        <v>0.654401</v>
+        <v>0.663223</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.74042</v>
+        <v>0.748262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.697711</v>
+        <v>0.655841</v>
       </c>
       <c r="D3" t="n">
-        <v>0.699287</v>
+        <v>0.675748</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.741182</v>
+        <v>0.739415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.678136</v>
+        <v>0.680801</v>
       </c>
       <c r="D4" t="n">
-        <v>0.685405</v>
+        <v>0.657301</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.736911</v>
+        <v>0.74758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6460630000000001</v>
+        <v>0.651163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.661856</v>
+        <v>0.653093</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.720407</v>
+        <v>0.7256629999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.669746</v>
+        <v>0.642807</v>
       </c>
       <c r="D6" t="n">
-        <v>0.673405</v>
+        <v>0.65634</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.755611</v>
+        <v>0.73347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.69803</v>
+        <v>0.663019</v>
       </c>
       <c r="D7" t="n">
-        <v>0.670863</v>
+        <v>0.666623</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.739852</v>
+        <v>0.765118</v>
       </c>
       <c r="C8" t="n">
-        <v>0.65813</v>
+        <v>0.648759</v>
       </c>
       <c r="D8" t="n">
-        <v>0.691951</v>
+        <v>0.6699310000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.740452</v>
+        <v>0.7290410000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.677298</v>
+        <v>0.656395</v>
       </c>
       <c r="D9" t="n">
-        <v>0.691685</v>
+        <v>0.676648</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.778201</v>
+        <v>0.748178</v>
       </c>
       <c r="C10" t="n">
-        <v>0.663895</v>
+        <v>0.637922</v>
       </c>
       <c r="D10" t="n">
-        <v>0.65966</v>
+        <v>0.665301</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.759721</v>
+        <v>0.731254</v>
       </c>
       <c r="C11" t="n">
-        <v>0.657967</v>
+        <v>0.6632130000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.65826</v>
+        <v>0.64722</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.753731</v>
+        <v>0.7479749999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.67459</v>
+        <v>0.668744</v>
       </c>
       <c r="D12" t="n">
-        <v>0.655984</v>
+        <v>0.649748</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.754663</v>
+        <v>0.747744</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6739270000000001</v>
+        <v>0.641265</v>
       </c>
       <c r="D13" t="n">
-        <v>0.665638</v>
+        <v>0.66943</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.746521</v>
+        <v>0.753347</v>
       </c>
       <c r="C14" t="n">
-        <v>0.654582</v>
+        <v>0.6717919999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.65068</v>
+        <v>0.656587</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.738531</v>
+        <v>0.719351</v>
       </c>
       <c r="C15" t="n">
-        <v>0.651008</v>
+        <v>0.663083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.64938</v>
+        <v>0.665369</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.767304</v>
+        <v>0.747665</v>
       </c>
       <c r="C16" t="n">
-        <v>0.655199</v>
+        <v>0.664808</v>
       </c>
       <c r="D16" t="n">
-        <v>0.678759</v>
+        <v>0.670582</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.781635</v>
+        <v>0.72365</v>
       </c>
       <c r="C17" t="n">
-        <v>0.649662</v>
+        <v>0.638607</v>
       </c>
       <c r="D17" t="n">
-        <v>0.653323</v>
+        <v>0.65709</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.739887</v>
+        <v>0.7522489999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.651336</v>
+        <v>0.655878</v>
       </c>
       <c r="D18" t="n">
-        <v>0.655803</v>
+        <v>0.660814</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.747016</v>
+        <v>0.741488</v>
       </c>
       <c r="C19" t="n">
-        <v>0.656845</v>
+        <v>0.638601</v>
       </c>
       <c r="D19" t="n">
-        <v>0.660856</v>
+        <v>0.657654</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.739578</v>
+        <v>0.731061</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6556149999999999</v>
+        <v>0.653798</v>
       </c>
       <c r="D20" t="n">
-        <v>0.653137</v>
+        <v>0.665787</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.75262</v>
+        <v>0.734578</v>
       </c>
       <c r="C21" t="n">
-        <v>0.675184</v>
+        <v>0.6556110000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.680655</v>
+        <v>0.643588</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.752216</v>
+        <v>0.730131</v>
       </c>
       <c r="C22" t="n">
-        <v>0.651963</v>
+        <v>0.6482329999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.673107</v>
+        <v>0.680647</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.742456</v>
+        <v>0.7431489999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.658139</v>
+        <v>0.648078</v>
       </c>
       <c r="D23" t="n">
-        <v>0.690204</v>
+        <v>0.670069</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.791831</v>
+        <v>0.7675650000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.667285</v>
+        <v>0.653315</v>
       </c>
       <c r="D24" t="n">
-        <v>0.672864</v>
+        <v>0.693619</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.795515</v>
+        <v>0.785965</v>
       </c>
       <c r="C25" t="n">
-        <v>0.655103</v>
+        <v>0.658629</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6806449999999999</v>
+        <v>0.707507</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.792635</v>
+        <v>0.767787</v>
       </c>
       <c r="C26" t="n">
-        <v>0.716504</v>
+        <v>0.660702</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6862780000000001</v>
+        <v>0.686172</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.783071</v>
+        <v>0.801804</v>
       </c>
       <c r="C27" t="n">
-        <v>0.65724</v>
+        <v>0.661008</v>
       </c>
       <c r="D27" t="n">
-        <v>0.715857</v>
+        <v>0.6654409999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7824410000000001</v>
+        <v>0.767115</v>
       </c>
       <c r="C28" t="n">
-        <v>0.662178</v>
+        <v>0.673803</v>
       </c>
       <c r="D28" t="n">
-        <v>0.674886</v>
+        <v>0.685678</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7678160000000001</v>
+        <v>0.781286</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6730969999999999</v>
+        <v>0.658267</v>
       </c>
       <c r="D29" t="n">
-        <v>0.680216</v>
+        <v>0.678015</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.770027</v>
+        <v>0.782793</v>
       </c>
       <c r="C30" t="n">
-        <v>0.669849</v>
+        <v>0.6880309999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.67122</v>
+        <v>0.6708730000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.765269</v>
+        <v>0.777363</v>
       </c>
       <c r="C31" t="n">
-        <v>0.701863</v>
+        <v>0.685123</v>
       </c>
       <c r="D31" t="n">
-        <v>0.686967</v>
+        <v>0.676423</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.780659</v>
+        <v>0.7958460000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.672773</v>
+        <v>0.687936</v>
       </c>
       <c r="D32" t="n">
-        <v>0.691004</v>
+        <v>0.6913589999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.774299</v>
+        <v>0.785276</v>
       </c>
       <c r="C33" t="n">
-        <v>0.663081</v>
+        <v>0.679541</v>
       </c>
       <c r="D33" t="n">
-        <v>0.709306</v>
+        <v>0.692405</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.824669</v>
+        <v>0.780367</v>
       </c>
       <c r="C34" t="n">
-        <v>0.717766</v>
+        <v>0.674548</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7886570000000001</v>
+        <v>0.696704</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.81843</v>
+        <v>0.765582</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6697070000000001</v>
+        <v>0.6740390000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.687339</v>
+        <v>0.700552</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.774965</v>
+        <v>0.7773949999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.686047</v>
+        <v>0.698926</v>
       </c>
       <c r="D36" t="n">
-        <v>0.688924</v>
+        <v>0.691372</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.793185</v>
+        <v>0.800907</v>
       </c>
       <c r="C37" t="n">
-        <v>0.673957</v>
+        <v>0.671889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.702964</v>
+        <v>0.677022</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.82459</v>
+        <v>0.805707</v>
       </c>
       <c r="C38" t="n">
-        <v>0.688385</v>
+        <v>0.6754250000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.736565</v>
+        <v>0.691375</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.859707</v>
+        <v>0.808127</v>
       </c>
       <c r="C39" t="n">
-        <v>0.727073</v>
+        <v>0.6973470000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.717535</v>
+        <v>0.696905</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.81697</v>
+        <v>0.818469</v>
       </c>
       <c r="C40" t="n">
-        <v>0.723397</v>
+        <v>0.688241</v>
       </c>
       <c r="D40" t="n">
-        <v>0.70499</v>
+        <v>0.711129</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.812949</v>
+        <v>0.8108300000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.684416</v>
+        <v>0.699975</v>
       </c>
       <c r="D41" t="n">
-        <v>0.693209</v>
+        <v>0.718958</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.817735</v>
+        <v>0.804239</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6857839999999999</v>
+        <v>0.678798</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7029879999999999</v>
+        <v>0.690427</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.81147</v>
+        <v>0.839232</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6867</v>
+        <v>0.681879</v>
       </c>
       <c r="D43" t="n">
-        <v>0.707395</v>
+        <v>0.70464</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.827503</v>
+        <v>0.802832</v>
       </c>
       <c r="C44" t="n">
-        <v>0.683538</v>
+        <v>0.706368</v>
       </c>
       <c r="D44" t="n">
-        <v>0.712724</v>
+        <v>0.697671</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.813918</v>
+        <v>0.7955140000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.687988</v>
+        <v>0.674967</v>
       </c>
       <c r="D45" t="n">
-        <v>0.708599</v>
+        <v>0.7108179999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.949466</v>
+        <v>0.795669</v>
       </c>
       <c r="C46" t="n">
-        <v>0.867218</v>
+        <v>0.704029</v>
       </c>
       <c r="D46" t="n">
-        <v>0.869563</v>
+        <v>0.702607</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.803902</v>
+        <v>0.84209</v>
       </c>
       <c r="C47" t="n">
-        <v>0.694972</v>
+        <v>0.691488</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7017099999999999</v>
+        <v>0.693495</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8131389999999999</v>
+        <v>0.8218259999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.732731</v>
+        <v>0.696526</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7804990000000001</v>
+        <v>0.699846</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.818038</v>
+        <v>0.821134</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6963549999999999</v>
+        <v>0.712736</v>
       </c>
       <c r="D49" t="n">
-        <v>0.72281</v>
+        <v>0.724008</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.818973</v>
+        <v>0.820143</v>
       </c>
       <c r="C50" t="n">
-        <v>0.708497</v>
+        <v>0.688966</v>
       </c>
       <c r="D50" t="n">
-        <v>0.719509</v>
+        <v>0.7188059999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.826808</v>
+        <v>0.798901</v>
       </c>
       <c r="C51" t="n">
-        <v>0.710431</v>
+        <v>0.70407</v>
       </c>
       <c r="D51" t="n">
-        <v>0.755871</v>
+        <v>0.733414</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.827867</v>
+        <v>0.799878</v>
       </c>
       <c r="C52" t="n">
-        <v>0.717</v>
+        <v>0.716629</v>
       </c>
       <c r="D52" t="n">
-        <v>0.734663</v>
+        <v>0.758054</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.927312</v>
+        <v>0.901133</v>
       </c>
       <c r="C53" t="n">
-        <v>0.742847</v>
+        <v>0.733754</v>
       </c>
       <c r="D53" t="n">
-        <v>0.749377</v>
+        <v>0.766581</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.938292</v>
+        <v>0.891374</v>
       </c>
       <c r="C54" t="n">
-        <v>0.764308</v>
+        <v>0.76023</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7454190000000001</v>
+        <v>0.758126</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.94569</v>
+        <v>0.867514</v>
       </c>
       <c r="C55" t="n">
-        <v>0.773984</v>
+        <v>0.725912</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7728120000000001</v>
+        <v>0.740744</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.946603</v>
+        <v>0.874605</v>
       </c>
       <c r="C56" t="n">
-        <v>0.746741</v>
+        <v>0.7268210000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.743445</v>
+        <v>0.740641</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.952702</v>
+        <v>0.878173</v>
       </c>
       <c r="C57" t="n">
-        <v>0.736515</v>
+        <v>0.737884</v>
       </c>
       <c r="D57" t="n">
-        <v>0.740543</v>
+        <v>0.7458320000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.925536</v>
+        <v>0.892604</v>
       </c>
       <c r="C58" t="n">
-        <v>0.760267</v>
+        <v>0.74113</v>
       </c>
       <c r="D58" t="n">
-        <v>0.834842</v>
+        <v>0.737462</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.946024</v>
+        <v>0.88037</v>
       </c>
       <c r="C59" t="n">
-        <v>0.756895</v>
+        <v>0.736661</v>
       </c>
       <c r="D59" t="n">
-        <v>0.735162</v>
+        <v>0.746857</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.99671</v>
+        <v>0.888128</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7562179999999999</v>
+        <v>0.7287</v>
       </c>
       <c r="D60" t="n">
-        <v>0.762858</v>
+        <v>0.756183</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.960507</v>
+        <v>0.8878819999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.775698</v>
+        <v>0.741834</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7533339999999999</v>
+        <v>0.762067</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.986296</v>
+        <v>0.870954</v>
       </c>
       <c r="C62" t="n">
-        <v>0.761256</v>
+        <v>0.782393</v>
       </c>
       <c r="D62" t="n">
-        <v>0.755378</v>
+        <v>0.767737</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.916281</v>
+        <v>0.868619</v>
       </c>
       <c r="C63" t="n">
-        <v>0.757906</v>
+        <v>0.745788</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7584880000000001</v>
+        <v>0.757875</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.991357</v>
+        <v>0.884915</v>
       </c>
       <c r="C64" t="n">
-        <v>0.762649</v>
+        <v>0.734573</v>
       </c>
       <c r="D64" t="n">
-        <v>0.870667</v>
+        <v>0.752877</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.02491</v>
+        <v>0.9033679999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.762301</v>
+        <v>0.7427</v>
       </c>
       <c r="D65" t="n">
-        <v>0.76667</v>
+        <v>0.769552</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.948504</v>
+        <v>0.877017</v>
       </c>
       <c r="C66" t="n">
-        <v>0.766198</v>
+        <v>0.758062</v>
       </c>
       <c r="D66" t="n">
-        <v>0.981707</v>
+        <v>0.892213</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.32471</v>
+        <v>1.09888</v>
       </c>
       <c r="C67" t="n">
-        <v>0.994929</v>
+        <v>0.868992</v>
       </c>
       <c r="D67" t="n">
-        <v>1.0042</v>
+        <v>0.890969</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.35322</v>
+        <v>1.12689</v>
       </c>
       <c r="C68" t="n">
-        <v>1.00389</v>
+        <v>0.878843</v>
       </c>
       <c r="D68" t="n">
-        <v>1.05094</v>
+        <v>0.874031</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.36386</v>
+        <v>1.08845</v>
       </c>
       <c r="C69" t="n">
-        <v>1.07691</v>
+        <v>0.859778</v>
       </c>
       <c r="D69" t="n">
-        <v>1.00886</v>
+        <v>0.87942</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.39905</v>
+        <v>1.05627</v>
       </c>
       <c r="C70" t="n">
-        <v>0.967616</v>
+        <v>0.883029</v>
       </c>
       <c r="D70" t="n">
-        <v>1.0361</v>
+        <v>0.857966</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.35263</v>
+        <v>1.04678</v>
       </c>
       <c r="C71" t="n">
-        <v>1.02967</v>
+        <v>0.870452</v>
       </c>
       <c r="D71" t="n">
-        <v>1.04372</v>
+        <v>0.874299</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.36473</v>
+        <v>1.06506</v>
       </c>
       <c r="C72" t="n">
-        <v>0.968828</v>
+        <v>0.85645</v>
       </c>
       <c r="D72" t="n">
-        <v>1.08365</v>
+        <v>0.8805500000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.35731</v>
+        <v>1.06971</v>
       </c>
       <c r="C73" t="n">
-        <v>1.05192</v>
+        <v>0.857503</v>
       </c>
       <c r="D73" t="n">
-        <v>0.992335</v>
+        <v>0.86911</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.35451</v>
+        <v>1.05426</v>
       </c>
       <c r="C74" t="n">
-        <v>1.00306</v>
+        <v>0.874479</v>
       </c>
       <c r="D74" t="n">
-        <v>0.998391</v>
+        <v>0.886581</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.35628</v>
+        <v>1.1165</v>
       </c>
       <c r="C75" t="n">
-        <v>1.0171</v>
+        <v>0.859827</v>
       </c>
       <c r="D75" t="n">
-        <v>1.01316</v>
+        <v>0.869746</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.34887</v>
+        <v>1.07412</v>
       </c>
       <c r="C76" t="n">
-        <v>0.990251</v>
+        <v>0.922254</v>
       </c>
       <c r="D76" t="n">
-        <v>1.01574</v>
+        <v>0.900594</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.33782</v>
+        <v>1.05395</v>
       </c>
       <c r="C77" t="n">
-        <v>1.00765</v>
+        <v>0.87478</v>
       </c>
       <c r="D77" t="n">
-        <v>1.03924</v>
+        <v>0.866982</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.32287</v>
+        <v>1.07052</v>
       </c>
       <c r="C78" t="n">
-        <v>1.00854</v>
+        <v>0.895078</v>
       </c>
       <c r="D78" t="n">
-        <v>1.05964</v>
+        <v>0.884318</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.36429</v>
+        <v>1.08327</v>
       </c>
       <c r="C79" t="n">
-        <v>1.03708</v>
+        <v>0.866275</v>
       </c>
       <c r="D79" t="n">
-        <v>1.02698</v>
+        <v>0.895087</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.40539</v>
+        <v>1.04216</v>
       </c>
       <c r="C80" t="n">
-        <v>1.03509</v>
+        <v>0.897397</v>
       </c>
       <c r="D80" t="n">
-        <v>1.39556</v>
+        <v>1.18496</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.68781</v>
+        <v>1.40032</v>
       </c>
       <c r="C81" t="n">
-        <v>1.37393</v>
+        <v>1.17759</v>
       </c>
       <c r="D81" t="n">
-        <v>1.39219</v>
+        <v>1.23755</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.66979</v>
+        <v>1.3799</v>
       </c>
       <c r="C82" t="n">
-        <v>1.43843</v>
+        <v>1.21423</v>
       </c>
       <c r="D82" t="n">
-        <v>1.40774</v>
+        <v>1.17204</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.67488</v>
+        <v>1.38646</v>
       </c>
       <c r="C83" t="n">
-        <v>1.3673</v>
+        <v>1.1475</v>
       </c>
       <c r="D83" t="n">
-        <v>1.37875</v>
+        <v>1.18503</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.66422</v>
+        <v>1.39634</v>
       </c>
       <c r="C84" t="n">
-        <v>1.3881</v>
+        <v>1.18522</v>
       </c>
       <c r="D84" t="n">
-        <v>1.40326</v>
+        <v>1.15453</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.74775</v>
+        <v>1.39017</v>
       </c>
       <c r="C85" t="n">
-        <v>1.39228</v>
+        <v>1.2043</v>
       </c>
       <c r="D85" t="n">
-        <v>1.40191</v>
+        <v>1.18479</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.66708</v>
+        <v>1.41597</v>
       </c>
       <c r="C86" t="n">
-        <v>1.41559</v>
+        <v>1.17593</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41222</v>
+        <v>1.146</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.67955</v>
+        <v>1.40655</v>
       </c>
       <c r="C87" t="n">
-        <v>1.40698</v>
+        <v>1.17438</v>
       </c>
       <c r="D87" t="n">
-        <v>1.46226</v>
+        <v>1.1737</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.6668</v>
+        <v>1.40826</v>
       </c>
       <c r="C88" t="n">
-        <v>1.39497</v>
+        <v>1.17287</v>
       </c>
       <c r="D88" t="n">
-        <v>1.43</v>
+        <v>1.22199</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.6836</v>
+        <v>1.38441</v>
       </c>
       <c r="C89" t="n">
-        <v>1.42911</v>
+        <v>1.2147</v>
       </c>
       <c r="D89" t="n">
-        <v>1.4276</v>
+        <v>1.20098</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.68582</v>
+        <v>1.41108</v>
       </c>
       <c r="C90" t="n">
-        <v>1.40109</v>
+        <v>1.18971</v>
       </c>
       <c r="D90" t="n">
-        <v>1.40873</v>
+        <v>1.17103</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.66619</v>
+        <v>1.42979</v>
       </c>
       <c r="C91" t="n">
-        <v>1.40976</v>
+        <v>1.18463</v>
       </c>
       <c r="D91" t="n">
-        <v>1.41772</v>
+        <v>1.15895</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.66718</v>
+        <v>1.3805</v>
       </c>
       <c r="C92" t="n">
-        <v>1.40444</v>
+        <v>1.19551</v>
       </c>
       <c r="D92" t="n">
-        <v>1.41347</v>
+        <v>1.18531</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.67303</v>
+        <v>1.38866</v>
       </c>
       <c r="C93" t="n">
-        <v>1.46101</v>
+        <v>1.18069</v>
       </c>
       <c r="D93" t="n">
-        <v>1.4072</v>
+        <v>1.18624</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.67337</v>
+        <v>1.37653</v>
       </c>
       <c r="C94" t="n">
-        <v>1.46306</v>
+        <v>1.21875</v>
       </c>
       <c r="D94" t="n">
-        <v>1.6496</v>
+        <v>1.55033</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.03273</v>
+        <v>1.71598</v>
       </c>
       <c r="C95" t="n">
-        <v>1.62721</v>
+        <v>1.47825</v>
       </c>
       <c r="D95" t="n">
-        <v>1.67624</v>
+        <v>1.56078</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.04211</v>
+        <v>1.74201</v>
       </c>
       <c r="C96" t="n">
-        <v>1.61265</v>
+        <v>1.51907</v>
       </c>
       <c r="D96" t="n">
-        <v>1.66505</v>
+        <v>1.55478</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.06328</v>
+        <v>1.77911</v>
       </c>
       <c r="C97" t="n">
-        <v>1.61181</v>
+        <v>1.49268</v>
       </c>
       <c r="D97" t="n">
-        <v>1.67877</v>
+        <v>1.55453</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.1475</v>
+        <v>1.77598</v>
       </c>
       <c r="C98" t="n">
-        <v>1.62833</v>
+        <v>1.52778</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66954</v>
+        <v>1.53851</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.02284</v>
+        <v>1.74033</v>
       </c>
       <c r="C99" t="n">
-        <v>1.61702</v>
+        <v>1.55251</v>
       </c>
       <c r="D99" t="n">
-        <v>1.68635</v>
+        <v>1.52052</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.02596</v>
+        <v>1.7294</v>
       </c>
       <c r="C100" t="n">
-        <v>1.66861</v>
+        <v>1.54825</v>
       </c>
       <c r="D100" t="n">
-        <v>1.68749</v>
+        <v>1.57558</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.03529</v>
+        <v>1.76273</v>
       </c>
       <c r="C101" t="n">
-        <v>1.68673</v>
+        <v>1.56459</v>
       </c>
       <c r="D101" t="n">
-        <v>1.75793</v>
+        <v>1.5339</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.05039</v>
+        <v>1.73467</v>
       </c>
       <c r="C102" t="n">
-        <v>1.68527</v>
+        <v>1.56546</v>
       </c>
       <c r="D102" t="n">
-        <v>1.69096</v>
+        <v>1.59517</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.09221</v>
+        <v>1.75367</v>
       </c>
       <c r="C103" t="n">
-        <v>1.6582</v>
+        <v>1.56883</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71552</v>
+        <v>1.57136</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.04838</v>
+        <v>1.77101</v>
       </c>
       <c r="C104" t="n">
-        <v>1.65705</v>
+        <v>1.54013</v>
       </c>
       <c r="D104" t="n">
-        <v>1.79219</v>
+        <v>1.53925</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.99231</v>
+        <v>1.77523</v>
       </c>
       <c r="C105" t="n">
-        <v>1.66535</v>
+        <v>1.53338</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70271</v>
+        <v>1.52485</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.01589</v>
+        <v>1.8043</v>
       </c>
       <c r="C106" t="n">
-        <v>1.67132</v>
+        <v>1.50577</v>
       </c>
       <c r="D106" t="n">
-        <v>1.73378</v>
+        <v>1.52206</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.0316</v>
+        <v>1.74566</v>
       </c>
       <c r="C107" t="n">
-        <v>1.69352</v>
+        <v>1.58648</v>
       </c>
       <c r="D107" t="n">
-        <v>1.74117</v>
+        <v>1.56007</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.03959</v>
+        <v>1.74607</v>
       </c>
       <c r="C108" t="n">
-        <v>1.711</v>
+        <v>1.55852</v>
       </c>
       <c r="D108" t="n">
-        <v>1.87146</v>
+        <v>1.72315</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.03436</v>
+        <v>1.76661</v>
       </c>
       <c r="C109" t="n">
-        <v>1.72061</v>
+        <v>1.5394</v>
       </c>
       <c r="D109" t="n">
-        <v>1.88296</v>
+        <v>1.7511</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.44812</v>
+        <v>2.14316</v>
       </c>
       <c r="C110" t="n">
-        <v>1.75536</v>
+        <v>1.73411</v>
       </c>
       <c r="D110" t="n">
-        <v>1.84887</v>
+        <v>1.75676</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.44643</v>
+        <v>2.11655</v>
       </c>
       <c r="C111" t="n">
-        <v>1.76919</v>
+        <v>1.70346</v>
       </c>
       <c r="D111" t="n">
-        <v>1.86164</v>
+        <v>1.75714</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.45499</v>
+        <v>2.18894</v>
       </c>
       <c r="C112" t="n">
-        <v>1.80377</v>
+        <v>1.72578</v>
       </c>
       <c r="D112" t="n">
-        <v>1.87239</v>
+        <v>1.74999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.52313</v>
+        <v>2.16778</v>
       </c>
       <c r="C113" t="n">
-        <v>1.79526</v>
+        <v>1.72179</v>
       </c>
       <c r="D113" t="n">
-        <v>1.86427</v>
+        <v>1.74524</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.42335</v>
+        <v>2.16808</v>
       </c>
       <c r="C114" t="n">
-        <v>1.79533</v>
+        <v>1.71649</v>
       </c>
       <c r="D114" t="n">
-        <v>1.88263</v>
+        <v>1.78244</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.46088</v>
+        <v>2.14965</v>
       </c>
       <c r="C115" t="n">
-        <v>1.92782</v>
+        <v>1.73722</v>
       </c>
       <c r="D115" t="n">
-        <v>1.90512</v>
+        <v>1.76414</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.46497</v>
+        <v>2.10455</v>
       </c>
       <c r="C116" t="n">
-        <v>1.83144</v>
+        <v>1.72635</v>
       </c>
       <c r="D116" t="n">
-        <v>1.89567</v>
+        <v>1.77082</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.48432</v>
+        <v>2.14381</v>
       </c>
       <c r="C117" t="n">
-        <v>1.81352</v>
+        <v>1.74201</v>
       </c>
       <c r="D117" t="n">
-        <v>1.90434</v>
+        <v>1.78448</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.48453</v>
+        <v>2.12026</v>
       </c>
       <c r="C118" t="n">
-        <v>1.93793</v>
+        <v>1.79342</v>
       </c>
       <c r="D118" t="n">
-        <v>1.92581</v>
+        <v>1.79018</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.48663</v>
+        <v>2.17922</v>
       </c>
       <c r="C119" t="n">
-        <v>1.82908</v>
+        <v>1.72932</v>
       </c>
       <c r="D119" t="n">
-        <v>1.92135</v>
+        <v>1.80972</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>2.49975</v>
+        <v>2.13075</v>
       </c>
       <c r="C120" t="n">
-        <v>1.86993</v>
+        <v>1.76633</v>
       </c>
       <c r="D120" t="n">
-        <v>1.9443</v>
+        <v>1.7986</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>2.48002</v>
+        <v>2.1307</v>
       </c>
       <c r="C121" t="n">
-        <v>1.85868</v>
+        <v>1.7727</v>
       </c>
       <c r="D121" t="n">
-        <v>1.93981</v>
+        <v>1.82871</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>2.52808</v>
+        <v>2.12537</v>
       </c>
       <c r="C122" t="n">
-        <v>1.87697</v>
+        <v>1.78219</v>
       </c>
       <c r="D122" t="n">
-        <v>1.96456</v>
+        <v>1.84058</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>2.48547</v>
+        <v>2.17085</v>
       </c>
       <c r="C123" t="n">
-        <v>1.90664</v>
+        <v>1.81302</v>
       </c>
       <c r="D123" t="n">
-        <v>1.99954</v>
+        <v>1.92297</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.76829</v>
+        <v>2.53446</v>
       </c>
       <c r="C124" t="n">
-        <v>1.97545</v>
+        <v>1.88334</v>
       </c>
       <c r="D124" t="n">
-        <v>2.03354</v>
+        <v>1.93995</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.80115</v>
+        <v>2.51344</v>
       </c>
       <c r="C125" t="n">
-        <v>1.94356</v>
+        <v>1.86111</v>
       </c>
       <c r="D125" t="n">
-        <v>2.00581</v>
+        <v>1.93863</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.77396</v>
+        <v>2.52871</v>
       </c>
       <c r="C126" t="n">
-        <v>1.97161</v>
+        <v>1.92853</v>
       </c>
       <c r="D126" t="n">
-        <v>2.03384</v>
+        <v>1.93695</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.83877</v>
+        <v>2.52324</v>
       </c>
       <c r="C127" t="n">
-        <v>1.97802</v>
+        <v>1.87596</v>
       </c>
       <c r="D127" t="n">
-        <v>2.06244</v>
+        <v>1.95882</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.83417</v>
+        <v>2.52213</v>
       </c>
       <c r="C128" t="n">
-        <v>1.96796</v>
+        <v>1.90029</v>
       </c>
       <c r="D128" t="n">
-        <v>2.03623</v>
+        <v>1.95688</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.81929</v>
+        <v>2.51766</v>
       </c>
       <c r="C129" t="n">
-        <v>2.49186</v>
+        <v>1.908</v>
       </c>
       <c r="D129" t="n">
-        <v>2.40447</v>
+        <v>1.96988</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>3.0503</v>
+        <v>2.51908</v>
       </c>
       <c r="C130" t="n">
-        <v>2.22226</v>
+        <v>1.88306</v>
       </c>
       <c r="D130" t="n">
-        <v>2.28295</v>
+        <v>1.99346</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>3.02852</v>
+        <v>2.54186</v>
       </c>
       <c r="C131" t="n">
-        <v>2.35064</v>
+        <v>1.90118</v>
       </c>
       <c r="D131" t="n">
-        <v>2.30366</v>
+        <v>1.96612</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>3.03953</v>
+        <v>2.5339</v>
       </c>
       <c r="C132" t="n">
-        <v>2.27593</v>
+        <v>1.973</v>
       </c>
       <c r="D132" t="n">
-        <v>2.21043</v>
+        <v>1.99226</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.92459</v>
+        <v>2.50846</v>
       </c>
       <c r="C133" t="n">
-        <v>2.20856</v>
+        <v>1.92239</v>
       </c>
       <c r="D133" t="n">
-        <v>2.39147</v>
+        <v>2.02319</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.921</v>
+        <v>2.51885</v>
       </c>
       <c r="C134" t="n">
-        <v>2.17919</v>
+        <v>1.9578</v>
       </c>
       <c r="D134" t="n">
-        <v>2.35139</v>
+        <v>1.98177</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>3.33806</v>
+        <v>2.53173</v>
       </c>
       <c r="C135" t="n">
-        <v>2.53784</v>
+        <v>1.93415</v>
       </c>
       <c r="D135" t="n">
-        <v>2.61423</v>
+        <v>2.00637</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>3.47337</v>
+        <v>2.55316</v>
       </c>
       <c r="C136" t="n">
-        <v>2.69016</v>
+        <v>1.98918</v>
       </c>
       <c r="D136" t="n">
-        <v>2.26545</v>
+        <v>2.04129</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.76007</v>
+        <v>2.54369</v>
       </c>
       <c r="C137" t="n">
-        <v>2.05902</v>
+        <v>1.99274</v>
       </c>
       <c r="D137" t="n">
-        <v>2.19635</v>
+        <v>2.10547</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>3.04462</v>
+        <v>2.84436</v>
       </c>
       <c r="C138" t="n">
-        <v>2.25</v>
+        <v>2.02949</v>
       </c>
       <c r="D138" t="n">
-        <v>2.17185</v>
+        <v>2.09982</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>3.01684</v>
+        <v>2.8675</v>
       </c>
       <c r="C139" t="n">
-        <v>2.14919</v>
+        <v>2.0295</v>
       </c>
       <c r="D139" t="n">
-        <v>2.19118</v>
+        <v>2.09735</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>3.03739</v>
+        <v>2.86192</v>
       </c>
       <c r="C140" t="n">
-        <v>2.18136</v>
+        <v>2.04696</v>
       </c>
       <c r="D140" t="n">
-        <v>2.21856</v>
+        <v>2.11347</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>3.05852</v>
+        <v>2.85203</v>
       </c>
       <c r="C141" t="n">
-        <v>2.24946</v>
+        <v>2.0388</v>
       </c>
       <c r="D141" t="n">
-        <v>2.31533</v>
+        <v>2.09475</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>3.17148</v>
+        <v>2.86033</v>
       </c>
       <c r="C142" t="n">
-        <v>2.3385</v>
+        <v>2.06673</v>
       </c>
       <c r="D142" t="n">
-        <v>2.46844</v>
+        <v>2.12697</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>3.27498</v>
+        <v>2.86456</v>
       </c>
       <c r="C143" t="n">
-        <v>2.35886</v>
+        <v>2.06975</v>
       </c>
       <c r="D143" t="n">
-        <v>2.35967</v>
+        <v>2.12755</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.745101</v>
+        <v>0.756389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.647444</v>
+        <v>0.657513</v>
       </c>
       <c r="D2" t="n">
-        <v>0.663223</v>
+        <v>0.666777</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.748262</v>
+        <v>0.727629</v>
       </c>
       <c r="C3" t="n">
-        <v>0.655841</v>
+        <v>0.632678</v>
       </c>
       <c r="D3" t="n">
-        <v>0.675748</v>
+        <v>0.64864</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.739415</v>
+        <v>0.7233000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.680801</v>
+        <v>0.649577</v>
       </c>
       <c r="D4" t="n">
-        <v>0.657301</v>
+        <v>0.684105</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.74758</v>
+        <v>0.713384</v>
       </c>
       <c r="C5" t="n">
-        <v>0.651163</v>
+        <v>0.660646</v>
       </c>
       <c r="D5" t="n">
-        <v>0.653093</v>
+        <v>0.6714020000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7256629999999999</v>
+        <v>0.715835</v>
       </c>
       <c r="C6" t="n">
-        <v>0.642807</v>
+        <v>0.6362719999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.65634</v>
+        <v>0.658063</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.73347</v>
+        <v>0.73211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.663019</v>
+        <v>0.656222</v>
       </c>
       <c r="D7" t="n">
-        <v>0.666623</v>
+        <v>0.663994</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.765118</v>
+        <v>0.71596</v>
       </c>
       <c r="C8" t="n">
-        <v>0.648759</v>
+        <v>0.650594</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6699310000000001</v>
+        <v>0.664145</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7290410000000001</v>
+        <v>0.741516</v>
       </c>
       <c r="C9" t="n">
-        <v>0.656395</v>
+        <v>0.6790620000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.676648</v>
+        <v>0.67527</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.748178</v>
+        <v>0.753059</v>
       </c>
       <c r="C10" t="n">
-        <v>0.637922</v>
+        <v>0.644947</v>
       </c>
       <c r="D10" t="n">
-        <v>0.665301</v>
+        <v>0.681308</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.731254</v>
+        <v>0.77501</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6632130000000001</v>
+        <v>0.656929</v>
       </c>
       <c r="D11" t="n">
-        <v>0.64722</v>
+        <v>0.678358</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7479749999999999</v>
+        <v>0.745633</v>
       </c>
       <c r="C12" t="n">
-        <v>0.668744</v>
+        <v>0.675274</v>
       </c>
       <c r="D12" t="n">
-        <v>0.649748</v>
+        <v>0.673412</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.747744</v>
+        <v>0.744634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.641265</v>
+        <v>0.6503679999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.66943</v>
+        <v>0.668513</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.753347</v>
+        <v>0.748113</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6717919999999999</v>
+        <v>0.662841</v>
       </c>
       <c r="D14" t="n">
-        <v>0.656587</v>
+        <v>0.674975</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.719351</v>
+        <v>0.779183</v>
       </c>
       <c r="C15" t="n">
-        <v>0.663083</v>
+        <v>0.654258</v>
       </c>
       <c r="D15" t="n">
-        <v>0.665369</v>
+        <v>0.684732</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.747665</v>
+        <v>0.7607930000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.664808</v>
+        <v>0.638595</v>
       </c>
       <c r="D16" t="n">
-        <v>0.670582</v>
+        <v>0.663832</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.72365</v>
+        <v>0.745869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.638607</v>
+        <v>0.652603</v>
       </c>
       <c r="D17" t="n">
-        <v>0.65709</v>
+        <v>0.655787</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7522489999999999</v>
+        <v>0.754208</v>
       </c>
       <c r="C18" t="n">
-        <v>0.655878</v>
+        <v>0.657721</v>
       </c>
       <c r="D18" t="n">
-        <v>0.660814</v>
+        <v>0.677881</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.741488</v>
+        <v>0.745857</v>
       </c>
       <c r="C19" t="n">
-        <v>0.638601</v>
+        <v>0.646498</v>
       </c>
       <c r="D19" t="n">
-        <v>0.657654</v>
+        <v>0.666949</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.731061</v>
+        <v>0.735932</v>
       </c>
       <c r="C20" t="n">
-        <v>0.653798</v>
+        <v>0.651064</v>
       </c>
       <c r="D20" t="n">
-        <v>0.665787</v>
+        <v>0.6653019999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.734578</v>
+        <v>0.771686</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6556110000000001</v>
+        <v>0.671648</v>
       </c>
       <c r="D21" t="n">
-        <v>0.643588</v>
+        <v>0.665851</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.730131</v>
+        <v>0.759575</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6482329999999999</v>
+        <v>0.650022</v>
       </c>
       <c r="D22" t="n">
-        <v>0.680647</v>
+        <v>0.668937</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7431489999999999</v>
+        <v>0.752979</v>
       </c>
       <c r="C23" t="n">
-        <v>0.648078</v>
+        <v>0.675213</v>
       </c>
       <c r="D23" t="n">
-        <v>0.670069</v>
+        <v>0.670562</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7675650000000001</v>
+        <v>0.786237</v>
       </c>
       <c r="C24" t="n">
-        <v>0.653315</v>
+        <v>0.661926</v>
       </c>
       <c r="D24" t="n">
-        <v>0.693619</v>
+        <v>0.6616919999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.785965</v>
+        <v>0.76612</v>
       </c>
       <c r="C25" t="n">
-        <v>0.658629</v>
+        <v>0.690809</v>
       </c>
       <c r="D25" t="n">
-        <v>0.707507</v>
+        <v>0.68531</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.767787</v>
+        <v>0.806604</v>
       </c>
       <c r="C26" t="n">
-        <v>0.660702</v>
+        <v>0.663291</v>
       </c>
       <c r="D26" t="n">
-        <v>0.686172</v>
+        <v>0.66795</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.801804</v>
+        <v>0.78448</v>
       </c>
       <c r="C27" t="n">
-        <v>0.661008</v>
+        <v>0.669805</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6654409999999999</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.767115</v>
+        <v>0.77679</v>
       </c>
       <c r="C28" t="n">
-        <v>0.673803</v>
+        <v>0.6757880000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.685678</v>
+        <v>0.66979</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.781286</v>
+        <v>0.7854449999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.658267</v>
+        <v>0.657351</v>
       </c>
       <c r="D29" t="n">
-        <v>0.678015</v>
+        <v>0.67561</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.782793</v>
+        <v>0.791246</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6880309999999999</v>
+        <v>0.668547</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6708730000000001</v>
+        <v>0.692934</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.777363</v>
+        <v>0.774379</v>
       </c>
       <c r="C31" t="n">
-        <v>0.685123</v>
+        <v>0.689235</v>
       </c>
       <c r="D31" t="n">
-        <v>0.676423</v>
+        <v>0.70235</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7958460000000001</v>
+        <v>0.776493</v>
       </c>
       <c r="C32" t="n">
-        <v>0.687936</v>
+        <v>0.679291</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6913589999999999</v>
+        <v>0.678976</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.785276</v>
+        <v>0.773612</v>
       </c>
       <c r="C33" t="n">
-        <v>0.679541</v>
+        <v>0.69063</v>
       </c>
       <c r="D33" t="n">
-        <v>0.692405</v>
+        <v>0.702456</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.780367</v>
+        <v>0.789196</v>
       </c>
       <c r="C34" t="n">
-        <v>0.674548</v>
+        <v>0.665188</v>
       </c>
       <c r="D34" t="n">
-        <v>0.696704</v>
+        <v>0.678001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.765582</v>
+        <v>0.782675</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6740390000000001</v>
+        <v>0.680092</v>
       </c>
       <c r="D35" t="n">
-        <v>0.700552</v>
+        <v>0.69135</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7773949999999999</v>
+        <v>0.795758</v>
       </c>
       <c r="C36" t="n">
-        <v>0.698926</v>
+        <v>0.673543</v>
       </c>
       <c r="D36" t="n">
-        <v>0.691372</v>
+        <v>0.697529</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.800907</v>
+        <v>0.781452</v>
       </c>
       <c r="C37" t="n">
-        <v>0.671889</v>
+        <v>0.689785</v>
       </c>
       <c r="D37" t="n">
-        <v>0.677022</v>
+        <v>0.685955</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.805707</v>
+        <v>0.817053</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6754250000000001</v>
+        <v>0.698758</v>
       </c>
       <c r="D38" t="n">
-        <v>0.691375</v>
+        <v>0.700664</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.808127</v>
+        <v>0.834067</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6973470000000001</v>
+        <v>0.70718</v>
       </c>
       <c r="D39" t="n">
-        <v>0.696905</v>
+        <v>0.7127019999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.818469</v>
+        <v>0.806214</v>
       </c>
       <c r="C40" t="n">
-        <v>0.688241</v>
+        <v>0.683859</v>
       </c>
       <c r="D40" t="n">
-        <v>0.711129</v>
+        <v>0.703624</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8108300000000001</v>
+        <v>0.825337</v>
       </c>
       <c r="C41" t="n">
-        <v>0.699975</v>
+        <v>0.69521</v>
       </c>
       <c r="D41" t="n">
-        <v>0.718958</v>
+        <v>0.710595</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.804239</v>
+        <v>0.795044</v>
       </c>
       <c r="C42" t="n">
-        <v>0.678798</v>
+        <v>0.684511</v>
       </c>
       <c r="D42" t="n">
-        <v>0.690427</v>
+        <v>0.705494</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.839232</v>
+        <v>0.803432</v>
       </c>
       <c r="C43" t="n">
-        <v>0.681879</v>
+        <v>0.693238</v>
       </c>
       <c r="D43" t="n">
-        <v>0.70464</v>
+        <v>0.7155820000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.802832</v>
+        <v>0.829842</v>
       </c>
       <c r="C44" t="n">
-        <v>0.706368</v>
+        <v>0.698512</v>
       </c>
       <c r="D44" t="n">
-        <v>0.697671</v>
+        <v>0.694478</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7955140000000001</v>
+        <v>0.815483</v>
       </c>
       <c r="C45" t="n">
-        <v>0.674967</v>
+        <v>0.684299</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7108179999999999</v>
+        <v>0.70807</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.795669</v>
+        <v>0.822557</v>
       </c>
       <c r="C46" t="n">
-        <v>0.704029</v>
+        <v>0.687048</v>
       </c>
       <c r="D46" t="n">
-        <v>0.702607</v>
+        <v>0.708932</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.84209</v>
+        <v>0.836395</v>
       </c>
       <c r="C47" t="n">
-        <v>0.691488</v>
+        <v>0.694782</v>
       </c>
       <c r="D47" t="n">
-        <v>0.693495</v>
+        <v>0.713689</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8218259999999999</v>
+        <v>0.833072</v>
       </c>
       <c r="C48" t="n">
-        <v>0.696526</v>
+        <v>0.6916369999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.699846</v>
+        <v>0.710108</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.821134</v>
+        <v>0.808105</v>
       </c>
       <c r="C49" t="n">
-        <v>0.712736</v>
+        <v>0.704698</v>
       </c>
       <c r="D49" t="n">
-        <v>0.724008</v>
+        <v>0.711916</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.820143</v>
+        <v>0.81899</v>
       </c>
       <c r="C50" t="n">
-        <v>0.688966</v>
+        <v>0.688038</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7188059999999999</v>
+        <v>0.719819</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.798901</v>
+        <v>0.835139</v>
       </c>
       <c r="C51" t="n">
-        <v>0.70407</v>
+        <v>0.691286</v>
       </c>
       <c r="D51" t="n">
-        <v>0.733414</v>
+        <v>0.753811</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.799878</v>
+        <v>0.8404430000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.716629</v>
+        <v>0.7018720000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.758054</v>
+        <v>0.746855</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.901133</v>
+        <v>0.881937</v>
       </c>
       <c r="C53" t="n">
-        <v>0.733754</v>
+        <v>0.724907</v>
       </c>
       <c r="D53" t="n">
-        <v>0.766581</v>
+        <v>0.749661</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.891374</v>
+        <v>0.8879590000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.76023</v>
+        <v>0.732541</v>
       </c>
       <c r="D54" t="n">
-        <v>0.758126</v>
+        <v>0.751225</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.867514</v>
+        <v>0.86796</v>
       </c>
       <c r="C55" t="n">
-        <v>0.725912</v>
+        <v>0.736189</v>
       </c>
       <c r="D55" t="n">
-        <v>0.740744</v>
+        <v>0.744285</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.874605</v>
+        <v>0.878718</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7268210000000001</v>
+        <v>0.735456</v>
       </c>
       <c r="D56" t="n">
-        <v>0.740641</v>
+        <v>0.756975</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.878173</v>
+        <v>0.875277</v>
       </c>
       <c r="C57" t="n">
-        <v>0.737884</v>
+        <v>0.715177</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7458320000000001</v>
+        <v>0.751212</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.892604</v>
+        <v>0.879609</v>
       </c>
       <c r="C58" t="n">
-        <v>0.74113</v>
+        <v>0.739328</v>
       </c>
       <c r="D58" t="n">
-        <v>0.737462</v>
+        <v>0.762448</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.88037</v>
+        <v>0.902257</v>
       </c>
       <c r="C59" t="n">
-        <v>0.736661</v>
+        <v>0.739362</v>
       </c>
       <c r="D59" t="n">
-        <v>0.746857</v>
+        <v>0.747846</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.888128</v>
+        <v>0.88264</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7287</v>
+        <v>0.733789</v>
       </c>
       <c r="D60" t="n">
-        <v>0.756183</v>
+        <v>0.750942</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8878819999999999</v>
+        <v>0.863103</v>
       </c>
       <c r="C61" t="n">
-        <v>0.741834</v>
+        <v>0.742942</v>
       </c>
       <c r="D61" t="n">
-        <v>0.762067</v>
+        <v>0.7664570000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.870954</v>
+        <v>0.870565</v>
       </c>
       <c r="C62" t="n">
-        <v>0.782393</v>
+        <v>0.7482760000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.767737</v>
+        <v>0.753453</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.868619</v>
+        <v>0.88495</v>
       </c>
       <c r="C63" t="n">
-        <v>0.745788</v>
+        <v>0.7644570000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.757875</v>
+        <v>0.775471</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.884915</v>
+        <v>0.886815</v>
       </c>
       <c r="C64" t="n">
-        <v>0.734573</v>
+        <v>0.756762</v>
       </c>
       <c r="D64" t="n">
-        <v>0.752877</v>
+        <v>0.762526</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9033679999999999</v>
+        <v>0.88572</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7427</v>
+        <v>0.739857</v>
       </c>
       <c r="D65" t="n">
-        <v>0.769552</v>
+        <v>0.759482</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.877017</v>
+        <v>0.877048</v>
       </c>
       <c r="C66" t="n">
-        <v>0.758062</v>
+        <v>0.766609</v>
       </c>
       <c r="D66" t="n">
-        <v>0.892213</v>
+        <v>0.856236</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.09888</v>
+        <v>1.11081</v>
       </c>
       <c r="C67" t="n">
-        <v>0.868992</v>
+        <v>0.876687</v>
       </c>
       <c r="D67" t="n">
-        <v>0.890969</v>
+        <v>0.881617</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.12689</v>
+        <v>1.11358</v>
       </c>
       <c r="C68" t="n">
-        <v>0.878843</v>
+        <v>0.869625</v>
       </c>
       <c r="D68" t="n">
-        <v>0.874031</v>
+        <v>0.897989</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.08845</v>
+        <v>1.12888</v>
       </c>
       <c r="C69" t="n">
-        <v>0.859778</v>
+        <v>0.881806</v>
       </c>
       <c r="D69" t="n">
-        <v>0.87942</v>
+        <v>0.8868549999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.05627</v>
+        <v>1.0939</v>
       </c>
       <c r="C70" t="n">
-        <v>0.883029</v>
+        <v>0.870523</v>
       </c>
       <c r="D70" t="n">
-        <v>0.857966</v>
+        <v>0.8952020000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04678</v>
+        <v>1.12279</v>
       </c>
       <c r="C71" t="n">
-        <v>0.870452</v>
+        <v>0.903104</v>
       </c>
       <c r="D71" t="n">
-        <v>0.874299</v>
+        <v>0.882414</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.06506</v>
+        <v>1.09126</v>
       </c>
       <c r="C72" t="n">
-        <v>0.85645</v>
+        <v>0.880721</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8805500000000001</v>
+        <v>0.901764</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.06971</v>
+        <v>1.07124</v>
       </c>
       <c r="C73" t="n">
-        <v>0.857503</v>
+        <v>0.891315</v>
       </c>
       <c r="D73" t="n">
-        <v>0.86911</v>
+        <v>0.875645</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.05426</v>
+        <v>1.11836</v>
       </c>
       <c r="C74" t="n">
-        <v>0.874479</v>
+        <v>0.865078</v>
       </c>
       <c r="D74" t="n">
-        <v>0.886581</v>
+        <v>0.867406</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.1165</v>
+        <v>1.08659</v>
       </c>
       <c r="C75" t="n">
-        <v>0.859827</v>
+        <v>0.876535</v>
       </c>
       <c r="D75" t="n">
-        <v>0.869746</v>
+        <v>0.859536</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.07412</v>
+        <v>1.07186</v>
       </c>
       <c r="C76" t="n">
-        <v>0.922254</v>
+        <v>0.903216</v>
       </c>
       <c r="D76" t="n">
-        <v>0.900594</v>
+        <v>0.895997</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.05395</v>
+        <v>1.07738</v>
       </c>
       <c r="C77" t="n">
-        <v>0.87478</v>
+        <v>0.90442</v>
       </c>
       <c r="D77" t="n">
-        <v>0.866982</v>
+        <v>0.892611</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.07052</v>
+        <v>1.07879</v>
       </c>
       <c r="C78" t="n">
-        <v>0.895078</v>
+        <v>0.894543</v>
       </c>
       <c r="D78" t="n">
-        <v>0.884318</v>
+        <v>0.900573</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.08327</v>
+        <v>1.09775</v>
       </c>
       <c r="C79" t="n">
-        <v>0.866275</v>
+        <v>0.912707</v>
       </c>
       <c r="D79" t="n">
-        <v>0.895087</v>
+        <v>0.888741</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.04216</v>
+        <v>1.09617</v>
       </c>
       <c r="C80" t="n">
-        <v>0.897397</v>
+        <v>0.907593</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18496</v>
+        <v>1.14554</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.40032</v>
+        <v>1.38149</v>
       </c>
       <c r="C81" t="n">
-        <v>1.17759</v>
+        <v>1.15965</v>
       </c>
       <c r="D81" t="n">
-        <v>1.23755</v>
+        <v>1.1711</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.3799</v>
+        <v>1.43749</v>
       </c>
       <c r="C82" t="n">
-        <v>1.21423</v>
+        <v>1.1963</v>
       </c>
       <c r="D82" t="n">
-        <v>1.17204</v>
+        <v>1.17574</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.38646</v>
+        <v>1.40757</v>
       </c>
       <c r="C83" t="n">
-        <v>1.1475</v>
+        <v>1.1821</v>
       </c>
       <c r="D83" t="n">
-        <v>1.18503</v>
+        <v>1.14904</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.39634</v>
+        <v>1.41704</v>
       </c>
       <c r="C84" t="n">
-        <v>1.18522</v>
+        <v>1.17274</v>
       </c>
       <c r="D84" t="n">
-        <v>1.15453</v>
+        <v>1.16768</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.39017</v>
+        <v>1.41924</v>
       </c>
       <c r="C85" t="n">
-        <v>1.2043</v>
+        <v>1.19575</v>
       </c>
       <c r="D85" t="n">
-        <v>1.18479</v>
+        <v>1.17828</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.41597</v>
+        <v>1.42149</v>
       </c>
       <c r="C86" t="n">
-        <v>1.17593</v>
+        <v>1.21831</v>
       </c>
       <c r="D86" t="n">
-        <v>1.146</v>
+        <v>1.19964</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.40655</v>
+        <v>1.37814</v>
       </c>
       <c r="C87" t="n">
-        <v>1.17438</v>
+        <v>1.16854</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1737</v>
+        <v>1.16496</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.40826</v>
+        <v>1.4125</v>
       </c>
       <c r="C88" t="n">
-        <v>1.17287</v>
+        <v>1.18892</v>
       </c>
       <c r="D88" t="n">
-        <v>1.22199</v>
+        <v>1.17923</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.38441</v>
+        <v>1.4345</v>
       </c>
       <c r="C89" t="n">
-        <v>1.2147</v>
+        <v>1.17637</v>
       </c>
       <c r="D89" t="n">
-        <v>1.20098</v>
+        <v>1.19173</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.41108</v>
+        <v>1.38521</v>
       </c>
       <c r="C90" t="n">
-        <v>1.18971</v>
+        <v>1.2281</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17103</v>
+        <v>1.15899</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.42979</v>
+        <v>1.38231</v>
       </c>
       <c r="C91" t="n">
-        <v>1.18463</v>
+        <v>1.17227</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15895</v>
+        <v>1.20809</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.3805</v>
+        <v>1.42127</v>
       </c>
       <c r="C92" t="n">
-        <v>1.19551</v>
+        <v>1.20468</v>
       </c>
       <c r="D92" t="n">
-        <v>1.18531</v>
+        <v>1.17648</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.38866</v>
+        <v>1.3996</v>
       </c>
       <c r="C93" t="n">
-        <v>1.18069</v>
+        <v>1.19459</v>
       </c>
       <c r="D93" t="n">
-        <v>1.18624</v>
+        <v>1.20597</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.37653</v>
+        <v>1.42958</v>
       </c>
       <c r="C94" t="n">
-        <v>1.21875</v>
+        <v>1.19569</v>
       </c>
       <c r="D94" t="n">
-        <v>1.55033</v>
+        <v>1.56047</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.71598</v>
+        <v>1.76096</v>
       </c>
       <c r="C95" t="n">
-        <v>1.47825</v>
+        <v>1.46294</v>
       </c>
       <c r="D95" t="n">
-        <v>1.56078</v>
+        <v>1.50483</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.74201</v>
+        <v>1.76252</v>
       </c>
       <c r="C96" t="n">
-        <v>1.51907</v>
+        <v>1.50908</v>
       </c>
       <c r="D96" t="n">
-        <v>1.55478</v>
+        <v>1.52123</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.77911</v>
+        <v>1.73187</v>
       </c>
       <c r="C97" t="n">
-        <v>1.49268</v>
+        <v>1.51449</v>
       </c>
       <c r="D97" t="n">
-        <v>1.55453</v>
+        <v>1.54444</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.77598</v>
+        <v>1.77296</v>
       </c>
       <c r="C98" t="n">
-        <v>1.52778</v>
+        <v>1.49689</v>
       </c>
       <c r="D98" t="n">
-        <v>1.53851</v>
+        <v>1.50288</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.74033</v>
+        <v>1.75987</v>
       </c>
       <c r="C99" t="n">
-        <v>1.55251</v>
+        <v>1.4958</v>
       </c>
       <c r="D99" t="n">
-        <v>1.52052</v>
+        <v>1.52528</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.7294</v>
+        <v>1.79048</v>
       </c>
       <c r="C100" t="n">
-        <v>1.54825</v>
+        <v>1.50823</v>
       </c>
       <c r="D100" t="n">
-        <v>1.57558</v>
+        <v>1.53424</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.76273</v>
+        <v>1.80355</v>
       </c>
       <c r="C101" t="n">
-        <v>1.56459</v>
+        <v>1.47458</v>
       </c>
       <c r="D101" t="n">
-        <v>1.5339</v>
+        <v>1.50409</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.73467</v>
+        <v>1.74009</v>
       </c>
       <c r="C102" t="n">
-        <v>1.56546</v>
+        <v>1.5218</v>
       </c>
       <c r="D102" t="n">
-        <v>1.59517</v>
+        <v>1.58242</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.75367</v>
+        <v>1.74849</v>
       </c>
       <c r="C103" t="n">
-        <v>1.56883</v>
+        <v>1.49358</v>
       </c>
       <c r="D103" t="n">
-        <v>1.57136</v>
+        <v>1.52108</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.77101</v>
+        <v>1.77199</v>
       </c>
       <c r="C104" t="n">
-        <v>1.54013</v>
+        <v>1.53417</v>
       </c>
       <c r="D104" t="n">
-        <v>1.53925</v>
+        <v>1.54691</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.77523</v>
+        <v>1.73562</v>
       </c>
       <c r="C105" t="n">
-        <v>1.53338</v>
+        <v>1.50542</v>
       </c>
       <c r="D105" t="n">
-        <v>1.52485</v>
+        <v>1.55845</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.8043</v>
+        <v>1.79</v>
       </c>
       <c r="C106" t="n">
-        <v>1.50577</v>
+        <v>1.57178</v>
       </c>
       <c r="D106" t="n">
-        <v>1.52206</v>
+        <v>1.56803</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.74566</v>
+        <v>1.7718</v>
       </c>
       <c r="C107" t="n">
-        <v>1.58648</v>
+        <v>1.51823</v>
       </c>
       <c r="D107" t="n">
-        <v>1.56007</v>
+        <v>1.56202</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.74607</v>
+        <v>1.77519</v>
       </c>
       <c r="C108" t="n">
-        <v>1.55852</v>
+        <v>1.5313</v>
       </c>
       <c r="D108" t="n">
-        <v>1.72315</v>
+        <v>1.73592</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.76661</v>
+        <v>1.78937</v>
       </c>
       <c r="C109" t="n">
-        <v>1.5394</v>
+        <v>1.60607</v>
       </c>
       <c r="D109" t="n">
-        <v>1.7511</v>
+        <v>1.74751</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.14316</v>
+        <v>2.20148</v>
       </c>
       <c r="C110" t="n">
-        <v>1.73411</v>
+        <v>1.76942</v>
       </c>
       <c r="D110" t="n">
-        <v>1.75676</v>
+        <v>1.76478</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.11655</v>
+        <v>2.11825</v>
       </c>
       <c r="C111" t="n">
-        <v>1.70346</v>
+        <v>1.7206</v>
       </c>
       <c r="D111" t="n">
-        <v>1.75714</v>
+        <v>1.75267</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.18894</v>
+        <v>2.14863</v>
       </c>
       <c r="C112" t="n">
-        <v>1.72578</v>
+        <v>1.71551</v>
       </c>
       <c r="D112" t="n">
-        <v>1.74999</v>
+        <v>1.78275</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.16778</v>
+        <v>2.1579</v>
       </c>
       <c r="C113" t="n">
-        <v>1.72179</v>
+        <v>1.74322</v>
       </c>
       <c r="D113" t="n">
-        <v>1.74524</v>
+        <v>1.74836</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.16808</v>
+        <v>2.14946</v>
       </c>
       <c r="C114" t="n">
-        <v>1.71649</v>
+        <v>1.74767</v>
       </c>
       <c r="D114" t="n">
-        <v>1.78244</v>
+        <v>1.77168</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.14965</v>
+        <v>2.09387</v>
       </c>
       <c r="C115" t="n">
-        <v>1.73722</v>
+        <v>1.74059</v>
       </c>
       <c r="D115" t="n">
-        <v>1.76414</v>
+        <v>1.79505</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.10455</v>
+        <v>2.14437</v>
       </c>
       <c r="C116" t="n">
-        <v>1.72635</v>
+        <v>1.73944</v>
       </c>
       <c r="D116" t="n">
-        <v>1.77082</v>
+        <v>1.76774</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.14381</v>
+        <v>2.15821</v>
       </c>
       <c r="C117" t="n">
-        <v>1.74201</v>
+        <v>1.73644</v>
       </c>
       <c r="D117" t="n">
-        <v>1.78448</v>
+        <v>1.77118</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.12026</v>
+        <v>2.15093</v>
       </c>
       <c r="C118" t="n">
-        <v>1.79342</v>
+        <v>1.73737</v>
       </c>
       <c r="D118" t="n">
-        <v>1.79018</v>
+        <v>1.76745</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.17922</v>
+        <v>2.15993</v>
       </c>
       <c r="C119" t="n">
-        <v>1.72932</v>
+        <v>1.72754</v>
       </c>
       <c r="D119" t="n">
-        <v>1.80972</v>
+        <v>1.81886</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>2.13075</v>
+        <v>2.15358</v>
       </c>
       <c r="C120" t="n">
-        <v>1.76633</v>
+        <v>1.75881</v>
       </c>
       <c r="D120" t="n">
-        <v>1.7986</v>
+        <v>1.81935</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>2.1307</v>
+        <v>2.16442</v>
       </c>
       <c r="C121" t="n">
-        <v>1.7727</v>
+        <v>1.79863</v>
       </c>
       <c r="D121" t="n">
-        <v>1.82871</v>
+        <v>1.81234</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>2.12537</v>
+        <v>2.13802</v>
       </c>
       <c r="C122" t="n">
-        <v>1.78219</v>
+        <v>1.7922</v>
       </c>
       <c r="D122" t="n">
-        <v>1.84058</v>
+        <v>1.82183</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>2.17085</v>
+        <v>2.14751</v>
       </c>
       <c r="C123" t="n">
-        <v>1.81302</v>
+        <v>1.80658</v>
       </c>
       <c r="D123" t="n">
-        <v>1.92297</v>
+        <v>1.97658</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.53446</v>
+        <v>2.54771</v>
       </c>
       <c r="C124" t="n">
-        <v>1.88334</v>
+        <v>1.89477</v>
       </c>
       <c r="D124" t="n">
-        <v>1.93995</v>
+        <v>1.95356</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.51344</v>
+        <v>2.53127</v>
       </c>
       <c r="C125" t="n">
-        <v>1.86111</v>
+        <v>1.85949</v>
       </c>
       <c r="D125" t="n">
-        <v>1.93863</v>
+        <v>1.96174</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.52871</v>
+        <v>2.53852</v>
       </c>
       <c r="C126" t="n">
-        <v>1.92853</v>
+        <v>1.85725</v>
       </c>
       <c r="D126" t="n">
-        <v>1.93695</v>
+        <v>1.99628</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.52324</v>
+        <v>2.55913</v>
       </c>
       <c r="C127" t="n">
-        <v>1.87596</v>
+        <v>1.90713</v>
       </c>
       <c r="D127" t="n">
-        <v>1.95882</v>
+        <v>1.981</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.52213</v>
+        <v>2.52044</v>
       </c>
       <c r="C128" t="n">
-        <v>1.90029</v>
+        <v>1.8994</v>
       </c>
       <c r="D128" t="n">
-        <v>1.95688</v>
+        <v>1.95889</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.51766</v>
+        <v>2.55627</v>
       </c>
       <c r="C129" t="n">
-        <v>1.908</v>
+        <v>1.95658</v>
       </c>
       <c r="D129" t="n">
-        <v>1.96988</v>
+        <v>2.00231</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.51908</v>
+        <v>2.54394</v>
       </c>
       <c r="C130" t="n">
-        <v>1.88306</v>
+        <v>1.90593</v>
       </c>
       <c r="D130" t="n">
-        <v>1.99346</v>
+        <v>1.98414</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.54186</v>
+        <v>2.52882</v>
       </c>
       <c r="C131" t="n">
-        <v>1.90118</v>
+        <v>1.94384</v>
       </c>
       <c r="D131" t="n">
-        <v>1.96612</v>
+        <v>1.99265</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.5339</v>
+        <v>2.55206</v>
       </c>
       <c r="C132" t="n">
-        <v>1.973</v>
+        <v>1.94483</v>
       </c>
       <c r="D132" t="n">
-        <v>1.99226</v>
+        <v>1.99701</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.50846</v>
+        <v>2.55209</v>
       </c>
       <c r="C133" t="n">
-        <v>1.92239</v>
+        <v>1.95119</v>
       </c>
       <c r="D133" t="n">
-        <v>2.02319</v>
+        <v>2.02154</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.51885</v>
+        <v>2.53843</v>
       </c>
       <c r="C134" t="n">
-        <v>1.9578</v>
+        <v>1.96729</v>
       </c>
       <c r="D134" t="n">
-        <v>1.98177</v>
+        <v>2.00755</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.53173</v>
+        <v>2.55379</v>
       </c>
       <c r="C135" t="n">
-        <v>1.93415</v>
+        <v>1.96455</v>
       </c>
       <c r="D135" t="n">
-        <v>2.00637</v>
+        <v>2.01465</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.55316</v>
+        <v>2.56137</v>
       </c>
       <c r="C136" t="n">
-        <v>1.98918</v>
+        <v>2.0058</v>
       </c>
       <c r="D136" t="n">
-        <v>2.04129</v>
+        <v>2.03774</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.54369</v>
+        <v>2.54264</v>
       </c>
       <c r="C137" t="n">
-        <v>1.99274</v>
+        <v>2.01669</v>
       </c>
       <c r="D137" t="n">
-        <v>2.10547</v>
+        <v>2.10625</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.84436</v>
+        <v>2.90792</v>
       </c>
       <c r="C138" t="n">
-        <v>2.02949</v>
+        <v>2.06358</v>
       </c>
       <c r="D138" t="n">
-        <v>2.09982</v>
+        <v>2.11963</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.8675</v>
+        <v>2.84714</v>
       </c>
       <c r="C139" t="n">
-        <v>2.0295</v>
+        <v>2.06919</v>
       </c>
       <c r="D139" t="n">
-        <v>2.09735</v>
+        <v>2.10835</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.86192</v>
+        <v>2.86709</v>
       </c>
       <c r="C140" t="n">
-        <v>2.04696</v>
+        <v>2.07786</v>
       </c>
       <c r="D140" t="n">
-        <v>2.11347</v>
+        <v>2.11263</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.85203</v>
+        <v>2.87491</v>
       </c>
       <c r="C141" t="n">
-        <v>2.0388</v>
+        <v>2.05821</v>
       </c>
       <c r="D141" t="n">
-        <v>2.09475</v>
+        <v>2.09366</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.86033</v>
+        <v>2.82765</v>
       </c>
       <c r="C142" t="n">
-        <v>2.06673</v>
+        <v>2.06255</v>
       </c>
       <c r="D142" t="n">
-        <v>2.12697</v>
+        <v>2.12241</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.86456</v>
+        <v>2.86209</v>
       </c>
       <c r="C143" t="n">
-        <v>2.06975</v>
+        <v>2.08778</v>
       </c>
       <c r="D143" t="n">
-        <v>2.12755</v>
+        <v>2.10889</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.756389</v>
+        <v>0.738333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.657513</v>
+        <v>0.643299</v>
       </c>
       <c r="D2" t="n">
-        <v>0.666777</v>
+        <v>0.67599</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.727629</v>
+        <v>0.725696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.632678</v>
+        <v>0.641522</v>
       </c>
       <c r="D3" t="n">
-        <v>0.64864</v>
+        <v>0.650495</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7233000000000001</v>
+        <v>0.760584</v>
       </c>
       <c r="C4" t="n">
-        <v>0.649577</v>
+        <v>0.659767</v>
       </c>
       <c r="D4" t="n">
-        <v>0.684105</v>
+        <v>0.672266</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.713384</v>
+        <v>0.711122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.660646</v>
+        <v>0.650861</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6714020000000001</v>
+        <v>0.652091</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.715835</v>
+        <v>0.748211</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6362719999999999</v>
+        <v>0.656027</v>
       </c>
       <c r="D6" t="n">
-        <v>0.658063</v>
+        <v>0.6765409999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.73211</v>
+        <v>0.731052</v>
       </c>
       <c r="C7" t="n">
-        <v>0.656222</v>
+        <v>0.668501</v>
       </c>
       <c r="D7" t="n">
-        <v>0.663994</v>
+        <v>0.678809</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.71596</v>
+        <v>0.767799</v>
       </c>
       <c r="C8" t="n">
-        <v>0.650594</v>
+        <v>0.655988</v>
       </c>
       <c r="D8" t="n">
-        <v>0.664145</v>
+        <v>0.658106</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.741516</v>
+        <v>0.741634</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6790620000000001</v>
+        <v>0.660739</v>
       </c>
       <c r="D9" t="n">
-        <v>0.67527</v>
+        <v>0.654721</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.753059</v>
+        <v>0.750291</v>
       </c>
       <c r="C10" t="n">
-        <v>0.644947</v>
+        <v>0.658531</v>
       </c>
       <c r="D10" t="n">
-        <v>0.681308</v>
+        <v>0.656378</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.77501</v>
+        <v>0.746154</v>
       </c>
       <c r="C11" t="n">
-        <v>0.656929</v>
+        <v>0.637979</v>
       </c>
       <c r="D11" t="n">
-        <v>0.678358</v>
+        <v>0.649088</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.745633</v>
+        <v>0.761633</v>
       </c>
       <c r="C12" t="n">
-        <v>0.675274</v>
+        <v>0.661449</v>
       </c>
       <c r="D12" t="n">
-        <v>0.673412</v>
+        <v>0.668543</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.744634</v>
+        <v>0.780442</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6503679999999999</v>
+        <v>0.6639429999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.668513</v>
+        <v>0.662906</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.748113</v>
+        <v>0.73907</v>
       </c>
       <c r="C14" t="n">
-        <v>0.662841</v>
+        <v>0.652697</v>
       </c>
       <c r="D14" t="n">
-        <v>0.674975</v>
+        <v>0.654856</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.779183</v>
+        <v>0.7541330000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.654258</v>
+        <v>0.666674</v>
       </c>
       <c r="D15" t="n">
-        <v>0.684732</v>
+        <v>0.669034</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7607930000000001</v>
+        <v>0.730995</v>
       </c>
       <c r="C16" t="n">
-        <v>0.638595</v>
+        <v>0.64883</v>
       </c>
       <c r="D16" t="n">
-        <v>0.663832</v>
+        <v>0.663435</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.745869</v>
+        <v>0.731227</v>
       </c>
       <c r="C17" t="n">
-        <v>0.652603</v>
+        <v>0.646686</v>
       </c>
       <c r="D17" t="n">
-        <v>0.655787</v>
+        <v>0.661467</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.754208</v>
+        <v>0.755364</v>
       </c>
       <c r="C18" t="n">
-        <v>0.657721</v>
+        <v>0.644629</v>
       </c>
       <c r="D18" t="n">
-        <v>0.677881</v>
+        <v>0.640137</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.745857</v>
+        <v>0.74961</v>
       </c>
       <c r="C19" t="n">
-        <v>0.646498</v>
+        <v>0.657521</v>
       </c>
       <c r="D19" t="n">
-        <v>0.666949</v>
+        <v>0.660191</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.735932</v>
+        <v>0.75474</v>
       </c>
       <c r="C20" t="n">
-        <v>0.651064</v>
+        <v>0.6458700000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6653019999999999</v>
+        <v>0.665894</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.771686</v>
+        <v>0.761005</v>
       </c>
       <c r="C21" t="n">
-        <v>0.671648</v>
+        <v>0.664119</v>
       </c>
       <c r="D21" t="n">
-        <v>0.665851</v>
+        <v>0.665929</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.759575</v>
+        <v>0.758124</v>
       </c>
       <c r="C22" t="n">
-        <v>0.650022</v>
+        <v>0.68527</v>
       </c>
       <c r="D22" t="n">
-        <v>0.668937</v>
+        <v>0.664622</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.752979</v>
+        <v>0.763737</v>
       </c>
       <c r="C23" t="n">
-        <v>0.675213</v>
+        <v>0.678123</v>
       </c>
       <c r="D23" t="n">
-        <v>0.670562</v>
+        <v>0.66678</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.786237</v>
+        <v>0.777407</v>
       </c>
       <c r="C24" t="n">
-        <v>0.661926</v>
+        <v>0.670789</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6616919999999999</v>
+        <v>0.670704</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.76612</v>
+        <v>0.7833059999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.690809</v>
+        <v>0.673466</v>
       </c>
       <c r="D25" t="n">
-        <v>0.68531</v>
+        <v>0.696402</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.806604</v>
+        <v>0.786781</v>
       </c>
       <c r="C26" t="n">
-        <v>0.663291</v>
+        <v>0.686619</v>
       </c>
       <c r="D26" t="n">
-        <v>0.66795</v>
+        <v>0.702843</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.78448</v>
+        <v>0.789014</v>
       </c>
       <c r="C27" t="n">
-        <v>0.669805</v>
+        <v>0.6657110000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.677</v>
+        <v>0.689992</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.77679</v>
+        <v>0.808187</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6757880000000001</v>
+        <v>0.676806</v>
       </c>
       <c r="D28" t="n">
-        <v>0.66979</v>
+        <v>0.688354</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7854449999999999</v>
+        <v>0.819368</v>
       </c>
       <c r="C29" t="n">
-        <v>0.657351</v>
+        <v>0.693074</v>
       </c>
       <c r="D29" t="n">
-        <v>0.67561</v>
+        <v>0.695118</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.791246</v>
+        <v>0.781339</v>
       </c>
       <c r="C30" t="n">
-        <v>0.668547</v>
+        <v>0.66621</v>
       </c>
       <c r="D30" t="n">
-        <v>0.692934</v>
+        <v>0.66894</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.774379</v>
+        <v>0.7932670000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.689235</v>
+        <v>0.698817</v>
       </c>
       <c r="D31" t="n">
-        <v>0.70235</v>
+        <v>0.697469</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.776493</v>
+        <v>0.774992</v>
       </c>
       <c r="C32" t="n">
-        <v>0.679291</v>
+        <v>0.663994</v>
       </c>
       <c r="D32" t="n">
-        <v>0.678976</v>
+        <v>0.684177</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.773612</v>
+        <v>0.7731209999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.69063</v>
+        <v>0.662258</v>
       </c>
       <c r="D33" t="n">
-        <v>0.702456</v>
+        <v>0.705664</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.789196</v>
+        <v>0.792739</v>
       </c>
       <c r="C34" t="n">
-        <v>0.665188</v>
+        <v>0.67561</v>
       </c>
       <c r="D34" t="n">
-        <v>0.678001</v>
+        <v>0.700305</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.782675</v>
+        <v>0.777263</v>
       </c>
       <c r="C35" t="n">
-        <v>0.680092</v>
+        <v>0.686266</v>
       </c>
       <c r="D35" t="n">
-        <v>0.69135</v>
+        <v>0.687595</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.795758</v>
+        <v>0.790088</v>
       </c>
       <c r="C36" t="n">
-        <v>0.673543</v>
+        <v>0.67658</v>
       </c>
       <c r="D36" t="n">
-        <v>0.697529</v>
+        <v>0.696624</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.781452</v>
+        <v>0.795116</v>
       </c>
       <c r="C37" t="n">
-        <v>0.689785</v>
+        <v>0.6920500000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.685955</v>
+        <v>0.737661</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.817053</v>
+        <v>0.824997</v>
       </c>
       <c r="C38" t="n">
-        <v>0.698758</v>
+        <v>0.676318</v>
       </c>
       <c r="D38" t="n">
-        <v>0.700664</v>
+        <v>0.711985</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.834067</v>
+        <v>0.818378</v>
       </c>
       <c r="C39" t="n">
-        <v>0.70718</v>
+        <v>0.669138</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7127019999999999</v>
+        <v>0.705613</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.806214</v>
+        <v>0.798702</v>
       </c>
       <c r="C40" t="n">
-        <v>0.683859</v>
+        <v>0.699883</v>
       </c>
       <c r="D40" t="n">
-        <v>0.703624</v>
+        <v>0.725326</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.825337</v>
+        <v>0.83713</v>
       </c>
       <c r="C41" t="n">
-        <v>0.69521</v>
+        <v>0.698493</v>
       </c>
       <c r="D41" t="n">
-        <v>0.710595</v>
+        <v>0.71873</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.795044</v>
+        <v>0.832153</v>
       </c>
       <c r="C42" t="n">
-        <v>0.684511</v>
+        <v>0.698271</v>
       </c>
       <c r="D42" t="n">
-        <v>0.705494</v>
+        <v>0.7325199999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.803432</v>
+        <v>0.819594</v>
       </c>
       <c r="C43" t="n">
-        <v>0.693238</v>
+        <v>0.700391</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7155820000000001</v>
+        <v>0.715723</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.829842</v>
+        <v>0.796644</v>
       </c>
       <c r="C44" t="n">
-        <v>0.698512</v>
+        <v>0.693168</v>
       </c>
       <c r="D44" t="n">
-        <v>0.694478</v>
+        <v>0.716716</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.815483</v>
+        <v>0.837627</v>
       </c>
       <c r="C45" t="n">
-        <v>0.684299</v>
+        <v>0.695078</v>
       </c>
       <c r="D45" t="n">
-        <v>0.70807</v>
+        <v>0.707752</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.822557</v>
+        <v>0.836859</v>
       </c>
       <c r="C46" t="n">
-        <v>0.687048</v>
+        <v>0.712564</v>
       </c>
       <c r="D46" t="n">
-        <v>0.708932</v>
+        <v>0.713018</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.836395</v>
+        <v>0.828725</v>
       </c>
       <c r="C47" t="n">
-        <v>0.694782</v>
+        <v>0.706637</v>
       </c>
       <c r="D47" t="n">
-        <v>0.713689</v>
+        <v>0.7148099999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.833072</v>
+        <v>0.806794</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6916369999999999</v>
+        <v>0.7186630000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.710108</v>
+        <v>0.726546</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.808105</v>
+        <v>0.835869</v>
       </c>
       <c r="C49" t="n">
-        <v>0.704698</v>
+        <v>0.7090610000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.711916</v>
+        <v>0.729255</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.81899</v>
+        <v>0.815169</v>
       </c>
       <c r="C50" t="n">
-        <v>0.688038</v>
+        <v>0.684065</v>
       </c>
       <c r="D50" t="n">
-        <v>0.719819</v>
+        <v>0.727458</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.835139</v>
+        <v>0.834073</v>
       </c>
       <c r="C51" t="n">
-        <v>0.691286</v>
+        <v>0.709046</v>
       </c>
       <c r="D51" t="n">
-        <v>0.753811</v>
+        <v>0.759358</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8404430000000001</v>
+        <v>0.805774</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7018720000000001</v>
+        <v>0.716011</v>
       </c>
       <c r="D52" t="n">
-        <v>0.746855</v>
+        <v>0.763081</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.881937</v>
+        <v>0.8830750000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.724907</v>
+        <v>0.7314310000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.749661</v>
+        <v>0.767652</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8879590000000001</v>
+        <v>0.8958469999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.732541</v>
+        <v>0.740588</v>
       </c>
       <c r="D54" t="n">
-        <v>0.751225</v>
+        <v>0.725666</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.86796</v>
+        <v>0.8918199999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.736189</v>
+        <v>0.738565</v>
       </c>
       <c r="D55" t="n">
-        <v>0.744285</v>
+        <v>0.749121</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.878718</v>
+        <v>0.90125</v>
       </c>
       <c r="C56" t="n">
-        <v>0.735456</v>
+        <v>0.728486</v>
       </c>
       <c r="D56" t="n">
-        <v>0.756975</v>
+        <v>0.774641</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.875277</v>
+        <v>0.912322</v>
       </c>
       <c r="C57" t="n">
-        <v>0.715177</v>
+        <v>0.75138</v>
       </c>
       <c r="D57" t="n">
-        <v>0.751212</v>
+        <v>0.760815</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.879609</v>
+        <v>0.895402</v>
       </c>
       <c r="C58" t="n">
-        <v>0.739328</v>
+        <v>0.737707</v>
       </c>
       <c r="D58" t="n">
-        <v>0.762448</v>
+        <v>0.766822</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.902257</v>
+        <v>0.904019</v>
       </c>
       <c r="C59" t="n">
-        <v>0.739362</v>
+        <v>0.743944</v>
       </c>
       <c r="D59" t="n">
-        <v>0.747846</v>
+        <v>0.768887</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.88264</v>
+        <v>0.906293</v>
       </c>
       <c r="C60" t="n">
-        <v>0.733789</v>
+        <v>0.745296</v>
       </c>
       <c r="D60" t="n">
-        <v>0.750942</v>
+        <v>0.766058</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.863103</v>
+        <v>0.886557</v>
       </c>
       <c r="C61" t="n">
-        <v>0.742942</v>
+        <v>0.7532720000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7664570000000001</v>
+        <v>0.744725</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.870565</v>
+        <v>0.91982</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7482760000000001</v>
+        <v>0.76818</v>
       </c>
       <c r="D62" t="n">
-        <v>0.753453</v>
+        <v>0.775837</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.88495</v>
+        <v>0.901578</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7644570000000001</v>
+        <v>0.738053</v>
       </c>
       <c r="D63" t="n">
-        <v>0.775471</v>
+        <v>0.758586</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.886815</v>
+        <v>0.889089</v>
       </c>
       <c r="C64" t="n">
-        <v>0.756762</v>
+        <v>0.755812</v>
       </c>
       <c r="D64" t="n">
-        <v>0.762526</v>
+        <v>0.788847</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.88572</v>
+        <v>0.916907</v>
       </c>
       <c r="C65" t="n">
-        <v>0.739857</v>
+        <v>0.765834</v>
       </c>
       <c r="D65" t="n">
-        <v>0.759482</v>
+        <v>0.7697310000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.877048</v>
+        <v>0.889143</v>
       </c>
       <c r="C66" t="n">
-        <v>0.766609</v>
+        <v>0.761641</v>
       </c>
       <c r="D66" t="n">
-        <v>0.856236</v>
+        <v>0.955811</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.11081</v>
+        <v>1.15958</v>
       </c>
       <c r="C67" t="n">
-        <v>0.876687</v>
+        <v>0.911192</v>
       </c>
       <c r="D67" t="n">
-        <v>0.881617</v>
+        <v>0.925291</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.11358</v>
+        <v>1.14812</v>
       </c>
       <c r="C68" t="n">
-        <v>0.869625</v>
+        <v>0.906437</v>
       </c>
       <c r="D68" t="n">
-        <v>0.897989</v>
+        <v>0.907637</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.12888</v>
+        <v>1.16266</v>
       </c>
       <c r="C69" t="n">
-        <v>0.881806</v>
+        <v>0.906321</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8868549999999999</v>
+        <v>0.914869</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.0939</v>
+        <v>1.12275</v>
       </c>
       <c r="C70" t="n">
-        <v>0.870523</v>
+        <v>0.929872</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8952020000000001</v>
+        <v>0.915057</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.12279</v>
+        <v>1.16821</v>
       </c>
       <c r="C71" t="n">
-        <v>0.903104</v>
+        <v>0.905322</v>
       </c>
       <c r="D71" t="n">
-        <v>0.882414</v>
+        <v>0.90215</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.09126</v>
+        <v>1.19389</v>
       </c>
       <c r="C72" t="n">
-        <v>0.880721</v>
+        <v>0.907265</v>
       </c>
       <c r="D72" t="n">
-        <v>0.901764</v>
+        <v>0.942732</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.07124</v>
+        <v>1.1824</v>
       </c>
       <c r="C73" t="n">
-        <v>0.891315</v>
+        <v>0.91301</v>
       </c>
       <c r="D73" t="n">
-        <v>0.875645</v>
+        <v>0.9443859999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.11836</v>
+        <v>1.17611</v>
       </c>
       <c r="C74" t="n">
-        <v>0.865078</v>
+        <v>0.941658</v>
       </c>
       <c r="D74" t="n">
-        <v>0.867406</v>
+        <v>0.940002</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.08659</v>
+        <v>1.17926</v>
       </c>
       <c r="C75" t="n">
-        <v>0.876535</v>
+        <v>0.896557</v>
       </c>
       <c r="D75" t="n">
-        <v>0.859536</v>
+        <v>0.9393049999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.07186</v>
+        <v>1.13558</v>
       </c>
       <c r="C76" t="n">
-        <v>0.903216</v>
+        <v>0.957796</v>
       </c>
       <c r="D76" t="n">
-        <v>0.895997</v>
+        <v>0.926919</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.07738</v>
+        <v>1.13783</v>
       </c>
       <c r="C77" t="n">
-        <v>0.90442</v>
+        <v>0.927418</v>
       </c>
       <c r="D77" t="n">
-        <v>0.892611</v>
+        <v>0.938831</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.07879</v>
+        <v>1.15858</v>
       </c>
       <c r="C78" t="n">
-        <v>0.894543</v>
+        <v>0.952858</v>
       </c>
       <c r="D78" t="n">
-        <v>0.900573</v>
+        <v>0.925363</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.09775</v>
+        <v>1.14424</v>
       </c>
       <c r="C79" t="n">
-        <v>0.912707</v>
+        <v>0.949482</v>
       </c>
       <c r="D79" t="n">
-        <v>0.888741</v>
+        <v>0.928478</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.09617</v>
+        <v>1.16545</v>
       </c>
       <c r="C80" t="n">
-        <v>0.907593</v>
+        <v>0.945555</v>
       </c>
       <c r="D80" t="n">
-        <v>1.14554</v>
+        <v>1.24514</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.38149</v>
+        <v>1.47875</v>
       </c>
       <c r="C81" t="n">
-        <v>1.15965</v>
+        <v>1.26605</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1711</v>
+        <v>1.25547</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.43749</v>
+        <v>1.51135</v>
       </c>
       <c r="C82" t="n">
-        <v>1.1963</v>
+        <v>1.25831</v>
       </c>
       <c r="D82" t="n">
-        <v>1.17574</v>
+        <v>1.24316</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.40757</v>
+        <v>1.50197</v>
       </c>
       <c r="C83" t="n">
-        <v>1.1821</v>
+        <v>1.25897</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14904</v>
+        <v>1.28557</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.41704</v>
+        <v>1.52283</v>
       </c>
       <c r="C84" t="n">
-        <v>1.17274</v>
+        <v>1.27338</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16768</v>
+        <v>1.25477</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.41924</v>
+        <v>1.52105</v>
       </c>
       <c r="C85" t="n">
-        <v>1.19575</v>
+        <v>1.29244</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17828</v>
+        <v>1.284</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.42149</v>
+        <v>1.53435</v>
       </c>
       <c r="C86" t="n">
-        <v>1.21831</v>
+        <v>1.29381</v>
       </c>
       <c r="D86" t="n">
-        <v>1.19964</v>
+        <v>1.25269</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.37814</v>
+        <v>1.55289</v>
       </c>
       <c r="C87" t="n">
-        <v>1.16854</v>
+        <v>1.26004</v>
       </c>
       <c r="D87" t="n">
-        <v>1.16496</v>
+        <v>1.30685</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.4125</v>
+        <v>1.52007</v>
       </c>
       <c r="C88" t="n">
-        <v>1.18892</v>
+        <v>1.26274</v>
       </c>
       <c r="D88" t="n">
-        <v>1.17923</v>
+        <v>1.25235</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.4345</v>
+        <v>1.50147</v>
       </c>
       <c r="C89" t="n">
-        <v>1.17637</v>
+        <v>1.27112</v>
       </c>
       <c r="D89" t="n">
-        <v>1.19173</v>
+        <v>1.27684</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.38521</v>
+        <v>1.50787</v>
       </c>
       <c r="C90" t="n">
-        <v>1.2281</v>
+        <v>1.23582</v>
       </c>
       <c r="D90" t="n">
-        <v>1.15899</v>
+        <v>1.22588</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.38231</v>
+        <v>1.50363</v>
       </c>
       <c r="C91" t="n">
-        <v>1.17227</v>
+        <v>1.27111</v>
       </c>
       <c r="D91" t="n">
-        <v>1.20809</v>
+        <v>1.26783</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.42127</v>
+        <v>1.49557</v>
       </c>
       <c r="C92" t="n">
-        <v>1.20468</v>
+        <v>1.2851</v>
       </c>
       <c r="D92" t="n">
-        <v>1.17648</v>
+        <v>1.26989</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.3996</v>
+        <v>1.51993</v>
       </c>
       <c r="C93" t="n">
-        <v>1.19459</v>
+        <v>1.26106</v>
       </c>
       <c r="D93" t="n">
-        <v>1.20597</v>
+        <v>1.26595</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.42958</v>
+        <v>1.47835</v>
       </c>
       <c r="C94" t="n">
-        <v>1.19569</v>
+        <v>1.26226</v>
       </c>
       <c r="D94" t="n">
-        <v>1.56047</v>
+        <v>1.55569</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.76096</v>
+        <v>1.82119</v>
       </c>
       <c r="C95" t="n">
-        <v>1.46294</v>
+        <v>1.54725</v>
       </c>
       <c r="D95" t="n">
-        <v>1.50483</v>
+        <v>1.57447</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.76252</v>
+        <v>1.86277</v>
       </c>
       <c r="C96" t="n">
-        <v>1.50908</v>
+        <v>1.51706</v>
       </c>
       <c r="D96" t="n">
-        <v>1.52123</v>
+        <v>1.56891</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.73187</v>
+        <v>1.85298</v>
       </c>
       <c r="C97" t="n">
-        <v>1.51449</v>
+        <v>1.55067</v>
       </c>
       <c r="D97" t="n">
-        <v>1.54444</v>
+        <v>1.56688</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.77296</v>
+        <v>1.87369</v>
       </c>
       <c r="C98" t="n">
-        <v>1.49689</v>
+        <v>1.5469</v>
       </c>
       <c r="D98" t="n">
-        <v>1.50288</v>
+        <v>1.58881</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.75987</v>
+        <v>1.85108</v>
       </c>
       <c r="C99" t="n">
-        <v>1.4958</v>
+        <v>1.57128</v>
       </c>
       <c r="D99" t="n">
-        <v>1.52528</v>
+        <v>1.58328</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.79048</v>
+        <v>1.82281</v>
       </c>
       <c r="C100" t="n">
-        <v>1.50823</v>
+        <v>1.53697</v>
       </c>
       <c r="D100" t="n">
-        <v>1.53424</v>
+        <v>1.62158</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.80355</v>
+        <v>1.82816</v>
       </c>
       <c r="C101" t="n">
-        <v>1.47458</v>
+        <v>1.55555</v>
       </c>
       <c r="D101" t="n">
-        <v>1.50409</v>
+        <v>1.59813</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.74009</v>
+        <v>1.86726</v>
       </c>
       <c r="C102" t="n">
-        <v>1.5218</v>
+        <v>1.57739</v>
       </c>
       <c r="D102" t="n">
-        <v>1.58242</v>
+        <v>1.62356</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.74849</v>
+        <v>1.84072</v>
       </c>
       <c r="C103" t="n">
-        <v>1.49358</v>
+        <v>1.55977</v>
       </c>
       <c r="D103" t="n">
-        <v>1.52108</v>
+        <v>1.57906</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.77199</v>
+        <v>1.86718</v>
       </c>
       <c r="C104" t="n">
-        <v>1.53417</v>
+        <v>1.55197</v>
       </c>
       <c r="D104" t="n">
-        <v>1.54691</v>
+        <v>1.62919</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.73562</v>
+        <v>1.84351</v>
       </c>
       <c r="C105" t="n">
-        <v>1.50542</v>
+        <v>1.61055</v>
       </c>
       <c r="D105" t="n">
-        <v>1.55845</v>
+        <v>1.62794</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.79</v>
+        <v>1.82049</v>
       </c>
       <c r="C106" t="n">
-        <v>1.57178</v>
+        <v>1.57813</v>
       </c>
       <c r="D106" t="n">
-        <v>1.56803</v>
+        <v>1.61396</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.7718</v>
+        <v>1.80266</v>
       </c>
       <c r="C107" t="n">
-        <v>1.51823</v>
+        <v>1.54356</v>
       </c>
       <c r="D107" t="n">
-        <v>1.56202</v>
+        <v>1.61542</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.77519</v>
+        <v>1.81403</v>
       </c>
       <c r="C108" t="n">
-        <v>1.5313</v>
+        <v>1.57286</v>
       </c>
       <c r="D108" t="n">
-        <v>1.73592</v>
+        <v>1.79662</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.78937</v>
+        <v>1.81438</v>
       </c>
       <c r="C109" t="n">
-        <v>1.60607</v>
+        <v>1.58908</v>
       </c>
       <c r="D109" t="n">
-        <v>1.74751</v>
+        <v>1.77498</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.20148</v>
+        <v>2.20079</v>
       </c>
       <c r="C110" t="n">
-        <v>1.76942</v>
+        <v>1.69015</v>
       </c>
       <c r="D110" t="n">
-        <v>1.76478</v>
+        <v>1.7714</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.11825</v>
+        <v>2.24091</v>
       </c>
       <c r="C111" t="n">
-        <v>1.7206</v>
+        <v>1.72541</v>
       </c>
       <c r="D111" t="n">
-        <v>1.75267</v>
+        <v>1.82202</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.14863</v>
+        <v>2.13935</v>
       </c>
       <c r="C112" t="n">
-        <v>1.71551</v>
+        <v>1.74179</v>
       </c>
       <c r="D112" t="n">
-        <v>1.78275</v>
+        <v>1.78368</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.1579</v>
+        <v>2.18286</v>
       </c>
       <c r="C113" t="n">
-        <v>1.74322</v>
+        <v>1.74164</v>
       </c>
       <c r="D113" t="n">
-        <v>1.74836</v>
+        <v>1.79034</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.14946</v>
+        <v>2.18045</v>
       </c>
       <c r="C114" t="n">
-        <v>1.74767</v>
+        <v>1.77259</v>
       </c>
       <c r="D114" t="n">
-        <v>1.77168</v>
+        <v>1.81916</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.09387</v>
+        <v>2.2395</v>
       </c>
       <c r="C115" t="n">
-        <v>1.74059</v>
+        <v>1.73393</v>
       </c>
       <c r="D115" t="n">
-        <v>1.79505</v>
+        <v>1.80914</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.14437</v>
+        <v>2.18874</v>
       </c>
       <c r="C116" t="n">
-        <v>1.73944</v>
+        <v>1.75798</v>
       </c>
       <c r="D116" t="n">
-        <v>1.76774</v>
+        <v>1.80967</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.15821</v>
+        <v>2.13865</v>
       </c>
       <c r="C117" t="n">
-        <v>1.73644</v>
+        <v>1.76527</v>
       </c>
       <c r="D117" t="n">
-        <v>1.77118</v>
+        <v>1.81059</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.15093</v>
+        <v>2.19642</v>
       </c>
       <c r="C118" t="n">
-        <v>1.73737</v>
+        <v>1.74275</v>
       </c>
       <c r="D118" t="n">
-        <v>1.76745</v>
+        <v>1.79355</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.15993</v>
+        <v>2.20069</v>
       </c>
       <c r="C119" t="n">
-        <v>1.72754</v>
+        <v>1.77777</v>
       </c>
       <c r="D119" t="n">
-        <v>1.81886</v>
+        <v>1.82092</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>2.15358</v>
+        <v>2.17494</v>
       </c>
       <c r="C120" t="n">
-        <v>1.75881</v>
+        <v>1.76388</v>
       </c>
       <c r="D120" t="n">
-        <v>1.81935</v>
+        <v>1.82251</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>2.16442</v>
+        <v>2.17168</v>
       </c>
       <c r="C121" t="n">
-        <v>1.79863</v>
+        <v>1.78104</v>
       </c>
       <c r="D121" t="n">
-        <v>1.81234</v>
+        <v>1.86697</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>2.13802</v>
+        <v>2.1419</v>
       </c>
       <c r="C122" t="n">
-        <v>1.7922</v>
+        <v>1.79223</v>
       </c>
       <c r="D122" t="n">
-        <v>1.82183</v>
+        <v>1.87596</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>2.14751</v>
+        <v>2.15383</v>
       </c>
       <c r="C123" t="n">
-        <v>1.80658</v>
+        <v>1.8163</v>
       </c>
       <c r="D123" t="n">
-        <v>1.97658</v>
+        <v>1.93032</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.54771</v>
+        <v>2.55091</v>
       </c>
       <c r="C124" t="n">
-        <v>1.89477</v>
+        <v>1.90835</v>
       </c>
       <c r="D124" t="n">
-        <v>1.95356</v>
+        <v>1.97502</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.53127</v>
+        <v>2.55023</v>
       </c>
       <c r="C125" t="n">
-        <v>1.85949</v>
+        <v>1.90151</v>
       </c>
       <c r="D125" t="n">
-        <v>1.96174</v>
+        <v>1.94386</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.53852</v>
+        <v>2.51797</v>
       </c>
       <c r="C126" t="n">
-        <v>1.85725</v>
+        <v>1.89396</v>
       </c>
       <c r="D126" t="n">
-        <v>1.99628</v>
+        <v>1.95871</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.55913</v>
+        <v>2.51765</v>
       </c>
       <c r="C127" t="n">
-        <v>1.90713</v>
+        <v>1.89544</v>
       </c>
       <c r="D127" t="n">
-        <v>1.981</v>
+        <v>1.9733</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.52044</v>
+        <v>2.53147</v>
       </c>
       <c r="C128" t="n">
-        <v>1.8994</v>
+        <v>1.88223</v>
       </c>
       <c r="D128" t="n">
-        <v>1.95889</v>
+        <v>1.97289</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.55627</v>
+        <v>2.53627</v>
       </c>
       <c r="C129" t="n">
-        <v>1.95658</v>
+        <v>1.92848</v>
       </c>
       <c r="D129" t="n">
-        <v>2.00231</v>
+        <v>1.97971</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.54394</v>
+        <v>2.55353</v>
       </c>
       <c r="C130" t="n">
-        <v>1.90593</v>
+        <v>1.93456</v>
       </c>
       <c r="D130" t="n">
-        <v>1.98414</v>
+        <v>2.00808</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.52882</v>
+        <v>2.53506</v>
       </c>
       <c r="C131" t="n">
-        <v>1.94384</v>
+        <v>1.92929</v>
       </c>
       <c r="D131" t="n">
-        <v>1.99265</v>
+        <v>1.97838</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.55206</v>
+        <v>2.52998</v>
       </c>
       <c r="C132" t="n">
-        <v>1.94483</v>
+        <v>1.94187</v>
       </c>
       <c r="D132" t="n">
-        <v>1.99701</v>
+        <v>1.99471</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.55209</v>
+        <v>2.51579</v>
       </c>
       <c r="C133" t="n">
-        <v>1.95119</v>
+        <v>1.93831</v>
       </c>
       <c r="D133" t="n">
-        <v>2.02154</v>
+        <v>2.02176</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.53843</v>
+        <v>2.5419</v>
       </c>
       <c r="C134" t="n">
-        <v>1.96729</v>
+        <v>1.98023</v>
       </c>
       <c r="D134" t="n">
-        <v>2.00755</v>
+        <v>2.013</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.55379</v>
+        <v>2.59167</v>
       </c>
       <c r="C135" t="n">
-        <v>1.96455</v>
+        <v>1.97937</v>
       </c>
       <c r="D135" t="n">
-        <v>2.01465</v>
+        <v>2.02401</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.56137</v>
+        <v>2.53105</v>
       </c>
       <c r="C136" t="n">
-        <v>2.0058</v>
+        <v>1.99699</v>
       </c>
       <c r="D136" t="n">
-        <v>2.03774</v>
+        <v>2.03681</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.54264</v>
+        <v>2.55226</v>
       </c>
       <c r="C137" t="n">
-        <v>2.01669</v>
+        <v>2.004</v>
       </c>
       <c r="D137" t="n">
-        <v>2.10625</v>
+        <v>2.17751</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.90792</v>
+        <v>2.9256</v>
       </c>
       <c r="C138" t="n">
-        <v>2.06358</v>
+        <v>2.16915</v>
       </c>
       <c r="D138" t="n">
-        <v>2.11963</v>
+        <v>2.13162</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.84714</v>
+        <v>2.90877</v>
       </c>
       <c r="C139" t="n">
-        <v>2.06919</v>
+        <v>2.1838</v>
       </c>
       <c r="D139" t="n">
-        <v>2.10835</v>
+        <v>2.10161</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.86709</v>
+        <v>2.86289</v>
       </c>
       <c r="C140" t="n">
-        <v>2.07786</v>
+        <v>2.06834</v>
       </c>
       <c r="D140" t="n">
-        <v>2.11263</v>
+        <v>2.21107</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.87491</v>
+        <v>2.90776</v>
       </c>
       <c r="C141" t="n">
-        <v>2.05821</v>
+        <v>2.05606</v>
       </c>
       <c r="D141" t="n">
-        <v>2.09366</v>
+        <v>2.11686</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.82765</v>
+        <v>2.86608</v>
       </c>
       <c r="C142" t="n">
-        <v>2.06255</v>
+        <v>2.06135</v>
       </c>
       <c r="D142" t="n">
-        <v>2.12241</v>
+        <v>2.21486</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.86209</v>
+        <v>2.89052</v>
       </c>
       <c r="C143" t="n">
-        <v>2.08778</v>
+        <v>2.19988</v>
       </c>
       <c r="D143" t="n">
-        <v>2.10889</v>
+        <v>2.13505</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.738333</v>
+        <v>0.733334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.643299</v>
+        <v>0.64048</v>
       </c>
       <c r="D2" t="n">
-        <v>0.67599</v>
+        <v>0.650529</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.725696</v>
+        <v>0.7338479999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.641522</v>
+        <v>0.657191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.650495</v>
+        <v>0.648097</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.760584</v>
+        <v>0.707678</v>
       </c>
       <c r="C4" t="n">
-        <v>0.659767</v>
+        <v>0.636015</v>
       </c>
       <c r="D4" t="n">
-        <v>0.672266</v>
+        <v>0.640331</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.711122</v>
+        <v>0.731963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.650861</v>
+        <v>0.681558</v>
       </c>
       <c r="D5" t="n">
-        <v>0.652091</v>
+        <v>0.6718229999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.748211</v>
+        <v>0.760866</v>
       </c>
       <c r="C6" t="n">
-        <v>0.656027</v>
+        <v>0.673377</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6765409999999999</v>
+        <v>0.688825</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.731052</v>
+        <v>0.747882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.668501</v>
+        <v>0.680822</v>
       </c>
       <c r="D7" t="n">
-        <v>0.678809</v>
+        <v>0.672054</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.767799</v>
+        <v>0.7404579999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.655988</v>
+        <v>0.6801430000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.658106</v>
+        <v>0.6692900000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.741634</v>
+        <v>0.738483</v>
       </c>
       <c r="C9" t="n">
-        <v>0.660739</v>
+        <v>0.66313</v>
       </c>
       <c r="D9" t="n">
-        <v>0.654721</v>
+        <v>0.687928</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.750291</v>
+        <v>0.785786</v>
       </c>
       <c r="C10" t="n">
-        <v>0.658531</v>
+        <v>0.671088</v>
       </c>
       <c r="D10" t="n">
-        <v>0.656378</v>
+        <v>0.672269</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.746154</v>
+        <v>0.773379</v>
       </c>
       <c r="C11" t="n">
-        <v>0.637979</v>
+        <v>0.661525</v>
       </c>
       <c r="D11" t="n">
-        <v>0.649088</v>
+        <v>0.682343</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.761633</v>
+        <v>0.763993</v>
       </c>
       <c r="C12" t="n">
-        <v>0.661449</v>
+        <v>0.669438</v>
       </c>
       <c r="D12" t="n">
-        <v>0.668543</v>
+        <v>0.680215</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.780442</v>
+        <v>0.7718429999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6639429999999999</v>
+        <v>0.669808</v>
       </c>
       <c r="D13" t="n">
-        <v>0.662906</v>
+        <v>0.6536419999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.73907</v>
+        <v>0.784813</v>
       </c>
       <c r="C14" t="n">
-        <v>0.652697</v>
+        <v>0.663475</v>
       </c>
       <c r="D14" t="n">
-        <v>0.654856</v>
+        <v>0.6955480000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7541330000000001</v>
+        <v>0.760541</v>
       </c>
       <c r="C15" t="n">
-        <v>0.666674</v>
+        <v>0.662627</v>
       </c>
       <c r="D15" t="n">
-        <v>0.669034</v>
+        <v>0.672316</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.730995</v>
+        <v>0.768947</v>
       </c>
       <c r="C16" t="n">
-        <v>0.64883</v>
+        <v>0.666652</v>
       </c>
       <c r="D16" t="n">
-        <v>0.663435</v>
+        <v>0.654703</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.731227</v>
+        <v>0.736584</v>
       </c>
       <c r="C17" t="n">
-        <v>0.646686</v>
+        <v>0.662502</v>
       </c>
       <c r="D17" t="n">
-        <v>0.661467</v>
+        <v>0.679326</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.755364</v>
+        <v>0.760683</v>
       </c>
       <c r="C18" t="n">
-        <v>0.644629</v>
+        <v>0.646809</v>
       </c>
       <c r="D18" t="n">
-        <v>0.640137</v>
+        <v>0.660415</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.74961</v>
+        <v>0.749086</v>
       </c>
       <c r="C19" t="n">
-        <v>0.657521</v>
+        <v>0.667883</v>
       </c>
       <c r="D19" t="n">
-        <v>0.660191</v>
+        <v>0.683885</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.75474</v>
+        <v>0.7491950000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6458700000000001</v>
+        <v>0.6625180000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.665894</v>
+        <v>0.656784</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.761005</v>
+        <v>0.741117</v>
       </c>
       <c r="C21" t="n">
-        <v>0.664119</v>
+        <v>0.675338</v>
       </c>
       <c r="D21" t="n">
-        <v>0.665929</v>
+        <v>0.6512829999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.758124</v>
+        <v>0.7386160000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.68527</v>
+        <v>0.651135</v>
       </c>
       <c r="D22" t="n">
-        <v>0.664622</v>
+        <v>0.6766</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.763737</v>
+        <v>0.764459</v>
       </c>
       <c r="C23" t="n">
-        <v>0.678123</v>
+        <v>0.679361</v>
       </c>
       <c r="D23" t="n">
-        <v>0.66678</v>
+        <v>0.684466</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.777407</v>
+        <v>0.780537</v>
       </c>
       <c r="C24" t="n">
-        <v>0.670789</v>
+        <v>0.6606070000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.670704</v>
+        <v>0.684773</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7833059999999999</v>
+        <v>0.7881860000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.673466</v>
+        <v>0.671849</v>
       </c>
       <c r="D25" t="n">
-        <v>0.696402</v>
+        <v>0.6898570000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.786781</v>
+        <v>0.7700090000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.686619</v>
+        <v>0.685301</v>
       </c>
       <c r="D26" t="n">
-        <v>0.702843</v>
+        <v>0.691699</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.789014</v>
+        <v>0.7801169999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6657110000000001</v>
+        <v>0.6537230000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.689992</v>
+        <v>0.668621</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.808187</v>
+        <v>0.787671</v>
       </c>
       <c r="C28" t="n">
-        <v>0.676806</v>
+        <v>0.663311</v>
       </c>
       <c r="D28" t="n">
-        <v>0.688354</v>
+        <v>0.681702</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.819368</v>
+        <v>0.783751</v>
       </c>
       <c r="C29" t="n">
-        <v>0.693074</v>
+        <v>0.653844</v>
       </c>
       <c r="D29" t="n">
-        <v>0.695118</v>
+        <v>0.686788</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.781339</v>
+        <v>0.784936</v>
       </c>
       <c r="C30" t="n">
-        <v>0.66621</v>
+        <v>0.661694</v>
       </c>
       <c r="D30" t="n">
-        <v>0.66894</v>
+        <v>0.681888</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7932670000000001</v>
+        <v>0.77536</v>
       </c>
       <c r="C31" t="n">
-        <v>0.698817</v>
+        <v>0.667693</v>
       </c>
       <c r="D31" t="n">
-        <v>0.697469</v>
+        <v>0.69987</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.774992</v>
+        <v>0.7674609999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.663994</v>
+        <v>0.662</v>
       </c>
       <c r="D32" t="n">
-        <v>0.684177</v>
+        <v>0.694133</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7731209999999999</v>
+        <v>0.760215</v>
       </c>
       <c r="C33" t="n">
-        <v>0.662258</v>
+        <v>0.656349</v>
       </c>
       <c r="D33" t="n">
-        <v>0.705664</v>
+        <v>0.68009</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.792739</v>
+        <v>0.7714029999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.67561</v>
+        <v>0.667286</v>
       </c>
       <c r="D34" t="n">
-        <v>0.700305</v>
+        <v>0.687568</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.777263</v>
+        <v>0.784807</v>
       </c>
       <c r="C35" t="n">
-        <v>0.686266</v>
+        <v>0.684499</v>
       </c>
       <c r="D35" t="n">
-        <v>0.687595</v>
+        <v>0.6811970000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.790088</v>
+        <v>0.7939889999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.67658</v>
+        <v>0.674522</v>
       </c>
       <c r="D36" t="n">
-        <v>0.696624</v>
+        <v>0.684186</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.795116</v>
+        <v>0.803991</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6920500000000001</v>
+        <v>0.671141</v>
       </c>
       <c r="D37" t="n">
-        <v>0.737661</v>
+        <v>0.712751</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.824997</v>
+        <v>0.797478</v>
       </c>
       <c r="C38" t="n">
-        <v>0.676318</v>
+        <v>0.685656</v>
       </c>
       <c r="D38" t="n">
-        <v>0.711985</v>
+        <v>0.734145</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.818378</v>
+        <v>0.800511</v>
       </c>
       <c r="C39" t="n">
-        <v>0.669138</v>
+        <v>0.6848340000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.705613</v>
+        <v>0.712934</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.798702</v>
+        <v>0.841332</v>
       </c>
       <c r="C40" t="n">
-        <v>0.699883</v>
+        <v>0.6791509999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.725326</v>
+        <v>0.7032</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.83713</v>
+        <v>0.829555</v>
       </c>
       <c r="C41" t="n">
-        <v>0.698493</v>
+        <v>0.684967</v>
       </c>
       <c r="D41" t="n">
-        <v>0.71873</v>
+        <v>0.73656</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.832153</v>
+        <v>0.8315129999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.698271</v>
+        <v>0.688499</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7325199999999999</v>
+        <v>0.700893</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.819594</v>
+        <v>0.802911</v>
       </c>
       <c r="C43" t="n">
-        <v>0.700391</v>
+        <v>0.67538</v>
       </c>
       <c r="D43" t="n">
-        <v>0.715723</v>
+        <v>0.701211</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.796644</v>
+        <v>0.827049</v>
       </c>
       <c r="C44" t="n">
-        <v>0.693168</v>
+        <v>0.678754</v>
       </c>
       <c r="D44" t="n">
-        <v>0.716716</v>
+        <v>0.695126</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.837627</v>
+        <v>0.803661</v>
       </c>
       <c r="C45" t="n">
-        <v>0.695078</v>
+        <v>0.691582</v>
       </c>
       <c r="D45" t="n">
-        <v>0.707752</v>
+        <v>0.70057</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.836859</v>
+        <v>0.797859</v>
       </c>
       <c r="C46" t="n">
-        <v>0.712564</v>
+        <v>0.699546</v>
       </c>
       <c r="D46" t="n">
-        <v>0.713018</v>
+        <v>0.719819</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.828725</v>
+        <v>0.80752</v>
       </c>
       <c r="C47" t="n">
-        <v>0.706637</v>
+        <v>0.691958</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7148099999999999</v>
+        <v>0.699576</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.806794</v>
+        <v>0.827043</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7186630000000001</v>
+        <v>0.683463</v>
       </c>
       <c r="D48" t="n">
-        <v>0.726546</v>
+        <v>0.709622</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.835869</v>
+        <v>0.811918</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7090610000000001</v>
+        <v>0.693688</v>
       </c>
       <c r="D49" t="n">
-        <v>0.729255</v>
+        <v>0.71682</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.815169</v>
+        <v>0.789112</v>
       </c>
       <c r="C50" t="n">
-        <v>0.684065</v>
+        <v>0.68885</v>
       </c>
       <c r="D50" t="n">
-        <v>0.727458</v>
+        <v>0.701468</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.834073</v>
+        <v>0.800391</v>
       </c>
       <c r="C51" t="n">
-        <v>0.709046</v>
+        <v>0.706858</v>
       </c>
       <c r="D51" t="n">
-        <v>0.759358</v>
+        <v>0.721571</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.805774</v>
+        <v>0.81812</v>
       </c>
       <c r="C52" t="n">
-        <v>0.716011</v>
+        <v>0.704359</v>
       </c>
       <c r="D52" t="n">
-        <v>0.763081</v>
+        <v>0.732618</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8830750000000001</v>
+        <v>0.865152</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7314310000000001</v>
+        <v>0.727606</v>
       </c>
       <c r="D53" t="n">
-        <v>0.767652</v>
+        <v>0.752018</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8958469999999999</v>
+        <v>0.896093</v>
       </c>
       <c r="C54" t="n">
-        <v>0.740588</v>
+        <v>0.72999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.725666</v>
+        <v>0.749468</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8918199999999999</v>
+        <v>0.877849</v>
       </c>
       <c r="C55" t="n">
-        <v>0.738565</v>
+        <v>0.73867</v>
       </c>
       <c r="D55" t="n">
-        <v>0.749121</v>
+        <v>0.72966</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.90125</v>
+        <v>0.8683070000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.728486</v>
+        <v>0.731608</v>
       </c>
       <c r="D56" t="n">
-        <v>0.774641</v>
+        <v>0.730317</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.912322</v>
+        <v>0.8940900000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.75138</v>
+        <v>0.730678</v>
       </c>
       <c r="D57" t="n">
-        <v>0.760815</v>
+        <v>0.735695</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.895402</v>
+        <v>0.859909</v>
       </c>
       <c r="C58" t="n">
-        <v>0.737707</v>
+        <v>0.729887</v>
       </c>
       <c r="D58" t="n">
-        <v>0.766822</v>
+        <v>0.742032</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.904019</v>
+        <v>0.907119</v>
       </c>
       <c r="C59" t="n">
-        <v>0.743944</v>
+        <v>0.72298</v>
       </c>
       <c r="D59" t="n">
-        <v>0.768887</v>
+        <v>0.755221</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.906293</v>
+        <v>0.85995</v>
       </c>
       <c r="C60" t="n">
-        <v>0.745296</v>
+        <v>0.7396</v>
       </c>
       <c r="D60" t="n">
-        <v>0.766058</v>
+        <v>0.732053</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.886557</v>
+        <v>0.875351</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7532720000000001</v>
+        <v>0.737795</v>
       </c>
       <c r="D61" t="n">
-        <v>0.744725</v>
+        <v>0.750086</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.91982</v>
+        <v>0.8953680000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.76818</v>
+        <v>0.762176</v>
       </c>
       <c r="D62" t="n">
-        <v>0.775837</v>
+        <v>0.73204</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.901578</v>
+        <v>0.882641</v>
       </c>
       <c r="C63" t="n">
-        <v>0.738053</v>
+        <v>0.742626</v>
       </c>
       <c r="D63" t="n">
-        <v>0.758586</v>
+        <v>0.7517</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.889089</v>
+        <v>0.878812</v>
       </c>
       <c r="C64" t="n">
-        <v>0.755812</v>
+        <v>0.772092</v>
       </c>
       <c r="D64" t="n">
-        <v>0.788847</v>
+        <v>0.748242</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.916907</v>
+        <v>0.871541</v>
       </c>
       <c r="C65" t="n">
-        <v>0.765834</v>
+        <v>0.741079</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7697310000000001</v>
+        <v>0.755008</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.889143</v>
+        <v>0.888526</v>
       </c>
       <c r="C66" t="n">
-        <v>0.761641</v>
+        <v>0.751027</v>
       </c>
       <c r="D66" t="n">
-        <v>0.955811</v>
+        <v>0.889753</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.15958</v>
+        <v>1.05718</v>
       </c>
       <c r="C67" t="n">
-        <v>0.911192</v>
+        <v>0.874272</v>
       </c>
       <c r="D67" t="n">
-        <v>0.925291</v>
+        <v>0.885532</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.14812</v>
+        <v>1.07131</v>
       </c>
       <c r="C68" t="n">
-        <v>0.906437</v>
+        <v>0.868684</v>
       </c>
       <c r="D68" t="n">
-        <v>0.907637</v>
+        <v>0.870475</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.16266</v>
+        <v>1.06772</v>
       </c>
       <c r="C69" t="n">
-        <v>0.906321</v>
+        <v>0.8730250000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.914869</v>
+        <v>0.902434</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.12275</v>
+        <v>1.10785</v>
       </c>
       <c r="C70" t="n">
-        <v>0.929872</v>
+        <v>0.878184</v>
       </c>
       <c r="D70" t="n">
-        <v>0.915057</v>
+        <v>0.889228</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.16821</v>
+        <v>1.09809</v>
       </c>
       <c r="C71" t="n">
-        <v>0.905322</v>
+        <v>0.87968</v>
       </c>
       <c r="D71" t="n">
-        <v>0.90215</v>
+        <v>0.876468</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.19389</v>
+        <v>1.06195</v>
       </c>
       <c r="C72" t="n">
-        <v>0.907265</v>
+        <v>0.882255</v>
       </c>
       <c r="D72" t="n">
-        <v>0.942732</v>
+        <v>0.865549</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.1824</v>
+        <v>1.05399</v>
       </c>
       <c r="C73" t="n">
-        <v>0.91301</v>
+        <v>0.8965</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9443859999999999</v>
+        <v>0.875922</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17611</v>
+        <v>1.07382</v>
       </c>
       <c r="C74" t="n">
-        <v>0.941658</v>
+        <v>0.879896</v>
       </c>
       <c r="D74" t="n">
-        <v>0.940002</v>
+        <v>0.887398</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.17926</v>
+        <v>1.073</v>
       </c>
       <c r="C75" t="n">
-        <v>0.896557</v>
+        <v>0.867904</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9393049999999999</v>
+        <v>0.880255</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.13558</v>
+        <v>1.1098</v>
       </c>
       <c r="C76" t="n">
-        <v>0.957796</v>
+        <v>0.8891289999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.926919</v>
+        <v>0.875813</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.13783</v>
+        <v>1.09774</v>
       </c>
       <c r="C77" t="n">
-        <v>0.927418</v>
+        <v>0.883028</v>
       </c>
       <c r="D77" t="n">
-        <v>0.938831</v>
+        <v>0.917841</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.15858</v>
+        <v>1.06729</v>
       </c>
       <c r="C78" t="n">
-        <v>0.952858</v>
+        <v>0.8924800000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.925363</v>
+        <v>0.892974</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.14424</v>
+        <v>1.05044</v>
       </c>
       <c r="C79" t="n">
-        <v>0.949482</v>
+        <v>0.888646</v>
       </c>
       <c r="D79" t="n">
-        <v>0.928478</v>
+        <v>0.870851</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.16545</v>
+        <v>1.05492</v>
       </c>
       <c r="C80" t="n">
-        <v>0.945555</v>
+        <v>0.87281</v>
       </c>
       <c r="D80" t="n">
-        <v>1.24514</v>
+        <v>1.16518</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.47875</v>
+        <v>1.42855</v>
       </c>
       <c r="C81" t="n">
-        <v>1.26605</v>
+        <v>1.1616</v>
       </c>
       <c r="D81" t="n">
-        <v>1.25547</v>
+        <v>1.16925</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.51135</v>
+        <v>1.4311</v>
       </c>
       <c r="C82" t="n">
-        <v>1.25831</v>
+        <v>1.17051</v>
       </c>
       <c r="D82" t="n">
-        <v>1.24316</v>
+        <v>1.16558</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.50197</v>
+        <v>1.36958</v>
       </c>
       <c r="C83" t="n">
-        <v>1.25897</v>
+        <v>1.18753</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28557</v>
+        <v>1.19147</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.52283</v>
+        <v>1.46295</v>
       </c>
       <c r="C84" t="n">
-        <v>1.27338</v>
+        <v>1.21057</v>
       </c>
       <c r="D84" t="n">
-        <v>1.25477</v>
+        <v>1.25144</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.52105</v>
+        <v>1.37219</v>
       </c>
       <c r="C85" t="n">
-        <v>1.29244</v>
+        <v>1.14348</v>
       </c>
       <c r="D85" t="n">
-        <v>1.284</v>
+        <v>1.18974</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.53435</v>
+        <v>1.42421</v>
       </c>
       <c r="C86" t="n">
-        <v>1.29381</v>
+        <v>1.25928</v>
       </c>
       <c r="D86" t="n">
-        <v>1.25269</v>
+        <v>1.18351</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.55289</v>
+        <v>1.40816</v>
       </c>
       <c r="C87" t="n">
-        <v>1.26004</v>
+        <v>1.20623</v>
       </c>
       <c r="D87" t="n">
-        <v>1.30685</v>
+        <v>1.19382</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.52007</v>
+        <v>1.41596</v>
       </c>
       <c r="C88" t="n">
-        <v>1.26274</v>
+        <v>1.22099</v>
       </c>
       <c r="D88" t="n">
-        <v>1.25235</v>
+        <v>1.2119</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.50147</v>
+        <v>1.40002</v>
       </c>
       <c r="C89" t="n">
-        <v>1.27112</v>
+        <v>1.19904</v>
       </c>
       <c r="D89" t="n">
-        <v>1.27684</v>
+        <v>1.22162</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.50787</v>
+        <v>1.43973</v>
       </c>
       <c r="C90" t="n">
-        <v>1.23582</v>
+        <v>1.23329</v>
       </c>
       <c r="D90" t="n">
-        <v>1.22588</v>
+        <v>1.23979</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.50363</v>
+        <v>1.41523</v>
       </c>
       <c r="C91" t="n">
-        <v>1.27111</v>
+        <v>1.21594</v>
       </c>
       <c r="D91" t="n">
-        <v>1.26783</v>
+        <v>1.20092</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.49557</v>
+        <v>1.39045</v>
       </c>
       <c r="C92" t="n">
-        <v>1.2851</v>
+        <v>1.19881</v>
       </c>
       <c r="D92" t="n">
-        <v>1.26989</v>
+        <v>1.15911</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.51993</v>
+        <v>1.44325</v>
       </c>
       <c r="C93" t="n">
-        <v>1.26106</v>
+        <v>1.2177</v>
       </c>
       <c r="D93" t="n">
-        <v>1.26595</v>
+        <v>1.16231</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.47835</v>
+        <v>1.39234</v>
       </c>
       <c r="C94" t="n">
-        <v>1.26226</v>
+        <v>1.2459</v>
       </c>
       <c r="D94" t="n">
-        <v>1.55569</v>
+        <v>1.53254</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.82119</v>
+        <v>1.72337</v>
       </c>
       <c r="C95" t="n">
-        <v>1.54725</v>
+        <v>1.49516</v>
       </c>
       <c r="D95" t="n">
-        <v>1.57447</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.86277</v>
+        <v>1.76771</v>
       </c>
       <c r="C96" t="n">
-        <v>1.51706</v>
+        <v>1.53545</v>
       </c>
       <c r="D96" t="n">
-        <v>1.56891</v>
+        <v>1.5877</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.85298</v>
+        <v>1.73906</v>
       </c>
       <c r="C97" t="n">
-        <v>1.55067</v>
+        <v>1.49142</v>
       </c>
       <c r="D97" t="n">
-        <v>1.56688</v>
+        <v>1.5056</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.87369</v>
+        <v>1.75413</v>
       </c>
       <c r="C98" t="n">
-        <v>1.5469</v>
+        <v>1.5111</v>
       </c>
       <c r="D98" t="n">
-        <v>1.58881</v>
+        <v>1.55747</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.85108</v>
+        <v>1.74594</v>
       </c>
       <c r="C99" t="n">
-        <v>1.57128</v>
+        <v>1.517</v>
       </c>
       <c r="D99" t="n">
-        <v>1.58328</v>
+        <v>1.53131</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.82281</v>
+        <v>1.74608</v>
       </c>
       <c r="C100" t="n">
-        <v>1.53697</v>
+        <v>1.48681</v>
       </c>
       <c r="D100" t="n">
-        <v>1.62158</v>
+        <v>1.5121</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.82816</v>
+        <v>1.72934</v>
       </c>
       <c r="C101" t="n">
-        <v>1.55555</v>
+        <v>1.55971</v>
       </c>
       <c r="D101" t="n">
-        <v>1.59813</v>
+        <v>1.50678</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.86726</v>
+        <v>1.71654</v>
       </c>
       <c r="C102" t="n">
-        <v>1.57739</v>
+        <v>1.50637</v>
       </c>
       <c r="D102" t="n">
-        <v>1.62356</v>
+        <v>1.54893</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.84072</v>
+        <v>1.75799</v>
       </c>
       <c r="C103" t="n">
-        <v>1.55977</v>
+        <v>1.51416</v>
       </c>
       <c r="D103" t="n">
-        <v>1.57906</v>
+        <v>1.60198</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.86718</v>
+        <v>1.77769</v>
       </c>
       <c r="C104" t="n">
-        <v>1.55197</v>
+        <v>1.49275</v>
       </c>
       <c r="D104" t="n">
-        <v>1.62919</v>
+        <v>1.57146</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.84351</v>
+        <v>1.77098</v>
       </c>
       <c r="C105" t="n">
-        <v>1.61055</v>
+        <v>1.54064</v>
       </c>
       <c r="D105" t="n">
-        <v>1.62794</v>
+        <v>1.55953</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.82049</v>
+        <v>1.71324</v>
       </c>
       <c r="C106" t="n">
-        <v>1.57813</v>
+        <v>1.50683</v>
       </c>
       <c r="D106" t="n">
-        <v>1.61396</v>
+        <v>1.54784</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.80266</v>
+        <v>1.82323</v>
       </c>
       <c r="C107" t="n">
-        <v>1.54356</v>
+        <v>1.57703</v>
       </c>
       <c r="D107" t="n">
-        <v>1.61542</v>
+        <v>1.54227</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.81403</v>
+        <v>1.70612</v>
       </c>
       <c r="C108" t="n">
-        <v>1.57286</v>
+        <v>1.56523</v>
       </c>
       <c r="D108" t="n">
-        <v>1.79662</v>
+        <v>1.75252</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.81438</v>
+        <v>1.74639</v>
       </c>
       <c r="C109" t="n">
-        <v>1.58908</v>
+        <v>1.59533</v>
       </c>
       <c r="D109" t="n">
-        <v>1.77498</v>
+        <v>1.74138</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.20079</v>
+        <v>2.14099</v>
       </c>
       <c r="C110" t="n">
-        <v>1.69015</v>
+        <v>1.73981</v>
       </c>
       <c r="D110" t="n">
-        <v>1.7714</v>
+        <v>1.76532</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.24091</v>
+        <v>2.11839</v>
       </c>
       <c r="C111" t="n">
-        <v>1.72541</v>
+        <v>1.66803</v>
       </c>
       <c r="D111" t="n">
-        <v>1.82202</v>
+        <v>1.74031</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.13935</v>
+        <v>2.14889</v>
       </c>
       <c r="C112" t="n">
-        <v>1.74179</v>
+        <v>1.68747</v>
       </c>
       <c r="D112" t="n">
-        <v>1.78368</v>
+        <v>1.76438</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.18286</v>
+        <v>2.1611</v>
       </c>
       <c r="C113" t="n">
-        <v>1.74164</v>
+        <v>1.72098</v>
       </c>
       <c r="D113" t="n">
-        <v>1.79034</v>
+        <v>1.79248</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.18045</v>
+        <v>2.14059</v>
       </c>
       <c r="C114" t="n">
-        <v>1.77259</v>
+        <v>1.75171</v>
       </c>
       <c r="D114" t="n">
-        <v>1.81916</v>
+        <v>1.77806</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.2395</v>
+        <v>2.14303</v>
       </c>
       <c r="C115" t="n">
-        <v>1.73393</v>
+        <v>1.74649</v>
       </c>
       <c r="D115" t="n">
-        <v>1.80914</v>
+        <v>1.79498</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.18874</v>
+        <v>2.1392</v>
       </c>
       <c r="C116" t="n">
-        <v>1.75798</v>
+        <v>1.74411</v>
       </c>
       <c r="D116" t="n">
-        <v>1.80967</v>
+        <v>1.80514</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.13865</v>
+        <v>2.16872</v>
       </c>
       <c r="C117" t="n">
-        <v>1.76527</v>
+        <v>1.74841</v>
       </c>
       <c r="D117" t="n">
-        <v>1.81059</v>
+        <v>1.78294</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.19642</v>
+        <v>2.06886</v>
       </c>
       <c r="C118" t="n">
-        <v>1.74275</v>
+        <v>1.75189</v>
       </c>
       <c r="D118" t="n">
-        <v>1.79355</v>
+        <v>1.8196</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.20069</v>
+        <v>2.16311</v>
       </c>
       <c r="C119" t="n">
-        <v>1.77777</v>
+        <v>1.75664</v>
       </c>
       <c r="D119" t="n">
-        <v>1.82092</v>
+        <v>1.78574</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>2.17494</v>
+        <v>2.15735</v>
       </c>
       <c r="C120" t="n">
-        <v>1.76388</v>
+        <v>1.76582</v>
       </c>
       <c r="D120" t="n">
-        <v>1.82251</v>
+        <v>1.78417</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>2.17168</v>
+        <v>2.13979</v>
       </c>
       <c r="C121" t="n">
-        <v>1.78104</v>
+        <v>1.80275</v>
       </c>
       <c r="D121" t="n">
-        <v>1.86697</v>
+        <v>1.83017</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>2.1419</v>
+        <v>2.17075</v>
       </c>
       <c r="C122" t="n">
-        <v>1.79223</v>
+        <v>1.77019</v>
       </c>
       <c r="D122" t="n">
-        <v>1.87596</v>
+        <v>1.8377</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>2.15383</v>
+        <v>2.17205</v>
       </c>
       <c r="C123" t="n">
-        <v>1.8163</v>
+        <v>1.81743</v>
       </c>
       <c r="D123" t="n">
-        <v>1.93032</v>
+        <v>1.94689</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.55091</v>
+        <v>2.53032</v>
       </c>
       <c r="C124" t="n">
-        <v>1.90835</v>
+        <v>1.87472</v>
       </c>
       <c r="D124" t="n">
-        <v>1.97502</v>
+        <v>1.93852</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.55023</v>
+        <v>2.5445</v>
       </c>
       <c r="C125" t="n">
-        <v>1.90151</v>
+        <v>1.84705</v>
       </c>
       <c r="D125" t="n">
-        <v>1.94386</v>
+        <v>1.93389</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.51797</v>
+        <v>2.56582</v>
       </c>
       <c r="C126" t="n">
-        <v>1.89396</v>
+        <v>1.89606</v>
       </c>
       <c r="D126" t="n">
-        <v>1.95871</v>
+        <v>1.93168</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.51765</v>
+        <v>2.52304</v>
       </c>
       <c r="C127" t="n">
-        <v>1.89544</v>
+        <v>1.86759</v>
       </c>
       <c r="D127" t="n">
-        <v>1.9733</v>
+        <v>1.95364</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.53147</v>
+        <v>2.52737</v>
       </c>
       <c r="C128" t="n">
-        <v>1.88223</v>
+        <v>1.88799</v>
       </c>
       <c r="D128" t="n">
-        <v>1.97289</v>
+        <v>1.94785</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.53627</v>
+        <v>2.52058</v>
       </c>
       <c r="C129" t="n">
-        <v>1.92848</v>
+        <v>1.92432</v>
       </c>
       <c r="D129" t="n">
-        <v>1.97971</v>
+        <v>1.96046</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.55353</v>
+        <v>2.53802</v>
       </c>
       <c r="C130" t="n">
-        <v>1.93456</v>
+        <v>1.89557</v>
       </c>
       <c r="D130" t="n">
-        <v>2.00808</v>
+        <v>1.95067</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.53506</v>
+        <v>2.5214</v>
       </c>
       <c r="C131" t="n">
-        <v>1.92929</v>
+        <v>1.92014</v>
       </c>
       <c r="D131" t="n">
-        <v>1.97838</v>
+        <v>1.97262</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.52998</v>
+        <v>2.54259</v>
       </c>
       <c r="C132" t="n">
-        <v>1.94187</v>
+        <v>1.92285</v>
       </c>
       <c r="D132" t="n">
-        <v>1.99471</v>
+        <v>1.98579</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.51579</v>
+        <v>2.53527</v>
       </c>
       <c r="C133" t="n">
-        <v>1.93831</v>
+        <v>1.9812</v>
       </c>
       <c r="D133" t="n">
-        <v>2.02176</v>
+        <v>1.99489</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.5419</v>
+        <v>2.53312</v>
       </c>
       <c r="C134" t="n">
-        <v>1.98023</v>
+        <v>1.95762</v>
       </c>
       <c r="D134" t="n">
-        <v>2.013</v>
+        <v>2.00404</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.59167</v>
+        <v>2.52492</v>
       </c>
       <c r="C135" t="n">
-        <v>1.97937</v>
+        <v>1.95659</v>
       </c>
       <c r="D135" t="n">
-        <v>2.02401</v>
+        <v>1.99737</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.53105</v>
+        <v>2.55527</v>
       </c>
       <c r="C136" t="n">
-        <v>1.99699</v>
+        <v>1.98136</v>
       </c>
       <c r="D136" t="n">
-        <v>2.03681</v>
+        <v>2.03867</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.55226</v>
+        <v>2.56068</v>
       </c>
       <c r="C137" t="n">
-        <v>2.004</v>
+        <v>2.01901</v>
       </c>
       <c r="D137" t="n">
-        <v>2.17751</v>
+        <v>2.08734</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.9256</v>
+        <v>3.15314</v>
       </c>
       <c r="C138" t="n">
-        <v>2.16915</v>
+        <v>2.05237</v>
       </c>
       <c r="D138" t="n">
-        <v>2.13162</v>
+        <v>2.10669</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.90877</v>
+        <v>2.86651</v>
       </c>
       <c r="C139" t="n">
-        <v>2.1838</v>
+        <v>2.05128</v>
       </c>
       <c r="D139" t="n">
-        <v>2.10161</v>
+        <v>2.10406</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.86289</v>
+        <v>2.88392</v>
       </c>
       <c r="C140" t="n">
-        <v>2.06834</v>
+        <v>2.06797</v>
       </c>
       <c r="D140" t="n">
-        <v>2.21107</v>
+        <v>2.10931</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.90776</v>
+        <v>2.87041</v>
       </c>
       <c r="C141" t="n">
-        <v>2.05606</v>
+        <v>2.07809</v>
       </c>
       <c r="D141" t="n">
-        <v>2.11686</v>
+        <v>2.12138</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.86608</v>
+        <v>2.86699</v>
       </c>
       <c r="C142" t="n">
-        <v>2.06135</v>
+        <v>2.09132</v>
       </c>
       <c r="D142" t="n">
-        <v>2.21486</v>
+        <v>2.10025</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.89052</v>
+        <v>2.88068</v>
       </c>
       <c r="C143" t="n">
-        <v>2.19988</v>
+        <v>2.07422</v>
       </c>
       <c r="D143" t="n">
-        <v>2.13505</v>
+        <v>2.12841</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.733334</v>
+        <v>0.745722</v>
       </c>
       <c r="C2" t="n">
-        <v>0.64048</v>
+        <v>0.6530049999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.650529</v>
+        <v>0.666718</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7338479999999999</v>
+        <v>0.729952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.657191</v>
+        <v>0.643958</v>
       </c>
       <c r="D3" t="n">
-        <v>0.648097</v>
+        <v>0.644692</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.707678</v>
+        <v>0.732965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.636015</v>
+        <v>0.6596340000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.640331</v>
+        <v>0.663478</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.731963</v>
+        <v>0.740521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.681558</v>
+        <v>0.646222</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6718229999999999</v>
+        <v>0.665358</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.760866</v>
+        <v>0.724152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.673377</v>
+        <v>0.632173</v>
       </c>
       <c r="D6" t="n">
-        <v>0.688825</v>
+        <v>0.655905</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.747882</v>
+        <v>0.712924</v>
       </c>
       <c r="C7" t="n">
-        <v>0.680822</v>
+        <v>0.651004</v>
       </c>
       <c r="D7" t="n">
-        <v>0.672054</v>
+        <v>0.656205</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7404579999999999</v>
+        <v>0.71171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6801430000000001</v>
+        <v>0.65034</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6692900000000001</v>
+        <v>0.666419</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.738483</v>
+        <v>0.778331</v>
       </c>
       <c r="C9" t="n">
-        <v>0.66313</v>
+        <v>0.691951</v>
       </c>
       <c r="D9" t="n">
-        <v>0.687928</v>
+        <v>0.693539</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.785786</v>
+        <v>0.761473</v>
       </c>
       <c r="C10" t="n">
-        <v>0.671088</v>
+        <v>0.662639</v>
       </c>
       <c r="D10" t="n">
-        <v>0.672269</v>
+        <v>0.676119</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.773379</v>
+        <v>0.745966</v>
       </c>
       <c r="C11" t="n">
-        <v>0.661525</v>
+        <v>0.664338</v>
       </c>
       <c r="D11" t="n">
-        <v>0.682343</v>
+        <v>0.672593</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.763993</v>
+        <v>0.7553339999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.669438</v>
+        <v>0.66754</v>
       </c>
       <c r="D12" t="n">
-        <v>0.680215</v>
+        <v>0.687189</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7718429999999999</v>
+        <v>0.759362</v>
       </c>
       <c r="C13" t="n">
-        <v>0.669808</v>
+        <v>0.669172</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6536419999999999</v>
+        <v>0.685752</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.784813</v>
+        <v>0.769396</v>
       </c>
       <c r="C14" t="n">
-        <v>0.663475</v>
+        <v>0.672229</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6955480000000001</v>
+        <v>0.6868339999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.760541</v>
+        <v>0.751406</v>
       </c>
       <c r="C15" t="n">
-        <v>0.662627</v>
+        <v>0.639997</v>
       </c>
       <c r="D15" t="n">
-        <v>0.672316</v>
+        <v>0.674782</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.768947</v>
+        <v>0.742622</v>
       </c>
       <c r="C16" t="n">
-        <v>0.666652</v>
+        <v>0.664162</v>
       </c>
       <c r="D16" t="n">
-        <v>0.654703</v>
+        <v>0.648054</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.736584</v>
+        <v>0.740873</v>
       </c>
       <c r="C17" t="n">
-        <v>0.662502</v>
+        <v>0.647183</v>
       </c>
       <c r="D17" t="n">
-        <v>0.679326</v>
+        <v>0.65338</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.760683</v>
+        <v>0.752602</v>
       </c>
       <c r="C18" t="n">
-        <v>0.646809</v>
+        <v>0.6587150000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.660415</v>
+        <v>0.675593</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.749086</v>
+        <v>0.7660439999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.667883</v>
+        <v>0.642494</v>
       </c>
       <c r="D19" t="n">
-        <v>0.683885</v>
+        <v>0.647237</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7491950000000001</v>
+        <v>0.743882</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6625180000000001</v>
+        <v>0.634069</v>
       </c>
       <c r="D20" t="n">
-        <v>0.656784</v>
+        <v>0.662895</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.741117</v>
+        <v>0.744236</v>
       </c>
       <c r="C21" t="n">
-        <v>0.675338</v>
+        <v>0.663425</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6512829999999999</v>
+        <v>0.649438</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7386160000000001</v>
+        <v>0.7305700000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.651135</v>
+        <v>0.668612</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6766</v>
+        <v>0.665801</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.764459</v>
+        <v>0.7434460000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.679361</v>
+        <v>0.687358</v>
       </c>
       <c r="D23" t="n">
-        <v>0.684466</v>
+        <v>0.693531</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.780537</v>
+        <v>0.782192</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6606070000000001</v>
+        <v>0.67367</v>
       </c>
       <c r="D24" t="n">
-        <v>0.684773</v>
+        <v>0.685118</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7881860000000001</v>
+        <v>0.771967</v>
       </c>
       <c r="C25" t="n">
-        <v>0.671849</v>
+        <v>0.665154</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6898570000000001</v>
+        <v>0.670444</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7700090000000001</v>
+        <v>0.803297</v>
       </c>
       <c r="C26" t="n">
-        <v>0.685301</v>
+        <v>0.646317</v>
       </c>
       <c r="D26" t="n">
-        <v>0.691699</v>
+        <v>0.674082</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7801169999999999</v>
+        <v>0.754759</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6537230000000001</v>
+        <v>0.644889</v>
       </c>
       <c r="D27" t="n">
-        <v>0.668621</v>
+        <v>0.683606</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.787671</v>
+        <v>0.741292</v>
       </c>
       <c r="C28" t="n">
-        <v>0.663311</v>
+        <v>0.661084</v>
       </c>
       <c r="D28" t="n">
-        <v>0.681702</v>
+        <v>0.68346</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.783751</v>
+        <v>0.743776</v>
       </c>
       <c r="C29" t="n">
-        <v>0.653844</v>
+        <v>0.65412</v>
       </c>
       <c r="D29" t="n">
-        <v>0.686788</v>
+        <v>0.6512559999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.784936</v>
+        <v>0.740907</v>
       </c>
       <c r="C30" t="n">
-        <v>0.661694</v>
+        <v>0.6474220000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.681888</v>
+        <v>0.662459</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.77536</v>
+        <v>0.740273</v>
       </c>
       <c r="C31" t="n">
-        <v>0.667693</v>
+        <v>0.641994</v>
       </c>
       <c r="D31" t="n">
-        <v>0.69987</v>
+        <v>0.651367</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7674609999999999</v>
+        <v>0.77285</v>
       </c>
       <c r="C32" t="n">
-        <v>0.662</v>
+        <v>0.646402</v>
       </c>
       <c r="D32" t="n">
-        <v>0.694133</v>
+        <v>0.653895</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.760215</v>
+        <v>0.744378</v>
       </c>
       <c r="C33" t="n">
-        <v>0.656349</v>
+        <v>0.642876</v>
       </c>
       <c r="D33" t="n">
-        <v>0.68009</v>
+        <v>0.657567</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7714029999999999</v>
+        <v>0.743395</v>
       </c>
       <c r="C34" t="n">
-        <v>0.667286</v>
+        <v>0.647056</v>
       </c>
       <c r="D34" t="n">
-        <v>0.687568</v>
+        <v>0.65861</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.784807</v>
+        <v>0.782494</v>
       </c>
       <c r="C35" t="n">
-        <v>0.684499</v>
+        <v>0.654689</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6811970000000001</v>
+        <v>0.671011</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7939889999999999</v>
+        <v>0.750658</v>
       </c>
       <c r="C36" t="n">
-        <v>0.674522</v>
+        <v>0.665578</v>
       </c>
       <c r="D36" t="n">
-        <v>0.684186</v>
+        <v>0.692896</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.803991</v>
+        <v>0.777163</v>
       </c>
       <c r="C37" t="n">
-        <v>0.671141</v>
+        <v>0.6783400000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.712751</v>
+        <v>0.706781</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.797478</v>
+        <v>0.794636</v>
       </c>
       <c r="C38" t="n">
-        <v>0.685656</v>
+        <v>0.68682</v>
       </c>
       <c r="D38" t="n">
-        <v>0.734145</v>
+        <v>0.697377</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.800511</v>
+        <v>0.809881</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6848340000000001</v>
+        <v>0.702975</v>
       </c>
       <c r="D39" t="n">
-        <v>0.712934</v>
+        <v>0.690657</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.841332</v>
+        <v>0.795534</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6791509999999999</v>
+        <v>0.689364</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7032</v>
+        <v>0.687906</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.829555</v>
+        <v>0.7973440000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.684967</v>
+        <v>0.683727</v>
       </c>
       <c r="D41" t="n">
-        <v>0.73656</v>
+        <v>0.6916949999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8315129999999999</v>
+        <v>0.807345</v>
       </c>
       <c r="C42" t="n">
-        <v>0.688499</v>
+        <v>0.691093</v>
       </c>
       <c r="D42" t="n">
-        <v>0.700893</v>
+        <v>0.69494</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.802911</v>
+        <v>0.793065</v>
       </c>
       <c r="C43" t="n">
-        <v>0.67538</v>
+        <v>0.686006</v>
       </c>
       <c r="D43" t="n">
-        <v>0.701211</v>
+        <v>0.701712</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.827049</v>
+        <v>0.810835</v>
       </c>
       <c r="C44" t="n">
-        <v>0.678754</v>
+        <v>0.70248</v>
       </c>
       <c r="D44" t="n">
-        <v>0.695126</v>
+        <v>0.720397</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.803661</v>
+        <v>0.808854</v>
       </c>
       <c r="C45" t="n">
-        <v>0.691582</v>
+        <v>0.681894</v>
       </c>
       <c r="D45" t="n">
-        <v>0.70057</v>
+        <v>0.694001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.797859</v>
+        <v>0.818957</v>
       </c>
       <c r="C46" t="n">
-        <v>0.699546</v>
+        <v>0.702703</v>
       </c>
       <c r="D46" t="n">
-        <v>0.719819</v>
+        <v>0.703014</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.80752</v>
+        <v>0.810017</v>
       </c>
       <c r="C47" t="n">
-        <v>0.691958</v>
+        <v>0.710174</v>
       </c>
       <c r="D47" t="n">
-        <v>0.699576</v>
+        <v>0.707029</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.827043</v>
+        <v>0.822454</v>
       </c>
       <c r="C48" t="n">
-        <v>0.683463</v>
+        <v>0.687211</v>
       </c>
       <c r="D48" t="n">
-        <v>0.709622</v>
+        <v>0.699669</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.811918</v>
+        <v>0.830118</v>
       </c>
       <c r="C49" t="n">
-        <v>0.693688</v>
+        <v>0.703649</v>
       </c>
       <c r="D49" t="n">
-        <v>0.71682</v>
+        <v>0.699509</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.789112</v>
+        <v>0.808942</v>
       </c>
       <c r="C50" t="n">
-        <v>0.68885</v>
+        <v>0.692167</v>
       </c>
       <c r="D50" t="n">
-        <v>0.701468</v>
+        <v>0.712529</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.800391</v>
+        <v>0.811511</v>
       </c>
       <c r="C51" t="n">
-        <v>0.706858</v>
+        <v>0.687663</v>
       </c>
       <c r="D51" t="n">
-        <v>0.721571</v>
+        <v>0.719222</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.81812</v>
+        <v>0.811117</v>
       </c>
       <c r="C52" t="n">
-        <v>0.704359</v>
+        <v>0.711045</v>
       </c>
       <c r="D52" t="n">
-        <v>0.732618</v>
+        <v>0.73837</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.865152</v>
+        <v>0.858495</v>
       </c>
       <c r="C53" t="n">
-        <v>0.727606</v>
+        <v>0.718269</v>
       </c>
       <c r="D53" t="n">
-        <v>0.752018</v>
+        <v>0.731023</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.896093</v>
+        <v>0.875839</v>
       </c>
       <c r="C54" t="n">
-        <v>0.72999</v>
+        <v>0.730418</v>
       </c>
       <c r="D54" t="n">
-        <v>0.749468</v>
+        <v>0.752688</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.877849</v>
+        <v>0.863775</v>
       </c>
       <c r="C55" t="n">
-        <v>0.73867</v>
+        <v>0.736973</v>
       </c>
       <c r="D55" t="n">
-        <v>0.72966</v>
+        <v>0.744128</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8683070000000001</v>
+        <v>0.869826</v>
       </c>
       <c r="C56" t="n">
-        <v>0.731608</v>
+        <v>0.737414</v>
       </c>
       <c r="D56" t="n">
-        <v>0.730317</v>
+        <v>0.760989</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8940900000000001</v>
+        <v>0.837419</v>
       </c>
       <c r="C57" t="n">
-        <v>0.730678</v>
+        <v>0.731644</v>
       </c>
       <c r="D57" t="n">
-        <v>0.735695</v>
+        <v>0.745838</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.859909</v>
+        <v>0.863669</v>
       </c>
       <c r="C58" t="n">
-        <v>0.729887</v>
+        <v>0.711275</v>
       </c>
       <c r="D58" t="n">
-        <v>0.742032</v>
+        <v>0.751942</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.907119</v>
+        <v>0.872052</v>
       </c>
       <c r="C59" t="n">
-        <v>0.72298</v>
+        <v>0.728766</v>
       </c>
       <c r="D59" t="n">
-        <v>0.755221</v>
+        <v>0.76546</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.85995</v>
+        <v>0.861727</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7396</v>
+        <v>0.729759</v>
       </c>
       <c r="D60" t="n">
-        <v>0.732053</v>
+        <v>0.761683</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.875351</v>
+        <v>0.874282</v>
       </c>
       <c r="C61" t="n">
-        <v>0.737795</v>
+        <v>0.7381799999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.750086</v>
+        <v>0.762287</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8953680000000001</v>
+        <v>0.834463</v>
       </c>
       <c r="C62" t="n">
-        <v>0.762176</v>
+        <v>0.728635</v>
       </c>
       <c r="D62" t="n">
-        <v>0.73204</v>
+        <v>0.726213</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.882641</v>
+        <v>0.830116</v>
       </c>
       <c r="C63" t="n">
-        <v>0.742626</v>
+        <v>0.7153659999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7517</v>
+        <v>0.747906</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.878812</v>
+        <v>0.864358</v>
       </c>
       <c r="C64" t="n">
-        <v>0.772092</v>
+        <v>0.742949</v>
       </c>
       <c r="D64" t="n">
-        <v>0.748242</v>
+        <v>0.7665459999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.871541</v>
+        <v>0.911897</v>
       </c>
       <c r="C65" t="n">
-        <v>0.741079</v>
+        <v>0.731376</v>
       </c>
       <c r="D65" t="n">
-        <v>0.755008</v>
+        <v>0.7408360000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.888526</v>
+        <v>0.8769980000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.751027</v>
+        <v>0.755332</v>
       </c>
       <c r="D66" t="n">
-        <v>0.889753</v>
+        <v>0.872955</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.05718</v>
+        <v>1.0763</v>
       </c>
       <c r="C67" t="n">
-        <v>0.874272</v>
+        <v>0.850608</v>
       </c>
       <c r="D67" t="n">
-        <v>0.885532</v>
+        <v>0.889297</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.07131</v>
+        <v>1.07241</v>
       </c>
       <c r="C68" t="n">
-        <v>0.868684</v>
+        <v>0.868271</v>
       </c>
       <c r="D68" t="n">
-        <v>0.870475</v>
+        <v>0.8666509999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.06772</v>
+        <v>1.08477</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8730250000000001</v>
+        <v>0.863964</v>
       </c>
       <c r="D69" t="n">
-        <v>0.902434</v>
+        <v>0.873824</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.10785</v>
+        <v>1.04922</v>
       </c>
       <c r="C70" t="n">
-        <v>0.878184</v>
+        <v>0.862735</v>
       </c>
       <c r="D70" t="n">
-        <v>0.889228</v>
+        <v>0.869645</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.09809</v>
+        <v>1.07419</v>
       </c>
       <c r="C71" t="n">
-        <v>0.87968</v>
+        <v>0.858413</v>
       </c>
       <c r="D71" t="n">
-        <v>0.876468</v>
+        <v>0.8743339999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.06195</v>
+        <v>1.0564</v>
       </c>
       <c r="C72" t="n">
-        <v>0.882255</v>
+        <v>0.8665580000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.865549</v>
+        <v>0.858858</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.05399</v>
+        <v>1.07813</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8965</v>
+        <v>0.866664</v>
       </c>
       <c r="D73" t="n">
-        <v>0.875922</v>
+        <v>0.872132</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.07382</v>
+        <v>1.10068</v>
       </c>
       <c r="C74" t="n">
-        <v>0.879896</v>
+        <v>0.8698399999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.887398</v>
+        <v>0.884854</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.073</v>
+        <v>1.09806</v>
       </c>
       <c r="C75" t="n">
-        <v>0.867904</v>
+        <v>0.880119</v>
       </c>
       <c r="D75" t="n">
-        <v>0.880255</v>
+        <v>0.900535</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.1098</v>
+        <v>1.05758</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8891289999999999</v>
+        <v>0.87691</v>
       </c>
       <c r="D76" t="n">
-        <v>0.875813</v>
+        <v>0.885011</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.09774</v>
+        <v>1.08774</v>
       </c>
       <c r="C77" t="n">
-        <v>0.883028</v>
+        <v>0.868895</v>
       </c>
       <c r="D77" t="n">
-        <v>0.917841</v>
+        <v>0.8958</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.06729</v>
+        <v>1.08715</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8924800000000001</v>
+        <v>0.868709</v>
       </c>
       <c r="D78" t="n">
-        <v>0.892974</v>
+        <v>0.872738</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.05044</v>
+        <v>1.0582</v>
       </c>
       <c r="C79" t="n">
-        <v>0.888646</v>
+        <v>0.909187</v>
       </c>
       <c r="D79" t="n">
-        <v>0.870851</v>
+        <v>0.904817</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.05492</v>
+        <v>1.04964</v>
       </c>
       <c r="C80" t="n">
-        <v>0.87281</v>
+        <v>0.89615</v>
       </c>
       <c r="D80" t="n">
-        <v>1.16518</v>
+        <v>1.15087</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.42855</v>
+        <v>1.37671</v>
       </c>
       <c r="C81" t="n">
-        <v>1.1616</v>
+        <v>1.19219</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16925</v>
+        <v>1.20338</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.4311</v>
+        <v>1.4129</v>
       </c>
       <c r="C82" t="n">
-        <v>1.17051</v>
+        <v>1.1839</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16558</v>
+        <v>1.18347</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.36958</v>
+        <v>1.44383</v>
       </c>
       <c r="C83" t="n">
-        <v>1.18753</v>
+        <v>1.16403</v>
       </c>
       <c r="D83" t="n">
-        <v>1.19147</v>
+        <v>1.24955</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.46295</v>
+        <v>1.38736</v>
       </c>
       <c r="C84" t="n">
-        <v>1.21057</v>
+        <v>1.22617</v>
       </c>
       <c r="D84" t="n">
-        <v>1.25144</v>
+        <v>1.14684</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.37219</v>
+        <v>1.4569</v>
       </c>
       <c r="C85" t="n">
-        <v>1.14348</v>
+        <v>1.18068</v>
       </c>
       <c r="D85" t="n">
-        <v>1.18974</v>
+        <v>1.22194</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.42421</v>
+        <v>1.39473</v>
       </c>
       <c r="C86" t="n">
-        <v>1.25928</v>
+        <v>1.21707</v>
       </c>
       <c r="D86" t="n">
-        <v>1.18351</v>
+        <v>1.20633</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.40816</v>
+        <v>1.39945</v>
       </c>
       <c r="C87" t="n">
-        <v>1.20623</v>
+        <v>1.18598</v>
       </c>
       <c r="D87" t="n">
-        <v>1.19382</v>
+        <v>1.16769</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.41596</v>
+        <v>1.38129</v>
       </c>
       <c r="C88" t="n">
-        <v>1.22099</v>
+        <v>1.17866</v>
       </c>
       <c r="D88" t="n">
-        <v>1.2119</v>
+        <v>1.24157</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.40002</v>
+        <v>1.39063</v>
       </c>
       <c r="C89" t="n">
-        <v>1.19904</v>
+        <v>1.18783</v>
       </c>
       <c r="D89" t="n">
-        <v>1.22162</v>
+        <v>1.18219</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.43973</v>
+        <v>1.43005</v>
       </c>
       <c r="C90" t="n">
-        <v>1.23329</v>
+        <v>1.2006</v>
       </c>
       <c r="D90" t="n">
-        <v>1.23979</v>
+        <v>1.2245</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.41523</v>
+        <v>1.44775</v>
       </c>
       <c r="C91" t="n">
-        <v>1.21594</v>
+        <v>1.21927</v>
       </c>
       <c r="D91" t="n">
-        <v>1.20092</v>
+        <v>1.19952</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.39045</v>
+        <v>1.38805</v>
       </c>
       <c r="C92" t="n">
-        <v>1.19881</v>
+        <v>1.21443</v>
       </c>
       <c r="D92" t="n">
-        <v>1.15911</v>
+        <v>1.23275</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.44325</v>
+        <v>1.51072</v>
       </c>
       <c r="C93" t="n">
-        <v>1.2177</v>
+        <v>1.20477</v>
       </c>
       <c r="D93" t="n">
-        <v>1.16231</v>
+        <v>1.2313</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.39234</v>
+        <v>1.42469</v>
       </c>
       <c r="C94" t="n">
-        <v>1.2459</v>
+        <v>1.27759</v>
       </c>
       <c r="D94" t="n">
-        <v>1.53254</v>
+        <v>1.52889</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.72337</v>
+        <v>1.75017</v>
       </c>
       <c r="C95" t="n">
-        <v>1.49516</v>
+        <v>1.51355</v>
       </c>
       <c r="D95" t="n">
-        <v>1.54</v>
+        <v>1.5567</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.76771</v>
+        <v>1.77298</v>
       </c>
       <c r="C96" t="n">
-        <v>1.53545</v>
+        <v>1.4882</v>
       </c>
       <c r="D96" t="n">
-        <v>1.5877</v>
+        <v>1.56281</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.73906</v>
+        <v>1.76063</v>
       </c>
       <c r="C97" t="n">
-        <v>1.49142</v>
+        <v>1.53633</v>
       </c>
       <c r="D97" t="n">
-        <v>1.5056</v>
+        <v>1.4998</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.75413</v>
+        <v>1.79543</v>
       </c>
       <c r="C98" t="n">
-        <v>1.5111</v>
+        <v>1.53199</v>
       </c>
       <c r="D98" t="n">
-        <v>1.55747</v>
+        <v>1.52952</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.74594</v>
+        <v>1.87327</v>
       </c>
       <c r="C99" t="n">
-        <v>1.517</v>
+        <v>1.54496</v>
       </c>
       <c r="D99" t="n">
-        <v>1.53131</v>
+        <v>1.599</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.74608</v>
+        <v>1.7459</v>
       </c>
       <c r="C100" t="n">
-        <v>1.48681</v>
+        <v>1.51968</v>
       </c>
       <c r="D100" t="n">
-        <v>1.5121</v>
+        <v>1.57771</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.72934</v>
+        <v>1.72935</v>
       </c>
       <c r="C101" t="n">
-        <v>1.55971</v>
+        <v>1.52501</v>
       </c>
       <c r="D101" t="n">
-        <v>1.50678</v>
+        <v>1.595</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.71654</v>
+        <v>1.75278</v>
       </c>
       <c r="C102" t="n">
-        <v>1.50637</v>
+        <v>1.54814</v>
       </c>
       <c r="D102" t="n">
-        <v>1.54893</v>
+        <v>1.54913</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.75799</v>
+        <v>1.73137</v>
       </c>
       <c r="C103" t="n">
-        <v>1.51416</v>
+        <v>1.50798</v>
       </c>
       <c r="D103" t="n">
-        <v>1.60198</v>
+        <v>1.58281</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.77769</v>
+        <v>1.74384</v>
       </c>
       <c r="C104" t="n">
-        <v>1.49275</v>
+        <v>1.54057</v>
       </c>
       <c r="D104" t="n">
-        <v>1.57146</v>
+        <v>1.56832</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.77098</v>
+        <v>1.80431</v>
       </c>
       <c r="C105" t="n">
-        <v>1.54064</v>
+        <v>1.53706</v>
       </c>
       <c r="D105" t="n">
-        <v>1.55953</v>
+        <v>1.56951</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.71324</v>
+        <v>1.7799</v>
       </c>
       <c r="C106" t="n">
-        <v>1.50683</v>
+        <v>1.55243</v>
       </c>
       <c r="D106" t="n">
-        <v>1.54784</v>
+        <v>1.54802</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.82323</v>
+        <v>1.81536</v>
       </c>
       <c r="C107" t="n">
-        <v>1.57703</v>
+        <v>1.57212</v>
       </c>
       <c r="D107" t="n">
-        <v>1.54227</v>
+        <v>1.57598</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.70612</v>
+        <v>1.75442</v>
       </c>
       <c r="C108" t="n">
-        <v>1.56523</v>
+        <v>1.56697</v>
       </c>
       <c r="D108" t="n">
-        <v>1.75252</v>
+        <v>1.74711</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.74639</v>
+        <v>1.72865</v>
       </c>
       <c r="C109" t="n">
-        <v>1.59533</v>
+        <v>1.55897</v>
       </c>
       <c r="D109" t="n">
-        <v>1.74138</v>
+        <v>1.75392</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.14099</v>
+        <v>2.14867</v>
       </c>
       <c r="C110" t="n">
-        <v>1.73981</v>
+        <v>1.71682</v>
       </c>
       <c r="D110" t="n">
-        <v>1.76532</v>
+        <v>1.73853</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.11839</v>
+        <v>2.14094</v>
       </c>
       <c r="C111" t="n">
-        <v>1.66803</v>
+        <v>1.72608</v>
       </c>
       <c r="D111" t="n">
-        <v>1.74031</v>
+        <v>1.78496</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.14889</v>
+        <v>2.10572</v>
       </c>
       <c r="C112" t="n">
-        <v>1.68747</v>
+        <v>1.71955</v>
       </c>
       <c r="D112" t="n">
-        <v>1.76438</v>
+        <v>1.76185</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.1611</v>
+        <v>2.14789</v>
       </c>
       <c r="C113" t="n">
-        <v>1.72098</v>
+        <v>1.72566</v>
       </c>
       <c r="D113" t="n">
-        <v>1.79248</v>
+        <v>1.77499</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.14059</v>
+        <v>2.10399</v>
       </c>
       <c r="C114" t="n">
-        <v>1.75171</v>
+        <v>1.73536</v>
       </c>
       <c r="D114" t="n">
-        <v>1.77806</v>
+        <v>1.78768</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.14303</v>
+        <v>2.14876</v>
       </c>
       <c r="C115" t="n">
-        <v>1.74649</v>
+        <v>1.75945</v>
       </c>
       <c r="D115" t="n">
-        <v>1.79498</v>
+        <v>1.80238</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.1392</v>
+        <v>2.05968</v>
       </c>
       <c r="C116" t="n">
-        <v>1.74411</v>
+        <v>1.75524</v>
       </c>
       <c r="D116" t="n">
-        <v>1.80514</v>
+        <v>1.80568</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.16872</v>
+        <v>2.09832</v>
       </c>
       <c r="C117" t="n">
-        <v>1.74841</v>
+        <v>1.73149</v>
       </c>
       <c r="D117" t="n">
-        <v>1.78294</v>
+        <v>1.79228</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.06886</v>
+        <v>2.10873</v>
       </c>
       <c r="C118" t="n">
-        <v>1.75189</v>
+        <v>1.7464</v>
       </c>
       <c r="D118" t="n">
-        <v>1.8196</v>
+        <v>1.81082</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.16311</v>
+        <v>2.10477</v>
       </c>
       <c r="C119" t="n">
-        <v>1.75664</v>
+        <v>1.75445</v>
       </c>
       <c r="D119" t="n">
-        <v>1.78574</v>
+        <v>1.80001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>2.15735</v>
+        <v>2.12815</v>
       </c>
       <c r="C120" t="n">
-        <v>1.76582</v>
+        <v>1.80366</v>
       </c>
       <c r="D120" t="n">
-        <v>1.78417</v>
+        <v>1.8279</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>2.13979</v>
+        <v>2.12388</v>
       </c>
       <c r="C121" t="n">
-        <v>1.80275</v>
+        <v>1.7842</v>
       </c>
       <c r="D121" t="n">
-        <v>1.83017</v>
+        <v>1.81808</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>2.17075</v>
+        <v>2.13321</v>
       </c>
       <c r="C122" t="n">
-        <v>1.77019</v>
+        <v>1.80489</v>
       </c>
       <c r="D122" t="n">
-        <v>1.8377</v>
+        <v>1.84493</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>2.17205</v>
+        <v>2.10647</v>
       </c>
       <c r="C123" t="n">
-        <v>1.81743</v>
+        <v>1.81609</v>
       </c>
       <c r="D123" t="n">
-        <v>1.94689</v>
+        <v>1.94021</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.53032</v>
+        <v>2.51382</v>
       </c>
       <c r="C124" t="n">
-        <v>1.87472</v>
+        <v>1.84342</v>
       </c>
       <c r="D124" t="n">
-        <v>1.93852</v>
+        <v>1.91819</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.5445</v>
+        <v>2.54027</v>
       </c>
       <c r="C125" t="n">
-        <v>1.84705</v>
+        <v>1.89429</v>
       </c>
       <c r="D125" t="n">
-        <v>1.93389</v>
+        <v>1.92781</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.56582</v>
+        <v>2.52807</v>
       </c>
       <c r="C126" t="n">
-        <v>1.89606</v>
+        <v>1.86201</v>
       </c>
       <c r="D126" t="n">
-        <v>1.93168</v>
+        <v>1.9124</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.52304</v>
+        <v>2.54169</v>
       </c>
       <c r="C127" t="n">
-        <v>1.86759</v>
+        <v>1.89328</v>
       </c>
       <c r="D127" t="n">
-        <v>1.95364</v>
+        <v>1.91682</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.52737</v>
+        <v>2.51961</v>
       </c>
       <c r="C128" t="n">
-        <v>1.88799</v>
+        <v>1.93052</v>
       </c>
       <c r="D128" t="n">
-        <v>1.94785</v>
+        <v>1.93319</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.52058</v>
+        <v>2.50069</v>
       </c>
       <c r="C129" t="n">
-        <v>1.92432</v>
+        <v>1.93377</v>
       </c>
       <c r="D129" t="n">
-        <v>1.96046</v>
+        <v>1.94236</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.53802</v>
+        <v>2.53485</v>
       </c>
       <c r="C130" t="n">
-        <v>1.89557</v>
+        <v>1.91678</v>
       </c>
       <c r="D130" t="n">
-        <v>1.95067</v>
+        <v>1.95705</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.5214</v>
+        <v>2.51311</v>
       </c>
       <c r="C131" t="n">
-        <v>1.92014</v>
+        <v>1.89327</v>
       </c>
       <c r="D131" t="n">
-        <v>1.97262</v>
+        <v>1.97709</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.54259</v>
+        <v>2.55491</v>
       </c>
       <c r="C132" t="n">
-        <v>1.92285</v>
+        <v>1.90765</v>
       </c>
       <c r="D132" t="n">
-        <v>1.98579</v>
+        <v>1.95519</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.53527</v>
+        <v>2.55394</v>
       </c>
       <c r="C133" t="n">
-        <v>1.9812</v>
+        <v>1.96831</v>
       </c>
       <c r="D133" t="n">
-        <v>1.99489</v>
+        <v>1.98071</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.53312</v>
+        <v>2.50571</v>
       </c>
       <c r="C134" t="n">
-        <v>1.95762</v>
+        <v>1.95202</v>
       </c>
       <c r="D134" t="n">
-        <v>2.00404</v>
+        <v>1.98198</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.52492</v>
+        <v>2.51227</v>
       </c>
       <c r="C135" t="n">
-        <v>1.95659</v>
+        <v>1.96761</v>
       </c>
       <c r="D135" t="n">
-        <v>1.99737</v>
+        <v>1.9951</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.55527</v>
+        <v>2.54959</v>
       </c>
       <c r="C136" t="n">
-        <v>1.98136</v>
+        <v>1.97394</v>
       </c>
       <c r="D136" t="n">
-        <v>2.03867</v>
+        <v>2.0302</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.56068</v>
+        <v>2.54182</v>
       </c>
       <c r="C137" t="n">
-        <v>2.01901</v>
+        <v>2.00344</v>
       </c>
       <c r="D137" t="n">
-        <v>2.08734</v>
+        <v>2.09925</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>3.15314</v>
+        <v>2.90748</v>
       </c>
       <c r="C138" t="n">
-        <v>2.05237</v>
+        <v>2.04544</v>
       </c>
       <c r="D138" t="n">
-        <v>2.10669</v>
+        <v>2.05965</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.86651</v>
+        <v>2.8486</v>
       </c>
       <c r="C139" t="n">
-        <v>2.05128</v>
+        <v>2.04296</v>
       </c>
       <c r="D139" t="n">
-        <v>2.10406</v>
+        <v>2.07488</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.88392</v>
+        <v>2.86138</v>
       </c>
       <c r="C140" t="n">
-        <v>2.06797</v>
+        <v>2.05258</v>
       </c>
       <c r="D140" t="n">
-        <v>2.10931</v>
+        <v>2.11369</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.87041</v>
+        <v>2.88323</v>
       </c>
       <c r="C141" t="n">
-        <v>2.07809</v>
+        <v>2.08238</v>
       </c>
       <c r="D141" t="n">
-        <v>2.12138</v>
+        <v>2.09655</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.86699</v>
+        <v>2.85844</v>
       </c>
       <c r="C142" t="n">
-        <v>2.09132</v>
+        <v>2.07118</v>
       </c>
       <c r="D142" t="n">
-        <v>2.10025</v>
+        <v>2.1094</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.88068</v>
+        <v>2.86175</v>
       </c>
       <c r="C143" t="n">
-        <v>2.07422</v>
+        <v>2.08433</v>
       </c>
       <c r="D143" t="n">
-        <v>2.12841</v>
+        <v>2.10898</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.745722</v>
+        <v>0.716465</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6530049999999999</v>
+        <v>0.624187</v>
       </c>
       <c r="D2" t="n">
-        <v>0.666718</v>
+        <v>0.657056</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.729952</v>
+        <v>0.702797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.643958</v>
+        <v>0.637831</v>
       </c>
       <c r="D3" t="n">
-        <v>0.644692</v>
+        <v>0.645002</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.732965</v>
+        <v>0.713066</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6596340000000001</v>
+        <v>0.630253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.663478</v>
+        <v>0.627773</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.740521</v>
+        <v>0.698256</v>
       </c>
       <c r="C5" t="n">
-        <v>0.646222</v>
+        <v>0.625497</v>
       </c>
       <c r="D5" t="n">
-        <v>0.665358</v>
+        <v>0.642008</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.724152</v>
+        <v>0.704819</v>
       </c>
       <c r="C6" t="n">
-        <v>0.632173</v>
+        <v>0.629647</v>
       </c>
       <c r="D6" t="n">
-        <v>0.655905</v>
+        <v>0.648617</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.712924</v>
+        <v>0.70806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.651004</v>
+        <v>0.64658</v>
       </c>
       <c r="D7" t="n">
-        <v>0.656205</v>
+        <v>0.632535</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.71171</v>
+        <v>0.705794</v>
       </c>
       <c r="C8" t="n">
-        <v>0.65034</v>
+        <v>0.639238</v>
       </c>
       <c r="D8" t="n">
-        <v>0.666419</v>
+        <v>0.655672</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.778331</v>
+        <v>0.706613</v>
       </c>
       <c r="C9" t="n">
-        <v>0.691951</v>
+        <v>0.678662</v>
       </c>
       <c r="D9" t="n">
-        <v>0.693539</v>
+        <v>0.642651</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.761473</v>
+        <v>0.730915</v>
       </c>
       <c r="C10" t="n">
-        <v>0.662639</v>
+        <v>0.64703</v>
       </c>
       <c r="D10" t="n">
-        <v>0.676119</v>
+        <v>0.65144</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.745966</v>
+        <v>0.728507</v>
       </c>
       <c r="C11" t="n">
-        <v>0.664338</v>
+        <v>0.643225</v>
       </c>
       <c r="D11" t="n">
-        <v>0.672593</v>
+        <v>0.642491</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7553339999999999</v>
+        <v>0.724393</v>
       </c>
       <c r="C12" t="n">
-        <v>0.66754</v>
+        <v>0.654825</v>
       </c>
       <c r="D12" t="n">
-        <v>0.687189</v>
+        <v>0.6657920000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.759362</v>
+        <v>0.7218</v>
       </c>
       <c r="C13" t="n">
-        <v>0.669172</v>
+        <v>0.638725</v>
       </c>
       <c r="D13" t="n">
-        <v>0.685752</v>
+        <v>0.644275</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.769396</v>
+        <v>0.7435580000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.672229</v>
+        <v>0.643253</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6868339999999999</v>
+        <v>0.65728</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.751406</v>
+        <v>0.737976</v>
       </c>
       <c r="C15" t="n">
-        <v>0.639997</v>
+        <v>0.665619</v>
       </c>
       <c r="D15" t="n">
-        <v>0.674782</v>
+        <v>0.661299</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.742622</v>
+        <v>0.726765</v>
       </c>
       <c r="C16" t="n">
-        <v>0.664162</v>
+        <v>0.668457</v>
       </c>
       <c r="D16" t="n">
-        <v>0.648054</v>
+        <v>0.6443950000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.740873</v>
+        <v>0.733786</v>
       </c>
       <c r="C17" t="n">
-        <v>0.647183</v>
+        <v>0.647358</v>
       </c>
       <c r="D17" t="n">
-        <v>0.65338</v>
+        <v>0.670175</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.752602</v>
+        <v>0.739822</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6587150000000001</v>
+        <v>0.664031</v>
       </c>
       <c r="D18" t="n">
-        <v>0.675593</v>
+        <v>0.664639</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7660439999999999</v>
+        <v>0.7423110000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.642494</v>
+        <v>0.658452</v>
       </c>
       <c r="D19" t="n">
-        <v>0.647237</v>
+        <v>0.670775</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.743882</v>
+        <v>0.760713</v>
       </c>
       <c r="C20" t="n">
-        <v>0.634069</v>
+        <v>0.648751</v>
       </c>
       <c r="D20" t="n">
-        <v>0.662895</v>
+        <v>0.667117</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.744236</v>
+        <v>0.760435</v>
       </c>
       <c r="C21" t="n">
-        <v>0.663425</v>
+        <v>0.656898</v>
       </c>
       <c r="D21" t="n">
-        <v>0.649438</v>
+        <v>0.664117</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7305700000000001</v>
+        <v>0.741236</v>
       </c>
       <c r="C22" t="n">
-        <v>0.668612</v>
+        <v>0.654339</v>
       </c>
       <c r="D22" t="n">
-        <v>0.665801</v>
+        <v>0.677507</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7434460000000001</v>
+        <v>0.745714</v>
       </c>
       <c r="C23" t="n">
-        <v>0.687358</v>
+        <v>0.664299</v>
       </c>
       <c r="D23" t="n">
-        <v>0.693531</v>
+        <v>0.690003</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.782192</v>
+        <v>0.7766960000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.67367</v>
+        <v>0.670204</v>
       </c>
       <c r="D24" t="n">
-        <v>0.685118</v>
+        <v>0.6653019999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.771967</v>
+        <v>0.772672</v>
       </c>
       <c r="C25" t="n">
-        <v>0.665154</v>
+        <v>0.6585569999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.670444</v>
+        <v>0.6959689999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.803297</v>
+        <v>0.813931</v>
       </c>
       <c r="C26" t="n">
-        <v>0.646317</v>
+        <v>0.664237</v>
       </c>
       <c r="D26" t="n">
-        <v>0.674082</v>
+        <v>0.678908</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.754759</v>
+        <v>0.769449</v>
       </c>
       <c r="C27" t="n">
-        <v>0.644889</v>
+        <v>0.666404</v>
       </c>
       <c r="D27" t="n">
-        <v>0.683606</v>
+        <v>0.680559</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.741292</v>
+        <v>0.770184</v>
       </c>
       <c r="C28" t="n">
-        <v>0.661084</v>
+        <v>0.652887</v>
       </c>
       <c r="D28" t="n">
-        <v>0.68346</v>
+        <v>0.66989</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.743776</v>
+        <v>0.791312</v>
       </c>
       <c r="C29" t="n">
-        <v>0.65412</v>
+        <v>0.651403</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6512559999999999</v>
+        <v>0.6770890000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.740907</v>
+        <v>0.773387</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6474220000000001</v>
+        <v>0.709466</v>
       </c>
       <c r="D30" t="n">
-        <v>0.662459</v>
+        <v>0.676895</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.740273</v>
+        <v>0.774307</v>
       </c>
       <c r="C31" t="n">
-        <v>0.641994</v>
+        <v>0.666963</v>
       </c>
       <c r="D31" t="n">
-        <v>0.651367</v>
+        <v>0.681713</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.77285</v>
+        <v>0.800351</v>
       </c>
       <c r="C32" t="n">
-        <v>0.646402</v>
+        <v>0.6710199999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.653895</v>
+        <v>0.698929</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.744378</v>
+        <v>0.762199</v>
       </c>
       <c r="C33" t="n">
-        <v>0.642876</v>
+        <v>0.668382</v>
       </c>
       <c r="D33" t="n">
-        <v>0.657567</v>
+        <v>0.699901</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.743395</v>
+        <v>0.793342</v>
       </c>
       <c r="C34" t="n">
-        <v>0.647056</v>
+        <v>0.685501</v>
       </c>
       <c r="D34" t="n">
-        <v>0.65861</v>
+        <v>0.687024</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.782494</v>
+        <v>0.784147</v>
       </c>
       <c r="C35" t="n">
-        <v>0.654689</v>
+        <v>0.676143</v>
       </c>
       <c r="D35" t="n">
-        <v>0.671011</v>
+        <v>0.687935</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.750658</v>
+        <v>0.762435</v>
       </c>
       <c r="C36" t="n">
-        <v>0.665578</v>
+        <v>0.676074</v>
       </c>
       <c r="D36" t="n">
-        <v>0.692896</v>
+        <v>0.708239</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.777163</v>
+        <v>0.791454</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6783400000000001</v>
+        <v>0.70328</v>
       </c>
       <c r="D37" t="n">
-        <v>0.706781</v>
+        <v>0.7146479999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.794636</v>
+        <v>0.826538</v>
       </c>
       <c r="C38" t="n">
-        <v>0.68682</v>
+        <v>0.670863</v>
       </c>
       <c r="D38" t="n">
-        <v>0.697377</v>
+        <v>0.702703</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.809881</v>
+        <v>0.820273</v>
       </c>
       <c r="C39" t="n">
-        <v>0.702975</v>
+        <v>0.672369</v>
       </c>
       <c r="D39" t="n">
-        <v>0.690657</v>
+        <v>0.70561</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.795534</v>
+        <v>0.810102</v>
       </c>
       <c r="C40" t="n">
-        <v>0.689364</v>
+        <v>0.680582</v>
       </c>
       <c r="D40" t="n">
-        <v>0.687906</v>
+        <v>0.711619</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7973440000000001</v>
+        <v>0.806671</v>
       </c>
       <c r="C41" t="n">
-        <v>0.683727</v>
+        <v>0.6905289999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6916949999999999</v>
+        <v>0.704608</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.807345</v>
+        <v>0.7962320000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.691093</v>
+        <v>0.683128</v>
       </c>
       <c r="D42" t="n">
-        <v>0.69494</v>
+        <v>0.706099</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.793065</v>
+        <v>0.7967070000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.686006</v>
+        <v>0.686622</v>
       </c>
       <c r="D43" t="n">
-        <v>0.701712</v>
+        <v>0.692327</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.810835</v>
+        <v>0.839159</v>
       </c>
       <c r="C44" t="n">
-        <v>0.70248</v>
+        <v>0.708716</v>
       </c>
       <c r="D44" t="n">
-        <v>0.720397</v>
+        <v>0.691348</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.808854</v>
+        <v>0.811022</v>
       </c>
       <c r="C45" t="n">
-        <v>0.681894</v>
+        <v>0.685338</v>
       </c>
       <c r="D45" t="n">
-        <v>0.694001</v>
+        <v>0.716508</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.818957</v>
+        <v>0.80623</v>
       </c>
       <c r="C46" t="n">
-        <v>0.702703</v>
+        <v>0.693979</v>
       </c>
       <c r="D46" t="n">
-        <v>0.703014</v>
+        <v>0.728449</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.810017</v>
+        <v>0.795106</v>
       </c>
       <c r="C47" t="n">
-        <v>0.710174</v>
+        <v>0.715656</v>
       </c>
       <c r="D47" t="n">
-        <v>0.707029</v>
+        <v>0.701005</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.822454</v>
+        <v>0.82433</v>
       </c>
       <c r="C48" t="n">
-        <v>0.687211</v>
+        <v>0.714379</v>
       </c>
       <c r="D48" t="n">
-        <v>0.699669</v>
+        <v>0.701783</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.830118</v>
+        <v>0.826442</v>
       </c>
       <c r="C49" t="n">
-        <v>0.703649</v>
+        <v>0.703421</v>
       </c>
       <c r="D49" t="n">
-        <v>0.699509</v>
+        <v>0.71665</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.808942</v>
+        <v>0.867687</v>
       </c>
       <c r="C50" t="n">
-        <v>0.692167</v>
+        <v>0.704657</v>
       </c>
       <c r="D50" t="n">
-        <v>0.712529</v>
+        <v>0.726276</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.811511</v>
+        <v>0.796726</v>
       </c>
       <c r="C51" t="n">
-        <v>0.687663</v>
+        <v>0.709172</v>
       </c>
       <c r="D51" t="n">
-        <v>0.719222</v>
+        <v>0.75087</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.811117</v>
+        <v>0.822982</v>
       </c>
       <c r="C52" t="n">
-        <v>0.711045</v>
+        <v>0.70616</v>
       </c>
       <c r="D52" t="n">
-        <v>0.73837</v>
+        <v>0.749601</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.858495</v>
+        <v>0.870983</v>
       </c>
       <c r="C53" t="n">
-        <v>0.718269</v>
+        <v>0.722145</v>
       </c>
       <c r="D53" t="n">
-        <v>0.731023</v>
+        <v>0.747176</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.875839</v>
+        <v>0.880046</v>
       </c>
       <c r="C54" t="n">
-        <v>0.730418</v>
+        <v>0.726357</v>
       </c>
       <c r="D54" t="n">
-        <v>0.752688</v>
+        <v>0.7490830000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.863775</v>
+        <v>0.857529</v>
       </c>
       <c r="C55" t="n">
-        <v>0.736973</v>
+        <v>0.741542</v>
       </c>
       <c r="D55" t="n">
-        <v>0.744128</v>
+        <v>0.747362</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.869826</v>
+        <v>0.858161</v>
       </c>
       <c r="C56" t="n">
-        <v>0.737414</v>
+        <v>0.72432</v>
       </c>
       <c r="D56" t="n">
-        <v>0.760989</v>
+        <v>0.746109</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.837419</v>
+        <v>0.903504</v>
       </c>
       <c r="C57" t="n">
-        <v>0.731644</v>
+        <v>0.735411</v>
       </c>
       <c r="D57" t="n">
-        <v>0.745838</v>
+        <v>0.743278</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.863669</v>
+        <v>0.880005</v>
       </c>
       <c r="C58" t="n">
-        <v>0.711275</v>
+        <v>0.728956</v>
       </c>
       <c r="D58" t="n">
-        <v>0.751942</v>
+        <v>0.769748</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.872052</v>
+        <v>0.887889</v>
       </c>
       <c r="C59" t="n">
-        <v>0.728766</v>
+        <v>0.742348</v>
       </c>
       <c r="D59" t="n">
-        <v>0.76546</v>
+        <v>0.762293</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.861727</v>
+        <v>0.861401</v>
       </c>
       <c r="C60" t="n">
-        <v>0.729759</v>
+        <v>0.731145</v>
       </c>
       <c r="D60" t="n">
-        <v>0.761683</v>
+        <v>0.754598</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.874282</v>
+        <v>0.882344</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7381799999999999</v>
+        <v>0.749978</v>
       </c>
       <c r="D61" t="n">
-        <v>0.762287</v>
+        <v>0.753853</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.834463</v>
+        <v>0.872542</v>
       </c>
       <c r="C62" t="n">
-        <v>0.728635</v>
+        <v>0.750992</v>
       </c>
       <c r="D62" t="n">
-        <v>0.726213</v>
+        <v>0.762783</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.830116</v>
+        <v>0.880144</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7153659999999999</v>
+        <v>0.747536</v>
       </c>
       <c r="D63" t="n">
-        <v>0.747906</v>
+        <v>0.785246</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.864358</v>
+        <v>0.898134</v>
       </c>
       <c r="C64" t="n">
-        <v>0.742949</v>
+        <v>0.751696</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7665459999999999</v>
+        <v>0.77175</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.911897</v>
+        <v>0.855362</v>
       </c>
       <c r="C65" t="n">
-        <v>0.731376</v>
+        <v>0.78306</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7408360000000001</v>
+        <v>0.789049</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8769980000000001</v>
+        <v>0.873758</v>
       </c>
       <c r="C66" t="n">
-        <v>0.755332</v>
+        <v>0.758143</v>
       </c>
       <c r="D66" t="n">
-        <v>0.872955</v>
+        <v>0.888092</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0763</v>
+        <v>1.09119</v>
       </c>
       <c r="C67" t="n">
-        <v>0.850608</v>
+        <v>0.881782</v>
       </c>
       <c r="D67" t="n">
-        <v>0.889297</v>
+        <v>0.861031</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.07241</v>
+        <v>1.06104</v>
       </c>
       <c r="C68" t="n">
-        <v>0.868271</v>
+        <v>0.886336</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8666509999999999</v>
+        <v>0.884638</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.08477</v>
+        <v>1.0287</v>
       </c>
       <c r="C69" t="n">
-        <v>0.863964</v>
+        <v>0.852734</v>
       </c>
       <c r="D69" t="n">
-        <v>0.873824</v>
+        <v>0.859535</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04922</v>
+        <v>1.05494</v>
       </c>
       <c r="C70" t="n">
-        <v>0.862735</v>
+        <v>0.85012</v>
       </c>
       <c r="D70" t="n">
-        <v>0.869645</v>
+        <v>0.888705</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.07419</v>
+        <v>1.07066</v>
       </c>
       <c r="C71" t="n">
-        <v>0.858413</v>
+        <v>0.858189</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8743339999999999</v>
+        <v>0.867465</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.0564</v>
+        <v>1.0885</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8665580000000001</v>
+        <v>0.875304</v>
       </c>
       <c r="D72" t="n">
-        <v>0.858858</v>
+        <v>0.876232</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.07813</v>
+        <v>1.05376</v>
       </c>
       <c r="C73" t="n">
-        <v>0.866664</v>
+        <v>0.868375</v>
       </c>
       <c r="D73" t="n">
-        <v>0.872132</v>
+        <v>0.904454</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.10068</v>
+        <v>1.04266</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8698399999999999</v>
+        <v>0.869913</v>
       </c>
       <c r="D74" t="n">
-        <v>0.884854</v>
+        <v>0.893163</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.09806</v>
+        <v>1.05259</v>
       </c>
       <c r="C75" t="n">
-        <v>0.880119</v>
+        <v>0.86748</v>
       </c>
       <c r="D75" t="n">
-        <v>0.900535</v>
+        <v>0.906431</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.05758</v>
+        <v>1.10513</v>
       </c>
       <c r="C76" t="n">
-        <v>0.87691</v>
+        <v>0.876551</v>
       </c>
       <c r="D76" t="n">
-        <v>0.885011</v>
+        <v>0.884505</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.08774</v>
+        <v>1.04959</v>
       </c>
       <c r="C77" t="n">
-        <v>0.868895</v>
+        <v>0.8808</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8958</v>
+        <v>0.9002019999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.08715</v>
+        <v>1.06968</v>
       </c>
       <c r="C78" t="n">
-        <v>0.868709</v>
+        <v>0.873428</v>
       </c>
       <c r="D78" t="n">
-        <v>0.872738</v>
+        <v>0.931348</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.0582</v>
+        <v>1.05047</v>
       </c>
       <c r="C79" t="n">
-        <v>0.909187</v>
+        <v>0.877053</v>
       </c>
       <c r="D79" t="n">
-        <v>0.904817</v>
+        <v>0.907121</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.04964</v>
+        <v>1.10777</v>
       </c>
       <c r="C80" t="n">
-        <v>0.89615</v>
+        <v>0.875667</v>
       </c>
       <c r="D80" t="n">
-        <v>1.15087</v>
+        <v>1.16875</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.37671</v>
+        <v>1.4255</v>
       </c>
       <c r="C81" t="n">
-        <v>1.19219</v>
+        <v>1.19272</v>
       </c>
       <c r="D81" t="n">
-        <v>1.20338</v>
+        <v>1.19289</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.4129</v>
+        <v>1.42176</v>
       </c>
       <c r="C82" t="n">
-        <v>1.1839</v>
+        <v>1.19905</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18347</v>
+        <v>1.19509</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.44383</v>
+        <v>1.43225</v>
       </c>
       <c r="C83" t="n">
-        <v>1.16403</v>
+        <v>1.1631</v>
       </c>
       <c r="D83" t="n">
-        <v>1.24955</v>
+        <v>1.19657</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.38736</v>
+        <v>1.39279</v>
       </c>
       <c r="C84" t="n">
-        <v>1.22617</v>
+        <v>1.18491</v>
       </c>
       <c r="D84" t="n">
-        <v>1.14684</v>
+        <v>1.17245</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.4569</v>
+        <v>1.45373</v>
       </c>
       <c r="C85" t="n">
-        <v>1.18068</v>
+        <v>1.18815</v>
       </c>
       <c r="D85" t="n">
-        <v>1.22194</v>
+        <v>1.1917</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.39473</v>
+        <v>1.3782</v>
       </c>
       <c r="C86" t="n">
-        <v>1.21707</v>
+        <v>1.24408</v>
       </c>
       <c r="D86" t="n">
-        <v>1.20633</v>
+        <v>1.18286</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.39945</v>
+        <v>1.37985</v>
       </c>
       <c r="C87" t="n">
-        <v>1.18598</v>
+        <v>1.15512</v>
       </c>
       <c r="D87" t="n">
-        <v>1.16769</v>
+        <v>1.1433</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.38129</v>
+        <v>1.38406</v>
       </c>
       <c r="C88" t="n">
-        <v>1.17866</v>
+        <v>1.17669</v>
       </c>
       <c r="D88" t="n">
-        <v>1.24157</v>
+        <v>1.16452</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.39063</v>
+        <v>1.41419</v>
       </c>
       <c r="C89" t="n">
-        <v>1.18783</v>
+        <v>1.19246</v>
       </c>
       <c r="D89" t="n">
-        <v>1.18219</v>
+        <v>1.18591</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.43005</v>
+        <v>1.40817</v>
       </c>
       <c r="C90" t="n">
-        <v>1.2006</v>
+        <v>1.18134</v>
       </c>
       <c r="D90" t="n">
-        <v>1.2245</v>
+        <v>1.20371</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.44775</v>
+        <v>1.4194</v>
       </c>
       <c r="C91" t="n">
-        <v>1.21927</v>
+        <v>1.20094</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19952</v>
+        <v>1.17497</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.38805</v>
+        <v>1.39903</v>
       </c>
       <c r="C92" t="n">
-        <v>1.21443</v>
+        <v>1.22032</v>
       </c>
       <c r="D92" t="n">
-        <v>1.23275</v>
+        <v>1.16562</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.51072</v>
+        <v>1.39498</v>
       </c>
       <c r="C93" t="n">
-        <v>1.20477</v>
+        <v>1.2104</v>
       </c>
       <c r="D93" t="n">
-        <v>1.2313</v>
+        <v>1.22872</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.42469</v>
+        <v>1.41173</v>
       </c>
       <c r="C94" t="n">
-        <v>1.27759</v>
+        <v>1.21381</v>
       </c>
       <c r="D94" t="n">
-        <v>1.52889</v>
+        <v>1.58241</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.75017</v>
+        <v>1.76174</v>
       </c>
       <c r="C95" t="n">
-        <v>1.51355</v>
+        <v>1.47212</v>
       </c>
       <c r="D95" t="n">
-        <v>1.5567</v>
+        <v>1.51663</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.77298</v>
+        <v>1.71185</v>
       </c>
       <c r="C96" t="n">
-        <v>1.4882</v>
+        <v>1.46755</v>
       </c>
       <c r="D96" t="n">
-        <v>1.56281</v>
+        <v>1.5098</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.76063</v>
+        <v>1.78368</v>
       </c>
       <c r="C97" t="n">
-        <v>1.53633</v>
+        <v>1.49317</v>
       </c>
       <c r="D97" t="n">
-        <v>1.4998</v>
+        <v>1.53049</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.79543</v>
+        <v>1.73937</v>
       </c>
       <c r="C98" t="n">
-        <v>1.53199</v>
+        <v>1.46951</v>
       </c>
       <c r="D98" t="n">
-        <v>1.52952</v>
+        <v>1.54384</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.87327</v>
+        <v>1.79465</v>
       </c>
       <c r="C99" t="n">
-        <v>1.54496</v>
+        <v>1.49448</v>
       </c>
       <c r="D99" t="n">
-        <v>1.599</v>
+        <v>1.58894</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.7459</v>
+        <v>1.81766</v>
       </c>
       <c r="C100" t="n">
-        <v>1.51968</v>
+        <v>1.54174</v>
       </c>
       <c r="D100" t="n">
-        <v>1.57771</v>
+        <v>1.55697</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.72935</v>
+        <v>1.76793</v>
       </c>
       <c r="C101" t="n">
-        <v>1.52501</v>
+        <v>1.53403</v>
       </c>
       <c r="D101" t="n">
-        <v>1.595</v>
+        <v>1.54594</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.75278</v>
+        <v>1.76894</v>
       </c>
       <c r="C102" t="n">
-        <v>1.54814</v>
+        <v>1.58093</v>
       </c>
       <c r="D102" t="n">
-        <v>1.54913</v>
+        <v>1.55887</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.73137</v>
+        <v>1.77572</v>
       </c>
       <c r="C103" t="n">
-        <v>1.50798</v>
+        <v>1.54918</v>
       </c>
       <c r="D103" t="n">
-        <v>1.58281</v>
+        <v>1.54103</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.74384</v>
+        <v>1.77439</v>
       </c>
       <c r="C104" t="n">
-        <v>1.54057</v>
+        <v>1.528</v>
       </c>
       <c r="D104" t="n">
-        <v>1.56832</v>
+        <v>1.53168</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.80431</v>
+        <v>1.71437</v>
       </c>
       <c r="C105" t="n">
-        <v>1.53706</v>
+        <v>1.56933</v>
       </c>
       <c r="D105" t="n">
-        <v>1.56951</v>
+        <v>1.52369</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.7799</v>
+        <v>1.70551</v>
       </c>
       <c r="C106" t="n">
-        <v>1.55243</v>
+        <v>1.495</v>
       </c>
       <c r="D106" t="n">
-        <v>1.54802</v>
+        <v>1.53188</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.81536</v>
+        <v>1.74059</v>
       </c>
       <c r="C107" t="n">
-        <v>1.57212</v>
+        <v>1.53535</v>
       </c>
       <c r="D107" t="n">
-        <v>1.57598</v>
+        <v>1.56367</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.75442</v>
+        <v>1.75583</v>
       </c>
       <c r="C108" t="n">
-        <v>1.56697</v>
+        <v>1.54469</v>
       </c>
       <c r="D108" t="n">
-        <v>1.74711</v>
+        <v>1.76797</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.72865</v>
+        <v>1.75923</v>
       </c>
       <c r="C109" t="n">
-        <v>1.55897</v>
+        <v>1.55502</v>
       </c>
       <c r="D109" t="n">
-        <v>1.75392</v>
+        <v>1.73197</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.14867</v>
+        <v>2.11276</v>
       </c>
       <c r="C110" t="n">
-        <v>1.71682</v>
+        <v>1.69994</v>
       </c>
       <c r="D110" t="n">
-        <v>1.73853</v>
+        <v>1.75915</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.14094</v>
+        <v>2.14796</v>
       </c>
       <c r="C111" t="n">
-        <v>1.72608</v>
+        <v>1.69263</v>
       </c>
       <c r="D111" t="n">
-        <v>1.78496</v>
+        <v>1.75399</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.10572</v>
+        <v>2.15196</v>
       </c>
       <c r="C112" t="n">
-        <v>1.71955</v>
+        <v>1.69791</v>
       </c>
       <c r="D112" t="n">
-        <v>1.76185</v>
+        <v>1.79587</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.14789</v>
+        <v>2.10965</v>
       </c>
       <c r="C113" t="n">
-        <v>1.72566</v>
+        <v>1.71105</v>
       </c>
       <c r="D113" t="n">
-        <v>1.77499</v>
+        <v>1.76811</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.10399</v>
+        <v>2.14858</v>
       </c>
       <c r="C114" t="n">
-        <v>1.73536</v>
+        <v>1.71585</v>
       </c>
       <c r="D114" t="n">
-        <v>1.78768</v>
+        <v>1.78687</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.14876</v>
+        <v>2.12043</v>
       </c>
       <c r="C115" t="n">
-        <v>1.75945</v>
+        <v>1.74064</v>
       </c>
       <c r="D115" t="n">
-        <v>1.80238</v>
+        <v>1.80568</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.05968</v>
+        <v>2.14301</v>
       </c>
       <c r="C116" t="n">
-        <v>1.75524</v>
+        <v>1.75566</v>
       </c>
       <c r="D116" t="n">
-        <v>1.80568</v>
+        <v>1.75947</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.09832</v>
+        <v>2.14879</v>
       </c>
       <c r="C117" t="n">
-        <v>1.73149</v>
+        <v>1.70733</v>
       </c>
       <c r="D117" t="n">
-        <v>1.79228</v>
+        <v>1.7915</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.10873</v>
+        <v>2.13562</v>
       </c>
       <c r="C118" t="n">
-        <v>1.7464</v>
+        <v>1.74677</v>
       </c>
       <c r="D118" t="n">
-        <v>1.81082</v>
+        <v>1.78648</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.10477</v>
+        <v>2.14015</v>
       </c>
       <c r="C119" t="n">
-        <v>1.75445</v>
+        <v>1.74178</v>
       </c>
       <c r="D119" t="n">
-        <v>1.80001</v>
+        <v>1.80219</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>2.12815</v>
+        <v>2.12117</v>
       </c>
       <c r="C120" t="n">
-        <v>1.80366</v>
+        <v>1.73623</v>
       </c>
       <c r="D120" t="n">
-        <v>1.8279</v>
+        <v>1.80444</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>2.12388</v>
+        <v>2.13242</v>
       </c>
       <c r="C121" t="n">
-        <v>1.7842</v>
+        <v>1.78885</v>
       </c>
       <c r="D121" t="n">
-        <v>1.81808</v>
+        <v>1.83336</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>2.13321</v>
+        <v>2.12735</v>
       </c>
       <c r="C122" t="n">
-        <v>1.80489</v>
+        <v>1.724</v>
       </c>
       <c r="D122" t="n">
-        <v>1.84493</v>
+        <v>1.81203</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>2.10647</v>
+        <v>2.15677</v>
       </c>
       <c r="C123" t="n">
-        <v>1.81609</v>
+        <v>1.7855</v>
       </c>
       <c r="D123" t="n">
-        <v>1.94021</v>
+        <v>1.93856</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.51382</v>
+        <v>2.51951</v>
       </c>
       <c r="C124" t="n">
-        <v>1.84342</v>
+        <v>1.90819</v>
       </c>
       <c r="D124" t="n">
-        <v>1.91819</v>
+        <v>1.95387</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.54027</v>
+        <v>2.53294</v>
       </c>
       <c r="C125" t="n">
-        <v>1.89429</v>
+        <v>1.88565</v>
       </c>
       <c r="D125" t="n">
-        <v>1.92781</v>
+        <v>1.93494</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.52807</v>
+        <v>2.5326</v>
       </c>
       <c r="C126" t="n">
-        <v>1.86201</v>
+        <v>1.92066</v>
       </c>
       <c r="D126" t="n">
-        <v>1.9124</v>
+        <v>1.91017</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.54169</v>
+        <v>2.53767</v>
       </c>
       <c r="C127" t="n">
-        <v>1.89328</v>
+        <v>1.92999</v>
       </c>
       <c r="D127" t="n">
-        <v>1.91682</v>
+        <v>1.95841</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.51961</v>
+        <v>2.5166</v>
       </c>
       <c r="C128" t="n">
-        <v>1.93052</v>
+        <v>1.9223</v>
       </c>
       <c r="D128" t="n">
-        <v>1.93319</v>
+        <v>1.9726</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.50069</v>
+        <v>2.53847</v>
       </c>
       <c r="C129" t="n">
-        <v>1.93377</v>
+        <v>1.93699</v>
       </c>
       <c r="D129" t="n">
-        <v>1.94236</v>
+        <v>1.96344</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.53485</v>
+        <v>2.52151</v>
       </c>
       <c r="C130" t="n">
-        <v>1.91678</v>
+        <v>1.92666</v>
       </c>
       <c r="D130" t="n">
-        <v>1.95705</v>
+        <v>2.00236</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.51311</v>
+        <v>2.51801</v>
       </c>
       <c r="C131" t="n">
-        <v>1.89327</v>
+        <v>1.92011</v>
       </c>
       <c r="D131" t="n">
-        <v>1.97709</v>
+        <v>1.98443</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.55491</v>
+        <v>2.52487</v>
       </c>
       <c r="C132" t="n">
-        <v>1.90765</v>
+        <v>1.9759</v>
       </c>
       <c r="D132" t="n">
-        <v>1.95519</v>
+        <v>1.97691</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.55394</v>
+        <v>2.515</v>
       </c>
       <c r="C133" t="n">
-        <v>1.96831</v>
+        <v>1.96054</v>
       </c>
       <c r="D133" t="n">
-        <v>1.98071</v>
+        <v>1.99064</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.50571</v>
+        <v>2.54398</v>
       </c>
       <c r="C134" t="n">
-        <v>1.95202</v>
+        <v>1.9622</v>
       </c>
       <c r="D134" t="n">
-        <v>1.98198</v>
+        <v>2.02936</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.51227</v>
+        <v>2.54782</v>
       </c>
       <c r="C135" t="n">
-        <v>1.96761</v>
+        <v>1.99274</v>
       </c>
       <c r="D135" t="n">
-        <v>1.9951</v>
+        <v>2.03473</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.54959</v>
+        <v>2.53463</v>
       </c>
       <c r="C136" t="n">
-        <v>1.97394</v>
+        <v>2.00413</v>
       </c>
       <c r="D136" t="n">
-        <v>2.0302</v>
+        <v>2.03518</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.54182</v>
+        <v>2.54525</v>
       </c>
       <c r="C137" t="n">
-        <v>2.00344</v>
+        <v>2.01446</v>
       </c>
       <c r="D137" t="n">
-        <v>2.09925</v>
+        <v>2.09906</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.90748</v>
+        <v>2.91312</v>
       </c>
       <c r="C138" t="n">
-        <v>2.04544</v>
+        <v>2.05189</v>
       </c>
       <c r="D138" t="n">
-        <v>2.05965</v>
+        <v>2.10413</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.8486</v>
+        <v>2.84171</v>
       </c>
       <c r="C139" t="n">
-        <v>2.04296</v>
+        <v>2.05365</v>
       </c>
       <c r="D139" t="n">
-        <v>2.07488</v>
+        <v>2.09022</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.86138</v>
+        <v>2.85406</v>
       </c>
       <c r="C140" t="n">
-        <v>2.05258</v>
+        <v>2.12206</v>
       </c>
       <c r="D140" t="n">
-        <v>2.11369</v>
+        <v>2.08374</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.88323</v>
+        <v>2.86166</v>
       </c>
       <c r="C141" t="n">
-        <v>2.08238</v>
+        <v>2.05342</v>
       </c>
       <c r="D141" t="n">
-        <v>2.09655</v>
+        <v>2.17895</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.85844</v>
+        <v>2.87596</v>
       </c>
       <c r="C142" t="n">
-        <v>2.07118</v>
+        <v>2.08769</v>
       </c>
       <c r="D142" t="n">
-        <v>2.1094</v>
+        <v>2.17687</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.86175</v>
+        <v>2.86612</v>
       </c>
       <c r="C143" t="n">
-        <v>2.08433</v>
+        <v>2.06414</v>
       </c>
       <c r="D143" t="n">
-        <v>2.10898</v>
+        <v>2.10889</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.716465</v>
+        <v>0.744249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.624187</v>
+        <v>0.63723</v>
       </c>
       <c r="D2" t="n">
-        <v>0.657056</v>
+        <v>0.643532</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.702797</v>
+        <v>0.702991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.637831</v>
+        <v>0.6332989999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.645002</v>
+        <v>0.648035</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.713066</v>
+        <v>0.727861</v>
       </c>
       <c r="C4" t="n">
-        <v>0.630253</v>
+        <v>0.655983</v>
       </c>
       <c r="D4" t="n">
-        <v>0.627773</v>
+        <v>0.656208</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.698256</v>
+        <v>0.725867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.625497</v>
+        <v>0.649553</v>
       </c>
       <c r="D5" t="n">
-        <v>0.642008</v>
+        <v>0.650792</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.704819</v>
+        <v>0.7146709999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.629647</v>
+        <v>0.632197</v>
       </c>
       <c r="D6" t="n">
-        <v>0.648617</v>
+        <v>0.649481</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.70806</v>
+        <v>0.730087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.64658</v>
+        <v>0.660797</v>
       </c>
       <c r="D7" t="n">
-        <v>0.632535</v>
+        <v>0.641357</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.705794</v>
+        <v>0.705808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.639238</v>
+        <v>0.662909</v>
       </c>
       <c r="D8" t="n">
-        <v>0.655672</v>
+        <v>0.6670430000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.706613</v>
+        <v>0.718078</v>
       </c>
       <c r="C9" t="n">
-        <v>0.678662</v>
+        <v>0.645661</v>
       </c>
       <c r="D9" t="n">
-        <v>0.642651</v>
+        <v>0.652024</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.730915</v>
+        <v>0.745834</v>
       </c>
       <c r="C10" t="n">
-        <v>0.64703</v>
+        <v>0.637894</v>
       </c>
       <c r="D10" t="n">
-        <v>0.65144</v>
+        <v>0.645115</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.728507</v>
+        <v>0.767605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.643225</v>
+        <v>0.630094</v>
       </c>
       <c r="D11" t="n">
-        <v>0.642491</v>
+        <v>0.645132</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.724393</v>
+        <v>0.773326</v>
       </c>
       <c r="C12" t="n">
-        <v>0.654825</v>
+        <v>0.669701</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6657920000000001</v>
+        <v>0.667912</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7218</v>
+        <v>0.736432</v>
       </c>
       <c r="C13" t="n">
-        <v>0.638725</v>
+        <v>0.670098</v>
       </c>
       <c r="D13" t="n">
-        <v>0.644275</v>
+        <v>0.650622</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7435580000000001</v>
+        <v>0.74183</v>
       </c>
       <c r="C14" t="n">
-        <v>0.643253</v>
+        <v>0.660226</v>
       </c>
       <c r="D14" t="n">
-        <v>0.65728</v>
+        <v>0.659359</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.737976</v>
+        <v>0.747277</v>
       </c>
       <c r="C15" t="n">
-        <v>0.665619</v>
+        <v>0.645917</v>
       </c>
       <c r="D15" t="n">
-        <v>0.661299</v>
+        <v>0.639823</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.726765</v>
+        <v>0.745308</v>
       </c>
       <c r="C16" t="n">
-        <v>0.668457</v>
+        <v>0.655587</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6443950000000001</v>
+        <v>0.670485</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.733786</v>
+        <v>0.748051</v>
       </c>
       <c r="C17" t="n">
-        <v>0.647358</v>
+        <v>0.637506</v>
       </c>
       <c r="D17" t="n">
-        <v>0.670175</v>
+        <v>0.660326</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.739822</v>
+        <v>0.745312</v>
       </c>
       <c r="C18" t="n">
-        <v>0.664031</v>
+        <v>0.651572</v>
       </c>
       <c r="D18" t="n">
-        <v>0.664639</v>
+        <v>0.6426269999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7423110000000001</v>
+        <v>0.7780010000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.658452</v>
+        <v>0.643449</v>
       </c>
       <c r="D19" t="n">
-        <v>0.670775</v>
+        <v>0.652639</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.760713</v>
+        <v>0.751445</v>
       </c>
       <c r="C20" t="n">
-        <v>0.648751</v>
+        <v>0.6476499999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.667117</v>
+        <v>0.667526</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.760435</v>
+        <v>0.7651019999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.656898</v>
+        <v>0.660358</v>
       </c>
       <c r="D21" t="n">
-        <v>0.664117</v>
+        <v>0.663115</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.741236</v>
+        <v>0.754771</v>
       </c>
       <c r="C22" t="n">
-        <v>0.654339</v>
+        <v>0.666735</v>
       </c>
       <c r="D22" t="n">
-        <v>0.677507</v>
+        <v>0.657876</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.745714</v>
+        <v>0.743388</v>
       </c>
       <c r="C23" t="n">
-        <v>0.664299</v>
+        <v>0.682015</v>
       </c>
       <c r="D23" t="n">
-        <v>0.690003</v>
+        <v>0.679686</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7766960000000001</v>
+        <v>0.77145</v>
       </c>
       <c r="C24" t="n">
-        <v>0.670204</v>
+        <v>0.672754</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6653019999999999</v>
+        <v>0.680304</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.772672</v>
+        <v>0.778724</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6585569999999999</v>
+        <v>0.659922</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6959689999999999</v>
+        <v>0.662611</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.813931</v>
+        <v>0.825081</v>
       </c>
       <c r="C26" t="n">
-        <v>0.664237</v>
+        <v>0.649724</v>
       </c>
       <c r="D26" t="n">
-        <v>0.678908</v>
+        <v>0.663613</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.769449</v>
+        <v>0.771915</v>
       </c>
       <c r="C27" t="n">
-        <v>0.666404</v>
+        <v>0.6517810000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.680559</v>
+        <v>0.675241</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.770184</v>
+        <v>0.791859</v>
       </c>
       <c r="C28" t="n">
-        <v>0.652887</v>
+        <v>0.653969</v>
       </c>
       <c r="D28" t="n">
-        <v>0.66989</v>
+        <v>0.691369</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.791312</v>
+        <v>0.782261</v>
       </c>
       <c r="C29" t="n">
-        <v>0.651403</v>
+        <v>0.692333</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6770890000000001</v>
+        <v>0.670335</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.773387</v>
+        <v>0.759026</v>
       </c>
       <c r="C30" t="n">
-        <v>0.709466</v>
+        <v>0.658122</v>
       </c>
       <c r="D30" t="n">
-        <v>0.676895</v>
+        <v>0.695181</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.774307</v>
+        <v>0.782101</v>
       </c>
       <c r="C31" t="n">
-        <v>0.666963</v>
+        <v>0.6606919999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.681713</v>
+        <v>0.680495</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.800351</v>
+        <v>0.79748</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6710199999999999</v>
+        <v>0.683779</v>
       </c>
       <c r="D32" t="n">
-        <v>0.698929</v>
+        <v>0.6841429999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.762199</v>
+        <v>0.781789</v>
       </c>
       <c r="C33" t="n">
-        <v>0.668382</v>
+        <v>0.687198</v>
       </c>
       <c r="D33" t="n">
-        <v>0.699901</v>
+        <v>0.688429</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.793342</v>
+        <v>0.794114</v>
       </c>
       <c r="C34" t="n">
-        <v>0.685501</v>
+        <v>0.672532</v>
       </c>
       <c r="D34" t="n">
-        <v>0.687024</v>
+        <v>0.681758</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.784147</v>
+        <v>0.785349</v>
       </c>
       <c r="C35" t="n">
-        <v>0.676143</v>
+        <v>0.686181</v>
       </c>
       <c r="D35" t="n">
-        <v>0.687935</v>
+        <v>0.691212</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.762435</v>
+        <v>0.803942</v>
       </c>
       <c r="C36" t="n">
-        <v>0.676074</v>
+        <v>0.687404</v>
       </c>
       <c r="D36" t="n">
-        <v>0.708239</v>
+        <v>0.699437</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.791454</v>
+        <v>0.794822</v>
       </c>
       <c r="C37" t="n">
-        <v>0.70328</v>
+        <v>0.668631</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7146479999999999</v>
+        <v>0.71301</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.826538</v>
+        <v>0.796864</v>
       </c>
       <c r="C38" t="n">
-        <v>0.670863</v>
+        <v>0.675767</v>
       </c>
       <c r="D38" t="n">
-        <v>0.702703</v>
+        <v>0.686814</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.820273</v>
+        <v>0.793842</v>
       </c>
       <c r="C39" t="n">
-        <v>0.672369</v>
+        <v>0.676852</v>
       </c>
       <c r="D39" t="n">
-        <v>0.70561</v>
+        <v>0.691006</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.810102</v>
+        <v>0.809063</v>
       </c>
       <c r="C40" t="n">
-        <v>0.680582</v>
+        <v>0.668361</v>
       </c>
       <c r="D40" t="n">
-        <v>0.711619</v>
+        <v>0.692651</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.806671</v>
+        <v>0.826906</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6905289999999999</v>
+        <v>0.674566</v>
       </c>
       <c r="D41" t="n">
-        <v>0.704608</v>
+        <v>0.706717</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7962320000000001</v>
+        <v>0.80967</v>
       </c>
       <c r="C42" t="n">
-        <v>0.683128</v>
+        <v>0.677435</v>
       </c>
       <c r="D42" t="n">
-        <v>0.706099</v>
+        <v>0.710351</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7967070000000001</v>
+        <v>0.794171</v>
       </c>
       <c r="C43" t="n">
-        <v>0.686622</v>
+        <v>0.696645</v>
       </c>
       <c r="D43" t="n">
-        <v>0.692327</v>
+        <v>0.722682</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.839159</v>
+        <v>0.813015</v>
       </c>
       <c r="C44" t="n">
-        <v>0.708716</v>
+        <v>0.683786</v>
       </c>
       <c r="D44" t="n">
-        <v>0.691348</v>
+        <v>0.702183</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.811022</v>
+        <v>0.827184</v>
       </c>
       <c r="C45" t="n">
-        <v>0.685338</v>
+        <v>0.687226</v>
       </c>
       <c r="D45" t="n">
-        <v>0.716508</v>
+        <v>0.704524</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.80623</v>
+        <v>0.810789</v>
       </c>
       <c r="C46" t="n">
-        <v>0.693979</v>
+        <v>0.705645</v>
       </c>
       <c r="D46" t="n">
-        <v>0.728449</v>
+        <v>0.697246</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.795106</v>
+        <v>0.792245</v>
       </c>
       <c r="C47" t="n">
-        <v>0.715656</v>
+        <v>0.726486</v>
       </c>
       <c r="D47" t="n">
-        <v>0.701005</v>
+        <v>0.699589</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.82433</v>
+        <v>0.798291</v>
       </c>
       <c r="C48" t="n">
-        <v>0.714379</v>
+        <v>0.688719</v>
       </c>
       <c r="D48" t="n">
-        <v>0.701783</v>
+        <v>0.70126</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.826442</v>
+        <v>0.801774</v>
       </c>
       <c r="C49" t="n">
-        <v>0.703421</v>
+        <v>0.705935</v>
       </c>
       <c r="D49" t="n">
-        <v>0.71665</v>
+        <v>0.722808</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.867687</v>
+        <v>0.803999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.704657</v>
+        <v>0.705634</v>
       </c>
       <c r="D50" t="n">
-        <v>0.726276</v>
+        <v>0.713523</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.796726</v>
+        <v>0.8343660000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.709172</v>
+        <v>0.714911</v>
       </c>
       <c r="D51" t="n">
-        <v>0.75087</v>
+        <v>0.759193</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.822982</v>
+        <v>0.8322040000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.70616</v>
+        <v>0.717388</v>
       </c>
       <c r="D52" t="n">
-        <v>0.749601</v>
+        <v>0.732459</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.870983</v>
+        <v>0.876171</v>
       </c>
       <c r="C53" t="n">
-        <v>0.722145</v>
+        <v>0.736413</v>
       </c>
       <c r="D53" t="n">
-        <v>0.747176</v>
+        <v>0.742031</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.880046</v>
+        <v>0.871671</v>
       </c>
       <c r="C54" t="n">
-        <v>0.726357</v>
+        <v>0.729142</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7490830000000001</v>
+        <v>0.749367</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.857529</v>
+        <v>0.869196</v>
       </c>
       <c r="C55" t="n">
-        <v>0.741542</v>
+        <v>0.747444</v>
       </c>
       <c r="D55" t="n">
-        <v>0.747362</v>
+        <v>0.74608</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.858161</v>
+        <v>0.870299</v>
       </c>
       <c r="C56" t="n">
-        <v>0.72432</v>
+        <v>0.722529</v>
       </c>
       <c r="D56" t="n">
-        <v>0.746109</v>
+        <v>0.7327399999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.903504</v>
+        <v>0.856679</v>
       </c>
       <c r="C57" t="n">
-        <v>0.735411</v>
+        <v>0.720539</v>
       </c>
       <c r="D57" t="n">
-        <v>0.743278</v>
+        <v>0.7382030000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.880005</v>
+        <v>0.882954</v>
       </c>
       <c r="C58" t="n">
-        <v>0.728956</v>
+        <v>0.719836</v>
       </c>
       <c r="D58" t="n">
-        <v>0.769748</v>
+        <v>0.7286820000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.887889</v>
+        <v>0.848448</v>
       </c>
       <c r="C59" t="n">
-        <v>0.742348</v>
+        <v>0.727315</v>
       </c>
       <c r="D59" t="n">
-        <v>0.762293</v>
+        <v>0.7517239999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.861401</v>
+        <v>0.874383</v>
       </c>
       <c r="C60" t="n">
-        <v>0.731145</v>
+        <v>0.742987</v>
       </c>
       <c r="D60" t="n">
-        <v>0.754598</v>
+        <v>0.733327</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.882344</v>
+        <v>0.888894</v>
       </c>
       <c r="C61" t="n">
-        <v>0.749978</v>
+        <v>0.745672</v>
       </c>
       <c r="D61" t="n">
-        <v>0.753853</v>
+        <v>0.751254</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.872542</v>
+        <v>0.8791679999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.750992</v>
+        <v>0.763698</v>
       </c>
       <c r="D62" t="n">
-        <v>0.762783</v>
+        <v>0.736083</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.880144</v>
+        <v>0.86307</v>
       </c>
       <c r="C63" t="n">
-        <v>0.747536</v>
+        <v>0.750027</v>
       </c>
       <c r="D63" t="n">
-        <v>0.785246</v>
+        <v>0.747772</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.898134</v>
+        <v>0.863244</v>
       </c>
       <c r="C64" t="n">
-        <v>0.751696</v>
+        <v>0.737251</v>
       </c>
       <c r="D64" t="n">
-        <v>0.77175</v>
+        <v>0.768998</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.855362</v>
+        <v>0.903779</v>
       </c>
       <c r="C65" t="n">
-        <v>0.78306</v>
+        <v>0.7627429999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.789049</v>
+        <v>0.799163</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.873758</v>
+        <v>0.864351</v>
       </c>
       <c r="C66" t="n">
-        <v>0.758143</v>
+        <v>0.766056</v>
       </c>
       <c r="D66" t="n">
-        <v>0.888092</v>
+        <v>0.883684</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.09119</v>
+        <v>1.07587</v>
       </c>
       <c r="C67" t="n">
-        <v>0.881782</v>
+        <v>0.849963</v>
       </c>
       <c r="D67" t="n">
-        <v>0.861031</v>
+        <v>0.884819</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.06104</v>
+        <v>1.07676</v>
       </c>
       <c r="C68" t="n">
-        <v>0.886336</v>
+        <v>0.844256</v>
       </c>
       <c r="D68" t="n">
-        <v>0.884638</v>
+        <v>0.86421</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.0287</v>
+        <v>1.07436</v>
       </c>
       <c r="C69" t="n">
-        <v>0.852734</v>
+        <v>0.851989</v>
       </c>
       <c r="D69" t="n">
-        <v>0.859535</v>
+        <v>0.86174</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.05494</v>
+        <v>1.03323</v>
       </c>
       <c r="C70" t="n">
-        <v>0.85012</v>
+        <v>0.872574</v>
       </c>
       <c r="D70" t="n">
-        <v>0.888705</v>
+        <v>0.877748</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.07066</v>
+        <v>1.08749</v>
       </c>
       <c r="C71" t="n">
-        <v>0.858189</v>
+        <v>0.900788</v>
       </c>
       <c r="D71" t="n">
-        <v>0.867465</v>
+        <v>0.871177</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.0885</v>
+        <v>1.06439</v>
       </c>
       <c r="C72" t="n">
-        <v>0.875304</v>
+        <v>0.860364</v>
       </c>
       <c r="D72" t="n">
-        <v>0.876232</v>
+        <v>0.851039</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.05376</v>
+        <v>1.07172</v>
       </c>
       <c r="C73" t="n">
-        <v>0.868375</v>
+        <v>0.865039</v>
       </c>
       <c r="D73" t="n">
-        <v>0.904454</v>
+        <v>0.873437</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.04266</v>
+        <v>1.06019</v>
       </c>
       <c r="C74" t="n">
-        <v>0.869913</v>
+        <v>0.887432</v>
       </c>
       <c r="D74" t="n">
-        <v>0.893163</v>
+        <v>0.8651720000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.05259</v>
+        <v>1.05862</v>
       </c>
       <c r="C75" t="n">
-        <v>0.86748</v>
+        <v>0.854922</v>
       </c>
       <c r="D75" t="n">
-        <v>0.906431</v>
+        <v>0.852889</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.10513</v>
+        <v>1.0797</v>
       </c>
       <c r="C76" t="n">
-        <v>0.876551</v>
+        <v>0.874045</v>
       </c>
       <c r="D76" t="n">
-        <v>0.884505</v>
+        <v>0.867082</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.04959</v>
+        <v>1.04776</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8808</v>
+        <v>0.867486</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9002019999999999</v>
+        <v>0.8726969999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.06968</v>
+        <v>1.06285</v>
       </c>
       <c r="C78" t="n">
-        <v>0.873428</v>
+        <v>0.890006</v>
       </c>
       <c r="D78" t="n">
-        <v>0.931348</v>
+        <v>0.88291</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.05047</v>
+        <v>1.06199</v>
       </c>
       <c r="C79" t="n">
-        <v>0.877053</v>
+        <v>0.888072</v>
       </c>
       <c r="D79" t="n">
-        <v>0.907121</v>
+        <v>0.889593</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.10777</v>
+        <v>1.09868</v>
       </c>
       <c r="C80" t="n">
-        <v>0.875667</v>
+        <v>0.901681</v>
       </c>
       <c r="D80" t="n">
-        <v>1.16875</v>
+        <v>1.17944</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.4255</v>
+        <v>1.41771</v>
       </c>
       <c r="C81" t="n">
-        <v>1.19272</v>
+        <v>1.15249</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19289</v>
+        <v>1.15978</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.42176</v>
+        <v>1.39262</v>
       </c>
       <c r="C82" t="n">
-        <v>1.19905</v>
+        <v>1.21165</v>
       </c>
       <c r="D82" t="n">
-        <v>1.19509</v>
+        <v>1.19123</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.43225</v>
+        <v>1.40149</v>
       </c>
       <c r="C83" t="n">
-        <v>1.1631</v>
+        <v>1.16819</v>
       </c>
       <c r="D83" t="n">
-        <v>1.19657</v>
+        <v>1.16657</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.39279</v>
+        <v>1.41106</v>
       </c>
       <c r="C84" t="n">
-        <v>1.18491</v>
+        <v>1.17504</v>
       </c>
       <c r="D84" t="n">
-        <v>1.17245</v>
+        <v>1.20947</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.45373</v>
+        <v>1.4426</v>
       </c>
       <c r="C85" t="n">
-        <v>1.18815</v>
+        <v>1.19312</v>
       </c>
       <c r="D85" t="n">
-        <v>1.1917</v>
+        <v>1.21005</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.3782</v>
+        <v>1.43746</v>
       </c>
       <c r="C86" t="n">
-        <v>1.24408</v>
+        <v>1.1863</v>
       </c>
       <c r="D86" t="n">
-        <v>1.18286</v>
+        <v>1.23203</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.37985</v>
+        <v>1.4138</v>
       </c>
       <c r="C87" t="n">
-        <v>1.15512</v>
+        <v>1.21422</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1433</v>
+        <v>1.21219</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.38406</v>
+        <v>1.45549</v>
       </c>
       <c r="C88" t="n">
-        <v>1.17669</v>
+        <v>1.20918</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16452</v>
+        <v>1.21212</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.41419</v>
+        <v>1.49157</v>
       </c>
       <c r="C89" t="n">
-        <v>1.19246</v>
+        <v>1.23419</v>
       </c>
       <c r="D89" t="n">
-        <v>1.18591</v>
+        <v>1.24041</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.40817</v>
+        <v>1.4701</v>
       </c>
       <c r="C90" t="n">
-        <v>1.18134</v>
+        <v>1.21003</v>
       </c>
       <c r="D90" t="n">
-        <v>1.20371</v>
+        <v>1.21142</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.4194</v>
+        <v>1.39933</v>
       </c>
       <c r="C91" t="n">
-        <v>1.20094</v>
+        <v>1.167</v>
       </c>
       <c r="D91" t="n">
-        <v>1.17497</v>
+        <v>1.1475</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.39903</v>
+        <v>1.39921</v>
       </c>
       <c r="C92" t="n">
-        <v>1.22032</v>
+        <v>1.18476</v>
       </c>
       <c r="D92" t="n">
-        <v>1.16562</v>
+        <v>1.15391</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.39498</v>
+        <v>1.46408</v>
       </c>
       <c r="C93" t="n">
-        <v>1.2104</v>
+        <v>1.20256</v>
       </c>
       <c r="D93" t="n">
-        <v>1.22872</v>
+        <v>1.20073</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.41173</v>
+        <v>1.38695</v>
       </c>
       <c r="C94" t="n">
-        <v>1.21381</v>
+        <v>1.1901</v>
       </c>
       <c r="D94" t="n">
-        <v>1.58241</v>
+        <v>1.5352</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.76174</v>
+        <v>1.77424</v>
       </c>
       <c r="C95" t="n">
-        <v>1.47212</v>
+        <v>1.48981</v>
       </c>
       <c r="D95" t="n">
-        <v>1.51663</v>
+        <v>1.53739</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.71185</v>
+        <v>1.77189</v>
       </c>
       <c r="C96" t="n">
-        <v>1.46755</v>
+        <v>1.49568</v>
       </c>
       <c r="D96" t="n">
-        <v>1.5098</v>
+        <v>1.53536</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.78368</v>
+        <v>1.76721</v>
       </c>
       <c r="C97" t="n">
-        <v>1.49317</v>
+        <v>1.55079</v>
       </c>
       <c r="D97" t="n">
-        <v>1.53049</v>
+        <v>1.59563</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.73937</v>
+        <v>1.8409</v>
       </c>
       <c r="C98" t="n">
-        <v>1.46951</v>
+        <v>1.53496</v>
       </c>
       <c r="D98" t="n">
-        <v>1.54384</v>
+        <v>1.54522</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.79465</v>
+        <v>1.73505</v>
       </c>
       <c r="C99" t="n">
-        <v>1.49448</v>
+        <v>1.50175</v>
       </c>
       <c r="D99" t="n">
-        <v>1.58894</v>
+        <v>1.53369</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.81766</v>
+        <v>1.77478</v>
       </c>
       <c r="C100" t="n">
-        <v>1.54174</v>
+        <v>1.53732</v>
       </c>
       <c r="D100" t="n">
-        <v>1.55697</v>
+        <v>1.53997</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.76793</v>
+        <v>1.73964</v>
       </c>
       <c r="C101" t="n">
-        <v>1.53403</v>
+        <v>1.52276</v>
       </c>
       <c r="D101" t="n">
-        <v>1.54594</v>
+        <v>1.52379</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.76894</v>
+        <v>1.73158</v>
       </c>
       <c r="C102" t="n">
-        <v>1.58093</v>
+        <v>1.53163</v>
       </c>
       <c r="D102" t="n">
-        <v>1.55887</v>
+        <v>1.56875</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.77572</v>
+        <v>1.73974</v>
       </c>
       <c r="C103" t="n">
-        <v>1.54918</v>
+        <v>1.54987</v>
       </c>
       <c r="D103" t="n">
-        <v>1.54103</v>
+        <v>1.56677</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.77439</v>
+        <v>1.77547</v>
       </c>
       <c r="C104" t="n">
-        <v>1.528</v>
+        <v>1.57596</v>
       </c>
       <c r="D104" t="n">
-        <v>1.53168</v>
+        <v>1.53998</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.71437</v>
+        <v>1.73037</v>
       </c>
       <c r="C105" t="n">
-        <v>1.56933</v>
+        <v>1.53886</v>
       </c>
       <c r="D105" t="n">
-        <v>1.52369</v>
+        <v>1.52829</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.70551</v>
+        <v>1.76706</v>
       </c>
       <c r="C106" t="n">
-        <v>1.495</v>
+        <v>1.52883</v>
       </c>
       <c r="D106" t="n">
-        <v>1.53188</v>
+        <v>1.5333</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.74059</v>
+        <v>1.775</v>
       </c>
       <c r="C107" t="n">
-        <v>1.53535</v>
+        <v>1.53291</v>
       </c>
       <c r="D107" t="n">
-        <v>1.56367</v>
+        <v>1.57777</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.75583</v>
+        <v>1.72175</v>
       </c>
       <c r="C108" t="n">
-        <v>1.54469</v>
+        <v>1.52134</v>
       </c>
       <c r="D108" t="n">
-        <v>1.76797</v>
+        <v>1.75673</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.75923</v>
+        <v>1.76458</v>
       </c>
       <c r="C109" t="n">
-        <v>1.55502</v>
+        <v>1.5837</v>
       </c>
       <c r="D109" t="n">
-        <v>1.73197</v>
+        <v>1.75108</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.11276</v>
+        <v>2.08081</v>
       </c>
       <c r="C110" t="n">
-        <v>1.69994</v>
+        <v>1.73656</v>
       </c>
       <c r="D110" t="n">
-        <v>1.75915</v>
+        <v>1.74087</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.14796</v>
+        <v>2.1724</v>
       </c>
       <c r="C111" t="n">
-        <v>1.69263</v>
+        <v>1.713</v>
       </c>
       <c r="D111" t="n">
-        <v>1.75399</v>
+        <v>1.72298</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.15196</v>
+        <v>2.10646</v>
       </c>
       <c r="C112" t="n">
-        <v>1.69791</v>
+        <v>1.70671</v>
       </c>
       <c r="D112" t="n">
-        <v>1.79587</v>
+        <v>1.75708</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.10965</v>
+        <v>2.11784</v>
       </c>
       <c r="C113" t="n">
-        <v>1.71105</v>
+        <v>1.69538</v>
       </c>
       <c r="D113" t="n">
-        <v>1.76811</v>
+        <v>1.76519</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.14858</v>
+        <v>2.13009</v>
       </c>
       <c r="C114" t="n">
-        <v>1.71585</v>
+        <v>1.73726</v>
       </c>
       <c r="D114" t="n">
-        <v>1.78687</v>
+        <v>1.78733</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.12043</v>
+        <v>2.141</v>
       </c>
       <c r="C115" t="n">
-        <v>1.74064</v>
+        <v>1.73496</v>
       </c>
       <c r="D115" t="n">
-        <v>1.80568</v>
+        <v>1.78068</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.14301</v>
+        <v>2.17925</v>
       </c>
       <c r="C116" t="n">
-        <v>1.75566</v>
+        <v>1.71435</v>
       </c>
       <c r="D116" t="n">
-        <v>1.75947</v>
+        <v>1.80484</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.14879</v>
+        <v>2.16037</v>
       </c>
       <c r="C117" t="n">
-        <v>1.70733</v>
+        <v>1.73559</v>
       </c>
       <c r="D117" t="n">
-        <v>1.7915</v>
+        <v>1.82654</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.13562</v>
+        <v>2.13912</v>
       </c>
       <c r="C118" t="n">
-        <v>1.74677</v>
+        <v>1.7595</v>
       </c>
       <c r="D118" t="n">
-        <v>1.78648</v>
+        <v>1.78177</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.14015</v>
+        <v>2.15963</v>
       </c>
       <c r="C119" t="n">
-        <v>1.74178</v>
+        <v>1.78407</v>
       </c>
       <c r="D119" t="n">
-        <v>1.80219</v>
+        <v>1.806</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>2.12117</v>
+        <v>2.10662</v>
       </c>
       <c r="C120" t="n">
-        <v>1.73623</v>
+        <v>1.7706</v>
       </c>
       <c r="D120" t="n">
-        <v>1.80444</v>
+        <v>1.81658</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>2.13242</v>
+        <v>2.15973</v>
       </c>
       <c r="C121" t="n">
-        <v>1.78885</v>
+        <v>1.76332</v>
       </c>
       <c r="D121" t="n">
-        <v>1.83336</v>
+        <v>1.80236</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>2.12735</v>
+        <v>2.15246</v>
       </c>
       <c r="C122" t="n">
-        <v>1.724</v>
+        <v>1.78879</v>
       </c>
       <c r="D122" t="n">
-        <v>1.81203</v>
+        <v>1.84173</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>2.15677</v>
+        <v>2.16097</v>
       </c>
       <c r="C123" t="n">
-        <v>1.7855</v>
+        <v>1.79893</v>
       </c>
       <c r="D123" t="n">
-        <v>1.93856</v>
+        <v>1.95273</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.51951</v>
+        <v>2.59512</v>
       </c>
       <c r="C124" t="n">
-        <v>1.90819</v>
+        <v>1.90458</v>
       </c>
       <c r="D124" t="n">
-        <v>1.95387</v>
+        <v>1.98369</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.53294</v>
+        <v>2.51758</v>
       </c>
       <c r="C125" t="n">
-        <v>1.88565</v>
+        <v>1.89168</v>
       </c>
       <c r="D125" t="n">
-        <v>1.93494</v>
+        <v>1.96104</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.5326</v>
+        <v>2.5128</v>
       </c>
       <c r="C126" t="n">
-        <v>1.92066</v>
+        <v>1.92811</v>
       </c>
       <c r="D126" t="n">
-        <v>1.91017</v>
+        <v>1.94402</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.53767</v>
+        <v>2.50703</v>
       </c>
       <c r="C127" t="n">
-        <v>1.92999</v>
+        <v>1.91223</v>
       </c>
       <c r="D127" t="n">
-        <v>1.95841</v>
+        <v>1.98171</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.5166</v>
+        <v>2.54966</v>
       </c>
       <c r="C128" t="n">
-        <v>1.9223</v>
+        <v>1.91074</v>
       </c>
       <c r="D128" t="n">
-        <v>1.9726</v>
+        <v>1.9703</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.53847</v>
+        <v>2.52269</v>
       </c>
       <c r="C129" t="n">
-        <v>1.93699</v>
+        <v>1.91794</v>
       </c>
       <c r="D129" t="n">
-        <v>1.96344</v>
+        <v>1.96777</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.52151</v>
+        <v>2.51914</v>
       </c>
       <c r="C130" t="n">
-        <v>1.92666</v>
+        <v>1.94004</v>
       </c>
       <c r="D130" t="n">
-        <v>2.00236</v>
+        <v>1.97707</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.51801</v>
+        <v>2.52134</v>
       </c>
       <c r="C131" t="n">
-        <v>1.92011</v>
+        <v>1.93679</v>
       </c>
       <c r="D131" t="n">
-        <v>1.98443</v>
+        <v>1.96036</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.52487</v>
+        <v>2.50879</v>
       </c>
       <c r="C132" t="n">
-        <v>1.9759</v>
+        <v>1.94836</v>
       </c>
       <c r="D132" t="n">
-        <v>1.97691</v>
+        <v>1.97987</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.515</v>
+        <v>2.51458</v>
       </c>
       <c r="C133" t="n">
-        <v>1.96054</v>
+        <v>1.9467</v>
       </c>
       <c r="D133" t="n">
-        <v>1.99064</v>
+        <v>1.96429</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.54398</v>
+        <v>2.50731</v>
       </c>
       <c r="C134" t="n">
-        <v>1.9622</v>
+        <v>1.95948</v>
       </c>
       <c r="D134" t="n">
-        <v>2.02936</v>
+        <v>1.99005</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.54782</v>
+        <v>2.53126</v>
       </c>
       <c r="C135" t="n">
-        <v>1.99274</v>
+        <v>1.97416</v>
       </c>
       <c r="D135" t="n">
-        <v>2.03473</v>
+        <v>2.02168</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.53463</v>
+        <v>2.53897</v>
       </c>
       <c r="C136" t="n">
-        <v>2.00413</v>
+        <v>1.97288</v>
       </c>
       <c r="D136" t="n">
-        <v>2.03518</v>
+        <v>2.0389</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.54525</v>
+        <v>2.5463</v>
       </c>
       <c r="C137" t="n">
-        <v>2.01446</v>
+        <v>1.9974</v>
       </c>
       <c r="D137" t="n">
-        <v>2.09906</v>
+        <v>2.08346</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.91312</v>
+        <v>2.8959</v>
       </c>
       <c r="C138" t="n">
-        <v>2.05189</v>
+        <v>2.05506</v>
       </c>
       <c r="D138" t="n">
-        <v>2.10413</v>
+        <v>2.07777</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.84171</v>
+        <v>2.90788</v>
       </c>
       <c r="C139" t="n">
-        <v>2.05365</v>
+        <v>2.12582</v>
       </c>
       <c r="D139" t="n">
-        <v>2.09022</v>
+        <v>2.08909</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.85406</v>
+        <v>2.89443</v>
       </c>
       <c r="C140" t="n">
-        <v>2.12206</v>
+        <v>2.13764</v>
       </c>
       <c r="D140" t="n">
-        <v>2.08374</v>
+        <v>2.1185</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.86166</v>
+        <v>2.86357</v>
       </c>
       <c r="C141" t="n">
-        <v>2.05342</v>
+        <v>2.15677</v>
       </c>
       <c r="D141" t="n">
-        <v>2.17895</v>
+        <v>2.10029</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.87596</v>
+        <v>2.90128</v>
       </c>
       <c r="C142" t="n">
-        <v>2.08769</v>
+        <v>2.1787</v>
       </c>
       <c r="D142" t="n">
-        <v>2.17687</v>
+        <v>2.20701</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.86612</v>
+        <v>2.89609</v>
       </c>
       <c r="C143" t="n">
-        <v>2.06414</v>
+        <v>2.18527</v>
       </c>
       <c r="D143" t="n">
-        <v>2.10889</v>
+        <v>2.10777</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.744249</v>
+        <v>0.310363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.63723</v>
+        <v>0.243807</v>
       </c>
       <c r="D2" t="n">
-        <v>0.643532</v>
+        <v>0.249093</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.702991</v>
+        <v>0.300325</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6332989999999999</v>
+        <v>0.245109</v>
       </c>
       <c r="D3" t="n">
-        <v>0.648035</v>
+        <v>0.248429</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.727861</v>
+        <v>0.30121</v>
       </c>
       <c r="C4" t="n">
-        <v>0.655983</v>
+        <v>0.248763</v>
       </c>
       <c r="D4" t="n">
-        <v>0.656208</v>
+        <v>0.252862</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.725867</v>
+        <v>0.294311</v>
       </c>
       <c r="C5" t="n">
-        <v>0.649553</v>
+        <v>0.248935</v>
       </c>
       <c r="D5" t="n">
-        <v>0.650792</v>
+        <v>0.252729</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7146709999999999</v>
+        <v>0.300637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.632197</v>
+        <v>0.251393</v>
       </c>
       <c r="D6" t="n">
-        <v>0.649481</v>
+        <v>0.258513</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.730087</v>
+        <v>0.295157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.660797</v>
+        <v>0.250473</v>
       </c>
       <c r="D7" t="n">
-        <v>0.641357</v>
+        <v>0.260162</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.705808</v>
+        <v>0.304457</v>
       </c>
       <c r="C8" t="n">
-        <v>0.662909</v>
+        <v>0.248612</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6670430000000001</v>
+        <v>0.268946</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.718078</v>
+        <v>0.310129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.645661</v>
+        <v>0.262602</v>
       </c>
       <c r="D9" t="n">
-        <v>0.652024</v>
+        <v>0.250813</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.745834</v>
+        <v>0.309575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.637894</v>
+        <v>0.243999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.645115</v>
+        <v>0.253514</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.767605</v>
+        <v>0.318517</v>
       </c>
       <c r="C11" t="n">
-        <v>0.630094</v>
+        <v>0.24513</v>
       </c>
       <c r="D11" t="n">
-        <v>0.645132</v>
+        <v>0.253918</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.773326</v>
+        <v>0.318983</v>
       </c>
       <c r="C12" t="n">
-        <v>0.669701</v>
+        <v>0.238594</v>
       </c>
       <c r="D12" t="n">
-        <v>0.667912</v>
+        <v>0.260663</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.736432</v>
+        <v>0.306817</v>
       </c>
       <c r="C13" t="n">
-        <v>0.670098</v>
+        <v>0.245882</v>
       </c>
       <c r="D13" t="n">
-        <v>0.650622</v>
+        <v>0.260056</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.74183</v>
+        <v>0.312816</v>
       </c>
       <c r="C14" t="n">
-        <v>0.660226</v>
+        <v>0.253536</v>
       </c>
       <c r="D14" t="n">
-        <v>0.659359</v>
+        <v>0.254196</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.747277</v>
+        <v>0.301935</v>
       </c>
       <c r="C15" t="n">
-        <v>0.645917</v>
+        <v>0.252307</v>
       </c>
       <c r="D15" t="n">
-        <v>0.639823</v>
+        <v>0.25399</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.745308</v>
+        <v>0.312089</v>
       </c>
       <c r="C16" t="n">
-        <v>0.655587</v>
+        <v>0.258254</v>
       </c>
       <c r="D16" t="n">
-        <v>0.670485</v>
+        <v>0.264855</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.748051</v>
+        <v>0.305336</v>
       </c>
       <c r="C17" t="n">
-        <v>0.637506</v>
+        <v>0.249676</v>
       </c>
       <c r="D17" t="n">
-        <v>0.660326</v>
+        <v>0.257524</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.745312</v>
+        <v>0.309764</v>
       </c>
       <c r="C18" t="n">
-        <v>0.651572</v>
+        <v>0.243961</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6426269999999999</v>
+        <v>0.255511</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7780010000000001</v>
+        <v>0.312235</v>
       </c>
       <c r="C19" t="n">
-        <v>0.643449</v>
+        <v>0.256137</v>
       </c>
       <c r="D19" t="n">
-        <v>0.652639</v>
+        <v>0.256398</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.751445</v>
+        <v>0.310555</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6476499999999999</v>
+        <v>0.253829</v>
       </c>
       <c r="D20" t="n">
-        <v>0.667526</v>
+        <v>0.267407</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7651019999999999</v>
+        <v>0.311726</v>
       </c>
       <c r="C21" t="n">
-        <v>0.660358</v>
+        <v>0.261864</v>
       </c>
       <c r="D21" t="n">
-        <v>0.663115</v>
+        <v>0.262484</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.754771</v>
+        <v>0.319356</v>
       </c>
       <c r="C22" t="n">
-        <v>0.666735</v>
+        <v>0.261831</v>
       </c>
       <c r="D22" t="n">
-        <v>0.657876</v>
+        <v>0.275451</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.743388</v>
+        <v>0.31719</v>
       </c>
       <c r="C23" t="n">
-        <v>0.682015</v>
+        <v>0.273222</v>
       </c>
       <c r="D23" t="n">
-        <v>0.679686</v>
+        <v>0.260959</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.77145</v>
+        <v>0.335242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.672754</v>
+        <v>0.250366</v>
       </c>
       <c r="D24" t="n">
-        <v>0.680304</v>
+        <v>0.263257</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.778724</v>
+        <v>0.34241</v>
       </c>
       <c r="C25" t="n">
-        <v>0.659922</v>
+        <v>0.251647</v>
       </c>
       <c r="D25" t="n">
-        <v>0.662611</v>
+        <v>0.268639</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.825081</v>
+        <v>0.327029</v>
       </c>
       <c r="C26" t="n">
-        <v>0.649724</v>
+        <v>0.249545</v>
       </c>
       <c r="D26" t="n">
-        <v>0.663613</v>
+        <v>0.260874</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.771915</v>
+        <v>0.332412</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6517810000000001</v>
+        <v>0.253503</v>
       </c>
       <c r="D27" t="n">
-        <v>0.675241</v>
+        <v>0.269722</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.791859</v>
+        <v>0.350804</v>
       </c>
       <c r="C28" t="n">
-        <v>0.653969</v>
+        <v>0.251661</v>
       </c>
       <c r="D28" t="n">
-        <v>0.691369</v>
+        <v>0.263454</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.782261</v>
+        <v>0.331885</v>
       </c>
       <c r="C29" t="n">
-        <v>0.692333</v>
+        <v>0.25121</v>
       </c>
       <c r="D29" t="n">
-        <v>0.670335</v>
+        <v>0.268836</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.759026</v>
+        <v>0.334597</v>
       </c>
       <c r="C30" t="n">
-        <v>0.658122</v>
+        <v>0.255403</v>
       </c>
       <c r="D30" t="n">
-        <v>0.695181</v>
+        <v>0.266259</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.782101</v>
+        <v>0.343309</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6606919999999999</v>
+        <v>0.259397</v>
       </c>
       <c r="D31" t="n">
-        <v>0.680495</v>
+        <v>0.270391</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.79748</v>
+        <v>0.344701</v>
       </c>
       <c r="C32" t="n">
-        <v>0.683779</v>
+        <v>0.26008</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6841429999999999</v>
+        <v>0.278265</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.781789</v>
+        <v>0.336869</v>
       </c>
       <c r="C33" t="n">
-        <v>0.687198</v>
+        <v>0.260485</v>
       </c>
       <c r="D33" t="n">
-        <v>0.688429</v>
+        <v>0.270422</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.794114</v>
+        <v>0.329331</v>
       </c>
       <c r="C34" t="n">
-        <v>0.672532</v>
+        <v>0.258109</v>
       </c>
       <c r="D34" t="n">
-        <v>0.681758</v>
+        <v>0.273375</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.785349</v>
+        <v>0.33516</v>
       </c>
       <c r="C35" t="n">
-        <v>0.686181</v>
+        <v>0.26126</v>
       </c>
       <c r="D35" t="n">
-        <v>0.691212</v>
+        <v>0.286063</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.803942</v>
+        <v>0.349578</v>
       </c>
       <c r="C36" t="n">
-        <v>0.687404</v>
+        <v>0.26637</v>
       </c>
       <c r="D36" t="n">
-        <v>0.699437</v>
+        <v>0.288912</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.794822</v>
+        <v>0.334862</v>
       </c>
       <c r="C37" t="n">
-        <v>0.668631</v>
+        <v>0.267565</v>
       </c>
       <c r="D37" t="n">
-        <v>0.71301</v>
+        <v>0.268863</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.796864</v>
+        <v>0.355116</v>
       </c>
       <c r="C38" t="n">
-        <v>0.675767</v>
+        <v>0.254587</v>
       </c>
       <c r="D38" t="n">
-        <v>0.686814</v>
+        <v>0.270835</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.793842</v>
+        <v>0.35525</v>
       </c>
       <c r="C39" t="n">
-        <v>0.676852</v>
+        <v>0.264637</v>
       </c>
       <c r="D39" t="n">
-        <v>0.691006</v>
+        <v>0.279876</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.809063</v>
+        <v>0.385071</v>
       </c>
       <c r="C40" t="n">
-        <v>0.668361</v>
+        <v>0.258084</v>
       </c>
       <c r="D40" t="n">
-        <v>0.692651</v>
+        <v>0.276414</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.826906</v>
+        <v>0.353052</v>
       </c>
       <c r="C41" t="n">
-        <v>0.674566</v>
+        <v>0.264852</v>
       </c>
       <c r="D41" t="n">
-        <v>0.706717</v>
+        <v>0.271404</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.80967</v>
+        <v>0.363239</v>
       </c>
       <c r="C42" t="n">
-        <v>0.677435</v>
+        <v>0.258316</v>
       </c>
       <c r="D42" t="n">
-        <v>0.710351</v>
+        <v>0.274529</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.794171</v>
+        <v>0.363272</v>
       </c>
       <c r="C43" t="n">
-        <v>0.696645</v>
+        <v>0.267207</v>
       </c>
       <c r="D43" t="n">
-        <v>0.722682</v>
+        <v>0.273854</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.813015</v>
+        <v>0.362501</v>
       </c>
       <c r="C44" t="n">
-        <v>0.683786</v>
+        <v>0.267271</v>
       </c>
       <c r="D44" t="n">
-        <v>0.702183</v>
+        <v>0.28415</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.827184</v>
+        <v>0.366047</v>
       </c>
       <c r="C45" t="n">
-        <v>0.687226</v>
+        <v>0.265822</v>
       </c>
       <c r="D45" t="n">
-        <v>0.704524</v>
+        <v>0.27582</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.810789</v>
+        <v>0.37198</v>
       </c>
       <c r="C46" t="n">
-        <v>0.705645</v>
+        <v>0.265765</v>
       </c>
       <c r="D46" t="n">
-        <v>0.697246</v>
+        <v>0.277903</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.792245</v>
+        <v>0.380733</v>
       </c>
       <c r="C47" t="n">
-        <v>0.726486</v>
+        <v>0.273608</v>
       </c>
       <c r="D47" t="n">
-        <v>0.699589</v>
+        <v>0.297117</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.798291</v>
+        <v>0.37405</v>
       </c>
       <c r="C48" t="n">
-        <v>0.688719</v>
+        <v>0.265969</v>
       </c>
       <c r="D48" t="n">
-        <v>0.70126</v>
+        <v>0.281783</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.801774</v>
+        <v>0.360307</v>
       </c>
       <c r="C49" t="n">
-        <v>0.705935</v>
+        <v>0.276786</v>
       </c>
       <c r="D49" t="n">
-        <v>0.722808</v>
+        <v>0.286007</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.803999</v>
+        <v>0.368705</v>
       </c>
       <c r="C50" t="n">
-        <v>0.705634</v>
+        <v>0.282133</v>
       </c>
       <c r="D50" t="n">
-        <v>0.713523</v>
+        <v>0.293176</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8343660000000001</v>
+        <v>0.37496</v>
       </c>
       <c r="C51" t="n">
-        <v>0.714911</v>
+        <v>0.281332</v>
       </c>
       <c r="D51" t="n">
-        <v>0.759193</v>
+        <v>0.312082</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8322040000000001</v>
+        <v>0.375989</v>
       </c>
       <c r="C52" t="n">
-        <v>0.717388</v>
+        <v>0.293343</v>
       </c>
       <c r="D52" t="n">
-        <v>0.732459</v>
+        <v>0.311405</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.876171</v>
+        <v>0.41477</v>
       </c>
       <c r="C53" t="n">
-        <v>0.736413</v>
+        <v>0.289571</v>
       </c>
       <c r="D53" t="n">
-        <v>0.742031</v>
+        <v>0.312866</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.871671</v>
+        <v>0.431014</v>
       </c>
       <c r="C54" t="n">
-        <v>0.729142</v>
+        <v>0.294523</v>
       </c>
       <c r="D54" t="n">
-        <v>0.749367</v>
+        <v>0.312104</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.869196</v>
+        <v>0.432044</v>
       </c>
       <c r="C55" t="n">
-        <v>0.747444</v>
+        <v>0.298877</v>
       </c>
       <c r="D55" t="n">
-        <v>0.74608</v>
+        <v>0.314594</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.870299</v>
+        <v>0.419266</v>
       </c>
       <c r="C56" t="n">
-        <v>0.722529</v>
+        <v>0.301616</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7327399999999999</v>
+        <v>0.321221</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.856679</v>
+        <v>0.447771</v>
       </c>
       <c r="C57" t="n">
-        <v>0.720539</v>
+        <v>0.291918</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7382030000000001</v>
+        <v>0.309967</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.882954</v>
+        <v>0.418738</v>
       </c>
       <c r="C58" t="n">
-        <v>0.719836</v>
+        <v>0.303874</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7286820000000001</v>
+        <v>0.318271</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.848448</v>
+        <v>0.41451</v>
       </c>
       <c r="C59" t="n">
-        <v>0.727315</v>
+        <v>0.298528</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7517239999999999</v>
+        <v>0.3115</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.874383</v>
+        <v>0.425438</v>
       </c>
       <c r="C60" t="n">
-        <v>0.742987</v>
+        <v>0.299895</v>
       </c>
       <c r="D60" t="n">
-        <v>0.733327</v>
+        <v>0.318469</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.888894</v>
+        <v>0.425399</v>
       </c>
       <c r="C61" t="n">
-        <v>0.745672</v>
+        <v>0.293961</v>
       </c>
       <c r="D61" t="n">
-        <v>0.751254</v>
+        <v>0.318274</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8791679999999999</v>
+        <v>0.421885</v>
       </c>
       <c r="C62" t="n">
-        <v>0.763698</v>
+        <v>0.309447</v>
       </c>
       <c r="D62" t="n">
-        <v>0.736083</v>
+        <v>0.313972</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.86307</v>
+        <v>0.43125</v>
       </c>
       <c r="C63" t="n">
-        <v>0.750027</v>
+        <v>0.301547</v>
       </c>
       <c r="D63" t="n">
-        <v>0.747772</v>
+        <v>0.336952</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.863244</v>
+        <v>0.420575</v>
       </c>
       <c r="C64" t="n">
-        <v>0.737251</v>
+        <v>0.30456</v>
       </c>
       <c r="D64" t="n">
-        <v>0.768998</v>
+        <v>0.338073</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.903779</v>
+        <v>0.425275</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7627429999999999</v>
+        <v>0.31141</v>
       </c>
       <c r="D65" t="n">
-        <v>0.799163</v>
+        <v>0.333579</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.864351</v>
+        <v>0.435553</v>
       </c>
       <c r="C66" t="n">
-        <v>0.766056</v>
+        <v>0.317697</v>
       </c>
       <c r="D66" t="n">
-        <v>0.883684</v>
+        <v>0.415778</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.07587</v>
+        <v>0.611504</v>
       </c>
       <c r="C67" t="n">
-        <v>0.849963</v>
+        <v>0.397184</v>
       </c>
       <c r="D67" t="n">
-        <v>0.884819</v>
+        <v>0.418957</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.07676</v>
+        <v>0.601465</v>
       </c>
       <c r="C68" t="n">
-        <v>0.844256</v>
+        <v>0.39397</v>
       </c>
       <c r="D68" t="n">
-        <v>0.86421</v>
+        <v>0.422016</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.07436</v>
+        <v>0.582221</v>
       </c>
       <c r="C69" t="n">
-        <v>0.851989</v>
+        <v>0.392887</v>
       </c>
       <c r="D69" t="n">
-        <v>0.86174</v>
+        <v>0.423185</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.03323</v>
+        <v>0.592074</v>
       </c>
       <c r="C70" t="n">
-        <v>0.872574</v>
+        <v>0.404072</v>
       </c>
       <c r="D70" t="n">
-        <v>0.877748</v>
+        <v>0.433352</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.08749</v>
+        <v>0.61498</v>
       </c>
       <c r="C71" t="n">
-        <v>0.900788</v>
+        <v>0.396367</v>
       </c>
       <c r="D71" t="n">
-        <v>0.871177</v>
+        <v>0.413799</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.06439</v>
+        <v>0.569524</v>
       </c>
       <c r="C72" t="n">
-        <v>0.860364</v>
+        <v>0.397163</v>
       </c>
       <c r="D72" t="n">
-        <v>0.851039</v>
+        <v>0.441628</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.07172</v>
+        <v>0.577364</v>
       </c>
       <c r="C73" t="n">
-        <v>0.865039</v>
+        <v>0.396025</v>
       </c>
       <c r="D73" t="n">
-        <v>0.873437</v>
+        <v>0.422346</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.06019</v>
+        <v>0.5943079999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.887432</v>
+        <v>0.392517</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8651720000000001</v>
+        <v>0.415394</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.05862</v>
+        <v>0.586297</v>
       </c>
       <c r="C75" t="n">
-        <v>0.854922</v>
+        <v>0.392986</v>
       </c>
       <c r="D75" t="n">
-        <v>0.852889</v>
+        <v>0.41863</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.0797</v>
+        <v>0.586686</v>
       </c>
       <c r="C76" t="n">
-        <v>0.874045</v>
+        <v>0.398041</v>
       </c>
       <c r="D76" t="n">
-        <v>0.867082</v>
+        <v>0.424315</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.04776</v>
+        <v>0.569959</v>
       </c>
       <c r="C77" t="n">
-        <v>0.867486</v>
+        <v>0.406722</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8726969999999999</v>
+        <v>0.440089</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.06285</v>
+        <v>0.581188</v>
       </c>
       <c r="C78" t="n">
-        <v>0.890006</v>
+        <v>0.400935</v>
       </c>
       <c r="D78" t="n">
-        <v>0.88291</v>
+        <v>0.424196</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.06199</v>
+        <v>0.611531</v>
       </c>
       <c r="C79" t="n">
-        <v>0.888072</v>
+        <v>0.400266</v>
       </c>
       <c r="D79" t="n">
-        <v>0.889593</v>
+        <v>0.438339</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.09868</v>
+        <v>0.596482</v>
       </c>
       <c r="C80" t="n">
-        <v>0.901681</v>
+        <v>0.408788</v>
       </c>
       <c r="D80" t="n">
-        <v>1.17944</v>
+        <v>0.697363</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.41771</v>
+        <v>0.9258150000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>1.15249</v>
+        <v>0.600617</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15978</v>
+        <v>0.709054</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.39262</v>
+        <v>0.919259</v>
       </c>
       <c r="C82" t="n">
-        <v>1.21165</v>
+        <v>0.601942</v>
       </c>
       <c r="D82" t="n">
-        <v>1.19123</v>
+        <v>0.682907</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.40149</v>
+        <v>0.968569</v>
       </c>
       <c r="C83" t="n">
-        <v>1.16819</v>
+        <v>0.654483</v>
       </c>
       <c r="D83" t="n">
-        <v>1.16657</v>
+        <v>0.715348</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.41106</v>
+        <v>0.952273</v>
       </c>
       <c r="C84" t="n">
-        <v>1.17504</v>
+        <v>0.6260559999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>1.20947</v>
+        <v>0.733623</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.4426</v>
+        <v>0.93349</v>
       </c>
       <c r="C85" t="n">
-        <v>1.19312</v>
+        <v>0.6056820000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>1.21005</v>
+        <v>0.701408</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.43746</v>
+        <v>0.96392</v>
       </c>
       <c r="C86" t="n">
-        <v>1.1863</v>
+        <v>0.63059</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23203</v>
+        <v>0.693246</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.4138</v>
+        <v>0.94804</v>
       </c>
       <c r="C87" t="n">
-        <v>1.21422</v>
+        <v>0.638341</v>
       </c>
       <c r="D87" t="n">
-        <v>1.21219</v>
+        <v>0.707843</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.45549</v>
+        <v>0.946317</v>
       </c>
       <c r="C88" t="n">
-        <v>1.20918</v>
+        <v>0.629526</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21212</v>
+        <v>0.706439</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.49157</v>
+        <v>0.972602</v>
       </c>
       <c r="C89" t="n">
-        <v>1.23419</v>
+        <v>0.612626</v>
       </c>
       <c r="D89" t="n">
-        <v>1.24041</v>
+        <v>0.700085</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.4701</v>
+        <v>0.958913</v>
       </c>
       <c r="C90" t="n">
-        <v>1.21003</v>
+        <v>0.629854</v>
       </c>
       <c r="D90" t="n">
-        <v>1.21142</v>
+        <v>0.703913</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.39933</v>
+        <v>0.920925</v>
       </c>
       <c r="C91" t="n">
-        <v>1.167</v>
+        <v>0.630292</v>
       </c>
       <c r="D91" t="n">
-        <v>1.1475</v>
+        <v>0.693685</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.39921</v>
+        <v>0.920153</v>
       </c>
       <c r="C92" t="n">
-        <v>1.18476</v>
+        <v>0.62358</v>
       </c>
       <c r="D92" t="n">
-        <v>1.15391</v>
+        <v>0.68374</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.46408</v>
+        <v>0.9443</v>
       </c>
       <c r="C93" t="n">
-        <v>1.20256</v>
+        <v>0.638862</v>
       </c>
       <c r="D93" t="n">
-        <v>1.20073</v>
+        <v>0.722233</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.38695</v>
+        <v>0.944072</v>
       </c>
       <c r="C94" t="n">
-        <v>1.1901</v>
+        <v>0.645332</v>
       </c>
       <c r="D94" t="n">
-        <v>1.5352</v>
+        <v>1.04508</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.77424</v>
+        <v>1.27968</v>
       </c>
       <c r="C95" t="n">
-        <v>1.48981</v>
+        <v>0.816234</v>
       </c>
       <c r="D95" t="n">
-        <v>1.53739</v>
+        <v>1.00564</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.77189</v>
+        <v>1.31826</v>
       </c>
       <c r="C96" t="n">
-        <v>1.49568</v>
+        <v>0.832355</v>
       </c>
       <c r="D96" t="n">
-        <v>1.53536</v>
+        <v>0.992852</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.76721</v>
+        <v>1.28333</v>
       </c>
       <c r="C97" t="n">
-        <v>1.55079</v>
+        <v>0.817167</v>
       </c>
       <c r="D97" t="n">
-        <v>1.59563</v>
+        <v>1.01415</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.8409</v>
+        <v>1.29375</v>
       </c>
       <c r="C98" t="n">
-        <v>1.53496</v>
+        <v>0.83134</v>
       </c>
       <c r="D98" t="n">
-        <v>1.54522</v>
+        <v>1.02422</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.73505</v>
+        <v>1.27837</v>
       </c>
       <c r="C99" t="n">
-        <v>1.50175</v>
+        <v>0.81581</v>
       </c>
       <c r="D99" t="n">
-        <v>1.53369</v>
+        <v>0.985733</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.77478</v>
+        <v>1.29265</v>
       </c>
       <c r="C100" t="n">
-        <v>1.53732</v>
+        <v>0.821646</v>
       </c>
       <c r="D100" t="n">
-        <v>1.53997</v>
+        <v>1.02604</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.73964</v>
+        <v>1.28812</v>
       </c>
       <c r="C101" t="n">
-        <v>1.52276</v>
+        <v>0.82475</v>
       </c>
       <c r="D101" t="n">
-        <v>1.52379</v>
+        <v>1.03178</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.73158</v>
+        <v>1.28714</v>
       </c>
       <c r="C102" t="n">
-        <v>1.53163</v>
+        <v>0.820817</v>
       </c>
       <c r="D102" t="n">
-        <v>1.56875</v>
+        <v>1.03917</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.73974</v>
+        <v>1.27842</v>
       </c>
       <c r="C103" t="n">
-        <v>1.54987</v>
+        <v>0.833097</v>
       </c>
       <c r="D103" t="n">
-        <v>1.56677</v>
+        <v>1.01788</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.77547</v>
+        <v>1.32933</v>
       </c>
       <c r="C104" t="n">
-        <v>1.57596</v>
+        <v>0.822392</v>
       </c>
       <c r="D104" t="n">
-        <v>1.53998</v>
+        <v>1.0427</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.73037</v>
+        <v>1.28585</v>
       </c>
       <c r="C105" t="n">
-        <v>1.53886</v>
+        <v>0.849285</v>
       </c>
       <c r="D105" t="n">
-        <v>1.52829</v>
+        <v>1.00373</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.76706</v>
+        <v>1.31572</v>
       </c>
       <c r="C106" t="n">
-        <v>1.52883</v>
+        <v>0.841819</v>
       </c>
       <c r="D106" t="n">
-        <v>1.5333</v>
+        <v>1.04424</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.775</v>
+        <v>1.30817</v>
       </c>
       <c r="C107" t="n">
-        <v>1.53291</v>
+        <v>0.847617</v>
       </c>
       <c r="D107" t="n">
-        <v>1.57777</v>
+        <v>1.02458</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.72175</v>
+        <v>1.30505</v>
       </c>
       <c r="C108" t="n">
-        <v>1.52134</v>
+        <v>0.850828</v>
       </c>
       <c r="D108" t="n">
-        <v>1.75673</v>
+        <v>1.19804</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.76458</v>
+        <v>1.30651</v>
       </c>
       <c r="C109" t="n">
-        <v>1.5837</v>
+        <v>0.878136</v>
       </c>
       <c r="D109" t="n">
-        <v>1.75108</v>
+        <v>1.15735</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.08081</v>
+        <v>1.69249</v>
       </c>
       <c r="C110" t="n">
-        <v>1.73656</v>
+        <v>0.95681</v>
       </c>
       <c r="D110" t="n">
-        <v>1.74087</v>
+        <v>1.18238</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.1724</v>
+        <v>1.68106</v>
       </c>
       <c r="C111" t="n">
-        <v>1.713</v>
+        <v>0.969723</v>
       </c>
       <c r="D111" t="n">
-        <v>1.72298</v>
+        <v>1.18575</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.10646</v>
+        <v>1.62877</v>
       </c>
       <c r="C112" t="n">
-        <v>1.70671</v>
+        <v>0.941217</v>
       </c>
       <c r="D112" t="n">
-        <v>1.75708</v>
+        <v>1.16841</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.11784</v>
+        <v>1.6326</v>
       </c>
       <c r="C113" t="n">
-        <v>1.69538</v>
+        <v>0.942926</v>
       </c>
       <c r="D113" t="n">
-        <v>1.76519</v>
+        <v>1.16076</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.13009</v>
+        <v>1.64391</v>
       </c>
       <c r="C114" t="n">
-        <v>1.73726</v>
+        <v>0.956126</v>
       </c>
       <c r="D114" t="n">
-        <v>1.78733</v>
+        <v>1.18304</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.141</v>
+        <v>1.60256</v>
       </c>
       <c r="C115" t="n">
-        <v>1.73496</v>
+        <v>0.940961</v>
       </c>
       <c r="D115" t="n">
-        <v>1.78068</v>
+        <v>1.15869</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.17925</v>
+        <v>1.59142</v>
       </c>
       <c r="C116" t="n">
-        <v>1.71435</v>
+        <v>0.985551</v>
       </c>
       <c r="D116" t="n">
-        <v>1.80484</v>
+        <v>1.16873</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.16037</v>
+        <v>1.69684</v>
       </c>
       <c r="C117" t="n">
-        <v>1.73559</v>
+        <v>0.974834</v>
       </c>
       <c r="D117" t="n">
-        <v>1.82654</v>
+        <v>1.1887</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.13912</v>
+        <v>1.62319</v>
       </c>
       <c r="C118" t="n">
-        <v>1.7595</v>
+        <v>0.948877</v>
       </c>
       <c r="D118" t="n">
-        <v>1.78177</v>
+        <v>1.19359</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.15963</v>
+        <v>1.63947</v>
       </c>
       <c r="C119" t="n">
-        <v>1.78407</v>
+        <v>0.995044</v>
       </c>
       <c r="D119" t="n">
-        <v>1.806</v>
+        <v>1.2052</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>2.10662</v>
+        <v>1.68131</v>
       </c>
       <c r="C120" t="n">
-        <v>1.7706</v>
+        <v>0.977465</v>
       </c>
       <c r="D120" t="n">
-        <v>1.81658</v>
+        <v>1.23328</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>2.15973</v>
+        <v>1.65646</v>
       </c>
       <c r="C121" t="n">
-        <v>1.76332</v>
+        <v>0.997441</v>
       </c>
       <c r="D121" t="n">
-        <v>1.80236</v>
+        <v>1.20551</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>2.15246</v>
+        <v>1.65475</v>
       </c>
       <c r="C122" t="n">
-        <v>1.78879</v>
+        <v>0.987569</v>
       </c>
       <c r="D122" t="n">
-        <v>1.84173</v>
+        <v>1.21041</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>2.16097</v>
+        <v>1.6542</v>
       </c>
       <c r="C123" t="n">
-        <v>1.79893</v>
+        <v>1.00476</v>
       </c>
       <c r="D123" t="n">
-        <v>1.95273</v>
+        <v>1.29234</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.59512</v>
+        <v>2.05973</v>
       </c>
       <c r="C124" t="n">
-        <v>1.90458</v>
+        <v>1.13505</v>
       </c>
       <c r="D124" t="n">
-        <v>1.98369</v>
+        <v>1.31655</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.51758</v>
+        <v>2.05932</v>
       </c>
       <c r="C125" t="n">
-        <v>1.89168</v>
+        <v>1.16354</v>
       </c>
       <c r="D125" t="n">
-        <v>1.96104</v>
+        <v>1.33461</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.5128</v>
+        <v>2.06902</v>
       </c>
       <c r="C126" t="n">
-        <v>1.92811</v>
+        <v>1.13517</v>
       </c>
       <c r="D126" t="n">
-        <v>1.94402</v>
+        <v>1.30475</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.50703</v>
+        <v>2.05428</v>
       </c>
       <c r="C127" t="n">
-        <v>1.91223</v>
+        <v>1.09224</v>
       </c>
       <c r="D127" t="n">
-        <v>1.98171</v>
+        <v>1.2808</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.54966</v>
+        <v>2.05059</v>
       </c>
       <c r="C128" t="n">
-        <v>1.91074</v>
+        <v>1.11256</v>
       </c>
       <c r="D128" t="n">
-        <v>1.9703</v>
+        <v>1.32958</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.52269</v>
+        <v>2.03176</v>
       </c>
       <c r="C129" t="n">
-        <v>1.91794</v>
+        <v>1.15596</v>
       </c>
       <c r="D129" t="n">
-        <v>1.96777</v>
+        <v>1.29811</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.51914</v>
+        <v>2.06172</v>
       </c>
       <c r="C130" t="n">
-        <v>1.94004</v>
+        <v>1.13973</v>
       </c>
       <c r="D130" t="n">
-        <v>1.97707</v>
+        <v>1.304</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.52134</v>
+        <v>2.06435</v>
       </c>
       <c r="C131" t="n">
-        <v>1.93679</v>
+        <v>1.10973</v>
       </c>
       <c r="D131" t="n">
-        <v>1.96036</v>
+        <v>1.30256</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.50879</v>
+        <v>2.05149</v>
       </c>
       <c r="C132" t="n">
-        <v>1.94836</v>
+        <v>1.12397</v>
       </c>
       <c r="D132" t="n">
-        <v>1.97987</v>
+        <v>1.29664</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.51458</v>
+        <v>2.08247</v>
       </c>
       <c r="C133" t="n">
-        <v>1.9467</v>
+        <v>1.11939</v>
       </c>
       <c r="D133" t="n">
-        <v>1.96429</v>
+        <v>1.30511</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.50731</v>
+        <v>2.05762</v>
       </c>
       <c r="C134" t="n">
-        <v>1.95948</v>
+        <v>1.16679</v>
       </c>
       <c r="D134" t="n">
-        <v>1.99005</v>
+        <v>1.36699</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.53126</v>
+        <v>2.07678</v>
       </c>
       <c r="C135" t="n">
-        <v>1.97416</v>
+        <v>1.19545</v>
       </c>
       <c r="D135" t="n">
-        <v>2.02168</v>
+        <v>1.35597</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.53897</v>
+        <v>2.08792</v>
       </c>
       <c r="C136" t="n">
-        <v>1.97288</v>
+        <v>1.20319</v>
       </c>
       <c r="D136" t="n">
-        <v>2.0389</v>
+        <v>1.33519</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.5463</v>
+        <v>2.09297</v>
       </c>
       <c r="C137" t="n">
-        <v>1.9974</v>
+        <v>1.16399</v>
       </c>
       <c r="D137" t="n">
-        <v>2.08346</v>
+        <v>1.40655</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.8959</v>
+        <v>2.46588</v>
       </c>
       <c r="C138" t="n">
-        <v>2.05506</v>
+        <v>1.33328</v>
       </c>
       <c r="D138" t="n">
-        <v>2.07777</v>
+        <v>1.41724</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.90788</v>
+        <v>2.39712</v>
       </c>
       <c r="C139" t="n">
-        <v>2.12582</v>
+        <v>1.2261</v>
       </c>
       <c r="D139" t="n">
-        <v>2.08909</v>
+        <v>1.42105</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.89443</v>
+        <v>2.39226</v>
       </c>
       <c r="C140" t="n">
-        <v>2.13764</v>
+        <v>1.2252</v>
       </c>
       <c r="D140" t="n">
-        <v>2.1185</v>
+        <v>1.42808</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.86357</v>
+        <v>2.45078</v>
       </c>
       <c r="C141" t="n">
-        <v>2.15677</v>
+        <v>1.2178</v>
       </c>
       <c r="D141" t="n">
-        <v>2.10029</v>
+        <v>1.41786</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.90128</v>
+        <v>2.47591</v>
       </c>
       <c r="C142" t="n">
-        <v>2.1787</v>
+        <v>1.20242</v>
       </c>
       <c r="D142" t="n">
-        <v>2.20701</v>
+        <v>1.43983</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.89609</v>
+        <v>2.40743</v>
       </c>
       <c r="C143" t="n">
-        <v>2.18527</v>
+        <v>1.21949</v>
       </c>
       <c r="D143" t="n">
-        <v>2.10777</v>
+        <v>1.41494</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.310363</v>
+        <v>0.306362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.243807</v>
+        <v>0.247095</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249093</v>
+        <v>0.256488</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.300325</v>
+        <v>0.305763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.245109</v>
+        <v>0.245084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248429</v>
+        <v>0.248745</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.30121</v>
+        <v>0.308152</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248763</v>
+        <v>0.257869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.252862</v>
+        <v>0.262164</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.294311</v>
+        <v>0.314322</v>
       </c>
       <c r="C5" t="n">
-        <v>0.248935</v>
+        <v>0.250601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.252729</v>
+        <v>0.271325</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.300637</v>
+        <v>0.307721</v>
       </c>
       <c r="C6" t="n">
-        <v>0.251393</v>
+        <v>0.248738</v>
       </c>
       <c r="D6" t="n">
-        <v>0.258513</v>
+        <v>0.258371</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.295157</v>
+        <v>0.306922</v>
       </c>
       <c r="C7" t="n">
-        <v>0.250473</v>
+        <v>0.251088</v>
       </c>
       <c r="D7" t="n">
-        <v>0.260162</v>
+        <v>0.266945</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.304457</v>
+        <v>0.308999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.248612</v>
+        <v>0.254394</v>
       </c>
       <c r="D8" t="n">
-        <v>0.268946</v>
+        <v>0.273139</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.310129</v>
+        <v>0.315941</v>
       </c>
       <c r="C9" t="n">
-        <v>0.262602</v>
+        <v>0.259494</v>
       </c>
       <c r="D9" t="n">
-        <v>0.250813</v>
+        <v>0.257282</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.309575</v>
+        <v>0.304221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.243999</v>
+        <v>0.256558</v>
       </c>
       <c r="D10" t="n">
-        <v>0.253514</v>
+        <v>0.260916</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.318517</v>
+        <v>0.316972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.24513</v>
+        <v>0.251406</v>
       </c>
       <c r="D11" t="n">
-        <v>0.253918</v>
+        <v>0.257263</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.318983</v>
+        <v>0.306598</v>
       </c>
       <c r="C12" t="n">
-        <v>0.238594</v>
+        <v>0.25295</v>
       </c>
       <c r="D12" t="n">
-        <v>0.260663</v>
+        <v>0.257353</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.306817</v>
+        <v>0.321394</v>
       </c>
       <c r="C13" t="n">
-        <v>0.245882</v>
+        <v>0.249078</v>
       </c>
       <c r="D13" t="n">
-        <v>0.260056</v>
+        <v>0.255586</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312816</v>
+        <v>0.315381</v>
       </c>
       <c r="C14" t="n">
-        <v>0.253536</v>
+        <v>0.251551</v>
       </c>
       <c r="D14" t="n">
-        <v>0.254196</v>
+        <v>0.260215</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.301935</v>
+        <v>0.315066</v>
       </c>
       <c r="C15" t="n">
-        <v>0.252307</v>
+        <v>0.246473</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25399</v>
+        <v>0.264877</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.312089</v>
+        <v>0.315861</v>
       </c>
       <c r="C16" t="n">
-        <v>0.258254</v>
+        <v>0.258825</v>
       </c>
       <c r="D16" t="n">
-        <v>0.264855</v>
+        <v>0.264208</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.305336</v>
+        <v>0.313008</v>
       </c>
       <c r="C17" t="n">
-        <v>0.249676</v>
+        <v>0.251625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.257524</v>
+        <v>0.257565</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.309764</v>
+        <v>0.312455</v>
       </c>
       <c r="C18" t="n">
-        <v>0.243961</v>
+        <v>0.256817</v>
       </c>
       <c r="D18" t="n">
-        <v>0.255511</v>
+        <v>0.264857</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.312235</v>
+        <v>0.310448</v>
       </c>
       <c r="C19" t="n">
-        <v>0.256137</v>
+        <v>0.255369</v>
       </c>
       <c r="D19" t="n">
-        <v>0.256398</v>
+        <v>0.267898</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.310555</v>
+        <v>0.324251</v>
       </c>
       <c r="C20" t="n">
-        <v>0.253829</v>
+        <v>0.249806</v>
       </c>
       <c r="D20" t="n">
-        <v>0.267407</v>
+        <v>0.257675</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.311726</v>
+        <v>0.320264</v>
       </c>
       <c r="C21" t="n">
-        <v>0.261864</v>
+        <v>0.258168</v>
       </c>
       <c r="D21" t="n">
-        <v>0.262484</v>
+        <v>0.270726</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.319356</v>
+        <v>0.327051</v>
       </c>
       <c r="C22" t="n">
-        <v>0.261831</v>
+        <v>0.253773</v>
       </c>
       <c r="D22" t="n">
-        <v>0.275451</v>
+        <v>0.274626</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.31719</v>
+        <v>0.32535</v>
       </c>
       <c r="C23" t="n">
-        <v>0.273222</v>
+        <v>0.269407</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260959</v>
+        <v>0.272581</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.335242</v>
+        <v>0.335882</v>
       </c>
       <c r="C24" t="n">
-        <v>0.250366</v>
+        <v>0.26344</v>
       </c>
       <c r="D24" t="n">
-        <v>0.263257</v>
+        <v>0.270753</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.34241</v>
+        <v>0.33304</v>
       </c>
       <c r="C25" t="n">
-        <v>0.251647</v>
+        <v>0.264691</v>
       </c>
       <c r="D25" t="n">
-        <v>0.268639</v>
+        <v>0.276984</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.327029</v>
+        <v>0.333652</v>
       </c>
       <c r="C26" t="n">
-        <v>0.249545</v>
+        <v>0.263734</v>
       </c>
       <c r="D26" t="n">
-        <v>0.260874</v>
+        <v>0.274666</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332412</v>
+        <v>0.320924</v>
       </c>
       <c r="C27" t="n">
-        <v>0.253503</v>
+        <v>0.264146</v>
       </c>
       <c r="D27" t="n">
-        <v>0.269722</v>
+        <v>0.267467</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.350804</v>
+        <v>0.338815</v>
       </c>
       <c r="C28" t="n">
-        <v>0.251661</v>
+        <v>0.264284</v>
       </c>
       <c r="D28" t="n">
-        <v>0.263454</v>
+        <v>0.261832</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.331885</v>
+        <v>0.335667</v>
       </c>
       <c r="C29" t="n">
-        <v>0.25121</v>
+        <v>0.268439</v>
       </c>
       <c r="D29" t="n">
-        <v>0.268836</v>
+        <v>0.271542</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.334597</v>
+        <v>0.339216</v>
       </c>
       <c r="C30" t="n">
-        <v>0.255403</v>
+        <v>0.264565</v>
       </c>
       <c r="D30" t="n">
-        <v>0.266259</v>
+        <v>0.269908</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.343309</v>
+        <v>0.337471</v>
       </c>
       <c r="C31" t="n">
-        <v>0.259397</v>
+        <v>0.267022</v>
       </c>
       <c r="D31" t="n">
-        <v>0.270391</v>
+        <v>0.275881</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.344701</v>
+        <v>0.338171</v>
       </c>
       <c r="C32" t="n">
-        <v>0.26008</v>
+        <v>0.267745</v>
       </c>
       <c r="D32" t="n">
-        <v>0.278265</v>
+        <v>0.280159</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.336869</v>
+        <v>0.341406</v>
       </c>
       <c r="C33" t="n">
-        <v>0.260485</v>
+        <v>0.271276</v>
       </c>
       <c r="D33" t="n">
-        <v>0.270422</v>
+        <v>0.27201</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.329331</v>
+        <v>0.339383</v>
       </c>
       <c r="C34" t="n">
-        <v>0.258109</v>
+        <v>0.272883</v>
       </c>
       <c r="D34" t="n">
-        <v>0.273375</v>
+        <v>0.277227</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.33516</v>
+        <v>0.342704</v>
       </c>
       <c r="C35" t="n">
-        <v>0.26126</v>
+        <v>0.27172</v>
       </c>
       <c r="D35" t="n">
-        <v>0.286063</v>
+        <v>0.280985</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.349578</v>
+        <v>0.334628</v>
       </c>
       <c r="C36" t="n">
-        <v>0.26637</v>
+        <v>0.275487</v>
       </c>
       <c r="D36" t="n">
-        <v>0.288912</v>
+        <v>0.286324</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.334862</v>
+        <v>0.347763</v>
       </c>
       <c r="C37" t="n">
-        <v>0.267565</v>
+        <v>0.280473</v>
       </c>
       <c r="D37" t="n">
-        <v>0.268863</v>
+        <v>0.288235</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.355116</v>
+        <v>0.373148</v>
       </c>
       <c r="C38" t="n">
-        <v>0.254587</v>
+        <v>0.274773</v>
       </c>
       <c r="D38" t="n">
-        <v>0.270835</v>
+        <v>0.283346</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.35525</v>
+        <v>0.363608</v>
       </c>
       <c r="C39" t="n">
-        <v>0.264637</v>
+        <v>0.276723</v>
       </c>
       <c r="D39" t="n">
-        <v>0.279876</v>
+        <v>0.2827</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.385071</v>
+        <v>0.359436</v>
       </c>
       <c r="C40" t="n">
-        <v>0.258084</v>
+        <v>0.274432</v>
       </c>
       <c r="D40" t="n">
-        <v>0.276414</v>
+        <v>0.290774</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.353052</v>
+        <v>0.367092</v>
       </c>
       <c r="C41" t="n">
-        <v>0.264852</v>
+        <v>0.274699</v>
       </c>
       <c r="D41" t="n">
-        <v>0.271404</v>
+        <v>0.29295</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.363239</v>
+        <v>0.352643</v>
       </c>
       <c r="C42" t="n">
-        <v>0.258316</v>
+        <v>0.279126</v>
       </c>
       <c r="D42" t="n">
-        <v>0.274529</v>
+        <v>0.283871</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.363272</v>
+        <v>0.361238</v>
       </c>
       <c r="C43" t="n">
-        <v>0.267207</v>
+        <v>0.275621</v>
       </c>
       <c r="D43" t="n">
-        <v>0.273854</v>
+        <v>0.284498</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.362501</v>
+        <v>0.356234</v>
       </c>
       <c r="C44" t="n">
-        <v>0.267271</v>
+        <v>0.277445</v>
       </c>
       <c r="D44" t="n">
-        <v>0.28415</v>
+        <v>0.285993</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.366047</v>
+        <v>0.362889</v>
       </c>
       <c r="C45" t="n">
-        <v>0.265822</v>
+        <v>0.286264</v>
       </c>
       <c r="D45" t="n">
-        <v>0.27582</v>
+        <v>0.28925</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.37198</v>
+        <v>0.360747</v>
       </c>
       <c r="C46" t="n">
-        <v>0.265765</v>
+        <v>0.284608</v>
       </c>
       <c r="D46" t="n">
-        <v>0.277903</v>
+        <v>0.298407</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.380733</v>
+        <v>0.361409</v>
       </c>
       <c r="C47" t="n">
-        <v>0.273608</v>
+        <v>0.287618</v>
       </c>
       <c r="D47" t="n">
-        <v>0.297117</v>
+        <v>0.298108</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.37405</v>
+        <v>0.36287</v>
       </c>
       <c r="C48" t="n">
-        <v>0.265969</v>
+        <v>0.2792</v>
       </c>
       <c r="D48" t="n">
-        <v>0.281783</v>
+        <v>0.290346</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.360307</v>
+        <v>0.367384</v>
       </c>
       <c r="C49" t="n">
-        <v>0.276786</v>
+        <v>0.286592</v>
       </c>
       <c r="D49" t="n">
-        <v>0.286007</v>
+        <v>0.290232</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.368705</v>
+        <v>0.362484</v>
       </c>
       <c r="C50" t="n">
-        <v>0.282133</v>
+        <v>0.294021</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293176</v>
+        <v>0.306993</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.37496</v>
+        <v>0.371815</v>
       </c>
       <c r="C51" t="n">
-        <v>0.281332</v>
+        <v>0.283739</v>
       </c>
       <c r="D51" t="n">
-        <v>0.312082</v>
+        <v>0.337418</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.375989</v>
+        <v>0.370035</v>
       </c>
       <c r="C52" t="n">
-        <v>0.293343</v>
+        <v>0.298855</v>
       </c>
       <c r="D52" t="n">
-        <v>0.311405</v>
+        <v>0.330137</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.41477</v>
+        <v>0.421364</v>
       </c>
       <c r="C53" t="n">
-        <v>0.289571</v>
+        <v>0.321271</v>
       </c>
       <c r="D53" t="n">
-        <v>0.312866</v>
+        <v>0.328192</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.431014</v>
+        <v>0.434722</v>
       </c>
       <c r="C54" t="n">
-        <v>0.294523</v>
+        <v>0.321602</v>
       </c>
       <c r="D54" t="n">
-        <v>0.312104</v>
+        <v>0.332326</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.432044</v>
+        <v>0.419577</v>
       </c>
       <c r="C55" t="n">
-        <v>0.298877</v>
+        <v>0.306862</v>
       </c>
       <c r="D55" t="n">
-        <v>0.314594</v>
+        <v>0.339032</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.419266</v>
+        <v>0.425004</v>
       </c>
       <c r="C56" t="n">
-        <v>0.301616</v>
+        <v>0.317546</v>
       </c>
       <c r="D56" t="n">
-        <v>0.321221</v>
+        <v>0.3343</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.447771</v>
+        <v>0.415044</v>
       </c>
       <c r="C57" t="n">
-        <v>0.291918</v>
+        <v>0.322362</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309967</v>
+        <v>0.345876</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.418738</v>
+        <v>0.418057</v>
       </c>
       <c r="C58" t="n">
-        <v>0.303874</v>
+        <v>0.316301</v>
       </c>
       <c r="D58" t="n">
-        <v>0.318271</v>
+        <v>0.32893</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.41451</v>
+        <v>0.412214</v>
       </c>
       <c r="C59" t="n">
-        <v>0.298528</v>
+        <v>0.32557</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3115</v>
+        <v>0.326305</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.425438</v>
+        <v>0.424035</v>
       </c>
       <c r="C60" t="n">
-        <v>0.299895</v>
+        <v>0.333469</v>
       </c>
       <c r="D60" t="n">
-        <v>0.318469</v>
+        <v>0.342272</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.425399</v>
+        <v>0.430868</v>
       </c>
       <c r="C61" t="n">
-        <v>0.293961</v>
+        <v>0.322598</v>
       </c>
       <c r="D61" t="n">
-        <v>0.318274</v>
+        <v>0.339379</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.421885</v>
+        <v>0.428012</v>
       </c>
       <c r="C62" t="n">
-        <v>0.309447</v>
+        <v>0.337758</v>
       </c>
       <c r="D62" t="n">
-        <v>0.313972</v>
+        <v>0.34413</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.43125</v>
+        <v>0.418709</v>
       </c>
       <c r="C63" t="n">
-        <v>0.301547</v>
+        <v>0.327859</v>
       </c>
       <c r="D63" t="n">
-        <v>0.336952</v>
+        <v>0.346383</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.420575</v>
+        <v>0.433378</v>
       </c>
       <c r="C64" t="n">
-        <v>0.30456</v>
+        <v>0.334396</v>
       </c>
       <c r="D64" t="n">
-        <v>0.338073</v>
+        <v>0.338003</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.425275</v>
+        <v>0.431518</v>
       </c>
       <c r="C65" t="n">
-        <v>0.31141</v>
+        <v>0.32806</v>
       </c>
       <c r="D65" t="n">
-        <v>0.333579</v>
+        <v>0.348546</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.435553</v>
+        <v>0.416362</v>
       </c>
       <c r="C66" t="n">
-        <v>0.317697</v>
+        <v>0.338674</v>
       </c>
       <c r="D66" t="n">
-        <v>0.415778</v>
+        <v>0.444491</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.611504</v>
+        <v>0.598978</v>
       </c>
       <c r="C67" t="n">
-        <v>0.397184</v>
+        <v>0.430945</v>
       </c>
       <c r="D67" t="n">
-        <v>0.418957</v>
+        <v>0.439122</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.601465</v>
+        <v>0.59721</v>
       </c>
       <c r="C68" t="n">
-        <v>0.39397</v>
+        <v>0.406805</v>
       </c>
       <c r="D68" t="n">
-        <v>0.422016</v>
+        <v>0.429874</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.582221</v>
+        <v>0.587714</v>
       </c>
       <c r="C69" t="n">
-        <v>0.392887</v>
+        <v>0.422043</v>
       </c>
       <c r="D69" t="n">
-        <v>0.423185</v>
+        <v>0.441205</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.592074</v>
+        <v>0.606121</v>
       </c>
       <c r="C70" t="n">
-        <v>0.404072</v>
+        <v>0.412523</v>
       </c>
       <c r="D70" t="n">
-        <v>0.433352</v>
+        <v>0.448331</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.61498</v>
+        <v>0.5985470000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.396367</v>
+        <v>0.421377</v>
       </c>
       <c r="D71" t="n">
-        <v>0.413799</v>
+        <v>0.461652</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.569524</v>
+        <v>0.589286</v>
       </c>
       <c r="C72" t="n">
-        <v>0.397163</v>
+        <v>0.424518</v>
       </c>
       <c r="D72" t="n">
-        <v>0.441628</v>
+        <v>0.435845</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.577364</v>
+        <v>0.6031530000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.396025</v>
+        <v>0.415619</v>
       </c>
       <c r="D73" t="n">
-        <v>0.422346</v>
+        <v>0.458443</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5943079999999999</v>
+        <v>0.588442</v>
       </c>
       <c r="C74" t="n">
-        <v>0.392517</v>
+        <v>0.432845</v>
       </c>
       <c r="D74" t="n">
-        <v>0.415394</v>
+        <v>0.442777</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.586297</v>
+        <v>0.599615</v>
       </c>
       <c r="C75" t="n">
-        <v>0.392986</v>
+        <v>0.406687</v>
       </c>
       <c r="D75" t="n">
-        <v>0.41863</v>
+        <v>0.456446</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.586686</v>
+        <v>0.574831</v>
       </c>
       <c r="C76" t="n">
-        <v>0.398041</v>
+        <v>0.440896</v>
       </c>
       <c r="D76" t="n">
-        <v>0.424315</v>
+        <v>0.444845</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.569959</v>
+        <v>0.580738</v>
       </c>
       <c r="C77" t="n">
-        <v>0.406722</v>
+        <v>0.416904</v>
       </c>
       <c r="D77" t="n">
-        <v>0.440089</v>
+        <v>0.447079</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.581188</v>
+        <v>0.605854</v>
       </c>
       <c r="C78" t="n">
-        <v>0.400935</v>
+        <v>0.421971</v>
       </c>
       <c r="D78" t="n">
-        <v>0.424196</v>
+        <v>0.449487</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.611531</v>
+        <v>0.599252</v>
       </c>
       <c r="C79" t="n">
-        <v>0.400266</v>
+        <v>0.438747</v>
       </c>
       <c r="D79" t="n">
-        <v>0.438339</v>
+        <v>0.47016</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.596482</v>
+        <v>0.627136</v>
       </c>
       <c r="C80" t="n">
-        <v>0.408788</v>
+        <v>0.444837</v>
       </c>
       <c r="D80" t="n">
-        <v>0.697363</v>
+        <v>0.669335</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9258150000000001</v>
+        <v>0.905973</v>
       </c>
       <c r="C81" t="n">
-        <v>0.600617</v>
+        <v>0.641509</v>
       </c>
       <c r="D81" t="n">
-        <v>0.709054</v>
+        <v>0.681152</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.919259</v>
+        <v>0.931355</v>
       </c>
       <c r="C82" t="n">
-        <v>0.601942</v>
+        <v>0.6496150000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.682907</v>
+        <v>0.701951</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.968569</v>
+        <v>0.927767</v>
       </c>
       <c r="C83" t="n">
-        <v>0.654483</v>
+        <v>0.636118</v>
       </c>
       <c r="D83" t="n">
-        <v>0.715348</v>
+        <v>0.6647</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.952273</v>
+        <v>0.943574</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6260559999999999</v>
+        <v>0.646855</v>
       </c>
       <c r="D84" t="n">
-        <v>0.733623</v>
+        <v>0.648477</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.93349</v>
+        <v>0.956821</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6056820000000001</v>
+        <v>0.623133</v>
       </c>
       <c r="D85" t="n">
-        <v>0.701408</v>
+        <v>0.695782</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.96392</v>
+        <v>0.939567</v>
       </c>
       <c r="C86" t="n">
-        <v>0.63059</v>
+        <v>0.66008</v>
       </c>
       <c r="D86" t="n">
-        <v>0.693246</v>
+        <v>0.693659</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.94804</v>
+        <v>0.9581769999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.638341</v>
+        <v>0.618495</v>
       </c>
       <c r="D87" t="n">
-        <v>0.707843</v>
+        <v>0.704456</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.946317</v>
+        <v>0.933185</v>
       </c>
       <c r="C88" t="n">
-        <v>0.629526</v>
+        <v>0.666189</v>
       </c>
       <c r="D88" t="n">
-        <v>0.706439</v>
+        <v>0.667713</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.972602</v>
+        <v>0.942491</v>
       </c>
       <c r="C89" t="n">
-        <v>0.612626</v>
+        <v>0.631846</v>
       </c>
       <c r="D89" t="n">
-        <v>0.700085</v>
+        <v>0.658174</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.958913</v>
+        <v>0.960793</v>
       </c>
       <c r="C90" t="n">
-        <v>0.629854</v>
+        <v>0.636478</v>
       </c>
       <c r="D90" t="n">
-        <v>0.703913</v>
+        <v>0.650015</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.920925</v>
+        <v>0.915478</v>
       </c>
       <c r="C91" t="n">
-        <v>0.630292</v>
+        <v>0.649845</v>
       </c>
       <c r="D91" t="n">
-        <v>0.693685</v>
+        <v>0.680218</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.920153</v>
+        <v>0.90568</v>
       </c>
       <c r="C92" t="n">
-        <v>0.62358</v>
+        <v>0.668627</v>
       </c>
       <c r="D92" t="n">
-        <v>0.68374</v>
+        <v>0.663071</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9443</v>
+        <v>0.974042</v>
       </c>
       <c r="C93" t="n">
-        <v>0.638862</v>
+        <v>0.666235</v>
       </c>
       <c r="D93" t="n">
-        <v>0.722233</v>
+        <v>0.698395</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.944072</v>
+        <v>0.993289</v>
       </c>
       <c r="C94" t="n">
-        <v>0.645332</v>
+        <v>0.695917</v>
       </c>
       <c r="D94" t="n">
-        <v>1.04508</v>
+        <v>1.03358</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.27968</v>
+        <v>1.24736</v>
       </c>
       <c r="C95" t="n">
-        <v>0.816234</v>
+        <v>0.884026</v>
       </c>
       <c r="D95" t="n">
-        <v>1.00564</v>
+        <v>0.984869</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.31826</v>
+        <v>1.26122</v>
       </c>
       <c r="C96" t="n">
-        <v>0.832355</v>
+        <v>0.891834</v>
       </c>
       <c r="D96" t="n">
-        <v>0.992852</v>
+        <v>1.05478</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.28333</v>
+        <v>1.32023</v>
       </c>
       <c r="C97" t="n">
-        <v>0.817167</v>
+        <v>0.871274</v>
       </c>
       <c r="D97" t="n">
-        <v>1.01415</v>
+        <v>1.01932</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.29375</v>
+        <v>1.2599</v>
       </c>
       <c r="C98" t="n">
-        <v>0.83134</v>
+        <v>0.87277</v>
       </c>
       <c r="D98" t="n">
-        <v>1.02422</v>
+        <v>0.981497</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.27837</v>
+        <v>1.30901</v>
       </c>
       <c r="C99" t="n">
-        <v>0.81581</v>
+        <v>0.910601</v>
       </c>
       <c r="D99" t="n">
-        <v>0.985733</v>
+        <v>1.04975</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.29265</v>
+        <v>1.29375</v>
       </c>
       <c r="C100" t="n">
-        <v>0.821646</v>
+        <v>0.889736</v>
       </c>
       <c r="D100" t="n">
-        <v>1.02604</v>
+        <v>0.9884810000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.28812</v>
+        <v>1.30605</v>
       </c>
       <c r="C101" t="n">
-        <v>0.82475</v>
+        <v>0.882659</v>
       </c>
       <c r="D101" t="n">
-        <v>1.03178</v>
+        <v>1.02922</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.28714</v>
+        <v>1.28542</v>
       </c>
       <c r="C102" t="n">
-        <v>0.820817</v>
+        <v>0.876636</v>
       </c>
       <c r="D102" t="n">
-        <v>1.03917</v>
+        <v>0.9799369999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.27842</v>
+        <v>1.31407</v>
       </c>
       <c r="C103" t="n">
-        <v>0.833097</v>
+        <v>0.867015</v>
       </c>
       <c r="D103" t="n">
-        <v>1.01788</v>
+        <v>1.05597</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.32933</v>
+        <v>1.30202</v>
       </c>
       <c r="C104" t="n">
-        <v>0.822392</v>
+        <v>0.907718</v>
       </c>
       <c r="D104" t="n">
-        <v>1.0427</v>
+        <v>0.9728520000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.28585</v>
+        <v>1.2923</v>
       </c>
       <c r="C105" t="n">
-        <v>0.849285</v>
+        <v>0.904806</v>
       </c>
       <c r="D105" t="n">
-        <v>1.00373</v>
+        <v>0.980546</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.31572</v>
+        <v>1.30731</v>
       </c>
       <c r="C106" t="n">
-        <v>0.841819</v>
+        <v>0.917466</v>
       </c>
       <c r="D106" t="n">
-        <v>1.04424</v>
+        <v>0.986121</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.30817</v>
+        <v>1.35091</v>
       </c>
       <c r="C107" t="n">
-        <v>0.847617</v>
+        <v>0.913388</v>
       </c>
       <c r="D107" t="n">
-        <v>1.02458</v>
+        <v>0.96132</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.30505</v>
+        <v>1.28134</v>
       </c>
       <c r="C108" t="n">
-        <v>0.850828</v>
+        <v>0.906579</v>
       </c>
       <c r="D108" t="n">
-        <v>1.19804</v>
+        <v>1.22949</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.30651</v>
+        <v>1.25704</v>
       </c>
       <c r="C109" t="n">
-        <v>0.878136</v>
+        <v>0.9022520000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>1.15735</v>
+        <v>1.28735</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.69249</v>
+        <v>1.64605</v>
       </c>
       <c r="C110" t="n">
-        <v>0.95681</v>
+        <v>1.0998</v>
       </c>
       <c r="D110" t="n">
-        <v>1.18238</v>
+        <v>1.27843</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.68106</v>
+        <v>1.62795</v>
       </c>
       <c r="C111" t="n">
-        <v>0.969723</v>
+        <v>1.08968</v>
       </c>
       <c r="D111" t="n">
-        <v>1.18575</v>
+        <v>1.27095</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.62877</v>
+        <v>1.69685</v>
       </c>
       <c r="C112" t="n">
-        <v>0.941217</v>
+        <v>1.12456</v>
       </c>
       <c r="D112" t="n">
-        <v>1.16841</v>
+        <v>1.26461</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.6326</v>
+        <v>1.66058</v>
       </c>
       <c r="C113" t="n">
-        <v>0.942926</v>
+        <v>1.08399</v>
       </c>
       <c r="D113" t="n">
-        <v>1.16076</v>
+        <v>1.26974</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.64391</v>
+        <v>1.62692</v>
       </c>
       <c r="C114" t="n">
-        <v>0.956126</v>
+        <v>1.09684</v>
       </c>
       <c r="D114" t="n">
-        <v>1.18304</v>
+        <v>1.26077</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.60256</v>
+        <v>1.69499</v>
       </c>
       <c r="C115" t="n">
-        <v>0.940961</v>
+        <v>1.12</v>
       </c>
       <c r="D115" t="n">
-        <v>1.15869</v>
+        <v>1.26672</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.59142</v>
+        <v>1.66108</v>
       </c>
       <c r="C116" t="n">
-        <v>0.985551</v>
+        <v>1.15428</v>
       </c>
       <c r="D116" t="n">
-        <v>1.16873</v>
+        <v>1.26487</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.69684</v>
+        <v>1.69046</v>
       </c>
       <c r="C117" t="n">
-        <v>0.974834</v>
+        <v>1.12792</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1887</v>
+        <v>1.28007</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.62319</v>
+        <v>1.71233</v>
       </c>
       <c r="C118" t="n">
-        <v>0.948877</v>
+        <v>1.10553</v>
       </c>
       <c r="D118" t="n">
-        <v>1.19359</v>
+        <v>1.25173</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.63947</v>
+        <v>1.64385</v>
       </c>
       <c r="C119" t="n">
-        <v>0.995044</v>
+        <v>1.11945</v>
       </c>
       <c r="D119" t="n">
-        <v>1.2052</v>
+        <v>1.25634</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.68131</v>
+        <v>1.71885</v>
       </c>
       <c r="C120" t="n">
-        <v>0.977465</v>
+        <v>1.13244</v>
       </c>
       <c r="D120" t="n">
-        <v>1.23328</v>
+        <v>1.27507</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.65646</v>
+        <v>1.68522</v>
       </c>
       <c r="C121" t="n">
-        <v>0.997441</v>
+        <v>1.14679</v>
       </c>
       <c r="D121" t="n">
-        <v>1.20551</v>
+        <v>1.26232</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.65475</v>
+        <v>1.68112</v>
       </c>
       <c r="C122" t="n">
-        <v>0.987569</v>
+        <v>1.12218</v>
       </c>
       <c r="D122" t="n">
-        <v>1.21041</v>
+        <v>1.27809</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.6542</v>
+        <v>1.67852</v>
       </c>
       <c r="C123" t="n">
-        <v>1.00476</v>
+        <v>1.17011</v>
       </c>
       <c r="D123" t="n">
-        <v>1.29234</v>
+        <v>1.46696</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.05973</v>
+        <v>2.07616</v>
       </c>
       <c r="C124" t="n">
-        <v>1.13505</v>
+        <v>1.38601</v>
       </c>
       <c r="D124" t="n">
-        <v>1.31655</v>
+        <v>1.45459</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.05932</v>
+        <v>2.07833</v>
       </c>
       <c r="C125" t="n">
-        <v>1.16354</v>
+        <v>1.38305</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33461</v>
+        <v>1.46212</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.06902</v>
+        <v>2.07277</v>
       </c>
       <c r="C126" t="n">
-        <v>1.13517</v>
+        <v>1.38452</v>
       </c>
       <c r="D126" t="n">
-        <v>1.30475</v>
+        <v>1.47396</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.05428</v>
+        <v>2.05697</v>
       </c>
       <c r="C127" t="n">
-        <v>1.09224</v>
+        <v>1.36202</v>
       </c>
       <c r="D127" t="n">
-        <v>1.2808</v>
+        <v>1.47287</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.05059</v>
+        <v>2.04604</v>
       </c>
       <c r="C128" t="n">
-        <v>1.11256</v>
+        <v>1.37841</v>
       </c>
       <c r="D128" t="n">
-        <v>1.32958</v>
+        <v>1.46851</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.03176</v>
+        <v>2.08771</v>
       </c>
       <c r="C129" t="n">
-        <v>1.15596</v>
+        <v>1.38394</v>
       </c>
       <c r="D129" t="n">
-        <v>1.29811</v>
+        <v>1.49354</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.06172</v>
+        <v>2.25959</v>
       </c>
       <c r="C130" t="n">
-        <v>1.13973</v>
+        <v>1.41596</v>
       </c>
       <c r="D130" t="n">
-        <v>1.304</v>
+        <v>1.47194</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.06435</v>
+        <v>2.10623</v>
       </c>
       <c r="C131" t="n">
-        <v>1.10973</v>
+        <v>1.38509</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30256</v>
+        <v>1.47277</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.05149</v>
+        <v>2.06488</v>
       </c>
       <c r="C132" t="n">
-        <v>1.12397</v>
+        <v>1.394</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29664</v>
+        <v>1.47228</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.08247</v>
+        <v>2.05406</v>
       </c>
       <c r="C133" t="n">
-        <v>1.11939</v>
+        <v>1.41358</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30511</v>
+        <v>1.48025</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.05762</v>
+        <v>2.0767</v>
       </c>
       <c r="C134" t="n">
-        <v>1.16679</v>
+        <v>1.38634</v>
       </c>
       <c r="D134" t="n">
-        <v>1.36699</v>
+        <v>1.44651</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.07678</v>
+        <v>2.0943</v>
       </c>
       <c r="C135" t="n">
-        <v>1.19545</v>
+        <v>1.39031</v>
       </c>
       <c r="D135" t="n">
-        <v>1.35597</v>
+        <v>1.46943</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.08792</v>
+        <v>2.07889</v>
       </c>
       <c r="C136" t="n">
-        <v>1.20319</v>
+        <v>1.40232</v>
       </c>
       <c r="D136" t="n">
-        <v>1.33519</v>
+        <v>1.47774</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.09297</v>
+        <v>2.08774</v>
       </c>
       <c r="C137" t="n">
-        <v>1.16399</v>
+        <v>1.43292</v>
       </c>
       <c r="D137" t="n">
-        <v>1.40655</v>
+        <v>1.65256</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.46588</v>
+        <v>2.40132</v>
       </c>
       <c r="C138" t="n">
-        <v>1.33328</v>
+        <v>1.60775</v>
       </c>
       <c r="D138" t="n">
-        <v>1.41724</v>
+        <v>1.65849</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.39712</v>
+        <v>2.38934</v>
       </c>
       <c r="C139" t="n">
-        <v>1.2261</v>
+        <v>1.61821</v>
       </c>
       <c r="D139" t="n">
-        <v>1.42105</v>
+        <v>1.64191</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.39226</v>
+        <v>2.40817</v>
       </c>
       <c r="C140" t="n">
-        <v>1.2252</v>
+        <v>1.58694</v>
       </c>
       <c r="D140" t="n">
-        <v>1.42808</v>
+        <v>1.65076</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.45078</v>
+        <v>2.38676</v>
       </c>
       <c r="C141" t="n">
-        <v>1.2178</v>
+        <v>1.59489</v>
       </c>
       <c r="D141" t="n">
-        <v>1.41786</v>
+        <v>1.65773</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.47591</v>
+        <v>2.3876</v>
       </c>
       <c r="C142" t="n">
-        <v>1.20242</v>
+        <v>1.63017</v>
       </c>
       <c r="D142" t="n">
-        <v>1.43983</v>
+        <v>1.64857</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.40743</v>
+        <v>2.43472</v>
       </c>
       <c r="C143" t="n">
-        <v>1.21949</v>
+        <v>1.59973</v>
       </c>
       <c r="D143" t="n">
-        <v>1.41494</v>
+        <v>1.6462</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.306362</v>
+        <v>0.104365</v>
       </c>
       <c r="C2" t="n">
-        <v>0.247095</v>
+        <v>0.0857224</v>
       </c>
       <c r="D2" t="n">
-        <v>0.256488</v>
+        <v>0.0942664</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.305763</v>
+        <v>0.105186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.245084</v>
+        <v>0.0863748</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248745</v>
+        <v>0.0968044</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.308152</v>
+        <v>0.101537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.257869</v>
+        <v>0.0888196</v>
       </c>
       <c r="D4" t="n">
-        <v>0.262164</v>
+        <v>0.09792240000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.314322</v>
+        <v>0.103638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.250601</v>
+        <v>0.0878178</v>
       </c>
       <c r="D5" t="n">
-        <v>0.271325</v>
+        <v>0.0974013</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.307721</v>
+        <v>0.106283</v>
       </c>
       <c r="C6" t="n">
-        <v>0.248738</v>
+        <v>0.08871759999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.258371</v>
+        <v>0.0998424</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.306922</v>
+        <v>0.105893</v>
       </c>
       <c r="C7" t="n">
-        <v>0.251088</v>
+        <v>0.0863683</v>
       </c>
       <c r="D7" t="n">
-        <v>0.266945</v>
+        <v>0.100669</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.308999</v>
+        <v>0.102847</v>
       </c>
       <c r="C8" t="n">
-        <v>0.254394</v>
+        <v>0.0891725</v>
       </c>
       <c r="D8" t="n">
-        <v>0.273139</v>
+        <v>0.103502</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.315941</v>
+        <v>0.104123</v>
       </c>
       <c r="C9" t="n">
-        <v>0.259494</v>
+        <v>0.0925665</v>
       </c>
       <c r="D9" t="n">
-        <v>0.257282</v>
+        <v>0.0979348</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.304221</v>
+        <v>0.110338</v>
       </c>
       <c r="C10" t="n">
-        <v>0.256558</v>
+        <v>0.0908456</v>
       </c>
       <c r="D10" t="n">
-        <v>0.260916</v>
+        <v>0.099402</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.316972</v>
+        <v>0.110784</v>
       </c>
       <c r="C11" t="n">
-        <v>0.251406</v>
+        <v>0.0920636</v>
       </c>
       <c r="D11" t="n">
-        <v>0.257263</v>
+        <v>0.09953720000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.306598</v>
+        <v>0.112163</v>
       </c>
       <c r="C12" t="n">
-        <v>0.25295</v>
+        <v>0.0921651</v>
       </c>
       <c r="D12" t="n">
-        <v>0.257353</v>
+        <v>0.0983221</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.321394</v>
+        <v>0.11256</v>
       </c>
       <c r="C13" t="n">
-        <v>0.249078</v>
+        <v>0.0904262</v>
       </c>
       <c r="D13" t="n">
-        <v>0.255586</v>
+        <v>0.0947981</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.315381</v>
+        <v>0.107987</v>
       </c>
       <c r="C14" t="n">
-        <v>0.251551</v>
+        <v>0.0921396</v>
       </c>
       <c r="D14" t="n">
-        <v>0.260215</v>
+        <v>0.0981741</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.315066</v>
+        <v>0.113654</v>
       </c>
       <c r="C15" t="n">
-        <v>0.246473</v>
+        <v>0.0929029</v>
       </c>
       <c r="D15" t="n">
-        <v>0.264877</v>
+        <v>0.097653</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.315861</v>
+        <v>0.110262</v>
       </c>
       <c r="C16" t="n">
-        <v>0.258825</v>
+        <v>0.0926419</v>
       </c>
       <c r="D16" t="n">
-        <v>0.264208</v>
+        <v>0.101401</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.313008</v>
+        <v>0.113249</v>
       </c>
       <c r="C17" t="n">
-        <v>0.251625</v>
+        <v>0.09349689999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.257565</v>
+        <v>0.100456</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.312455</v>
+        <v>0.108413</v>
       </c>
       <c r="C18" t="n">
-        <v>0.256817</v>
+        <v>0.0925392</v>
       </c>
       <c r="D18" t="n">
-        <v>0.264857</v>
+        <v>0.100995</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.310448</v>
+        <v>0.111306</v>
       </c>
       <c r="C19" t="n">
-        <v>0.255369</v>
+        <v>0.0952329</v>
       </c>
       <c r="D19" t="n">
-        <v>0.267898</v>
+        <v>0.101184</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.324251</v>
+        <v>0.110087</v>
       </c>
       <c r="C20" t="n">
-        <v>0.249806</v>
+        <v>0.09459289999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.257675</v>
+        <v>0.10235</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.320264</v>
+        <v>0.110882</v>
       </c>
       <c r="C21" t="n">
-        <v>0.258168</v>
+        <v>0.0950597</v>
       </c>
       <c r="D21" t="n">
-        <v>0.270726</v>
+        <v>0.106809</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.327051</v>
+        <v>0.115923</v>
       </c>
       <c r="C22" t="n">
-        <v>0.253773</v>
+        <v>0.0998029</v>
       </c>
       <c r="D22" t="n">
-        <v>0.274626</v>
+        <v>0.113544</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.32535</v>
+        <v>0.118695</v>
       </c>
       <c r="C23" t="n">
-        <v>0.269407</v>
+        <v>0.102882</v>
       </c>
       <c r="D23" t="n">
-        <v>0.272581</v>
+        <v>0.104419</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.335882</v>
+        <v>0.123307</v>
       </c>
       <c r="C24" t="n">
-        <v>0.26344</v>
+        <v>0.096451</v>
       </c>
       <c r="D24" t="n">
-        <v>0.270753</v>
+        <v>0.102871</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.33304</v>
+        <v>0.125283</v>
       </c>
       <c r="C25" t="n">
-        <v>0.264691</v>
+        <v>0.09596440000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.276984</v>
+        <v>0.106681</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.333652</v>
+        <v>0.124351</v>
       </c>
       <c r="C26" t="n">
-        <v>0.263734</v>
+        <v>0.0956574</v>
       </c>
       <c r="D26" t="n">
-        <v>0.274666</v>
+        <v>0.102364</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.320924</v>
+        <v>0.121016</v>
       </c>
       <c r="C27" t="n">
-        <v>0.264146</v>
+        <v>0.09706529999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.267467</v>
+        <v>0.102169</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.338815</v>
+        <v>0.124632</v>
       </c>
       <c r="C28" t="n">
-        <v>0.264284</v>
+        <v>0.09774049999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.261832</v>
+        <v>0.103205</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.335667</v>
+        <v>0.12721</v>
       </c>
       <c r="C29" t="n">
-        <v>0.268439</v>
+        <v>0.09730270000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.271542</v>
+        <v>0.104996</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.339216</v>
+        <v>0.126066</v>
       </c>
       <c r="C30" t="n">
-        <v>0.264565</v>
+        <v>0.0962102</v>
       </c>
       <c r="D30" t="n">
-        <v>0.269908</v>
+        <v>0.106655</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.337471</v>
+        <v>0.121982</v>
       </c>
       <c r="C31" t="n">
-        <v>0.267022</v>
+        <v>0.09945180000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.275881</v>
+        <v>0.106299</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.338171</v>
+        <v>0.127824</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267745</v>
+        <v>0.09786</v>
       </c>
       <c r="D32" t="n">
-        <v>0.280159</v>
+        <v>0.104398</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.341406</v>
+        <v>0.123058</v>
       </c>
       <c r="C33" t="n">
-        <v>0.271276</v>
+        <v>0.100254</v>
       </c>
       <c r="D33" t="n">
-        <v>0.27201</v>
+        <v>0.107669</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.339383</v>
+        <v>0.125483</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272883</v>
+        <v>0.100917</v>
       </c>
       <c r="D34" t="n">
-        <v>0.277227</v>
+        <v>0.110216</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.342704</v>
+        <v>0.123367</v>
       </c>
       <c r="C35" t="n">
-        <v>0.27172</v>
+        <v>0.1077</v>
       </c>
       <c r="D35" t="n">
-        <v>0.280985</v>
+        <v>0.112924</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.334628</v>
+        <v>0.130535</v>
       </c>
       <c r="C36" t="n">
-        <v>0.275487</v>
+        <v>0.103644</v>
       </c>
       <c r="D36" t="n">
-        <v>0.286324</v>
+        <v>0.122956</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.347763</v>
+        <v>0.128044</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280473</v>
+        <v>0.109693</v>
       </c>
       <c r="D37" t="n">
-        <v>0.288235</v>
+        <v>0.107302</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.373148</v>
+        <v>0.130928</v>
       </c>
       <c r="C38" t="n">
-        <v>0.274773</v>
+        <v>0.099139</v>
       </c>
       <c r="D38" t="n">
-        <v>0.283346</v>
+        <v>0.110292</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.363608</v>
+        <v>0.132972</v>
       </c>
       <c r="C39" t="n">
-        <v>0.276723</v>
+        <v>0.09924040000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2827</v>
+        <v>0.113133</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.359436</v>
+        <v>0.134711</v>
       </c>
       <c r="C40" t="n">
-        <v>0.274432</v>
+        <v>0.09961250000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.290774</v>
+        <v>0.113258</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.367092</v>
+        <v>0.135248</v>
       </c>
       <c r="C41" t="n">
-        <v>0.274699</v>
+        <v>0.102108</v>
       </c>
       <c r="D41" t="n">
-        <v>0.29295</v>
+        <v>0.10823</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.352643</v>
+        <v>0.134373</v>
       </c>
       <c r="C42" t="n">
-        <v>0.279126</v>
+        <v>0.100392</v>
       </c>
       <c r="D42" t="n">
-        <v>0.283871</v>
+        <v>0.112904</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.361238</v>
+        <v>0.140815</v>
       </c>
       <c r="C43" t="n">
-        <v>0.275621</v>
+        <v>0.101762</v>
       </c>
       <c r="D43" t="n">
-        <v>0.284498</v>
+        <v>0.110104</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.356234</v>
+        <v>0.138198</v>
       </c>
       <c r="C44" t="n">
-        <v>0.277445</v>
+        <v>0.103757</v>
       </c>
       <c r="D44" t="n">
-        <v>0.285993</v>
+        <v>0.110002</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.362889</v>
+        <v>0.137162</v>
       </c>
       <c r="C45" t="n">
-        <v>0.286264</v>
+        <v>0.102772</v>
       </c>
       <c r="D45" t="n">
-        <v>0.28925</v>
+        <v>0.114606</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.360747</v>
+        <v>0.137791</v>
       </c>
       <c r="C46" t="n">
-        <v>0.284608</v>
+        <v>0.104797</v>
       </c>
       <c r="D46" t="n">
-        <v>0.298407</v>
+        <v>0.117585</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.361409</v>
+        <v>0.139809</v>
       </c>
       <c r="C47" t="n">
-        <v>0.287618</v>
+        <v>0.105627</v>
       </c>
       <c r="D47" t="n">
-        <v>0.298108</v>
+        <v>0.118093</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.36287</v>
+        <v>0.13468</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2792</v>
+        <v>0.104662</v>
       </c>
       <c r="D48" t="n">
-        <v>0.290346</v>
+        <v>0.11641</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.367384</v>
+        <v>0.142905</v>
       </c>
       <c r="C49" t="n">
-        <v>0.286592</v>
+        <v>0.11066</v>
       </c>
       <c r="D49" t="n">
-        <v>0.290232</v>
+        <v>0.118951</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.362484</v>
+        <v>0.139898</v>
       </c>
       <c r="C50" t="n">
-        <v>0.294021</v>
+        <v>0.11175</v>
       </c>
       <c r="D50" t="n">
-        <v>0.306993</v>
+        <v>0.126522</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.371815</v>
+        <v>0.141694</v>
       </c>
       <c r="C51" t="n">
-        <v>0.283739</v>
+        <v>0.114868</v>
       </c>
       <c r="D51" t="n">
-        <v>0.337418</v>
+        <v>0.136896</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.370035</v>
+        <v>0.147263</v>
       </c>
       <c r="C52" t="n">
-        <v>0.298855</v>
+        <v>0.118818</v>
       </c>
       <c r="D52" t="n">
-        <v>0.330137</v>
+        <v>0.134811</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.421364</v>
+        <v>0.171516</v>
       </c>
       <c r="C53" t="n">
-        <v>0.321271</v>
+        <v>0.127496</v>
       </c>
       <c r="D53" t="n">
-        <v>0.328192</v>
+        <v>0.140946</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.434722</v>
+        <v>0.170259</v>
       </c>
       <c r="C54" t="n">
-        <v>0.321602</v>
+        <v>0.128314</v>
       </c>
       <c r="D54" t="n">
-        <v>0.332326</v>
+        <v>0.137295</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.419577</v>
+        <v>0.165099</v>
       </c>
       <c r="C55" t="n">
-        <v>0.306862</v>
+        <v>0.126438</v>
       </c>
       <c r="D55" t="n">
-        <v>0.339032</v>
+        <v>0.134732</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.425004</v>
+        <v>0.166585</v>
       </c>
       <c r="C56" t="n">
-        <v>0.317546</v>
+        <v>0.125132</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3343</v>
+        <v>0.141036</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.415044</v>
+        <v>0.172381</v>
       </c>
       <c r="C57" t="n">
-        <v>0.322362</v>
+        <v>0.124612</v>
       </c>
       <c r="D57" t="n">
-        <v>0.345876</v>
+        <v>0.142067</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.418057</v>
+        <v>0.171586</v>
       </c>
       <c r="C58" t="n">
-        <v>0.316301</v>
+        <v>0.130452</v>
       </c>
       <c r="D58" t="n">
-        <v>0.32893</v>
+        <v>0.137968</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.412214</v>
+        <v>0.173318</v>
       </c>
       <c r="C59" t="n">
-        <v>0.32557</v>
+        <v>0.128999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326305</v>
+        <v>0.141926</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.424035</v>
+        <v>0.166647</v>
       </c>
       <c r="C60" t="n">
-        <v>0.333469</v>
+        <v>0.131547</v>
       </c>
       <c r="D60" t="n">
-        <v>0.342272</v>
+        <v>0.140053</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.430868</v>
+        <v>0.172334</v>
       </c>
       <c r="C61" t="n">
-        <v>0.322598</v>
+        <v>0.130547</v>
       </c>
       <c r="D61" t="n">
-        <v>0.339379</v>
+        <v>0.143798</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.428012</v>
+        <v>0.171685</v>
       </c>
       <c r="C62" t="n">
-        <v>0.337758</v>
+        <v>0.131662</v>
       </c>
       <c r="D62" t="n">
-        <v>0.34413</v>
+        <v>0.144904</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.418709</v>
+        <v>0.174119</v>
       </c>
       <c r="C63" t="n">
-        <v>0.327859</v>
+        <v>0.135031</v>
       </c>
       <c r="D63" t="n">
-        <v>0.346383</v>
+        <v>0.149711</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.433378</v>
+        <v>0.172025</v>
       </c>
       <c r="C64" t="n">
-        <v>0.334396</v>
+        <v>0.141113</v>
       </c>
       <c r="D64" t="n">
-        <v>0.338003</v>
+        <v>0.150044</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.431518</v>
+        <v>0.173363</v>
       </c>
       <c r="C65" t="n">
-        <v>0.32806</v>
+        <v>0.138605</v>
       </c>
       <c r="D65" t="n">
-        <v>0.348546</v>
+        <v>0.159953</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.416362</v>
+        <v>0.179085</v>
       </c>
       <c r="C66" t="n">
-        <v>0.338674</v>
+        <v>0.151549</v>
       </c>
       <c r="D66" t="n">
-        <v>0.444491</v>
+        <v>0.215667</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.598978</v>
+        <v>0.275433</v>
       </c>
       <c r="C67" t="n">
-        <v>0.430945</v>
+        <v>0.212767</v>
       </c>
       <c r="D67" t="n">
-        <v>0.439122</v>
+        <v>0.216167</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.59721</v>
+        <v>0.267738</v>
       </c>
       <c r="C68" t="n">
-        <v>0.406805</v>
+        <v>0.21333</v>
       </c>
       <c r="D68" t="n">
-        <v>0.429874</v>
+        <v>0.216292</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.587714</v>
+        <v>0.269494</v>
       </c>
       <c r="C69" t="n">
-        <v>0.422043</v>
+        <v>0.215823</v>
       </c>
       <c r="D69" t="n">
-        <v>0.441205</v>
+        <v>0.215989</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.606121</v>
+        <v>0.267961</v>
       </c>
       <c r="C70" t="n">
-        <v>0.412523</v>
+        <v>0.21383</v>
       </c>
       <c r="D70" t="n">
-        <v>0.448331</v>
+        <v>0.211319</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5985470000000001</v>
+        <v>0.266806</v>
       </c>
       <c r="C71" t="n">
-        <v>0.421377</v>
+        <v>0.216124</v>
       </c>
       <c r="D71" t="n">
-        <v>0.461652</v>
+        <v>0.218792</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.589286</v>
+        <v>0.271948</v>
       </c>
       <c r="C72" t="n">
-        <v>0.424518</v>
+        <v>0.215088</v>
       </c>
       <c r="D72" t="n">
-        <v>0.435845</v>
+        <v>0.216131</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6031530000000001</v>
+        <v>0.262498</v>
       </c>
       <c r="C73" t="n">
-        <v>0.415619</v>
+        <v>0.219302</v>
       </c>
       <c r="D73" t="n">
-        <v>0.458443</v>
+        <v>0.220465</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.588442</v>
+        <v>0.268772</v>
       </c>
       <c r="C74" t="n">
-        <v>0.432845</v>
+        <v>0.222447</v>
       </c>
       <c r="D74" t="n">
-        <v>0.442777</v>
+        <v>0.214392</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.599615</v>
+        <v>0.270479</v>
       </c>
       <c r="C75" t="n">
-        <v>0.406687</v>
+        <v>0.222097</v>
       </c>
       <c r="D75" t="n">
-        <v>0.456446</v>
+        <v>0.218428</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.574831</v>
+        <v>0.27039</v>
       </c>
       <c r="C76" t="n">
-        <v>0.440896</v>
+        <v>0.224414</v>
       </c>
       <c r="D76" t="n">
-        <v>0.444845</v>
+        <v>0.221145</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.580738</v>
+        <v>0.271642</v>
       </c>
       <c r="C77" t="n">
-        <v>0.416904</v>
+        <v>0.21941</v>
       </c>
       <c r="D77" t="n">
-        <v>0.447079</v>
+        <v>0.223904</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.605854</v>
+        <v>0.263088</v>
       </c>
       <c r="C78" t="n">
-        <v>0.421971</v>
+        <v>0.227094</v>
       </c>
       <c r="D78" t="n">
-        <v>0.449487</v>
+        <v>0.224097</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.599252</v>
+        <v>0.261496</v>
       </c>
       <c r="C79" t="n">
-        <v>0.438747</v>
+        <v>0.222058</v>
       </c>
       <c r="D79" t="n">
-        <v>0.47016</v>
+        <v>0.234883</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.627136</v>
+        <v>0.274728</v>
       </c>
       <c r="C80" t="n">
-        <v>0.444837</v>
+        <v>0.235915</v>
       </c>
       <c r="D80" t="n">
-        <v>0.669335</v>
+        <v>0.3639</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.905973</v>
+        <v>0.442218</v>
       </c>
       <c r="C81" t="n">
-        <v>0.641509</v>
+        <v>0.362301</v>
       </c>
       <c r="D81" t="n">
-        <v>0.681152</v>
+        <v>0.370282</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.931355</v>
+        <v>0.439802</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6496150000000001</v>
+        <v>0.363124</v>
       </c>
       <c r="D82" t="n">
-        <v>0.701951</v>
+        <v>0.360123</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.927767</v>
+        <v>0.44842</v>
       </c>
       <c r="C83" t="n">
-        <v>0.636118</v>
+        <v>0.368942</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6647</v>
+        <v>0.36099</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.943574</v>
+        <v>0.459363</v>
       </c>
       <c r="C84" t="n">
-        <v>0.646855</v>
+        <v>0.360681</v>
       </c>
       <c r="D84" t="n">
-        <v>0.648477</v>
+        <v>0.377738</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.956821</v>
+        <v>0.446855</v>
       </c>
       <c r="C85" t="n">
-        <v>0.623133</v>
+        <v>0.370104</v>
       </c>
       <c r="D85" t="n">
-        <v>0.695782</v>
+        <v>0.366987</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.939567</v>
+        <v>0.453497</v>
       </c>
       <c r="C86" t="n">
-        <v>0.66008</v>
+        <v>0.36524</v>
       </c>
       <c r="D86" t="n">
-        <v>0.693659</v>
+        <v>0.392032</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9581769999999999</v>
+        <v>0.439347</v>
       </c>
       <c r="C87" t="n">
-        <v>0.618495</v>
+        <v>0.365191</v>
       </c>
       <c r="D87" t="n">
-        <v>0.704456</v>
+        <v>0.379038</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.933185</v>
+        <v>0.459194</v>
       </c>
       <c r="C88" t="n">
-        <v>0.666189</v>
+        <v>0.373435</v>
       </c>
       <c r="D88" t="n">
-        <v>0.667713</v>
+        <v>0.367669</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.942491</v>
+        <v>0.468844</v>
       </c>
       <c r="C89" t="n">
-        <v>0.631846</v>
+        <v>0.368099</v>
       </c>
       <c r="D89" t="n">
-        <v>0.658174</v>
+        <v>0.377231</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.960793</v>
+        <v>0.457469</v>
       </c>
       <c r="C90" t="n">
-        <v>0.636478</v>
+        <v>0.371456</v>
       </c>
       <c r="D90" t="n">
-        <v>0.650015</v>
+        <v>0.387073</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.915478</v>
+        <v>0.464298</v>
       </c>
       <c r="C91" t="n">
-        <v>0.649845</v>
+        <v>0.375806</v>
       </c>
       <c r="D91" t="n">
-        <v>0.680218</v>
+        <v>0.378642</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.90568</v>
+        <v>0.470298</v>
       </c>
       <c r="C92" t="n">
-        <v>0.668627</v>
+        <v>0.382332</v>
       </c>
       <c r="D92" t="n">
-        <v>0.663071</v>
+        <v>0.382756</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.974042</v>
+        <v>0.472384</v>
       </c>
       <c r="C93" t="n">
-        <v>0.666235</v>
+        <v>0.378888</v>
       </c>
       <c r="D93" t="n">
-        <v>0.698395</v>
+        <v>0.384774</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.993289</v>
+        <v>0.457769</v>
       </c>
       <c r="C94" t="n">
-        <v>0.695917</v>
+        <v>0.385359</v>
       </c>
       <c r="D94" t="n">
-        <v>1.03358</v>
+        <v>0.487939</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.24736</v>
+        <v>0.593592</v>
       </c>
       <c r="C95" t="n">
-        <v>0.884026</v>
+        <v>0.488136</v>
       </c>
       <c r="D95" t="n">
-        <v>0.984869</v>
+        <v>0.488612</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.26122</v>
+        <v>0.615449</v>
       </c>
       <c r="C96" t="n">
-        <v>0.891834</v>
+        <v>0.476788</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05478</v>
+        <v>0.5213100000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.32023</v>
+        <v>0.594302</v>
       </c>
       <c r="C97" t="n">
-        <v>0.871274</v>
+        <v>0.493451</v>
       </c>
       <c r="D97" t="n">
-        <v>1.01932</v>
+        <v>0.482509</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.2599</v>
+        <v>0.59863</v>
       </c>
       <c r="C98" t="n">
-        <v>0.87277</v>
+        <v>0.481402</v>
       </c>
       <c r="D98" t="n">
-        <v>0.981497</v>
+        <v>0.490015</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.30901</v>
+        <v>0.618766</v>
       </c>
       <c r="C99" t="n">
-        <v>0.910601</v>
+        <v>0.479712</v>
       </c>
       <c r="D99" t="n">
-        <v>1.04975</v>
+        <v>0.494479</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.29375</v>
+        <v>0.60838</v>
       </c>
       <c r="C100" t="n">
-        <v>0.889736</v>
+        <v>0.483788</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9884810000000001</v>
+        <v>0.487654</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.30605</v>
+        <v>0.60349</v>
       </c>
       <c r="C101" t="n">
-        <v>0.882659</v>
+        <v>0.480052</v>
       </c>
       <c r="D101" t="n">
-        <v>1.02922</v>
+        <v>0.483879</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.28542</v>
+        <v>0.591661</v>
       </c>
       <c r="C102" t="n">
-        <v>0.876636</v>
+        <v>0.483229</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9799369999999999</v>
+        <v>0.506279</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31407</v>
+        <v>0.613877</v>
       </c>
       <c r="C103" t="n">
-        <v>0.867015</v>
+        <v>0.491928</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05597</v>
+        <v>0.502455</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.30202</v>
+        <v>0.612295</v>
       </c>
       <c r="C104" t="n">
-        <v>0.907718</v>
+        <v>0.492966</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9728520000000001</v>
+        <v>0.495994</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.2923</v>
+        <v>0.620192</v>
       </c>
       <c r="C105" t="n">
-        <v>0.904806</v>
+        <v>0.479069</v>
       </c>
       <c r="D105" t="n">
-        <v>0.980546</v>
+        <v>0.514715</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.30731</v>
+        <v>0.598275</v>
       </c>
       <c r="C106" t="n">
-        <v>0.917466</v>
+        <v>0.492975</v>
       </c>
       <c r="D106" t="n">
-        <v>0.986121</v>
+        <v>0.531993</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.35091</v>
+        <v>0.6337970000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.913388</v>
+        <v>0.508703</v>
       </c>
       <c r="D107" t="n">
-        <v>0.96132</v>
+        <v>0.526451</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.28134</v>
+        <v>0.613907</v>
       </c>
       <c r="C108" t="n">
-        <v>0.906579</v>
+        <v>0.528828</v>
       </c>
       <c r="D108" t="n">
-        <v>1.22949</v>
+        <v>0.571125</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.25704</v>
+        <v>0.609958</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9022520000000001</v>
+        <v>0.509756</v>
       </c>
       <c r="D109" t="n">
-        <v>1.28735</v>
+        <v>0.592903</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.64605</v>
+        <v>0.71123</v>
       </c>
       <c r="C110" t="n">
-        <v>1.0998</v>
+        <v>0.568001</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27843</v>
+        <v>0.5822580000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.62795</v>
+        <v>0.712857</v>
       </c>
       <c r="C111" t="n">
-        <v>1.08968</v>
+        <v>0.554767</v>
       </c>
       <c r="D111" t="n">
-        <v>1.27095</v>
+        <v>0.578564</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.69685</v>
+        <v>0.706864</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12456</v>
+        <v>0.548447</v>
       </c>
       <c r="D112" t="n">
-        <v>1.26461</v>
+        <v>0.581319</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.66058</v>
+        <v>0.72176</v>
       </c>
       <c r="C113" t="n">
-        <v>1.08399</v>
+        <v>0.5616640000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>1.26974</v>
+        <v>0.578198</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.62692</v>
+        <v>0.710474</v>
       </c>
       <c r="C114" t="n">
-        <v>1.09684</v>
+        <v>0.5671</v>
       </c>
       <c r="D114" t="n">
-        <v>1.26077</v>
+        <v>0.5846519999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.69499</v>
+        <v>0.714434</v>
       </c>
       <c r="C115" t="n">
-        <v>1.12</v>
+        <v>0.570314</v>
       </c>
       <c r="D115" t="n">
-        <v>1.26672</v>
+        <v>0.591391</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.66108</v>
+        <v>0.728071</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15428</v>
+        <v>0.567892</v>
       </c>
       <c r="D116" t="n">
-        <v>1.26487</v>
+        <v>0.604226</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.69046</v>
+        <v>0.7125</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12792</v>
+        <v>0.564793</v>
       </c>
       <c r="D117" t="n">
-        <v>1.28007</v>
+        <v>0.592051</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.71233</v>
+        <v>0.721054</v>
       </c>
       <c r="C118" t="n">
-        <v>1.10553</v>
+        <v>0.5800380000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>1.25173</v>
+        <v>0.589547</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.64385</v>
+        <v>0.727587</v>
       </c>
       <c r="C119" t="n">
-        <v>1.11945</v>
+        <v>0.571033</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25634</v>
+        <v>0.583842</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.71885</v>
+        <v>0.755617</v>
       </c>
       <c r="C120" t="n">
-        <v>1.13244</v>
+        <v>0.572112</v>
       </c>
       <c r="D120" t="n">
-        <v>1.27507</v>
+        <v>0.590791</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.68522</v>
+        <v>0.710883</v>
       </c>
       <c r="C121" t="n">
-        <v>1.14679</v>
+        <v>0.593349</v>
       </c>
       <c r="D121" t="n">
-        <v>1.26232</v>
+        <v>0.608067</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.68112</v>
+        <v>0.732671</v>
       </c>
       <c r="C122" t="n">
-        <v>1.12218</v>
+        <v>0.597461</v>
       </c>
       <c r="D122" t="n">
-        <v>1.27809</v>
+        <v>0.607468</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.67852</v>
+        <v>0.741341</v>
       </c>
       <c r="C123" t="n">
-        <v>1.17011</v>
+        <v>0.621812</v>
       </c>
       <c r="D123" t="n">
-        <v>1.46696</v>
+        <v>0.656836</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.07616</v>
+        <v>0.898319</v>
       </c>
       <c r="C124" t="n">
-        <v>1.38601</v>
+        <v>0.627094</v>
       </c>
       <c r="D124" t="n">
-        <v>1.45459</v>
+        <v>0.654112</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.07833</v>
+        <v>0.880962</v>
       </c>
       <c r="C125" t="n">
-        <v>1.38305</v>
+        <v>0.630176</v>
       </c>
       <c r="D125" t="n">
-        <v>1.46212</v>
+        <v>0.675282</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.07277</v>
+        <v>0.864811</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38452</v>
+        <v>0.6348470000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>1.47396</v>
+        <v>0.65498</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.05697</v>
+        <v>0.878308</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36202</v>
+        <v>0.635584</v>
       </c>
       <c r="D127" t="n">
-        <v>1.47287</v>
+        <v>0.673455</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.04604</v>
+        <v>0.867007</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37841</v>
+        <v>0.643079</v>
       </c>
       <c r="D128" t="n">
-        <v>1.46851</v>
+        <v>0.672783</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.08771</v>
+        <v>0.8864340000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>1.38394</v>
+        <v>0.643784</v>
       </c>
       <c r="D129" t="n">
-        <v>1.49354</v>
+        <v>0.650755</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.25959</v>
+        <v>0.877671</v>
       </c>
       <c r="C130" t="n">
-        <v>1.41596</v>
+        <v>0.653318</v>
       </c>
       <c r="D130" t="n">
-        <v>1.47194</v>
+        <v>0.677635</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.10623</v>
+        <v>0.911435</v>
       </c>
       <c r="C131" t="n">
-        <v>1.38509</v>
+        <v>0.637567</v>
       </c>
       <c r="D131" t="n">
-        <v>1.47277</v>
+        <v>0.656741</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.06488</v>
+        <v>0.8647089999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>1.394</v>
+        <v>0.6550550000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>1.47228</v>
+        <v>0.683754</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.05406</v>
+        <v>0.896181</v>
       </c>
       <c r="C133" t="n">
-        <v>1.41358</v>
+        <v>0.655195</v>
       </c>
       <c r="D133" t="n">
-        <v>1.48025</v>
+        <v>0.709782</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.0767</v>
+        <v>0.8748899999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>1.38634</v>
+        <v>0.6562829999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>1.44651</v>
+        <v>0.6841</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.0943</v>
+        <v>0.889572</v>
       </c>
       <c r="C135" t="n">
-        <v>1.39031</v>
+        <v>0.661121</v>
       </c>
       <c r="D135" t="n">
-        <v>1.46943</v>
+        <v>0.698102</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.07889</v>
+        <v>0.887528</v>
       </c>
       <c r="C136" t="n">
-        <v>1.40232</v>
+        <v>0.6789849999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>1.47774</v>
+        <v>0.701552</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.08774</v>
+        <v>0.895678</v>
       </c>
       <c r="C137" t="n">
-        <v>1.43292</v>
+        <v>0.68441</v>
       </c>
       <c r="D137" t="n">
-        <v>1.65256</v>
+        <v>0.767664</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.40132</v>
+        <v>1.01764</v>
       </c>
       <c r="C138" t="n">
-        <v>1.60775</v>
+        <v>0.755976</v>
       </c>
       <c r="D138" t="n">
-        <v>1.65849</v>
+        <v>0.767267</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.38934</v>
+        <v>1.02053</v>
       </c>
       <c r="C139" t="n">
-        <v>1.61821</v>
+        <v>0.778886</v>
       </c>
       <c r="D139" t="n">
-        <v>1.64191</v>
+        <v>0.763119</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.40817</v>
+        <v>1.00779</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58694</v>
+        <v>0.750119</v>
       </c>
       <c r="D140" t="n">
-        <v>1.65076</v>
+        <v>0.765483</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.38676</v>
+        <v>1.0327</v>
       </c>
       <c r="C141" t="n">
-        <v>1.59489</v>
+        <v>0.749821</v>
       </c>
       <c r="D141" t="n">
-        <v>1.65773</v>
+        <v>0.76375</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.3876</v>
+        <v>1.00437</v>
       </c>
       <c r="C142" t="n">
-        <v>1.63017</v>
+        <v>0.754756</v>
       </c>
       <c r="D142" t="n">
-        <v>1.64857</v>
+        <v>0.76026</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.43472</v>
+        <v>1.02752</v>
       </c>
       <c r="C143" t="n">
-        <v>1.59973</v>
+        <v>0.752495</v>
       </c>
       <c r="D143" t="n">
-        <v>1.6462</v>
+        <v>0.766711</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.104365</v>
+        <v>0.12285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0857224</v>
+        <v>0.09904159999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0942664</v>
+        <v>0.110156</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.105186</v>
+        <v>0.116351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0863748</v>
+        <v>0.09845230000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0968044</v>
+        <v>0.110828</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.101537</v>
+        <v>0.116957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0888196</v>
+        <v>0.101775</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09792240000000001</v>
+        <v>0.110291</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.103638</v>
+        <v>0.117629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0878178</v>
+        <v>0.09812369999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0974013</v>
+        <v>0.113435</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.106283</v>
+        <v>0.115254</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08871759999999999</v>
+        <v>0.100906</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0998424</v>
+        <v>0.111664</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.105893</v>
+        <v>0.116433</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0863683</v>
+        <v>0.100598</v>
       </c>
       <c r="D7" t="n">
-        <v>0.100669</v>
+        <v>0.113997</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.102847</v>
+        <v>0.118792</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0891725</v>
+        <v>0.105477</v>
       </c>
       <c r="D8" t="n">
-        <v>0.103502</v>
+        <v>0.120076</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.104123</v>
+        <v>0.121687</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0925665</v>
+        <v>0.107715</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0979348</v>
+        <v>0.110762</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.110338</v>
+        <v>0.125777</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0908456</v>
+        <v>0.104047</v>
       </c>
       <c r="D10" t="n">
-        <v>0.099402</v>
+        <v>0.110207</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.110784</v>
+        <v>0.125793</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0920636</v>
+        <v>0.101842</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09953720000000001</v>
+        <v>0.110797</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.112163</v>
+        <v>0.128853</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0921651</v>
+        <v>0.100595</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0983221</v>
+        <v>0.111574</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.11256</v>
+        <v>0.134823</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0904262</v>
+        <v>0.100194</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0947981</v>
+        <v>0.112632</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.107987</v>
+        <v>0.125561</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0921396</v>
+        <v>0.104455</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0981741</v>
+        <v>0.11412</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.113654</v>
+        <v>0.128008</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0929029</v>
+        <v>0.101027</v>
       </c>
       <c r="D15" t="n">
-        <v>0.097653</v>
+        <v>0.114148</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.110262</v>
+        <v>0.13318</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0926419</v>
+        <v>0.103666</v>
       </c>
       <c r="D16" t="n">
-        <v>0.101401</v>
+        <v>0.116791</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.113249</v>
+        <v>0.126387</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09349689999999999</v>
+        <v>0.104041</v>
       </c>
       <c r="D17" t="n">
-        <v>0.100456</v>
+        <v>0.115944</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.108413</v>
+        <v>0.130516</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0925392</v>
+        <v>0.104502</v>
       </c>
       <c r="D18" t="n">
-        <v>0.100995</v>
+        <v>0.117193</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.111306</v>
+        <v>0.130909</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0952329</v>
+        <v>0.107928</v>
       </c>
       <c r="D19" t="n">
-        <v>0.101184</v>
+        <v>0.11568</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.110087</v>
+        <v>0.131518</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09459289999999999</v>
+        <v>0.107924</v>
       </c>
       <c r="D20" t="n">
-        <v>0.10235</v>
+        <v>0.119474</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.110882</v>
+        <v>0.133537</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0950597</v>
+        <v>0.109362</v>
       </c>
       <c r="D21" t="n">
-        <v>0.106809</v>
+        <v>0.123582</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.115923</v>
+        <v>0.133919</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0998029</v>
+        <v>0.110579</v>
       </c>
       <c r="D22" t="n">
-        <v>0.113544</v>
+        <v>0.125738</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.118695</v>
+        <v>0.136314</v>
       </c>
       <c r="C23" t="n">
-        <v>0.102882</v>
+        <v>0.119519</v>
       </c>
       <c r="D23" t="n">
-        <v>0.104419</v>
+        <v>0.115792</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.123307</v>
+        <v>0.142764</v>
       </c>
       <c r="C24" t="n">
-        <v>0.096451</v>
+        <v>0.110607</v>
       </c>
       <c r="D24" t="n">
-        <v>0.102871</v>
+        <v>0.115013</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.125283</v>
+        <v>0.137891</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09596440000000001</v>
+        <v>0.106554</v>
       </c>
       <c r="D25" t="n">
-        <v>0.106681</v>
+        <v>0.119512</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.124351</v>
+        <v>0.139931</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0956574</v>
+        <v>0.110335</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102364</v>
+        <v>0.117386</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.121016</v>
+        <v>0.140692</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09706529999999999</v>
+        <v>0.107604</v>
       </c>
       <c r="D27" t="n">
-        <v>0.102169</v>
+        <v>0.115948</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.124632</v>
+        <v>0.139506</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09774049999999999</v>
+        <v>0.10879</v>
       </c>
       <c r="D28" t="n">
-        <v>0.103205</v>
+        <v>0.117018</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.12721</v>
+        <v>0.136819</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09730270000000001</v>
+        <v>0.107022</v>
       </c>
       <c r="D29" t="n">
-        <v>0.104996</v>
+        <v>0.115802</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126066</v>
+        <v>0.139472</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0962102</v>
+        <v>0.111006</v>
       </c>
       <c r="D30" t="n">
-        <v>0.106655</v>
+        <v>0.120499</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.121982</v>
+        <v>0.136454</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09945180000000001</v>
+        <v>0.109681</v>
       </c>
       <c r="D31" t="n">
-        <v>0.106299</v>
+        <v>0.119207</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.127824</v>
+        <v>0.145244</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09786</v>
+        <v>0.113261</v>
       </c>
       <c r="D32" t="n">
-        <v>0.104398</v>
+        <v>0.120545</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.123058</v>
+        <v>0.139106</v>
       </c>
       <c r="C33" t="n">
-        <v>0.100254</v>
+        <v>0.113195</v>
       </c>
       <c r="D33" t="n">
-        <v>0.107669</v>
+        <v>0.129762</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.125483</v>
+        <v>0.144518</v>
       </c>
       <c r="C34" t="n">
-        <v>0.100917</v>
+        <v>0.115127</v>
       </c>
       <c r="D34" t="n">
-        <v>0.110216</v>
+        <v>0.128774</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.123367</v>
+        <v>0.140243</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1077</v>
+        <v>0.116138</v>
       </c>
       <c r="D35" t="n">
-        <v>0.112924</v>
+        <v>0.131926</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.130535</v>
+        <v>0.143901</v>
       </c>
       <c r="C36" t="n">
-        <v>0.103644</v>
+        <v>0.119082</v>
       </c>
       <c r="D36" t="n">
-        <v>0.122956</v>
+        <v>0.134406</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.128044</v>
+        <v>0.145006</v>
       </c>
       <c r="C37" t="n">
-        <v>0.109693</v>
+        <v>0.123312</v>
       </c>
       <c r="D37" t="n">
-        <v>0.107302</v>
+        <v>0.131613</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.130928</v>
+        <v>0.162688</v>
       </c>
       <c r="C38" t="n">
-        <v>0.099139</v>
+        <v>0.123271</v>
       </c>
       <c r="D38" t="n">
-        <v>0.110292</v>
+        <v>0.133962</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.132972</v>
+        <v>0.172074</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09924040000000001</v>
+        <v>0.124119</v>
       </c>
       <c r="D39" t="n">
-        <v>0.113133</v>
+        <v>0.135087</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.134711</v>
+        <v>0.1697</v>
       </c>
       <c r="C40" t="n">
-        <v>0.09961250000000001</v>
+        <v>0.124644</v>
       </c>
       <c r="D40" t="n">
-        <v>0.113258</v>
+        <v>0.133843</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.135248</v>
+        <v>0.168479</v>
       </c>
       <c r="C41" t="n">
-        <v>0.102108</v>
+        <v>0.128074</v>
       </c>
       <c r="D41" t="n">
-        <v>0.10823</v>
+        <v>0.134263</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.134373</v>
+        <v>0.165395</v>
       </c>
       <c r="C42" t="n">
-        <v>0.100392</v>
+        <v>0.125139</v>
       </c>
       <c r="D42" t="n">
-        <v>0.112904</v>
+        <v>0.13399</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.140815</v>
+        <v>0.163202</v>
       </c>
       <c r="C43" t="n">
-        <v>0.101762</v>
+        <v>0.123537</v>
       </c>
       <c r="D43" t="n">
-        <v>0.110104</v>
+        <v>0.134633</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.138198</v>
+        <v>0.169065</v>
       </c>
       <c r="C44" t="n">
-        <v>0.103757</v>
+        <v>0.12768</v>
       </c>
       <c r="D44" t="n">
-        <v>0.110002</v>
+        <v>0.140759</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.137162</v>
+        <v>0.165908</v>
       </c>
       <c r="C45" t="n">
-        <v>0.102772</v>
+        <v>0.128808</v>
       </c>
       <c r="D45" t="n">
-        <v>0.114606</v>
+        <v>0.137189</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.137791</v>
+        <v>0.167392</v>
       </c>
       <c r="C46" t="n">
-        <v>0.104797</v>
+        <v>0.126837</v>
       </c>
       <c r="D46" t="n">
-        <v>0.117585</v>
+        <v>0.140442</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.139809</v>
+        <v>0.164655</v>
       </c>
       <c r="C47" t="n">
-        <v>0.105627</v>
+        <v>0.13199</v>
       </c>
       <c r="D47" t="n">
-        <v>0.118093</v>
+        <v>0.13858</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.13468</v>
+        <v>0.164187</v>
       </c>
       <c r="C48" t="n">
-        <v>0.104662</v>
+        <v>0.134037</v>
       </c>
       <c r="D48" t="n">
-        <v>0.11641</v>
+        <v>0.145811</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.142905</v>
+        <v>0.166641</v>
       </c>
       <c r="C49" t="n">
-        <v>0.11066</v>
+        <v>0.134328</v>
       </c>
       <c r="D49" t="n">
-        <v>0.118951</v>
+        <v>0.145241</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.139898</v>
+        <v>0.168698</v>
       </c>
       <c r="C50" t="n">
-        <v>0.11175</v>
+        <v>0.135396</v>
       </c>
       <c r="D50" t="n">
-        <v>0.126522</v>
+        <v>0.148572</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.141694</v>
+        <v>0.172398</v>
       </c>
       <c r="C51" t="n">
-        <v>0.114868</v>
+        <v>0.13871</v>
       </c>
       <c r="D51" t="n">
-        <v>0.136896</v>
+        <v>0.211347</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.147263</v>
+        <v>0.181517</v>
       </c>
       <c r="C52" t="n">
-        <v>0.118818</v>
+        <v>0.144347</v>
       </c>
       <c r="D52" t="n">
-        <v>0.134811</v>
+        <v>0.206371</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.171516</v>
+        <v>0.251147</v>
       </c>
       <c r="C53" t="n">
-        <v>0.127496</v>
+        <v>0.19948</v>
       </c>
       <c r="D53" t="n">
-        <v>0.140946</v>
+        <v>0.208075</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.170259</v>
+        <v>0.255346</v>
       </c>
       <c r="C54" t="n">
-        <v>0.128314</v>
+        <v>0.203376</v>
       </c>
       <c r="D54" t="n">
-        <v>0.137295</v>
+        <v>0.202696</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.165099</v>
+        <v>0.258504</v>
       </c>
       <c r="C55" t="n">
-        <v>0.126438</v>
+        <v>0.202554</v>
       </c>
       <c r="D55" t="n">
-        <v>0.134732</v>
+        <v>0.206794</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.166585</v>
+        <v>0.256568</v>
       </c>
       <c r="C56" t="n">
-        <v>0.125132</v>
+        <v>0.200551</v>
       </c>
       <c r="D56" t="n">
-        <v>0.141036</v>
+        <v>0.213275</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.172381</v>
+        <v>0.254699</v>
       </c>
       <c r="C57" t="n">
-        <v>0.124612</v>
+        <v>0.209388</v>
       </c>
       <c r="D57" t="n">
-        <v>0.142067</v>
+        <v>0.213753</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.171586</v>
+        <v>0.258416</v>
       </c>
       <c r="C58" t="n">
-        <v>0.130452</v>
+        <v>0.21876</v>
       </c>
       <c r="D58" t="n">
-        <v>0.137968</v>
+        <v>0.213284</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.173318</v>
+        <v>0.254891</v>
       </c>
       <c r="C59" t="n">
-        <v>0.128999</v>
+        <v>0.202485</v>
       </c>
       <c r="D59" t="n">
-        <v>0.141926</v>
+        <v>0.214485</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.166647</v>
+        <v>0.255704</v>
       </c>
       <c r="C60" t="n">
-        <v>0.131547</v>
+        <v>0.211102</v>
       </c>
       <c r="D60" t="n">
-        <v>0.140053</v>
+        <v>0.211735</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.172334</v>
+        <v>0.257285</v>
       </c>
       <c r="C61" t="n">
-        <v>0.130547</v>
+        <v>0.210559</v>
       </c>
       <c r="D61" t="n">
-        <v>0.143798</v>
+        <v>0.218378</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.171685</v>
+        <v>0.253362</v>
       </c>
       <c r="C62" t="n">
-        <v>0.131662</v>
+        <v>0.21491</v>
       </c>
       <c r="D62" t="n">
-        <v>0.144904</v>
+        <v>0.223148</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.174119</v>
+        <v>0.264742</v>
       </c>
       <c r="C63" t="n">
-        <v>0.135031</v>
+        <v>0.21249</v>
       </c>
       <c r="D63" t="n">
-        <v>0.149711</v>
+        <v>0.229834</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.172025</v>
+        <v>0.269162</v>
       </c>
       <c r="C64" t="n">
-        <v>0.141113</v>
+        <v>0.216615</v>
       </c>
       <c r="D64" t="n">
-        <v>0.150044</v>
+        <v>0.225039</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.173363</v>
+        <v>0.262931</v>
       </c>
       <c r="C65" t="n">
-        <v>0.138605</v>
+        <v>0.220717</v>
       </c>
       <c r="D65" t="n">
-        <v>0.159953</v>
+        <v>0.225666</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179085</v>
+        <v>0.265476</v>
       </c>
       <c r="C66" t="n">
-        <v>0.151549</v>
+        <v>0.227357</v>
       </c>
       <c r="D66" t="n">
-        <v>0.215667</v>
+        <v>0.300893</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.275433</v>
+        <v>0.408233</v>
       </c>
       <c r="C67" t="n">
-        <v>0.212767</v>
+        <v>0.321149</v>
       </c>
       <c r="D67" t="n">
-        <v>0.216167</v>
+        <v>0.297539</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.267738</v>
+        <v>0.399212</v>
       </c>
       <c r="C68" t="n">
-        <v>0.21333</v>
+        <v>0.323197</v>
       </c>
       <c r="D68" t="n">
-        <v>0.216292</v>
+        <v>0.297228</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.269494</v>
+        <v>0.403987</v>
       </c>
       <c r="C69" t="n">
-        <v>0.215823</v>
+        <v>0.318057</v>
       </c>
       <c r="D69" t="n">
-        <v>0.215989</v>
+        <v>0.299097</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.267961</v>
+        <v>0.406347</v>
       </c>
       <c r="C70" t="n">
-        <v>0.21383</v>
+        <v>0.324631</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211319</v>
+        <v>0.306733</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.266806</v>
+        <v>0.387942</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216124</v>
+        <v>0.316453</v>
       </c>
       <c r="D71" t="n">
-        <v>0.218792</v>
+        <v>0.30969</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.271948</v>
+        <v>0.408929</v>
       </c>
       <c r="C72" t="n">
-        <v>0.215088</v>
+        <v>0.325195</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216131</v>
+        <v>0.302761</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.262498</v>
+        <v>0.401416</v>
       </c>
       <c r="C73" t="n">
-        <v>0.219302</v>
+        <v>0.327158</v>
       </c>
       <c r="D73" t="n">
-        <v>0.220465</v>
+        <v>0.315295</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.268772</v>
+        <v>0.420524</v>
       </c>
       <c r="C74" t="n">
-        <v>0.222447</v>
+        <v>0.336666</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214392</v>
+        <v>0.305377</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.270479</v>
+        <v>0.419298</v>
       </c>
       <c r="C75" t="n">
-        <v>0.222097</v>
+        <v>0.32709</v>
       </c>
       <c r="D75" t="n">
-        <v>0.218428</v>
+        <v>0.311834</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.27039</v>
+        <v>0.413674</v>
       </c>
       <c r="C76" t="n">
-        <v>0.224414</v>
+        <v>0.335642</v>
       </c>
       <c r="D76" t="n">
-        <v>0.221145</v>
+        <v>0.318695</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.271642</v>
+        <v>0.403456</v>
       </c>
       <c r="C77" t="n">
-        <v>0.21941</v>
+        <v>0.338018</v>
       </c>
       <c r="D77" t="n">
-        <v>0.223904</v>
+        <v>0.314499</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.263088</v>
+        <v>0.406559</v>
       </c>
       <c r="C78" t="n">
-        <v>0.227094</v>
+        <v>0.335094</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224097</v>
+        <v>0.31768</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.261496</v>
+        <v>0.420097</v>
       </c>
       <c r="C79" t="n">
-        <v>0.222058</v>
+        <v>0.332238</v>
       </c>
       <c r="D79" t="n">
-        <v>0.234883</v>
+        <v>0.337543</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.274728</v>
+        <v>0.414184</v>
       </c>
       <c r="C80" t="n">
-        <v>0.235915</v>
+        <v>0.343929</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3639</v>
+        <v>0.428527</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.442218</v>
+        <v>0.56352</v>
       </c>
       <c r="C81" t="n">
-        <v>0.362301</v>
+        <v>0.434344</v>
       </c>
       <c r="D81" t="n">
-        <v>0.370282</v>
+        <v>0.435947</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.439802</v>
+        <v>0.565354</v>
       </c>
       <c r="C82" t="n">
-        <v>0.363124</v>
+        <v>0.439259</v>
       </c>
       <c r="D82" t="n">
-        <v>0.360123</v>
+        <v>0.439942</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.44842</v>
+        <v>0.54532</v>
       </c>
       <c r="C83" t="n">
-        <v>0.368942</v>
+        <v>0.430727</v>
       </c>
       <c r="D83" t="n">
-        <v>0.36099</v>
+        <v>0.43013</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.459363</v>
+        <v>0.5386840000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.360681</v>
+        <v>0.435495</v>
       </c>
       <c r="D84" t="n">
-        <v>0.377738</v>
+        <v>0.448468</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.446855</v>
+        <v>0.557193</v>
       </c>
       <c r="C85" t="n">
-        <v>0.370104</v>
+        <v>0.441938</v>
       </c>
       <c r="D85" t="n">
-        <v>0.366987</v>
+        <v>0.441973</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.453497</v>
+        <v>0.545673</v>
       </c>
       <c r="C86" t="n">
-        <v>0.36524</v>
+        <v>0.437206</v>
       </c>
       <c r="D86" t="n">
-        <v>0.392032</v>
+        <v>0.442308</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.439347</v>
+        <v>0.551698</v>
       </c>
       <c r="C87" t="n">
-        <v>0.365191</v>
+        <v>0.443862</v>
       </c>
       <c r="D87" t="n">
-        <v>0.379038</v>
+        <v>0.448441</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.459194</v>
+        <v>0.55238</v>
       </c>
       <c r="C88" t="n">
-        <v>0.373435</v>
+        <v>0.446031</v>
       </c>
       <c r="D88" t="n">
-        <v>0.367669</v>
+        <v>0.446495</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.468844</v>
+        <v>0.552973</v>
       </c>
       <c r="C89" t="n">
-        <v>0.368099</v>
+        <v>0.439105</v>
       </c>
       <c r="D89" t="n">
-        <v>0.377231</v>
+        <v>0.444632</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.457469</v>
+        <v>0.55263</v>
       </c>
       <c r="C90" t="n">
-        <v>0.371456</v>
+        <v>0.456018</v>
       </c>
       <c r="D90" t="n">
-        <v>0.387073</v>
+        <v>0.461003</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.464298</v>
+        <v>0.560188</v>
       </c>
       <c r="C91" t="n">
-        <v>0.375806</v>
+        <v>0.450862</v>
       </c>
       <c r="D91" t="n">
-        <v>0.378642</v>
+        <v>0.472203</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.470298</v>
+        <v>0.566371</v>
       </c>
       <c r="C92" t="n">
-        <v>0.382332</v>
+        <v>0.451381</v>
       </c>
       <c r="D92" t="n">
-        <v>0.382756</v>
+        <v>0.457996</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.472384</v>
+        <v>0.557063</v>
       </c>
       <c r="C93" t="n">
-        <v>0.378888</v>
+        <v>0.478301</v>
       </c>
       <c r="D93" t="n">
-        <v>0.384774</v>
+        <v>0.473549</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.457769</v>
+        <v>0.580089</v>
       </c>
       <c r="C94" t="n">
-        <v>0.385359</v>
+        <v>0.467612</v>
       </c>
       <c r="D94" t="n">
-        <v>0.487939</v>
+        <v>0.546786</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.593592</v>
+        <v>0.641307</v>
       </c>
       <c r="C95" t="n">
-        <v>0.488136</v>
+        <v>0.535255</v>
       </c>
       <c r="D95" t="n">
-        <v>0.488612</v>
+        <v>0.51889</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.615449</v>
+        <v>0.6438160000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.476788</v>
+        <v>0.520383</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5213100000000001</v>
+        <v>0.551876</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.594302</v>
+        <v>0.660475</v>
       </c>
       <c r="C97" t="n">
-        <v>0.493451</v>
+        <v>0.523189</v>
       </c>
       <c r="D97" t="n">
-        <v>0.482509</v>
+        <v>0.540256</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.59863</v>
+        <v>0.639453</v>
       </c>
       <c r="C98" t="n">
-        <v>0.481402</v>
+        <v>0.512236</v>
       </c>
       <c r="D98" t="n">
-        <v>0.490015</v>
+        <v>0.541995</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.618766</v>
+        <v>0.704404</v>
       </c>
       <c r="C99" t="n">
-        <v>0.479712</v>
+        <v>0.517392</v>
       </c>
       <c r="D99" t="n">
-        <v>0.494479</v>
+        <v>0.5450430000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.60838</v>
+        <v>0.6401250000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.483788</v>
+        <v>0.512236</v>
       </c>
       <c r="D100" t="n">
-        <v>0.487654</v>
+        <v>0.5477030000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.60349</v>
+        <v>0.640753</v>
       </c>
       <c r="C101" t="n">
-        <v>0.480052</v>
+        <v>0.534628</v>
       </c>
       <c r="D101" t="n">
-        <v>0.483879</v>
+        <v>0.550562</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.591661</v>
+        <v>0.636491</v>
       </c>
       <c r="C102" t="n">
-        <v>0.483229</v>
+        <v>0.519707</v>
       </c>
       <c r="D102" t="n">
-        <v>0.506279</v>
+        <v>0.5331900000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.613877</v>
+        <v>0.698667</v>
       </c>
       <c r="C103" t="n">
-        <v>0.491928</v>
+        <v>0.536766</v>
       </c>
       <c r="D103" t="n">
-        <v>0.502455</v>
+        <v>0.562518</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.612295</v>
+        <v>0.665811</v>
       </c>
       <c r="C104" t="n">
-        <v>0.492966</v>
+        <v>0.527726</v>
       </c>
       <c r="D104" t="n">
-        <v>0.495994</v>
+        <v>0.538766</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.620192</v>
+        <v>0.650328</v>
       </c>
       <c r="C105" t="n">
-        <v>0.479069</v>
+        <v>0.5507919999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.514715</v>
+        <v>0.554707</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.598275</v>
+        <v>0.701106</v>
       </c>
       <c r="C106" t="n">
-        <v>0.492975</v>
+        <v>0.546017</v>
       </c>
       <c r="D106" t="n">
-        <v>0.531993</v>
+        <v>0.568923</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6337970000000001</v>
+        <v>0.6806489999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.508703</v>
+        <v>0.565585</v>
       </c>
       <c r="D107" t="n">
-        <v>0.526451</v>
+        <v>0.583415</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.613907</v>
+        <v>0.660019</v>
       </c>
       <c r="C108" t="n">
-        <v>0.528828</v>
+        <v>0.542317</v>
       </c>
       <c r="D108" t="n">
-        <v>0.571125</v>
+        <v>0.628294</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.609958</v>
+        <v>0.7170609999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.509756</v>
+        <v>0.577939</v>
       </c>
       <c r="D109" t="n">
-        <v>0.592903</v>
+        <v>0.63336</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.71123</v>
+        <v>0.916775</v>
       </c>
       <c r="C110" t="n">
-        <v>0.568001</v>
+        <v>0.653984</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5822580000000001</v>
+        <v>0.671364</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.712857</v>
+        <v>0.792654</v>
       </c>
       <c r="C111" t="n">
-        <v>0.554767</v>
+        <v>0.643684</v>
       </c>
       <c r="D111" t="n">
-        <v>0.578564</v>
+        <v>0.613229</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.706864</v>
+        <v>0.795875</v>
       </c>
       <c r="C112" t="n">
-        <v>0.548447</v>
+        <v>0.6629890000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.581319</v>
+        <v>0.657999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.72176</v>
+        <v>0.904204</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5616640000000001</v>
+        <v>0.6006</v>
       </c>
       <c r="D113" t="n">
-        <v>0.578198</v>
+        <v>0.612702</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.710474</v>
+        <v>0.867552</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5671</v>
+        <v>0.610491</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5846519999999999</v>
+        <v>0.628414</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.714434</v>
+        <v>0.817997</v>
       </c>
       <c r="C115" t="n">
-        <v>0.570314</v>
+        <v>0.662979</v>
       </c>
       <c r="D115" t="n">
-        <v>0.591391</v>
+        <v>0.684463</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.728071</v>
+        <v>0.864167</v>
       </c>
       <c r="C116" t="n">
-        <v>0.567892</v>
+        <v>0.6489549999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.604226</v>
+        <v>0.675716</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7125</v>
+        <v>0.921691</v>
       </c>
       <c r="C117" t="n">
-        <v>0.564793</v>
+        <v>0.647648</v>
       </c>
       <c r="D117" t="n">
-        <v>0.592051</v>
+        <v>0.6222839999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.721054</v>
+        <v>0.806751</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5800380000000001</v>
+        <v>0.619235</v>
       </c>
       <c r="D118" t="n">
-        <v>0.589547</v>
+        <v>0.675768</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.727587</v>
+        <v>0.928404</v>
       </c>
       <c r="C119" t="n">
-        <v>0.571033</v>
+        <v>0.6749849999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.583842</v>
+        <v>0.724023</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.755617</v>
+        <v>0.773035</v>
       </c>
       <c r="C120" t="n">
-        <v>0.572112</v>
+        <v>0.695012</v>
       </c>
       <c r="D120" t="n">
-        <v>0.590791</v>
+        <v>0.659148</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.710883</v>
+        <v>0.804623</v>
       </c>
       <c r="C121" t="n">
-        <v>0.593349</v>
+        <v>0.671037</v>
       </c>
       <c r="D121" t="n">
-        <v>0.608067</v>
+        <v>0.720812</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.732671</v>
+        <v>0.800185</v>
       </c>
       <c r="C122" t="n">
-        <v>0.597461</v>
+        <v>0.628992</v>
       </c>
       <c r="D122" t="n">
-        <v>0.607468</v>
+        <v>0.696573</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.741341</v>
+        <v>0.812291</v>
       </c>
       <c r="C123" t="n">
-        <v>0.621812</v>
+        <v>0.642769</v>
       </c>
       <c r="D123" t="n">
-        <v>0.656836</v>
+        <v>0.728679</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.898319</v>
+        <v>1.09801</v>
       </c>
       <c r="C124" t="n">
-        <v>0.627094</v>
+        <v>0.751247</v>
       </c>
       <c r="D124" t="n">
-        <v>0.654112</v>
+        <v>0.755181</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.880962</v>
+        <v>1.0219</v>
       </c>
       <c r="C125" t="n">
-        <v>0.630176</v>
+        <v>0.726229</v>
       </c>
       <c r="D125" t="n">
-        <v>0.675282</v>
+        <v>0.745264</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.864811</v>
+        <v>1.02863</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6348470000000001</v>
+        <v>0.723573</v>
       </c>
       <c r="D126" t="n">
-        <v>0.65498</v>
+        <v>0.758145</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.878308</v>
+        <v>1.03145</v>
       </c>
       <c r="C127" t="n">
-        <v>0.635584</v>
+        <v>0.74763</v>
       </c>
       <c r="D127" t="n">
-        <v>0.673455</v>
+        <v>0.763279</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.867007</v>
+        <v>1.03987</v>
       </c>
       <c r="C128" t="n">
-        <v>0.643079</v>
+        <v>0.868008</v>
       </c>
       <c r="D128" t="n">
-        <v>0.672783</v>
+        <v>0.742997</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8864340000000001</v>
+        <v>1.03928</v>
       </c>
       <c r="C129" t="n">
-        <v>0.643784</v>
+        <v>0.848844</v>
       </c>
       <c r="D129" t="n">
-        <v>0.650755</v>
+        <v>0.751773</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.877671</v>
+        <v>1.03947</v>
       </c>
       <c r="C130" t="n">
-        <v>0.653318</v>
+        <v>0.748098</v>
       </c>
       <c r="D130" t="n">
-        <v>0.677635</v>
+        <v>0.761032</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.911435</v>
+        <v>1.04976</v>
       </c>
       <c r="C131" t="n">
-        <v>0.637567</v>
+        <v>0.740653</v>
       </c>
       <c r="D131" t="n">
-        <v>0.656741</v>
+        <v>0.770537</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8647089999999999</v>
+        <v>1.03743</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6550550000000001</v>
+        <v>0.75971</v>
       </c>
       <c r="D132" t="n">
-        <v>0.683754</v>
+        <v>0.77893</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.896181</v>
+        <v>1.04347</v>
       </c>
       <c r="C133" t="n">
-        <v>0.655195</v>
+        <v>0.744522</v>
       </c>
       <c r="D133" t="n">
-        <v>0.709782</v>
+        <v>0.76711</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8748899999999999</v>
+        <v>1.04669</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6562829999999999</v>
+        <v>0.768402</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6841</v>
+        <v>0.79632</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.889572</v>
+        <v>1.02977</v>
       </c>
       <c r="C135" t="n">
-        <v>0.661121</v>
+        <v>0.763981</v>
       </c>
       <c r="D135" t="n">
-        <v>0.698102</v>
+        <v>0.90404</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.887528</v>
+        <v>1.03927</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6789849999999999</v>
+        <v>0.88753</v>
       </c>
       <c r="D136" t="n">
-        <v>0.701552</v>
+        <v>0.810702</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.895678</v>
+        <v>1.23743</v>
       </c>
       <c r="C137" t="n">
-        <v>0.68441</v>
+        <v>0.824707</v>
       </c>
       <c r="D137" t="n">
-        <v>0.767664</v>
+        <v>0.967363</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.01764</v>
+        <v>1.31982</v>
       </c>
       <c r="C138" t="n">
-        <v>0.755976</v>
+        <v>0.95064</v>
       </c>
       <c r="D138" t="n">
-        <v>0.767267</v>
+        <v>0.937194</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.02053</v>
+        <v>1.31555</v>
       </c>
       <c r="C139" t="n">
-        <v>0.778886</v>
+        <v>0.953179</v>
       </c>
       <c r="D139" t="n">
-        <v>0.763119</v>
+        <v>0.966489</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.00779</v>
+        <v>1.30492</v>
       </c>
       <c r="C140" t="n">
-        <v>0.750119</v>
+        <v>0.932679</v>
       </c>
       <c r="D140" t="n">
-        <v>0.765483</v>
+        <v>0.961602</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.0327</v>
+        <v>1.31753</v>
       </c>
       <c r="C141" t="n">
-        <v>0.749821</v>
+        <v>0.9422509999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.76375</v>
+        <v>0.954083</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.00437</v>
+        <v>1.31516</v>
       </c>
       <c r="C142" t="n">
-        <v>0.754756</v>
+        <v>0.943655</v>
       </c>
       <c r="D142" t="n">
-        <v>0.76026</v>
+        <v>0.953338</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.02752</v>
+        <v>1.31392</v>
       </c>
       <c r="C143" t="n">
-        <v>0.752495</v>
+        <v>0.9378379999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.766711</v>
+        <v>0.95101</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0198274</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0198243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0198059</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0199393</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0198465</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0200695</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0203167</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.0207984</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.019398</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0196474</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0198002</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0198351</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.020005</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.0201547</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0202387</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0202416</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0205515</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.020734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0208632</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0212432</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.0218651</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.0253637</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0203899</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.0204771</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0206748</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.0207843</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.0210829</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0211716</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0214289</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0215001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0218002</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0221683</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0231472</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.0257742</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.0289348</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.0322824</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0214691</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0217903</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0219112</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0219809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0221479</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0224448</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.02262</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0231701</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0235929</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.024466</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0257139</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0282271</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0303257</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.0351291</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.0408898</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0231879</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0233257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.0235135</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0237414</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0239179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0244805</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0248999</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0254771</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.0265139</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0280363</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0300505</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0328613</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.036562</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.0420912</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0291857</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0293683</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0294951</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.029813</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0300128</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302796</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.030801</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.031446</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0324341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0335695</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0353551</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0378182</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.0410501</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.0456478</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0552817</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0555326</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0556777</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0557553</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0559421</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0562511</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.056543</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.056954</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0573628</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0581532</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.0593444</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.0607396</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.06325</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.0670234</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.086252</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0863121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.08631</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.08640920000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0864456</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.08653959999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.0867363</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0870079</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0874346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0880908</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.08892</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.0899819</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.0920994</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.0950337</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.100164</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.113889</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.114021</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.114114</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.114157</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.114198</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.114387</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.114667</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.115047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.115835</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.116215</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.117455</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.122216</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.130657</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.140904</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.140713</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.140603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.140544</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.140461</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.140955</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.142695</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.141111</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.141474</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.141584</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.144383</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.144338</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.146809</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.150574</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.157534</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.15768</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.157841</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.170985</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.158043</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.158496</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.01963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0195504</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0196026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0196237</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0194434</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.0196089</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0196438</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.019683</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0206908</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0208145</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0208233</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0208079</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0210678</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.0211339</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.021293</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0213755</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0214194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0216061</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0216834</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0216891</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.021814</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.02224</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0218223</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.021951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0222832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.0225478</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0226653</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0228678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0232795</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0234118</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0236239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0237577</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0245297</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0248515</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0259781</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.028096</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0231379</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0235392</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0237383</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0240298</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0242845</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0248099</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0251381</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0255035</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.026017</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0265204</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0273233</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.0288886</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0309086</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.035125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.0395813</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0250602</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0252618</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.0256001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0259637</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0263006</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0266533</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.027142</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0277574</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0284471</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0293755</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.0310293</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0333401</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.0369138</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.0422301</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.027755</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.028318</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0282048</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0288949</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0291466</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0296631</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.0302154</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.0308858</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0317299</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.0327248</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0344036</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.0365419</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.0395077</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.0440142</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0384812</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0393181</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0400471</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0410283</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0422285</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0436636</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0450427</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0465122</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.048317</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0499665</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0516792</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.0540677</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.0567184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.0613213</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.07599069999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0765213</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0769676</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.07758429999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0782827</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0789179</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.07968980000000001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0805656</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0816693</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0863792</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.08411639999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.0859486</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.08840779999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.0922501</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.0984163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0907982</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0916492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.092555</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0937095</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.09565650000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.103513</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0973205</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0988463</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.100303</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.102148</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.104312</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.107029</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.111037</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.116985</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.102804</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.108721</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.105795</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.109135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.111421</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.113514</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.114964</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.116895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.119313</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.121782</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.124925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.12911</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.135094</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.116615</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.118091</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.119623</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.121247</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.122801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.12453</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0210661</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0210821</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0210432</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0210228</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0211017</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.021451</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0215967</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.021032</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.021237</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0214398</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0216389</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0217625</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0220811</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0221537</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0222621</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.022351</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0223659</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.0223994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0224787</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0225969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0229866</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0224424</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0227148</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0228976</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0231426</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0233641</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0236678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0238622</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0240883</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0241209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0243341</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249996</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0258005</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0317443</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0235387</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0237574</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0240607</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0243991</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0246515</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0249339</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0252916</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0255331</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0260222</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0266838</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0278203</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0305126</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0344632</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.0242031</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0243873</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0246308</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0248962</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0251551</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0255061</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.025758</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0261621</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0266822</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.027176</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0279736</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.0294383</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0324535</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0364486</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.042747</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.0261578</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0266345</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0270048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0274462</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0276478</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0280925</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0295698</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.0301268</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0308125</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0310039</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0325978</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0358014</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.0390005</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0449875</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0407134</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0414223</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0420164</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0428758</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0435859</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.0441158</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0451214</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.045933</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0468684</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0477272</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0490508</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0513003</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0542639</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0587909</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.08060109999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.08116420000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0815678</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.08204690000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.08264589999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0832561</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0837205</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0845051</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.08527559999999999</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0864844</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0876881</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.08924799999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.096528</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0955449</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0975452</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0983436</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0990383</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.09986689999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.100985</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.101987</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.102746</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.10438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.105384</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.106778</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.108591</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.110691</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.113494</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.117535</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.123795</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.115482</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.116645</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.1179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.12028</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.121788</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.123885</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.125833</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.1268</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.129052</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.132444</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.134565</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.138824</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.145371</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.129339</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.130682</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.131871</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.133153</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.134562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.135784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.137311</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.12285</v>
+        <v>0.121718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09904159999999999</v>
+        <v>0.104156</v>
       </c>
       <c r="D2" t="n">
-        <v>0.110156</v>
+        <v>0.113249</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116351</v>
+        <v>0.120644</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09845230000000001</v>
+        <v>0.102074</v>
       </c>
       <c r="D3" t="n">
-        <v>0.110828</v>
+        <v>0.112906</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116957</v>
+        <v>0.119916</v>
       </c>
       <c r="C4" t="n">
-        <v>0.101775</v>
+        <v>0.103411</v>
       </c>
       <c r="D4" t="n">
-        <v>0.110291</v>
+        <v>0.113177</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117629</v>
+        <v>0.124991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09812369999999999</v>
+        <v>0.104095</v>
       </c>
       <c r="D5" t="n">
-        <v>0.113435</v>
+        <v>0.112456</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.115254</v>
+        <v>0.122901</v>
       </c>
       <c r="C6" t="n">
-        <v>0.100906</v>
+        <v>0.102569</v>
       </c>
       <c r="D6" t="n">
-        <v>0.111664</v>
+        <v>0.115613</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.116433</v>
+        <v>0.118492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.100598</v>
+        <v>0.106999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.113997</v>
+        <v>0.119273</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118792</v>
+        <v>0.121552</v>
       </c>
       <c r="C8" t="n">
-        <v>0.105477</v>
+        <v>0.105908</v>
       </c>
       <c r="D8" t="n">
-        <v>0.120076</v>
+        <v>0.123108</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.121687</v>
+        <v>0.120292</v>
       </c>
       <c r="C9" t="n">
-        <v>0.107715</v>
+        <v>0.111081</v>
       </c>
       <c r="D9" t="n">
-        <v>0.110762</v>
+        <v>0.112405</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.125777</v>
+        <v>0.126061</v>
       </c>
       <c r="C10" t="n">
-        <v>0.104047</v>
+        <v>0.106061</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110207</v>
+        <v>0.11012</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125793</v>
+        <v>0.131051</v>
       </c>
       <c r="C11" t="n">
-        <v>0.101842</v>
+        <v>0.104144</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110797</v>
+        <v>0.113197</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128853</v>
+        <v>0.127029</v>
       </c>
       <c r="C12" t="n">
-        <v>0.100595</v>
+        <v>0.104282</v>
       </c>
       <c r="D12" t="n">
-        <v>0.111574</v>
+        <v>0.110235</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.134823</v>
+        <v>0.12817</v>
       </c>
       <c r="C13" t="n">
-        <v>0.100194</v>
+        <v>0.100527</v>
       </c>
       <c r="D13" t="n">
-        <v>0.112632</v>
+        <v>0.111898</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125561</v>
+        <v>0.128592</v>
       </c>
       <c r="C14" t="n">
-        <v>0.104455</v>
+        <v>0.103816</v>
       </c>
       <c r="D14" t="n">
-        <v>0.11412</v>
+        <v>0.111388</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.128008</v>
+        <v>0.133403</v>
       </c>
       <c r="C15" t="n">
-        <v>0.101027</v>
+        <v>0.105485</v>
       </c>
       <c r="D15" t="n">
-        <v>0.114148</v>
+        <v>0.11498</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.13318</v>
+        <v>0.131385</v>
       </c>
       <c r="C16" t="n">
-        <v>0.103666</v>
+        <v>0.104083</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116791</v>
+        <v>0.113796</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.126387</v>
+        <v>0.127189</v>
       </c>
       <c r="C17" t="n">
-        <v>0.104041</v>
+        <v>0.107146</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115944</v>
+        <v>0.112897</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130516</v>
+        <v>0.130809</v>
       </c>
       <c r="C18" t="n">
-        <v>0.104502</v>
+        <v>0.105243</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117193</v>
+        <v>0.113148</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.130909</v>
+        <v>0.128392</v>
       </c>
       <c r="C19" t="n">
-        <v>0.107928</v>
+        <v>0.105563</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11568</v>
+        <v>0.114873</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.131518</v>
+        <v>0.126311</v>
       </c>
       <c r="C20" t="n">
-        <v>0.107924</v>
+        <v>0.109249</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119474</v>
+        <v>0.115505</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.133537</v>
+        <v>0.13202</v>
       </c>
       <c r="C21" t="n">
-        <v>0.109362</v>
+        <v>0.110972</v>
       </c>
       <c r="D21" t="n">
-        <v>0.123582</v>
+        <v>0.124371</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.133919</v>
+        <v>0.132961</v>
       </c>
       <c r="C22" t="n">
-        <v>0.110579</v>
+        <v>0.112588</v>
       </c>
       <c r="D22" t="n">
-        <v>0.125738</v>
+        <v>0.129403</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.136314</v>
+        <v>0.133993</v>
       </c>
       <c r="C23" t="n">
-        <v>0.119519</v>
+        <v>0.115367</v>
       </c>
       <c r="D23" t="n">
-        <v>0.115792</v>
+        <v>0.117261</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.142764</v>
+        <v>0.141673</v>
       </c>
       <c r="C24" t="n">
-        <v>0.110607</v>
+        <v>0.10481</v>
       </c>
       <c r="D24" t="n">
-        <v>0.115013</v>
+        <v>0.117212</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.137891</v>
+        <v>0.139136</v>
       </c>
       <c r="C25" t="n">
-        <v>0.106554</v>
+        <v>0.107089</v>
       </c>
       <c r="D25" t="n">
-        <v>0.119512</v>
+        <v>0.119535</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.139931</v>
+        <v>0.137733</v>
       </c>
       <c r="C26" t="n">
-        <v>0.110335</v>
+        <v>0.107121</v>
       </c>
       <c r="D26" t="n">
-        <v>0.117386</v>
+        <v>0.119513</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.140692</v>
+        <v>0.138996</v>
       </c>
       <c r="C27" t="n">
-        <v>0.107604</v>
+        <v>0.10639</v>
       </c>
       <c r="D27" t="n">
-        <v>0.115948</v>
+        <v>0.117445</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.139506</v>
+        <v>0.144871</v>
       </c>
       <c r="C28" t="n">
-        <v>0.10879</v>
+        <v>0.109508</v>
       </c>
       <c r="D28" t="n">
-        <v>0.117018</v>
+        <v>0.119908</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136819</v>
+        <v>0.139271</v>
       </c>
       <c r="C29" t="n">
-        <v>0.107022</v>
+        <v>0.106879</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115802</v>
+        <v>0.118486</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.139472</v>
+        <v>0.14369</v>
       </c>
       <c r="C30" t="n">
-        <v>0.111006</v>
+        <v>0.110906</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120499</v>
+        <v>0.11825</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136454</v>
+        <v>0.138909</v>
       </c>
       <c r="C31" t="n">
-        <v>0.109681</v>
+        <v>0.109992</v>
       </c>
       <c r="D31" t="n">
-        <v>0.119207</v>
+        <v>0.119795</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.145244</v>
+        <v>0.144898</v>
       </c>
       <c r="C32" t="n">
-        <v>0.113261</v>
+        <v>0.113644</v>
       </c>
       <c r="D32" t="n">
-        <v>0.120545</v>
+        <v>0.122948</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.139106</v>
+        <v>0.143539</v>
       </c>
       <c r="C33" t="n">
-        <v>0.113195</v>
+        <v>0.110695</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129762</v>
+        <v>0.122762</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.144518</v>
+        <v>0.144256</v>
       </c>
       <c r="C34" t="n">
-        <v>0.115127</v>
+        <v>0.118996</v>
       </c>
       <c r="D34" t="n">
-        <v>0.128774</v>
+        <v>0.124546</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.140243</v>
+        <v>0.143574</v>
       </c>
       <c r="C35" t="n">
-        <v>0.116138</v>
+        <v>0.115436</v>
       </c>
       <c r="D35" t="n">
-        <v>0.131926</v>
+        <v>0.12873</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.143901</v>
+        <v>0.14128</v>
       </c>
       <c r="C36" t="n">
-        <v>0.119082</v>
+        <v>0.11746</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134406</v>
+        <v>0.137684</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.145006</v>
+        <v>0.144718</v>
       </c>
       <c r="C37" t="n">
-        <v>0.123312</v>
+        <v>0.120288</v>
       </c>
       <c r="D37" t="n">
-        <v>0.131613</v>
+        <v>0.135245</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162688</v>
+        <v>0.167923</v>
       </c>
       <c r="C38" t="n">
-        <v>0.123271</v>
+        <v>0.122428</v>
       </c>
       <c r="D38" t="n">
-        <v>0.133962</v>
+        <v>0.1339</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.172074</v>
+        <v>0.167719</v>
       </c>
       <c r="C39" t="n">
-        <v>0.124119</v>
+        <v>0.122616</v>
       </c>
       <c r="D39" t="n">
-        <v>0.135087</v>
+        <v>0.133483</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1697</v>
+        <v>0.171269</v>
       </c>
       <c r="C40" t="n">
-        <v>0.124644</v>
+        <v>0.123324</v>
       </c>
       <c r="D40" t="n">
-        <v>0.133843</v>
+        <v>0.134608</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.168479</v>
+        <v>0.163695</v>
       </c>
       <c r="C41" t="n">
-        <v>0.128074</v>
+        <v>0.121138</v>
       </c>
       <c r="D41" t="n">
-        <v>0.134263</v>
+        <v>0.136127</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.165395</v>
+        <v>0.166168</v>
       </c>
       <c r="C42" t="n">
-        <v>0.125139</v>
+        <v>0.12468</v>
       </c>
       <c r="D42" t="n">
-        <v>0.13399</v>
+        <v>0.13703</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.163202</v>
+        <v>0.162782</v>
       </c>
       <c r="C43" t="n">
-        <v>0.123537</v>
+        <v>0.126107</v>
       </c>
       <c r="D43" t="n">
-        <v>0.134633</v>
+        <v>0.141169</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.169065</v>
+        <v>0.166397</v>
       </c>
       <c r="C44" t="n">
-        <v>0.12768</v>
+        <v>0.129604</v>
       </c>
       <c r="D44" t="n">
-        <v>0.140759</v>
+        <v>0.136449</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.165908</v>
+        <v>0.164537</v>
       </c>
       <c r="C45" t="n">
-        <v>0.128808</v>
+        <v>0.124998</v>
       </c>
       <c r="D45" t="n">
-        <v>0.137189</v>
+        <v>0.13626</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.167392</v>
+        <v>0.162465</v>
       </c>
       <c r="C46" t="n">
-        <v>0.126837</v>
+        <v>0.123906</v>
       </c>
       <c r="D46" t="n">
-        <v>0.140442</v>
+        <v>0.138833</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.164655</v>
+        <v>0.164694</v>
       </c>
       <c r="C47" t="n">
-        <v>0.13199</v>
+        <v>0.128041</v>
       </c>
       <c r="D47" t="n">
-        <v>0.13858</v>
+        <v>0.142331</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.164187</v>
+        <v>0.167471</v>
       </c>
       <c r="C48" t="n">
-        <v>0.134037</v>
+        <v>0.129297</v>
       </c>
       <c r="D48" t="n">
-        <v>0.145811</v>
+        <v>0.14593</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.166641</v>
+        <v>0.167557</v>
       </c>
       <c r="C49" t="n">
-        <v>0.134328</v>
+        <v>0.129031</v>
       </c>
       <c r="D49" t="n">
-        <v>0.145241</v>
+        <v>0.14602</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.168698</v>
+        <v>0.173259</v>
       </c>
       <c r="C50" t="n">
-        <v>0.135396</v>
+        <v>0.13637</v>
       </c>
       <c r="D50" t="n">
-        <v>0.148572</v>
+        <v>0.149593</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172398</v>
+        <v>0.176798</v>
       </c>
       <c r="C51" t="n">
-        <v>0.13871</v>
+        <v>0.138136</v>
       </c>
       <c r="D51" t="n">
-        <v>0.211347</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.181517</v>
+        <v>0.173964</v>
       </c>
       <c r="C52" t="n">
-        <v>0.144347</v>
+        <v>0.142947</v>
       </c>
       <c r="D52" t="n">
-        <v>0.206371</v>
+        <v>0.203056</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.251147</v>
+        <v>0.257451</v>
       </c>
       <c r="C53" t="n">
-        <v>0.19948</v>
+        <v>0.195959</v>
       </c>
       <c r="D53" t="n">
-        <v>0.208075</v>
+        <v>0.209032</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.255346</v>
+        <v>0.260969</v>
       </c>
       <c r="C54" t="n">
-        <v>0.203376</v>
+        <v>0.19877</v>
       </c>
       <c r="D54" t="n">
-        <v>0.202696</v>
+        <v>0.207374</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.258504</v>
+        <v>0.255734</v>
       </c>
       <c r="C55" t="n">
-        <v>0.202554</v>
+        <v>0.196926</v>
       </c>
       <c r="D55" t="n">
-        <v>0.206794</v>
+        <v>0.215839</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.256568</v>
+        <v>0.256712</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200551</v>
+        <v>0.203525</v>
       </c>
       <c r="D56" t="n">
-        <v>0.213275</v>
+        <v>0.211607</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.254699</v>
+        <v>0.259312</v>
       </c>
       <c r="C57" t="n">
-        <v>0.209388</v>
+        <v>0.19891</v>
       </c>
       <c r="D57" t="n">
-        <v>0.213753</v>
+        <v>0.201107</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.258416</v>
+        <v>0.259297</v>
       </c>
       <c r="C58" t="n">
-        <v>0.21876</v>
+        <v>0.199361</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213284</v>
+        <v>0.207765</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.254891</v>
+        <v>0.26679</v>
       </c>
       <c r="C59" t="n">
-        <v>0.202485</v>
+        <v>0.202467</v>
       </c>
       <c r="D59" t="n">
-        <v>0.214485</v>
+        <v>0.207112</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.255704</v>
+        <v>0.27056</v>
       </c>
       <c r="C60" t="n">
-        <v>0.211102</v>
+        <v>0.204459</v>
       </c>
       <c r="D60" t="n">
-        <v>0.211735</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257285</v>
+        <v>0.263216</v>
       </c>
       <c r="C61" t="n">
-        <v>0.210559</v>
+        <v>0.208148</v>
       </c>
       <c r="D61" t="n">
-        <v>0.218378</v>
+        <v>0.21084</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.253362</v>
+        <v>0.264074</v>
       </c>
       <c r="C62" t="n">
-        <v>0.21491</v>
+        <v>0.207265</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223148</v>
+        <v>0.215926</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264742</v>
+        <v>0.256596</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21249</v>
+        <v>0.209862</v>
       </c>
       <c r="D63" t="n">
-        <v>0.229834</v>
+        <v>0.215417</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.269162</v>
+        <v>0.271416</v>
       </c>
       <c r="C64" t="n">
-        <v>0.216615</v>
+        <v>0.20383</v>
       </c>
       <c r="D64" t="n">
-        <v>0.225039</v>
+        <v>0.218665</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262931</v>
+        <v>0.25769</v>
       </c>
       <c r="C65" t="n">
-        <v>0.220717</v>
+        <v>0.213704</v>
       </c>
       <c r="D65" t="n">
-        <v>0.225666</v>
+        <v>0.230335</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.265476</v>
+        <v>0.271511</v>
       </c>
       <c r="C66" t="n">
-        <v>0.227357</v>
+        <v>0.216336</v>
       </c>
       <c r="D66" t="n">
-        <v>0.300893</v>
+        <v>0.296384</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.408233</v>
+        <v>0.404931</v>
       </c>
       <c r="C67" t="n">
-        <v>0.321149</v>
+        <v>0.324397</v>
       </c>
       <c r="D67" t="n">
-        <v>0.297539</v>
+        <v>0.298057</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.399212</v>
+        <v>0.415237</v>
       </c>
       <c r="C68" t="n">
-        <v>0.323197</v>
+        <v>0.317195</v>
       </c>
       <c r="D68" t="n">
-        <v>0.297228</v>
+        <v>0.298255</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.403987</v>
+        <v>0.412385</v>
       </c>
       <c r="C69" t="n">
-        <v>0.318057</v>
+        <v>0.316815</v>
       </c>
       <c r="D69" t="n">
-        <v>0.299097</v>
+        <v>0.300844</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.406347</v>
+        <v>0.416751</v>
       </c>
       <c r="C70" t="n">
-        <v>0.324631</v>
+        <v>0.328594</v>
       </c>
       <c r="D70" t="n">
-        <v>0.306733</v>
+        <v>0.297281</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.387942</v>
+        <v>0.407205</v>
       </c>
       <c r="C71" t="n">
-        <v>0.316453</v>
+        <v>0.319683</v>
       </c>
       <c r="D71" t="n">
-        <v>0.30969</v>
+        <v>0.298979</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.408929</v>
+        <v>0.41321</v>
       </c>
       <c r="C72" t="n">
-        <v>0.325195</v>
+        <v>0.328182</v>
       </c>
       <c r="D72" t="n">
-        <v>0.302761</v>
+        <v>0.300428</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.401416</v>
+        <v>0.407524</v>
       </c>
       <c r="C73" t="n">
-        <v>0.327158</v>
+        <v>0.322631</v>
       </c>
       <c r="D73" t="n">
-        <v>0.315295</v>
+        <v>0.302722</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.420524</v>
+        <v>0.416091</v>
       </c>
       <c r="C74" t="n">
-        <v>0.336666</v>
+        <v>0.324792</v>
       </c>
       <c r="D74" t="n">
-        <v>0.305377</v>
+        <v>0.311222</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.419298</v>
+        <v>0.421224</v>
       </c>
       <c r="C75" t="n">
-        <v>0.32709</v>
+        <v>0.320271</v>
       </c>
       <c r="D75" t="n">
-        <v>0.311834</v>
+        <v>0.301782</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.413674</v>
+        <v>0.403138</v>
       </c>
       <c r="C76" t="n">
-        <v>0.335642</v>
+        <v>0.315317</v>
       </c>
       <c r="D76" t="n">
-        <v>0.318695</v>
+        <v>0.297989</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.403456</v>
+        <v>0.403338</v>
       </c>
       <c r="C77" t="n">
-        <v>0.338018</v>
+        <v>0.315975</v>
       </c>
       <c r="D77" t="n">
-        <v>0.314499</v>
+        <v>0.303623</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.406559</v>
+        <v>0.398035</v>
       </c>
       <c r="C78" t="n">
-        <v>0.335094</v>
+        <v>0.323732</v>
       </c>
       <c r="D78" t="n">
-        <v>0.31768</v>
+        <v>0.322954</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.420097</v>
+        <v>0.410593</v>
       </c>
       <c r="C79" t="n">
-        <v>0.332238</v>
+        <v>0.329276</v>
       </c>
       <c r="D79" t="n">
-        <v>0.337543</v>
+        <v>0.311598</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.414184</v>
+        <v>0.41304</v>
       </c>
       <c r="C80" t="n">
-        <v>0.343929</v>
+        <v>0.328995</v>
       </c>
       <c r="D80" t="n">
-        <v>0.428527</v>
+        <v>0.427237</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.56352</v>
+        <v>0.543392</v>
       </c>
       <c r="C81" t="n">
-        <v>0.434344</v>
+        <v>0.417006</v>
       </c>
       <c r="D81" t="n">
-        <v>0.435947</v>
+        <v>0.424445</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.565354</v>
+        <v>0.555673</v>
       </c>
       <c r="C82" t="n">
-        <v>0.439259</v>
+        <v>0.42741</v>
       </c>
       <c r="D82" t="n">
-        <v>0.439942</v>
+        <v>0.442372</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.54532</v>
+        <v>0.560827</v>
       </c>
       <c r="C83" t="n">
-        <v>0.430727</v>
+        <v>0.437086</v>
       </c>
       <c r="D83" t="n">
-        <v>0.43013</v>
+        <v>0.441905</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5386840000000001</v>
+        <v>0.5566140000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.435495</v>
+        <v>0.448006</v>
       </c>
       <c r="D84" t="n">
-        <v>0.448468</v>
+        <v>0.430515</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.557193</v>
+        <v>0.569368</v>
       </c>
       <c r="C85" t="n">
-        <v>0.441938</v>
+        <v>0.434465</v>
       </c>
       <c r="D85" t="n">
-        <v>0.441973</v>
+        <v>0.433525</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.545673</v>
+        <v>0.577179</v>
       </c>
       <c r="C86" t="n">
-        <v>0.437206</v>
+        <v>0.438632</v>
       </c>
       <c r="D86" t="n">
-        <v>0.442308</v>
+        <v>0.441078</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.551698</v>
+        <v>0.58123</v>
       </c>
       <c r="C87" t="n">
-        <v>0.443862</v>
+        <v>0.440509</v>
       </c>
       <c r="D87" t="n">
-        <v>0.448441</v>
+        <v>0.440793</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.55238</v>
+        <v>0.566199</v>
       </c>
       <c r="C88" t="n">
-        <v>0.446031</v>
+        <v>0.429866</v>
       </c>
       <c r="D88" t="n">
-        <v>0.446495</v>
+        <v>0.432242</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.552973</v>
+        <v>0.567852</v>
       </c>
       <c r="C89" t="n">
-        <v>0.439105</v>
+        <v>0.438408</v>
       </c>
       <c r="D89" t="n">
-        <v>0.444632</v>
+        <v>0.431357</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.55263</v>
+        <v>0.558202</v>
       </c>
       <c r="C90" t="n">
-        <v>0.456018</v>
+        <v>0.443922</v>
       </c>
       <c r="D90" t="n">
-        <v>0.461003</v>
+        <v>0.444189</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.560188</v>
+        <v>0.561763</v>
       </c>
       <c r="C91" t="n">
-        <v>0.450862</v>
+        <v>0.430991</v>
       </c>
       <c r="D91" t="n">
-        <v>0.472203</v>
+        <v>0.446108</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.566371</v>
+        <v>0.556902</v>
       </c>
       <c r="C92" t="n">
-        <v>0.451381</v>
+        <v>0.430077</v>
       </c>
       <c r="D92" t="n">
-        <v>0.457996</v>
+        <v>0.451315</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.557063</v>
+        <v>0.563964</v>
       </c>
       <c r="C93" t="n">
-        <v>0.478301</v>
+        <v>0.441904</v>
       </c>
       <c r="D93" t="n">
-        <v>0.473549</v>
+        <v>0.45123</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.580089</v>
+        <v>0.578564</v>
       </c>
       <c r="C94" t="n">
-        <v>0.467612</v>
+        <v>0.456373</v>
       </c>
       <c r="D94" t="n">
-        <v>0.546786</v>
+        <v>0.5271479999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.641307</v>
+        <v>0.633838</v>
       </c>
       <c r="C95" t="n">
-        <v>0.535255</v>
+        <v>0.511725</v>
       </c>
       <c r="D95" t="n">
-        <v>0.51889</v>
+        <v>0.526126</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6438160000000001</v>
+        <v>0.666623</v>
       </c>
       <c r="C96" t="n">
-        <v>0.520383</v>
+        <v>0.504822</v>
       </c>
       <c r="D96" t="n">
-        <v>0.551876</v>
+        <v>0.513975</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.660475</v>
+        <v>0.632132</v>
       </c>
       <c r="C97" t="n">
-        <v>0.523189</v>
+        <v>0.505856</v>
       </c>
       <c r="D97" t="n">
-        <v>0.540256</v>
+        <v>0.517875</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.639453</v>
+        <v>0.634202</v>
       </c>
       <c r="C98" t="n">
-        <v>0.512236</v>
+        <v>0.513343</v>
       </c>
       <c r="D98" t="n">
-        <v>0.541995</v>
+        <v>0.523127</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.704404</v>
+        <v>0.637052</v>
       </c>
       <c r="C99" t="n">
-        <v>0.517392</v>
+        <v>0.518781</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5450430000000001</v>
+        <v>0.525904</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6401250000000001</v>
+        <v>0.644792</v>
       </c>
       <c r="C100" t="n">
-        <v>0.512236</v>
+        <v>0.515855</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5477030000000001</v>
+        <v>0.532124</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.640753</v>
+        <v>0.650842</v>
       </c>
       <c r="C101" t="n">
-        <v>0.534628</v>
+        <v>0.530509</v>
       </c>
       <c r="D101" t="n">
-        <v>0.550562</v>
+        <v>0.557849</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.636491</v>
+        <v>0.640578</v>
       </c>
       <c r="C102" t="n">
-        <v>0.519707</v>
+        <v>0.513887</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5331900000000001</v>
+        <v>0.530846</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.698667</v>
+        <v>0.64998</v>
       </c>
       <c r="C103" t="n">
-        <v>0.536766</v>
+        <v>0.514031</v>
       </c>
       <c r="D103" t="n">
-        <v>0.562518</v>
+        <v>0.5451279999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.665811</v>
+        <v>0.670651</v>
       </c>
       <c r="C104" t="n">
-        <v>0.527726</v>
+        <v>0.518674</v>
       </c>
       <c r="D104" t="n">
-        <v>0.538766</v>
+        <v>0.536801</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.650328</v>
+        <v>0.649076</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5507919999999999</v>
+        <v>0.516599</v>
       </c>
       <c r="D105" t="n">
-        <v>0.554707</v>
+        <v>0.543977</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.701106</v>
+        <v>0.664241</v>
       </c>
       <c r="C106" t="n">
-        <v>0.546017</v>
+        <v>0.523517</v>
       </c>
       <c r="D106" t="n">
-        <v>0.568923</v>
+        <v>0.542618</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6806489999999999</v>
+        <v>0.646334</v>
       </c>
       <c r="C107" t="n">
-        <v>0.565585</v>
+        <v>0.528192</v>
       </c>
       <c r="D107" t="n">
-        <v>0.583415</v>
+        <v>0.539273</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.660019</v>
+        <v>0.653601</v>
       </c>
       <c r="C108" t="n">
-        <v>0.542317</v>
+        <v>0.535447</v>
       </c>
       <c r="D108" t="n">
-        <v>0.628294</v>
+        <v>0.611723</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7170609999999999</v>
+        <v>0.65983</v>
       </c>
       <c r="C109" t="n">
-        <v>0.577939</v>
+        <v>0.5436609999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.63336</v>
+        <v>0.618513</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.916775</v>
+        <v>0.802383</v>
       </c>
       <c r="C110" t="n">
-        <v>0.653984</v>
+        <v>0.594422</v>
       </c>
       <c r="D110" t="n">
-        <v>0.671364</v>
+        <v>0.627494</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.792654</v>
+        <v>0.797752</v>
       </c>
       <c r="C111" t="n">
-        <v>0.643684</v>
+        <v>0.610209</v>
       </c>
       <c r="D111" t="n">
-        <v>0.613229</v>
+        <v>0.6233919999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.795875</v>
+        <v>0.79902</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6629890000000001</v>
+        <v>0.6141259999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.657999</v>
+        <v>0.6252760000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.904204</v>
+        <v>0.808478</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6006</v>
+        <v>0.612172</v>
       </c>
       <c r="D113" t="n">
-        <v>0.612702</v>
+        <v>0.628566</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.867552</v>
+        <v>0.8055600000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.610491</v>
+        <v>0.6258590000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.628414</v>
+        <v>0.67494</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.817997</v>
+        <v>0.799586</v>
       </c>
       <c r="C115" t="n">
-        <v>0.662979</v>
+        <v>0.614865</v>
       </c>
       <c r="D115" t="n">
-        <v>0.684463</v>
+        <v>0.626877</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.864167</v>
+        <v>0.795289</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6489549999999999</v>
+        <v>0.618049</v>
       </c>
       <c r="D116" t="n">
-        <v>0.675716</v>
+        <v>0.618801</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.921691</v>
+        <v>0.799935</v>
       </c>
       <c r="C117" t="n">
-        <v>0.647648</v>
+        <v>0.625597</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6222839999999999</v>
+        <v>0.622422</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.806751</v>
+        <v>0.813509</v>
       </c>
       <c r="C118" t="n">
-        <v>0.619235</v>
+        <v>0.675161</v>
       </c>
       <c r="D118" t="n">
-        <v>0.675768</v>
+        <v>0.644485</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.928404</v>
+        <v>0.8159380000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6749849999999999</v>
+        <v>0.689671</v>
       </c>
       <c r="D119" t="n">
-        <v>0.724023</v>
+        <v>0.714963</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.773035</v>
+        <v>0.91681</v>
       </c>
       <c r="C120" t="n">
-        <v>0.695012</v>
+        <v>0.68392</v>
       </c>
       <c r="D120" t="n">
-        <v>0.659148</v>
+        <v>0.660959</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.804623</v>
+        <v>0.818239</v>
       </c>
       <c r="C121" t="n">
-        <v>0.671037</v>
+        <v>0.688782</v>
       </c>
       <c r="D121" t="n">
-        <v>0.720812</v>
+        <v>0.715476</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.800185</v>
+        <v>0.805091</v>
       </c>
       <c r="C122" t="n">
-        <v>0.628992</v>
+        <v>0.6385690000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.696573</v>
+        <v>0.710367</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.812291</v>
+        <v>0.815963</v>
       </c>
       <c r="C123" t="n">
-        <v>0.642769</v>
+        <v>0.726979</v>
       </c>
       <c r="D123" t="n">
-        <v>0.728679</v>
+        <v>0.768051</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.09801</v>
+        <v>1.0512</v>
       </c>
       <c r="C124" t="n">
-        <v>0.751247</v>
+        <v>0.737555</v>
       </c>
       <c r="D124" t="n">
-        <v>0.755181</v>
+        <v>0.7812480000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.0219</v>
+        <v>1.06244</v>
       </c>
       <c r="C125" t="n">
-        <v>0.726229</v>
+        <v>0.739546</v>
       </c>
       <c r="D125" t="n">
-        <v>0.745264</v>
+        <v>0.78992</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.02863</v>
+        <v>1.06556</v>
       </c>
       <c r="C126" t="n">
-        <v>0.723573</v>
+        <v>0.759231</v>
       </c>
       <c r="D126" t="n">
-        <v>0.758145</v>
+        <v>0.764289</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03145</v>
+        <v>1.0648</v>
       </c>
       <c r="C127" t="n">
-        <v>0.74763</v>
+        <v>0.755193</v>
       </c>
       <c r="D127" t="n">
-        <v>0.763279</v>
+        <v>0.770559</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03987</v>
+        <v>1.06829</v>
       </c>
       <c r="C128" t="n">
-        <v>0.868008</v>
+        <v>0.751583</v>
       </c>
       <c r="D128" t="n">
-        <v>0.742997</v>
+        <v>0.777108</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.03928</v>
+        <v>1.04803</v>
       </c>
       <c r="C129" t="n">
-        <v>0.848844</v>
+        <v>0.744861</v>
       </c>
       <c r="D129" t="n">
-        <v>0.751773</v>
+        <v>0.775794</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03947</v>
+        <v>1.0444</v>
       </c>
       <c r="C130" t="n">
-        <v>0.748098</v>
+        <v>0.78612</v>
       </c>
       <c r="D130" t="n">
-        <v>0.761032</v>
+        <v>0.780287</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.04976</v>
+        <v>1.05535</v>
       </c>
       <c r="C131" t="n">
-        <v>0.740653</v>
+        <v>0.763767</v>
       </c>
       <c r="D131" t="n">
-        <v>0.770537</v>
+        <v>0.780348</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.03743</v>
+        <v>1.09073</v>
       </c>
       <c r="C132" t="n">
-        <v>0.75971</v>
+        <v>0.760435</v>
       </c>
       <c r="D132" t="n">
-        <v>0.77893</v>
+        <v>0.787349</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04347</v>
+        <v>1.05216</v>
       </c>
       <c r="C133" t="n">
-        <v>0.744522</v>
+        <v>0.747041</v>
       </c>
       <c r="D133" t="n">
-        <v>0.76711</v>
+        <v>0.803011</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04669</v>
+        <v>1.05022</v>
       </c>
       <c r="C134" t="n">
-        <v>0.768402</v>
+        <v>0.754739</v>
       </c>
       <c r="D134" t="n">
-        <v>0.79632</v>
+        <v>0.797864</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.02977</v>
+        <v>1.06835</v>
       </c>
       <c r="C135" t="n">
-        <v>0.763981</v>
+        <v>0.756542</v>
       </c>
       <c r="D135" t="n">
-        <v>0.90404</v>
+        <v>0.817121</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.03927</v>
+        <v>1.07088</v>
       </c>
       <c r="C136" t="n">
-        <v>0.88753</v>
+        <v>0.776344</v>
       </c>
       <c r="D136" t="n">
-        <v>0.810702</v>
+        <v>0.817571</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.23743</v>
+        <v>1.07197</v>
       </c>
       <c r="C137" t="n">
-        <v>0.824707</v>
+        <v>0.791534</v>
       </c>
       <c r="D137" t="n">
-        <v>0.967363</v>
+        <v>0.915826</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.31982</v>
+        <v>1.31074</v>
       </c>
       <c r="C138" t="n">
-        <v>0.95064</v>
+        <v>0.930918</v>
       </c>
       <c r="D138" t="n">
-        <v>0.937194</v>
+        <v>0.928519</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.31555</v>
+        <v>1.31084</v>
       </c>
       <c r="C139" t="n">
-        <v>0.953179</v>
+        <v>0.9459070000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.966489</v>
+        <v>0.931561</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.30492</v>
+        <v>1.30988</v>
       </c>
       <c r="C140" t="n">
-        <v>0.932679</v>
+        <v>0.931493</v>
       </c>
       <c r="D140" t="n">
-        <v>0.961602</v>
+        <v>0.93481</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.31753</v>
+        <v>1.31378</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9422509999999999</v>
+        <v>0.930052</v>
       </c>
       <c r="D141" t="n">
-        <v>0.954083</v>
+        <v>0.926816</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.31516</v>
+        <v>1.30034</v>
       </c>
       <c r="C142" t="n">
-        <v>0.943655</v>
+        <v>0.940094</v>
       </c>
       <c r="D142" t="n">
-        <v>0.953338</v>
+        <v>0.9516</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.31392</v>
+        <v>1.32141</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9378379999999999</v>
+        <v>0.9413899999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.95101</v>
+        <v>0.958485</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.121718</v>
+        <v>0.116272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.104156</v>
+        <v>0.09783559999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113249</v>
+        <v>0.105676</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.120644</v>
+        <v>0.116376</v>
       </c>
       <c r="C3" t="n">
-        <v>0.102074</v>
+        <v>0.09831719999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.112906</v>
+        <v>0.110187</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.119916</v>
+        <v>0.116259</v>
       </c>
       <c r="C4" t="n">
-        <v>0.103411</v>
+        <v>0.0975776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.113177</v>
+        <v>0.106924</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.124991</v>
+        <v>0.118186</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104095</v>
+        <v>0.0995361</v>
       </c>
       <c r="D5" t="n">
-        <v>0.112456</v>
+        <v>0.110455</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.122901</v>
+        <v>0.119145</v>
       </c>
       <c r="C6" t="n">
-        <v>0.102569</v>
+        <v>0.101079</v>
       </c>
       <c r="D6" t="n">
-        <v>0.115613</v>
+        <v>0.108111</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118492</v>
+        <v>0.121852</v>
       </c>
       <c r="C7" t="n">
-        <v>0.106999</v>
+        <v>0.107447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.119273</v>
+        <v>0.110626</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121552</v>
+        <v>0.118023</v>
       </c>
       <c r="C8" t="n">
-        <v>0.105908</v>
+        <v>0.101783</v>
       </c>
       <c r="D8" t="n">
-        <v>0.123108</v>
+        <v>0.115314</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120292</v>
+        <v>0.12046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.111081</v>
+        <v>0.110779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.112405</v>
+        <v>0.108737</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126061</v>
+        <v>0.129711</v>
       </c>
       <c r="C10" t="n">
-        <v>0.106061</v>
+        <v>0.0989927</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11012</v>
+        <v>0.107433</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.131051</v>
+        <v>0.131366</v>
       </c>
       <c r="C11" t="n">
-        <v>0.104144</v>
+        <v>0.0993274</v>
       </c>
       <c r="D11" t="n">
-        <v>0.113197</v>
+        <v>0.110725</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127029</v>
+        <v>0.125077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.104282</v>
+        <v>0.102866</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110235</v>
+        <v>0.109697</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.12817</v>
+        <v>0.13023</v>
       </c>
       <c r="C13" t="n">
-        <v>0.100527</v>
+        <v>0.10385</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111898</v>
+        <v>0.109852</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128592</v>
+        <v>0.132632</v>
       </c>
       <c r="C14" t="n">
-        <v>0.103816</v>
+        <v>0.101816</v>
       </c>
       <c r="D14" t="n">
-        <v>0.111388</v>
+        <v>0.115652</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.133403</v>
+        <v>0.128746</v>
       </c>
       <c r="C15" t="n">
-        <v>0.105485</v>
+        <v>0.101765</v>
       </c>
       <c r="D15" t="n">
-        <v>0.11498</v>
+        <v>0.109298</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.131385</v>
+        <v>0.13153</v>
       </c>
       <c r="C16" t="n">
-        <v>0.104083</v>
+        <v>0.105105</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113796</v>
+        <v>0.117138</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127189</v>
+        <v>0.130388</v>
       </c>
       <c r="C17" t="n">
-        <v>0.107146</v>
+        <v>0.10586</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112897</v>
+        <v>0.112906</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130809</v>
+        <v>0.128724</v>
       </c>
       <c r="C18" t="n">
-        <v>0.105243</v>
+        <v>0.104558</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113148</v>
+        <v>0.114708</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.128392</v>
+        <v>0.129462</v>
       </c>
       <c r="C19" t="n">
-        <v>0.105563</v>
+        <v>0.10466</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114873</v>
+        <v>0.117198</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126311</v>
+        <v>0.130078</v>
       </c>
       <c r="C20" t="n">
-        <v>0.109249</v>
+        <v>0.110863</v>
       </c>
       <c r="D20" t="n">
-        <v>0.115505</v>
+        <v>0.119685</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.13202</v>
+        <v>0.131333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.110972</v>
+        <v>0.109908</v>
       </c>
       <c r="D21" t="n">
-        <v>0.124371</v>
+        <v>0.119873</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132961</v>
+        <v>0.132906</v>
       </c>
       <c r="C22" t="n">
-        <v>0.112588</v>
+        <v>0.113808</v>
       </c>
       <c r="D22" t="n">
-        <v>0.129403</v>
+        <v>0.127979</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133993</v>
+        <v>0.134058</v>
       </c>
       <c r="C23" t="n">
-        <v>0.115367</v>
+        <v>0.115317</v>
       </c>
       <c r="D23" t="n">
-        <v>0.117261</v>
+        <v>0.114828</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.141673</v>
+        <v>0.14296</v>
       </c>
       <c r="C24" t="n">
-        <v>0.10481</v>
+        <v>0.103871</v>
       </c>
       <c r="D24" t="n">
-        <v>0.117212</v>
+        <v>0.115744</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.139136</v>
+        <v>0.141352</v>
       </c>
       <c r="C25" t="n">
-        <v>0.107089</v>
+        <v>0.108075</v>
       </c>
       <c r="D25" t="n">
-        <v>0.119535</v>
+        <v>0.115345</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.137733</v>
+        <v>0.139595</v>
       </c>
       <c r="C26" t="n">
-        <v>0.107121</v>
+        <v>0.107495</v>
       </c>
       <c r="D26" t="n">
-        <v>0.119513</v>
+        <v>0.121181</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138996</v>
+        <v>0.136409</v>
       </c>
       <c r="C27" t="n">
-        <v>0.10639</v>
+        <v>0.10535</v>
       </c>
       <c r="D27" t="n">
-        <v>0.117445</v>
+        <v>0.118004</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.144871</v>
+        <v>0.138516</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109508</v>
+        <v>0.109932</v>
       </c>
       <c r="D28" t="n">
-        <v>0.119908</v>
+        <v>0.121599</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.139271</v>
+        <v>0.139907</v>
       </c>
       <c r="C29" t="n">
-        <v>0.106879</v>
+        <v>0.111931</v>
       </c>
       <c r="D29" t="n">
-        <v>0.118486</v>
+        <v>0.120962</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.14369</v>
+        <v>0.13986</v>
       </c>
       <c r="C30" t="n">
-        <v>0.110906</v>
+        <v>0.1081</v>
       </c>
       <c r="D30" t="n">
-        <v>0.11825</v>
+        <v>0.117178</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.138909</v>
+        <v>0.136538</v>
       </c>
       <c r="C31" t="n">
-        <v>0.109992</v>
+        <v>0.108021</v>
       </c>
       <c r="D31" t="n">
-        <v>0.119795</v>
+        <v>0.119251</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.144898</v>
+        <v>0.137269</v>
       </c>
       <c r="C32" t="n">
-        <v>0.113644</v>
+        <v>0.109934</v>
       </c>
       <c r="D32" t="n">
-        <v>0.122948</v>
+        <v>0.124447</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.143539</v>
+        <v>0.136893</v>
       </c>
       <c r="C33" t="n">
-        <v>0.110695</v>
+        <v>0.110303</v>
       </c>
       <c r="D33" t="n">
-        <v>0.122762</v>
+        <v>0.121029</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.144256</v>
+        <v>0.141728</v>
       </c>
       <c r="C34" t="n">
-        <v>0.118996</v>
+        <v>0.114577</v>
       </c>
       <c r="D34" t="n">
-        <v>0.124546</v>
+        <v>0.121999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143574</v>
+        <v>0.143126</v>
       </c>
       <c r="C35" t="n">
-        <v>0.115436</v>
+        <v>0.118321</v>
       </c>
       <c r="D35" t="n">
-        <v>0.12873</v>
+        <v>0.130464</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.14128</v>
+        <v>0.146457</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11746</v>
+        <v>0.117848</v>
       </c>
       <c r="D36" t="n">
-        <v>0.137684</v>
+        <v>0.134624</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.144718</v>
+        <v>0.146719</v>
       </c>
       <c r="C37" t="n">
-        <v>0.120288</v>
+        <v>0.122796</v>
       </c>
       <c r="D37" t="n">
-        <v>0.135245</v>
+        <v>0.136947</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.167923</v>
+        <v>0.164828</v>
       </c>
       <c r="C38" t="n">
-        <v>0.122428</v>
+        <v>0.122533</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1339</v>
+        <v>0.136097</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.167719</v>
+        <v>0.164744</v>
       </c>
       <c r="C39" t="n">
-        <v>0.122616</v>
+        <v>0.119651</v>
       </c>
       <c r="D39" t="n">
-        <v>0.133483</v>
+        <v>0.132337</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.171269</v>
+        <v>0.167898</v>
       </c>
       <c r="C40" t="n">
-        <v>0.123324</v>
+        <v>0.121479</v>
       </c>
       <c r="D40" t="n">
-        <v>0.134608</v>
+        <v>0.13633</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.163695</v>
+        <v>0.166233</v>
       </c>
       <c r="C41" t="n">
-        <v>0.121138</v>
+        <v>0.123228</v>
       </c>
       <c r="D41" t="n">
-        <v>0.136127</v>
+        <v>0.134605</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.166168</v>
+        <v>0.162758</v>
       </c>
       <c r="C42" t="n">
-        <v>0.12468</v>
+        <v>0.123664</v>
       </c>
       <c r="D42" t="n">
-        <v>0.13703</v>
+        <v>0.134869</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.162782</v>
+        <v>0.163364</v>
       </c>
       <c r="C43" t="n">
-        <v>0.126107</v>
+        <v>0.125189</v>
       </c>
       <c r="D43" t="n">
-        <v>0.141169</v>
+        <v>0.135634</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.166397</v>
+        <v>0.160539</v>
       </c>
       <c r="C44" t="n">
-        <v>0.129604</v>
+        <v>0.132307</v>
       </c>
       <c r="D44" t="n">
-        <v>0.136449</v>
+        <v>0.139573</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.164537</v>
+        <v>0.166381</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124998</v>
+        <v>0.125812</v>
       </c>
       <c r="D45" t="n">
-        <v>0.13626</v>
+        <v>0.136449</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.162465</v>
+        <v>0.165669</v>
       </c>
       <c r="C46" t="n">
-        <v>0.123906</v>
+        <v>0.130123</v>
       </c>
       <c r="D46" t="n">
-        <v>0.138833</v>
+        <v>0.139729</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.164694</v>
+        <v>0.167181</v>
       </c>
       <c r="C47" t="n">
-        <v>0.128041</v>
+        <v>0.128467</v>
       </c>
       <c r="D47" t="n">
-        <v>0.142331</v>
+        <v>0.140247</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167471</v>
+        <v>0.164009</v>
       </c>
       <c r="C48" t="n">
-        <v>0.129297</v>
+        <v>0.128528</v>
       </c>
       <c r="D48" t="n">
-        <v>0.14593</v>
+        <v>0.14311</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.167557</v>
+        <v>0.167025</v>
       </c>
       <c r="C49" t="n">
-        <v>0.129031</v>
+        <v>0.130706</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14602</v>
+        <v>0.148323</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173259</v>
+        <v>0.176585</v>
       </c>
       <c r="C50" t="n">
-        <v>0.13637</v>
+        <v>0.131345</v>
       </c>
       <c r="D50" t="n">
-        <v>0.149593</v>
+        <v>0.150867</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176798</v>
+        <v>0.171902</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138136</v>
+        <v>0.140133</v>
       </c>
       <c r="D51" t="n">
-        <v>0.204084</v>
+        <v>0.200291</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173964</v>
+        <v>0.173814</v>
       </c>
       <c r="C52" t="n">
-        <v>0.142947</v>
+        <v>0.143856</v>
       </c>
       <c r="D52" t="n">
-        <v>0.203056</v>
+        <v>0.206508</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.257451</v>
+        <v>0.251568</v>
       </c>
       <c r="C53" t="n">
-        <v>0.195959</v>
+        <v>0.196227</v>
       </c>
       <c r="D53" t="n">
-        <v>0.209032</v>
+        <v>0.203025</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.260969</v>
+        <v>0.262466</v>
       </c>
       <c r="C54" t="n">
-        <v>0.19877</v>
+        <v>0.193887</v>
       </c>
       <c r="D54" t="n">
-        <v>0.207374</v>
+        <v>0.203793</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.255734</v>
+        <v>0.263373</v>
       </c>
       <c r="C55" t="n">
-        <v>0.196926</v>
+        <v>0.199287</v>
       </c>
       <c r="D55" t="n">
-        <v>0.215839</v>
+        <v>0.202249</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.256712</v>
+        <v>0.259123</v>
       </c>
       <c r="C56" t="n">
-        <v>0.203525</v>
+        <v>0.200413</v>
       </c>
       <c r="D56" t="n">
-        <v>0.211607</v>
+        <v>0.208083</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.259312</v>
+        <v>0.261525</v>
       </c>
       <c r="C57" t="n">
-        <v>0.19891</v>
+        <v>0.196864</v>
       </c>
       <c r="D57" t="n">
-        <v>0.201107</v>
+        <v>0.203332</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.259297</v>
+        <v>0.262873</v>
       </c>
       <c r="C58" t="n">
-        <v>0.199361</v>
+        <v>0.202738</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207765</v>
+        <v>0.211442</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.26679</v>
+        <v>0.256857</v>
       </c>
       <c r="C59" t="n">
-        <v>0.202467</v>
+        <v>0.203248</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207112</v>
+        <v>0.209352</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.27056</v>
+        <v>0.252384</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204459</v>
+        <v>0.202561</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2125</v>
+        <v>0.207006</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263216</v>
+        <v>0.265231</v>
       </c>
       <c r="C61" t="n">
-        <v>0.208148</v>
+        <v>0.204509</v>
       </c>
       <c r="D61" t="n">
-        <v>0.21084</v>
+        <v>0.210849</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.264074</v>
+        <v>0.262762</v>
       </c>
       <c r="C62" t="n">
-        <v>0.207265</v>
+        <v>0.207017</v>
       </c>
       <c r="D62" t="n">
-        <v>0.215926</v>
+        <v>0.213084</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.256596</v>
+        <v>0.256931</v>
       </c>
       <c r="C63" t="n">
-        <v>0.209862</v>
+        <v>0.207094</v>
       </c>
       <c r="D63" t="n">
-        <v>0.215417</v>
+        <v>0.21281</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.271416</v>
+        <v>0.274547</v>
       </c>
       <c r="C64" t="n">
-        <v>0.20383</v>
+        <v>0.21604</v>
       </c>
       <c r="D64" t="n">
-        <v>0.218665</v>
+        <v>0.222948</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.25769</v>
+        <v>0.261591</v>
       </c>
       <c r="C65" t="n">
-        <v>0.213704</v>
+        <v>0.21029</v>
       </c>
       <c r="D65" t="n">
-        <v>0.230335</v>
+        <v>0.224321</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.271511</v>
+        <v>0.272629</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216336</v>
+        <v>0.22908</v>
       </c>
       <c r="D66" t="n">
-        <v>0.296384</v>
+        <v>0.299059</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.404931</v>
+        <v>0.399056</v>
       </c>
       <c r="C67" t="n">
-        <v>0.324397</v>
+        <v>0.308835</v>
       </c>
       <c r="D67" t="n">
-        <v>0.298057</v>
+        <v>0.297405</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.415237</v>
+        <v>0.389776</v>
       </c>
       <c r="C68" t="n">
-        <v>0.317195</v>
+        <v>0.311589</v>
       </c>
       <c r="D68" t="n">
-        <v>0.298255</v>
+        <v>0.29237</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.412385</v>
+        <v>0.395399</v>
       </c>
       <c r="C69" t="n">
-        <v>0.316815</v>
+        <v>0.314706</v>
       </c>
       <c r="D69" t="n">
-        <v>0.300844</v>
+        <v>0.309742</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.416751</v>
+        <v>0.386194</v>
       </c>
       <c r="C70" t="n">
-        <v>0.328594</v>
+        <v>0.311652</v>
       </c>
       <c r="D70" t="n">
-        <v>0.297281</v>
+        <v>0.293621</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.407205</v>
+        <v>0.399159</v>
       </c>
       <c r="C71" t="n">
-        <v>0.319683</v>
+        <v>0.315041</v>
       </c>
       <c r="D71" t="n">
-        <v>0.298979</v>
+        <v>0.294626</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.41321</v>
+        <v>0.420717</v>
       </c>
       <c r="C72" t="n">
-        <v>0.328182</v>
+        <v>0.308782</v>
       </c>
       <c r="D72" t="n">
-        <v>0.300428</v>
+        <v>0.316925</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.407524</v>
+        <v>0.396761</v>
       </c>
       <c r="C73" t="n">
-        <v>0.322631</v>
+        <v>0.314541</v>
       </c>
       <c r="D73" t="n">
-        <v>0.302722</v>
+        <v>0.304906</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.416091</v>
+        <v>0.391555</v>
       </c>
       <c r="C74" t="n">
-        <v>0.324792</v>
+        <v>0.314814</v>
       </c>
       <c r="D74" t="n">
-        <v>0.311222</v>
+        <v>0.298802</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.421224</v>
+        <v>0.394584</v>
       </c>
       <c r="C75" t="n">
-        <v>0.320271</v>
+        <v>0.318805</v>
       </c>
       <c r="D75" t="n">
-        <v>0.301782</v>
+        <v>0.306993</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.403138</v>
+        <v>0.402965</v>
       </c>
       <c r="C76" t="n">
-        <v>0.315317</v>
+        <v>0.318241</v>
       </c>
       <c r="D76" t="n">
-        <v>0.297989</v>
+        <v>0.313761</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.403338</v>
+        <v>0.414798</v>
       </c>
       <c r="C77" t="n">
-        <v>0.315975</v>
+        <v>0.317012</v>
       </c>
       <c r="D77" t="n">
-        <v>0.303623</v>
+        <v>0.316774</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.398035</v>
+        <v>0.420062</v>
       </c>
       <c r="C78" t="n">
-        <v>0.323732</v>
+        <v>0.326588</v>
       </c>
       <c r="D78" t="n">
-        <v>0.322954</v>
+        <v>0.312601</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.410593</v>
+        <v>0.420884</v>
       </c>
       <c r="C79" t="n">
-        <v>0.329276</v>
+        <v>0.319282</v>
       </c>
       <c r="D79" t="n">
-        <v>0.311598</v>
+        <v>0.31844</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.41304</v>
+        <v>0.414055</v>
       </c>
       <c r="C80" t="n">
-        <v>0.328995</v>
+        <v>0.323725</v>
       </c>
       <c r="D80" t="n">
-        <v>0.427237</v>
+        <v>0.433962</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.543392</v>
+        <v>0.5600579999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.417006</v>
+        <v>0.444788</v>
       </c>
       <c r="D81" t="n">
-        <v>0.424445</v>
+        <v>0.43178</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.555673</v>
+        <v>0.56343</v>
       </c>
       <c r="C82" t="n">
-        <v>0.42741</v>
+        <v>0.43233</v>
       </c>
       <c r="D82" t="n">
-        <v>0.442372</v>
+        <v>0.424564</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.560827</v>
+        <v>0.55092</v>
       </c>
       <c r="C83" t="n">
-        <v>0.437086</v>
+        <v>0.42573</v>
       </c>
       <c r="D83" t="n">
-        <v>0.441905</v>
+        <v>0.432202</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5566140000000001</v>
+        <v>0.557682</v>
       </c>
       <c r="C84" t="n">
-        <v>0.448006</v>
+        <v>0.425113</v>
       </c>
       <c r="D84" t="n">
-        <v>0.430515</v>
+        <v>0.430097</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.569368</v>
+        <v>0.5581390000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.434465</v>
+        <v>0.436431</v>
       </c>
       <c r="D85" t="n">
-        <v>0.433525</v>
+        <v>0.439265</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.577179</v>
+        <v>0.5603630000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.438632</v>
+        <v>0.435431</v>
       </c>
       <c r="D86" t="n">
-        <v>0.441078</v>
+        <v>0.433762</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.58123</v>
+        <v>0.566624</v>
       </c>
       <c r="C87" t="n">
-        <v>0.440509</v>
+        <v>0.444628</v>
       </c>
       <c r="D87" t="n">
-        <v>0.440793</v>
+        <v>0.442134</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.566199</v>
+        <v>0.567657</v>
       </c>
       <c r="C88" t="n">
-        <v>0.429866</v>
+        <v>0.43404</v>
       </c>
       <c r="D88" t="n">
-        <v>0.432242</v>
+        <v>0.438436</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.567852</v>
+        <v>0.569585</v>
       </c>
       <c r="C89" t="n">
-        <v>0.438408</v>
+        <v>0.431386</v>
       </c>
       <c r="D89" t="n">
-        <v>0.431357</v>
+        <v>0.436751</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.558202</v>
+        <v>0.560727</v>
       </c>
       <c r="C90" t="n">
-        <v>0.443922</v>
+        <v>0.432243</v>
       </c>
       <c r="D90" t="n">
-        <v>0.444189</v>
+        <v>0.452603</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.561763</v>
+        <v>0.548956</v>
       </c>
       <c r="C91" t="n">
-        <v>0.430991</v>
+        <v>0.434596</v>
       </c>
       <c r="D91" t="n">
-        <v>0.446108</v>
+        <v>0.44534</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.556902</v>
+        <v>0.553731</v>
       </c>
       <c r="C92" t="n">
-        <v>0.430077</v>
+        <v>0.431677</v>
       </c>
       <c r="D92" t="n">
-        <v>0.451315</v>
+        <v>0.453262</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.563964</v>
+        <v>0.576588</v>
       </c>
       <c r="C93" t="n">
-        <v>0.441904</v>
+        <v>0.441875</v>
       </c>
       <c r="D93" t="n">
-        <v>0.45123</v>
+        <v>0.447132</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.578564</v>
+        <v>0.557559</v>
       </c>
       <c r="C94" t="n">
-        <v>0.456373</v>
+        <v>0.446919</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5271479999999999</v>
+        <v>0.531561</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.633838</v>
+        <v>0.651438</v>
       </c>
       <c r="C95" t="n">
-        <v>0.511725</v>
+        <v>0.5359</v>
       </c>
       <c r="D95" t="n">
-        <v>0.526126</v>
+        <v>0.52626</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.666623</v>
+        <v>0.6649040000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.504822</v>
+        <v>0.508202</v>
       </c>
       <c r="D96" t="n">
-        <v>0.513975</v>
+        <v>0.528041</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.632132</v>
+        <v>0.642972</v>
       </c>
       <c r="C97" t="n">
-        <v>0.505856</v>
+        <v>0.529203</v>
       </c>
       <c r="D97" t="n">
-        <v>0.517875</v>
+        <v>0.55381</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.634202</v>
+        <v>0.643214</v>
       </c>
       <c r="C98" t="n">
-        <v>0.513343</v>
+        <v>0.515297</v>
       </c>
       <c r="D98" t="n">
-        <v>0.523127</v>
+        <v>0.543785</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.637052</v>
+        <v>0.721328</v>
       </c>
       <c r="C99" t="n">
-        <v>0.518781</v>
+        <v>0.517841</v>
       </c>
       <c r="D99" t="n">
-        <v>0.525904</v>
+        <v>0.520004</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.644792</v>
+        <v>0.656451</v>
       </c>
       <c r="C100" t="n">
-        <v>0.515855</v>
+        <v>0.5104030000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.532124</v>
+        <v>0.553302</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.650842</v>
+        <v>0.690971</v>
       </c>
       <c r="C101" t="n">
-        <v>0.530509</v>
+        <v>0.552162</v>
       </c>
       <c r="D101" t="n">
-        <v>0.557849</v>
+        <v>0.547876</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.640578</v>
+        <v>0.649407</v>
       </c>
       <c r="C102" t="n">
-        <v>0.513887</v>
+        <v>0.533525</v>
       </c>
       <c r="D102" t="n">
-        <v>0.530846</v>
+        <v>0.542062</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.64998</v>
+        <v>0.649544</v>
       </c>
       <c r="C103" t="n">
-        <v>0.514031</v>
+        <v>0.547995</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5451279999999999</v>
+        <v>0.557107</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.670651</v>
+        <v>0.7163040000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.518674</v>
+        <v>0.525388</v>
       </c>
       <c r="D104" t="n">
-        <v>0.536801</v>
+        <v>0.557498</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.649076</v>
+        <v>0.653639</v>
       </c>
       <c r="C105" t="n">
-        <v>0.516599</v>
+        <v>0.554743</v>
       </c>
       <c r="D105" t="n">
-        <v>0.543977</v>
+        <v>0.564963</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.664241</v>
+        <v>0.716262</v>
       </c>
       <c r="C106" t="n">
-        <v>0.523517</v>
+        <v>0.533409</v>
       </c>
       <c r="D106" t="n">
-        <v>0.542618</v>
+        <v>0.5451589999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.646334</v>
+        <v>0.676427</v>
       </c>
       <c r="C107" t="n">
-        <v>0.528192</v>
+        <v>0.529352</v>
       </c>
       <c r="D107" t="n">
-        <v>0.539273</v>
+        <v>0.580443</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.653601</v>
+        <v>0.645756</v>
       </c>
       <c r="C108" t="n">
-        <v>0.535447</v>
+        <v>0.578122</v>
       </c>
       <c r="D108" t="n">
-        <v>0.611723</v>
+        <v>0.613115</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.65983</v>
+        <v>0.665224</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5436609999999999</v>
+        <v>0.579345</v>
       </c>
       <c r="D109" t="n">
-        <v>0.618513</v>
+        <v>0.608429</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.802383</v>
+        <v>0.806023</v>
       </c>
       <c r="C110" t="n">
-        <v>0.594422</v>
+        <v>0.589419</v>
       </c>
       <c r="D110" t="n">
-        <v>0.627494</v>
+        <v>0.612245</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.797752</v>
+        <v>0.781158</v>
       </c>
       <c r="C111" t="n">
-        <v>0.610209</v>
+        <v>0.615676</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6233919999999999</v>
+        <v>0.624001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.79902</v>
+        <v>0.802229</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6141259999999999</v>
+        <v>0.6111529999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6252760000000001</v>
+        <v>0.624524</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.808478</v>
+        <v>0.795859</v>
       </c>
       <c r="C113" t="n">
-        <v>0.612172</v>
+        <v>0.660851</v>
       </c>
       <c r="D113" t="n">
-        <v>0.628566</v>
+        <v>0.675658</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8055600000000001</v>
+        <v>0.919847</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6258590000000001</v>
+        <v>0.6095699999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.67494</v>
+        <v>0.632858</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.799586</v>
+        <v>0.793115</v>
       </c>
       <c r="C115" t="n">
-        <v>0.614865</v>
+        <v>0.625803</v>
       </c>
       <c r="D115" t="n">
-        <v>0.626877</v>
+        <v>0.6676840000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.795289</v>
+        <v>0.812962</v>
       </c>
       <c r="C116" t="n">
-        <v>0.618049</v>
+        <v>0.612348</v>
       </c>
       <c r="D116" t="n">
-        <v>0.618801</v>
+        <v>0.6354030000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.799935</v>
+        <v>0.780173</v>
       </c>
       <c r="C117" t="n">
-        <v>0.625597</v>
+        <v>0.623385</v>
       </c>
       <c r="D117" t="n">
-        <v>0.622422</v>
+        <v>0.634848</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.813509</v>
+        <v>0.791635</v>
       </c>
       <c r="C118" t="n">
-        <v>0.675161</v>
+        <v>0.620689</v>
       </c>
       <c r="D118" t="n">
-        <v>0.644485</v>
+        <v>0.616901</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8159380000000001</v>
+        <v>0.791301</v>
       </c>
       <c r="C119" t="n">
-        <v>0.689671</v>
+        <v>0.630875</v>
       </c>
       <c r="D119" t="n">
-        <v>0.714963</v>
+        <v>0.6884130000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.91681</v>
+        <v>0.8083669999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.68392</v>
+        <v>0.630062</v>
       </c>
       <c r="D120" t="n">
-        <v>0.660959</v>
+        <v>0.653845</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.818239</v>
+        <v>0.787926</v>
       </c>
       <c r="C121" t="n">
-        <v>0.688782</v>
+        <v>0.644265</v>
       </c>
       <c r="D121" t="n">
-        <v>0.715476</v>
+        <v>0.67579</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.805091</v>
+        <v>0.807182</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6385690000000001</v>
+        <v>0.625654</v>
       </c>
       <c r="D122" t="n">
-        <v>0.710367</v>
+        <v>0.695561</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.815963</v>
+        <v>0.816649</v>
       </c>
       <c r="C123" t="n">
-        <v>0.726979</v>
+        <v>0.637506</v>
       </c>
       <c r="D123" t="n">
-        <v>0.768051</v>
+        <v>0.743926</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.0512</v>
+        <v>1.0535</v>
       </c>
       <c r="C124" t="n">
-        <v>0.737555</v>
+        <v>0.791457</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7812480000000001</v>
+        <v>0.74385</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.06244</v>
+        <v>1.05206</v>
       </c>
       <c r="C125" t="n">
-        <v>0.739546</v>
+        <v>0.739</v>
       </c>
       <c r="D125" t="n">
-        <v>0.78992</v>
+        <v>0.750764</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.06556</v>
+        <v>1.0492</v>
       </c>
       <c r="C126" t="n">
-        <v>0.759231</v>
+        <v>0.726445</v>
       </c>
       <c r="D126" t="n">
-        <v>0.764289</v>
+        <v>0.812383</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.0648</v>
+        <v>1.04315</v>
       </c>
       <c r="C127" t="n">
-        <v>0.755193</v>
+        <v>0.734564</v>
       </c>
       <c r="D127" t="n">
-        <v>0.770559</v>
+        <v>0.77837</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.06829</v>
+        <v>1.06198</v>
       </c>
       <c r="C128" t="n">
-        <v>0.751583</v>
+        <v>0.75461</v>
       </c>
       <c r="D128" t="n">
-        <v>0.777108</v>
+        <v>0.754575</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.04803</v>
+        <v>1.05077</v>
       </c>
       <c r="C129" t="n">
-        <v>0.744861</v>
+        <v>0.7450909999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.775794</v>
+        <v>0.746716</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.0444</v>
+        <v>1.03067</v>
       </c>
       <c r="C130" t="n">
-        <v>0.78612</v>
+        <v>0.756396</v>
       </c>
       <c r="D130" t="n">
-        <v>0.780287</v>
+        <v>0.7616810000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.05535</v>
+        <v>1.02837</v>
       </c>
       <c r="C131" t="n">
-        <v>0.763767</v>
+        <v>0.769123</v>
       </c>
       <c r="D131" t="n">
-        <v>0.780348</v>
+        <v>0.78934</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.09073</v>
+        <v>1.04643</v>
       </c>
       <c r="C132" t="n">
-        <v>0.760435</v>
+        <v>0.749154</v>
       </c>
       <c r="D132" t="n">
-        <v>0.787349</v>
+        <v>0.776825</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05216</v>
+        <v>1.04443</v>
       </c>
       <c r="C133" t="n">
-        <v>0.747041</v>
+        <v>0.752637</v>
       </c>
       <c r="D133" t="n">
-        <v>0.803011</v>
+        <v>0.766806</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05022</v>
+        <v>1.04027</v>
       </c>
       <c r="C134" t="n">
-        <v>0.754739</v>
+        <v>0.82643</v>
       </c>
       <c r="D134" t="n">
-        <v>0.797864</v>
+        <v>0.777697</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06835</v>
+        <v>1.13599</v>
       </c>
       <c r="C135" t="n">
-        <v>0.756542</v>
+        <v>0.774983</v>
       </c>
       <c r="D135" t="n">
-        <v>0.817121</v>
+        <v>0.795088</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07088</v>
+        <v>1.03858</v>
       </c>
       <c r="C136" t="n">
-        <v>0.776344</v>
+        <v>0.790665</v>
       </c>
       <c r="D136" t="n">
-        <v>0.817571</v>
+        <v>0.805194</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07197</v>
+        <v>1.06865</v>
       </c>
       <c r="C137" t="n">
-        <v>0.791534</v>
+        <v>0.789</v>
       </c>
       <c r="D137" t="n">
-        <v>0.915826</v>
+        <v>0.947455</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.31074</v>
+        <v>1.31203</v>
       </c>
       <c r="C138" t="n">
-        <v>0.930918</v>
+        <v>0.941191</v>
       </c>
       <c r="D138" t="n">
-        <v>0.928519</v>
+        <v>0.9360849999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.31084</v>
+        <v>1.31727</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9459070000000001</v>
+        <v>0.927268</v>
       </c>
       <c r="D139" t="n">
-        <v>0.931561</v>
+        <v>0.949182</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.30988</v>
+        <v>1.3313</v>
       </c>
       <c r="C140" t="n">
-        <v>0.931493</v>
+        <v>0.933713</v>
       </c>
       <c r="D140" t="n">
-        <v>0.93481</v>
+        <v>0.934077</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.31378</v>
+        <v>1.41723</v>
       </c>
       <c r="C141" t="n">
-        <v>0.930052</v>
+        <v>0.943262</v>
       </c>
       <c r="D141" t="n">
-        <v>0.926816</v>
+        <v>0.9322</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.30034</v>
+        <v>1.44599</v>
       </c>
       <c r="C142" t="n">
-        <v>0.940094</v>
+        <v>0.93197</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9516</v>
+        <v>0.936268</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32141</v>
+        <v>1.37873</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9413899999999999</v>
+        <v>0.937904</v>
       </c>
       <c r="D143" t="n">
-        <v>0.958485</v>
+        <v>0.955801</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116272</v>
+        <v>0.122157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09783559999999999</v>
+        <v>0.103458</v>
       </c>
       <c r="D2" t="n">
-        <v>0.105676</v>
+        <v>0.110399</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116376</v>
+        <v>0.120115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09831719999999999</v>
+        <v>0.102651</v>
       </c>
       <c r="D3" t="n">
-        <v>0.110187</v>
+        <v>0.1135</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116259</v>
+        <v>0.120844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0975776</v>
+        <v>0.103216</v>
       </c>
       <c r="D4" t="n">
-        <v>0.106924</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118186</v>
+        <v>0.122605</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0995361</v>
+        <v>0.0995171</v>
       </c>
       <c r="D5" t="n">
-        <v>0.110455</v>
+        <v>0.111912</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.119145</v>
+        <v>0.120442</v>
       </c>
       <c r="C6" t="n">
-        <v>0.101079</v>
+        <v>0.102869</v>
       </c>
       <c r="D6" t="n">
-        <v>0.108111</v>
+        <v>0.114833</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.121852</v>
+        <v>0.123781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.107447</v>
+        <v>0.103404</v>
       </c>
       <c r="D7" t="n">
-        <v>0.110626</v>
+        <v>0.118188</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118023</v>
+        <v>0.121515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.101783</v>
+        <v>0.10471</v>
       </c>
       <c r="D8" t="n">
-        <v>0.115314</v>
+        <v>0.118892</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12046</v>
+        <v>0.12511</v>
       </c>
       <c r="C9" t="n">
-        <v>0.110779</v>
+        <v>0.106678</v>
       </c>
       <c r="D9" t="n">
-        <v>0.108737</v>
+        <v>0.114542</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.129711</v>
+        <v>0.129893</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0989927</v>
+        <v>0.101106</v>
       </c>
       <c r="D10" t="n">
-        <v>0.107433</v>
+        <v>0.111826</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.131366</v>
+        <v>0.129893</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0993274</v>
+        <v>0.102958</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110725</v>
+        <v>0.11647</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125077</v>
+        <v>0.132448</v>
       </c>
       <c r="C12" t="n">
-        <v>0.102866</v>
+        <v>0.10484</v>
       </c>
       <c r="D12" t="n">
-        <v>0.109697</v>
+        <v>0.114468</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.13023</v>
+        <v>0.131574</v>
       </c>
       <c r="C13" t="n">
-        <v>0.10385</v>
+        <v>0.107928</v>
       </c>
       <c r="D13" t="n">
-        <v>0.109852</v>
+        <v>0.11118</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.132632</v>
+        <v>0.129052</v>
       </c>
       <c r="C14" t="n">
-        <v>0.101816</v>
+        <v>0.103275</v>
       </c>
       <c r="D14" t="n">
-        <v>0.115652</v>
+        <v>0.113835</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.128746</v>
+        <v>0.132371</v>
       </c>
       <c r="C15" t="n">
-        <v>0.101765</v>
+        <v>0.10506</v>
       </c>
       <c r="D15" t="n">
-        <v>0.109298</v>
+        <v>0.113302</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.13153</v>
+        <v>0.129305</v>
       </c>
       <c r="C16" t="n">
-        <v>0.105105</v>
+        <v>0.108225</v>
       </c>
       <c r="D16" t="n">
-        <v>0.117138</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130388</v>
+        <v>0.127621</v>
       </c>
       <c r="C17" t="n">
-        <v>0.10586</v>
+        <v>0.106879</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112906</v>
+        <v>0.112867</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128724</v>
+        <v>0.130053</v>
       </c>
       <c r="C18" t="n">
-        <v>0.104558</v>
+        <v>0.10586</v>
       </c>
       <c r="D18" t="n">
-        <v>0.114708</v>
+        <v>0.113082</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.129462</v>
+        <v>0.131822</v>
       </c>
       <c r="C19" t="n">
-        <v>0.10466</v>
+        <v>0.108389</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117198</v>
+        <v>0.115649</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.130078</v>
+        <v>0.134587</v>
       </c>
       <c r="C20" t="n">
-        <v>0.110863</v>
+        <v>0.107541</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119685</v>
+        <v>0.1178</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.131333</v>
+        <v>0.135352</v>
       </c>
       <c r="C21" t="n">
-        <v>0.109908</v>
+        <v>0.109363</v>
       </c>
       <c r="D21" t="n">
-        <v>0.119873</v>
+        <v>0.127015</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132906</v>
+        <v>0.13556</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113808</v>
+        <v>0.114222</v>
       </c>
       <c r="D22" t="n">
-        <v>0.127979</v>
+        <v>0.125559</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.134058</v>
+        <v>0.139229</v>
       </c>
       <c r="C23" t="n">
-        <v>0.115317</v>
+        <v>0.118035</v>
       </c>
       <c r="D23" t="n">
-        <v>0.114828</v>
+        <v>0.115463</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.14296</v>
+        <v>0.136813</v>
       </c>
       <c r="C24" t="n">
-        <v>0.103871</v>
+        <v>0.108186</v>
       </c>
       <c r="D24" t="n">
-        <v>0.115744</v>
+        <v>0.117205</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.141352</v>
+        <v>0.139329</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108075</v>
+        <v>0.111298</v>
       </c>
       <c r="D25" t="n">
-        <v>0.115345</v>
+        <v>0.120278</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.139595</v>
+        <v>0.137705</v>
       </c>
       <c r="C26" t="n">
-        <v>0.107495</v>
+        <v>0.109767</v>
       </c>
       <c r="D26" t="n">
-        <v>0.121181</v>
+        <v>0.118809</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136409</v>
+        <v>0.138532</v>
       </c>
       <c r="C27" t="n">
-        <v>0.10535</v>
+        <v>0.107133</v>
       </c>
       <c r="D27" t="n">
-        <v>0.118004</v>
+        <v>0.11697</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138516</v>
+        <v>0.141425</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109932</v>
+        <v>0.11094</v>
       </c>
       <c r="D28" t="n">
-        <v>0.121599</v>
+        <v>0.121664</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.139907</v>
+        <v>0.136394</v>
       </c>
       <c r="C29" t="n">
-        <v>0.111931</v>
+        <v>0.109146</v>
       </c>
       <c r="D29" t="n">
-        <v>0.120962</v>
+        <v>0.120224</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.13986</v>
+        <v>0.137544</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1081</v>
+        <v>0.111001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117178</v>
+        <v>0.119236</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136538</v>
+        <v>0.135034</v>
       </c>
       <c r="C31" t="n">
-        <v>0.108021</v>
+        <v>0.10727</v>
       </c>
       <c r="D31" t="n">
-        <v>0.119251</v>
+        <v>0.117371</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137269</v>
+        <v>0.140716</v>
       </c>
       <c r="C32" t="n">
-        <v>0.109934</v>
+        <v>0.111584</v>
       </c>
       <c r="D32" t="n">
-        <v>0.124447</v>
+        <v>0.12104</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136893</v>
+        <v>0.144523</v>
       </c>
       <c r="C33" t="n">
-        <v>0.110303</v>
+        <v>0.110241</v>
       </c>
       <c r="D33" t="n">
-        <v>0.121029</v>
+        <v>0.122832</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.141728</v>
+        <v>0.139862</v>
       </c>
       <c r="C34" t="n">
-        <v>0.114577</v>
+        <v>0.116049</v>
       </c>
       <c r="D34" t="n">
-        <v>0.121999</v>
+        <v>0.124114</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143126</v>
+        <v>0.148193</v>
       </c>
       <c r="C35" t="n">
-        <v>0.118321</v>
+        <v>0.117424</v>
       </c>
       <c r="D35" t="n">
-        <v>0.130464</v>
+        <v>0.129219</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146457</v>
+        <v>0.146604</v>
       </c>
       <c r="C36" t="n">
-        <v>0.117848</v>
+        <v>0.119421</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134624</v>
+        <v>0.137219</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146719</v>
+        <v>0.146919</v>
       </c>
       <c r="C37" t="n">
-        <v>0.122796</v>
+        <v>0.1231</v>
       </c>
       <c r="D37" t="n">
-        <v>0.136947</v>
+        <v>0.135576</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.164828</v>
+        <v>0.165342</v>
       </c>
       <c r="C38" t="n">
-        <v>0.122533</v>
+        <v>0.122717</v>
       </c>
       <c r="D38" t="n">
-        <v>0.136097</v>
+        <v>0.13531</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.164744</v>
+        <v>0.161302</v>
       </c>
       <c r="C39" t="n">
-        <v>0.119651</v>
+        <v>0.120328</v>
       </c>
       <c r="D39" t="n">
-        <v>0.132337</v>
+        <v>0.134099</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167898</v>
+        <v>0.164973</v>
       </c>
       <c r="C40" t="n">
-        <v>0.121479</v>
+        <v>0.121093</v>
       </c>
       <c r="D40" t="n">
-        <v>0.13633</v>
+        <v>0.139646</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.166233</v>
+        <v>0.16151</v>
       </c>
       <c r="C41" t="n">
-        <v>0.123228</v>
+        <v>0.124824</v>
       </c>
       <c r="D41" t="n">
-        <v>0.134605</v>
+        <v>0.136818</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.162758</v>
+        <v>0.168878</v>
       </c>
       <c r="C42" t="n">
-        <v>0.123664</v>
+        <v>0.123811</v>
       </c>
       <c r="D42" t="n">
-        <v>0.134869</v>
+        <v>0.137096</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.163364</v>
+        <v>0.161234</v>
       </c>
       <c r="C43" t="n">
-        <v>0.125189</v>
+        <v>0.126541</v>
       </c>
       <c r="D43" t="n">
-        <v>0.135634</v>
+        <v>0.135452</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.160539</v>
+        <v>0.164286</v>
       </c>
       <c r="C44" t="n">
-        <v>0.132307</v>
+        <v>0.125311</v>
       </c>
       <c r="D44" t="n">
-        <v>0.139573</v>
+        <v>0.137068</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.166381</v>
+        <v>0.166867</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125812</v>
+        <v>0.125935</v>
       </c>
       <c r="D45" t="n">
-        <v>0.136449</v>
+        <v>0.141182</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.165669</v>
+        <v>0.168199</v>
       </c>
       <c r="C46" t="n">
-        <v>0.130123</v>
+        <v>0.124551</v>
       </c>
       <c r="D46" t="n">
-        <v>0.139729</v>
+        <v>0.141204</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.167181</v>
+        <v>0.165259</v>
       </c>
       <c r="C47" t="n">
-        <v>0.128467</v>
+        <v>0.127092</v>
       </c>
       <c r="D47" t="n">
-        <v>0.140247</v>
+        <v>0.138533</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.164009</v>
+        <v>0.16895</v>
       </c>
       <c r="C48" t="n">
-        <v>0.128528</v>
+        <v>0.131338</v>
       </c>
       <c r="D48" t="n">
-        <v>0.14311</v>
+        <v>0.140094</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.167025</v>
+        <v>0.16565</v>
       </c>
       <c r="C49" t="n">
-        <v>0.130706</v>
+        <v>0.129028</v>
       </c>
       <c r="D49" t="n">
-        <v>0.148323</v>
+        <v>0.14483</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.176585</v>
+        <v>0.168551</v>
       </c>
       <c r="C50" t="n">
-        <v>0.131345</v>
+        <v>0.130235</v>
       </c>
       <c r="D50" t="n">
-        <v>0.150867</v>
+        <v>0.148126</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.171902</v>
+        <v>0.169742</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140133</v>
+        <v>0.135351</v>
       </c>
       <c r="D51" t="n">
-        <v>0.200291</v>
+        <v>0.205726</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173814</v>
+        <v>0.178366</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143856</v>
+        <v>0.142232</v>
       </c>
       <c r="D52" t="n">
-        <v>0.206508</v>
+        <v>0.199023</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.251568</v>
+        <v>0.258762</v>
       </c>
       <c r="C53" t="n">
-        <v>0.196227</v>
+        <v>0.192704</v>
       </c>
       <c r="D53" t="n">
-        <v>0.203025</v>
+        <v>0.207021</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.262466</v>
+        <v>0.269544</v>
       </c>
       <c r="C54" t="n">
-        <v>0.193887</v>
+        <v>0.203384</v>
       </c>
       <c r="D54" t="n">
-        <v>0.203793</v>
+        <v>0.205654</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.263373</v>
+        <v>0.258716</v>
       </c>
       <c r="C55" t="n">
-        <v>0.199287</v>
+        <v>0.197327</v>
       </c>
       <c r="D55" t="n">
-        <v>0.202249</v>
+        <v>0.210892</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259123</v>
+        <v>0.258932</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200413</v>
+        <v>0.198107</v>
       </c>
       <c r="D56" t="n">
-        <v>0.208083</v>
+        <v>0.206402</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.261525</v>
+        <v>0.25362</v>
       </c>
       <c r="C57" t="n">
-        <v>0.196864</v>
+        <v>0.201924</v>
       </c>
       <c r="D57" t="n">
-        <v>0.203332</v>
+        <v>0.207235</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.262873</v>
+        <v>0.258549</v>
       </c>
       <c r="C58" t="n">
-        <v>0.202738</v>
+        <v>0.203988</v>
       </c>
       <c r="D58" t="n">
-        <v>0.211442</v>
+        <v>0.205944</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.256857</v>
+        <v>0.25576</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203248</v>
+        <v>0.202225</v>
       </c>
       <c r="D59" t="n">
-        <v>0.209352</v>
+        <v>0.209484</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.252384</v>
+        <v>0.256523</v>
       </c>
       <c r="C60" t="n">
-        <v>0.202561</v>
+        <v>0.198994</v>
       </c>
       <c r="D60" t="n">
-        <v>0.207006</v>
+        <v>0.213161</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.265231</v>
+        <v>0.256444</v>
       </c>
       <c r="C61" t="n">
-        <v>0.204509</v>
+        <v>0.2008</v>
       </c>
       <c r="D61" t="n">
-        <v>0.210849</v>
+        <v>0.211601</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.262762</v>
+        <v>0.264905</v>
       </c>
       <c r="C62" t="n">
-        <v>0.207017</v>
+        <v>0.213227</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213084</v>
+        <v>0.216734</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.256931</v>
+        <v>0.257967</v>
       </c>
       <c r="C63" t="n">
-        <v>0.207094</v>
+        <v>0.210983</v>
       </c>
       <c r="D63" t="n">
-        <v>0.21281</v>
+        <v>0.213146</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.274547</v>
+        <v>0.263771</v>
       </c>
       <c r="C64" t="n">
-        <v>0.21604</v>
+        <v>0.208329</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222948</v>
+        <v>0.218567</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.261591</v>
+        <v>0.265025</v>
       </c>
       <c r="C65" t="n">
-        <v>0.21029</v>
+        <v>0.210258</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224321</v>
+        <v>0.229425</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.272629</v>
+        <v>0.267859</v>
       </c>
       <c r="C66" t="n">
-        <v>0.22908</v>
+        <v>0.215125</v>
       </c>
       <c r="D66" t="n">
-        <v>0.299059</v>
+        <v>0.294471</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.399056</v>
+        <v>0.392647</v>
       </c>
       <c r="C67" t="n">
-        <v>0.308835</v>
+        <v>0.30842</v>
       </c>
       <c r="D67" t="n">
-        <v>0.297405</v>
+        <v>0.297622</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.389776</v>
+        <v>0.401258</v>
       </c>
       <c r="C68" t="n">
-        <v>0.311589</v>
+        <v>0.315132</v>
       </c>
       <c r="D68" t="n">
-        <v>0.29237</v>
+        <v>0.299818</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.395399</v>
+        <v>0.390567</v>
       </c>
       <c r="C69" t="n">
-        <v>0.314706</v>
+        <v>0.312493</v>
       </c>
       <c r="D69" t="n">
-        <v>0.309742</v>
+        <v>0.299072</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.386194</v>
+        <v>0.394902</v>
       </c>
       <c r="C70" t="n">
-        <v>0.311652</v>
+        <v>0.314418</v>
       </c>
       <c r="D70" t="n">
-        <v>0.293621</v>
+        <v>0.29838</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.399159</v>
+        <v>0.398111</v>
       </c>
       <c r="C71" t="n">
-        <v>0.315041</v>
+        <v>0.311006</v>
       </c>
       <c r="D71" t="n">
-        <v>0.294626</v>
+        <v>0.295328</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.420717</v>
+        <v>0.410685</v>
       </c>
       <c r="C72" t="n">
-        <v>0.308782</v>
+        <v>0.3162</v>
       </c>
       <c r="D72" t="n">
-        <v>0.316925</v>
+        <v>0.305591</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.396761</v>
+        <v>0.404992</v>
       </c>
       <c r="C73" t="n">
-        <v>0.314541</v>
+        <v>0.317397</v>
       </c>
       <c r="D73" t="n">
-        <v>0.304906</v>
+        <v>0.312165</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.391555</v>
+        <v>0.400411</v>
       </c>
       <c r="C74" t="n">
-        <v>0.314814</v>
+        <v>0.315024</v>
       </c>
       <c r="D74" t="n">
-        <v>0.298802</v>
+        <v>0.305889</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.394584</v>
+        <v>0.405544</v>
       </c>
       <c r="C75" t="n">
-        <v>0.318805</v>
+        <v>0.316657</v>
       </c>
       <c r="D75" t="n">
-        <v>0.306993</v>
+        <v>0.320354</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.402965</v>
+        <v>0.403338</v>
       </c>
       <c r="C76" t="n">
-        <v>0.318241</v>
+        <v>0.319968</v>
       </c>
       <c r="D76" t="n">
-        <v>0.313761</v>
+        <v>0.317899</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.414798</v>
+        <v>0.419929</v>
       </c>
       <c r="C77" t="n">
-        <v>0.317012</v>
+        <v>0.323261</v>
       </c>
       <c r="D77" t="n">
-        <v>0.316774</v>
+        <v>0.315856</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.420062</v>
+        <v>0.412337</v>
       </c>
       <c r="C78" t="n">
-        <v>0.326588</v>
+        <v>0.318166</v>
       </c>
       <c r="D78" t="n">
-        <v>0.312601</v>
+        <v>0.32741</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.420884</v>
+        <v>0.405795</v>
       </c>
       <c r="C79" t="n">
-        <v>0.319282</v>
+        <v>0.325934</v>
       </c>
       <c r="D79" t="n">
-        <v>0.31844</v>
+        <v>0.328838</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.414055</v>
+        <v>0.416084</v>
       </c>
       <c r="C80" t="n">
-        <v>0.323725</v>
+        <v>0.326743</v>
       </c>
       <c r="D80" t="n">
-        <v>0.433962</v>
+        <v>0.419159</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5600579999999999</v>
+        <v>0.560935</v>
       </c>
       <c r="C81" t="n">
-        <v>0.444788</v>
+        <v>0.425856</v>
       </c>
       <c r="D81" t="n">
-        <v>0.43178</v>
+        <v>0.423476</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.56343</v>
+        <v>0.54236</v>
       </c>
       <c r="C82" t="n">
-        <v>0.43233</v>
+        <v>0.423574</v>
       </c>
       <c r="D82" t="n">
-        <v>0.424564</v>
+        <v>0.434668</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.55092</v>
+        <v>0.5502629999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.42573</v>
+        <v>0.437575</v>
       </c>
       <c r="D83" t="n">
-        <v>0.432202</v>
+        <v>0.435337</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.557682</v>
+        <v>0.534278</v>
       </c>
       <c r="C84" t="n">
-        <v>0.425113</v>
+        <v>0.439637</v>
       </c>
       <c r="D84" t="n">
-        <v>0.430097</v>
+        <v>0.44241</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5581390000000001</v>
+        <v>0.569276</v>
       </c>
       <c r="C85" t="n">
-        <v>0.436431</v>
+        <v>0.447488</v>
       </c>
       <c r="D85" t="n">
-        <v>0.439265</v>
+        <v>0.444898</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5603630000000001</v>
+        <v>0.5567800000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.435431</v>
+        <v>0.431397</v>
       </c>
       <c r="D86" t="n">
-        <v>0.433762</v>
+        <v>0.438514</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.566624</v>
+        <v>0.556647</v>
       </c>
       <c r="C87" t="n">
-        <v>0.444628</v>
+        <v>0.428042</v>
       </c>
       <c r="D87" t="n">
-        <v>0.442134</v>
+        <v>0.432405</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.567657</v>
+        <v>0.554549</v>
       </c>
       <c r="C88" t="n">
-        <v>0.43404</v>
+        <v>0.447662</v>
       </c>
       <c r="D88" t="n">
-        <v>0.438436</v>
+        <v>0.45212</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.569585</v>
+        <v>0.555586</v>
       </c>
       <c r="C89" t="n">
-        <v>0.431386</v>
+        <v>0.433994</v>
       </c>
       <c r="D89" t="n">
-        <v>0.436751</v>
+        <v>0.431903</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.560727</v>
+        <v>0.562788</v>
       </c>
       <c r="C90" t="n">
-        <v>0.432243</v>
+        <v>0.437208</v>
       </c>
       <c r="D90" t="n">
-        <v>0.452603</v>
+        <v>0.431282</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.548956</v>
+        <v>0.560161</v>
       </c>
       <c r="C91" t="n">
-        <v>0.434596</v>
+        <v>0.429999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.44534</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.553731</v>
+        <v>0.55975</v>
       </c>
       <c r="C92" t="n">
-        <v>0.431677</v>
+        <v>0.444997</v>
       </c>
       <c r="D92" t="n">
-        <v>0.453262</v>
+        <v>0.448193</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.576588</v>
+        <v>0.562822</v>
       </c>
       <c r="C93" t="n">
-        <v>0.441875</v>
+        <v>0.447747</v>
       </c>
       <c r="D93" t="n">
-        <v>0.447132</v>
+        <v>0.457742</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.557559</v>
+        <v>0.561801</v>
       </c>
       <c r="C94" t="n">
-        <v>0.446919</v>
+        <v>0.454268</v>
       </c>
       <c r="D94" t="n">
-        <v>0.531561</v>
+        <v>0.5135729999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.651438</v>
+        <v>0.652188</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5359</v>
+        <v>0.5161019999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.52626</v>
+        <v>0.551583</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6649040000000001</v>
+        <v>0.649401</v>
       </c>
       <c r="C96" t="n">
-        <v>0.508202</v>
+        <v>0.519324</v>
       </c>
       <c r="D96" t="n">
-        <v>0.528041</v>
+        <v>0.522472</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.642972</v>
+        <v>0.643028</v>
       </c>
       <c r="C97" t="n">
-        <v>0.529203</v>
+        <v>0.504254</v>
       </c>
       <c r="D97" t="n">
-        <v>0.55381</v>
+        <v>0.538338</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.643214</v>
+        <v>0.659018</v>
       </c>
       <c r="C98" t="n">
-        <v>0.515297</v>
+        <v>0.519946</v>
       </c>
       <c r="D98" t="n">
-        <v>0.543785</v>
+        <v>0.527791</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.721328</v>
+        <v>0.636869</v>
       </c>
       <c r="C99" t="n">
-        <v>0.517841</v>
+        <v>0.538733</v>
       </c>
       <c r="D99" t="n">
-        <v>0.520004</v>
+        <v>0.5435179999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.656451</v>
+        <v>0.686253</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5104030000000001</v>
+        <v>0.535068</v>
       </c>
       <c r="D100" t="n">
-        <v>0.553302</v>
+        <v>0.5616</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.690971</v>
+        <v>0.640645</v>
       </c>
       <c r="C101" t="n">
-        <v>0.552162</v>
+        <v>0.524852</v>
       </c>
       <c r="D101" t="n">
-        <v>0.547876</v>
+        <v>0.5249</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.649407</v>
+        <v>0.649106</v>
       </c>
       <c r="C102" t="n">
-        <v>0.533525</v>
+        <v>0.515245</v>
       </c>
       <c r="D102" t="n">
-        <v>0.542062</v>
+        <v>0.533828</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.649544</v>
+        <v>0.6437349999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.547995</v>
+        <v>0.513618</v>
       </c>
       <c r="D103" t="n">
-        <v>0.557107</v>
+        <v>0.556862</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.7163040000000001</v>
+        <v>0.639467</v>
       </c>
       <c r="C104" t="n">
-        <v>0.525388</v>
+        <v>0.5133529999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.557498</v>
+        <v>0.55781</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.653639</v>
+        <v>0.641883</v>
       </c>
       <c r="C105" t="n">
-        <v>0.554743</v>
+        <v>0.525817</v>
       </c>
       <c r="D105" t="n">
-        <v>0.564963</v>
+        <v>0.542873</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.716262</v>
+        <v>0.6548929999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.533409</v>
+        <v>0.525521</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5451589999999999</v>
+        <v>0.545612</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.676427</v>
+        <v>0.6475880000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.529352</v>
+        <v>0.557055</v>
       </c>
       <c r="D107" t="n">
-        <v>0.580443</v>
+        <v>0.561125</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.645756</v>
+        <v>0.678036</v>
       </c>
       <c r="C108" t="n">
-        <v>0.578122</v>
+        <v>0.574843</v>
       </c>
       <c r="D108" t="n">
-        <v>0.613115</v>
+        <v>0.636328</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.665224</v>
+        <v>0.724842</v>
       </c>
       <c r="C109" t="n">
-        <v>0.579345</v>
+        <v>0.550181</v>
       </c>
       <c r="D109" t="n">
-        <v>0.608429</v>
+        <v>0.622621</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.806023</v>
+        <v>0.801033</v>
       </c>
       <c r="C110" t="n">
-        <v>0.589419</v>
+        <v>0.6390439999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.612245</v>
+        <v>0.615676</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.781158</v>
+        <v>0.79792</v>
       </c>
       <c r="C111" t="n">
-        <v>0.615676</v>
+        <v>0.5998869999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.624001</v>
+        <v>0.61073</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.802229</v>
+        <v>0.91954</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6111529999999999</v>
+        <v>0.661263</v>
       </c>
       <c r="D112" t="n">
-        <v>0.624524</v>
+        <v>0.633252</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.795859</v>
+        <v>0.921274</v>
       </c>
       <c r="C113" t="n">
-        <v>0.660851</v>
+        <v>0.6119560000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.675658</v>
+        <v>0.617971</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.919847</v>
+        <v>0.817873</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6095699999999999</v>
+        <v>0.621066</v>
       </c>
       <c r="D114" t="n">
-        <v>0.632858</v>
+        <v>0.625093</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.793115</v>
+        <v>0.825979</v>
       </c>
       <c r="C115" t="n">
-        <v>0.625803</v>
+        <v>0.657845</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6676840000000001</v>
+        <v>0.6855</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.812962</v>
+        <v>0.807177</v>
       </c>
       <c r="C116" t="n">
-        <v>0.612348</v>
+        <v>0.616371</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6354030000000001</v>
+        <v>0.619324</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.780173</v>
+        <v>0.805202</v>
       </c>
       <c r="C117" t="n">
-        <v>0.623385</v>
+        <v>0.609283</v>
       </c>
       <c r="D117" t="n">
-        <v>0.634848</v>
+        <v>0.68976</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.791635</v>
+        <v>0.795424</v>
       </c>
       <c r="C118" t="n">
-        <v>0.620689</v>
+        <v>0.621038</v>
       </c>
       <c r="D118" t="n">
-        <v>0.616901</v>
+        <v>0.677248</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.791301</v>
+        <v>0.798671</v>
       </c>
       <c r="C119" t="n">
-        <v>0.630875</v>
+        <v>0.622648</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6884130000000001</v>
+        <v>0.641391</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8083669999999999</v>
+        <v>0.7977070000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.630062</v>
+        <v>0.638076</v>
       </c>
       <c r="D120" t="n">
-        <v>0.653845</v>
+        <v>0.699989</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.787926</v>
+        <v>0.811323</v>
       </c>
       <c r="C121" t="n">
-        <v>0.644265</v>
+        <v>0.62301</v>
       </c>
       <c r="D121" t="n">
-        <v>0.67579</v>
+        <v>0.684368</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.807182</v>
+        <v>0.810563</v>
       </c>
       <c r="C122" t="n">
-        <v>0.625654</v>
+        <v>0.633059</v>
       </c>
       <c r="D122" t="n">
-        <v>0.695561</v>
+        <v>0.658347</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.816649</v>
+        <v>0.881176</v>
       </c>
       <c r="C123" t="n">
-        <v>0.637506</v>
+        <v>0.661659</v>
       </c>
       <c r="D123" t="n">
-        <v>0.743926</v>
+        <v>0.764648</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.0535</v>
+        <v>1.03411</v>
       </c>
       <c r="C124" t="n">
-        <v>0.791457</v>
+        <v>0.730532</v>
       </c>
       <c r="D124" t="n">
-        <v>0.74385</v>
+        <v>0.752562</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.05206</v>
+        <v>1.01736</v>
       </c>
       <c r="C125" t="n">
-        <v>0.739</v>
+        <v>0.734519</v>
       </c>
       <c r="D125" t="n">
-        <v>0.750764</v>
+        <v>0.762127</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.0492</v>
+        <v>1.02762</v>
       </c>
       <c r="C126" t="n">
-        <v>0.726445</v>
+        <v>0.739247</v>
       </c>
       <c r="D126" t="n">
-        <v>0.812383</v>
+        <v>0.7659820000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.04315</v>
+        <v>1.0278</v>
       </c>
       <c r="C127" t="n">
-        <v>0.734564</v>
+        <v>0.741967</v>
       </c>
       <c r="D127" t="n">
-        <v>0.77837</v>
+        <v>0.759893</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.06198</v>
+        <v>1.01171</v>
       </c>
       <c r="C128" t="n">
-        <v>0.75461</v>
+        <v>0.738002</v>
       </c>
       <c r="D128" t="n">
-        <v>0.754575</v>
+        <v>0.783061</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.05077</v>
+        <v>1.03388</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7450909999999999</v>
+        <v>0.754119</v>
       </c>
       <c r="D129" t="n">
-        <v>0.746716</v>
+        <v>0.778694</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03067</v>
+        <v>1.03103</v>
       </c>
       <c r="C130" t="n">
-        <v>0.756396</v>
+        <v>0.735327</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7616810000000001</v>
+        <v>0.771168</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.02837</v>
+        <v>1.03393</v>
       </c>
       <c r="C131" t="n">
-        <v>0.769123</v>
+        <v>0.774101</v>
       </c>
       <c r="D131" t="n">
-        <v>0.78934</v>
+        <v>0.787732</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04643</v>
+        <v>1.03737</v>
       </c>
       <c r="C132" t="n">
-        <v>0.749154</v>
+        <v>0.767934</v>
       </c>
       <c r="D132" t="n">
-        <v>0.776825</v>
+        <v>0.779789</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04443</v>
+        <v>1.04367</v>
       </c>
       <c r="C133" t="n">
-        <v>0.752637</v>
+        <v>0.777379</v>
       </c>
       <c r="D133" t="n">
-        <v>0.766806</v>
+        <v>0.783992</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04027</v>
+        <v>1.01537</v>
       </c>
       <c r="C134" t="n">
-        <v>0.82643</v>
+        <v>0.830921</v>
       </c>
       <c r="D134" t="n">
-        <v>0.777697</v>
+        <v>0.812528</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.13599</v>
+        <v>1.04851</v>
       </c>
       <c r="C135" t="n">
-        <v>0.774983</v>
+        <v>0.763437</v>
       </c>
       <c r="D135" t="n">
-        <v>0.795088</v>
+        <v>0.801717</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.03858</v>
+        <v>1.04927</v>
       </c>
       <c r="C136" t="n">
-        <v>0.790665</v>
+        <v>0.772697</v>
       </c>
       <c r="D136" t="n">
-        <v>0.805194</v>
+        <v>0.832722</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06865</v>
+        <v>1.06056</v>
       </c>
       <c r="C137" t="n">
-        <v>0.789</v>
+        <v>0.790461</v>
       </c>
       <c r="D137" t="n">
-        <v>0.947455</v>
+        <v>0.933213</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.31203</v>
+        <v>1.30874</v>
       </c>
       <c r="C138" t="n">
-        <v>0.941191</v>
+        <v>0.9171319999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9360849999999999</v>
+        <v>0.937134</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.31727</v>
+        <v>1.32056</v>
       </c>
       <c r="C139" t="n">
-        <v>0.927268</v>
+        <v>0.916</v>
       </c>
       <c r="D139" t="n">
-        <v>0.949182</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.3313</v>
+        <v>1.32363</v>
       </c>
       <c r="C140" t="n">
-        <v>0.933713</v>
+        <v>0.943805</v>
       </c>
       <c r="D140" t="n">
-        <v>0.934077</v>
+        <v>0.949411</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.41723</v>
+        <v>1.32595</v>
       </c>
       <c r="C141" t="n">
-        <v>0.943262</v>
+        <v>1.03832</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9322</v>
+        <v>0.950468</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.44599</v>
+        <v>1.32377</v>
       </c>
       <c r="C142" t="n">
-        <v>0.93197</v>
+        <v>0.975361</v>
       </c>
       <c r="D142" t="n">
-        <v>0.936268</v>
+        <v>0.949255</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.37873</v>
+        <v>1.30362</v>
       </c>
       <c r="C143" t="n">
-        <v>0.937904</v>
+        <v>0.938628</v>
       </c>
       <c r="D143" t="n">
-        <v>0.955801</v>
+        <v>0.952128</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.122157</v>
+        <v>0.115835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103458</v>
+        <v>0.101222</v>
       </c>
       <c r="D2" t="n">
-        <v>0.110399</v>
+        <v>0.106107</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.120115</v>
+        <v>0.118528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.102651</v>
+        <v>0.0997219</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1135</v>
+        <v>0.10867</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120844</v>
+        <v>0.118731</v>
       </c>
       <c r="C4" t="n">
-        <v>0.103216</v>
+        <v>0.09820719999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.112014</v>
+        <v>0.108148</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.122605</v>
+        <v>0.118914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0995171</v>
+        <v>0.10155</v>
       </c>
       <c r="D5" t="n">
-        <v>0.111912</v>
+        <v>0.110925</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.120442</v>
+        <v>0.11924</v>
       </c>
       <c r="C6" t="n">
-        <v>0.102869</v>
+        <v>0.100213</v>
       </c>
       <c r="D6" t="n">
-        <v>0.114833</v>
+        <v>0.109526</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.123781</v>
+        <v>0.11919</v>
       </c>
       <c r="C7" t="n">
-        <v>0.103404</v>
+        <v>0.104678</v>
       </c>
       <c r="D7" t="n">
-        <v>0.118188</v>
+        <v>0.112602</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121515</v>
+        <v>0.118084</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10471</v>
+        <v>0.105116</v>
       </c>
       <c r="D8" t="n">
-        <v>0.118892</v>
+        <v>0.11732</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12511</v>
+        <v>0.119721</v>
       </c>
       <c r="C9" t="n">
-        <v>0.106678</v>
+        <v>0.108073</v>
       </c>
       <c r="D9" t="n">
-        <v>0.114542</v>
+        <v>0.109388</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.129893</v>
+        <v>0.129146</v>
       </c>
       <c r="C10" t="n">
-        <v>0.101106</v>
+        <v>0.10273</v>
       </c>
       <c r="D10" t="n">
-        <v>0.111826</v>
+        <v>0.114684</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.129893</v>
+        <v>0.126688</v>
       </c>
       <c r="C11" t="n">
-        <v>0.102958</v>
+        <v>0.102506</v>
       </c>
       <c r="D11" t="n">
-        <v>0.11647</v>
+        <v>0.111396</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.132448</v>
+        <v>0.131219</v>
       </c>
       <c r="C12" t="n">
-        <v>0.10484</v>
+        <v>0.103175</v>
       </c>
       <c r="D12" t="n">
-        <v>0.114468</v>
+        <v>0.110453</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.131574</v>
+        <v>0.131031</v>
       </c>
       <c r="C13" t="n">
-        <v>0.107928</v>
+        <v>0.103976</v>
       </c>
       <c r="D13" t="n">
-        <v>0.11118</v>
+        <v>0.108009</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.129052</v>
+        <v>0.128986</v>
       </c>
       <c r="C14" t="n">
-        <v>0.103275</v>
+        <v>0.100735</v>
       </c>
       <c r="D14" t="n">
-        <v>0.113835</v>
+        <v>0.110699</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.132371</v>
+        <v>0.125879</v>
       </c>
       <c r="C15" t="n">
-        <v>0.10506</v>
+        <v>0.103727</v>
       </c>
       <c r="D15" t="n">
-        <v>0.113302</v>
+        <v>0.112309</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.129305</v>
+        <v>0.129484</v>
       </c>
       <c r="C16" t="n">
-        <v>0.108225</v>
+        <v>0.105125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1136</v>
+        <v>0.113817</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127621</v>
+        <v>0.129078</v>
       </c>
       <c r="C17" t="n">
-        <v>0.106879</v>
+        <v>0.105124</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112867</v>
+        <v>0.115935</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130053</v>
+        <v>0.129426</v>
       </c>
       <c r="C18" t="n">
-        <v>0.10586</v>
+        <v>0.101906</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113082</v>
+        <v>0.117662</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131822</v>
+        <v>0.129674</v>
       </c>
       <c r="C19" t="n">
-        <v>0.108389</v>
+        <v>0.107007</v>
       </c>
       <c r="D19" t="n">
-        <v>0.115649</v>
+        <v>0.115022</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.134587</v>
+        <v>0.133648</v>
       </c>
       <c r="C20" t="n">
-        <v>0.107541</v>
+        <v>0.106266</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1178</v>
+        <v>0.118185</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.135352</v>
+        <v>0.134171</v>
       </c>
       <c r="C21" t="n">
-        <v>0.109363</v>
+        <v>0.112215</v>
       </c>
       <c r="D21" t="n">
-        <v>0.127015</v>
+        <v>0.12006</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.13556</v>
+        <v>0.130137</v>
       </c>
       <c r="C22" t="n">
-        <v>0.114222</v>
+        <v>0.115285</v>
       </c>
       <c r="D22" t="n">
-        <v>0.125559</v>
+        <v>0.127708</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139229</v>
+        <v>0.135093</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118035</v>
+        <v>0.118457</v>
       </c>
       <c r="D23" t="n">
-        <v>0.115463</v>
+        <v>0.116604</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136813</v>
+        <v>0.139036</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108186</v>
+        <v>0.108091</v>
       </c>
       <c r="D24" t="n">
-        <v>0.117205</v>
+        <v>0.114674</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.139329</v>
+        <v>0.138794</v>
       </c>
       <c r="C25" t="n">
-        <v>0.111298</v>
+        <v>0.104584</v>
       </c>
       <c r="D25" t="n">
-        <v>0.120278</v>
+        <v>0.117988</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.137705</v>
+        <v>0.136471</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109767</v>
+        <v>0.106186</v>
       </c>
       <c r="D26" t="n">
-        <v>0.118809</v>
+        <v>0.119178</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138532</v>
+        <v>0.139605</v>
       </c>
       <c r="C27" t="n">
-        <v>0.107133</v>
+        <v>0.106601</v>
       </c>
       <c r="D27" t="n">
-        <v>0.11697</v>
+        <v>0.121206</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.141425</v>
+        <v>0.138974</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11094</v>
+        <v>0.107584</v>
       </c>
       <c r="D28" t="n">
-        <v>0.121664</v>
+        <v>0.119274</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136394</v>
+        <v>0.140125</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109146</v>
+        <v>0.115296</v>
       </c>
       <c r="D29" t="n">
-        <v>0.120224</v>
+        <v>0.121907</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137544</v>
+        <v>0.140154</v>
       </c>
       <c r="C30" t="n">
-        <v>0.111001</v>
+        <v>0.11349</v>
       </c>
       <c r="D30" t="n">
-        <v>0.119236</v>
+        <v>0.125905</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135034</v>
+        <v>0.143134</v>
       </c>
       <c r="C31" t="n">
-        <v>0.10727</v>
+        <v>0.111527</v>
       </c>
       <c r="D31" t="n">
-        <v>0.117371</v>
+        <v>0.120637</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140716</v>
+        <v>0.141526</v>
       </c>
       <c r="C32" t="n">
-        <v>0.111584</v>
+        <v>0.109412</v>
       </c>
       <c r="D32" t="n">
-        <v>0.12104</v>
+        <v>0.122906</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144523</v>
+        <v>0.13787</v>
       </c>
       <c r="C33" t="n">
-        <v>0.110241</v>
+        <v>0.111509</v>
       </c>
       <c r="D33" t="n">
-        <v>0.122832</v>
+        <v>0.123919</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.139862</v>
+        <v>0.138103</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116049</v>
+        <v>0.115373</v>
       </c>
       <c r="D34" t="n">
-        <v>0.124114</v>
+        <v>0.128139</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.148193</v>
+        <v>0.138652</v>
       </c>
       <c r="C35" t="n">
-        <v>0.117424</v>
+        <v>0.116726</v>
       </c>
       <c r="D35" t="n">
-        <v>0.129219</v>
+        <v>0.131307</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146604</v>
+        <v>0.13976</v>
       </c>
       <c r="C36" t="n">
-        <v>0.119421</v>
+        <v>0.123767</v>
       </c>
       <c r="D36" t="n">
-        <v>0.137219</v>
+        <v>0.132613</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146919</v>
+        <v>0.143913</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1231</v>
+        <v>0.123455</v>
       </c>
       <c r="D37" t="n">
-        <v>0.135576</v>
+        <v>0.131165</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.165342</v>
+        <v>0.162081</v>
       </c>
       <c r="C38" t="n">
-        <v>0.122717</v>
+        <v>0.119943</v>
       </c>
       <c r="D38" t="n">
-        <v>0.13531</v>
+        <v>0.126359</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.161302</v>
+        <v>0.169657</v>
       </c>
       <c r="C39" t="n">
-        <v>0.120328</v>
+        <v>0.118048</v>
       </c>
       <c r="D39" t="n">
-        <v>0.134099</v>
+        <v>0.130435</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164973</v>
+        <v>0.163122</v>
       </c>
       <c r="C40" t="n">
-        <v>0.121093</v>
+        <v>0.123519</v>
       </c>
       <c r="D40" t="n">
-        <v>0.139646</v>
+        <v>0.126943</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.16151</v>
+        <v>0.167252</v>
       </c>
       <c r="C41" t="n">
-        <v>0.124824</v>
+        <v>0.121431</v>
       </c>
       <c r="D41" t="n">
-        <v>0.136818</v>
+        <v>0.135509</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.168878</v>
+        <v>0.16202</v>
       </c>
       <c r="C42" t="n">
-        <v>0.123811</v>
+        <v>0.122321</v>
       </c>
       <c r="D42" t="n">
-        <v>0.137096</v>
+        <v>0.130269</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.161234</v>
+        <v>0.165987</v>
       </c>
       <c r="C43" t="n">
-        <v>0.126541</v>
+        <v>0.124354</v>
       </c>
       <c r="D43" t="n">
-        <v>0.135452</v>
+        <v>0.137472</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.164286</v>
+        <v>0.164429</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125311</v>
+        <v>0.125362</v>
       </c>
       <c r="D44" t="n">
-        <v>0.137068</v>
+        <v>0.129265</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.166867</v>
+        <v>0.16839</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125935</v>
+        <v>0.126012</v>
       </c>
       <c r="D45" t="n">
-        <v>0.141182</v>
+        <v>0.13958</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.168199</v>
+        <v>0.166758</v>
       </c>
       <c r="C46" t="n">
-        <v>0.124551</v>
+        <v>0.127265</v>
       </c>
       <c r="D46" t="n">
-        <v>0.141204</v>
+        <v>0.134036</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.165259</v>
+        <v>0.165462</v>
       </c>
       <c r="C47" t="n">
-        <v>0.127092</v>
+        <v>0.12627</v>
       </c>
       <c r="D47" t="n">
-        <v>0.138533</v>
+        <v>0.1371</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.16895</v>
+        <v>0.168055</v>
       </c>
       <c r="C48" t="n">
-        <v>0.131338</v>
+        <v>0.131279</v>
       </c>
       <c r="D48" t="n">
-        <v>0.140094</v>
+        <v>0.134728</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.16565</v>
+        <v>0.169469</v>
       </c>
       <c r="C49" t="n">
-        <v>0.129028</v>
+        <v>0.130662</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14483</v>
+        <v>0.140366</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.168551</v>
+        <v>0.171684</v>
       </c>
       <c r="C50" t="n">
-        <v>0.130235</v>
+        <v>0.137191</v>
       </c>
       <c r="D50" t="n">
-        <v>0.148126</v>
+        <v>0.142744</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.169742</v>
+        <v>0.172077</v>
       </c>
       <c r="C51" t="n">
-        <v>0.135351</v>
+        <v>0.137903</v>
       </c>
       <c r="D51" t="n">
-        <v>0.205726</v>
+        <v>0.203146</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178366</v>
+        <v>0.175458</v>
       </c>
       <c r="C52" t="n">
-        <v>0.142232</v>
+        <v>0.143486</v>
       </c>
       <c r="D52" t="n">
-        <v>0.199023</v>
+        <v>0.203395</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.258762</v>
+        <v>0.257269</v>
       </c>
       <c r="C53" t="n">
-        <v>0.192704</v>
+        <v>0.192331</v>
       </c>
       <c r="D53" t="n">
-        <v>0.207021</v>
+        <v>0.206999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.269544</v>
+        <v>0.263562</v>
       </c>
       <c r="C54" t="n">
-        <v>0.203384</v>
+        <v>0.191748</v>
       </c>
       <c r="D54" t="n">
-        <v>0.205654</v>
+        <v>0.20306</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.258716</v>
+        <v>0.255522</v>
       </c>
       <c r="C55" t="n">
-        <v>0.197327</v>
+        <v>0.193768</v>
       </c>
       <c r="D55" t="n">
-        <v>0.210892</v>
+        <v>0.201927</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258932</v>
+        <v>0.255493</v>
       </c>
       <c r="C56" t="n">
-        <v>0.198107</v>
+        <v>0.194447</v>
       </c>
       <c r="D56" t="n">
-        <v>0.206402</v>
+        <v>0.206193</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.25362</v>
+        <v>0.250334</v>
       </c>
       <c r="C57" t="n">
-        <v>0.201924</v>
+        <v>0.200592</v>
       </c>
       <c r="D57" t="n">
-        <v>0.207235</v>
+        <v>0.208964</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.258549</v>
+        <v>0.261374</v>
       </c>
       <c r="C58" t="n">
-        <v>0.203988</v>
+        <v>0.203599</v>
       </c>
       <c r="D58" t="n">
-        <v>0.205944</v>
+        <v>0.20979</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.25576</v>
+        <v>0.255791</v>
       </c>
       <c r="C59" t="n">
-        <v>0.202225</v>
+        <v>0.214469</v>
       </c>
       <c r="D59" t="n">
-        <v>0.209484</v>
+        <v>0.20881</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.256523</v>
+        <v>0.254333</v>
       </c>
       <c r="C60" t="n">
-        <v>0.198994</v>
+        <v>0.199845</v>
       </c>
       <c r="D60" t="n">
-        <v>0.213161</v>
+        <v>0.208064</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.256444</v>
+        <v>0.263135</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2008</v>
+        <v>0.205308</v>
       </c>
       <c r="D61" t="n">
-        <v>0.211601</v>
+        <v>0.216259</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.264905</v>
+        <v>0.258619</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213227</v>
+        <v>0.205558</v>
       </c>
       <c r="D62" t="n">
-        <v>0.216734</v>
+        <v>0.211044</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.257967</v>
+        <v>0.250719</v>
       </c>
       <c r="C63" t="n">
-        <v>0.210983</v>
+        <v>0.205247</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213146</v>
+        <v>0.219735</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.263771</v>
+        <v>0.267225</v>
       </c>
       <c r="C64" t="n">
-        <v>0.208329</v>
+        <v>0.204206</v>
       </c>
       <c r="D64" t="n">
-        <v>0.218567</v>
+        <v>0.218346</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.265025</v>
+        <v>0.260391</v>
       </c>
       <c r="C65" t="n">
-        <v>0.210258</v>
+        <v>0.209846</v>
       </c>
       <c r="D65" t="n">
-        <v>0.229425</v>
+        <v>0.224834</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.267859</v>
+        <v>0.269155</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215125</v>
+        <v>0.221603</v>
       </c>
       <c r="D66" t="n">
-        <v>0.294471</v>
+        <v>0.289667</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.392647</v>
+        <v>0.395976</v>
       </c>
       <c r="C67" t="n">
-        <v>0.30842</v>
+        <v>0.316688</v>
       </c>
       <c r="D67" t="n">
-        <v>0.297622</v>
+        <v>0.309151</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.401258</v>
+        <v>0.39852</v>
       </c>
       <c r="C68" t="n">
-        <v>0.315132</v>
+        <v>0.304726</v>
       </c>
       <c r="D68" t="n">
-        <v>0.299818</v>
+        <v>0.288336</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.390567</v>
+        <v>0.405169</v>
       </c>
       <c r="C69" t="n">
-        <v>0.312493</v>
+        <v>0.310685</v>
       </c>
       <c r="D69" t="n">
-        <v>0.299072</v>
+        <v>0.295029</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.394902</v>
+        <v>0.401288</v>
       </c>
       <c r="C70" t="n">
-        <v>0.314418</v>
+        <v>0.31474</v>
       </c>
       <c r="D70" t="n">
-        <v>0.29838</v>
+        <v>0.294708</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.398111</v>
+        <v>0.406504</v>
       </c>
       <c r="C71" t="n">
-        <v>0.311006</v>
+        <v>0.314843</v>
       </c>
       <c r="D71" t="n">
-        <v>0.295328</v>
+        <v>0.300854</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.410685</v>
+        <v>0.389737</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3162</v>
+        <v>0.3156</v>
       </c>
       <c r="D72" t="n">
-        <v>0.305591</v>
+        <v>0.300993</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.404992</v>
+        <v>0.420154</v>
       </c>
       <c r="C73" t="n">
-        <v>0.317397</v>
+        <v>0.315471</v>
       </c>
       <c r="D73" t="n">
-        <v>0.312165</v>
+        <v>0.301306</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.400411</v>
+        <v>0.404326</v>
       </c>
       <c r="C74" t="n">
-        <v>0.315024</v>
+        <v>0.311476</v>
       </c>
       <c r="D74" t="n">
-        <v>0.305889</v>
+        <v>0.305227</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.405544</v>
+        <v>0.398578</v>
       </c>
       <c r="C75" t="n">
-        <v>0.316657</v>
+        <v>0.320703</v>
       </c>
       <c r="D75" t="n">
-        <v>0.320354</v>
+        <v>0.29829</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.403338</v>
+        <v>0.405727</v>
       </c>
       <c r="C76" t="n">
-        <v>0.319968</v>
+        <v>0.314334</v>
       </c>
       <c r="D76" t="n">
-        <v>0.317899</v>
+        <v>0.305867</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.419929</v>
+        <v>0.407876</v>
       </c>
       <c r="C77" t="n">
-        <v>0.323261</v>
+        <v>0.321291</v>
       </c>
       <c r="D77" t="n">
-        <v>0.315856</v>
+        <v>0.302659</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.412337</v>
+        <v>0.405732</v>
       </c>
       <c r="C78" t="n">
-        <v>0.318166</v>
+        <v>0.325921</v>
       </c>
       <c r="D78" t="n">
-        <v>0.32741</v>
+        <v>0.323901</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.405795</v>
+        <v>0.42615</v>
       </c>
       <c r="C79" t="n">
-        <v>0.325934</v>
+        <v>0.324405</v>
       </c>
       <c r="D79" t="n">
-        <v>0.328838</v>
+        <v>0.30782</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.416084</v>
+        <v>0.426398</v>
       </c>
       <c r="C80" t="n">
-        <v>0.326743</v>
+        <v>0.333069</v>
       </c>
       <c r="D80" t="n">
-        <v>0.419159</v>
+        <v>0.430025</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.560935</v>
+        <v>0.548633</v>
       </c>
       <c r="C81" t="n">
-        <v>0.425856</v>
+        <v>0.425549</v>
       </c>
       <c r="D81" t="n">
-        <v>0.423476</v>
+        <v>0.428007</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.54236</v>
+        <v>0.563312</v>
       </c>
       <c r="C82" t="n">
-        <v>0.423574</v>
+        <v>0.436212</v>
       </c>
       <c r="D82" t="n">
-        <v>0.434668</v>
+        <v>0.427434</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5502629999999999</v>
+        <v>0.554712</v>
       </c>
       <c r="C83" t="n">
-        <v>0.437575</v>
+        <v>0.419728</v>
       </c>
       <c r="D83" t="n">
-        <v>0.435337</v>
+        <v>0.436824</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.534278</v>
+        <v>0.5536990000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.439637</v>
+        <v>0.430433</v>
       </c>
       <c r="D84" t="n">
-        <v>0.44241</v>
+        <v>0.435439</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.569276</v>
+        <v>0.552882</v>
       </c>
       <c r="C85" t="n">
-        <v>0.447488</v>
+        <v>0.420593</v>
       </c>
       <c r="D85" t="n">
-        <v>0.444898</v>
+        <v>0.434593</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5567800000000001</v>
+        <v>0.56251</v>
       </c>
       <c r="C86" t="n">
-        <v>0.431397</v>
+        <v>0.428917</v>
       </c>
       <c r="D86" t="n">
-        <v>0.438514</v>
+        <v>0.44435</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.556647</v>
+        <v>0.555615</v>
       </c>
       <c r="C87" t="n">
-        <v>0.428042</v>
+        <v>0.442486</v>
       </c>
       <c r="D87" t="n">
-        <v>0.432405</v>
+        <v>0.434458</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.554549</v>
+        <v>0.545713</v>
       </c>
       <c r="C88" t="n">
-        <v>0.447662</v>
+        <v>0.430646</v>
       </c>
       <c r="D88" t="n">
-        <v>0.45212</v>
+        <v>0.43426</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.555586</v>
+        <v>0.558214</v>
       </c>
       <c r="C89" t="n">
-        <v>0.433994</v>
+        <v>0.424598</v>
       </c>
       <c r="D89" t="n">
-        <v>0.431903</v>
+        <v>0.443097</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.562788</v>
+        <v>0.569986</v>
       </c>
       <c r="C90" t="n">
-        <v>0.437208</v>
+        <v>0.433438</v>
       </c>
       <c r="D90" t="n">
-        <v>0.431282</v>
+        <v>0.447201</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.560161</v>
+        <v>0.551284</v>
       </c>
       <c r="C91" t="n">
-        <v>0.429999</v>
+        <v>0.444448</v>
       </c>
       <c r="D91" t="n">
-        <v>0.44</v>
+        <v>0.443953</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.55975</v>
+        <v>0.5756520000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.444997</v>
+        <v>0.439636</v>
       </c>
       <c r="D92" t="n">
-        <v>0.448193</v>
+        <v>0.451367</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.562822</v>
+        <v>0.569461</v>
       </c>
       <c r="C93" t="n">
-        <v>0.447747</v>
+        <v>0.455745</v>
       </c>
       <c r="D93" t="n">
-        <v>0.457742</v>
+        <v>0.456912</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.561801</v>
+        <v>0.58183</v>
       </c>
       <c r="C94" t="n">
-        <v>0.454268</v>
+        <v>0.439956</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5135729999999999</v>
+        <v>0.538494</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.652188</v>
+        <v>0.636395</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5161019999999999</v>
+        <v>0.510249</v>
       </c>
       <c r="D95" t="n">
-        <v>0.551583</v>
+        <v>0.525402</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.649401</v>
+        <v>0.710157</v>
       </c>
       <c r="C96" t="n">
-        <v>0.519324</v>
+        <v>0.539312</v>
       </c>
       <c r="D96" t="n">
-        <v>0.522472</v>
+        <v>0.525024</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.643028</v>
+        <v>0.652266</v>
       </c>
       <c r="C97" t="n">
-        <v>0.504254</v>
+        <v>0.507287</v>
       </c>
       <c r="D97" t="n">
-        <v>0.538338</v>
+        <v>0.536574</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.659018</v>
+        <v>0.647226</v>
       </c>
       <c r="C98" t="n">
-        <v>0.519946</v>
+        <v>0.511541</v>
       </c>
       <c r="D98" t="n">
-        <v>0.527791</v>
+        <v>0.531197</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.636869</v>
+        <v>0.639321</v>
       </c>
       <c r="C99" t="n">
-        <v>0.538733</v>
+        <v>0.519543</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5435179999999999</v>
+        <v>0.533985</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.686253</v>
+        <v>0.716463</v>
       </c>
       <c r="C100" t="n">
-        <v>0.535068</v>
+        <v>0.5316340000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5616</v>
+        <v>0.542952</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.640645</v>
+        <v>0.666822</v>
       </c>
       <c r="C101" t="n">
-        <v>0.524852</v>
+        <v>0.52228</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5249</v>
+        <v>0.536751</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.649106</v>
+        <v>0.654585</v>
       </c>
       <c r="C102" t="n">
-        <v>0.515245</v>
+        <v>0.518006</v>
       </c>
       <c r="D102" t="n">
-        <v>0.533828</v>
+        <v>0.53626</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6437349999999999</v>
+        <v>0.651745</v>
       </c>
       <c r="C103" t="n">
-        <v>0.513618</v>
+        <v>0.522297</v>
       </c>
       <c r="D103" t="n">
-        <v>0.556862</v>
+        <v>0.534978</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.639467</v>
+        <v>0.639705</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5133529999999999</v>
+        <v>0.524419</v>
       </c>
       <c r="D104" t="n">
-        <v>0.55781</v>
+        <v>0.530969</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.641883</v>
+        <v>0.655323</v>
       </c>
       <c r="C105" t="n">
-        <v>0.525817</v>
+        <v>0.516155</v>
       </c>
       <c r="D105" t="n">
-        <v>0.542873</v>
+        <v>0.54608</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6548929999999999</v>
+        <v>0.67403</v>
       </c>
       <c r="C106" t="n">
-        <v>0.525521</v>
+        <v>0.531729</v>
       </c>
       <c r="D106" t="n">
-        <v>0.545612</v>
+        <v>0.5481470000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6475880000000001</v>
+        <v>0.65222</v>
       </c>
       <c r="C107" t="n">
-        <v>0.557055</v>
+        <v>0.534172</v>
       </c>
       <c r="D107" t="n">
-        <v>0.561125</v>
+        <v>0.5511779999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.678036</v>
+        <v>0.653188</v>
       </c>
       <c r="C108" t="n">
-        <v>0.574843</v>
+        <v>0.530022</v>
       </c>
       <c r="D108" t="n">
-        <v>0.636328</v>
+        <v>0.610758</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.724842</v>
+        <v>0.660776</v>
       </c>
       <c r="C109" t="n">
-        <v>0.550181</v>
+        <v>0.5512550000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.622621</v>
+        <v>0.6654099999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.801033</v>
+        <v>0.788207</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6390439999999999</v>
+        <v>0.6598889999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.615676</v>
+        <v>0.620536</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.79792</v>
+        <v>0.829037</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5998869999999999</v>
+        <v>0.5942460000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.61073</v>
+        <v>0.67181</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.91954</v>
+        <v>0.798566</v>
       </c>
       <c r="C112" t="n">
-        <v>0.661263</v>
+        <v>0.598172</v>
       </c>
       <c r="D112" t="n">
-        <v>0.633252</v>
+        <v>0.630889</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.921274</v>
+        <v>0.803327</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6119560000000001</v>
+        <v>0.609623</v>
       </c>
       <c r="D113" t="n">
-        <v>0.617971</v>
+        <v>0.627636</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.817873</v>
+        <v>0.820117</v>
       </c>
       <c r="C114" t="n">
-        <v>0.621066</v>
+        <v>0.61309</v>
       </c>
       <c r="D114" t="n">
-        <v>0.625093</v>
+        <v>0.632142</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.825979</v>
+        <v>0.790326</v>
       </c>
       <c r="C115" t="n">
-        <v>0.657845</v>
+        <v>0.602071</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6855</v>
+        <v>0.639282</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.807177</v>
+        <v>0.788309</v>
       </c>
       <c r="C116" t="n">
-        <v>0.616371</v>
+        <v>0.608222</v>
       </c>
       <c r="D116" t="n">
-        <v>0.619324</v>
+        <v>0.670415</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.805202</v>
+        <v>0.907159</v>
       </c>
       <c r="C117" t="n">
-        <v>0.609283</v>
+        <v>0.633702</v>
       </c>
       <c r="D117" t="n">
-        <v>0.68976</v>
+        <v>0.643798</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.795424</v>
+        <v>0.799121</v>
       </c>
       <c r="C118" t="n">
-        <v>0.621038</v>
+        <v>0.614325</v>
       </c>
       <c r="D118" t="n">
-        <v>0.677248</v>
+        <v>0.707462</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.798671</v>
+        <v>0.799044</v>
       </c>
       <c r="C119" t="n">
-        <v>0.622648</v>
+        <v>0.635346</v>
       </c>
       <c r="D119" t="n">
-        <v>0.641391</v>
+        <v>0.664432</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.7977070000000001</v>
+        <v>0.78388</v>
       </c>
       <c r="C120" t="n">
-        <v>0.638076</v>
+        <v>0.690715</v>
       </c>
       <c r="D120" t="n">
-        <v>0.699989</v>
+        <v>0.687856</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.811323</v>
+        <v>0.8020699999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.62301</v>
+        <v>0.628804</v>
       </c>
       <c r="D121" t="n">
-        <v>0.684368</v>
+        <v>0.665574</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.810563</v>
+        <v>0.939499</v>
       </c>
       <c r="C122" t="n">
-        <v>0.633059</v>
+        <v>0.637412</v>
       </c>
       <c r="D122" t="n">
-        <v>0.658347</v>
+        <v>0.701051</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.881176</v>
+        <v>0.875263</v>
       </c>
       <c r="C123" t="n">
-        <v>0.661659</v>
+        <v>0.703642</v>
       </c>
       <c r="D123" t="n">
-        <v>0.764648</v>
+        <v>0.865529</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.03411</v>
+        <v>1.04397</v>
       </c>
       <c r="C124" t="n">
-        <v>0.730532</v>
+        <v>0.736212</v>
       </c>
       <c r="D124" t="n">
-        <v>0.752562</v>
+        <v>0.74121</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.01736</v>
+        <v>1.02839</v>
       </c>
       <c r="C125" t="n">
-        <v>0.734519</v>
+        <v>0.743636</v>
       </c>
       <c r="D125" t="n">
-        <v>0.762127</v>
+        <v>0.78244</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.02762</v>
+        <v>1.01468</v>
       </c>
       <c r="C126" t="n">
-        <v>0.739247</v>
+        <v>0.737961</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7659820000000001</v>
+        <v>0.760099</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.0278</v>
+        <v>1.0123</v>
       </c>
       <c r="C127" t="n">
-        <v>0.741967</v>
+        <v>0.762303</v>
       </c>
       <c r="D127" t="n">
-        <v>0.759893</v>
+        <v>0.75143</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.01171</v>
+        <v>1.05325</v>
       </c>
       <c r="C128" t="n">
-        <v>0.738002</v>
+        <v>0.769134</v>
       </c>
       <c r="D128" t="n">
-        <v>0.783061</v>
+        <v>0.773293</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.03388</v>
+        <v>1.03917</v>
       </c>
       <c r="C129" t="n">
-        <v>0.754119</v>
+        <v>0.7478630000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.778694</v>
+        <v>0.779961</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03103</v>
+        <v>1.03665</v>
       </c>
       <c r="C130" t="n">
-        <v>0.735327</v>
+        <v>0.745088</v>
       </c>
       <c r="D130" t="n">
-        <v>0.771168</v>
+        <v>0.7502180000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.03393</v>
+        <v>1.03546</v>
       </c>
       <c r="C131" t="n">
-        <v>0.774101</v>
+        <v>0.757628</v>
       </c>
       <c r="D131" t="n">
-        <v>0.787732</v>
+        <v>0.7542720000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.03737</v>
+        <v>1.04759</v>
       </c>
       <c r="C132" t="n">
-        <v>0.767934</v>
+        <v>0.752236</v>
       </c>
       <c r="D132" t="n">
-        <v>0.779789</v>
+        <v>0.7652949999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04367</v>
+        <v>1.05525</v>
       </c>
       <c r="C133" t="n">
-        <v>0.777379</v>
+        <v>0.768825</v>
       </c>
       <c r="D133" t="n">
-        <v>0.783992</v>
+        <v>0.771964</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.01537</v>
+        <v>1.05005</v>
       </c>
       <c r="C134" t="n">
-        <v>0.830921</v>
+        <v>0.761927</v>
       </c>
       <c r="D134" t="n">
-        <v>0.812528</v>
+        <v>0.777258</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04851</v>
+        <v>1.04781</v>
       </c>
       <c r="C135" t="n">
-        <v>0.763437</v>
+        <v>0.753497</v>
       </c>
       <c r="D135" t="n">
-        <v>0.801717</v>
+        <v>0.792146</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.04927</v>
+        <v>1.05077</v>
       </c>
       <c r="C136" t="n">
-        <v>0.772697</v>
+        <v>0.778021</v>
       </c>
       <c r="D136" t="n">
-        <v>0.832722</v>
+        <v>0.787886</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06056</v>
+        <v>1.07157</v>
       </c>
       <c r="C137" t="n">
-        <v>0.790461</v>
+        <v>0.784988</v>
       </c>
       <c r="D137" t="n">
-        <v>0.933213</v>
+        <v>0.953744</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30874</v>
+        <v>1.31369</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9171319999999999</v>
+        <v>0.941873</v>
       </c>
       <c r="D138" t="n">
-        <v>0.937134</v>
+        <v>0.920084</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32056</v>
+        <v>1.34811</v>
       </c>
       <c r="C139" t="n">
-        <v>0.916</v>
+        <v>0.932604</v>
       </c>
       <c r="D139" t="n">
-        <v>1.005</v>
+        <v>0.945927</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.32363</v>
+        <v>1.33631</v>
       </c>
       <c r="C140" t="n">
-        <v>0.943805</v>
+        <v>0.937101</v>
       </c>
       <c r="D140" t="n">
-        <v>0.949411</v>
+        <v>0.943085</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.32595</v>
+        <v>1.31632</v>
       </c>
       <c r="C141" t="n">
-        <v>1.03832</v>
+        <v>0.919033</v>
       </c>
       <c r="D141" t="n">
-        <v>0.950468</v>
+        <v>0.944758</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.32377</v>
+        <v>1.32515</v>
       </c>
       <c r="C142" t="n">
-        <v>0.975361</v>
+        <v>0.931279</v>
       </c>
       <c r="D142" t="n">
-        <v>0.949255</v>
+        <v>0.943744</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.30362</v>
+        <v>1.32576</v>
       </c>
       <c r="C143" t="n">
-        <v>0.938628</v>
+        <v>0.932395</v>
       </c>
       <c r="D143" t="n">
-        <v>0.952128</v>
+        <v>0.942653</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115835</v>
+        <v>0.116524</v>
       </c>
       <c r="C2" t="n">
-        <v>0.101222</v>
+        <v>0.09935239999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.106107</v>
+        <v>0.107809</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.118528</v>
+        <v>0.120008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0997219</v>
+        <v>0.0987272</v>
       </c>
       <c r="D3" t="n">
-        <v>0.10867</v>
+        <v>0.107589</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.118731</v>
+        <v>0.12178</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09820719999999999</v>
+        <v>0.0998681</v>
       </c>
       <c r="D4" t="n">
-        <v>0.108148</v>
+        <v>0.107651</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118914</v>
+        <v>0.116332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10155</v>
+        <v>0.101826</v>
       </c>
       <c r="D5" t="n">
-        <v>0.110925</v>
+        <v>0.108925</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11924</v>
+        <v>0.115851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.100213</v>
+        <v>0.100486</v>
       </c>
       <c r="D6" t="n">
-        <v>0.109526</v>
+        <v>0.113407</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.11919</v>
+        <v>0.125174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.104678</v>
+        <v>0.103863</v>
       </c>
       <c r="D7" t="n">
-        <v>0.112602</v>
+        <v>0.111926</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118084</v>
+        <v>0.119624</v>
       </c>
       <c r="C8" t="n">
-        <v>0.105116</v>
+        <v>0.104966</v>
       </c>
       <c r="D8" t="n">
-        <v>0.11732</v>
+        <v>0.118269</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119721</v>
+        <v>0.121794</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108073</v>
+        <v>0.109281</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109388</v>
+        <v>0.108922</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.129146</v>
+        <v>0.130359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.10273</v>
+        <v>0.101776</v>
       </c>
       <c r="D10" t="n">
-        <v>0.114684</v>
+        <v>0.11129</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126688</v>
+        <v>0.131523</v>
       </c>
       <c r="C11" t="n">
-        <v>0.102506</v>
+        <v>0.10169</v>
       </c>
       <c r="D11" t="n">
-        <v>0.111396</v>
+        <v>0.109922</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.131219</v>
+        <v>0.129557</v>
       </c>
       <c r="C12" t="n">
-        <v>0.103175</v>
+        <v>0.101463</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110453</v>
+        <v>0.107882</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.131031</v>
+        <v>0.128699</v>
       </c>
       <c r="C13" t="n">
-        <v>0.103976</v>
+        <v>0.100101</v>
       </c>
       <c r="D13" t="n">
-        <v>0.108009</v>
+        <v>0.111172</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128986</v>
+        <v>0.128015</v>
       </c>
       <c r="C14" t="n">
-        <v>0.100735</v>
+        <v>0.104669</v>
       </c>
       <c r="D14" t="n">
-        <v>0.110699</v>
+        <v>0.112568</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.125879</v>
+        <v>0.129934</v>
       </c>
       <c r="C15" t="n">
-        <v>0.103727</v>
+        <v>0.101259</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112309</v>
+        <v>0.110477</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.129484</v>
+        <v>0.127379</v>
       </c>
       <c r="C16" t="n">
-        <v>0.105125</v>
+        <v>0.101464</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113817</v>
+        <v>0.111004</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129078</v>
+        <v>0.125533</v>
       </c>
       <c r="C17" t="n">
-        <v>0.105124</v>
+        <v>0.106082</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115935</v>
+        <v>0.112266</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.129426</v>
+        <v>0.128092</v>
       </c>
       <c r="C18" t="n">
-        <v>0.101906</v>
+        <v>0.108803</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117662</v>
+        <v>0.112551</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.129674</v>
+        <v>0.130524</v>
       </c>
       <c r="C19" t="n">
-        <v>0.107007</v>
+        <v>0.10425</v>
       </c>
       <c r="D19" t="n">
-        <v>0.115022</v>
+        <v>0.116346</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.133648</v>
+        <v>0.12826</v>
       </c>
       <c r="C20" t="n">
-        <v>0.106266</v>
+        <v>0.10451</v>
       </c>
       <c r="D20" t="n">
-        <v>0.118185</v>
+        <v>0.118535</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.134171</v>
+        <v>0.129039</v>
       </c>
       <c r="C21" t="n">
-        <v>0.112215</v>
+        <v>0.109385</v>
       </c>
       <c r="D21" t="n">
-        <v>0.12006</v>
+        <v>0.122658</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.130137</v>
+        <v>0.13297</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115285</v>
+        <v>0.11339</v>
       </c>
       <c r="D22" t="n">
-        <v>0.127708</v>
+        <v>0.122774</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.135093</v>
+        <v>0.137704</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118457</v>
+        <v>0.116499</v>
       </c>
       <c r="D23" t="n">
-        <v>0.116604</v>
+        <v>0.117183</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.139036</v>
+        <v>0.138596</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108091</v>
+        <v>0.106928</v>
       </c>
       <c r="D24" t="n">
-        <v>0.114674</v>
+        <v>0.11602</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.138794</v>
+        <v>0.135851</v>
       </c>
       <c r="C25" t="n">
-        <v>0.104584</v>
+        <v>0.108609</v>
       </c>
       <c r="D25" t="n">
-        <v>0.117988</v>
+        <v>0.115888</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136471</v>
+        <v>0.137374</v>
       </c>
       <c r="C26" t="n">
-        <v>0.106186</v>
+        <v>0.108292</v>
       </c>
       <c r="D26" t="n">
-        <v>0.119178</v>
+        <v>0.116128</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.139605</v>
+        <v>0.142869</v>
       </c>
       <c r="C27" t="n">
-        <v>0.106601</v>
+        <v>0.108273</v>
       </c>
       <c r="D27" t="n">
-        <v>0.121206</v>
+        <v>0.118262</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138974</v>
+        <v>0.137217</v>
       </c>
       <c r="C28" t="n">
-        <v>0.107584</v>
+        <v>0.107642</v>
       </c>
       <c r="D28" t="n">
-        <v>0.119274</v>
+        <v>0.118116</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.140125</v>
+        <v>0.14085</v>
       </c>
       <c r="C29" t="n">
-        <v>0.115296</v>
+        <v>0.109023</v>
       </c>
       <c r="D29" t="n">
-        <v>0.121907</v>
+        <v>0.118123</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.140154</v>
+        <v>0.140997</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11349</v>
+        <v>0.10976</v>
       </c>
       <c r="D30" t="n">
-        <v>0.125905</v>
+        <v>0.120586</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.143134</v>
+        <v>0.139074</v>
       </c>
       <c r="C31" t="n">
-        <v>0.111527</v>
+        <v>0.107414</v>
       </c>
       <c r="D31" t="n">
-        <v>0.120637</v>
+        <v>0.116912</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141526</v>
+        <v>0.139939</v>
       </c>
       <c r="C32" t="n">
-        <v>0.109412</v>
+        <v>0.115531</v>
       </c>
       <c r="D32" t="n">
-        <v>0.122906</v>
+        <v>0.119035</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.13787</v>
+        <v>0.140669</v>
       </c>
       <c r="C33" t="n">
-        <v>0.111509</v>
+        <v>0.110775</v>
       </c>
       <c r="D33" t="n">
-        <v>0.123919</v>
+        <v>0.121881</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138103</v>
+        <v>0.137167</v>
       </c>
       <c r="C34" t="n">
-        <v>0.115373</v>
+        <v>0.110847</v>
       </c>
       <c r="D34" t="n">
-        <v>0.128139</v>
+        <v>0.123032</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.138652</v>
+        <v>0.141461</v>
       </c>
       <c r="C35" t="n">
-        <v>0.116726</v>
+        <v>0.11316</v>
       </c>
       <c r="D35" t="n">
-        <v>0.131307</v>
+        <v>0.129152</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.13976</v>
+        <v>0.146485</v>
       </c>
       <c r="C36" t="n">
-        <v>0.123767</v>
+        <v>0.119482</v>
       </c>
       <c r="D36" t="n">
-        <v>0.132613</v>
+        <v>0.133059</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.143913</v>
+        <v>0.144903</v>
       </c>
       <c r="C37" t="n">
-        <v>0.123455</v>
+        <v>0.127095</v>
       </c>
       <c r="D37" t="n">
-        <v>0.131165</v>
+        <v>0.123991</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162081</v>
+        <v>0.1734</v>
       </c>
       <c r="C38" t="n">
-        <v>0.119943</v>
+        <v>0.120614</v>
       </c>
       <c r="D38" t="n">
-        <v>0.126359</v>
+        <v>0.129346</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.169657</v>
+        <v>0.159531</v>
       </c>
       <c r="C39" t="n">
-        <v>0.118048</v>
+        <v>0.122542</v>
       </c>
       <c r="D39" t="n">
-        <v>0.130435</v>
+        <v>0.128358</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.163122</v>
+        <v>0.166526</v>
       </c>
       <c r="C40" t="n">
-        <v>0.123519</v>
+        <v>0.122216</v>
       </c>
       <c r="D40" t="n">
-        <v>0.126943</v>
+        <v>0.12855</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.167252</v>
+        <v>0.1628</v>
       </c>
       <c r="C41" t="n">
-        <v>0.121431</v>
+        <v>0.12153</v>
       </c>
       <c r="D41" t="n">
-        <v>0.135509</v>
+        <v>0.124289</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.16202</v>
+        <v>0.161031</v>
       </c>
       <c r="C42" t="n">
-        <v>0.122321</v>
+        <v>0.120557</v>
       </c>
       <c r="D42" t="n">
-        <v>0.130269</v>
+        <v>0.128142</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.165987</v>
+        <v>0.160494</v>
       </c>
       <c r="C43" t="n">
-        <v>0.124354</v>
+        <v>0.123112</v>
       </c>
       <c r="D43" t="n">
-        <v>0.137472</v>
+        <v>0.128599</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.164429</v>
+        <v>0.167183</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125362</v>
+        <v>0.12473</v>
       </c>
       <c r="D44" t="n">
-        <v>0.129265</v>
+        <v>0.128897</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.16839</v>
+        <v>0.166125</v>
       </c>
       <c r="C45" t="n">
-        <v>0.126012</v>
+        <v>0.122649</v>
       </c>
       <c r="D45" t="n">
-        <v>0.13958</v>
+        <v>0.131384</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.166758</v>
+        <v>0.167418</v>
       </c>
       <c r="C46" t="n">
-        <v>0.127265</v>
+        <v>0.126715</v>
       </c>
       <c r="D46" t="n">
-        <v>0.134036</v>
+        <v>0.13377</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.165462</v>
+        <v>0.16697</v>
       </c>
       <c r="C47" t="n">
-        <v>0.12627</v>
+        <v>0.128555</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1371</v>
+        <v>0.138218</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.168055</v>
+        <v>0.16657</v>
       </c>
       <c r="C48" t="n">
-        <v>0.131279</v>
+        <v>0.130418</v>
       </c>
       <c r="D48" t="n">
-        <v>0.134728</v>
+        <v>0.137268</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.169469</v>
+        <v>0.16371</v>
       </c>
       <c r="C49" t="n">
-        <v>0.130662</v>
+        <v>0.131985</v>
       </c>
       <c r="D49" t="n">
-        <v>0.140366</v>
+        <v>0.137318</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171684</v>
+        <v>0.172123</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137191</v>
+        <v>0.131043</v>
       </c>
       <c r="D50" t="n">
-        <v>0.142744</v>
+        <v>0.141973</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172077</v>
+        <v>0.169349</v>
       </c>
       <c r="C51" t="n">
-        <v>0.137903</v>
+        <v>0.139348</v>
       </c>
       <c r="D51" t="n">
-        <v>0.203146</v>
+        <v>0.214289</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175458</v>
+        <v>0.175733</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143486</v>
+        <v>0.146568</v>
       </c>
       <c r="D52" t="n">
-        <v>0.203395</v>
+        <v>0.199716</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.257269</v>
+        <v>0.255513</v>
       </c>
       <c r="C53" t="n">
-        <v>0.192331</v>
+        <v>0.196973</v>
       </c>
       <c r="D53" t="n">
-        <v>0.206999</v>
+        <v>0.203111</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.263562</v>
+        <v>0.260242</v>
       </c>
       <c r="C54" t="n">
-        <v>0.191748</v>
+        <v>0.195552</v>
       </c>
       <c r="D54" t="n">
-        <v>0.20306</v>
+        <v>0.208731</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.255522</v>
+        <v>0.262352</v>
       </c>
       <c r="C55" t="n">
-        <v>0.193768</v>
+        <v>0.19907</v>
       </c>
       <c r="D55" t="n">
-        <v>0.201927</v>
+        <v>0.210681</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.255493</v>
+        <v>0.265289</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194447</v>
+        <v>0.200756</v>
       </c>
       <c r="D56" t="n">
-        <v>0.206193</v>
+        <v>0.218708</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.250334</v>
+        <v>0.263234</v>
       </c>
       <c r="C57" t="n">
-        <v>0.200592</v>
+        <v>0.216907</v>
       </c>
       <c r="D57" t="n">
-        <v>0.208964</v>
+        <v>0.209722</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.261374</v>
+        <v>0.254615</v>
       </c>
       <c r="C58" t="n">
-        <v>0.203599</v>
+        <v>0.205092</v>
       </c>
       <c r="D58" t="n">
-        <v>0.20979</v>
+        <v>0.210396</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.255791</v>
+        <v>0.260934</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214469</v>
+        <v>0.199636</v>
       </c>
       <c r="D59" t="n">
-        <v>0.20881</v>
+        <v>0.208484</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.254333</v>
+        <v>0.258534</v>
       </c>
       <c r="C60" t="n">
-        <v>0.199845</v>
+        <v>0.203235</v>
       </c>
       <c r="D60" t="n">
-        <v>0.208064</v>
+        <v>0.206385</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263135</v>
+        <v>0.266421</v>
       </c>
       <c r="C61" t="n">
-        <v>0.205308</v>
+        <v>0.204327</v>
       </c>
       <c r="D61" t="n">
-        <v>0.216259</v>
+        <v>0.209293</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.258619</v>
+        <v>0.260993</v>
       </c>
       <c r="C62" t="n">
-        <v>0.205558</v>
+        <v>0.207928</v>
       </c>
       <c r="D62" t="n">
-        <v>0.211044</v>
+        <v>0.218455</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.250719</v>
+        <v>0.263516</v>
       </c>
       <c r="C63" t="n">
-        <v>0.205247</v>
+        <v>0.206202</v>
       </c>
       <c r="D63" t="n">
-        <v>0.219735</v>
+        <v>0.212446</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.267225</v>
+        <v>0.254686</v>
       </c>
       <c r="C64" t="n">
-        <v>0.204206</v>
+        <v>0.214302</v>
       </c>
       <c r="D64" t="n">
-        <v>0.218346</v>
+        <v>0.227845</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.260391</v>
+        <v>0.26096</v>
       </c>
       <c r="C65" t="n">
-        <v>0.209846</v>
+        <v>0.215116</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224834</v>
+        <v>0.229474</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269155</v>
+        <v>0.263918</v>
       </c>
       <c r="C66" t="n">
-        <v>0.221603</v>
+        <v>0.216979</v>
       </c>
       <c r="D66" t="n">
-        <v>0.289667</v>
+        <v>0.295499</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.395976</v>
+        <v>0.389209</v>
       </c>
       <c r="C67" t="n">
-        <v>0.316688</v>
+        <v>0.315128</v>
       </c>
       <c r="D67" t="n">
-        <v>0.309151</v>
+        <v>0.289475</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.39852</v>
+        <v>0.38585</v>
       </c>
       <c r="C68" t="n">
-        <v>0.304726</v>
+        <v>0.311644</v>
       </c>
       <c r="D68" t="n">
-        <v>0.288336</v>
+        <v>0.294977</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.405169</v>
+        <v>0.42514</v>
       </c>
       <c r="C69" t="n">
-        <v>0.310685</v>
+        <v>0.31219</v>
       </c>
       <c r="D69" t="n">
-        <v>0.295029</v>
+        <v>0.295387</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.401288</v>
+        <v>0.398368</v>
       </c>
       <c r="C70" t="n">
-        <v>0.31474</v>
+        <v>0.315627</v>
       </c>
       <c r="D70" t="n">
-        <v>0.294708</v>
+        <v>0.300287</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.406504</v>
+        <v>0.416361</v>
       </c>
       <c r="C71" t="n">
-        <v>0.314843</v>
+        <v>0.31781</v>
       </c>
       <c r="D71" t="n">
-        <v>0.300854</v>
+        <v>0.290763</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.389737</v>
+        <v>0.408954</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3156</v>
+        <v>0.31397</v>
       </c>
       <c r="D72" t="n">
-        <v>0.300993</v>
+        <v>0.297412</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.420154</v>
+        <v>0.398242</v>
       </c>
       <c r="C73" t="n">
-        <v>0.315471</v>
+        <v>0.318653</v>
       </c>
       <c r="D73" t="n">
-        <v>0.301306</v>
+        <v>0.306148</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.404326</v>
+        <v>0.415054</v>
       </c>
       <c r="C74" t="n">
-        <v>0.311476</v>
+        <v>0.315884</v>
       </c>
       <c r="D74" t="n">
-        <v>0.305227</v>
+        <v>0.30073</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.398578</v>
+        <v>0.404349</v>
       </c>
       <c r="C75" t="n">
-        <v>0.320703</v>
+        <v>0.319171</v>
       </c>
       <c r="D75" t="n">
-        <v>0.29829</v>
+        <v>0.30943</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.405727</v>
+        <v>0.401492</v>
       </c>
       <c r="C76" t="n">
-        <v>0.314334</v>
+        <v>0.319113</v>
       </c>
       <c r="D76" t="n">
-        <v>0.305867</v>
+        <v>0.313089</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.407876</v>
+        <v>0.408358</v>
       </c>
       <c r="C77" t="n">
-        <v>0.321291</v>
+        <v>0.314928</v>
       </c>
       <c r="D77" t="n">
-        <v>0.302659</v>
+        <v>0.317038</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.405732</v>
+        <v>0.411167</v>
       </c>
       <c r="C78" t="n">
-        <v>0.325921</v>
+        <v>0.32043</v>
       </c>
       <c r="D78" t="n">
-        <v>0.323901</v>
+        <v>0.32187</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.42615</v>
+        <v>0.416413</v>
       </c>
       <c r="C79" t="n">
-        <v>0.324405</v>
+        <v>0.318839</v>
       </c>
       <c r="D79" t="n">
-        <v>0.30782</v>
+        <v>0.330825</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.426398</v>
+        <v>0.418769</v>
       </c>
       <c r="C80" t="n">
-        <v>0.333069</v>
+        <v>0.334496</v>
       </c>
       <c r="D80" t="n">
-        <v>0.430025</v>
+        <v>0.42865</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.548633</v>
+        <v>0.544459</v>
       </c>
       <c r="C81" t="n">
-        <v>0.425549</v>
+        <v>0.425221</v>
       </c>
       <c r="D81" t="n">
-        <v>0.428007</v>
+        <v>0.444028</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.563312</v>
+        <v>0.55226</v>
       </c>
       <c r="C82" t="n">
-        <v>0.436212</v>
+        <v>0.427152</v>
       </c>
       <c r="D82" t="n">
-        <v>0.427434</v>
+        <v>0.428217</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.554712</v>
+        <v>0.55641</v>
       </c>
       <c r="C83" t="n">
-        <v>0.419728</v>
+        <v>0.419389</v>
       </c>
       <c r="D83" t="n">
-        <v>0.436824</v>
+        <v>0.428736</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5536990000000001</v>
+        <v>0.539648</v>
       </c>
       <c r="C84" t="n">
-        <v>0.430433</v>
+        <v>0.423025</v>
       </c>
       <c r="D84" t="n">
-        <v>0.435439</v>
+        <v>0.439492</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.552882</v>
+        <v>0.558949</v>
       </c>
       <c r="C85" t="n">
-        <v>0.420593</v>
+        <v>0.426582</v>
       </c>
       <c r="D85" t="n">
-        <v>0.434593</v>
+        <v>0.423726</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.56251</v>
+        <v>0.561547</v>
       </c>
       <c r="C86" t="n">
-        <v>0.428917</v>
+        <v>0.429768</v>
       </c>
       <c r="D86" t="n">
-        <v>0.44435</v>
+        <v>0.438504</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.555615</v>
+        <v>0.552606</v>
       </c>
       <c r="C87" t="n">
-        <v>0.442486</v>
+        <v>0.425987</v>
       </c>
       <c r="D87" t="n">
-        <v>0.434458</v>
+        <v>0.427027</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.545713</v>
+        <v>0.548384</v>
       </c>
       <c r="C88" t="n">
-        <v>0.430646</v>
+        <v>0.431279</v>
       </c>
       <c r="D88" t="n">
-        <v>0.43426</v>
+        <v>0.433142</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.558214</v>
+        <v>0.546601</v>
       </c>
       <c r="C89" t="n">
-        <v>0.424598</v>
+        <v>0.436702</v>
       </c>
       <c r="D89" t="n">
-        <v>0.443097</v>
+        <v>0.434053</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.569986</v>
+        <v>0.558936</v>
       </c>
       <c r="C90" t="n">
-        <v>0.433438</v>
+        <v>0.443488</v>
       </c>
       <c r="D90" t="n">
-        <v>0.447201</v>
+        <v>0.444911</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.551284</v>
+        <v>0.557735</v>
       </c>
       <c r="C91" t="n">
-        <v>0.444448</v>
+        <v>0.438578</v>
       </c>
       <c r="D91" t="n">
-        <v>0.443953</v>
+        <v>0.436623</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5756520000000001</v>
+        <v>0.573794</v>
       </c>
       <c r="C92" t="n">
-        <v>0.439636</v>
+        <v>0.429249</v>
       </c>
       <c r="D92" t="n">
-        <v>0.451367</v>
+        <v>0.468406</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.569461</v>
+        <v>0.566789</v>
       </c>
       <c r="C93" t="n">
-        <v>0.455745</v>
+        <v>0.439953</v>
       </c>
       <c r="D93" t="n">
-        <v>0.456912</v>
+        <v>0.452748</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.58183</v>
+        <v>0.5645790000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.439956</v>
+        <v>0.452047</v>
       </c>
       <c r="D94" t="n">
-        <v>0.538494</v>
+        <v>0.533072</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.636395</v>
+        <v>0.637615</v>
       </c>
       <c r="C95" t="n">
-        <v>0.510249</v>
+        <v>0.510173</v>
       </c>
       <c r="D95" t="n">
-        <v>0.525402</v>
+        <v>0.539158</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.710157</v>
+        <v>0.630582</v>
       </c>
       <c r="C96" t="n">
-        <v>0.539312</v>
+        <v>0.51819</v>
       </c>
       <c r="D96" t="n">
-        <v>0.525024</v>
+        <v>0.5319120000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.652266</v>
+        <v>0.6525840000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.507287</v>
+        <v>0.510427</v>
       </c>
       <c r="D97" t="n">
-        <v>0.536574</v>
+        <v>0.530218</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.647226</v>
+        <v>0.643347</v>
       </c>
       <c r="C98" t="n">
-        <v>0.511541</v>
+        <v>0.521129</v>
       </c>
       <c r="D98" t="n">
-        <v>0.531197</v>
+        <v>0.5224259999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.639321</v>
+        <v>0.640699</v>
       </c>
       <c r="C99" t="n">
-        <v>0.519543</v>
+        <v>0.508033</v>
       </c>
       <c r="D99" t="n">
-        <v>0.533985</v>
+        <v>0.516489</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.716463</v>
+        <v>0.657133</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5316340000000001</v>
+        <v>0.514327</v>
       </c>
       <c r="D100" t="n">
-        <v>0.542952</v>
+        <v>0.528083</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.666822</v>
+        <v>0.68329</v>
       </c>
       <c r="C101" t="n">
-        <v>0.52228</v>
+        <v>0.537426</v>
       </c>
       <c r="D101" t="n">
-        <v>0.536751</v>
+        <v>0.530641</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.654585</v>
+        <v>0.7084549999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.518006</v>
+        <v>0.523311</v>
       </c>
       <c r="D102" t="n">
-        <v>0.53626</v>
+        <v>0.524729</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.651745</v>
+        <v>0.657039</v>
       </c>
       <c r="C103" t="n">
-        <v>0.522297</v>
+        <v>0.550073</v>
       </c>
       <c r="D103" t="n">
-        <v>0.534978</v>
+        <v>0.533348</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.639705</v>
+        <v>0.66878</v>
       </c>
       <c r="C104" t="n">
-        <v>0.524419</v>
+        <v>0.550166</v>
       </c>
       <c r="D104" t="n">
-        <v>0.530969</v>
+        <v>0.53662</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.655323</v>
+        <v>0.650054</v>
       </c>
       <c r="C105" t="n">
-        <v>0.516155</v>
+        <v>0.533164</v>
       </c>
       <c r="D105" t="n">
-        <v>0.54608</v>
+        <v>0.549285</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.67403</v>
+        <v>0.662735</v>
       </c>
       <c r="C106" t="n">
-        <v>0.531729</v>
+        <v>0.555948</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5481470000000001</v>
+        <v>0.546311</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.65222</v>
+        <v>0.700255</v>
       </c>
       <c r="C107" t="n">
-        <v>0.534172</v>
+        <v>0.558142</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5511779999999999</v>
+        <v>0.552199</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.653188</v>
+        <v>0.662535</v>
       </c>
       <c r="C108" t="n">
-        <v>0.530022</v>
+        <v>0.554237</v>
       </c>
       <c r="D108" t="n">
-        <v>0.610758</v>
+        <v>0.621328</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.660776</v>
+        <v>0.662964</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5512550000000001</v>
+        <v>0.5455100000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6654099999999999</v>
+        <v>0.617661</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.788207</v>
+        <v>0.814843</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6598889999999999</v>
+        <v>0.613412</v>
       </c>
       <c r="D110" t="n">
-        <v>0.620536</v>
+        <v>0.609669</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.829037</v>
+        <v>0.7999540000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5942460000000001</v>
+        <v>0.660538</v>
       </c>
       <c r="D111" t="n">
-        <v>0.67181</v>
+        <v>0.619313</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.798566</v>
+        <v>0.793637</v>
       </c>
       <c r="C112" t="n">
-        <v>0.598172</v>
+        <v>0.680193</v>
       </c>
       <c r="D112" t="n">
-        <v>0.630889</v>
+        <v>0.633188</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.803327</v>
+        <v>0.932461</v>
       </c>
       <c r="C113" t="n">
-        <v>0.609623</v>
+        <v>0.676603</v>
       </c>
       <c r="D113" t="n">
-        <v>0.627636</v>
+        <v>0.674794</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.820117</v>
+        <v>0.808963</v>
       </c>
       <c r="C114" t="n">
-        <v>0.61309</v>
+        <v>0.6862740000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.632142</v>
+        <v>0.669632</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.790326</v>
+        <v>0.926851</v>
       </c>
       <c r="C115" t="n">
-        <v>0.602071</v>
+        <v>0.664303</v>
       </c>
       <c r="D115" t="n">
-        <v>0.639282</v>
+        <v>0.688566</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.788309</v>
+        <v>0.801252</v>
       </c>
       <c r="C116" t="n">
-        <v>0.608222</v>
+        <v>0.6687920000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.670415</v>
+        <v>0.677629</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.907159</v>
+        <v>0.783519</v>
       </c>
       <c r="C117" t="n">
-        <v>0.633702</v>
+        <v>0.678447</v>
       </c>
       <c r="D117" t="n">
-        <v>0.643798</v>
+        <v>0.680005</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.799121</v>
+        <v>0.813322</v>
       </c>
       <c r="C118" t="n">
-        <v>0.614325</v>
+        <v>0.670508</v>
       </c>
       <c r="D118" t="n">
-        <v>0.707462</v>
+        <v>0.691917</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.799044</v>
+        <v>0.81829</v>
       </c>
       <c r="C119" t="n">
-        <v>0.635346</v>
+        <v>0.694285</v>
       </c>
       <c r="D119" t="n">
-        <v>0.664432</v>
+        <v>0.684401</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.78388</v>
+        <v>0.7915489999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.690715</v>
+        <v>0.67059</v>
       </c>
       <c r="D120" t="n">
-        <v>0.687856</v>
+        <v>0.708956</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8020699999999999</v>
+        <v>0.923401</v>
       </c>
       <c r="C121" t="n">
-        <v>0.628804</v>
+        <v>0.684729</v>
       </c>
       <c r="D121" t="n">
-        <v>0.665574</v>
+        <v>0.71154</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.939499</v>
+        <v>0.9405019999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.637412</v>
+        <v>0.69123</v>
       </c>
       <c r="D122" t="n">
-        <v>0.701051</v>
+        <v>0.689213</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.875263</v>
+        <v>0.943454</v>
       </c>
       <c r="C123" t="n">
-        <v>0.703642</v>
+        <v>0.693435</v>
       </c>
       <c r="D123" t="n">
-        <v>0.865529</v>
+        <v>0.753931</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.04397</v>
+        <v>1.23052</v>
       </c>
       <c r="C124" t="n">
-        <v>0.736212</v>
+        <v>0.851019</v>
       </c>
       <c r="D124" t="n">
-        <v>0.74121</v>
+        <v>0.744745</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.02839</v>
+        <v>1.0514</v>
       </c>
       <c r="C125" t="n">
-        <v>0.743636</v>
+        <v>0.751797</v>
       </c>
       <c r="D125" t="n">
-        <v>0.78244</v>
+        <v>0.747897</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.01468</v>
+        <v>1.06685</v>
       </c>
       <c r="C126" t="n">
-        <v>0.737961</v>
+        <v>0.752203</v>
       </c>
       <c r="D126" t="n">
-        <v>0.760099</v>
+        <v>0.750871</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.0123</v>
+        <v>1.04591</v>
       </c>
       <c r="C127" t="n">
-        <v>0.762303</v>
+        <v>0.752867</v>
       </c>
       <c r="D127" t="n">
-        <v>0.75143</v>
+        <v>0.774991</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.05325</v>
+        <v>1.06854</v>
       </c>
       <c r="C128" t="n">
-        <v>0.769134</v>
+        <v>0.79549</v>
       </c>
       <c r="D128" t="n">
-        <v>0.773293</v>
+        <v>0.860473</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.03917</v>
+        <v>1.2242</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7478630000000001</v>
+        <v>0.768692</v>
       </c>
       <c r="D129" t="n">
-        <v>0.779961</v>
+        <v>0.744327</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03665</v>
+        <v>1.18257</v>
       </c>
       <c r="C130" t="n">
-        <v>0.745088</v>
+        <v>0.770698</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7502180000000001</v>
+        <v>0.774231</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.03546</v>
+        <v>1.05946</v>
       </c>
       <c r="C131" t="n">
-        <v>0.757628</v>
+        <v>0.7628779999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7542720000000001</v>
+        <v>0.746438</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04759</v>
+        <v>1.06646</v>
       </c>
       <c r="C132" t="n">
-        <v>0.752236</v>
+        <v>0.764282</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7652949999999999</v>
+        <v>0.78327</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05525</v>
+        <v>1.0585</v>
       </c>
       <c r="C133" t="n">
-        <v>0.768825</v>
+        <v>0.765964</v>
       </c>
       <c r="D133" t="n">
-        <v>0.771964</v>
+        <v>0.7862170000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05005</v>
+        <v>1.05343</v>
       </c>
       <c r="C134" t="n">
-        <v>0.761927</v>
+        <v>0.861236</v>
       </c>
       <c r="D134" t="n">
-        <v>0.777258</v>
+        <v>0.764491</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04781</v>
+        <v>1.06306</v>
       </c>
       <c r="C135" t="n">
-        <v>0.753497</v>
+        <v>0.78777</v>
       </c>
       <c r="D135" t="n">
-        <v>0.792146</v>
+        <v>0.784911</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05077</v>
+        <v>1.07006</v>
       </c>
       <c r="C136" t="n">
-        <v>0.778021</v>
+        <v>0.786068</v>
       </c>
       <c r="D136" t="n">
-        <v>0.787886</v>
+        <v>0.804718</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07157</v>
+        <v>1.2409</v>
       </c>
       <c r="C137" t="n">
-        <v>0.784988</v>
+        <v>0.894647</v>
       </c>
       <c r="D137" t="n">
-        <v>0.953744</v>
+        <v>0.931064</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.31369</v>
+        <v>1.30668</v>
       </c>
       <c r="C138" t="n">
-        <v>0.941873</v>
+        <v>1.00629</v>
       </c>
       <c r="D138" t="n">
-        <v>0.920084</v>
+        <v>0.945349</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.34811</v>
+        <v>1.32227</v>
       </c>
       <c r="C139" t="n">
-        <v>0.932604</v>
+        <v>1.05201</v>
       </c>
       <c r="D139" t="n">
-        <v>0.945927</v>
+        <v>0.955012</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.33631</v>
+        <v>1.33697</v>
       </c>
       <c r="C140" t="n">
-        <v>0.937101</v>
+        <v>0.930775</v>
       </c>
       <c r="D140" t="n">
-        <v>0.943085</v>
+        <v>0.9597290000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.31632</v>
+        <v>1.31221</v>
       </c>
       <c r="C141" t="n">
-        <v>0.919033</v>
+        <v>0.935728</v>
       </c>
       <c r="D141" t="n">
-        <v>0.944758</v>
+        <v>0.947617</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.32515</v>
+        <v>1.31889</v>
       </c>
       <c r="C142" t="n">
-        <v>0.931279</v>
+        <v>0.936994</v>
       </c>
       <c r="D142" t="n">
-        <v>0.943744</v>
+        <v>0.959857</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32576</v>
+        <v>1.36355</v>
       </c>
       <c r="C143" t="n">
-        <v>0.932395</v>
+        <v>0.934209</v>
       </c>
       <c r="D143" t="n">
-        <v>0.942653</v>
+        <v>0.965167</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116524</v>
+        <v>0.120993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09935239999999999</v>
+        <v>0.101987</v>
       </c>
       <c r="D2" t="n">
-        <v>0.107809</v>
+        <v>0.113586</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.120008</v>
+        <v>0.121868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0987272</v>
+        <v>0.103941</v>
       </c>
       <c r="D3" t="n">
-        <v>0.107589</v>
+        <v>0.111138</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.12178</v>
+        <v>0.121492</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0998681</v>
+        <v>0.0978923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.107651</v>
+        <v>0.109572</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116332</v>
+        <v>0.121137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.101826</v>
+        <v>0.100866</v>
       </c>
       <c r="D5" t="n">
-        <v>0.108925</v>
+        <v>0.112114</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.115851</v>
+        <v>0.12486</v>
       </c>
       <c r="C6" t="n">
-        <v>0.100486</v>
+        <v>0.102955</v>
       </c>
       <c r="D6" t="n">
-        <v>0.113407</v>
+        <v>0.111903</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.125174</v>
+        <v>0.11795</v>
       </c>
       <c r="C7" t="n">
-        <v>0.103863</v>
+        <v>0.104058</v>
       </c>
       <c r="D7" t="n">
-        <v>0.111926</v>
+        <v>0.112712</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119624</v>
+        <v>0.118012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.104966</v>
+        <v>0.10132</v>
       </c>
       <c r="D8" t="n">
-        <v>0.118269</v>
+        <v>0.120135</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.121794</v>
+        <v>0.126852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.109281</v>
+        <v>0.107427</v>
       </c>
       <c r="D9" t="n">
-        <v>0.108922</v>
+        <v>0.113233</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.130359</v>
+        <v>0.127569</v>
       </c>
       <c r="C10" t="n">
-        <v>0.101776</v>
+        <v>0.104614</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11129</v>
+        <v>0.113327</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.131523</v>
+        <v>0.130367</v>
       </c>
       <c r="C11" t="n">
-        <v>0.10169</v>
+        <v>0.105001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.109922</v>
+        <v>0.111495</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.129557</v>
+        <v>0.131069</v>
       </c>
       <c r="C12" t="n">
-        <v>0.101463</v>
+        <v>0.10669</v>
       </c>
       <c r="D12" t="n">
-        <v>0.107882</v>
+        <v>0.11339</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128699</v>
+        <v>0.129141</v>
       </c>
       <c r="C13" t="n">
-        <v>0.100101</v>
+        <v>0.105285</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111172</v>
+        <v>0.115861</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128015</v>
+        <v>0.131957</v>
       </c>
       <c r="C14" t="n">
-        <v>0.104669</v>
+        <v>0.104506</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112568</v>
+        <v>0.112758</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129934</v>
+        <v>0.13277</v>
       </c>
       <c r="C15" t="n">
-        <v>0.101259</v>
+        <v>0.107541</v>
       </c>
       <c r="D15" t="n">
-        <v>0.110477</v>
+        <v>0.115311</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127379</v>
+        <v>0.130114</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101464</v>
+        <v>0.102445</v>
       </c>
       <c r="D16" t="n">
-        <v>0.111004</v>
+        <v>0.111936</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.125533</v>
+        <v>0.128533</v>
       </c>
       <c r="C17" t="n">
-        <v>0.106082</v>
+        <v>0.106585</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112266</v>
+        <v>0.116878</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128092</v>
+        <v>0.132635</v>
       </c>
       <c r="C18" t="n">
-        <v>0.108803</v>
+        <v>0.103888</v>
       </c>
       <c r="D18" t="n">
-        <v>0.112551</v>
+        <v>0.116085</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.130524</v>
+        <v>0.129855</v>
       </c>
       <c r="C19" t="n">
-        <v>0.10425</v>
+        <v>0.107894</v>
       </c>
       <c r="D19" t="n">
-        <v>0.116346</v>
+        <v>0.113929</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.12826</v>
+        <v>0.13445</v>
       </c>
       <c r="C20" t="n">
-        <v>0.10451</v>
+        <v>0.104439</v>
       </c>
       <c r="D20" t="n">
-        <v>0.118535</v>
+        <v>0.122152</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129039</v>
+        <v>0.131298</v>
       </c>
       <c r="C21" t="n">
-        <v>0.109385</v>
+        <v>0.109679</v>
       </c>
       <c r="D21" t="n">
-        <v>0.122658</v>
+        <v>0.123361</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.13297</v>
+        <v>0.136</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11339</v>
+        <v>0.114307</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122774</v>
+        <v>0.130756</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.137704</v>
+        <v>0.135458</v>
       </c>
       <c r="C23" t="n">
-        <v>0.116499</v>
+        <v>0.119546</v>
       </c>
       <c r="D23" t="n">
-        <v>0.117183</v>
+        <v>0.116468</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.138596</v>
+        <v>0.136955</v>
       </c>
       <c r="C24" t="n">
-        <v>0.106928</v>
+        <v>0.105883</v>
       </c>
       <c r="D24" t="n">
-        <v>0.11602</v>
+        <v>0.11575</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135851</v>
+        <v>0.136978</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108609</v>
+        <v>0.109346</v>
       </c>
       <c r="D25" t="n">
-        <v>0.115888</v>
+        <v>0.12085</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.137374</v>
+        <v>0.141452</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108292</v>
+        <v>0.107296</v>
       </c>
       <c r="D26" t="n">
-        <v>0.116128</v>
+        <v>0.120765</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.142869</v>
+        <v>0.139896</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108273</v>
+        <v>0.107423</v>
       </c>
       <c r="D27" t="n">
-        <v>0.118262</v>
+        <v>0.117702</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.137217</v>
+        <v>0.140293</v>
       </c>
       <c r="C28" t="n">
-        <v>0.107642</v>
+        <v>0.108491</v>
       </c>
       <c r="D28" t="n">
-        <v>0.118116</v>
+        <v>0.119396</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.14085</v>
+        <v>0.139885</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109023</v>
+        <v>0.112576</v>
       </c>
       <c r="D29" t="n">
-        <v>0.118123</v>
+        <v>0.117329</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.140997</v>
+        <v>0.141338</v>
       </c>
       <c r="C30" t="n">
-        <v>0.10976</v>
+        <v>0.108115</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120586</v>
+        <v>0.120628</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139074</v>
+        <v>0.141483</v>
       </c>
       <c r="C31" t="n">
-        <v>0.107414</v>
+        <v>0.111563</v>
       </c>
       <c r="D31" t="n">
-        <v>0.116912</v>
+        <v>0.118935</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.139939</v>
+        <v>0.139452</v>
       </c>
       <c r="C32" t="n">
-        <v>0.115531</v>
+        <v>0.112621</v>
       </c>
       <c r="D32" t="n">
-        <v>0.119035</v>
+        <v>0.120489</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.140669</v>
+        <v>0.145062</v>
       </c>
       <c r="C33" t="n">
-        <v>0.110775</v>
+        <v>0.109601</v>
       </c>
       <c r="D33" t="n">
-        <v>0.121881</v>
+        <v>0.124951</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.137167</v>
+        <v>0.143743</v>
       </c>
       <c r="C34" t="n">
-        <v>0.110847</v>
+        <v>0.116192</v>
       </c>
       <c r="D34" t="n">
-        <v>0.123032</v>
+        <v>0.126074</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141461</v>
+        <v>0.141392</v>
       </c>
       <c r="C35" t="n">
-        <v>0.11316</v>
+        <v>0.116384</v>
       </c>
       <c r="D35" t="n">
-        <v>0.129152</v>
+        <v>0.13355</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146485</v>
+        <v>0.146216</v>
       </c>
       <c r="C36" t="n">
-        <v>0.119482</v>
+        <v>0.118547</v>
       </c>
       <c r="D36" t="n">
-        <v>0.133059</v>
+        <v>0.132843</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.144903</v>
+        <v>0.147615</v>
       </c>
       <c r="C37" t="n">
-        <v>0.127095</v>
+        <v>0.125384</v>
       </c>
       <c r="D37" t="n">
-        <v>0.123991</v>
+        <v>0.133307</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1734</v>
+        <v>0.167755</v>
       </c>
       <c r="C38" t="n">
-        <v>0.120614</v>
+        <v>0.121545</v>
       </c>
       <c r="D38" t="n">
-        <v>0.129346</v>
+        <v>0.133704</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.159531</v>
+        <v>0.171051</v>
       </c>
       <c r="C39" t="n">
-        <v>0.122542</v>
+        <v>0.121437</v>
       </c>
       <c r="D39" t="n">
-        <v>0.128358</v>
+        <v>0.132203</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.166526</v>
+        <v>0.162916</v>
       </c>
       <c r="C40" t="n">
-        <v>0.122216</v>
+        <v>0.122954</v>
       </c>
       <c r="D40" t="n">
-        <v>0.12855</v>
+        <v>0.133295</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1628</v>
+        <v>0.167813</v>
       </c>
       <c r="C41" t="n">
-        <v>0.12153</v>
+        <v>0.124954</v>
       </c>
       <c r="D41" t="n">
-        <v>0.124289</v>
+        <v>0.135963</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.161031</v>
+        <v>0.169325</v>
       </c>
       <c r="C42" t="n">
-        <v>0.120557</v>
+        <v>0.122466</v>
       </c>
       <c r="D42" t="n">
-        <v>0.128142</v>
+        <v>0.135996</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.160494</v>
+        <v>0.161959</v>
       </c>
       <c r="C43" t="n">
-        <v>0.123112</v>
+        <v>0.125303</v>
       </c>
       <c r="D43" t="n">
-        <v>0.128599</v>
+        <v>0.145946</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.167183</v>
+        <v>0.169537</v>
       </c>
       <c r="C44" t="n">
-        <v>0.12473</v>
+        <v>0.125036</v>
       </c>
       <c r="D44" t="n">
-        <v>0.128897</v>
+        <v>0.139236</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.166125</v>
+        <v>0.165069</v>
       </c>
       <c r="C45" t="n">
-        <v>0.122649</v>
+        <v>0.123683</v>
       </c>
       <c r="D45" t="n">
-        <v>0.131384</v>
+        <v>0.137426</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.167418</v>
+        <v>0.170145</v>
       </c>
       <c r="C46" t="n">
-        <v>0.126715</v>
+        <v>0.12889</v>
       </c>
       <c r="D46" t="n">
-        <v>0.13377</v>
+        <v>0.137992</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16697</v>
+        <v>0.166228</v>
       </c>
       <c r="C47" t="n">
-        <v>0.128555</v>
+        <v>0.128176</v>
       </c>
       <c r="D47" t="n">
-        <v>0.138218</v>
+        <v>0.142412</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.16657</v>
+        <v>0.172944</v>
       </c>
       <c r="C48" t="n">
-        <v>0.130418</v>
+        <v>0.128104</v>
       </c>
       <c r="D48" t="n">
-        <v>0.137268</v>
+        <v>0.142348</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.16371</v>
+        <v>0.171796</v>
       </c>
       <c r="C49" t="n">
-        <v>0.131985</v>
+        <v>0.130874</v>
       </c>
       <c r="D49" t="n">
-        <v>0.137318</v>
+        <v>0.150471</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172123</v>
+        <v>0.170535</v>
       </c>
       <c r="C50" t="n">
-        <v>0.131043</v>
+        <v>0.138429</v>
       </c>
       <c r="D50" t="n">
-        <v>0.141973</v>
+        <v>0.147834</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.169349</v>
+        <v>0.174564</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139348</v>
+        <v>0.136582</v>
       </c>
       <c r="D51" t="n">
-        <v>0.214289</v>
+        <v>0.198904</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175733</v>
+        <v>0.175493</v>
       </c>
       <c r="C52" t="n">
-        <v>0.146568</v>
+        <v>0.142213</v>
       </c>
       <c r="D52" t="n">
-        <v>0.199716</v>
+        <v>0.202988</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.255513</v>
+        <v>0.249207</v>
       </c>
       <c r="C53" t="n">
-        <v>0.196973</v>
+        <v>0.194331</v>
       </c>
       <c r="D53" t="n">
-        <v>0.203111</v>
+        <v>0.20438</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.260242</v>
+        <v>0.260582</v>
       </c>
       <c r="C54" t="n">
-        <v>0.195552</v>
+        <v>0.200055</v>
       </c>
       <c r="D54" t="n">
-        <v>0.208731</v>
+        <v>0.200568</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.262352</v>
+        <v>0.260841</v>
       </c>
       <c r="C55" t="n">
-        <v>0.19907</v>
+        <v>0.198445</v>
       </c>
       <c r="D55" t="n">
-        <v>0.210681</v>
+        <v>0.205587</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.265289</v>
+        <v>0.260428</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200756</v>
+        <v>0.204366</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218708</v>
+        <v>0.206333</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.263234</v>
+        <v>0.252666</v>
       </c>
       <c r="C57" t="n">
-        <v>0.216907</v>
+        <v>0.203607</v>
       </c>
       <c r="D57" t="n">
-        <v>0.209722</v>
+        <v>0.210485</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.254615</v>
+        <v>0.253465</v>
       </c>
       <c r="C58" t="n">
-        <v>0.205092</v>
+        <v>0.202214</v>
       </c>
       <c r="D58" t="n">
-        <v>0.210396</v>
+        <v>0.206162</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.260934</v>
+        <v>0.268766</v>
       </c>
       <c r="C59" t="n">
-        <v>0.199636</v>
+        <v>0.201611</v>
       </c>
       <c r="D59" t="n">
-        <v>0.208484</v>
+        <v>0.209063</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.258534</v>
+        <v>0.259804</v>
       </c>
       <c r="C60" t="n">
-        <v>0.203235</v>
+        <v>0.202025</v>
       </c>
       <c r="D60" t="n">
-        <v>0.206385</v>
+        <v>0.207402</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.266421</v>
+        <v>0.256423</v>
       </c>
       <c r="C61" t="n">
-        <v>0.204327</v>
+        <v>0.198502</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209293</v>
+        <v>0.210348</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260993</v>
+        <v>0.259239</v>
       </c>
       <c r="C62" t="n">
-        <v>0.207928</v>
+        <v>0.203205</v>
       </c>
       <c r="D62" t="n">
-        <v>0.218455</v>
+        <v>0.210093</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263516</v>
+        <v>0.264005</v>
       </c>
       <c r="C63" t="n">
-        <v>0.206202</v>
+        <v>0.205487</v>
       </c>
       <c r="D63" t="n">
-        <v>0.212446</v>
+        <v>0.217085</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.254686</v>
+        <v>0.261432</v>
       </c>
       <c r="C64" t="n">
-        <v>0.214302</v>
+        <v>0.211595</v>
       </c>
       <c r="D64" t="n">
-        <v>0.227845</v>
+        <v>0.221367</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26096</v>
+        <v>0.269865</v>
       </c>
       <c r="C65" t="n">
-        <v>0.215116</v>
+        <v>0.213724</v>
       </c>
       <c r="D65" t="n">
-        <v>0.229474</v>
+        <v>0.224958</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.263918</v>
+        <v>0.272355</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216979</v>
+        <v>0.220309</v>
       </c>
       <c r="D66" t="n">
-        <v>0.295499</v>
+        <v>0.291453</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.389209</v>
+        <v>0.398463</v>
       </c>
       <c r="C67" t="n">
-        <v>0.315128</v>
+        <v>0.308181</v>
       </c>
       <c r="D67" t="n">
-        <v>0.289475</v>
+        <v>0.293019</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.38585</v>
+        <v>0.406909</v>
       </c>
       <c r="C68" t="n">
-        <v>0.311644</v>
+        <v>0.313846</v>
       </c>
       <c r="D68" t="n">
-        <v>0.294977</v>
+        <v>0.294275</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.42514</v>
+        <v>0.389288</v>
       </c>
       <c r="C69" t="n">
-        <v>0.31219</v>
+        <v>0.3144</v>
       </c>
       <c r="D69" t="n">
-        <v>0.295387</v>
+        <v>0.298423</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.398368</v>
+        <v>0.394917</v>
       </c>
       <c r="C70" t="n">
-        <v>0.315627</v>
+        <v>0.310341</v>
       </c>
       <c r="D70" t="n">
-        <v>0.300287</v>
+        <v>0.299916</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.416361</v>
+        <v>0.393855</v>
       </c>
       <c r="C71" t="n">
-        <v>0.31781</v>
+        <v>0.312039</v>
       </c>
       <c r="D71" t="n">
-        <v>0.290763</v>
+        <v>0.310313</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.408954</v>
+        <v>0.403358</v>
       </c>
       <c r="C72" t="n">
-        <v>0.31397</v>
+        <v>0.311677</v>
       </c>
       <c r="D72" t="n">
-        <v>0.297412</v>
+        <v>0.300401</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.398242</v>
+        <v>0.399511</v>
       </c>
       <c r="C73" t="n">
-        <v>0.318653</v>
+        <v>0.309569</v>
       </c>
       <c r="D73" t="n">
-        <v>0.306148</v>
+        <v>0.312634</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.415054</v>
+        <v>0.409094</v>
       </c>
       <c r="C74" t="n">
-        <v>0.315884</v>
+        <v>0.309422</v>
       </c>
       <c r="D74" t="n">
-        <v>0.30073</v>
+        <v>0.304659</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.404349</v>
+        <v>0.401889</v>
       </c>
       <c r="C75" t="n">
-        <v>0.319171</v>
+        <v>0.32316</v>
       </c>
       <c r="D75" t="n">
-        <v>0.30943</v>
+        <v>0.318233</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.401492</v>
+        <v>0.397587</v>
       </c>
       <c r="C76" t="n">
-        <v>0.319113</v>
+        <v>0.325942</v>
       </c>
       <c r="D76" t="n">
-        <v>0.313089</v>
+        <v>0.320986</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.408358</v>
+        <v>0.406284</v>
       </c>
       <c r="C77" t="n">
-        <v>0.314928</v>
+        <v>0.314492</v>
       </c>
       <c r="D77" t="n">
-        <v>0.317038</v>
+        <v>0.318274</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.411167</v>
+        <v>0.415998</v>
       </c>
       <c r="C78" t="n">
-        <v>0.32043</v>
+        <v>0.325675</v>
       </c>
       <c r="D78" t="n">
-        <v>0.32187</v>
+        <v>0.313269</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.416413</v>
+        <v>0.414928</v>
       </c>
       <c r="C79" t="n">
-        <v>0.318839</v>
+        <v>0.321911</v>
       </c>
       <c r="D79" t="n">
-        <v>0.330825</v>
+        <v>0.325019</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.418769</v>
+        <v>0.407781</v>
       </c>
       <c r="C80" t="n">
-        <v>0.334496</v>
+        <v>0.337487</v>
       </c>
       <c r="D80" t="n">
-        <v>0.42865</v>
+        <v>0.42484</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.544459</v>
+        <v>0.557303</v>
       </c>
       <c r="C81" t="n">
-        <v>0.425221</v>
+        <v>0.439255</v>
       </c>
       <c r="D81" t="n">
-        <v>0.444028</v>
+        <v>0.43125</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.55226</v>
+        <v>0.541893</v>
       </c>
       <c r="C82" t="n">
-        <v>0.427152</v>
+        <v>0.428683</v>
       </c>
       <c r="D82" t="n">
-        <v>0.428217</v>
+        <v>0.43377</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.55641</v>
+        <v>0.538365</v>
       </c>
       <c r="C83" t="n">
-        <v>0.419389</v>
+        <v>0.418178</v>
       </c>
       <c r="D83" t="n">
-        <v>0.428736</v>
+        <v>0.429576</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.539648</v>
+        <v>0.5418770000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.423025</v>
+        <v>0.419857</v>
       </c>
       <c r="D84" t="n">
-        <v>0.439492</v>
+        <v>0.438053</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.558949</v>
+        <v>0.5384989999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.426582</v>
+        <v>0.431915</v>
       </c>
       <c r="D85" t="n">
-        <v>0.423726</v>
+        <v>0.446405</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.561547</v>
+        <v>0.554436</v>
       </c>
       <c r="C86" t="n">
-        <v>0.429768</v>
+        <v>0.433773</v>
       </c>
       <c r="D86" t="n">
-        <v>0.438504</v>
+        <v>0.436803</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.552606</v>
+        <v>0.545914</v>
       </c>
       <c r="C87" t="n">
-        <v>0.425987</v>
+        <v>0.432106</v>
       </c>
       <c r="D87" t="n">
-        <v>0.427027</v>
+        <v>0.442179</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.548384</v>
+        <v>0.562007</v>
       </c>
       <c r="C88" t="n">
-        <v>0.431279</v>
+        <v>0.441818</v>
       </c>
       <c r="D88" t="n">
-        <v>0.433142</v>
+        <v>0.440686</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.546601</v>
+        <v>0.58501</v>
       </c>
       <c r="C89" t="n">
-        <v>0.436702</v>
+        <v>0.446445</v>
       </c>
       <c r="D89" t="n">
-        <v>0.434053</v>
+        <v>0.433313</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.558936</v>
+        <v>0.553359</v>
       </c>
       <c r="C90" t="n">
-        <v>0.443488</v>
+        <v>0.439025</v>
       </c>
       <c r="D90" t="n">
-        <v>0.444911</v>
+        <v>0.444571</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.557735</v>
+        <v>0.554114</v>
       </c>
       <c r="C91" t="n">
-        <v>0.438578</v>
+        <v>0.440132</v>
       </c>
       <c r="D91" t="n">
-        <v>0.436623</v>
+        <v>0.452248</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.573794</v>
+        <v>0.559447</v>
       </c>
       <c r="C92" t="n">
-        <v>0.429249</v>
+        <v>0.4481</v>
       </c>
       <c r="D92" t="n">
-        <v>0.468406</v>
+        <v>0.457832</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.566789</v>
+        <v>0.55191</v>
       </c>
       <c r="C93" t="n">
-        <v>0.439953</v>
+        <v>0.442207</v>
       </c>
       <c r="D93" t="n">
-        <v>0.452748</v>
+        <v>0.447743</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5645790000000001</v>
+        <v>0.556404</v>
       </c>
       <c r="C94" t="n">
-        <v>0.452047</v>
+        <v>0.45474</v>
       </c>
       <c r="D94" t="n">
-        <v>0.533072</v>
+        <v>0.515979</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.637615</v>
+        <v>0.6449589999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.510173</v>
+        <v>0.500904</v>
       </c>
       <c r="D95" t="n">
-        <v>0.539158</v>
+        <v>0.5354640000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.630582</v>
+        <v>0.639646</v>
       </c>
       <c r="C96" t="n">
-        <v>0.51819</v>
+        <v>0.506342</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5319120000000001</v>
+        <v>0.519663</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6525840000000001</v>
+        <v>0.63405</v>
       </c>
       <c r="C97" t="n">
-        <v>0.510427</v>
+        <v>0.506961</v>
       </c>
       <c r="D97" t="n">
-        <v>0.530218</v>
+        <v>0.524286</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.643347</v>
+        <v>0.65222</v>
       </c>
       <c r="C98" t="n">
-        <v>0.521129</v>
+        <v>0.501482</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5224259999999999</v>
+        <v>0.527334</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.640699</v>
+        <v>0.6597150000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.508033</v>
+        <v>0.56408</v>
       </c>
       <c r="D99" t="n">
-        <v>0.516489</v>
+        <v>0.5493400000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.657133</v>
+        <v>0.657169</v>
       </c>
       <c r="C100" t="n">
-        <v>0.514327</v>
+        <v>0.547807</v>
       </c>
       <c r="D100" t="n">
-        <v>0.528083</v>
+        <v>0.552848</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.68329</v>
+        <v>0.643115</v>
       </c>
       <c r="C101" t="n">
-        <v>0.537426</v>
+        <v>0.541062</v>
       </c>
       <c r="D101" t="n">
-        <v>0.530641</v>
+        <v>0.550144</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.7084549999999999</v>
+        <v>0.642317</v>
       </c>
       <c r="C102" t="n">
-        <v>0.523311</v>
+        <v>0.519942</v>
       </c>
       <c r="D102" t="n">
-        <v>0.524729</v>
+        <v>0.527922</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.657039</v>
+        <v>0.63944</v>
       </c>
       <c r="C103" t="n">
-        <v>0.550073</v>
+        <v>0.5207889999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.533348</v>
+        <v>0.5581429999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.66878</v>
+        <v>0.644929</v>
       </c>
       <c r="C104" t="n">
-        <v>0.550166</v>
+        <v>0.521581</v>
       </c>
       <c r="D104" t="n">
-        <v>0.53662</v>
+        <v>0.536328</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.650054</v>
+        <v>0.7096</v>
       </c>
       <c r="C105" t="n">
-        <v>0.533164</v>
+        <v>0.567522</v>
       </c>
       <c r="D105" t="n">
-        <v>0.549285</v>
+        <v>0.544084</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.662735</v>
+        <v>0.670916</v>
       </c>
       <c r="C106" t="n">
-        <v>0.555948</v>
+        <v>0.517877</v>
       </c>
       <c r="D106" t="n">
-        <v>0.546311</v>
+        <v>0.546416</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.700255</v>
+        <v>0.642651</v>
       </c>
       <c r="C107" t="n">
-        <v>0.558142</v>
+        <v>0.540724</v>
       </c>
       <c r="D107" t="n">
-        <v>0.552199</v>
+        <v>0.571083</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.662535</v>
+        <v>0.665147</v>
       </c>
       <c r="C108" t="n">
-        <v>0.554237</v>
+        <v>0.558942</v>
       </c>
       <c r="D108" t="n">
-        <v>0.621328</v>
+        <v>0.630168</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.662964</v>
+        <v>0.658416</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5455100000000001</v>
+        <v>0.551587</v>
       </c>
       <c r="D109" t="n">
-        <v>0.617661</v>
+        <v>0.62295</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.814843</v>
+        <v>0.798774</v>
       </c>
       <c r="C110" t="n">
-        <v>0.613412</v>
+        <v>0.600411</v>
       </c>
       <c r="D110" t="n">
-        <v>0.609669</v>
+        <v>0.608481</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7999540000000001</v>
+        <v>0.794395</v>
       </c>
       <c r="C111" t="n">
-        <v>0.660538</v>
+        <v>0.600279</v>
       </c>
       <c r="D111" t="n">
-        <v>0.619313</v>
+        <v>0.619425</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.793637</v>
+        <v>0.804571</v>
       </c>
       <c r="C112" t="n">
-        <v>0.680193</v>
+        <v>0.59735</v>
       </c>
       <c r="D112" t="n">
-        <v>0.633188</v>
+        <v>0.609814</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.932461</v>
+        <v>0.797293</v>
       </c>
       <c r="C113" t="n">
-        <v>0.676603</v>
+        <v>0.614812</v>
       </c>
       <c r="D113" t="n">
-        <v>0.674794</v>
+        <v>0.627121</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.808963</v>
+        <v>0.786655</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6862740000000001</v>
+        <v>0.609785</v>
       </c>
       <c r="D114" t="n">
-        <v>0.669632</v>
+        <v>0.628551</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.926851</v>
+        <v>0.794605</v>
       </c>
       <c r="C115" t="n">
-        <v>0.664303</v>
+        <v>0.619556</v>
       </c>
       <c r="D115" t="n">
-        <v>0.688566</v>
+        <v>0.615773</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.801252</v>
+        <v>0.795776</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6687920000000001</v>
+        <v>0.609416</v>
       </c>
       <c r="D116" t="n">
-        <v>0.677629</v>
+        <v>0.63146</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.783519</v>
+        <v>0.802663</v>
       </c>
       <c r="C117" t="n">
-        <v>0.678447</v>
+        <v>0.615574</v>
       </c>
       <c r="D117" t="n">
-        <v>0.680005</v>
+        <v>0.627735</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.813322</v>
+        <v>0.8260150000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.670508</v>
+        <v>0.63165</v>
       </c>
       <c r="D118" t="n">
-        <v>0.691917</v>
+        <v>0.632417</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.81829</v>
+        <v>0.790402</v>
       </c>
       <c r="C119" t="n">
-        <v>0.694285</v>
+        <v>0.618306</v>
       </c>
       <c r="D119" t="n">
-        <v>0.684401</v>
+        <v>0.644729</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.7915489999999999</v>
+        <v>0.804326</v>
       </c>
       <c r="C120" t="n">
-        <v>0.67059</v>
+        <v>0.636749</v>
       </c>
       <c r="D120" t="n">
-        <v>0.708956</v>
+        <v>0.636455</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.923401</v>
+        <v>0.790506</v>
       </c>
       <c r="C121" t="n">
-        <v>0.684729</v>
+        <v>0.615152</v>
       </c>
       <c r="D121" t="n">
-        <v>0.71154</v>
+        <v>0.654924</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9405019999999999</v>
+        <v>0.804659</v>
       </c>
       <c r="C122" t="n">
-        <v>0.69123</v>
+        <v>0.636609</v>
       </c>
       <c r="D122" t="n">
-        <v>0.689213</v>
+        <v>0.663196</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.943454</v>
+        <v>0.896644</v>
       </c>
       <c r="C123" t="n">
-        <v>0.693435</v>
+        <v>0.648878</v>
       </c>
       <c r="D123" t="n">
-        <v>0.753931</v>
+        <v>0.761745</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.23052</v>
+        <v>1.02295</v>
       </c>
       <c r="C124" t="n">
-        <v>0.851019</v>
+        <v>0.709928</v>
       </c>
       <c r="D124" t="n">
-        <v>0.744745</v>
+        <v>0.752656</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.0514</v>
+        <v>1.03666</v>
       </c>
       <c r="C125" t="n">
-        <v>0.751797</v>
+        <v>0.750661</v>
       </c>
       <c r="D125" t="n">
-        <v>0.747897</v>
+        <v>0.878808</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.06685</v>
+        <v>1.04342</v>
       </c>
       <c r="C126" t="n">
-        <v>0.752203</v>
+        <v>0.7470250000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.750871</v>
+        <v>0.811657</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.04591</v>
+        <v>1.02912</v>
       </c>
       <c r="C127" t="n">
-        <v>0.752867</v>
+        <v>0.805036</v>
       </c>
       <c r="D127" t="n">
-        <v>0.774991</v>
+        <v>0.751352</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.06854</v>
+        <v>1.02429</v>
       </c>
       <c r="C128" t="n">
-        <v>0.79549</v>
+        <v>0.745661</v>
       </c>
       <c r="D128" t="n">
-        <v>0.860473</v>
+        <v>0.752045</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.2242</v>
+        <v>1.01854</v>
       </c>
       <c r="C129" t="n">
-        <v>0.768692</v>
+        <v>0.779432</v>
       </c>
       <c r="D129" t="n">
-        <v>0.744327</v>
+        <v>0.752371</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.18257</v>
+        <v>1.02792</v>
       </c>
       <c r="C130" t="n">
-        <v>0.770698</v>
+        <v>0.752175</v>
       </c>
       <c r="D130" t="n">
-        <v>0.774231</v>
+        <v>0.751493</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.05946</v>
+        <v>1.02684</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7628779999999999</v>
+        <v>0.7483649999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.746438</v>
+        <v>0.75891</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.06646</v>
+        <v>1.04166</v>
       </c>
       <c r="C132" t="n">
-        <v>0.764282</v>
+        <v>0.749707</v>
       </c>
       <c r="D132" t="n">
-        <v>0.78327</v>
+        <v>0.743084</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.0585</v>
+        <v>1.03768</v>
       </c>
       <c r="C133" t="n">
-        <v>0.765964</v>
+        <v>0.747031</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7862170000000001</v>
+        <v>0.771547</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05343</v>
+        <v>1.02396</v>
       </c>
       <c r="C134" t="n">
-        <v>0.861236</v>
+        <v>0.873255</v>
       </c>
       <c r="D134" t="n">
-        <v>0.764491</v>
+        <v>0.787407</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06306</v>
+        <v>1.15961</v>
       </c>
       <c r="C135" t="n">
-        <v>0.78777</v>
+        <v>0.766269</v>
       </c>
       <c r="D135" t="n">
-        <v>0.784911</v>
+        <v>0.784624</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07006</v>
+        <v>1.03632</v>
       </c>
       <c r="C136" t="n">
-        <v>0.786068</v>
+        <v>0.8763069999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.804718</v>
+        <v>0.783962</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.2409</v>
+        <v>1.05499</v>
       </c>
       <c r="C137" t="n">
-        <v>0.894647</v>
+        <v>0.787385</v>
       </c>
       <c r="D137" t="n">
-        <v>0.931064</v>
+        <v>0.926582</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30668</v>
+        <v>1.33092</v>
       </c>
       <c r="C138" t="n">
-        <v>1.00629</v>
+        <v>0.926935</v>
       </c>
       <c r="D138" t="n">
-        <v>0.945349</v>
+        <v>1.03418</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32227</v>
+        <v>1.40829</v>
       </c>
       <c r="C139" t="n">
-        <v>1.05201</v>
+        <v>0.929266</v>
       </c>
       <c r="D139" t="n">
-        <v>0.955012</v>
+        <v>0.931802</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.33697</v>
+        <v>1.29769</v>
       </c>
       <c r="C140" t="n">
-        <v>0.930775</v>
+        <v>0.954856</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9597290000000001</v>
+        <v>0.929707</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.31221</v>
+        <v>1.32091</v>
       </c>
       <c r="C141" t="n">
-        <v>0.935728</v>
+        <v>1.02347</v>
       </c>
       <c r="D141" t="n">
-        <v>0.947617</v>
+        <v>0.989435</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.31889</v>
+        <v>1.34125</v>
       </c>
       <c r="C142" t="n">
-        <v>0.936994</v>
+        <v>1.00637</v>
       </c>
       <c r="D142" t="n">
-        <v>0.959857</v>
+        <v>0.9468760000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.36355</v>
+        <v>1.32169</v>
       </c>
       <c r="C143" t="n">
-        <v>0.934209</v>
+        <v>1.03611</v>
       </c>
       <c r="D143" t="n">
-        <v>0.965167</v>
+        <v>1.03273</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.120993</v>
+        <v>0.122198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.101987</v>
+        <v>0.100876</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113586</v>
+        <v>0.113235</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.121868</v>
+        <v>0.121546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.103941</v>
+        <v>0.105713</v>
       </c>
       <c r="D3" t="n">
-        <v>0.111138</v>
+        <v>0.113964</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.121492</v>
+        <v>0.125514</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0978923</v>
+        <v>0.102006</v>
       </c>
       <c r="D4" t="n">
-        <v>0.109572</v>
+        <v>0.113116</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121137</v>
+        <v>0.124988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.100866</v>
+        <v>0.104728</v>
       </c>
       <c r="D5" t="n">
-        <v>0.112114</v>
+        <v>0.114391</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12486</v>
+        <v>0.119081</v>
       </c>
       <c r="C6" t="n">
-        <v>0.102955</v>
+        <v>0.10466</v>
       </c>
       <c r="D6" t="n">
-        <v>0.111903</v>
+        <v>0.112526</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.11795</v>
+        <v>0.122217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.104058</v>
+        <v>0.106116</v>
       </c>
       <c r="D7" t="n">
-        <v>0.112712</v>
+        <v>0.119326</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118012</v>
+        <v>0.127015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10132</v>
+        <v>0.105086</v>
       </c>
       <c r="D8" t="n">
-        <v>0.120135</v>
+        <v>0.122347</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.126852</v>
+        <v>0.123791</v>
       </c>
       <c r="C9" t="n">
-        <v>0.107427</v>
+        <v>0.108842</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113233</v>
+        <v>0.11202</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.127569</v>
+        <v>0.1323</v>
       </c>
       <c r="C10" t="n">
-        <v>0.104614</v>
+        <v>0.106016</v>
       </c>
       <c r="D10" t="n">
-        <v>0.113327</v>
+        <v>0.114286</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.130367</v>
+        <v>0.133082</v>
       </c>
       <c r="C11" t="n">
-        <v>0.105001</v>
+        <v>0.104113</v>
       </c>
       <c r="D11" t="n">
-        <v>0.111495</v>
+        <v>0.114526</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.131069</v>
+        <v>0.129257</v>
       </c>
       <c r="C12" t="n">
-        <v>0.10669</v>
+        <v>0.102715</v>
       </c>
       <c r="D12" t="n">
-        <v>0.11339</v>
+        <v>0.114127</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.129141</v>
+        <v>0.131105</v>
       </c>
       <c r="C13" t="n">
-        <v>0.105285</v>
+        <v>0.103775</v>
       </c>
       <c r="D13" t="n">
-        <v>0.115861</v>
+        <v>0.113353</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.131957</v>
+        <v>0.12796</v>
       </c>
       <c r="C14" t="n">
-        <v>0.104506</v>
+        <v>0.101071</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112758</v>
+        <v>0.113792</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.13277</v>
+        <v>0.128078</v>
       </c>
       <c r="C15" t="n">
-        <v>0.107541</v>
+        <v>0.102551</v>
       </c>
       <c r="D15" t="n">
-        <v>0.115311</v>
+        <v>0.116257</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.130114</v>
+        <v>0.131865</v>
       </c>
       <c r="C16" t="n">
-        <v>0.102445</v>
+        <v>0.110403</v>
       </c>
       <c r="D16" t="n">
-        <v>0.111936</v>
+        <v>0.117928</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128533</v>
+        <v>0.130155</v>
       </c>
       <c r="C17" t="n">
-        <v>0.106585</v>
+        <v>0.107841</v>
       </c>
       <c r="D17" t="n">
-        <v>0.116878</v>
+        <v>0.114402</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.132635</v>
+        <v>0.137138</v>
       </c>
       <c r="C18" t="n">
-        <v>0.103888</v>
+        <v>0.106817</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116085</v>
+        <v>0.115857</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.129855</v>
+        <v>0.129525</v>
       </c>
       <c r="C19" t="n">
-        <v>0.107894</v>
+        <v>0.107788</v>
       </c>
       <c r="D19" t="n">
-        <v>0.113929</v>
+        <v>0.117653</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.13445</v>
+        <v>0.132447</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104439</v>
+        <v>0.106079</v>
       </c>
       <c r="D20" t="n">
-        <v>0.122152</v>
+        <v>0.116307</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.131298</v>
+        <v>0.130675</v>
       </c>
       <c r="C21" t="n">
-        <v>0.109679</v>
+        <v>0.111005</v>
       </c>
       <c r="D21" t="n">
-        <v>0.123361</v>
+        <v>0.121188</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.136</v>
+        <v>0.132508</v>
       </c>
       <c r="C22" t="n">
-        <v>0.114307</v>
+        <v>0.11604</v>
       </c>
       <c r="D22" t="n">
-        <v>0.130756</v>
+        <v>0.12735</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.135458</v>
+        <v>0.135327</v>
       </c>
       <c r="C23" t="n">
-        <v>0.119546</v>
+        <v>0.115964</v>
       </c>
       <c r="D23" t="n">
-        <v>0.116468</v>
+        <v>0.119075</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136955</v>
+        <v>0.14352</v>
       </c>
       <c r="C24" t="n">
-        <v>0.105883</v>
+        <v>0.107402</v>
       </c>
       <c r="D24" t="n">
-        <v>0.11575</v>
+        <v>0.118635</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.136978</v>
+        <v>0.140611</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109346</v>
+        <v>0.106954</v>
       </c>
       <c r="D25" t="n">
-        <v>0.12085</v>
+        <v>0.119084</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.141452</v>
+        <v>0.141168</v>
       </c>
       <c r="C26" t="n">
-        <v>0.107296</v>
+        <v>0.106901</v>
       </c>
       <c r="D26" t="n">
-        <v>0.120765</v>
+        <v>0.118452</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.139896</v>
+        <v>0.138648</v>
       </c>
       <c r="C27" t="n">
-        <v>0.107423</v>
+        <v>0.108575</v>
       </c>
       <c r="D27" t="n">
-        <v>0.117702</v>
+        <v>0.11897</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.140293</v>
+        <v>0.146705</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108491</v>
+        <v>0.108549</v>
       </c>
       <c r="D28" t="n">
-        <v>0.119396</v>
+        <v>0.120822</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.139885</v>
+        <v>0.138336</v>
       </c>
       <c r="C29" t="n">
-        <v>0.112576</v>
+        <v>0.107437</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117329</v>
+        <v>0.116475</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.141338</v>
+        <v>0.143161</v>
       </c>
       <c r="C30" t="n">
-        <v>0.108115</v>
+        <v>0.110963</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120628</v>
+        <v>0.123719</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141483</v>
+        <v>0.146256</v>
       </c>
       <c r="C31" t="n">
-        <v>0.111563</v>
+        <v>0.109844</v>
       </c>
       <c r="D31" t="n">
-        <v>0.118935</v>
+        <v>0.122036</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.139452</v>
+        <v>0.140393</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112621</v>
+        <v>0.112499</v>
       </c>
       <c r="D32" t="n">
-        <v>0.120489</v>
+        <v>0.124375</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.145062</v>
+        <v>0.142567</v>
       </c>
       <c r="C33" t="n">
-        <v>0.109601</v>
+        <v>0.114178</v>
       </c>
       <c r="D33" t="n">
-        <v>0.124951</v>
+        <v>0.123401</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.143743</v>
+        <v>0.140074</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116192</v>
+        <v>0.116397</v>
       </c>
       <c r="D34" t="n">
-        <v>0.126074</v>
+        <v>0.125846</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141392</v>
+        <v>0.141825</v>
       </c>
       <c r="C35" t="n">
-        <v>0.116384</v>
+        <v>0.116906</v>
       </c>
       <c r="D35" t="n">
-        <v>0.13355</v>
+        <v>0.125385</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146216</v>
+        <v>0.143337</v>
       </c>
       <c r="C36" t="n">
-        <v>0.118547</v>
+        <v>0.117626</v>
       </c>
       <c r="D36" t="n">
-        <v>0.132843</v>
+        <v>0.133947</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.147615</v>
+        <v>0.149702</v>
       </c>
       <c r="C37" t="n">
-        <v>0.125384</v>
+        <v>0.121691</v>
       </c>
       <c r="D37" t="n">
-        <v>0.133307</v>
+        <v>0.132249</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.167755</v>
+        <v>0.162795</v>
       </c>
       <c r="C38" t="n">
-        <v>0.121545</v>
+        <v>0.118152</v>
       </c>
       <c r="D38" t="n">
-        <v>0.133704</v>
+        <v>0.133836</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.171051</v>
+        <v>0.166763</v>
       </c>
       <c r="C39" t="n">
-        <v>0.121437</v>
+        <v>0.122562</v>
       </c>
       <c r="D39" t="n">
-        <v>0.132203</v>
+        <v>0.136618</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.162916</v>
+        <v>0.16505</v>
       </c>
       <c r="C40" t="n">
-        <v>0.122954</v>
+        <v>0.120966</v>
       </c>
       <c r="D40" t="n">
-        <v>0.133295</v>
+        <v>0.134749</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.167813</v>
+        <v>0.166247</v>
       </c>
       <c r="C41" t="n">
-        <v>0.124954</v>
+        <v>0.123781</v>
       </c>
       <c r="D41" t="n">
-        <v>0.135963</v>
+        <v>0.136411</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.169325</v>
+        <v>0.163888</v>
       </c>
       <c r="C42" t="n">
-        <v>0.122466</v>
+        <v>0.12098</v>
       </c>
       <c r="D42" t="n">
-        <v>0.135996</v>
+        <v>0.13852</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.161959</v>
+        <v>0.166992</v>
       </c>
       <c r="C43" t="n">
-        <v>0.125303</v>
+        <v>0.12518</v>
       </c>
       <c r="D43" t="n">
-        <v>0.145946</v>
+        <v>0.140201</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.169537</v>
+        <v>0.164335</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125036</v>
+        <v>0.12633</v>
       </c>
       <c r="D44" t="n">
-        <v>0.139236</v>
+        <v>0.1353</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.165069</v>
+        <v>0.164557</v>
       </c>
       <c r="C45" t="n">
-        <v>0.123683</v>
+        <v>0.124526</v>
       </c>
       <c r="D45" t="n">
-        <v>0.137426</v>
+        <v>0.138291</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.170145</v>
+        <v>0.165787</v>
       </c>
       <c r="C46" t="n">
-        <v>0.12889</v>
+        <v>0.129302</v>
       </c>
       <c r="D46" t="n">
-        <v>0.137992</v>
+        <v>0.14128</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.166228</v>
+        <v>0.16885</v>
       </c>
       <c r="C47" t="n">
-        <v>0.128176</v>
+        <v>0.13029</v>
       </c>
       <c r="D47" t="n">
-        <v>0.142412</v>
+        <v>0.142238</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.172944</v>
+        <v>0.164983</v>
       </c>
       <c r="C48" t="n">
-        <v>0.128104</v>
+        <v>0.129046</v>
       </c>
       <c r="D48" t="n">
-        <v>0.142348</v>
+        <v>0.145417</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.171796</v>
+        <v>0.175175</v>
       </c>
       <c r="C49" t="n">
-        <v>0.130874</v>
+        <v>0.131222</v>
       </c>
       <c r="D49" t="n">
-        <v>0.150471</v>
+        <v>0.148025</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170535</v>
+        <v>0.174768</v>
       </c>
       <c r="C50" t="n">
-        <v>0.138429</v>
+        <v>0.13614</v>
       </c>
       <c r="D50" t="n">
-        <v>0.147834</v>
+        <v>0.150668</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174564</v>
+        <v>0.171913</v>
       </c>
       <c r="C51" t="n">
-        <v>0.136582</v>
+        <v>0.138074</v>
       </c>
       <c r="D51" t="n">
-        <v>0.198904</v>
+        <v>0.209736</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175493</v>
+        <v>0.17737</v>
       </c>
       <c r="C52" t="n">
-        <v>0.142213</v>
+        <v>0.144033</v>
       </c>
       <c r="D52" t="n">
-        <v>0.202988</v>
+        <v>0.202046</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.249207</v>
+        <v>0.255702</v>
       </c>
       <c r="C53" t="n">
-        <v>0.194331</v>
+        <v>0.201156</v>
       </c>
       <c r="D53" t="n">
-        <v>0.20438</v>
+        <v>0.207504</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.260582</v>
+        <v>0.255917</v>
       </c>
       <c r="C54" t="n">
-        <v>0.200055</v>
+        <v>0.19793</v>
       </c>
       <c r="D54" t="n">
-        <v>0.200568</v>
+        <v>0.212667</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.260841</v>
+        <v>0.265169</v>
       </c>
       <c r="C55" t="n">
-        <v>0.198445</v>
+        <v>0.193372</v>
       </c>
       <c r="D55" t="n">
-        <v>0.205587</v>
+        <v>0.209655</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.260428</v>
+        <v>0.259547</v>
       </c>
       <c r="C56" t="n">
-        <v>0.204366</v>
+        <v>0.198329</v>
       </c>
       <c r="D56" t="n">
-        <v>0.206333</v>
+        <v>0.204449</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.252666</v>
+        <v>0.267444</v>
       </c>
       <c r="C57" t="n">
-        <v>0.203607</v>
+        <v>0.198409</v>
       </c>
       <c r="D57" t="n">
-        <v>0.210485</v>
+        <v>0.213747</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.253465</v>
+        <v>0.260759</v>
       </c>
       <c r="C58" t="n">
-        <v>0.202214</v>
+        <v>0.198752</v>
       </c>
       <c r="D58" t="n">
-        <v>0.206162</v>
+        <v>0.217062</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.268766</v>
+        <v>0.261324</v>
       </c>
       <c r="C59" t="n">
-        <v>0.201611</v>
+        <v>0.205093</v>
       </c>
       <c r="D59" t="n">
-        <v>0.209063</v>
+        <v>0.213599</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.259804</v>
+        <v>0.26117</v>
       </c>
       <c r="C60" t="n">
-        <v>0.202025</v>
+        <v>0.202808</v>
       </c>
       <c r="D60" t="n">
-        <v>0.207402</v>
+        <v>0.208083</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.256423</v>
+        <v>0.265756</v>
       </c>
       <c r="C61" t="n">
-        <v>0.198502</v>
+        <v>0.214076</v>
       </c>
       <c r="D61" t="n">
-        <v>0.210348</v>
+        <v>0.209738</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.259239</v>
+        <v>0.258473</v>
       </c>
       <c r="C62" t="n">
-        <v>0.203205</v>
+        <v>0.201418</v>
       </c>
       <c r="D62" t="n">
-        <v>0.210093</v>
+        <v>0.21056</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264005</v>
+        <v>0.261585</v>
       </c>
       <c r="C63" t="n">
-        <v>0.205487</v>
+        <v>0.202934</v>
       </c>
       <c r="D63" t="n">
-        <v>0.217085</v>
+        <v>0.218685</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261432</v>
+        <v>0.253952</v>
       </c>
       <c r="C64" t="n">
-        <v>0.211595</v>
+        <v>0.218177</v>
       </c>
       <c r="D64" t="n">
-        <v>0.221367</v>
+        <v>0.221537</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.269865</v>
+        <v>0.263385</v>
       </c>
       <c r="C65" t="n">
-        <v>0.213724</v>
+        <v>0.21694</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224958</v>
+        <v>0.220487</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.272355</v>
+        <v>0.265139</v>
       </c>
       <c r="C66" t="n">
-        <v>0.220309</v>
+        <v>0.220126</v>
       </c>
       <c r="D66" t="n">
-        <v>0.291453</v>
+        <v>0.292281</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.398463</v>
+        <v>0.393027</v>
       </c>
       <c r="C67" t="n">
-        <v>0.308181</v>
+        <v>0.313832</v>
       </c>
       <c r="D67" t="n">
-        <v>0.293019</v>
+        <v>0.290066</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.406909</v>
+        <v>0.397799</v>
       </c>
       <c r="C68" t="n">
-        <v>0.313846</v>
+        <v>0.310784</v>
       </c>
       <c r="D68" t="n">
-        <v>0.294275</v>
+        <v>0.294268</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.389288</v>
+        <v>0.402885</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3144</v>
+        <v>0.316662</v>
       </c>
       <c r="D69" t="n">
-        <v>0.298423</v>
+        <v>0.298093</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.394917</v>
+        <v>0.403672</v>
       </c>
       <c r="C70" t="n">
-        <v>0.310341</v>
+        <v>0.319237</v>
       </c>
       <c r="D70" t="n">
-        <v>0.299916</v>
+        <v>0.304097</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.393855</v>
+        <v>0.409896</v>
       </c>
       <c r="C71" t="n">
-        <v>0.312039</v>
+        <v>0.316614</v>
       </c>
       <c r="D71" t="n">
-        <v>0.310313</v>
+        <v>0.302319</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.403358</v>
+        <v>0.396897</v>
       </c>
       <c r="C72" t="n">
-        <v>0.311677</v>
+        <v>0.316119</v>
       </c>
       <c r="D72" t="n">
-        <v>0.300401</v>
+        <v>0.30376</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.399511</v>
+        <v>0.393596</v>
       </c>
       <c r="C73" t="n">
-        <v>0.309569</v>
+        <v>0.308344</v>
       </c>
       <c r="D73" t="n">
-        <v>0.312634</v>
+        <v>0.304668</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.409094</v>
+        <v>0.3923</v>
       </c>
       <c r="C74" t="n">
-        <v>0.309422</v>
+        <v>0.318377</v>
       </c>
       <c r="D74" t="n">
-        <v>0.304659</v>
+        <v>0.307064</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.401889</v>
+        <v>0.393394</v>
       </c>
       <c r="C75" t="n">
-        <v>0.32316</v>
+        <v>0.331127</v>
       </c>
       <c r="D75" t="n">
-        <v>0.318233</v>
+        <v>0.317702</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.397587</v>
+        <v>0.401698</v>
       </c>
       <c r="C76" t="n">
-        <v>0.325942</v>
+        <v>0.322328</v>
       </c>
       <c r="D76" t="n">
-        <v>0.320986</v>
+        <v>0.32236</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.406284</v>
+        <v>0.396853</v>
       </c>
       <c r="C77" t="n">
-        <v>0.314492</v>
+        <v>0.32289</v>
       </c>
       <c r="D77" t="n">
-        <v>0.318274</v>
+        <v>0.318822</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.415998</v>
+        <v>0.40696</v>
       </c>
       <c r="C78" t="n">
-        <v>0.325675</v>
+        <v>0.327745</v>
       </c>
       <c r="D78" t="n">
-        <v>0.313269</v>
+        <v>0.335948</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.414928</v>
+        <v>0.406492</v>
       </c>
       <c r="C79" t="n">
-        <v>0.321911</v>
+        <v>0.327029</v>
       </c>
       <c r="D79" t="n">
-        <v>0.325019</v>
+        <v>0.310887</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.407781</v>
+        <v>0.402422</v>
       </c>
       <c r="C80" t="n">
-        <v>0.337487</v>
+        <v>0.334851</v>
       </c>
       <c r="D80" t="n">
-        <v>0.42484</v>
+        <v>0.43551</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.557303</v>
+        <v>0.542597</v>
       </c>
       <c r="C81" t="n">
-        <v>0.439255</v>
+        <v>0.417186</v>
       </c>
       <c r="D81" t="n">
-        <v>0.43125</v>
+        <v>0.421675</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.541893</v>
+        <v>0.532963</v>
       </c>
       <c r="C82" t="n">
-        <v>0.428683</v>
+        <v>0.424004</v>
       </c>
       <c r="D82" t="n">
-        <v>0.43377</v>
+        <v>0.44324</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.538365</v>
+        <v>0.549501</v>
       </c>
       <c r="C83" t="n">
-        <v>0.418178</v>
+        <v>0.434217</v>
       </c>
       <c r="D83" t="n">
-        <v>0.429576</v>
+        <v>0.433112</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5418770000000001</v>
+        <v>0.563265</v>
       </c>
       <c r="C84" t="n">
-        <v>0.419857</v>
+        <v>0.42765</v>
       </c>
       <c r="D84" t="n">
-        <v>0.438053</v>
+        <v>0.440476</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5384989999999999</v>
+        <v>0.538905</v>
       </c>
       <c r="C85" t="n">
-        <v>0.431915</v>
+        <v>0.417946</v>
       </c>
       <c r="D85" t="n">
-        <v>0.446405</v>
+        <v>0.432508</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.554436</v>
+        <v>0.561204</v>
       </c>
       <c r="C86" t="n">
-        <v>0.433773</v>
+        <v>0.431526</v>
       </c>
       <c r="D86" t="n">
-        <v>0.436803</v>
+        <v>0.432236</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.545914</v>
+        <v>0.545256</v>
       </c>
       <c r="C87" t="n">
-        <v>0.432106</v>
+        <v>0.421467</v>
       </c>
       <c r="D87" t="n">
-        <v>0.442179</v>
+        <v>0.43883</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.562007</v>
+        <v>0.568242</v>
       </c>
       <c r="C88" t="n">
-        <v>0.441818</v>
+        <v>0.430193</v>
       </c>
       <c r="D88" t="n">
-        <v>0.440686</v>
+        <v>0.441239</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.58501</v>
+        <v>0.566387</v>
       </c>
       <c r="C89" t="n">
-        <v>0.446445</v>
+        <v>0.44354</v>
       </c>
       <c r="D89" t="n">
-        <v>0.433313</v>
+        <v>0.441752</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.553359</v>
+        <v>0.56293</v>
       </c>
       <c r="C90" t="n">
-        <v>0.439025</v>
+        <v>0.436377</v>
       </c>
       <c r="D90" t="n">
-        <v>0.444571</v>
+        <v>0.455409</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.554114</v>
+        <v>0.5503</v>
       </c>
       <c r="C91" t="n">
-        <v>0.440132</v>
+        <v>0.445442</v>
       </c>
       <c r="D91" t="n">
-        <v>0.452248</v>
+        <v>0.450263</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.559447</v>
+        <v>0.5722699999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4481</v>
+        <v>0.451952</v>
       </c>
       <c r="D92" t="n">
-        <v>0.457832</v>
+        <v>0.443909</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.55191</v>
+        <v>0.5756599999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.442207</v>
+        <v>0.456387</v>
       </c>
       <c r="D93" t="n">
-        <v>0.447743</v>
+        <v>0.449483</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.556404</v>
+        <v>0.576471</v>
       </c>
       <c r="C94" t="n">
-        <v>0.45474</v>
+        <v>0.447861</v>
       </c>
       <c r="D94" t="n">
-        <v>0.515979</v>
+        <v>0.5113259999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6449589999999999</v>
+        <v>0.63639</v>
       </c>
       <c r="C95" t="n">
-        <v>0.500904</v>
+        <v>0.519428</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5354640000000001</v>
+        <v>0.524963</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.639646</v>
+        <v>0.646828</v>
       </c>
       <c r="C96" t="n">
-        <v>0.506342</v>
+        <v>0.51406</v>
       </c>
       <c r="D96" t="n">
-        <v>0.519663</v>
+        <v>0.52776</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.63405</v>
+        <v>0.648308</v>
       </c>
       <c r="C97" t="n">
-        <v>0.506961</v>
+        <v>0.508179</v>
       </c>
       <c r="D97" t="n">
-        <v>0.524286</v>
+        <v>0.54191</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.65222</v>
+        <v>0.70467</v>
       </c>
       <c r="C98" t="n">
-        <v>0.501482</v>
+        <v>0.5027199999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.527334</v>
+        <v>0.522369</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6597150000000001</v>
+        <v>0.640746</v>
       </c>
       <c r="C99" t="n">
-        <v>0.56408</v>
+        <v>0.504679</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5493400000000001</v>
+        <v>0.5244180000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.657169</v>
+        <v>0.644227</v>
       </c>
       <c r="C100" t="n">
-        <v>0.547807</v>
+        <v>0.5146230000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.552848</v>
+        <v>0.522525</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.643115</v>
+        <v>0.653423</v>
       </c>
       <c r="C101" t="n">
-        <v>0.541062</v>
+        <v>0.524471</v>
       </c>
       <c r="D101" t="n">
-        <v>0.550144</v>
+        <v>0.543807</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.642317</v>
+        <v>0.651307</v>
       </c>
       <c r="C102" t="n">
-        <v>0.519942</v>
+        <v>0.534126</v>
       </c>
       <c r="D102" t="n">
-        <v>0.527922</v>
+        <v>0.523648</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.63944</v>
+        <v>0.640614</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5207889999999999</v>
+        <v>0.529674</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5581429999999999</v>
+        <v>0.530855</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.644929</v>
+        <v>0.647797</v>
       </c>
       <c r="C104" t="n">
-        <v>0.521581</v>
+        <v>0.52045</v>
       </c>
       <c r="D104" t="n">
-        <v>0.536328</v>
+        <v>0.534516</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.7096</v>
+        <v>0.65567</v>
       </c>
       <c r="C105" t="n">
-        <v>0.567522</v>
+        <v>0.533687</v>
       </c>
       <c r="D105" t="n">
-        <v>0.544084</v>
+        <v>0.5470429999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.670916</v>
+        <v>0.637209</v>
       </c>
       <c r="C106" t="n">
-        <v>0.517877</v>
+        <v>0.5547</v>
       </c>
       <c r="D106" t="n">
-        <v>0.546416</v>
+        <v>0.56525</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.642651</v>
+        <v>0.66249</v>
       </c>
       <c r="C107" t="n">
-        <v>0.540724</v>
+        <v>0.53666</v>
       </c>
       <c r="D107" t="n">
-        <v>0.571083</v>
+        <v>0.561376</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.665147</v>
+        <v>0.712363</v>
       </c>
       <c r="C108" t="n">
-        <v>0.558942</v>
+        <v>0.537698</v>
       </c>
       <c r="D108" t="n">
-        <v>0.630168</v>
+        <v>0.6092</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.658416</v>
+        <v>0.661589</v>
       </c>
       <c r="C109" t="n">
-        <v>0.551587</v>
+        <v>0.549546</v>
       </c>
       <c r="D109" t="n">
-        <v>0.62295</v>
+        <v>0.612334</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.798774</v>
+        <v>0.797972</v>
       </c>
       <c r="C110" t="n">
-        <v>0.600411</v>
+        <v>0.589077</v>
       </c>
       <c r="D110" t="n">
-        <v>0.608481</v>
+        <v>0.67582</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.794395</v>
+        <v>0.810831</v>
       </c>
       <c r="C111" t="n">
-        <v>0.600279</v>
+        <v>0.5959179999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.619425</v>
+        <v>0.624525</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.804571</v>
+        <v>0.82345</v>
       </c>
       <c r="C112" t="n">
-        <v>0.59735</v>
+        <v>0.615808</v>
       </c>
       <c r="D112" t="n">
-        <v>0.609814</v>
+        <v>0.635831</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.797293</v>
+        <v>0.818384</v>
       </c>
       <c r="C113" t="n">
-        <v>0.614812</v>
+        <v>0.611638</v>
       </c>
       <c r="D113" t="n">
-        <v>0.627121</v>
+        <v>0.622126</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.786655</v>
+        <v>0.812484</v>
       </c>
       <c r="C114" t="n">
-        <v>0.609785</v>
+        <v>0.606307</v>
       </c>
       <c r="D114" t="n">
-        <v>0.628551</v>
+        <v>0.616258</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.794605</v>
+        <v>0.789682</v>
       </c>
       <c r="C115" t="n">
-        <v>0.619556</v>
+        <v>0.6133</v>
       </c>
       <c r="D115" t="n">
-        <v>0.615773</v>
+        <v>0.630485</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.795776</v>
+        <v>0.8083050000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.609416</v>
+        <v>0.624435</v>
       </c>
       <c r="D116" t="n">
-        <v>0.63146</v>
+        <v>0.629377</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.802663</v>
+        <v>0.821705</v>
       </c>
       <c r="C117" t="n">
-        <v>0.615574</v>
+        <v>0.6353799999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.627735</v>
+        <v>0.636718</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8260150000000001</v>
+        <v>0.8048419999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.63165</v>
+        <v>0.617197</v>
       </c>
       <c r="D118" t="n">
-        <v>0.632417</v>
+        <v>0.6315770000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.790402</v>
+        <v>0.816375</v>
       </c>
       <c r="C119" t="n">
-        <v>0.618306</v>
+        <v>0.648596</v>
       </c>
       <c r="D119" t="n">
-        <v>0.644729</v>
+        <v>0.637547</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.804326</v>
+        <v>0.818404</v>
       </c>
       <c r="C120" t="n">
-        <v>0.636749</v>
+        <v>0.622567</v>
       </c>
       <c r="D120" t="n">
-        <v>0.636455</v>
+        <v>0.651226</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.790506</v>
+        <v>0.8150500000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.615152</v>
+        <v>0.634782</v>
       </c>
       <c r="D121" t="n">
-        <v>0.654924</v>
+        <v>0.6507579999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.804659</v>
+        <v>0.813687</v>
       </c>
       <c r="C122" t="n">
-        <v>0.636609</v>
+        <v>0.631204</v>
       </c>
       <c r="D122" t="n">
-        <v>0.663196</v>
+        <v>0.668285</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.896644</v>
+        <v>0.816864</v>
       </c>
       <c r="C123" t="n">
-        <v>0.648878</v>
+        <v>0.645191</v>
       </c>
       <c r="D123" t="n">
-        <v>0.761745</v>
+        <v>0.746568</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.02295</v>
+        <v>1.05229</v>
       </c>
       <c r="C124" t="n">
-        <v>0.709928</v>
+        <v>0.734768</v>
       </c>
       <c r="D124" t="n">
-        <v>0.752656</v>
+        <v>0.7505309999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03666</v>
+        <v>1.02174</v>
       </c>
       <c r="C125" t="n">
-        <v>0.750661</v>
+        <v>0.75374</v>
       </c>
       <c r="D125" t="n">
-        <v>0.878808</v>
+        <v>0.746874</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.04342</v>
+        <v>1.04764</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7470250000000001</v>
+        <v>0.854797</v>
       </c>
       <c r="D126" t="n">
-        <v>0.811657</v>
+        <v>0.727128</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.02912</v>
+        <v>1.02226</v>
       </c>
       <c r="C127" t="n">
-        <v>0.805036</v>
+        <v>0.739975</v>
       </c>
       <c r="D127" t="n">
-        <v>0.751352</v>
+        <v>0.741201</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.02429</v>
+        <v>1.02933</v>
       </c>
       <c r="C128" t="n">
-        <v>0.745661</v>
+        <v>0.746499</v>
       </c>
       <c r="D128" t="n">
-        <v>0.752045</v>
+        <v>0.7548280000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.01854</v>
+        <v>1.04539</v>
       </c>
       <c r="C129" t="n">
-        <v>0.779432</v>
+        <v>0.758223</v>
       </c>
       <c r="D129" t="n">
-        <v>0.752371</v>
+        <v>0.7694029999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.02792</v>
+        <v>1.03811</v>
       </c>
       <c r="C130" t="n">
-        <v>0.752175</v>
+        <v>0.761408</v>
       </c>
       <c r="D130" t="n">
-        <v>0.751493</v>
+        <v>0.7520790000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.02684</v>
+        <v>1.02937</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7483649999999999</v>
+        <v>0.85612</v>
       </c>
       <c r="D131" t="n">
-        <v>0.75891</v>
+        <v>0.75768</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04166</v>
+        <v>1.04264</v>
       </c>
       <c r="C132" t="n">
-        <v>0.749707</v>
+        <v>0.75635</v>
       </c>
       <c r="D132" t="n">
-        <v>0.743084</v>
+        <v>0.763384</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03768</v>
+        <v>1.03625</v>
       </c>
       <c r="C133" t="n">
-        <v>0.747031</v>
+        <v>0.741702</v>
       </c>
       <c r="D133" t="n">
-        <v>0.771547</v>
+        <v>0.762081</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.02396</v>
+        <v>1.04386</v>
       </c>
       <c r="C134" t="n">
-        <v>0.873255</v>
+        <v>0.748094</v>
       </c>
       <c r="D134" t="n">
-        <v>0.787407</v>
+        <v>0.824339</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.15961</v>
+        <v>1.17553</v>
       </c>
       <c r="C135" t="n">
-        <v>0.766269</v>
+        <v>0.777244</v>
       </c>
       <c r="D135" t="n">
-        <v>0.784624</v>
+        <v>0.798579</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.03632</v>
+        <v>1.0483</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8763069999999999</v>
+        <v>0.759693</v>
       </c>
       <c r="D136" t="n">
-        <v>0.783962</v>
+        <v>0.801854</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05499</v>
+        <v>1.05745</v>
       </c>
       <c r="C137" t="n">
-        <v>0.787385</v>
+        <v>0.780549</v>
       </c>
       <c r="D137" t="n">
-        <v>0.926582</v>
+        <v>0.935512</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33092</v>
+        <v>1.29725</v>
       </c>
       <c r="C138" t="n">
-        <v>0.926935</v>
+        <v>0.916228</v>
       </c>
       <c r="D138" t="n">
-        <v>1.03418</v>
+        <v>0.945154</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.40829</v>
+        <v>1.32483</v>
       </c>
       <c r="C139" t="n">
-        <v>0.929266</v>
+        <v>0.933847</v>
       </c>
       <c r="D139" t="n">
-        <v>0.931802</v>
+        <v>0.949093</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29769</v>
+        <v>1.32006</v>
       </c>
       <c r="C140" t="n">
-        <v>0.954856</v>
+        <v>0.934056</v>
       </c>
       <c r="D140" t="n">
-        <v>0.929707</v>
+        <v>0.946447</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.32091</v>
+        <v>1.32247</v>
       </c>
       <c r="C141" t="n">
-        <v>1.02347</v>
+        <v>0.937439</v>
       </c>
       <c r="D141" t="n">
-        <v>0.989435</v>
+        <v>0.929299</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.34125</v>
+        <v>1.30452</v>
       </c>
       <c r="C142" t="n">
-        <v>1.00637</v>
+        <v>0.952087</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9468760000000001</v>
+        <v>0.94687</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32169</v>
+        <v>1.32181</v>
       </c>
       <c r="C143" t="n">
-        <v>1.03611</v>
+        <v>0.932416</v>
       </c>
       <c r="D143" t="n">
-        <v>1.03273</v>
+        <v>0.951802</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.122198</v>
+        <v>0.115974</v>
       </c>
       <c r="C2" t="n">
-        <v>0.100876</v>
+        <v>0.09690020000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113235</v>
+        <v>0.107602</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.121546</v>
+        <v>0.113738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.105713</v>
+        <v>0.0973417</v>
       </c>
       <c r="D3" t="n">
-        <v>0.113964</v>
+        <v>0.109598</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.125514</v>
+        <v>0.116918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.102006</v>
+        <v>0.0971723</v>
       </c>
       <c r="D4" t="n">
-        <v>0.113116</v>
+        <v>0.108188</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.124988</v>
+        <v>0.113459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104728</v>
+        <v>0.101421</v>
       </c>
       <c r="D5" t="n">
-        <v>0.114391</v>
+        <v>0.109515</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.119081</v>
+        <v>0.120307</v>
       </c>
       <c r="C6" t="n">
-        <v>0.10466</v>
+        <v>0.102006</v>
       </c>
       <c r="D6" t="n">
-        <v>0.112526</v>
+        <v>0.111676</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.122217</v>
+        <v>0.117625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.106116</v>
+        <v>0.0995394</v>
       </c>
       <c r="D7" t="n">
-        <v>0.119326</v>
+        <v>0.111556</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.127015</v>
+        <v>0.118519</v>
       </c>
       <c r="C8" t="n">
-        <v>0.105086</v>
+        <v>0.1045</v>
       </c>
       <c r="D8" t="n">
-        <v>0.122347</v>
+        <v>0.116602</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.123791</v>
+        <v>0.12412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108842</v>
+        <v>0.107543</v>
       </c>
       <c r="D9" t="n">
-        <v>0.11202</v>
+        <v>0.114858</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1323</v>
+        <v>0.130305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.106016</v>
+        <v>0.101935</v>
       </c>
       <c r="D10" t="n">
-        <v>0.114286</v>
+        <v>0.111892</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.133082</v>
+        <v>0.127488</v>
       </c>
       <c r="C11" t="n">
-        <v>0.104113</v>
+        <v>0.101883</v>
       </c>
       <c r="D11" t="n">
-        <v>0.114526</v>
+        <v>0.10868</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.129257</v>
+        <v>0.128686</v>
       </c>
       <c r="C12" t="n">
-        <v>0.102715</v>
+        <v>0.103582</v>
       </c>
       <c r="D12" t="n">
-        <v>0.114127</v>
+        <v>0.114456</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.131105</v>
+        <v>0.132079</v>
       </c>
       <c r="C13" t="n">
-        <v>0.103775</v>
+        <v>0.102827</v>
       </c>
       <c r="D13" t="n">
-        <v>0.113353</v>
+        <v>0.112929</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12796</v>
+        <v>0.127409</v>
       </c>
       <c r="C14" t="n">
-        <v>0.101071</v>
+        <v>0.103967</v>
       </c>
       <c r="D14" t="n">
-        <v>0.113792</v>
+        <v>0.110178</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.128078</v>
+        <v>0.130326</v>
       </c>
       <c r="C15" t="n">
-        <v>0.102551</v>
+        <v>0.102818</v>
       </c>
       <c r="D15" t="n">
-        <v>0.116257</v>
+        <v>0.110089</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.131865</v>
+        <v>0.12745</v>
       </c>
       <c r="C16" t="n">
-        <v>0.110403</v>
+        <v>0.105546</v>
       </c>
       <c r="D16" t="n">
-        <v>0.117928</v>
+        <v>0.114284</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130155</v>
+        <v>0.126896</v>
       </c>
       <c r="C17" t="n">
-        <v>0.107841</v>
+        <v>0.102143</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114402</v>
+        <v>0.11414</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.137138</v>
+        <v>0.127711</v>
       </c>
       <c r="C18" t="n">
-        <v>0.106817</v>
+        <v>0.103523</v>
       </c>
       <c r="D18" t="n">
-        <v>0.115857</v>
+        <v>0.112094</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.129525</v>
+        <v>0.129069</v>
       </c>
       <c r="C19" t="n">
-        <v>0.107788</v>
+        <v>0.107127</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117653</v>
+        <v>0.114229</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.132447</v>
+        <v>0.129622</v>
       </c>
       <c r="C20" t="n">
-        <v>0.106079</v>
+        <v>0.104732</v>
       </c>
       <c r="D20" t="n">
-        <v>0.116307</v>
+        <v>0.115456</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130675</v>
+        <v>0.130646</v>
       </c>
       <c r="C21" t="n">
-        <v>0.111005</v>
+        <v>0.106534</v>
       </c>
       <c r="D21" t="n">
-        <v>0.121188</v>
+        <v>0.119809</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132508</v>
+        <v>0.133141</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11604</v>
+        <v>0.110987</v>
       </c>
       <c r="D22" t="n">
-        <v>0.12735</v>
+        <v>0.126431</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.135327</v>
+        <v>0.131641</v>
       </c>
       <c r="C23" t="n">
-        <v>0.115964</v>
+        <v>0.119411</v>
       </c>
       <c r="D23" t="n">
-        <v>0.119075</v>
+        <v>0.118856</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.14352</v>
+        <v>0.143075</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107402</v>
+        <v>0.105259</v>
       </c>
       <c r="D24" t="n">
-        <v>0.118635</v>
+        <v>0.118922</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.140611</v>
+        <v>0.134507</v>
       </c>
       <c r="C25" t="n">
-        <v>0.106954</v>
+        <v>0.106504</v>
       </c>
       <c r="D25" t="n">
-        <v>0.119084</v>
+        <v>0.114027</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.141168</v>
+        <v>0.140483</v>
       </c>
       <c r="C26" t="n">
-        <v>0.106901</v>
+        <v>0.106999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.118452</v>
+        <v>0.125681</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138648</v>
+        <v>0.139675</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108575</v>
+        <v>0.108492</v>
       </c>
       <c r="D27" t="n">
-        <v>0.11897</v>
+        <v>0.116151</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.146705</v>
+        <v>0.139658</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108549</v>
+        <v>0.106336</v>
       </c>
       <c r="D28" t="n">
-        <v>0.120822</v>
+        <v>0.123282</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.138336</v>
+        <v>0.136776</v>
       </c>
       <c r="C29" t="n">
-        <v>0.107437</v>
+        <v>0.113171</v>
       </c>
       <c r="D29" t="n">
-        <v>0.116475</v>
+        <v>0.118128</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.143161</v>
+        <v>0.141465</v>
       </c>
       <c r="C30" t="n">
-        <v>0.110963</v>
+        <v>0.10951</v>
       </c>
       <c r="D30" t="n">
-        <v>0.123719</v>
+        <v>0.11786</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.146256</v>
+        <v>0.140117</v>
       </c>
       <c r="C31" t="n">
-        <v>0.109844</v>
+        <v>0.112598</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122036</v>
+        <v>0.11763</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140393</v>
+        <v>0.146176</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112499</v>
+        <v>0.112302</v>
       </c>
       <c r="D32" t="n">
-        <v>0.124375</v>
+        <v>0.118431</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.142567</v>
+        <v>0.142844</v>
       </c>
       <c r="C33" t="n">
-        <v>0.114178</v>
+        <v>0.11145</v>
       </c>
       <c r="D33" t="n">
-        <v>0.123401</v>
+        <v>0.122762</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.140074</v>
+        <v>0.143239</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116397</v>
+        <v>0.11588</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125846</v>
+        <v>0.126292</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141825</v>
+        <v>0.142175</v>
       </c>
       <c r="C35" t="n">
-        <v>0.116906</v>
+        <v>0.116846</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125385</v>
+        <v>0.127552</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.143337</v>
+        <v>0.144981</v>
       </c>
       <c r="C36" t="n">
-        <v>0.117626</v>
+        <v>0.120832</v>
       </c>
       <c r="D36" t="n">
-        <v>0.133947</v>
+        <v>0.133616</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.149702</v>
+        <v>0.151548</v>
       </c>
       <c r="C37" t="n">
-        <v>0.121691</v>
+        <v>0.119952</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132249</v>
+        <v>0.133138</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162795</v>
+        <v>0.170121</v>
       </c>
       <c r="C38" t="n">
-        <v>0.118152</v>
+        <v>0.119446</v>
       </c>
       <c r="D38" t="n">
-        <v>0.133836</v>
+        <v>0.138551</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.166763</v>
+        <v>0.164525</v>
       </c>
       <c r="C39" t="n">
-        <v>0.122562</v>
+        <v>0.121968</v>
       </c>
       <c r="D39" t="n">
-        <v>0.136618</v>
+        <v>0.134385</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.16505</v>
+        <v>0.163356</v>
       </c>
       <c r="C40" t="n">
-        <v>0.120966</v>
+        <v>0.119623</v>
       </c>
       <c r="D40" t="n">
-        <v>0.134749</v>
+        <v>0.133355</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.166247</v>
+        <v>0.166053</v>
       </c>
       <c r="C41" t="n">
-        <v>0.123781</v>
+        <v>0.121637</v>
       </c>
       <c r="D41" t="n">
-        <v>0.136411</v>
+        <v>0.139018</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.163888</v>
+        <v>0.163316</v>
       </c>
       <c r="C42" t="n">
-        <v>0.12098</v>
+        <v>0.124918</v>
       </c>
       <c r="D42" t="n">
-        <v>0.13852</v>
+        <v>0.137731</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.166992</v>
+        <v>0.166156</v>
       </c>
       <c r="C43" t="n">
-        <v>0.12518</v>
+        <v>0.122374</v>
       </c>
       <c r="D43" t="n">
-        <v>0.140201</v>
+        <v>0.138112</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.164335</v>
+        <v>0.172111</v>
       </c>
       <c r="C44" t="n">
-        <v>0.12633</v>
+        <v>0.125567</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1353</v>
+        <v>0.13959</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.164557</v>
+        <v>0.166685</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124526</v>
+        <v>0.12561</v>
       </c>
       <c r="D45" t="n">
-        <v>0.138291</v>
+        <v>0.136912</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.165787</v>
+        <v>0.166908</v>
       </c>
       <c r="C46" t="n">
-        <v>0.129302</v>
+        <v>0.130239</v>
       </c>
       <c r="D46" t="n">
-        <v>0.14128</v>
+        <v>0.140668</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16885</v>
+        <v>0.16745</v>
       </c>
       <c r="C47" t="n">
-        <v>0.13029</v>
+        <v>0.125001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.142238</v>
+        <v>0.139836</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.164983</v>
+        <v>0.167732</v>
       </c>
       <c r="C48" t="n">
-        <v>0.129046</v>
+        <v>0.134905</v>
       </c>
       <c r="D48" t="n">
-        <v>0.145417</v>
+        <v>0.144348</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.175175</v>
+        <v>0.165559</v>
       </c>
       <c r="C49" t="n">
-        <v>0.131222</v>
+        <v>0.131122</v>
       </c>
       <c r="D49" t="n">
-        <v>0.148025</v>
+        <v>0.143408</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.174768</v>
+        <v>0.16845</v>
       </c>
       <c r="C50" t="n">
-        <v>0.13614</v>
+        <v>0.132045</v>
       </c>
       <c r="D50" t="n">
-        <v>0.150668</v>
+        <v>0.150373</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.171913</v>
+        <v>0.177703</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138074</v>
+        <v>0.13888</v>
       </c>
       <c r="D51" t="n">
-        <v>0.209736</v>
+        <v>0.206448</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17737</v>
+        <v>0.18278</v>
       </c>
       <c r="C52" t="n">
-        <v>0.144033</v>
+        <v>0.145619</v>
       </c>
       <c r="D52" t="n">
-        <v>0.202046</v>
+        <v>0.19891</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.255702</v>
+        <v>0.253163</v>
       </c>
       <c r="C53" t="n">
-        <v>0.201156</v>
+        <v>0.195517</v>
       </c>
       <c r="D53" t="n">
-        <v>0.207504</v>
+        <v>0.203332</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.255917</v>
+        <v>0.25419</v>
       </c>
       <c r="C54" t="n">
-        <v>0.19793</v>
+        <v>0.194641</v>
       </c>
       <c r="D54" t="n">
-        <v>0.212667</v>
+        <v>0.205957</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.265169</v>
+        <v>0.255047</v>
       </c>
       <c r="C55" t="n">
-        <v>0.193372</v>
+        <v>0.197348</v>
       </c>
       <c r="D55" t="n">
-        <v>0.209655</v>
+        <v>0.206021</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259547</v>
+        <v>0.262708</v>
       </c>
       <c r="C56" t="n">
-        <v>0.198329</v>
+        <v>0.20091</v>
       </c>
       <c r="D56" t="n">
-        <v>0.204449</v>
+        <v>0.203919</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.267444</v>
+        <v>0.258691</v>
       </c>
       <c r="C57" t="n">
-        <v>0.198409</v>
+        <v>0.204481</v>
       </c>
       <c r="D57" t="n">
-        <v>0.213747</v>
+        <v>0.208356</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.260759</v>
+        <v>0.249973</v>
       </c>
       <c r="C58" t="n">
-        <v>0.198752</v>
+        <v>0.200032</v>
       </c>
       <c r="D58" t="n">
-        <v>0.217062</v>
+        <v>0.209053</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.261324</v>
+        <v>0.25671</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205093</v>
+        <v>0.201557</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213599</v>
+        <v>0.206236</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.26117</v>
+        <v>0.257813</v>
       </c>
       <c r="C60" t="n">
-        <v>0.202808</v>
+        <v>0.200874</v>
       </c>
       <c r="D60" t="n">
-        <v>0.208083</v>
+        <v>0.207924</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.265756</v>
+        <v>0.255461</v>
       </c>
       <c r="C61" t="n">
-        <v>0.214076</v>
+        <v>0.201799</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209738</v>
+        <v>0.209365</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.258473</v>
+        <v>0.258917</v>
       </c>
       <c r="C62" t="n">
-        <v>0.201418</v>
+        <v>0.208813</v>
       </c>
       <c r="D62" t="n">
-        <v>0.21056</v>
+        <v>0.209381</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.261585</v>
+        <v>0.257934</v>
       </c>
       <c r="C63" t="n">
-        <v>0.202934</v>
+        <v>0.203851</v>
       </c>
       <c r="D63" t="n">
-        <v>0.218685</v>
+        <v>0.218593</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.253952</v>
+        <v>0.255661</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218177</v>
+        <v>0.211206</v>
       </c>
       <c r="D64" t="n">
-        <v>0.221537</v>
+        <v>0.215373</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263385</v>
+        <v>0.266121</v>
       </c>
       <c r="C65" t="n">
-        <v>0.21694</v>
+        <v>0.216812</v>
       </c>
       <c r="D65" t="n">
-        <v>0.220487</v>
+        <v>0.224689</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.265139</v>
+        <v>0.271068</v>
       </c>
       <c r="C66" t="n">
-        <v>0.220126</v>
+        <v>0.218017</v>
       </c>
       <c r="D66" t="n">
-        <v>0.292281</v>
+        <v>0.291302</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.393027</v>
+        <v>0.410405</v>
       </c>
       <c r="C67" t="n">
-        <v>0.313832</v>
+        <v>0.310673</v>
       </c>
       <c r="D67" t="n">
-        <v>0.290066</v>
+        <v>0.294081</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.397799</v>
+        <v>0.397074</v>
       </c>
       <c r="C68" t="n">
-        <v>0.310784</v>
+        <v>0.314842</v>
       </c>
       <c r="D68" t="n">
-        <v>0.294268</v>
+        <v>0.294974</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.402885</v>
+        <v>0.415574</v>
       </c>
       <c r="C69" t="n">
-        <v>0.316662</v>
+        <v>0.311951</v>
       </c>
       <c r="D69" t="n">
-        <v>0.298093</v>
+        <v>0.294063</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.403672</v>
+        <v>0.383537</v>
       </c>
       <c r="C70" t="n">
-        <v>0.319237</v>
+        <v>0.320506</v>
       </c>
       <c r="D70" t="n">
-        <v>0.304097</v>
+        <v>0.294423</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.409896</v>
+        <v>0.400704</v>
       </c>
       <c r="C71" t="n">
-        <v>0.316614</v>
+        <v>0.309065</v>
       </c>
       <c r="D71" t="n">
-        <v>0.302319</v>
+        <v>0.30225</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.396897</v>
+        <v>0.417353</v>
       </c>
       <c r="C72" t="n">
-        <v>0.316119</v>
+        <v>0.315639</v>
       </c>
       <c r="D72" t="n">
-        <v>0.30376</v>
+        <v>0.298404</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.393596</v>
+        <v>0.408421</v>
       </c>
       <c r="C73" t="n">
-        <v>0.308344</v>
+        <v>0.316425</v>
       </c>
       <c r="D73" t="n">
-        <v>0.304668</v>
+        <v>0.300743</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3923</v>
+        <v>0.410728</v>
       </c>
       <c r="C74" t="n">
-        <v>0.318377</v>
+        <v>0.31654</v>
       </c>
       <c r="D74" t="n">
-        <v>0.307064</v>
+        <v>0.300282</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.393394</v>
+        <v>0.424091</v>
       </c>
       <c r="C75" t="n">
-        <v>0.331127</v>
+        <v>0.315398</v>
       </c>
       <c r="D75" t="n">
-        <v>0.317702</v>
+        <v>0.307747</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.401698</v>
+        <v>0.40362</v>
       </c>
       <c r="C76" t="n">
-        <v>0.322328</v>
+        <v>0.313348</v>
       </c>
       <c r="D76" t="n">
-        <v>0.32236</v>
+        <v>0.294345</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.396853</v>
+        <v>0.405375</v>
       </c>
       <c r="C77" t="n">
-        <v>0.32289</v>
+        <v>0.322961</v>
       </c>
       <c r="D77" t="n">
-        <v>0.318822</v>
+        <v>0.314078</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.40696</v>
+        <v>0.413041</v>
       </c>
       <c r="C78" t="n">
-        <v>0.327745</v>
+        <v>0.322261</v>
       </c>
       <c r="D78" t="n">
-        <v>0.335948</v>
+        <v>0.306045</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.406492</v>
+        <v>0.409186</v>
       </c>
       <c r="C79" t="n">
-        <v>0.327029</v>
+        <v>0.321976</v>
       </c>
       <c r="D79" t="n">
-        <v>0.310887</v>
+        <v>0.316744</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.402422</v>
+        <v>0.415106</v>
       </c>
       <c r="C80" t="n">
-        <v>0.334851</v>
+        <v>0.329365</v>
       </c>
       <c r="D80" t="n">
-        <v>0.43551</v>
+        <v>0.428838</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.542597</v>
+        <v>0.537139</v>
       </c>
       <c r="C81" t="n">
-        <v>0.417186</v>
+        <v>0.422903</v>
       </c>
       <c r="D81" t="n">
-        <v>0.421675</v>
+        <v>0.439483</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.532963</v>
+        <v>0.565757</v>
       </c>
       <c r="C82" t="n">
-        <v>0.424004</v>
+        <v>0.428754</v>
       </c>
       <c r="D82" t="n">
-        <v>0.44324</v>
+        <v>0.431365</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.549501</v>
+        <v>0.566323</v>
       </c>
       <c r="C83" t="n">
-        <v>0.434217</v>
+        <v>0.424422</v>
       </c>
       <c r="D83" t="n">
-        <v>0.433112</v>
+        <v>0.429352</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.563265</v>
+        <v>0.538219</v>
       </c>
       <c r="C84" t="n">
-        <v>0.42765</v>
+        <v>0.426817</v>
       </c>
       <c r="D84" t="n">
-        <v>0.440476</v>
+        <v>0.429007</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.538905</v>
+        <v>0.555706</v>
       </c>
       <c r="C85" t="n">
-        <v>0.417946</v>
+        <v>0.431148</v>
       </c>
       <c r="D85" t="n">
-        <v>0.432508</v>
+        <v>0.43152</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.561204</v>
+        <v>0.557578</v>
       </c>
       <c r="C86" t="n">
-        <v>0.431526</v>
+        <v>0.420704</v>
       </c>
       <c r="D86" t="n">
-        <v>0.432236</v>
+        <v>0.431464</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.545256</v>
+        <v>0.554379</v>
       </c>
       <c r="C87" t="n">
-        <v>0.421467</v>
+        <v>0.432475</v>
       </c>
       <c r="D87" t="n">
-        <v>0.43883</v>
+        <v>0.445067</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.568242</v>
+        <v>0.550408</v>
       </c>
       <c r="C88" t="n">
-        <v>0.430193</v>
+        <v>0.434723</v>
       </c>
       <c r="D88" t="n">
-        <v>0.441239</v>
+        <v>0.441478</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.566387</v>
+        <v>0.557576</v>
       </c>
       <c r="C89" t="n">
-        <v>0.44354</v>
+        <v>0.438493</v>
       </c>
       <c r="D89" t="n">
-        <v>0.441752</v>
+        <v>0.435751</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.56293</v>
+        <v>0.542316</v>
       </c>
       <c r="C90" t="n">
-        <v>0.436377</v>
+        <v>0.439934</v>
       </c>
       <c r="D90" t="n">
-        <v>0.455409</v>
+        <v>0.458924</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5503</v>
+        <v>0.569583</v>
       </c>
       <c r="C91" t="n">
-        <v>0.445442</v>
+        <v>0.458621</v>
       </c>
       <c r="D91" t="n">
-        <v>0.450263</v>
+        <v>0.449623</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5722699999999999</v>
+        <v>0.556038</v>
       </c>
       <c r="C92" t="n">
-        <v>0.451952</v>
+        <v>0.443665</v>
       </c>
       <c r="D92" t="n">
-        <v>0.443909</v>
+        <v>0.451354</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5756599999999999</v>
+        <v>0.561277</v>
       </c>
       <c r="C93" t="n">
-        <v>0.456387</v>
+        <v>0.44586</v>
       </c>
       <c r="D93" t="n">
-        <v>0.449483</v>
+        <v>0.457779</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.576471</v>
+        <v>0.569227</v>
       </c>
       <c r="C94" t="n">
-        <v>0.447861</v>
+        <v>0.450001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5113259999999999</v>
+        <v>0.514074</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.63639</v>
+        <v>0.638263</v>
       </c>
       <c r="C95" t="n">
-        <v>0.519428</v>
+        <v>0.504513</v>
       </c>
       <c r="D95" t="n">
-        <v>0.524963</v>
+        <v>0.528209</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.646828</v>
+        <v>0.6473719999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.51406</v>
+        <v>0.503744</v>
       </c>
       <c r="D96" t="n">
-        <v>0.52776</v>
+        <v>0.5242329999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.648308</v>
+        <v>0.649934</v>
       </c>
       <c r="C97" t="n">
-        <v>0.508179</v>
+        <v>0.522286</v>
       </c>
       <c r="D97" t="n">
-        <v>0.54191</v>
+        <v>0.515454</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.70467</v>
+        <v>0.639436</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5027199999999999</v>
+        <v>0.497488</v>
       </c>
       <c r="D98" t="n">
-        <v>0.522369</v>
+        <v>0.532807</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.640746</v>
+        <v>0.641104</v>
       </c>
       <c r="C99" t="n">
-        <v>0.504679</v>
+        <v>0.509575</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5244180000000001</v>
+        <v>0.517117</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.644227</v>
+        <v>0.651291</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5146230000000001</v>
+        <v>0.531402</v>
       </c>
       <c r="D100" t="n">
-        <v>0.522525</v>
+        <v>0.523284</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.653423</v>
+        <v>0.644401</v>
       </c>
       <c r="C101" t="n">
-        <v>0.524471</v>
+        <v>0.5338039999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.543807</v>
+        <v>0.55305</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.651307</v>
+        <v>0.637722</v>
       </c>
       <c r="C102" t="n">
-        <v>0.534126</v>
+        <v>0.503315</v>
       </c>
       <c r="D102" t="n">
-        <v>0.523648</v>
+        <v>0.553507</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.640614</v>
+        <v>0.6424879999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.529674</v>
+        <v>0.524921</v>
       </c>
       <c r="D103" t="n">
-        <v>0.530855</v>
+        <v>0.531175</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.647797</v>
+        <v>0.6453449999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.52045</v>
+        <v>0.524443</v>
       </c>
       <c r="D104" t="n">
-        <v>0.534516</v>
+        <v>0.526999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.65567</v>
+        <v>0.656807</v>
       </c>
       <c r="C105" t="n">
-        <v>0.533687</v>
+        <v>0.521571</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5470429999999999</v>
+        <v>0.535456</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.637209</v>
+        <v>0.6457850000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5547</v>
+        <v>0.544115</v>
       </c>
       <c r="D106" t="n">
-        <v>0.56525</v>
+        <v>0.562372</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.66249</v>
+        <v>0.634886</v>
       </c>
       <c r="C107" t="n">
-        <v>0.53666</v>
+        <v>0.5373329999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.561376</v>
+        <v>0.546053</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.712363</v>
+        <v>0.691655</v>
       </c>
       <c r="C108" t="n">
-        <v>0.537698</v>
+        <v>0.558539</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6092</v>
+        <v>0.64996</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.661589</v>
+        <v>0.694993</v>
       </c>
       <c r="C109" t="n">
-        <v>0.549546</v>
+        <v>0.5413210000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.612334</v>
+        <v>0.625997</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.797972</v>
+        <v>0.790229</v>
       </c>
       <c r="C110" t="n">
-        <v>0.589077</v>
+        <v>0.607037</v>
       </c>
       <c r="D110" t="n">
-        <v>0.67582</v>
+        <v>0.6293029999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.810831</v>
+        <v>0.792507</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5959179999999999</v>
+        <v>0.657676</v>
       </c>
       <c r="D111" t="n">
-        <v>0.624525</v>
+        <v>0.665546</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.82345</v>
+        <v>0.799872</v>
       </c>
       <c r="C112" t="n">
-        <v>0.615808</v>
+        <v>0.605515</v>
       </c>
       <c r="D112" t="n">
-        <v>0.635831</v>
+        <v>0.634117</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.818384</v>
+        <v>0.898125</v>
       </c>
       <c r="C113" t="n">
-        <v>0.611638</v>
+        <v>0.621896</v>
       </c>
       <c r="D113" t="n">
-        <v>0.622126</v>
+        <v>0.637233</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.812484</v>
+        <v>0.785097</v>
       </c>
       <c r="C114" t="n">
-        <v>0.606307</v>
+        <v>0.635153</v>
       </c>
       <c r="D114" t="n">
-        <v>0.616258</v>
+        <v>0.64439</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.789682</v>
+        <v>0.791104</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6133</v>
+        <v>0.612618</v>
       </c>
       <c r="D115" t="n">
-        <v>0.630485</v>
+        <v>0.628579</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8083050000000001</v>
+        <v>0.8924840000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.624435</v>
+        <v>0.60572</v>
       </c>
       <c r="D116" t="n">
-        <v>0.629377</v>
+        <v>0.659034</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.821705</v>
+        <v>0.812289</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6353799999999999</v>
+        <v>0.603711</v>
       </c>
       <c r="D117" t="n">
-        <v>0.636718</v>
+        <v>0.641169</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8048419999999999</v>
+        <v>0.802967</v>
       </c>
       <c r="C118" t="n">
-        <v>0.617197</v>
+        <v>0.616565</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6315770000000001</v>
+        <v>0.655246</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.816375</v>
+        <v>0.807712</v>
       </c>
       <c r="C119" t="n">
-        <v>0.648596</v>
+        <v>0.6245849999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.637547</v>
+        <v>0.6530589999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.818404</v>
+        <v>0.8029500000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.622567</v>
+        <v>0.639728</v>
       </c>
       <c r="D120" t="n">
-        <v>0.651226</v>
+        <v>0.654458</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8150500000000001</v>
+        <v>0.779437</v>
       </c>
       <c r="C121" t="n">
-        <v>0.634782</v>
+        <v>0.63296</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6507579999999999</v>
+        <v>0.662396</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.813687</v>
+        <v>0.807665</v>
       </c>
       <c r="C122" t="n">
-        <v>0.631204</v>
+        <v>0.626264</v>
       </c>
       <c r="D122" t="n">
-        <v>0.668285</v>
+        <v>0.679415</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.816864</v>
+        <v>0.817377</v>
       </c>
       <c r="C123" t="n">
-        <v>0.645191</v>
+        <v>0.644435</v>
       </c>
       <c r="D123" t="n">
-        <v>0.746568</v>
+        <v>0.743347</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.05229</v>
+        <v>1.03944</v>
       </c>
       <c r="C124" t="n">
-        <v>0.734768</v>
+        <v>0.739646</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7505309999999999</v>
+        <v>0.72886</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.02174</v>
+        <v>1.02739</v>
       </c>
       <c r="C125" t="n">
-        <v>0.75374</v>
+        <v>0.716465</v>
       </c>
       <c r="D125" t="n">
-        <v>0.746874</v>
+        <v>0.746386</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.04764</v>
+        <v>1.02492</v>
       </c>
       <c r="C126" t="n">
-        <v>0.854797</v>
+        <v>0.728766</v>
       </c>
       <c r="D126" t="n">
-        <v>0.727128</v>
+        <v>0.730789</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.02226</v>
+        <v>1.03466</v>
       </c>
       <c r="C127" t="n">
-        <v>0.739975</v>
+        <v>0.765718</v>
       </c>
       <c r="D127" t="n">
-        <v>0.741201</v>
+        <v>0.748623</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.02933</v>
+        <v>1.032</v>
       </c>
       <c r="C128" t="n">
-        <v>0.746499</v>
+        <v>0.746487</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7548280000000001</v>
+        <v>0.750089</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.04539</v>
+        <v>1.03225</v>
       </c>
       <c r="C129" t="n">
-        <v>0.758223</v>
+        <v>0.736856</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7694029999999999</v>
+        <v>0.734044</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03811</v>
+        <v>1.02616</v>
       </c>
       <c r="C130" t="n">
-        <v>0.761408</v>
+        <v>0.758817</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7520790000000001</v>
+        <v>0.761578</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.02937</v>
+        <v>1.04936</v>
       </c>
       <c r="C131" t="n">
-        <v>0.85612</v>
+        <v>0.754371</v>
       </c>
       <c r="D131" t="n">
-        <v>0.75768</v>
+        <v>0.771644</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04264</v>
+        <v>1.03063</v>
       </c>
       <c r="C132" t="n">
-        <v>0.75635</v>
+        <v>0.758395</v>
       </c>
       <c r="D132" t="n">
-        <v>0.763384</v>
+        <v>0.761197</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03625</v>
+        <v>1.03034</v>
       </c>
       <c r="C133" t="n">
-        <v>0.741702</v>
+        <v>0.7448709999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.762081</v>
+        <v>0.769976</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04386</v>
+        <v>1.06809</v>
       </c>
       <c r="C134" t="n">
-        <v>0.748094</v>
+        <v>0.758019</v>
       </c>
       <c r="D134" t="n">
-        <v>0.824339</v>
+        <v>0.783662</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.17553</v>
+        <v>1.04042</v>
       </c>
       <c r="C135" t="n">
-        <v>0.777244</v>
+        <v>0.875051</v>
       </c>
       <c r="D135" t="n">
-        <v>0.798579</v>
+        <v>0.773412</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.0483</v>
+        <v>1.03346</v>
       </c>
       <c r="C136" t="n">
-        <v>0.759693</v>
+        <v>0.771602</v>
       </c>
       <c r="D136" t="n">
-        <v>0.801854</v>
+        <v>0.793642</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05745</v>
+        <v>1.06418</v>
       </c>
       <c r="C137" t="n">
-        <v>0.780549</v>
+        <v>0.78387</v>
       </c>
       <c r="D137" t="n">
-        <v>0.935512</v>
+        <v>0.9364130000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.29725</v>
+        <v>1.33062</v>
       </c>
       <c r="C138" t="n">
-        <v>0.916228</v>
+        <v>0.922556</v>
       </c>
       <c r="D138" t="n">
-        <v>0.945154</v>
+        <v>0.937557</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32483</v>
+        <v>1.31535</v>
       </c>
       <c r="C139" t="n">
-        <v>0.933847</v>
+        <v>0.923382</v>
       </c>
       <c r="D139" t="n">
-        <v>0.949093</v>
+        <v>0.932299</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.32006</v>
+        <v>1.29664</v>
       </c>
       <c r="C140" t="n">
-        <v>0.934056</v>
+        <v>0.945325</v>
       </c>
       <c r="D140" t="n">
-        <v>0.946447</v>
+        <v>0.941616</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.32247</v>
+        <v>1.30439</v>
       </c>
       <c r="C141" t="n">
-        <v>0.937439</v>
+        <v>0.925579</v>
       </c>
       <c r="D141" t="n">
-        <v>0.929299</v>
+        <v>0.924719</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.30452</v>
+        <v>1.3099</v>
       </c>
       <c r="C142" t="n">
-        <v>0.952087</v>
+        <v>0.937893</v>
       </c>
       <c r="D142" t="n">
-        <v>0.94687</v>
+        <v>0.933674</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32181</v>
+        <v>1.32061</v>
       </c>
       <c r="C143" t="n">
-        <v>0.932416</v>
+        <v>0.927644</v>
       </c>
       <c r="D143" t="n">
-        <v>0.951802</v>
+        <v>0.94585</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115974</v>
+        <v>0.124508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09690020000000001</v>
+        <v>0.0996503</v>
       </c>
       <c r="D2" t="n">
-        <v>0.107602</v>
+        <v>0.111674</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.113738</v>
+        <v>0.123116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0973417</v>
+        <v>0.100869</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109598</v>
+        <v>0.114362</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116918</v>
+        <v>0.120385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0971723</v>
+        <v>0.0986653</v>
       </c>
       <c r="D4" t="n">
-        <v>0.108188</v>
+        <v>0.109451</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113459</v>
+        <v>0.123367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.101421</v>
+        <v>0.102195</v>
       </c>
       <c r="D5" t="n">
-        <v>0.109515</v>
+        <v>0.116338</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.120307</v>
+        <v>0.127536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.102006</v>
+        <v>0.10516</v>
       </c>
       <c r="D6" t="n">
-        <v>0.111676</v>
+        <v>0.11756</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.117625</v>
+        <v>0.124264</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0995394</v>
+        <v>0.104445</v>
       </c>
       <c r="D7" t="n">
-        <v>0.111556</v>
+        <v>0.112341</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118519</v>
+        <v>0.120071</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1045</v>
+        <v>0.102979</v>
       </c>
       <c r="D8" t="n">
-        <v>0.116602</v>
+        <v>0.119435</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12412</v>
+        <v>0.124289</v>
       </c>
       <c r="C9" t="n">
-        <v>0.107543</v>
+        <v>0.109835</v>
       </c>
       <c r="D9" t="n">
-        <v>0.114858</v>
+        <v>0.113311</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.130305</v>
+        <v>0.13037</v>
       </c>
       <c r="C10" t="n">
-        <v>0.101935</v>
+        <v>0.104338</v>
       </c>
       <c r="D10" t="n">
-        <v>0.111892</v>
+        <v>0.112629</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.127488</v>
+        <v>0.131331</v>
       </c>
       <c r="C11" t="n">
-        <v>0.101883</v>
+        <v>0.10118</v>
       </c>
       <c r="D11" t="n">
-        <v>0.10868</v>
+        <v>0.110847</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128686</v>
+        <v>0.127636</v>
       </c>
       <c r="C12" t="n">
-        <v>0.103582</v>
+        <v>0.102442</v>
       </c>
       <c r="D12" t="n">
-        <v>0.114456</v>
+        <v>0.113851</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.132079</v>
+        <v>0.125519</v>
       </c>
       <c r="C13" t="n">
-        <v>0.102827</v>
+        <v>0.102874</v>
       </c>
       <c r="D13" t="n">
-        <v>0.112929</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127409</v>
+        <v>0.128883</v>
       </c>
       <c r="C14" t="n">
-        <v>0.103967</v>
+        <v>0.105499</v>
       </c>
       <c r="D14" t="n">
-        <v>0.110178</v>
+        <v>0.112943</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.130326</v>
+        <v>0.132425</v>
       </c>
       <c r="C15" t="n">
-        <v>0.102818</v>
+        <v>0.105918</v>
       </c>
       <c r="D15" t="n">
-        <v>0.110089</v>
+        <v>0.115188</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.12745</v>
+        <v>0.128617</v>
       </c>
       <c r="C16" t="n">
-        <v>0.105546</v>
+        <v>0.105366</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114284</v>
+        <v>0.116011</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.126896</v>
+        <v>0.133398</v>
       </c>
       <c r="C17" t="n">
-        <v>0.102143</v>
+        <v>0.103536</v>
       </c>
       <c r="D17" t="n">
-        <v>0.11414</v>
+        <v>0.111973</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.127711</v>
+        <v>0.135691</v>
       </c>
       <c r="C18" t="n">
-        <v>0.103523</v>
+        <v>0.106785</v>
       </c>
       <c r="D18" t="n">
-        <v>0.112094</v>
+        <v>0.11114</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.129069</v>
+        <v>0.131841</v>
       </c>
       <c r="C19" t="n">
-        <v>0.107127</v>
+        <v>0.107104</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114229</v>
+        <v>0.116449</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.129622</v>
+        <v>0.132527</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104732</v>
+        <v>0.107755</v>
       </c>
       <c r="D20" t="n">
-        <v>0.115456</v>
+        <v>0.117188</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130646</v>
+        <v>0.132164</v>
       </c>
       <c r="C21" t="n">
-        <v>0.106534</v>
+        <v>0.106531</v>
       </c>
       <c r="D21" t="n">
-        <v>0.119809</v>
+        <v>0.119881</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.133141</v>
+        <v>0.132229</v>
       </c>
       <c r="C22" t="n">
-        <v>0.110987</v>
+        <v>0.113548</v>
       </c>
       <c r="D22" t="n">
-        <v>0.126431</v>
+        <v>0.127539</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.131641</v>
+        <v>0.138584</v>
       </c>
       <c r="C23" t="n">
-        <v>0.119411</v>
+        <v>0.118411</v>
       </c>
       <c r="D23" t="n">
-        <v>0.118856</v>
+        <v>0.114358</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.143075</v>
+        <v>0.137745</v>
       </c>
       <c r="C24" t="n">
-        <v>0.105259</v>
+        <v>0.107533</v>
       </c>
       <c r="D24" t="n">
-        <v>0.118922</v>
+        <v>0.115186</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134507</v>
+        <v>0.137113</v>
       </c>
       <c r="C25" t="n">
-        <v>0.106504</v>
+        <v>0.106798</v>
       </c>
       <c r="D25" t="n">
-        <v>0.114027</v>
+        <v>0.117877</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.140483</v>
+        <v>0.138883</v>
       </c>
       <c r="C26" t="n">
-        <v>0.106999</v>
+        <v>0.107326</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125681</v>
+        <v>0.117496</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.139675</v>
+        <v>0.139788</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108492</v>
+        <v>0.11224</v>
       </c>
       <c r="D27" t="n">
-        <v>0.116151</v>
+        <v>0.115835</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.139658</v>
+        <v>0.137613</v>
       </c>
       <c r="C28" t="n">
-        <v>0.106336</v>
+        <v>0.109029</v>
       </c>
       <c r="D28" t="n">
-        <v>0.123282</v>
+        <v>0.117163</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136776</v>
+        <v>0.136656</v>
       </c>
       <c r="C29" t="n">
-        <v>0.113171</v>
+        <v>0.108713</v>
       </c>
       <c r="D29" t="n">
-        <v>0.118128</v>
+        <v>0.120354</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.141465</v>
+        <v>0.14088</v>
       </c>
       <c r="C30" t="n">
-        <v>0.10951</v>
+        <v>0.107701</v>
       </c>
       <c r="D30" t="n">
-        <v>0.11786</v>
+        <v>0.120949</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.140117</v>
+        <v>0.14202</v>
       </c>
       <c r="C31" t="n">
-        <v>0.112598</v>
+        <v>0.112192</v>
       </c>
       <c r="D31" t="n">
-        <v>0.11763</v>
+        <v>0.11964</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.146176</v>
+        <v>0.13884</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112302</v>
+        <v>0.110797</v>
       </c>
       <c r="D32" t="n">
-        <v>0.118431</v>
+        <v>0.120215</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.142844</v>
+        <v>0.137111</v>
       </c>
       <c r="C33" t="n">
-        <v>0.11145</v>
+        <v>0.113989</v>
       </c>
       <c r="D33" t="n">
-        <v>0.122762</v>
+        <v>0.123358</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.143239</v>
+        <v>0.144397</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11588</v>
+        <v>0.116292</v>
       </c>
       <c r="D34" t="n">
-        <v>0.126292</v>
+        <v>0.126406</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142175</v>
+        <v>0.143046</v>
       </c>
       <c r="C35" t="n">
-        <v>0.116846</v>
+        <v>0.11513</v>
       </c>
       <c r="D35" t="n">
-        <v>0.127552</v>
+        <v>0.130742</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.144981</v>
+        <v>0.14464</v>
       </c>
       <c r="C36" t="n">
-        <v>0.120832</v>
+        <v>0.119257</v>
       </c>
       <c r="D36" t="n">
-        <v>0.133616</v>
+        <v>0.132183</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.151548</v>
+        <v>0.14491</v>
       </c>
       <c r="C37" t="n">
-        <v>0.119952</v>
+        <v>0.120284</v>
       </c>
       <c r="D37" t="n">
-        <v>0.133138</v>
+        <v>0.131982</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.170121</v>
+        <v>0.161723</v>
       </c>
       <c r="C38" t="n">
-        <v>0.119446</v>
+        <v>0.122249</v>
       </c>
       <c r="D38" t="n">
-        <v>0.138551</v>
+        <v>0.134792</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.164525</v>
+        <v>0.165008</v>
       </c>
       <c r="C39" t="n">
-        <v>0.121968</v>
+        <v>0.120257</v>
       </c>
       <c r="D39" t="n">
-        <v>0.134385</v>
+        <v>0.133212</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.163356</v>
+        <v>0.170033</v>
       </c>
       <c r="C40" t="n">
-        <v>0.119623</v>
+        <v>0.12206</v>
       </c>
       <c r="D40" t="n">
-        <v>0.133355</v>
+        <v>0.134114</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.166053</v>
+        <v>0.165126</v>
       </c>
       <c r="C41" t="n">
-        <v>0.121637</v>
+        <v>0.123652</v>
       </c>
       <c r="D41" t="n">
-        <v>0.139018</v>
+        <v>0.137793</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.163316</v>
+        <v>0.165474</v>
       </c>
       <c r="C42" t="n">
-        <v>0.124918</v>
+        <v>0.124608</v>
       </c>
       <c r="D42" t="n">
-        <v>0.137731</v>
+        <v>0.135435</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.166156</v>
+        <v>0.164068</v>
       </c>
       <c r="C43" t="n">
-        <v>0.122374</v>
+        <v>0.125127</v>
       </c>
       <c r="D43" t="n">
-        <v>0.138112</v>
+        <v>0.141409</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.172111</v>
+        <v>0.167601</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125567</v>
+        <v>0.123271</v>
       </c>
       <c r="D44" t="n">
-        <v>0.13959</v>
+        <v>0.139392</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.166685</v>
+        <v>0.164858</v>
       </c>
       <c r="C45" t="n">
-        <v>0.12561</v>
+        <v>0.127687</v>
       </c>
       <c r="D45" t="n">
-        <v>0.136912</v>
+        <v>0.140557</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.166908</v>
+        <v>0.16847</v>
       </c>
       <c r="C46" t="n">
-        <v>0.130239</v>
+        <v>0.127614</v>
       </c>
       <c r="D46" t="n">
-        <v>0.140668</v>
+        <v>0.143959</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16745</v>
+        <v>0.164261</v>
       </c>
       <c r="C47" t="n">
-        <v>0.125001</v>
+        <v>0.130819</v>
       </c>
       <c r="D47" t="n">
-        <v>0.139836</v>
+        <v>0.141088</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167732</v>
+        <v>0.167197</v>
       </c>
       <c r="C48" t="n">
-        <v>0.134905</v>
+        <v>0.129283</v>
       </c>
       <c r="D48" t="n">
-        <v>0.144348</v>
+        <v>0.147524</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165559</v>
+        <v>0.17038</v>
       </c>
       <c r="C49" t="n">
-        <v>0.131122</v>
+        <v>0.131128</v>
       </c>
       <c r="D49" t="n">
-        <v>0.143408</v>
+        <v>0.146279</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.16845</v>
+        <v>0.169585</v>
       </c>
       <c r="C50" t="n">
-        <v>0.132045</v>
+        <v>0.133087</v>
       </c>
       <c r="D50" t="n">
-        <v>0.150373</v>
+        <v>0.14923</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177703</v>
+        <v>0.173016</v>
       </c>
       <c r="C51" t="n">
-        <v>0.13888</v>
+        <v>0.136582</v>
       </c>
       <c r="D51" t="n">
-        <v>0.206448</v>
+        <v>0.203799</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.18278</v>
+        <v>0.176808</v>
       </c>
       <c r="C52" t="n">
-        <v>0.145619</v>
+        <v>0.143057</v>
       </c>
       <c r="D52" t="n">
-        <v>0.19891</v>
+        <v>0.209995</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.253163</v>
+        <v>0.260965</v>
       </c>
       <c r="C53" t="n">
-        <v>0.195517</v>
+        <v>0.200429</v>
       </c>
       <c r="D53" t="n">
-        <v>0.203332</v>
+        <v>0.20396</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.25419</v>
+        <v>0.266607</v>
       </c>
       <c r="C54" t="n">
-        <v>0.194641</v>
+        <v>0.201654</v>
       </c>
       <c r="D54" t="n">
-        <v>0.205957</v>
+        <v>0.203393</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.255047</v>
+        <v>0.260718</v>
       </c>
       <c r="C55" t="n">
-        <v>0.197348</v>
+        <v>0.195369</v>
       </c>
       <c r="D55" t="n">
-        <v>0.206021</v>
+        <v>0.203663</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.262708</v>
+        <v>0.26507</v>
       </c>
       <c r="C56" t="n">
-        <v>0.20091</v>
+        <v>0.20371</v>
       </c>
       <c r="D56" t="n">
-        <v>0.203919</v>
+        <v>0.207675</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.258691</v>
+        <v>0.265326</v>
       </c>
       <c r="C57" t="n">
-        <v>0.204481</v>
+        <v>0.194663</v>
       </c>
       <c r="D57" t="n">
-        <v>0.208356</v>
+        <v>0.209692</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.249973</v>
+        <v>0.257286</v>
       </c>
       <c r="C58" t="n">
-        <v>0.200032</v>
+        <v>0.20077</v>
       </c>
       <c r="D58" t="n">
-        <v>0.209053</v>
+        <v>0.213066</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.25671</v>
+        <v>0.266314</v>
       </c>
       <c r="C59" t="n">
-        <v>0.201557</v>
+        <v>0.203099</v>
       </c>
       <c r="D59" t="n">
-        <v>0.206236</v>
+        <v>0.208752</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.257813</v>
+        <v>0.264015</v>
       </c>
       <c r="C60" t="n">
-        <v>0.200874</v>
+        <v>0.2087</v>
       </c>
       <c r="D60" t="n">
-        <v>0.207924</v>
+        <v>0.211459</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.255461</v>
+        <v>0.256136</v>
       </c>
       <c r="C61" t="n">
-        <v>0.201799</v>
+        <v>0.195636</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209365</v>
+        <v>0.213276</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.258917</v>
+        <v>0.247918</v>
       </c>
       <c r="C62" t="n">
-        <v>0.208813</v>
+        <v>0.198319</v>
       </c>
       <c r="D62" t="n">
-        <v>0.209381</v>
+        <v>0.206291</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.257934</v>
+        <v>0.266098</v>
       </c>
       <c r="C63" t="n">
-        <v>0.203851</v>
+        <v>0.199479</v>
       </c>
       <c r="D63" t="n">
-        <v>0.218593</v>
+        <v>0.206891</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.255661</v>
+        <v>0.251492</v>
       </c>
       <c r="C64" t="n">
-        <v>0.211206</v>
+        <v>0.201728</v>
       </c>
       <c r="D64" t="n">
-        <v>0.215373</v>
+        <v>0.213637</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266121</v>
+        <v>0.258197</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216812</v>
+        <v>0.206485</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224689</v>
+        <v>0.221855</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.271068</v>
+        <v>0.251927</v>
       </c>
       <c r="C66" t="n">
-        <v>0.218017</v>
+        <v>0.21022</v>
       </c>
       <c r="D66" t="n">
-        <v>0.291302</v>
+        <v>0.281072</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.410405</v>
+        <v>0.407059</v>
       </c>
       <c r="C67" t="n">
-        <v>0.310673</v>
+        <v>0.318136</v>
       </c>
       <c r="D67" t="n">
-        <v>0.294081</v>
+        <v>0.298216</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.397074</v>
+        <v>0.388976</v>
       </c>
       <c r="C68" t="n">
-        <v>0.314842</v>
+        <v>0.327881</v>
       </c>
       <c r="D68" t="n">
-        <v>0.294974</v>
+        <v>0.309941</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.415574</v>
+        <v>0.411217</v>
       </c>
       <c r="C69" t="n">
-        <v>0.311951</v>
+        <v>0.31808</v>
       </c>
       <c r="D69" t="n">
-        <v>0.294063</v>
+        <v>0.296397</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.383537</v>
+        <v>0.411193</v>
       </c>
       <c r="C70" t="n">
-        <v>0.320506</v>
+        <v>0.318688</v>
       </c>
       <c r="D70" t="n">
-        <v>0.294423</v>
+        <v>0.305783</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.400704</v>
+        <v>0.422769</v>
       </c>
       <c r="C71" t="n">
-        <v>0.309065</v>
+        <v>0.308731</v>
       </c>
       <c r="D71" t="n">
-        <v>0.30225</v>
+        <v>0.298325</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.417353</v>
+        <v>0.400043</v>
       </c>
       <c r="C72" t="n">
-        <v>0.315639</v>
+        <v>0.322599</v>
       </c>
       <c r="D72" t="n">
-        <v>0.298404</v>
+        <v>0.313388</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.408421</v>
+        <v>0.417992</v>
       </c>
       <c r="C73" t="n">
-        <v>0.316425</v>
+        <v>0.317113</v>
       </c>
       <c r="D73" t="n">
-        <v>0.300743</v>
+        <v>0.296984</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.410728</v>
+        <v>0.411318</v>
       </c>
       <c r="C74" t="n">
-        <v>0.31654</v>
+        <v>0.316706</v>
       </c>
       <c r="D74" t="n">
-        <v>0.300282</v>
+        <v>0.305429</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.424091</v>
+        <v>0.418379</v>
       </c>
       <c r="C75" t="n">
-        <v>0.315398</v>
+        <v>0.314985</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307747</v>
+        <v>0.301918</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.40362</v>
+        <v>0.400766</v>
       </c>
       <c r="C76" t="n">
-        <v>0.313348</v>
+        <v>0.322661</v>
       </c>
       <c r="D76" t="n">
-        <v>0.294345</v>
+        <v>0.3044</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.405375</v>
+        <v>0.408154</v>
       </c>
       <c r="C77" t="n">
-        <v>0.322961</v>
+        <v>0.31734</v>
       </c>
       <c r="D77" t="n">
-        <v>0.314078</v>
+        <v>0.308575</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.413041</v>
+        <v>0.424488</v>
       </c>
       <c r="C78" t="n">
-        <v>0.322261</v>
+        <v>0.330404</v>
       </c>
       <c r="D78" t="n">
-        <v>0.306045</v>
+        <v>0.316671</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.409186</v>
+        <v>0.408504</v>
       </c>
       <c r="C79" t="n">
-        <v>0.321976</v>
+        <v>0.325035</v>
       </c>
       <c r="D79" t="n">
-        <v>0.316744</v>
+        <v>0.325358</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.415106</v>
+        <v>0.412982</v>
       </c>
       <c r="C80" t="n">
-        <v>0.329365</v>
+        <v>0.337427</v>
       </c>
       <c r="D80" t="n">
-        <v>0.428838</v>
+        <v>0.424734</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.537139</v>
+        <v>0.555756</v>
       </c>
       <c r="C81" t="n">
-        <v>0.422903</v>
+        <v>0.423441</v>
       </c>
       <c r="D81" t="n">
-        <v>0.439483</v>
+        <v>0.430113</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.565757</v>
+        <v>0.547044</v>
       </c>
       <c r="C82" t="n">
-        <v>0.428754</v>
+        <v>0.439428</v>
       </c>
       <c r="D82" t="n">
-        <v>0.431365</v>
+        <v>0.429081</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.566323</v>
+        <v>0.553186</v>
       </c>
       <c r="C83" t="n">
-        <v>0.424422</v>
+        <v>0.426685</v>
       </c>
       <c r="D83" t="n">
-        <v>0.429352</v>
+        <v>0.430935</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.538219</v>
+        <v>0.551451</v>
       </c>
       <c r="C84" t="n">
-        <v>0.426817</v>
+        <v>0.424208</v>
       </c>
       <c r="D84" t="n">
-        <v>0.429007</v>
+        <v>0.43106</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.555706</v>
+        <v>0.553806</v>
       </c>
       <c r="C85" t="n">
-        <v>0.431148</v>
+        <v>0.420935</v>
       </c>
       <c r="D85" t="n">
-        <v>0.43152</v>
+        <v>0.42924</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.557578</v>
+        <v>0.544977</v>
       </c>
       <c r="C86" t="n">
-        <v>0.420704</v>
+        <v>0.424214</v>
       </c>
       <c r="D86" t="n">
-        <v>0.431464</v>
+        <v>0.4508</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.554379</v>
+        <v>0.562311</v>
       </c>
       <c r="C87" t="n">
-        <v>0.432475</v>
+        <v>0.438063</v>
       </c>
       <c r="D87" t="n">
-        <v>0.445067</v>
+        <v>0.437201</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.550408</v>
+        <v>0.5469000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.434723</v>
+        <v>0.428214</v>
       </c>
       <c r="D88" t="n">
-        <v>0.441478</v>
+        <v>0.439195</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.557576</v>
+        <v>0.556975</v>
       </c>
       <c r="C89" t="n">
-        <v>0.438493</v>
+        <v>0.428789</v>
       </c>
       <c r="D89" t="n">
-        <v>0.435751</v>
+        <v>0.438474</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.542316</v>
+        <v>0.563017</v>
       </c>
       <c r="C90" t="n">
-        <v>0.439934</v>
+        <v>0.44639</v>
       </c>
       <c r="D90" t="n">
-        <v>0.458924</v>
+        <v>0.441186</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.569583</v>
+        <v>0.566438</v>
       </c>
       <c r="C91" t="n">
-        <v>0.458621</v>
+        <v>0.441229</v>
       </c>
       <c r="D91" t="n">
-        <v>0.449623</v>
+        <v>0.441968</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.556038</v>
+        <v>0.564931</v>
       </c>
       <c r="C92" t="n">
-        <v>0.443665</v>
+        <v>0.436352</v>
       </c>
       <c r="D92" t="n">
-        <v>0.451354</v>
+        <v>0.460102</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.561277</v>
+        <v>0.560489</v>
       </c>
       <c r="C93" t="n">
-        <v>0.44586</v>
+        <v>0.431003</v>
       </c>
       <c r="D93" t="n">
-        <v>0.457779</v>
+        <v>0.447976</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.569227</v>
+        <v>0.562223</v>
       </c>
       <c r="C94" t="n">
-        <v>0.450001</v>
+        <v>0.464398</v>
       </c>
       <c r="D94" t="n">
-        <v>0.514074</v>
+        <v>0.5215340000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.638263</v>
+        <v>0.6484799999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.504513</v>
+        <v>0.5102989999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.528209</v>
+        <v>0.514159</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6473719999999999</v>
+        <v>0.677982</v>
       </c>
       <c r="C96" t="n">
-        <v>0.503744</v>
+        <v>0.514629</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5242329999999999</v>
+        <v>0.530174</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.649934</v>
+        <v>0.654458</v>
       </c>
       <c r="C97" t="n">
-        <v>0.522286</v>
+        <v>0.513174</v>
       </c>
       <c r="D97" t="n">
-        <v>0.515454</v>
+        <v>0.534425</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.639436</v>
+        <v>0.648262</v>
       </c>
       <c r="C98" t="n">
-        <v>0.497488</v>
+        <v>0.509781</v>
       </c>
       <c r="D98" t="n">
-        <v>0.532807</v>
+        <v>0.534656</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.641104</v>
+        <v>0.641371</v>
       </c>
       <c r="C99" t="n">
-        <v>0.509575</v>
+        <v>0.497918</v>
       </c>
       <c r="D99" t="n">
-        <v>0.517117</v>
+        <v>0.53241</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.651291</v>
+        <v>0.654362</v>
       </c>
       <c r="C100" t="n">
-        <v>0.531402</v>
+        <v>0.519942</v>
       </c>
       <c r="D100" t="n">
-        <v>0.523284</v>
+        <v>0.56185</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.644401</v>
+        <v>0.650581</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5338039999999999</v>
+        <v>0.508441</v>
       </c>
       <c r="D101" t="n">
-        <v>0.55305</v>
+        <v>0.530251</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.637722</v>
+        <v>0.65189</v>
       </c>
       <c r="C102" t="n">
-        <v>0.503315</v>
+        <v>0.504186</v>
       </c>
       <c r="D102" t="n">
-        <v>0.553507</v>
+        <v>0.5306920000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6424879999999999</v>
+        <v>0.656285</v>
       </c>
       <c r="C103" t="n">
-        <v>0.524921</v>
+        <v>0.513796</v>
       </c>
       <c r="D103" t="n">
-        <v>0.531175</v>
+        <v>0.527675</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6453449999999999</v>
+        <v>0.6544410000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.524443</v>
+        <v>0.516124</v>
       </c>
       <c r="D104" t="n">
-        <v>0.526999</v>
+        <v>0.535362</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.656807</v>
+        <v>0.655471</v>
       </c>
       <c r="C105" t="n">
-        <v>0.521571</v>
+        <v>0.517849</v>
       </c>
       <c r="D105" t="n">
-        <v>0.535456</v>
+        <v>0.550989</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6457850000000001</v>
+        <v>0.64005</v>
       </c>
       <c r="C106" t="n">
-        <v>0.544115</v>
+        <v>0.525276</v>
       </c>
       <c r="D106" t="n">
-        <v>0.562372</v>
+        <v>0.5538149999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.634886</v>
+        <v>0.64471</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5373329999999999</v>
+        <v>0.535635</v>
       </c>
       <c r="D107" t="n">
-        <v>0.546053</v>
+        <v>0.54772</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.691655</v>
+        <v>0.668529</v>
       </c>
       <c r="C108" t="n">
-        <v>0.558539</v>
+        <v>0.532802</v>
       </c>
       <c r="D108" t="n">
-        <v>0.64996</v>
+        <v>0.663649</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.694993</v>
+        <v>0.67301</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5413210000000001</v>
+        <v>0.553007</v>
       </c>
       <c r="D109" t="n">
-        <v>0.625997</v>
+        <v>0.624583</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.790229</v>
+        <v>0.807223</v>
       </c>
       <c r="C110" t="n">
-        <v>0.607037</v>
+        <v>0.588977</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6293029999999999</v>
+        <v>0.622325</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.792507</v>
+        <v>0.809168</v>
       </c>
       <c r="C111" t="n">
-        <v>0.657676</v>
+        <v>0.605896</v>
       </c>
       <c r="D111" t="n">
-        <v>0.665546</v>
+        <v>0.677328</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.799872</v>
+        <v>0.798768</v>
       </c>
       <c r="C112" t="n">
-        <v>0.605515</v>
+        <v>0.615486</v>
       </c>
       <c r="D112" t="n">
-        <v>0.634117</v>
+        <v>0.624291</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.898125</v>
+        <v>0.798441</v>
       </c>
       <c r="C113" t="n">
-        <v>0.621896</v>
+        <v>0.612538</v>
       </c>
       <c r="D113" t="n">
-        <v>0.637233</v>
+        <v>0.634248</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.785097</v>
+        <v>0.785342</v>
       </c>
       <c r="C114" t="n">
-        <v>0.635153</v>
+        <v>0.602975</v>
       </c>
       <c r="D114" t="n">
-        <v>0.64439</v>
+        <v>0.615151</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.791104</v>
+        <v>0.8118649999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.612618</v>
+        <v>0.614484</v>
       </c>
       <c r="D115" t="n">
-        <v>0.628579</v>
+        <v>0.68965</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8924840000000001</v>
+        <v>0.813289</v>
       </c>
       <c r="C116" t="n">
-        <v>0.60572</v>
+        <v>0.667475</v>
       </c>
       <c r="D116" t="n">
-        <v>0.659034</v>
+        <v>0.630036</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.812289</v>
+        <v>0.7993400000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.603711</v>
+        <v>0.676098</v>
       </c>
       <c r="D117" t="n">
-        <v>0.641169</v>
+        <v>0.663639</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.802967</v>
+        <v>0.827468</v>
       </c>
       <c r="C118" t="n">
-        <v>0.616565</v>
+        <v>0.6448159999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.655246</v>
+        <v>0.649394</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.807712</v>
+        <v>0.798605</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6245849999999999</v>
+        <v>0.64257</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6530589999999999</v>
+        <v>0.649543</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8029500000000001</v>
+        <v>0.8055600000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.639728</v>
+        <v>0.634666</v>
       </c>
       <c r="D120" t="n">
-        <v>0.654458</v>
+        <v>0.6402139999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.779437</v>
+        <v>0.811342</v>
       </c>
       <c r="C121" t="n">
-        <v>0.63296</v>
+        <v>0.630255</v>
       </c>
       <c r="D121" t="n">
-        <v>0.662396</v>
+        <v>0.655227</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.807665</v>
+        <v>0.816217</v>
       </c>
       <c r="C122" t="n">
-        <v>0.626264</v>
+        <v>0.631511</v>
       </c>
       <c r="D122" t="n">
-        <v>0.679415</v>
+        <v>0.686098</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.817377</v>
+        <v>0.8249339999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.644435</v>
+        <v>0.646993</v>
       </c>
       <c r="D123" t="n">
-        <v>0.743347</v>
+        <v>0.744046</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.03944</v>
+        <v>1.04766</v>
       </c>
       <c r="C124" t="n">
-        <v>0.739646</v>
+        <v>0.743557</v>
       </c>
       <c r="D124" t="n">
-        <v>0.72886</v>
+        <v>0.779455</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.02739</v>
+        <v>1.05236</v>
       </c>
       <c r="C125" t="n">
-        <v>0.716465</v>
+        <v>0.75297</v>
       </c>
       <c r="D125" t="n">
-        <v>0.746386</v>
+        <v>0.737222</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.02492</v>
+        <v>1.04512</v>
       </c>
       <c r="C126" t="n">
-        <v>0.728766</v>
+        <v>0.74932</v>
       </c>
       <c r="D126" t="n">
-        <v>0.730789</v>
+        <v>0.738285</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03466</v>
+        <v>1.03377</v>
       </c>
       <c r="C127" t="n">
-        <v>0.765718</v>
+        <v>0.755657</v>
       </c>
       <c r="D127" t="n">
-        <v>0.748623</v>
+        <v>0.75384</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.032</v>
+        <v>1.04203</v>
       </c>
       <c r="C128" t="n">
-        <v>0.746487</v>
+        <v>0.739943</v>
       </c>
       <c r="D128" t="n">
-        <v>0.750089</v>
+        <v>0.828978</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.03225</v>
+        <v>1.13428</v>
       </c>
       <c r="C129" t="n">
-        <v>0.736856</v>
+        <v>0.754481</v>
       </c>
       <c r="D129" t="n">
-        <v>0.734044</v>
+        <v>0.7468939999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.02616</v>
+        <v>1.05958</v>
       </c>
       <c r="C130" t="n">
-        <v>0.758817</v>
+        <v>0.740079</v>
       </c>
       <c r="D130" t="n">
-        <v>0.761578</v>
+        <v>0.747475</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.04936</v>
+        <v>1.04558</v>
       </c>
       <c r="C131" t="n">
-        <v>0.754371</v>
+        <v>0.766806</v>
       </c>
       <c r="D131" t="n">
-        <v>0.771644</v>
+        <v>0.743861</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.03063</v>
+        <v>1.03234</v>
       </c>
       <c r="C132" t="n">
-        <v>0.758395</v>
+        <v>0.7433070000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.761197</v>
+        <v>0.76764</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03034</v>
+        <v>1.04963</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7448709999999999</v>
+        <v>0.7489130000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.769976</v>
+        <v>0.7731479999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.06809</v>
+        <v>1.05976</v>
       </c>
       <c r="C134" t="n">
-        <v>0.758019</v>
+        <v>0.767506</v>
       </c>
       <c r="D134" t="n">
-        <v>0.783662</v>
+        <v>0.7668199999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04042</v>
+        <v>1.0588</v>
       </c>
       <c r="C135" t="n">
-        <v>0.875051</v>
+        <v>0.7735379999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.773412</v>
+        <v>0.782676</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.03346</v>
+        <v>1.03552</v>
       </c>
       <c r="C136" t="n">
-        <v>0.771602</v>
+        <v>0.781335</v>
       </c>
       <c r="D136" t="n">
-        <v>0.793642</v>
+        <v>0.795609</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06418</v>
+        <v>1.06196</v>
       </c>
       <c r="C137" t="n">
-        <v>0.78387</v>
+        <v>0.785829</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9364130000000001</v>
+        <v>0.946986</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33062</v>
+        <v>1.35501</v>
       </c>
       <c r="C138" t="n">
-        <v>0.922556</v>
+        <v>0.935536</v>
       </c>
       <c r="D138" t="n">
-        <v>0.937557</v>
+        <v>0.969144</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.31535</v>
+        <v>1.34997</v>
       </c>
       <c r="C139" t="n">
-        <v>0.923382</v>
+        <v>0.946815</v>
       </c>
       <c r="D139" t="n">
-        <v>0.932299</v>
+        <v>0.966071</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29664</v>
+        <v>1.36451</v>
       </c>
       <c r="C140" t="n">
-        <v>0.945325</v>
+        <v>1.01126</v>
       </c>
       <c r="D140" t="n">
-        <v>0.941616</v>
+        <v>0.968287</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.30439</v>
+        <v>1.3737</v>
       </c>
       <c r="C141" t="n">
-        <v>0.925579</v>
+        <v>0.944304</v>
       </c>
       <c r="D141" t="n">
-        <v>0.924719</v>
+        <v>0.95565</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.3099</v>
+        <v>1.36869</v>
       </c>
       <c r="C142" t="n">
-        <v>0.937893</v>
+        <v>0.931527</v>
       </c>
       <c r="D142" t="n">
-        <v>0.933674</v>
+        <v>1.05909</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32061</v>
+        <v>1.36232</v>
       </c>
       <c r="C143" t="n">
-        <v>0.927644</v>
+        <v>0.9345290000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.94585</v>
+        <v>0.953798</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.124508</v>
+        <v>0.127848</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0996503</v>
+        <v>0.29062</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111674</v>
+        <v>0.114278</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.123116</v>
+        <v>0.116755</v>
       </c>
       <c r="C3" t="n">
-        <v>0.100869</v>
+        <v>0.311011</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114362</v>
+        <v>0.121875</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120385</v>
+        <v>0.121524</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0986653</v>
+        <v>0.322406</v>
       </c>
       <c r="D4" t="n">
-        <v>0.109451</v>
+        <v>0.11511</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123367</v>
+        <v>0.12347</v>
       </c>
       <c r="C5" t="n">
-        <v>0.102195</v>
+        <v>0.32831</v>
       </c>
       <c r="D5" t="n">
-        <v>0.116338</v>
+        <v>0.122269</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.127536</v>
+        <v>0.123172</v>
       </c>
       <c r="C6" t="n">
-        <v>0.10516</v>
+        <v>0.340468</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11756</v>
+        <v>0.118532</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.124264</v>
+        <v>0.126742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.104445</v>
+        <v>0.347401</v>
       </c>
       <c r="D7" t="n">
-        <v>0.112341</v>
+        <v>0.117622</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120071</v>
+        <v>0.119267</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102979</v>
+        <v>0.24927</v>
       </c>
       <c r="D8" t="n">
-        <v>0.119435</v>
+        <v>0.124511</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124289</v>
+        <v>0.124303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.109835</v>
+        <v>0.257637</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113311</v>
+        <v>0.123225</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.13037</v>
+        <v>0.135277</v>
       </c>
       <c r="C10" t="n">
-        <v>0.104338</v>
+        <v>0.261754</v>
       </c>
       <c r="D10" t="n">
-        <v>0.112629</v>
+        <v>0.116346</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.131331</v>
+        <v>0.131578</v>
       </c>
       <c r="C11" t="n">
-        <v>0.10118</v>
+        <v>0.265859</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110847</v>
+        <v>0.116974</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127636</v>
+        <v>0.130064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.102442</v>
+        <v>0.261947</v>
       </c>
       <c r="D12" t="n">
-        <v>0.113851</v>
+        <v>0.11589</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125519</v>
+        <v>0.128606</v>
       </c>
       <c r="C13" t="n">
-        <v>0.102874</v>
+        <v>0.275645</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1152</v>
+        <v>0.116717</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128883</v>
+        <v>0.134554</v>
       </c>
       <c r="C14" t="n">
-        <v>0.105499</v>
+        <v>0.285076</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112943</v>
+        <v>0.117654</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.132425</v>
+        <v>0.130057</v>
       </c>
       <c r="C15" t="n">
-        <v>0.105918</v>
+        <v>0.300083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.115188</v>
+        <v>0.118826</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128617</v>
+        <v>0.132672</v>
       </c>
       <c r="C16" t="n">
-        <v>0.105366</v>
+        <v>0.304788</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116011</v>
+        <v>0.119781</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.133398</v>
+        <v>0.131773</v>
       </c>
       <c r="C17" t="n">
-        <v>0.103536</v>
+        <v>0.310895</v>
       </c>
       <c r="D17" t="n">
-        <v>0.111973</v>
+        <v>0.117249</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.135691</v>
+        <v>0.130613</v>
       </c>
       <c r="C18" t="n">
-        <v>0.106785</v>
+        <v>0.316125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.11114</v>
+        <v>0.123175</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131841</v>
+        <v>0.127631</v>
       </c>
       <c r="C19" t="n">
-        <v>0.107104</v>
+        <v>0.33135</v>
       </c>
       <c r="D19" t="n">
-        <v>0.116449</v>
+        <v>0.120844</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.132527</v>
+        <v>0.128721</v>
       </c>
       <c r="C20" t="n">
-        <v>0.107755</v>
+        <v>0.354005</v>
       </c>
       <c r="D20" t="n">
-        <v>0.117188</v>
+        <v>0.11873</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.132164</v>
+        <v>0.129148</v>
       </c>
       <c r="C21" t="n">
-        <v>0.106531</v>
+        <v>0.367157</v>
       </c>
       <c r="D21" t="n">
-        <v>0.119881</v>
+        <v>0.124637</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132229</v>
+        <v>0.136727</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113548</v>
+        <v>0.256986</v>
       </c>
       <c r="D22" t="n">
-        <v>0.127539</v>
+        <v>0.125653</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138584</v>
+        <v>0.134684</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118411</v>
+        <v>0.257339</v>
       </c>
       <c r="D23" t="n">
-        <v>0.114358</v>
+        <v>0.123528</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.137745</v>
+        <v>0.136815</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107533</v>
+        <v>0.265161</v>
       </c>
       <c r="D24" t="n">
-        <v>0.115186</v>
+        <v>0.121769</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.137113</v>
+        <v>0.143195</v>
       </c>
       <c r="C25" t="n">
-        <v>0.106798</v>
+        <v>0.272014</v>
       </c>
       <c r="D25" t="n">
-        <v>0.117877</v>
+        <v>0.121571</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.138883</v>
+        <v>0.136696</v>
       </c>
       <c r="C26" t="n">
-        <v>0.107326</v>
+        <v>0.278204</v>
       </c>
       <c r="D26" t="n">
-        <v>0.117496</v>
+        <v>0.121244</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.139788</v>
+        <v>0.141796</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11224</v>
+        <v>0.285679</v>
       </c>
       <c r="D27" t="n">
-        <v>0.115835</v>
+        <v>0.121808</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.137613</v>
+        <v>0.140915</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109029</v>
+        <v>0.292075</v>
       </c>
       <c r="D28" t="n">
-        <v>0.117163</v>
+        <v>0.122146</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136656</v>
+        <v>0.142582</v>
       </c>
       <c r="C29" t="n">
-        <v>0.108713</v>
+        <v>0.307107</v>
       </c>
       <c r="D29" t="n">
-        <v>0.120354</v>
+        <v>0.122408</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.14088</v>
+        <v>0.14113</v>
       </c>
       <c r="C30" t="n">
-        <v>0.107701</v>
+        <v>0.311508</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120949</v>
+        <v>0.121141</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.14202</v>
+        <v>0.139014</v>
       </c>
       <c r="C31" t="n">
-        <v>0.112192</v>
+        <v>0.333425</v>
       </c>
       <c r="D31" t="n">
-        <v>0.11964</v>
+        <v>0.130769</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.13884</v>
+        <v>0.138176</v>
       </c>
       <c r="C32" t="n">
-        <v>0.110797</v>
+        <v>0.332722</v>
       </c>
       <c r="D32" t="n">
-        <v>0.120215</v>
+        <v>0.126492</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137111</v>
+        <v>0.144572</v>
       </c>
       <c r="C33" t="n">
-        <v>0.113989</v>
+        <v>0.342302</v>
       </c>
       <c r="D33" t="n">
-        <v>0.123358</v>
+        <v>0.123626</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.144397</v>
+        <v>0.137425</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116292</v>
+        <v>0.349539</v>
       </c>
       <c r="D34" t="n">
-        <v>0.126406</v>
+        <v>0.129138</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143046</v>
+        <v>0.144151</v>
       </c>
       <c r="C35" t="n">
-        <v>0.11513</v>
+        <v>0.367909</v>
       </c>
       <c r="D35" t="n">
-        <v>0.130742</v>
+        <v>0.135922</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.14464</v>
+        <v>0.142382</v>
       </c>
       <c r="C36" t="n">
-        <v>0.119257</v>
+        <v>0.37732</v>
       </c>
       <c r="D36" t="n">
-        <v>0.132183</v>
+        <v>0.134495</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.14491</v>
+        <v>0.145479</v>
       </c>
       <c r="C37" t="n">
-        <v>0.120284</v>
+        <v>0.264268</v>
       </c>
       <c r="D37" t="n">
-        <v>0.131982</v>
+        <v>0.132474</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.161723</v>
+        <v>0.169493</v>
       </c>
       <c r="C38" t="n">
-        <v>0.122249</v>
+        <v>0.27385</v>
       </c>
       <c r="D38" t="n">
-        <v>0.134792</v>
+        <v>0.136843</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.165008</v>
+        <v>0.160761</v>
       </c>
       <c r="C39" t="n">
-        <v>0.120257</v>
+        <v>0.280579</v>
       </c>
       <c r="D39" t="n">
-        <v>0.133212</v>
+        <v>0.13647</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.170033</v>
+        <v>0.172237</v>
       </c>
       <c r="C40" t="n">
-        <v>0.12206</v>
+        <v>0.283143</v>
       </c>
       <c r="D40" t="n">
-        <v>0.134114</v>
+        <v>0.134521</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165126</v>
+        <v>0.167464</v>
       </c>
       <c r="C41" t="n">
-        <v>0.123652</v>
+        <v>0.287331</v>
       </c>
       <c r="D41" t="n">
-        <v>0.137793</v>
+        <v>0.132046</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.165474</v>
+        <v>0.164938</v>
       </c>
       <c r="C42" t="n">
-        <v>0.124608</v>
+        <v>0.295055</v>
       </c>
       <c r="D42" t="n">
-        <v>0.135435</v>
+        <v>0.135736</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.164068</v>
+        <v>0.160499</v>
       </c>
       <c r="C43" t="n">
-        <v>0.125127</v>
+        <v>0.308423</v>
       </c>
       <c r="D43" t="n">
-        <v>0.141409</v>
+        <v>0.139129</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.167601</v>
+        <v>0.164778</v>
       </c>
       <c r="C44" t="n">
-        <v>0.123271</v>
+        <v>0.322096</v>
       </c>
       <c r="D44" t="n">
-        <v>0.139392</v>
+        <v>0.14304</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.164858</v>
+        <v>0.168882</v>
       </c>
       <c r="C45" t="n">
-        <v>0.127687</v>
+        <v>0.334751</v>
       </c>
       <c r="D45" t="n">
-        <v>0.140557</v>
+        <v>0.145734</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.16847</v>
+        <v>0.163405</v>
       </c>
       <c r="C46" t="n">
-        <v>0.127614</v>
+        <v>0.342414</v>
       </c>
       <c r="D46" t="n">
-        <v>0.143959</v>
+        <v>0.137757</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.164261</v>
+        <v>0.165391</v>
       </c>
       <c r="C47" t="n">
-        <v>0.130819</v>
+        <v>0.355658</v>
       </c>
       <c r="D47" t="n">
-        <v>0.141088</v>
+        <v>0.142078</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167197</v>
+        <v>0.166484</v>
       </c>
       <c r="C48" t="n">
-        <v>0.129283</v>
+        <v>0.361639</v>
       </c>
       <c r="D48" t="n">
-        <v>0.147524</v>
+        <v>0.144372</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17038</v>
+        <v>0.169956</v>
       </c>
       <c r="C49" t="n">
-        <v>0.131128</v>
+        <v>0.385867</v>
       </c>
       <c r="D49" t="n">
-        <v>0.146279</v>
+        <v>0.147848</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169585</v>
+        <v>0.174227</v>
       </c>
       <c r="C50" t="n">
-        <v>0.133087</v>
+        <v>0.408842</v>
       </c>
       <c r="D50" t="n">
-        <v>0.14923</v>
+        <v>0.151511</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173016</v>
+        <v>0.175208</v>
       </c>
       <c r="C51" t="n">
-        <v>0.136582</v>
+        <v>0.281954</v>
       </c>
       <c r="D51" t="n">
-        <v>0.203799</v>
+        <v>0.206646</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176808</v>
+        <v>0.176802</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143057</v>
+        <v>0.279265</v>
       </c>
       <c r="D52" t="n">
-        <v>0.209995</v>
+        <v>0.210784</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.260965</v>
+        <v>0.26489</v>
       </c>
       <c r="C53" t="n">
-        <v>0.200429</v>
+        <v>0.292142</v>
       </c>
       <c r="D53" t="n">
-        <v>0.20396</v>
+        <v>0.204948</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.266607</v>
+        <v>0.259237</v>
       </c>
       <c r="C54" t="n">
-        <v>0.201654</v>
+        <v>0.307573</v>
       </c>
       <c r="D54" t="n">
-        <v>0.203393</v>
+        <v>0.209871</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.260718</v>
+        <v>0.256676</v>
       </c>
       <c r="C55" t="n">
-        <v>0.195369</v>
+        <v>0.303805</v>
       </c>
       <c r="D55" t="n">
-        <v>0.203663</v>
+        <v>0.207742</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.26507</v>
+        <v>0.258253</v>
       </c>
       <c r="C56" t="n">
-        <v>0.20371</v>
+        <v>0.320295</v>
       </c>
       <c r="D56" t="n">
-        <v>0.207675</v>
+        <v>0.202742</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.265326</v>
+        <v>0.256698</v>
       </c>
       <c r="C57" t="n">
-        <v>0.194663</v>
+        <v>0.320639</v>
       </c>
       <c r="D57" t="n">
-        <v>0.209692</v>
+        <v>0.208174</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.257286</v>
+        <v>0.259414</v>
       </c>
       <c r="C58" t="n">
-        <v>0.20077</v>
+        <v>0.341456</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213066</v>
+        <v>0.207576</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.266314</v>
+        <v>0.261386</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203099</v>
+        <v>0.348535</v>
       </c>
       <c r="D59" t="n">
-        <v>0.208752</v>
+        <v>0.208458</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.264015</v>
+        <v>0.264448</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2087</v>
+        <v>0.366733</v>
       </c>
       <c r="D60" t="n">
-        <v>0.211459</v>
+        <v>0.21681</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.256136</v>
+        <v>0.261154</v>
       </c>
       <c r="C61" t="n">
-        <v>0.195636</v>
+        <v>0.376478</v>
       </c>
       <c r="D61" t="n">
-        <v>0.213276</v>
+        <v>0.212525</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.247918</v>
+        <v>0.261222</v>
       </c>
       <c r="C62" t="n">
-        <v>0.198319</v>
+        <v>0.388252</v>
       </c>
       <c r="D62" t="n">
-        <v>0.206291</v>
+        <v>0.215145</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266098</v>
+        <v>0.265676</v>
       </c>
       <c r="C63" t="n">
-        <v>0.199479</v>
+        <v>0.398886</v>
       </c>
       <c r="D63" t="n">
-        <v>0.206891</v>
+        <v>0.222298</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251492</v>
+        <v>0.270169</v>
       </c>
       <c r="C64" t="n">
-        <v>0.201728</v>
+        <v>0.426188</v>
       </c>
       <c r="D64" t="n">
-        <v>0.213637</v>
+        <v>0.217713</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.258197</v>
+        <v>0.259759</v>
       </c>
       <c r="C65" t="n">
-        <v>0.206485</v>
+        <v>0.370386</v>
       </c>
       <c r="D65" t="n">
-        <v>0.221855</v>
+        <v>0.228603</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.251927</v>
+        <v>0.26461</v>
       </c>
       <c r="C66" t="n">
-        <v>0.21022</v>
+        <v>0.383561</v>
       </c>
       <c r="D66" t="n">
-        <v>0.281072</v>
+        <v>0.294716</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.407059</v>
+        <v>0.41184</v>
       </c>
       <c r="C67" t="n">
-        <v>0.318136</v>
+        <v>0.41785</v>
       </c>
       <c r="D67" t="n">
-        <v>0.298216</v>
+        <v>0.313417</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.388976</v>
+        <v>0.388343</v>
       </c>
       <c r="C68" t="n">
-        <v>0.327881</v>
+        <v>0.3809</v>
       </c>
       <c r="D68" t="n">
-        <v>0.309941</v>
+        <v>0.29759</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.411217</v>
+        <v>0.404638</v>
       </c>
       <c r="C69" t="n">
-        <v>0.31808</v>
+        <v>0.41074</v>
       </c>
       <c r="D69" t="n">
-        <v>0.296397</v>
+        <v>0.295326</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.411193</v>
+        <v>0.410635</v>
       </c>
       <c r="C70" t="n">
-        <v>0.318688</v>
+        <v>0.415429</v>
       </c>
       <c r="D70" t="n">
-        <v>0.305783</v>
+        <v>0.303406</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.422769</v>
+        <v>0.396086</v>
       </c>
       <c r="C71" t="n">
-        <v>0.308731</v>
+        <v>0.420038</v>
       </c>
       <c r="D71" t="n">
-        <v>0.298325</v>
+        <v>0.309263</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.400043</v>
+        <v>0.41019</v>
       </c>
       <c r="C72" t="n">
-        <v>0.322599</v>
+        <v>0.455313</v>
       </c>
       <c r="D72" t="n">
-        <v>0.313388</v>
+        <v>0.307789</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.417992</v>
+        <v>0.413096</v>
       </c>
       <c r="C73" t="n">
-        <v>0.317113</v>
+        <v>0.463551</v>
       </c>
       <c r="D73" t="n">
-        <v>0.296984</v>
+        <v>0.305743</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.411318</v>
+        <v>0.401729</v>
       </c>
       <c r="C74" t="n">
-        <v>0.316706</v>
+        <v>0.485072</v>
       </c>
       <c r="D74" t="n">
-        <v>0.305429</v>
+        <v>0.300774</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.418379</v>
+        <v>0.407301</v>
       </c>
       <c r="C75" t="n">
-        <v>0.314985</v>
+        <v>0.473542</v>
       </c>
       <c r="D75" t="n">
-        <v>0.301918</v>
+        <v>0.310238</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.400766</v>
+        <v>0.40529</v>
       </c>
       <c r="C76" t="n">
-        <v>0.322661</v>
+        <v>0.511412</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3044</v>
+        <v>0.307722</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.408154</v>
+        <v>0.402277</v>
       </c>
       <c r="C77" t="n">
-        <v>0.31734</v>
+        <v>0.526714</v>
       </c>
       <c r="D77" t="n">
-        <v>0.308575</v>
+        <v>0.320508</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.424488</v>
+        <v>0.407415</v>
       </c>
       <c r="C78" t="n">
-        <v>0.330404</v>
+        <v>0.53803</v>
       </c>
       <c r="D78" t="n">
-        <v>0.316671</v>
+        <v>0.324841</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.408504</v>
+        <v>0.413755</v>
       </c>
       <c r="C79" t="n">
-        <v>0.325035</v>
+        <v>0.526697</v>
       </c>
       <c r="D79" t="n">
-        <v>0.325358</v>
+        <v>0.318707</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.412982</v>
+        <v>0.423741</v>
       </c>
       <c r="C80" t="n">
-        <v>0.337427</v>
+        <v>0.516302</v>
       </c>
       <c r="D80" t="n">
-        <v>0.424734</v>
+        <v>0.431662</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.555756</v>
+        <v>0.545566</v>
       </c>
       <c r="C81" t="n">
-        <v>0.423441</v>
+        <v>0.529629</v>
       </c>
       <c r="D81" t="n">
-        <v>0.430113</v>
+        <v>0.433601</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.547044</v>
+        <v>0.563741</v>
       </c>
       <c r="C82" t="n">
-        <v>0.439428</v>
+        <v>0.538593</v>
       </c>
       <c r="D82" t="n">
-        <v>0.429081</v>
+        <v>0.427442</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.553186</v>
+        <v>0.5364719999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.426685</v>
+        <v>0.599734</v>
       </c>
       <c r="D83" t="n">
-        <v>0.430935</v>
+        <v>0.442949</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.551451</v>
+        <v>0.574332</v>
       </c>
       <c r="C84" t="n">
-        <v>0.424208</v>
+        <v>0.571276</v>
       </c>
       <c r="D84" t="n">
-        <v>0.43106</v>
+        <v>0.432033</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.553806</v>
+        <v>0.542019</v>
       </c>
       <c r="C85" t="n">
-        <v>0.420935</v>
+        <v>0.561778</v>
       </c>
       <c r="D85" t="n">
-        <v>0.42924</v>
+        <v>0.440271</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.544977</v>
+        <v>0.557353</v>
       </c>
       <c r="C86" t="n">
-        <v>0.424214</v>
+        <v>0.61589</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4508</v>
+        <v>0.441348</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.562311</v>
+        <v>0.552472</v>
       </c>
       <c r="C87" t="n">
-        <v>0.438063</v>
+        <v>0.632216</v>
       </c>
       <c r="D87" t="n">
-        <v>0.437201</v>
+        <v>0.439213</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5469000000000001</v>
+        <v>0.579499</v>
       </c>
       <c r="C88" t="n">
-        <v>0.428214</v>
+        <v>0.638169</v>
       </c>
       <c r="D88" t="n">
-        <v>0.439195</v>
+        <v>0.453431</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.556975</v>
+        <v>0.560557</v>
       </c>
       <c r="C89" t="n">
-        <v>0.428789</v>
+        <v>0.694273</v>
       </c>
       <c r="D89" t="n">
-        <v>0.438474</v>
+        <v>0.436794</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.563017</v>
+        <v>0.550891</v>
       </c>
       <c r="C90" t="n">
-        <v>0.44639</v>
+        <v>0.736192</v>
       </c>
       <c r="D90" t="n">
-        <v>0.441186</v>
+        <v>0.445125</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.566438</v>
+        <v>0.566168</v>
       </c>
       <c r="C91" t="n">
-        <v>0.441229</v>
+        <v>0.755458</v>
       </c>
       <c r="D91" t="n">
-        <v>0.441968</v>
+        <v>0.450703</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.564931</v>
+        <v>0.565773</v>
       </c>
       <c r="C92" t="n">
-        <v>0.436352</v>
+        <v>0.771681</v>
       </c>
       <c r="D92" t="n">
-        <v>0.460102</v>
+        <v>0.448813</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.560489</v>
+        <v>0.570932</v>
       </c>
       <c r="C93" t="n">
-        <v>0.431003</v>
+        <v>0.799646</v>
       </c>
       <c r="D93" t="n">
-        <v>0.447976</v>
+        <v>0.44943</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.562223</v>
+        <v>0.560213</v>
       </c>
       <c r="C94" t="n">
-        <v>0.464398</v>
+        <v>0.656664</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5215340000000001</v>
+        <v>0.550158</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6484799999999999</v>
+        <v>0.64296</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5102989999999999</v>
+        <v>0.642307</v>
       </c>
       <c r="D95" t="n">
-        <v>0.514159</v>
+        <v>0.516046</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.677982</v>
+        <v>0.659129</v>
       </c>
       <c r="C96" t="n">
-        <v>0.514629</v>
+        <v>0.6833360000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.530174</v>
+        <v>0.527215</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.654458</v>
+        <v>0.637597</v>
       </c>
       <c r="C97" t="n">
-        <v>0.513174</v>
+        <v>0.674758</v>
       </c>
       <c r="D97" t="n">
-        <v>0.534425</v>
+        <v>0.527794</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.648262</v>
+        <v>0.684933</v>
       </c>
       <c r="C98" t="n">
-        <v>0.509781</v>
+        <v>0.69641</v>
       </c>
       <c r="D98" t="n">
-        <v>0.534656</v>
+        <v>0.524027</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.641371</v>
+        <v>0.655482</v>
       </c>
       <c r="C99" t="n">
-        <v>0.497918</v>
+        <v>0.704061</v>
       </c>
       <c r="D99" t="n">
-        <v>0.53241</v>
+        <v>0.516935</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.654362</v>
+        <v>0.640188</v>
       </c>
       <c r="C100" t="n">
-        <v>0.519942</v>
+        <v>0.724938</v>
       </c>
       <c r="D100" t="n">
-        <v>0.56185</v>
+        <v>0.535851</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.650581</v>
+        <v>0.6530589999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.508441</v>
+        <v>0.751874</v>
       </c>
       <c r="D101" t="n">
-        <v>0.530251</v>
+        <v>0.552339</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.65189</v>
+        <v>0.64049</v>
       </c>
       <c r="C102" t="n">
-        <v>0.504186</v>
+        <v>0.8070079999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5306920000000001</v>
+        <v>0.547085</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.656285</v>
+        <v>0.697984</v>
       </c>
       <c r="C103" t="n">
-        <v>0.513796</v>
+        <v>0.843306</v>
       </c>
       <c r="D103" t="n">
-        <v>0.527675</v>
+        <v>0.531336</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6544410000000001</v>
+        <v>0.687426</v>
       </c>
       <c r="C104" t="n">
-        <v>0.516124</v>
+        <v>0.889311</v>
       </c>
       <c r="D104" t="n">
-        <v>0.535362</v>
+        <v>0.536556</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.655471</v>
+        <v>0.646355</v>
       </c>
       <c r="C105" t="n">
-        <v>0.517849</v>
+        <v>0.935295</v>
       </c>
       <c r="D105" t="n">
-        <v>0.550989</v>
+        <v>0.556299</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.64005</v>
+        <v>0.653439</v>
       </c>
       <c r="C106" t="n">
-        <v>0.525276</v>
+        <v>0.996875</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5538149999999999</v>
+        <v>0.562572</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.64471</v>
+        <v>0.66814</v>
       </c>
       <c r="C107" t="n">
-        <v>0.535635</v>
+        <v>1.03433</v>
       </c>
       <c r="D107" t="n">
-        <v>0.54772</v>
+        <v>0.56337</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.668529</v>
+        <v>0.661014</v>
       </c>
       <c r="C108" t="n">
-        <v>0.532802</v>
+        <v>0.709855</v>
       </c>
       <c r="D108" t="n">
-        <v>0.663649</v>
+        <v>0.61781</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.67301</v>
+        <v>0.719051</v>
       </c>
       <c r="C109" t="n">
-        <v>0.553007</v>
+        <v>0.71979</v>
       </c>
       <c r="D109" t="n">
-        <v>0.624583</v>
+        <v>0.617761</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.807223</v>
+        <v>0.808157</v>
       </c>
       <c r="C110" t="n">
-        <v>0.588977</v>
+        <v>0.743336</v>
       </c>
       <c r="D110" t="n">
-        <v>0.622325</v>
+        <v>0.626741</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.809168</v>
+        <v>0.79942</v>
       </c>
       <c r="C111" t="n">
-        <v>0.605896</v>
+        <v>0.745108</v>
       </c>
       <c r="D111" t="n">
-        <v>0.677328</v>
+        <v>0.620793</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.798768</v>
+        <v>0.802638</v>
       </c>
       <c r="C112" t="n">
-        <v>0.615486</v>
+        <v>0.761258</v>
       </c>
       <c r="D112" t="n">
-        <v>0.624291</v>
+        <v>0.62693</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.798441</v>
+        <v>0.793667</v>
       </c>
       <c r="C113" t="n">
-        <v>0.612538</v>
+        <v>0.80975</v>
       </c>
       <c r="D113" t="n">
-        <v>0.634248</v>
+        <v>0.615376</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.785342</v>
+        <v>0.8130270000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.602975</v>
+        <v>0.80427</v>
       </c>
       <c r="D114" t="n">
-        <v>0.615151</v>
+        <v>0.634091</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8118649999999999</v>
+        <v>0.817927</v>
       </c>
       <c r="C115" t="n">
-        <v>0.614484</v>
+        <v>0.832041</v>
       </c>
       <c r="D115" t="n">
-        <v>0.68965</v>
+        <v>0.628413</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.813289</v>
+        <v>0.834933</v>
       </c>
       <c r="C116" t="n">
-        <v>0.667475</v>
+        <v>0.886552</v>
       </c>
       <c r="D116" t="n">
-        <v>0.630036</v>
+        <v>0.644927</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7993400000000001</v>
+        <v>0.797032</v>
       </c>
       <c r="C117" t="n">
-        <v>0.676098</v>
+        <v>0.90277</v>
       </c>
       <c r="D117" t="n">
-        <v>0.663639</v>
+        <v>0.639534</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.827468</v>
+        <v>0.809718</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6448159999999999</v>
+        <v>0.981027</v>
       </c>
       <c r="D118" t="n">
-        <v>0.649394</v>
+        <v>0.6334109999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.798605</v>
+        <v>0.785256</v>
       </c>
       <c r="C119" t="n">
-        <v>0.64257</v>
+        <v>1.06943</v>
       </c>
       <c r="D119" t="n">
-        <v>0.649543</v>
+        <v>0.639823</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8055600000000001</v>
+        <v>0.816507</v>
       </c>
       <c r="C120" t="n">
-        <v>0.634666</v>
+        <v>1.10959</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6402139999999999</v>
+        <v>0.651618</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.811342</v>
+        <v>0.806572</v>
       </c>
       <c r="C121" t="n">
-        <v>0.630255</v>
+        <v>1.17681</v>
       </c>
       <c r="D121" t="n">
-        <v>0.655227</v>
+        <v>0.664784</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.816217</v>
+        <v>0.813826</v>
       </c>
       <c r="C122" t="n">
-        <v>0.631511</v>
+        <v>0.740808</v>
       </c>
       <c r="D122" t="n">
-        <v>0.686098</v>
+        <v>0.66852</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8249339999999999</v>
+        <v>0.826743</v>
       </c>
       <c r="C123" t="n">
-        <v>0.646993</v>
+        <v>0.758933</v>
       </c>
       <c r="D123" t="n">
-        <v>0.744046</v>
+        <v>0.752843</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.04766</v>
+        <v>1.01542</v>
       </c>
       <c r="C124" t="n">
-        <v>0.743557</v>
+        <v>0.77724</v>
       </c>
       <c r="D124" t="n">
-        <v>0.779455</v>
+        <v>0.752777</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.05236</v>
+        <v>1.06828</v>
       </c>
       <c r="C125" t="n">
-        <v>0.75297</v>
+        <v>0.780251</v>
       </c>
       <c r="D125" t="n">
-        <v>0.737222</v>
+        <v>0.7472259999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.04512</v>
+        <v>1.03312</v>
       </c>
       <c r="C126" t="n">
-        <v>0.74932</v>
+        <v>0.806466</v>
       </c>
       <c r="D126" t="n">
-        <v>0.738285</v>
+        <v>0.747456</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03377</v>
+        <v>1.04431</v>
       </c>
       <c r="C127" t="n">
-        <v>0.755657</v>
+        <v>0.83014</v>
       </c>
       <c r="D127" t="n">
-        <v>0.75384</v>
+        <v>0.753703</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04203</v>
+        <v>1.04071</v>
       </c>
       <c r="C128" t="n">
-        <v>0.739943</v>
+        <v>0.843565</v>
       </c>
       <c r="D128" t="n">
-        <v>0.828978</v>
+        <v>0.736061</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.13428</v>
+        <v>1.03427</v>
       </c>
       <c r="C129" t="n">
-        <v>0.754481</v>
+        <v>0.874852</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7468939999999999</v>
+        <v>0.769909</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.05958</v>
+        <v>1.06761</v>
       </c>
       <c r="C130" t="n">
-        <v>0.740079</v>
+        <v>0.918573</v>
       </c>
       <c r="D130" t="n">
-        <v>0.747475</v>
+        <v>0.776358</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.04558</v>
+        <v>1.01804</v>
       </c>
       <c r="C131" t="n">
-        <v>0.766806</v>
+        <v>0.973959</v>
       </c>
       <c r="D131" t="n">
-        <v>0.743861</v>
+        <v>0.772498</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.03234</v>
+        <v>1.0369</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7433070000000001</v>
+        <v>1.01744</v>
       </c>
       <c r="D132" t="n">
-        <v>0.76764</v>
+        <v>0.76431</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04963</v>
+        <v>1.05407</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7489130000000001</v>
+        <v>1.09141</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7731479999999999</v>
+        <v>0.758972</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05976</v>
+        <v>1.02439</v>
       </c>
       <c r="C134" t="n">
-        <v>0.767506</v>
+        <v>1.17705</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7668199999999999</v>
+        <v>0.789717</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.0588</v>
+        <v>1.02735</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7735379999999999</v>
+        <v>1.23717</v>
       </c>
       <c r="D135" t="n">
-        <v>0.782676</v>
+        <v>0.779616</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.03552</v>
+        <v>1.08592</v>
       </c>
       <c r="C136" t="n">
-        <v>0.781335</v>
+        <v>0.840112</v>
       </c>
       <c r="D136" t="n">
-        <v>0.795609</v>
+        <v>0.795227</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06196</v>
+        <v>1.06023</v>
       </c>
       <c r="C137" t="n">
-        <v>0.785829</v>
+        <v>0.852144</v>
       </c>
       <c r="D137" t="n">
-        <v>0.946986</v>
+        <v>0.943522</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.35501</v>
+        <v>1.32239</v>
       </c>
       <c r="C138" t="n">
-        <v>0.935536</v>
+        <v>0.851558</v>
       </c>
       <c r="D138" t="n">
-        <v>0.969144</v>
+        <v>0.932915</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.34997</v>
+        <v>1.32482</v>
       </c>
       <c r="C139" t="n">
-        <v>0.946815</v>
+        <v>0.855478</v>
       </c>
       <c r="D139" t="n">
-        <v>0.966071</v>
+        <v>0.940746</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.36451</v>
+        <v>1.32784</v>
       </c>
       <c r="C140" t="n">
-        <v>1.01126</v>
+        <v>0.87397</v>
       </c>
       <c r="D140" t="n">
-        <v>0.968287</v>
+        <v>0.936949</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.3737</v>
+        <v>1.38247</v>
       </c>
       <c r="C141" t="n">
-        <v>0.944304</v>
+        <v>0.9014219999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.95565</v>
+        <v>0.9378069999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.36869</v>
+        <v>1.32287</v>
       </c>
       <c r="C142" t="n">
-        <v>0.931527</v>
+        <v>0.914425</v>
       </c>
       <c r="D142" t="n">
-        <v>1.05909</v>
+        <v>0.956286</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.36232</v>
+        <v>1.3241</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9345290000000001</v>
+        <v>0.959804</v>
       </c>
       <c r="D143" t="n">
-        <v>0.953798</v>
+        <v>0.951968</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.0196963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0197664</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0200026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0201517</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201028</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0204562</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0206393</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0210339</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194206</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0195253</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0197643</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019862</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0200936</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204092</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204507</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206229</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0210343</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0211918</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.0215584</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0226513</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0258862</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.020452</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0206124</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207985</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0209652</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211055</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213203</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0217535</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0218513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0222928</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0226911</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.0235535</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0253242</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0277768</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0318669</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0214937</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0216708</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0218145</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0221247</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0222181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.022927</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0232657</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0238669</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0247955</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0260839</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.0280282</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0309436</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0352915</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0413191</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0232368</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0234077</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0234742</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0236931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0240065</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0243635</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.024742</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0254421</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0265507</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0278997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0300643</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0326618</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0366612</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0418935</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0281649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0283172</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.028481</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0286097</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0290029</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0293089</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0298234</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0304538</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0316262</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0328268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.034701</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0373006</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0405111</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.0453079</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0556282</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0556663</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0556563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0557576</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0561199</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0563284</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0566175</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0569801</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0575295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0584884</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.059328</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0609849</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.06332119999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.06701559999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.08579050000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085844</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.0859253</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.0859871</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.0861041</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.08631809999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0864688</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.087584</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.0871972</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08776539999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0885425</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.0897765</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0918954</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0951462</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.100134</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107276</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.107381</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.10763</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10747</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.107654</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108084</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.108774</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109483</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110216</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.111529</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.123333</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.114818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.117767</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.122643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.140956</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141254</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.141098</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141288</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.136251</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.1347</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.134998</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.135211</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.135722</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.136719</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.138058</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.138669</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.146036</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.147156</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.159468</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.157919</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.157814</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158306</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158314</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158718</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0370058</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0418052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0487309</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.057161</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.0638789</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.07558529999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0263746</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.0290195</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0319614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0351258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.0398863</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0439152</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0487144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0551437</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0637769</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.0718377</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.081882</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.09108090000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0974773</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.106323</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0397852</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0423426</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0452109</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0487996</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0527075</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0566831</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.06295779999999999</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0682238</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0771483</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.08561050000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0935257</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.103656</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.113227</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.123492</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.13034</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0509253</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0528575</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0577256</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0607325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0659752</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0703324</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.0767769</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.08390450000000001</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0925863</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.101274</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.11083</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.118478</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.125043</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.133906</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0529698</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0564495</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0593078</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0635886</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0686663</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.07259549999999999</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.07936020000000001</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.08643149999999999</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.09494660000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.104919</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.114287</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.122709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.129562</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.137533</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0546936</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0582601</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0617354</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0656432</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.07027899999999999</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.07689410000000001</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.0822326</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0895243</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.097702</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.107574</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.117728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.127246</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.134567</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.142834</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.064026</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0678048</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0717135</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0761748</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0812459</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0872613</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0936657</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.101731</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.111373</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.122588</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.133557</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.145035</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.154768</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.165492</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.17807</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.08862009999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0928022</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0974573</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.102899</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.117126</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.126086</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.137067</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.149677</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.163346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.192176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.209788</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.241063</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.111904</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.106764</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.110996</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.116155</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.123372</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.12867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.138409</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.146729</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.159703</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.171725</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.189215</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.206254</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.232862</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.300725</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.111313</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.118709</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.123239</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.128603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.134652</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.144169</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.150707</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.163675</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.19273</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.211146</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.248366</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.325236</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.115816</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.119248</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.123083</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.127447</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.132918</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.146881</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.154942</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0228125</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0226735</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.022881</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0228038</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0230981</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0232579</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0235219</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0232438</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0227364</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0231432</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0234719</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0235736</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0239307</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0240582</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.0241979</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0242753</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0244821</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0247755</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0250051</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.0262359</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0230816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0233082</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0236264</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0238223</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0242118</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0245034</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0247956</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.0251358</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0254192</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.025719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0260563</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0271309</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0289687</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0327012</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0240634</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0243796</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0245387</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0247873</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0250755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0252754</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0257843</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0261995</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0266811</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0271738</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0278438</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0291553</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0325561</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.0358238</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0243208</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0245637</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.0248053</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0250541</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0253017</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0258172</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.0261726</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0266081</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0271423</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0280035</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.02913</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0307407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0332634</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0376615</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0436362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0266204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0269618</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0273013</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0276864</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0282598</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0286701</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0289658</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0296943</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0308191</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0320137</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0337115</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0362699</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0399167</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0449066</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0395087</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.0404645</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0415858</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0423343</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0424792</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.043633</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.0447561</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.0453725</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0460016</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0469517</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0487554</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0506627</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0536386</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.058453</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.0785825</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.0789784</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.07963629999999999</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.0799203</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0804226</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0810888</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0818702</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.0822594</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.0861224</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.08439530000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.0860368</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.0872131</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.0897109</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0933244</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.09642630000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0977301</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0987176</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0995547</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.100355</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.101544</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.102478</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.103852</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.10514</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.106707</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.107111</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.110501</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.113388</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.117326</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.123656</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.113449</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.114553</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.115303</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.116783</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.11776</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.11949</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.120603</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.122672</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.124019</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.128612</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.131664</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.135936</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.14231</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.125329</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.126594</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.127683</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.128925</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.130349</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.131775</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.133565</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.124508</v>
+        <v>0.119644</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0996503</v>
+        <v>0.10033</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111674</v>
+        <v>0.111707</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.123116</v>
+        <v>0.120695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.100869</v>
+        <v>0.102822</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114362</v>
+        <v>0.113749</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120385</v>
+        <v>0.118717</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0986653</v>
+        <v>0.106347</v>
       </c>
       <c r="D4" t="n">
-        <v>0.109451</v>
+        <v>0.11267</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123367</v>
+        <v>0.119071</v>
       </c>
       <c r="C5" t="n">
-        <v>0.102195</v>
+        <v>0.10364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.116338</v>
+        <v>0.111971</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.127536</v>
+        <v>0.118155</v>
       </c>
       <c r="C6" t="n">
-        <v>0.10516</v>
+        <v>0.104424</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11756</v>
+        <v>0.11256</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.124264</v>
+        <v>0.126047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.104445</v>
+        <v>0.101111</v>
       </c>
       <c r="D7" t="n">
-        <v>0.112341</v>
+        <v>0.11465</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120071</v>
+        <v>0.120302</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102979</v>
+        <v>0.102505</v>
       </c>
       <c r="D8" t="n">
-        <v>0.119435</v>
+        <v>0.120819</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124289</v>
+        <v>0.119086</v>
       </c>
       <c r="C9" t="n">
-        <v>0.109835</v>
+        <v>0.106217</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113311</v>
+        <v>0.106319</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.13037</v>
+        <v>0.123356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.104338</v>
+        <v>0.097799</v>
       </c>
       <c r="D10" t="n">
-        <v>0.112629</v>
+        <v>0.105939</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.131331</v>
+        <v>0.124237</v>
       </c>
       <c r="C11" t="n">
-        <v>0.10118</v>
+        <v>0.0979681</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110847</v>
+        <v>0.107275</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127636</v>
+        <v>0.125744</v>
       </c>
       <c r="C12" t="n">
-        <v>0.102442</v>
+        <v>0.105201</v>
       </c>
       <c r="D12" t="n">
-        <v>0.113851</v>
+        <v>0.114789</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125519</v>
+        <v>0.135967</v>
       </c>
       <c r="C13" t="n">
-        <v>0.102874</v>
+        <v>0.104988</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1152</v>
+        <v>0.10991</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128883</v>
+        <v>0.129932</v>
       </c>
       <c r="C14" t="n">
-        <v>0.105499</v>
+        <v>0.10611</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112943</v>
+        <v>0.113777</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.132425</v>
+        <v>0.129157</v>
       </c>
       <c r="C15" t="n">
-        <v>0.105918</v>
+        <v>0.104961</v>
       </c>
       <c r="D15" t="n">
-        <v>0.115188</v>
+        <v>0.114087</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128617</v>
+        <v>0.137455</v>
       </c>
       <c r="C16" t="n">
-        <v>0.105366</v>
+        <v>0.106458</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116011</v>
+        <v>0.110419</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.133398</v>
+        <v>0.127291</v>
       </c>
       <c r="C17" t="n">
-        <v>0.103536</v>
+        <v>0.10467</v>
       </c>
       <c r="D17" t="n">
-        <v>0.111973</v>
+        <v>0.115335</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.135691</v>
+        <v>0.131231</v>
       </c>
       <c r="C18" t="n">
-        <v>0.106785</v>
+        <v>0.10487</v>
       </c>
       <c r="D18" t="n">
-        <v>0.11114</v>
+        <v>0.115808</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131841</v>
+        <v>0.128392</v>
       </c>
       <c r="C19" t="n">
-        <v>0.107104</v>
+        <v>0.107803</v>
       </c>
       <c r="D19" t="n">
-        <v>0.116449</v>
+        <v>0.11652</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.132527</v>
+        <v>0.131003</v>
       </c>
       <c r="C20" t="n">
-        <v>0.107755</v>
+        <v>0.110575</v>
       </c>
       <c r="D20" t="n">
-        <v>0.117188</v>
+        <v>0.122935</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.132164</v>
+        <v>0.133769</v>
       </c>
       <c r="C21" t="n">
-        <v>0.106531</v>
+        <v>0.110069</v>
       </c>
       <c r="D21" t="n">
-        <v>0.119881</v>
+        <v>0.11893</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132229</v>
+        <v>0.129183</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113548</v>
+        <v>0.114012</v>
       </c>
       <c r="D22" t="n">
-        <v>0.127539</v>
+        <v>0.126137</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138584</v>
+        <v>0.134871</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118411</v>
+        <v>0.117642</v>
       </c>
       <c r="D23" t="n">
-        <v>0.114358</v>
+        <v>0.118628</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.137745</v>
+        <v>0.140717</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107533</v>
+        <v>0.10688</v>
       </c>
       <c r="D24" t="n">
-        <v>0.115186</v>
+        <v>0.114541</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.137113</v>
+        <v>0.13902</v>
       </c>
       <c r="C25" t="n">
-        <v>0.106798</v>
+        <v>0.106196</v>
       </c>
       <c r="D25" t="n">
-        <v>0.117877</v>
+        <v>0.114166</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.138883</v>
+        <v>0.137481</v>
       </c>
       <c r="C26" t="n">
-        <v>0.107326</v>
+        <v>0.107485</v>
       </c>
       <c r="D26" t="n">
-        <v>0.117496</v>
+        <v>0.119503</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.139788</v>
+        <v>0.13999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11224</v>
+        <v>0.106971</v>
       </c>
       <c r="D27" t="n">
-        <v>0.115835</v>
+        <v>0.12112</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.137613</v>
+        <v>0.138848</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109029</v>
+        <v>0.110426</v>
       </c>
       <c r="D28" t="n">
-        <v>0.117163</v>
+        <v>0.118616</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136656</v>
+        <v>0.140724</v>
       </c>
       <c r="C29" t="n">
-        <v>0.108713</v>
+        <v>0.107893</v>
       </c>
       <c r="D29" t="n">
-        <v>0.120354</v>
+        <v>0.11655</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.14088</v>
+        <v>0.140023</v>
       </c>
       <c r="C30" t="n">
-        <v>0.107701</v>
+        <v>0.109338</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120949</v>
+        <v>0.122356</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.14202</v>
+        <v>0.146633</v>
       </c>
       <c r="C31" t="n">
-        <v>0.112192</v>
+        <v>0.111755</v>
       </c>
       <c r="D31" t="n">
-        <v>0.11964</v>
+        <v>0.121084</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.13884</v>
+        <v>0.141767</v>
       </c>
       <c r="C32" t="n">
-        <v>0.110797</v>
+        <v>0.111682</v>
       </c>
       <c r="D32" t="n">
-        <v>0.120215</v>
+        <v>0.12331</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137111</v>
+        <v>0.141924</v>
       </c>
       <c r="C33" t="n">
-        <v>0.113989</v>
+        <v>0.109539</v>
       </c>
       <c r="D33" t="n">
-        <v>0.123358</v>
+        <v>0.116939</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.144397</v>
+        <v>0.134772</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116292</v>
+        <v>0.11282</v>
       </c>
       <c r="D34" t="n">
-        <v>0.126406</v>
+        <v>0.123795</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143046</v>
+        <v>0.13662</v>
       </c>
       <c r="C35" t="n">
-        <v>0.11513</v>
+        <v>0.111837</v>
       </c>
       <c r="D35" t="n">
-        <v>0.130742</v>
+        <v>0.124897</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.14464</v>
+        <v>0.139102</v>
       </c>
       <c r="C36" t="n">
-        <v>0.119257</v>
+        <v>0.114187</v>
       </c>
       <c r="D36" t="n">
-        <v>0.132183</v>
+        <v>0.134559</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.14491</v>
+        <v>0.146634</v>
       </c>
       <c r="C37" t="n">
-        <v>0.120284</v>
+        <v>0.117105</v>
       </c>
       <c r="D37" t="n">
-        <v>0.131982</v>
+        <v>0.126636</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.161723</v>
+        <v>0.162096</v>
       </c>
       <c r="C38" t="n">
-        <v>0.122249</v>
+        <v>0.11582</v>
       </c>
       <c r="D38" t="n">
-        <v>0.134792</v>
+        <v>0.127155</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.165008</v>
+        <v>0.16478</v>
       </c>
       <c r="C39" t="n">
-        <v>0.120257</v>
+        <v>0.118896</v>
       </c>
       <c r="D39" t="n">
-        <v>0.133212</v>
+        <v>0.134453</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.170033</v>
+        <v>0.157361</v>
       </c>
       <c r="C40" t="n">
-        <v>0.12206</v>
+        <v>0.116901</v>
       </c>
       <c r="D40" t="n">
-        <v>0.134114</v>
+        <v>0.134428</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165126</v>
+        <v>0.1607</v>
       </c>
       <c r="C41" t="n">
-        <v>0.123652</v>
+        <v>0.11751</v>
       </c>
       <c r="D41" t="n">
-        <v>0.137793</v>
+        <v>0.127861</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.165474</v>
+        <v>0.15697</v>
       </c>
       <c r="C42" t="n">
-        <v>0.124608</v>
+        <v>0.121902</v>
       </c>
       <c r="D42" t="n">
-        <v>0.135435</v>
+        <v>0.129163</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.164068</v>
+        <v>0.159263</v>
       </c>
       <c r="C43" t="n">
-        <v>0.125127</v>
+        <v>0.12007</v>
       </c>
       <c r="D43" t="n">
-        <v>0.141409</v>
+        <v>0.129023</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.167601</v>
+        <v>0.161593</v>
       </c>
       <c r="C44" t="n">
-        <v>0.123271</v>
+        <v>0.125504</v>
       </c>
       <c r="D44" t="n">
-        <v>0.139392</v>
+        <v>0.130821</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.164858</v>
+        <v>0.157708</v>
       </c>
       <c r="C45" t="n">
-        <v>0.127687</v>
+        <v>0.133471</v>
       </c>
       <c r="D45" t="n">
-        <v>0.140557</v>
+        <v>0.133865</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.16847</v>
+        <v>0.164565</v>
       </c>
       <c r="C46" t="n">
-        <v>0.127614</v>
+        <v>0.122665</v>
       </c>
       <c r="D46" t="n">
-        <v>0.143959</v>
+        <v>0.138355</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.164261</v>
+        <v>0.162442</v>
       </c>
       <c r="C47" t="n">
-        <v>0.130819</v>
+        <v>0.126012</v>
       </c>
       <c r="D47" t="n">
-        <v>0.141088</v>
+        <v>0.141618</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167197</v>
+        <v>0.164886</v>
       </c>
       <c r="C48" t="n">
-        <v>0.129283</v>
+        <v>0.125545</v>
       </c>
       <c r="D48" t="n">
-        <v>0.147524</v>
+        <v>0.141036</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17038</v>
+        <v>0.170041</v>
       </c>
       <c r="C49" t="n">
-        <v>0.131128</v>
+        <v>0.129659</v>
       </c>
       <c r="D49" t="n">
-        <v>0.146279</v>
+        <v>0.138088</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169585</v>
+        <v>0.163353</v>
       </c>
       <c r="C50" t="n">
-        <v>0.133087</v>
+        <v>0.131128</v>
       </c>
       <c r="D50" t="n">
-        <v>0.14923</v>
+        <v>0.145616</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173016</v>
+        <v>0.172128</v>
       </c>
       <c r="C51" t="n">
-        <v>0.136582</v>
+        <v>0.137551</v>
       </c>
       <c r="D51" t="n">
-        <v>0.203799</v>
+        <v>0.205228</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176808</v>
+        <v>0.172963</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143057</v>
+        <v>0.150741</v>
       </c>
       <c r="D52" t="n">
-        <v>0.209995</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.260965</v>
+        <v>0.241916</v>
       </c>
       <c r="C53" t="n">
-        <v>0.200429</v>
+        <v>0.188102</v>
       </c>
       <c r="D53" t="n">
-        <v>0.20396</v>
+        <v>0.194513</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.266607</v>
+        <v>0.254168</v>
       </c>
       <c r="C54" t="n">
-        <v>0.201654</v>
+        <v>0.200505</v>
       </c>
       <c r="D54" t="n">
-        <v>0.203393</v>
+        <v>0.207989</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.260718</v>
+        <v>0.265355</v>
       </c>
       <c r="C55" t="n">
-        <v>0.195369</v>
+        <v>0.203537</v>
       </c>
       <c r="D55" t="n">
-        <v>0.203663</v>
+        <v>0.207977</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.26507</v>
+        <v>0.256175</v>
       </c>
       <c r="C56" t="n">
-        <v>0.20371</v>
+        <v>0.200741</v>
       </c>
       <c r="D56" t="n">
-        <v>0.207675</v>
+        <v>0.197241</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.265326</v>
+        <v>0.256052</v>
       </c>
       <c r="C57" t="n">
-        <v>0.194663</v>
+        <v>0.190062</v>
       </c>
       <c r="D57" t="n">
-        <v>0.209692</v>
+        <v>0.208194</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.257286</v>
+        <v>0.245193</v>
       </c>
       <c r="C58" t="n">
-        <v>0.20077</v>
+        <v>0.198606</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213066</v>
+        <v>0.198452</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.266314</v>
+        <v>0.255708</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203099</v>
+        <v>0.195563</v>
       </c>
       <c r="D59" t="n">
-        <v>0.208752</v>
+        <v>0.202371</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.264015</v>
+        <v>0.25573</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2087</v>
+        <v>0.197975</v>
       </c>
       <c r="D60" t="n">
-        <v>0.211459</v>
+        <v>0.2038</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.256136</v>
+        <v>0.257766</v>
       </c>
       <c r="C61" t="n">
-        <v>0.195636</v>
+        <v>0.201126</v>
       </c>
       <c r="D61" t="n">
-        <v>0.213276</v>
+        <v>0.203692</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.247918</v>
+        <v>0.256126</v>
       </c>
       <c r="C62" t="n">
-        <v>0.198319</v>
+        <v>0.204793</v>
       </c>
       <c r="D62" t="n">
-        <v>0.206291</v>
+        <v>0.207511</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266098</v>
+        <v>0.258024</v>
       </c>
       <c r="C63" t="n">
-        <v>0.199479</v>
+        <v>0.209327</v>
       </c>
       <c r="D63" t="n">
-        <v>0.206891</v>
+        <v>0.213446</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251492</v>
+        <v>0.266532</v>
       </c>
       <c r="C64" t="n">
-        <v>0.201728</v>
+        <v>0.206563</v>
       </c>
       <c r="D64" t="n">
-        <v>0.213637</v>
+        <v>0.216283</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.258197</v>
+        <v>0.267217</v>
       </c>
       <c r="C65" t="n">
-        <v>0.206485</v>
+        <v>0.217369</v>
       </c>
       <c r="D65" t="n">
-        <v>0.221855</v>
+        <v>0.220359</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.251927</v>
+        <v>0.269661</v>
       </c>
       <c r="C66" t="n">
-        <v>0.21022</v>
+        <v>0.224275</v>
       </c>
       <c r="D66" t="n">
-        <v>0.281072</v>
+        <v>0.288682</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.407059</v>
+        <v>0.382603</v>
       </c>
       <c r="C67" t="n">
-        <v>0.318136</v>
+        <v>0.306814</v>
       </c>
       <c r="D67" t="n">
-        <v>0.298216</v>
+        <v>0.286872</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.388976</v>
+        <v>0.394314</v>
       </c>
       <c r="C68" t="n">
-        <v>0.327881</v>
+        <v>0.310016</v>
       </c>
       <c r="D68" t="n">
-        <v>0.309941</v>
+        <v>0.288103</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.411217</v>
+        <v>0.382133</v>
       </c>
       <c r="C69" t="n">
-        <v>0.31808</v>
+        <v>0.304645</v>
       </c>
       <c r="D69" t="n">
-        <v>0.296397</v>
+        <v>0.29911</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.411193</v>
+        <v>0.385516</v>
       </c>
       <c r="C70" t="n">
-        <v>0.318688</v>
+        <v>0.313242</v>
       </c>
       <c r="D70" t="n">
-        <v>0.305783</v>
+        <v>0.295302</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.422769</v>
+        <v>0.392232</v>
       </c>
       <c r="C71" t="n">
-        <v>0.308731</v>
+        <v>0.311259</v>
       </c>
       <c r="D71" t="n">
-        <v>0.298325</v>
+        <v>0.283172</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.400043</v>
+        <v>0.399585</v>
       </c>
       <c r="C72" t="n">
-        <v>0.322599</v>
+        <v>0.319616</v>
       </c>
       <c r="D72" t="n">
-        <v>0.313388</v>
+        <v>0.303858</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.417992</v>
+        <v>0.401727</v>
       </c>
       <c r="C73" t="n">
-        <v>0.317113</v>
+        <v>0.299778</v>
       </c>
       <c r="D73" t="n">
-        <v>0.296984</v>
+        <v>0.298901</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.411318</v>
+        <v>0.373071</v>
       </c>
       <c r="C74" t="n">
-        <v>0.316706</v>
+        <v>0.322115</v>
       </c>
       <c r="D74" t="n">
-        <v>0.305429</v>
+        <v>0.309222</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.418379</v>
+        <v>0.406651</v>
       </c>
       <c r="C75" t="n">
-        <v>0.314985</v>
+        <v>0.323622</v>
       </c>
       <c r="D75" t="n">
-        <v>0.301918</v>
+        <v>0.314678</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.400766</v>
+        <v>0.391929</v>
       </c>
       <c r="C76" t="n">
-        <v>0.322661</v>
+        <v>0.318552</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3044</v>
+        <v>0.303575</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.408154</v>
+        <v>0.417122</v>
       </c>
       <c r="C77" t="n">
-        <v>0.31734</v>
+        <v>0.303836</v>
       </c>
       <c r="D77" t="n">
-        <v>0.308575</v>
+        <v>0.310989</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.424488</v>
+        <v>0.391892</v>
       </c>
       <c r="C78" t="n">
-        <v>0.330404</v>
+        <v>0.311579</v>
       </c>
       <c r="D78" t="n">
-        <v>0.316671</v>
+        <v>0.30147</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.408504</v>
+        <v>0.397492</v>
       </c>
       <c r="C79" t="n">
-        <v>0.325035</v>
+        <v>0.326002</v>
       </c>
       <c r="D79" t="n">
-        <v>0.325358</v>
+        <v>0.315985</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.412982</v>
+        <v>0.402701</v>
       </c>
       <c r="C80" t="n">
-        <v>0.337427</v>
+        <v>0.335531</v>
       </c>
       <c r="D80" t="n">
-        <v>0.424734</v>
+        <v>0.410378</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.555756</v>
+        <v>0.524851</v>
       </c>
       <c r="C81" t="n">
-        <v>0.423441</v>
+        <v>0.40442</v>
       </c>
       <c r="D81" t="n">
-        <v>0.430113</v>
+        <v>0.414032</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.547044</v>
+        <v>0.537628</v>
       </c>
       <c r="C82" t="n">
-        <v>0.439428</v>
+        <v>0.429126</v>
       </c>
       <c r="D82" t="n">
-        <v>0.429081</v>
+        <v>0.431258</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.553186</v>
+        <v>0.539171</v>
       </c>
       <c r="C83" t="n">
-        <v>0.426685</v>
+        <v>0.42915</v>
       </c>
       <c r="D83" t="n">
-        <v>0.430935</v>
+        <v>0.430218</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.551451</v>
+        <v>0.564209</v>
       </c>
       <c r="C84" t="n">
-        <v>0.424208</v>
+        <v>0.416053</v>
       </c>
       <c r="D84" t="n">
-        <v>0.43106</v>
+        <v>0.445149</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.553806</v>
+        <v>0.534907</v>
       </c>
       <c r="C85" t="n">
-        <v>0.420935</v>
+        <v>0.4332</v>
       </c>
       <c r="D85" t="n">
-        <v>0.42924</v>
+        <v>0.413252</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.544977</v>
+        <v>0.538362</v>
       </c>
       <c r="C86" t="n">
-        <v>0.424214</v>
+        <v>0.431832</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4508</v>
+        <v>0.41971</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.562311</v>
+        <v>0.532672</v>
       </c>
       <c r="C87" t="n">
-        <v>0.438063</v>
+        <v>0.431735</v>
       </c>
       <c r="D87" t="n">
-        <v>0.437201</v>
+        <v>0.426022</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5469000000000001</v>
+        <v>0.539178</v>
       </c>
       <c r="C88" t="n">
-        <v>0.428214</v>
+        <v>0.437329</v>
       </c>
       <c r="D88" t="n">
-        <v>0.439195</v>
+        <v>0.427936</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.556975</v>
+        <v>0.550166</v>
       </c>
       <c r="C89" t="n">
-        <v>0.428789</v>
+        <v>0.418476</v>
       </c>
       <c r="D89" t="n">
-        <v>0.438474</v>
+        <v>0.423572</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.563017</v>
+        <v>0.532276</v>
       </c>
       <c r="C90" t="n">
-        <v>0.44639</v>
+        <v>0.424172</v>
       </c>
       <c r="D90" t="n">
-        <v>0.441186</v>
+        <v>0.426491</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.566438</v>
+        <v>0.5374370000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.441229</v>
+        <v>0.423171</v>
       </c>
       <c r="D91" t="n">
-        <v>0.441968</v>
+        <v>0.429942</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.564931</v>
+        <v>0.562549</v>
       </c>
       <c r="C92" t="n">
-        <v>0.436352</v>
+        <v>0.429276</v>
       </c>
       <c r="D92" t="n">
-        <v>0.460102</v>
+        <v>0.441155</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.560489</v>
+        <v>0.561876</v>
       </c>
       <c r="C93" t="n">
-        <v>0.431003</v>
+        <v>0.435382</v>
       </c>
       <c r="D93" t="n">
-        <v>0.447976</v>
+        <v>0.444941</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.562223</v>
+        <v>0.554386</v>
       </c>
       <c r="C94" t="n">
-        <v>0.464398</v>
+        <v>0.448639</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5215340000000001</v>
+        <v>0.505089</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6484799999999999</v>
+        <v>0.653332</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5102989999999999</v>
+        <v>0.506652</v>
       </c>
       <c r="D95" t="n">
-        <v>0.514159</v>
+        <v>0.519486</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.677982</v>
+        <v>0.637995</v>
       </c>
       <c r="C96" t="n">
-        <v>0.514629</v>
+        <v>0.500186</v>
       </c>
       <c r="D96" t="n">
-        <v>0.530174</v>
+        <v>0.512282</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.654458</v>
+        <v>0.680156</v>
       </c>
       <c r="C97" t="n">
-        <v>0.513174</v>
+        <v>0.502663</v>
       </c>
       <c r="D97" t="n">
-        <v>0.534425</v>
+        <v>0.502973</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.648262</v>
+        <v>0.63691</v>
       </c>
       <c r="C98" t="n">
-        <v>0.509781</v>
+        <v>0.499339</v>
       </c>
       <c r="D98" t="n">
-        <v>0.534656</v>
+        <v>0.511339</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.641371</v>
+        <v>0.606487</v>
       </c>
       <c r="C99" t="n">
-        <v>0.497918</v>
+        <v>0.51231</v>
       </c>
       <c r="D99" t="n">
-        <v>0.53241</v>
+        <v>0.50423</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.654362</v>
+        <v>0.6477850000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.519942</v>
+        <v>0.513545</v>
       </c>
       <c r="D100" t="n">
-        <v>0.56185</v>
+        <v>0.523755</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.650581</v>
+        <v>0.654962</v>
       </c>
       <c r="C101" t="n">
-        <v>0.508441</v>
+        <v>0.516178</v>
       </c>
       <c r="D101" t="n">
-        <v>0.530251</v>
+        <v>0.5188700000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.65189</v>
+        <v>0.649381</v>
       </c>
       <c r="C102" t="n">
-        <v>0.504186</v>
+        <v>0.523861</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5306920000000001</v>
+        <v>0.53677</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.656285</v>
+        <v>0.6528080000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.513796</v>
+        <v>0.52824</v>
       </c>
       <c r="D103" t="n">
-        <v>0.527675</v>
+        <v>0.517107</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6544410000000001</v>
+        <v>0.639421</v>
       </c>
       <c r="C104" t="n">
-        <v>0.516124</v>
+        <v>0.529201</v>
       </c>
       <c r="D104" t="n">
-        <v>0.535362</v>
+        <v>0.539928</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.655471</v>
+        <v>0.641436</v>
       </c>
       <c r="C105" t="n">
-        <v>0.517849</v>
+        <v>0.52495</v>
       </c>
       <c r="D105" t="n">
-        <v>0.550989</v>
+        <v>0.5423789999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.64005</v>
+        <v>0.644644</v>
       </c>
       <c r="C106" t="n">
-        <v>0.525276</v>
+        <v>0.524508</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5538149999999999</v>
+        <v>0.548015</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.64471</v>
+        <v>0.666234</v>
       </c>
       <c r="C107" t="n">
-        <v>0.535635</v>
+        <v>0.529056</v>
       </c>
       <c r="D107" t="n">
-        <v>0.54772</v>
+        <v>0.548028</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.668529</v>
+        <v>0.645087</v>
       </c>
       <c r="C108" t="n">
-        <v>0.532802</v>
+        <v>0.560262</v>
       </c>
       <c r="D108" t="n">
-        <v>0.663649</v>
+        <v>0.619275</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.67301</v>
+        <v>0.655915</v>
       </c>
       <c r="C109" t="n">
-        <v>0.553007</v>
+        <v>0.551448</v>
       </c>
       <c r="D109" t="n">
-        <v>0.624583</v>
+        <v>0.6341639999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.807223</v>
+        <v>0.794445</v>
       </c>
       <c r="C110" t="n">
-        <v>0.588977</v>
+        <v>0.636113</v>
       </c>
       <c r="D110" t="n">
-        <v>0.622325</v>
+        <v>0.622008</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.809168</v>
+        <v>0.79479</v>
       </c>
       <c r="C111" t="n">
-        <v>0.605896</v>
+        <v>0.619021</v>
       </c>
       <c r="D111" t="n">
-        <v>0.677328</v>
+        <v>0.628684</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.798768</v>
+        <v>0.7972590000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.615486</v>
+        <v>0.6244150000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.624291</v>
+        <v>0.624821</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.798441</v>
+        <v>0.803802</v>
       </c>
       <c r="C113" t="n">
-        <v>0.612538</v>
+        <v>0.6249479999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.634248</v>
+        <v>0.621336</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.785342</v>
+        <v>0.797801</v>
       </c>
       <c r="C114" t="n">
-        <v>0.602975</v>
+        <v>0.635506</v>
       </c>
       <c r="D114" t="n">
-        <v>0.615151</v>
+        <v>0.636356</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8118649999999999</v>
+        <v>0.743213</v>
       </c>
       <c r="C115" t="n">
-        <v>0.614484</v>
+        <v>0.607055</v>
       </c>
       <c r="D115" t="n">
-        <v>0.68965</v>
+        <v>0.61621</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.813289</v>
+        <v>0.7560480000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.667475</v>
+        <v>0.608031</v>
       </c>
       <c r="D116" t="n">
-        <v>0.630036</v>
+        <v>0.612452</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7993400000000001</v>
+        <v>0.7917689999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.676098</v>
+        <v>0.662444</v>
       </c>
       <c r="D117" t="n">
-        <v>0.663639</v>
+        <v>0.637715</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.827468</v>
+        <v>0.787988</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6448159999999999</v>
+        <v>0.64496</v>
       </c>
       <c r="D118" t="n">
-        <v>0.649394</v>
+        <v>0.6427619999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.798605</v>
+        <v>0.797192</v>
       </c>
       <c r="C119" t="n">
-        <v>0.64257</v>
+        <v>0.64367</v>
       </c>
       <c r="D119" t="n">
-        <v>0.649543</v>
+        <v>0.636593</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8055600000000001</v>
+        <v>0.797366</v>
       </c>
       <c r="C120" t="n">
-        <v>0.634666</v>
+        <v>0.661593</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6402139999999999</v>
+        <v>0.65367</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.811342</v>
+        <v>0.811078</v>
       </c>
       <c r="C121" t="n">
-        <v>0.630255</v>
+        <v>0.6677380000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.655227</v>
+        <v>0.661635</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.816217</v>
+        <v>0.802065</v>
       </c>
       <c r="C122" t="n">
-        <v>0.631511</v>
+        <v>0.660069</v>
       </c>
       <c r="D122" t="n">
-        <v>0.686098</v>
+        <v>0.668965</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8249339999999999</v>
+        <v>0.811795</v>
       </c>
       <c r="C123" t="n">
-        <v>0.646993</v>
+        <v>0.656087</v>
       </c>
       <c r="D123" t="n">
-        <v>0.744046</v>
+        <v>0.758006</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.04766</v>
+        <v>1.02875</v>
       </c>
       <c r="C124" t="n">
-        <v>0.743557</v>
+        <v>0.726556</v>
       </c>
       <c r="D124" t="n">
-        <v>0.779455</v>
+        <v>0.734757</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.05236</v>
+        <v>1.08415</v>
       </c>
       <c r="C125" t="n">
-        <v>0.75297</v>
+        <v>0.723231</v>
       </c>
       <c r="D125" t="n">
-        <v>0.737222</v>
+        <v>0.736938</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.04512</v>
+        <v>1.03707</v>
       </c>
       <c r="C126" t="n">
-        <v>0.74932</v>
+        <v>0.738988</v>
       </c>
       <c r="D126" t="n">
-        <v>0.738285</v>
+        <v>0.742533</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03377</v>
+        <v>1.05316</v>
       </c>
       <c r="C127" t="n">
-        <v>0.755657</v>
+        <v>0.743791</v>
       </c>
       <c r="D127" t="n">
-        <v>0.75384</v>
+        <v>0.7390949999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04203</v>
+        <v>1.00351</v>
       </c>
       <c r="C128" t="n">
-        <v>0.739943</v>
+        <v>0.731321</v>
       </c>
       <c r="D128" t="n">
-        <v>0.828978</v>
+        <v>0.7322689999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.13428</v>
+        <v>1.00826</v>
       </c>
       <c r="C129" t="n">
-        <v>0.754481</v>
+        <v>0.733586</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7468939999999999</v>
+        <v>0.740671</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.05958</v>
+        <v>1.04928</v>
       </c>
       <c r="C130" t="n">
-        <v>0.740079</v>
+        <v>0.7497239999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.747475</v>
+        <v>0.753121</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.04558</v>
+        <v>1.02057</v>
       </c>
       <c r="C131" t="n">
-        <v>0.766806</v>
+        <v>0.736939</v>
       </c>
       <c r="D131" t="n">
-        <v>0.743861</v>
+        <v>0.746104</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.03234</v>
+        <v>1.02227</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7433070000000001</v>
+        <v>0.7651520000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.76764</v>
+        <v>0.7521139999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04963</v>
+        <v>1.04158</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7489130000000001</v>
+        <v>0.745566</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7731479999999999</v>
+        <v>0.773309</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05976</v>
+        <v>1.0369</v>
       </c>
       <c r="C134" t="n">
-        <v>0.767506</v>
+        <v>0.770423</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7668199999999999</v>
+        <v>0.7669010000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.0588</v>
+        <v>1.03013</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7735379999999999</v>
+        <v>0.767115</v>
       </c>
       <c r="D135" t="n">
-        <v>0.782676</v>
+        <v>0.785296</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.03552</v>
+        <v>1.04876</v>
       </c>
       <c r="C136" t="n">
-        <v>0.781335</v>
+        <v>0.781633</v>
       </c>
       <c r="D136" t="n">
-        <v>0.795609</v>
+        <v>0.790776</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06196</v>
+        <v>1.04325</v>
       </c>
       <c r="C137" t="n">
-        <v>0.785829</v>
+        <v>0.789373</v>
       </c>
       <c r="D137" t="n">
-        <v>0.946986</v>
+        <v>0.925838</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.35501</v>
+        <v>1.30233</v>
       </c>
       <c r="C138" t="n">
-        <v>0.935536</v>
+        <v>0.938535</v>
       </c>
       <c r="D138" t="n">
-        <v>0.969144</v>
+        <v>0.9384940000000001</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.34997</v>
+        <v>1.3111</v>
       </c>
       <c r="C139" t="n">
-        <v>0.946815</v>
+        <v>0.931689</v>
       </c>
       <c r="D139" t="n">
-        <v>0.966071</v>
+        <v>0.914045</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.36451</v>
+        <v>1.30037</v>
       </c>
       <c r="C140" t="n">
-        <v>1.01126</v>
+        <v>0.929877</v>
       </c>
       <c r="D140" t="n">
-        <v>0.968287</v>
+        <v>0.922988</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.3737</v>
+        <v>1.29968</v>
       </c>
       <c r="C141" t="n">
-        <v>0.944304</v>
+        <v>0.921607</v>
       </c>
       <c r="D141" t="n">
-        <v>0.95565</v>
+        <v>0.95626</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.36869</v>
+        <v>1.31262</v>
       </c>
       <c r="C142" t="n">
-        <v>0.931527</v>
+        <v>0.927655</v>
       </c>
       <c r="D142" t="n">
-        <v>1.05909</v>
+        <v>0.959269</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.36232</v>
+        <v>1.32544</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9345290000000001</v>
+        <v>0.946954</v>
       </c>
       <c r="D143" t="n">
-        <v>0.953798</v>
+        <v>0.958575</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.119644</v>
+        <v>0.114703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10033</v>
+        <v>0.101063</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111707</v>
+        <v>0.106203</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.120695</v>
+        <v>0.114705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.102822</v>
+        <v>0.0994613</v>
       </c>
       <c r="D3" t="n">
-        <v>0.113749</v>
+        <v>0.109781</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.118717</v>
+        <v>0.120847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.106347</v>
+        <v>0.103327</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11267</v>
+        <v>0.114949</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.119071</v>
+        <v>0.128751</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10364</v>
+        <v>0.103876</v>
       </c>
       <c r="D5" t="n">
-        <v>0.111971</v>
+        <v>0.112659</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.118155</v>
+        <v>0.121733</v>
       </c>
       <c r="C6" t="n">
-        <v>0.104424</v>
+        <v>0.105368</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11256</v>
+        <v>0.115917</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.126047</v>
+        <v>0.119805</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101111</v>
+        <v>0.105178</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11465</v>
+        <v>0.116682</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120302</v>
+        <v>0.129727</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102505</v>
+        <v>0.111963</v>
       </c>
       <c r="D8" t="n">
-        <v>0.120819</v>
+        <v>0.12489</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119086</v>
+        <v>0.13106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.106217</v>
+        <v>0.111989</v>
       </c>
       <c r="D9" t="n">
-        <v>0.106319</v>
+        <v>0.117065</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123356</v>
+        <v>0.137009</v>
       </c>
       <c r="C10" t="n">
-        <v>0.097799</v>
+        <v>0.1029</v>
       </c>
       <c r="D10" t="n">
-        <v>0.105939</v>
+        <v>0.115118</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.124237</v>
+        <v>0.13411</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0979681</v>
+        <v>0.105414</v>
       </c>
       <c r="D11" t="n">
-        <v>0.107275</v>
+        <v>0.109116</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125744</v>
+        <v>0.132977</v>
       </c>
       <c r="C12" t="n">
-        <v>0.105201</v>
+        <v>0.104751</v>
       </c>
       <c r="D12" t="n">
-        <v>0.114789</v>
+        <v>0.114733</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.135967</v>
+        <v>0.134532</v>
       </c>
       <c r="C13" t="n">
-        <v>0.104988</v>
+        <v>0.106421</v>
       </c>
       <c r="D13" t="n">
-        <v>0.10991</v>
+        <v>0.111582</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.129932</v>
+        <v>0.126442</v>
       </c>
       <c r="C14" t="n">
-        <v>0.10611</v>
+        <v>0.103274</v>
       </c>
       <c r="D14" t="n">
-        <v>0.113777</v>
+        <v>0.111984</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129157</v>
+        <v>0.129362</v>
       </c>
       <c r="C15" t="n">
-        <v>0.104961</v>
+        <v>0.104266</v>
       </c>
       <c r="D15" t="n">
-        <v>0.114087</v>
+        <v>0.11141</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.137455</v>
+        <v>0.1314</v>
       </c>
       <c r="C16" t="n">
-        <v>0.106458</v>
+        <v>0.105938</v>
       </c>
       <c r="D16" t="n">
-        <v>0.110419</v>
+        <v>0.11403</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127291</v>
+        <v>0.129666</v>
       </c>
       <c r="C17" t="n">
-        <v>0.10467</v>
+        <v>0.105501</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115335</v>
+        <v>0.112819</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.131231</v>
+        <v>0.13339</v>
       </c>
       <c r="C18" t="n">
-        <v>0.10487</v>
+        <v>0.106102</v>
       </c>
       <c r="D18" t="n">
-        <v>0.115808</v>
+        <v>0.115433</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.128392</v>
+        <v>0.13015</v>
       </c>
       <c r="C19" t="n">
-        <v>0.107803</v>
+        <v>0.10529</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11652</v>
+        <v>0.113982</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.131003</v>
+        <v>0.131531</v>
       </c>
       <c r="C20" t="n">
-        <v>0.110575</v>
+        <v>0.10608</v>
       </c>
       <c r="D20" t="n">
-        <v>0.122935</v>
+        <v>0.117233</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.133769</v>
+        <v>0.130002</v>
       </c>
       <c r="C21" t="n">
-        <v>0.110069</v>
+        <v>0.110364</v>
       </c>
       <c r="D21" t="n">
-        <v>0.11893</v>
+        <v>0.12203</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.129183</v>
+        <v>0.135503</v>
       </c>
       <c r="C22" t="n">
-        <v>0.114012</v>
+        <v>0.111953</v>
       </c>
       <c r="D22" t="n">
-        <v>0.126137</v>
+        <v>0.127875</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.134871</v>
+        <v>0.133586</v>
       </c>
       <c r="C23" t="n">
-        <v>0.117642</v>
+        <v>0.117908</v>
       </c>
       <c r="D23" t="n">
-        <v>0.118628</v>
+        <v>0.116048</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.140717</v>
+        <v>0.138854</v>
       </c>
       <c r="C24" t="n">
-        <v>0.10688</v>
+        <v>0.105392</v>
       </c>
       <c r="D24" t="n">
-        <v>0.114541</v>
+        <v>0.115657</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13902</v>
+        <v>0.140223</v>
       </c>
       <c r="C25" t="n">
-        <v>0.106196</v>
+        <v>0.107756</v>
       </c>
       <c r="D25" t="n">
-        <v>0.114166</v>
+        <v>0.11574</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.137481</v>
+        <v>0.14</v>
       </c>
       <c r="C26" t="n">
-        <v>0.107485</v>
+        <v>0.106825</v>
       </c>
       <c r="D26" t="n">
-        <v>0.119503</v>
+        <v>0.116396</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.13999</v>
+        <v>0.139404</v>
       </c>
       <c r="C27" t="n">
-        <v>0.106971</v>
+        <v>0.110673</v>
       </c>
       <c r="D27" t="n">
-        <v>0.12112</v>
+        <v>0.116333</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138848</v>
+        <v>0.138544</v>
       </c>
       <c r="C28" t="n">
-        <v>0.110426</v>
+        <v>0.108248</v>
       </c>
       <c r="D28" t="n">
-        <v>0.118616</v>
+        <v>0.11767</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.140724</v>
+        <v>0.142752</v>
       </c>
       <c r="C29" t="n">
-        <v>0.107893</v>
+        <v>0.110461</v>
       </c>
       <c r="D29" t="n">
-        <v>0.11655</v>
+        <v>0.117477</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.140023</v>
+        <v>0.145905</v>
       </c>
       <c r="C30" t="n">
-        <v>0.109338</v>
+        <v>0.108078</v>
       </c>
       <c r="D30" t="n">
-        <v>0.122356</v>
+        <v>0.120576</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.146633</v>
+        <v>0.141107</v>
       </c>
       <c r="C31" t="n">
-        <v>0.111755</v>
+        <v>0.113259</v>
       </c>
       <c r="D31" t="n">
-        <v>0.121084</v>
+        <v>0.118015</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141767</v>
+        <v>0.141307</v>
       </c>
       <c r="C32" t="n">
-        <v>0.111682</v>
+        <v>0.112647</v>
       </c>
       <c r="D32" t="n">
-        <v>0.12331</v>
+        <v>0.12166</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.141924</v>
+        <v>0.142317</v>
       </c>
       <c r="C33" t="n">
-        <v>0.109539</v>
+        <v>0.111971</v>
       </c>
       <c r="D33" t="n">
-        <v>0.116939</v>
+        <v>0.124266</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.134772</v>
+        <v>0.140149</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11282</v>
+        <v>0.111638</v>
       </c>
       <c r="D34" t="n">
-        <v>0.123795</v>
+        <v>0.125152</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.13662</v>
+        <v>0.140256</v>
       </c>
       <c r="C35" t="n">
-        <v>0.111837</v>
+        <v>0.114917</v>
       </c>
       <c r="D35" t="n">
-        <v>0.124897</v>
+        <v>0.129522</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.139102</v>
+        <v>0.144685</v>
       </c>
       <c r="C36" t="n">
-        <v>0.114187</v>
+        <v>0.121472</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134559</v>
+        <v>0.131065</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146634</v>
+        <v>0.145133</v>
       </c>
       <c r="C37" t="n">
-        <v>0.117105</v>
+        <v>0.123425</v>
       </c>
       <c r="D37" t="n">
-        <v>0.126636</v>
+        <v>0.127521</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162096</v>
+        <v>0.164526</v>
       </c>
       <c r="C38" t="n">
-        <v>0.11582</v>
+        <v>0.120422</v>
       </c>
       <c r="D38" t="n">
-        <v>0.127155</v>
+        <v>0.129302</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.16478</v>
+        <v>0.167626</v>
       </c>
       <c r="C39" t="n">
-        <v>0.118896</v>
+        <v>0.12442</v>
       </c>
       <c r="D39" t="n">
-        <v>0.134453</v>
+        <v>0.127041</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.157361</v>
+        <v>0.164585</v>
       </c>
       <c r="C40" t="n">
-        <v>0.116901</v>
+        <v>0.120869</v>
       </c>
       <c r="D40" t="n">
-        <v>0.134428</v>
+        <v>0.127235</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1607</v>
+        <v>0.166718</v>
       </c>
       <c r="C41" t="n">
-        <v>0.11751</v>
+        <v>0.124489</v>
       </c>
       <c r="D41" t="n">
-        <v>0.127861</v>
+        <v>0.132205</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.15697</v>
+        <v>0.164188</v>
       </c>
       <c r="C42" t="n">
-        <v>0.121902</v>
+        <v>0.122613</v>
       </c>
       <c r="D42" t="n">
-        <v>0.129163</v>
+        <v>0.127579</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.159263</v>
+        <v>0.168177</v>
       </c>
       <c r="C43" t="n">
-        <v>0.12007</v>
+        <v>0.124307</v>
       </c>
       <c r="D43" t="n">
-        <v>0.129023</v>
+        <v>0.130471</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.161593</v>
+        <v>0.16609</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125504</v>
+        <v>0.123214</v>
       </c>
       <c r="D44" t="n">
-        <v>0.130821</v>
+        <v>0.130269</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.157708</v>
+        <v>0.166032</v>
       </c>
       <c r="C45" t="n">
-        <v>0.133471</v>
+        <v>0.12757</v>
       </c>
       <c r="D45" t="n">
-        <v>0.133865</v>
+        <v>0.130804</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.164565</v>
+        <v>0.166396</v>
       </c>
       <c r="C46" t="n">
-        <v>0.122665</v>
+        <v>0.130419</v>
       </c>
       <c r="D46" t="n">
-        <v>0.138355</v>
+        <v>0.129274</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.162442</v>
+        <v>0.159653</v>
       </c>
       <c r="C47" t="n">
-        <v>0.126012</v>
+        <v>0.127063</v>
       </c>
       <c r="D47" t="n">
-        <v>0.141618</v>
+        <v>0.13243</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.164886</v>
+        <v>0.168352</v>
       </c>
       <c r="C48" t="n">
-        <v>0.125545</v>
+        <v>0.127701</v>
       </c>
       <c r="D48" t="n">
-        <v>0.141036</v>
+        <v>0.132773</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.170041</v>
+        <v>0.166623</v>
       </c>
       <c r="C49" t="n">
-        <v>0.129659</v>
+        <v>0.129158</v>
       </c>
       <c r="D49" t="n">
-        <v>0.138088</v>
+        <v>0.136449</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.163353</v>
+        <v>0.164262</v>
       </c>
       <c r="C50" t="n">
-        <v>0.131128</v>
+        <v>0.136919</v>
       </c>
       <c r="D50" t="n">
-        <v>0.145616</v>
+        <v>0.141518</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172128</v>
+        <v>0.17513</v>
       </c>
       <c r="C51" t="n">
-        <v>0.137551</v>
+        <v>0.137626</v>
       </c>
       <c r="D51" t="n">
-        <v>0.205228</v>
+        <v>0.201616</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.172963</v>
+        <v>0.174713</v>
       </c>
       <c r="C52" t="n">
-        <v>0.150741</v>
+        <v>0.147039</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1923</v>
+        <v>0.20451</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241916</v>
+        <v>0.262288</v>
       </c>
       <c r="C53" t="n">
-        <v>0.188102</v>
+        <v>0.199326</v>
       </c>
       <c r="D53" t="n">
-        <v>0.194513</v>
+        <v>0.204619</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.254168</v>
+        <v>0.265621</v>
       </c>
       <c r="C54" t="n">
-        <v>0.200505</v>
+        <v>0.20168</v>
       </c>
       <c r="D54" t="n">
-        <v>0.207989</v>
+        <v>0.206934</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.265355</v>
+        <v>0.270959</v>
       </c>
       <c r="C55" t="n">
-        <v>0.203537</v>
+        <v>0.201403</v>
       </c>
       <c r="D55" t="n">
-        <v>0.207977</v>
+        <v>0.206332</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.256175</v>
+        <v>0.261055</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200741</v>
+        <v>0.198952</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197241</v>
+        <v>0.201139</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.256052</v>
+        <v>0.253419</v>
       </c>
       <c r="C57" t="n">
-        <v>0.190062</v>
+        <v>0.198148</v>
       </c>
       <c r="D57" t="n">
-        <v>0.208194</v>
+        <v>0.203003</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.245193</v>
+        <v>0.270844</v>
       </c>
       <c r="C58" t="n">
-        <v>0.198606</v>
+        <v>0.209897</v>
       </c>
       <c r="D58" t="n">
-        <v>0.198452</v>
+        <v>0.210545</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.255708</v>
+        <v>0.265108</v>
       </c>
       <c r="C59" t="n">
-        <v>0.195563</v>
+        <v>0.205783</v>
       </c>
       <c r="D59" t="n">
-        <v>0.202371</v>
+        <v>0.205907</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.25573</v>
+        <v>0.267615</v>
       </c>
       <c r="C60" t="n">
-        <v>0.197975</v>
+        <v>0.198533</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2038</v>
+        <v>0.208623</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257766</v>
+        <v>0.264183</v>
       </c>
       <c r="C61" t="n">
-        <v>0.201126</v>
+        <v>0.208746</v>
       </c>
       <c r="D61" t="n">
-        <v>0.203692</v>
+        <v>0.211026</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256126</v>
+        <v>0.267778</v>
       </c>
       <c r="C62" t="n">
-        <v>0.204793</v>
+        <v>0.203561</v>
       </c>
       <c r="D62" t="n">
-        <v>0.207511</v>
+        <v>0.214024</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.258024</v>
+        <v>0.262806</v>
       </c>
       <c r="C63" t="n">
-        <v>0.209327</v>
+        <v>0.209058</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213446</v>
+        <v>0.216727</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.266532</v>
+        <v>0.264849</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206563</v>
+        <v>0.208306</v>
       </c>
       <c r="D64" t="n">
-        <v>0.216283</v>
+        <v>0.222178</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.267217</v>
+        <v>0.266076</v>
       </c>
       <c r="C65" t="n">
-        <v>0.217369</v>
+        <v>0.213826</v>
       </c>
       <c r="D65" t="n">
-        <v>0.220359</v>
+        <v>0.223464</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269661</v>
+        <v>0.274145</v>
       </c>
       <c r="C66" t="n">
-        <v>0.224275</v>
+        <v>0.222324</v>
       </c>
       <c r="D66" t="n">
-        <v>0.288682</v>
+        <v>0.285827</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.382603</v>
+        <v>0.400425</v>
       </c>
       <c r="C67" t="n">
-        <v>0.306814</v>
+        <v>0.316452</v>
       </c>
       <c r="D67" t="n">
-        <v>0.286872</v>
+        <v>0.298434</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.394314</v>
+        <v>0.406501</v>
       </c>
       <c r="C68" t="n">
-        <v>0.310016</v>
+        <v>0.317335</v>
       </c>
       <c r="D68" t="n">
-        <v>0.288103</v>
+        <v>0.302347</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.382133</v>
+        <v>0.409145</v>
       </c>
       <c r="C69" t="n">
-        <v>0.304645</v>
+        <v>0.311669</v>
       </c>
       <c r="D69" t="n">
-        <v>0.29911</v>
+        <v>0.300435</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.385516</v>
+        <v>0.419382</v>
       </c>
       <c r="C70" t="n">
-        <v>0.313242</v>
+        <v>0.325841</v>
       </c>
       <c r="D70" t="n">
-        <v>0.295302</v>
+        <v>0.299427</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.392232</v>
+        <v>0.429634</v>
       </c>
       <c r="C71" t="n">
-        <v>0.311259</v>
+        <v>0.316628</v>
       </c>
       <c r="D71" t="n">
-        <v>0.283172</v>
+        <v>0.313878</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.399585</v>
+        <v>0.409463</v>
       </c>
       <c r="C72" t="n">
-        <v>0.319616</v>
+        <v>0.322047</v>
       </c>
       <c r="D72" t="n">
-        <v>0.303858</v>
+        <v>0.305756</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.401727</v>
+        <v>0.414172</v>
       </c>
       <c r="C73" t="n">
-        <v>0.299778</v>
+        <v>0.315305</v>
       </c>
       <c r="D73" t="n">
-        <v>0.298901</v>
+        <v>0.296361</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.373071</v>
+        <v>0.39356</v>
       </c>
       <c r="C74" t="n">
-        <v>0.322115</v>
+        <v>0.314174</v>
       </c>
       <c r="D74" t="n">
-        <v>0.309222</v>
+        <v>0.312461</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.406651</v>
+        <v>0.427477</v>
       </c>
       <c r="C75" t="n">
-        <v>0.323622</v>
+        <v>0.324037</v>
       </c>
       <c r="D75" t="n">
-        <v>0.314678</v>
+        <v>0.303484</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.391929</v>
+        <v>0.415325</v>
       </c>
       <c r="C76" t="n">
-        <v>0.318552</v>
+        <v>0.330288</v>
       </c>
       <c r="D76" t="n">
-        <v>0.303575</v>
+        <v>0.318969</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.417122</v>
+        <v>0.411948</v>
       </c>
       <c r="C77" t="n">
-        <v>0.303836</v>
+        <v>0.329173</v>
       </c>
       <c r="D77" t="n">
-        <v>0.310989</v>
+        <v>0.299627</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.391892</v>
+        <v>0.412942</v>
       </c>
       <c r="C78" t="n">
-        <v>0.311579</v>
+        <v>0.32069</v>
       </c>
       <c r="D78" t="n">
-        <v>0.30147</v>
+        <v>0.303441</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.397492</v>
+        <v>0.4212</v>
       </c>
       <c r="C79" t="n">
-        <v>0.326002</v>
+        <v>0.330417</v>
       </c>
       <c r="D79" t="n">
-        <v>0.315985</v>
+        <v>0.331741</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.402701</v>
+        <v>0.417524</v>
       </c>
       <c r="C80" t="n">
-        <v>0.335531</v>
+        <v>0.333561</v>
       </c>
       <c r="D80" t="n">
-        <v>0.410378</v>
+        <v>0.421057</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.524851</v>
+        <v>0.54789</v>
       </c>
       <c r="C81" t="n">
-        <v>0.40442</v>
+        <v>0.430339</v>
       </c>
       <c r="D81" t="n">
-        <v>0.414032</v>
+        <v>0.427526</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.537628</v>
+        <v>0.549464</v>
       </c>
       <c r="C82" t="n">
-        <v>0.429126</v>
+        <v>0.417842</v>
       </c>
       <c r="D82" t="n">
-        <v>0.431258</v>
+        <v>0.425396</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.539171</v>
+        <v>0.5689419999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.42915</v>
+        <v>0.422844</v>
       </c>
       <c r="D83" t="n">
-        <v>0.430218</v>
+        <v>0.418279</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.564209</v>
+        <v>0.561045</v>
       </c>
       <c r="C84" t="n">
-        <v>0.416053</v>
+        <v>0.428705</v>
       </c>
       <c r="D84" t="n">
-        <v>0.445149</v>
+        <v>0.428418</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.534907</v>
+        <v>0.546098</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4332</v>
+        <v>0.432277</v>
       </c>
       <c r="D85" t="n">
-        <v>0.413252</v>
+        <v>0.434651</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.538362</v>
+        <v>0.5610039999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.431832</v>
+        <v>0.425543</v>
       </c>
       <c r="D86" t="n">
-        <v>0.41971</v>
+        <v>0.437368</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.532672</v>
+        <v>0.54534</v>
       </c>
       <c r="C87" t="n">
-        <v>0.431735</v>
+        <v>0.432982</v>
       </c>
       <c r="D87" t="n">
-        <v>0.426022</v>
+        <v>0.43981</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.539178</v>
+        <v>0.564456</v>
       </c>
       <c r="C88" t="n">
-        <v>0.437329</v>
+        <v>0.429118</v>
       </c>
       <c r="D88" t="n">
-        <v>0.427936</v>
+        <v>0.430745</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.550166</v>
+        <v>0.5403790000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.418476</v>
+        <v>0.442772</v>
       </c>
       <c r="D89" t="n">
-        <v>0.423572</v>
+        <v>0.436038</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.532276</v>
+        <v>0.560321</v>
       </c>
       <c r="C90" t="n">
-        <v>0.424172</v>
+        <v>0.441992</v>
       </c>
       <c r="D90" t="n">
-        <v>0.426491</v>
+        <v>0.442235</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5374370000000001</v>
+        <v>0.553018</v>
       </c>
       <c r="C91" t="n">
-        <v>0.423171</v>
+        <v>0.448184</v>
       </c>
       <c r="D91" t="n">
-        <v>0.429942</v>
+        <v>0.446637</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.562549</v>
+        <v>0.562311</v>
       </c>
       <c r="C92" t="n">
-        <v>0.429276</v>
+        <v>0.452802</v>
       </c>
       <c r="D92" t="n">
-        <v>0.441155</v>
+        <v>0.44158</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.561876</v>
+        <v>0.564064</v>
       </c>
       <c r="C93" t="n">
-        <v>0.435382</v>
+        <v>0.445326</v>
       </c>
       <c r="D93" t="n">
-        <v>0.444941</v>
+        <v>0.460572</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.554386</v>
+        <v>0.562241</v>
       </c>
       <c r="C94" t="n">
-        <v>0.448639</v>
+        <v>0.443519</v>
       </c>
       <c r="D94" t="n">
-        <v>0.505089</v>
+        <v>0.511669</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.653332</v>
+        <v>0.645416</v>
       </c>
       <c r="C95" t="n">
-        <v>0.506652</v>
+        <v>0.49964</v>
       </c>
       <c r="D95" t="n">
-        <v>0.519486</v>
+        <v>0.523124</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.637995</v>
+        <v>0.6491</v>
       </c>
       <c r="C96" t="n">
-        <v>0.500186</v>
+        <v>0.508213</v>
       </c>
       <c r="D96" t="n">
-        <v>0.512282</v>
+        <v>0.5265339999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.680156</v>
+        <v>0.649052</v>
       </c>
       <c r="C97" t="n">
-        <v>0.502663</v>
+        <v>0.501881</v>
       </c>
       <c r="D97" t="n">
-        <v>0.502973</v>
+        <v>0.511979</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.63691</v>
+        <v>0.647406</v>
       </c>
       <c r="C98" t="n">
-        <v>0.499339</v>
+        <v>0.511576</v>
       </c>
       <c r="D98" t="n">
-        <v>0.511339</v>
+        <v>0.5178970000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.606487</v>
+        <v>0.644809</v>
       </c>
       <c r="C99" t="n">
-        <v>0.51231</v>
+        <v>0.50168</v>
       </c>
       <c r="D99" t="n">
-        <v>0.50423</v>
+        <v>0.5291670000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6477850000000001</v>
+        <v>0.640032</v>
       </c>
       <c r="C100" t="n">
-        <v>0.513545</v>
+        <v>0.524273</v>
       </c>
       <c r="D100" t="n">
-        <v>0.523755</v>
+        <v>0.521996</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.654962</v>
+        <v>0.641243</v>
       </c>
       <c r="C101" t="n">
-        <v>0.516178</v>
+        <v>0.517687</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5188700000000001</v>
+        <v>0.5349739999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.649381</v>
+        <v>0.648824</v>
       </c>
       <c r="C102" t="n">
-        <v>0.523861</v>
+        <v>0.527184</v>
       </c>
       <c r="D102" t="n">
-        <v>0.53677</v>
+        <v>0.531415</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6528080000000001</v>
+        <v>0.638415</v>
       </c>
       <c r="C103" t="n">
-        <v>0.52824</v>
+        <v>0.507404</v>
       </c>
       <c r="D103" t="n">
-        <v>0.517107</v>
+        <v>0.526793</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.639421</v>
+        <v>0.648823</v>
       </c>
       <c r="C104" t="n">
-        <v>0.529201</v>
+        <v>0.522306</v>
       </c>
       <c r="D104" t="n">
-        <v>0.539928</v>
+        <v>0.538378</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.641436</v>
+        <v>0.6429240000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.52495</v>
+        <v>0.524976</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5423789999999999</v>
+        <v>0.533984</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.644644</v>
+        <v>0.643176</v>
       </c>
       <c r="C106" t="n">
-        <v>0.524508</v>
+        <v>0.542002</v>
       </c>
       <c r="D106" t="n">
-        <v>0.548015</v>
+        <v>0.545539</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.666234</v>
+        <v>0.652799</v>
       </c>
       <c r="C107" t="n">
-        <v>0.529056</v>
+        <v>0.526163</v>
       </c>
       <c r="D107" t="n">
-        <v>0.548028</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.645087</v>
+        <v>0.6433</v>
       </c>
       <c r="C108" t="n">
-        <v>0.560262</v>
+        <v>0.5383520000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.619275</v>
+        <v>0.615383</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.655915</v>
+        <v>0.7271919999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.551448</v>
+        <v>0.575037</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6341639999999999</v>
+        <v>0.618859</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.794445</v>
+        <v>0.795024</v>
       </c>
       <c r="C110" t="n">
-        <v>0.636113</v>
+        <v>0.5896439999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.622008</v>
+        <v>0.610972</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.79479</v>
+        <v>0.796659</v>
       </c>
       <c r="C111" t="n">
-        <v>0.619021</v>
+        <v>0.6118980000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.628684</v>
+        <v>0.664628</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7972590000000001</v>
+        <v>0.805161</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6244150000000001</v>
+        <v>0.602127</v>
       </c>
       <c r="D112" t="n">
-        <v>0.624821</v>
+        <v>0.61963</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.803802</v>
+        <v>0.792613</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6249479999999999</v>
+        <v>0.60033</v>
       </c>
       <c r="D113" t="n">
-        <v>0.621336</v>
+        <v>0.629659</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.797801</v>
+        <v>0.9212129999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.635506</v>
+        <v>0.616941</v>
       </c>
       <c r="D114" t="n">
-        <v>0.636356</v>
+        <v>0.674951</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.743213</v>
+        <v>0.853756</v>
       </c>
       <c r="C115" t="n">
-        <v>0.607055</v>
+        <v>0.645689</v>
       </c>
       <c r="D115" t="n">
-        <v>0.61621</v>
+        <v>0.631748</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.7560480000000001</v>
+        <v>0.808661</v>
       </c>
       <c r="C116" t="n">
-        <v>0.608031</v>
+        <v>0.63863</v>
       </c>
       <c r="D116" t="n">
-        <v>0.612452</v>
+        <v>0.656338</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7917689999999999</v>
+        <v>0.783564</v>
       </c>
       <c r="C117" t="n">
-        <v>0.662444</v>
+        <v>0.618801</v>
       </c>
       <c r="D117" t="n">
-        <v>0.637715</v>
+        <v>0.621382</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.787988</v>
+        <v>0.817963</v>
       </c>
       <c r="C118" t="n">
-        <v>0.64496</v>
+        <v>0.63146</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6427619999999999</v>
+        <v>0.634545</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.797192</v>
+        <v>0.789039</v>
       </c>
       <c r="C119" t="n">
-        <v>0.64367</v>
+        <v>0.620922</v>
       </c>
       <c r="D119" t="n">
-        <v>0.636593</v>
+        <v>0.636599</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.797366</v>
+        <v>0.782985</v>
       </c>
       <c r="C120" t="n">
-        <v>0.661593</v>
+        <v>0.639467</v>
       </c>
       <c r="D120" t="n">
-        <v>0.65367</v>
+        <v>0.655035</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.811078</v>
+        <v>0.804678</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6677380000000001</v>
+        <v>0.636579</v>
       </c>
       <c r="D121" t="n">
-        <v>0.661635</v>
+        <v>0.663019</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.802065</v>
+        <v>0.805451</v>
       </c>
       <c r="C122" t="n">
-        <v>0.660069</v>
+        <v>0.677668</v>
       </c>
       <c r="D122" t="n">
-        <v>0.668965</v>
+        <v>0.721585</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.811795</v>
+        <v>0.950362</v>
       </c>
       <c r="C123" t="n">
-        <v>0.656087</v>
+        <v>0.6331560000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.758006</v>
+        <v>0.73914</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.02875</v>
+        <v>1.0504</v>
       </c>
       <c r="C124" t="n">
-        <v>0.726556</v>
+        <v>0.721411</v>
       </c>
       <c r="D124" t="n">
-        <v>0.734757</v>
+        <v>0.762269</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.08415</v>
+        <v>1.02477</v>
       </c>
       <c r="C125" t="n">
-        <v>0.723231</v>
+        <v>0.752409</v>
       </c>
       <c r="D125" t="n">
-        <v>0.736938</v>
+        <v>0.7551020000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03707</v>
+        <v>1.02364</v>
       </c>
       <c r="C126" t="n">
-        <v>0.738988</v>
+        <v>0.746787</v>
       </c>
       <c r="D126" t="n">
-        <v>0.742533</v>
+        <v>0.734833</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.05316</v>
+        <v>1.01908</v>
       </c>
       <c r="C127" t="n">
-        <v>0.743791</v>
+        <v>0.747008</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7390949999999999</v>
+        <v>0.751819</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.00351</v>
+        <v>1.04491</v>
       </c>
       <c r="C128" t="n">
-        <v>0.731321</v>
+        <v>0.743933</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7322689999999999</v>
+        <v>0.762622</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.00826</v>
+        <v>1.02152</v>
       </c>
       <c r="C129" t="n">
-        <v>0.733586</v>
+        <v>0.736693</v>
       </c>
       <c r="D129" t="n">
-        <v>0.740671</v>
+        <v>0.760506</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.04928</v>
+        <v>1.05538</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7497239999999999</v>
+        <v>0.752741</v>
       </c>
       <c r="D130" t="n">
-        <v>0.753121</v>
+        <v>0.751657</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.02057</v>
+        <v>1.06182</v>
       </c>
       <c r="C131" t="n">
-        <v>0.736939</v>
+        <v>0.745733</v>
       </c>
       <c r="D131" t="n">
-        <v>0.746104</v>
+        <v>0.77442</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.02227</v>
+        <v>1.02736</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7651520000000001</v>
+        <v>0.748632</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7521139999999999</v>
+        <v>0.749667</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04158</v>
+        <v>1.01836</v>
       </c>
       <c r="C133" t="n">
-        <v>0.745566</v>
+        <v>0.763763</v>
       </c>
       <c r="D133" t="n">
-        <v>0.773309</v>
+        <v>0.7660670000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.0369</v>
+        <v>1.05213</v>
       </c>
       <c r="C134" t="n">
-        <v>0.770423</v>
+        <v>0.748919</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7669010000000001</v>
+        <v>0.769868</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.03013</v>
+        <v>1.04047</v>
       </c>
       <c r="C135" t="n">
-        <v>0.767115</v>
+        <v>0.771802</v>
       </c>
       <c r="D135" t="n">
-        <v>0.785296</v>
+        <v>0.773877</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.04876</v>
+        <v>1.04071</v>
       </c>
       <c r="C136" t="n">
-        <v>0.781633</v>
+        <v>0.768497</v>
       </c>
       <c r="D136" t="n">
-        <v>0.790776</v>
+        <v>0.796857</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.04325</v>
+        <v>1.06129</v>
       </c>
       <c r="C137" t="n">
-        <v>0.789373</v>
+        <v>0.790758</v>
       </c>
       <c r="D137" t="n">
-        <v>0.925838</v>
+        <v>0.93784</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30233</v>
+        <v>1.33377</v>
       </c>
       <c r="C138" t="n">
-        <v>0.938535</v>
+        <v>0.937905</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9384940000000001</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.3111</v>
+        <v>1.32726</v>
       </c>
       <c r="C139" t="n">
-        <v>0.931689</v>
+        <v>0.9394980000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.914045</v>
+        <v>0.962502</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.30037</v>
+        <v>1.30489</v>
       </c>
       <c r="C140" t="n">
-        <v>0.929877</v>
+        <v>0.935644</v>
       </c>
       <c r="D140" t="n">
-        <v>0.922988</v>
+        <v>0.936671</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.29968</v>
+        <v>1.32547</v>
       </c>
       <c r="C141" t="n">
-        <v>0.921607</v>
+        <v>0.937992</v>
       </c>
       <c r="D141" t="n">
-        <v>0.95626</v>
+        <v>0.957335</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.31262</v>
+        <v>1.32959</v>
       </c>
       <c r="C142" t="n">
-        <v>0.927655</v>
+        <v>0.949659</v>
       </c>
       <c r="D142" t="n">
-        <v>0.959269</v>
+        <v>0.962823</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32544</v>
+        <v>1.32697</v>
       </c>
       <c r="C143" t="n">
-        <v>0.946954</v>
+        <v>0.955019</v>
       </c>
       <c r="D143" t="n">
-        <v>0.958575</v>
+        <v>0.987273</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.114703</v>
+        <v>0.117427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.101063</v>
+        <v>0.101168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.106203</v>
+        <v>0.111042</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.114705</v>
+        <v>0.117825</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0994613</v>
+        <v>0.09926500000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109781</v>
+        <v>0.106683</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120847</v>
+        <v>0.118051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.103327</v>
+        <v>0.0989776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.114949</v>
+        <v>0.110853</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.128751</v>
+        <v>0.122925</v>
       </c>
       <c r="C5" t="n">
-        <v>0.103876</v>
+        <v>0.10349</v>
       </c>
       <c r="D5" t="n">
-        <v>0.112659</v>
+        <v>0.107656</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.121733</v>
+        <v>0.123499</v>
       </c>
       <c r="C6" t="n">
-        <v>0.105368</v>
+        <v>0.100154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.115917</v>
+        <v>0.114179</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.119805</v>
+        <v>0.127829</v>
       </c>
       <c r="C7" t="n">
-        <v>0.105178</v>
+        <v>0.10345</v>
       </c>
       <c r="D7" t="n">
-        <v>0.116682</v>
+        <v>0.116683</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.129727</v>
+        <v>0.125517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111963</v>
+        <v>0.107225</v>
       </c>
       <c r="D8" t="n">
-        <v>0.12489</v>
+        <v>0.11645</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.13106</v>
+        <v>0.127622</v>
       </c>
       <c r="C9" t="n">
-        <v>0.111989</v>
+        <v>0.110186</v>
       </c>
       <c r="D9" t="n">
-        <v>0.117065</v>
+        <v>0.114052</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.137009</v>
+        <v>0.13676</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1029</v>
+        <v>0.108164</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115118</v>
+        <v>0.11453</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.13411</v>
+        <v>0.134478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.105414</v>
+        <v>0.106213</v>
       </c>
       <c r="D11" t="n">
-        <v>0.109116</v>
+        <v>0.113044</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.132977</v>
+        <v>0.134922</v>
       </c>
       <c r="C12" t="n">
-        <v>0.104751</v>
+        <v>0.10548</v>
       </c>
       <c r="D12" t="n">
-        <v>0.114733</v>
+        <v>0.112055</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.134532</v>
+        <v>0.134651</v>
       </c>
       <c r="C13" t="n">
-        <v>0.106421</v>
+        <v>0.107729</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111582</v>
+        <v>0.11318</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.126442</v>
+        <v>0.130498</v>
       </c>
       <c r="C14" t="n">
-        <v>0.103274</v>
+        <v>0.105708</v>
       </c>
       <c r="D14" t="n">
-        <v>0.111984</v>
+        <v>0.1106</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129362</v>
+        <v>0.132266</v>
       </c>
       <c r="C15" t="n">
-        <v>0.104266</v>
+        <v>0.107501</v>
       </c>
       <c r="D15" t="n">
-        <v>0.11141</v>
+        <v>0.114745</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1314</v>
+        <v>0.13123</v>
       </c>
       <c r="C16" t="n">
-        <v>0.105938</v>
+        <v>0.107621</v>
       </c>
       <c r="D16" t="n">
-        <v>0.11403</v>
+        <v>0.110625</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129666</v>
+        <v>0.135671</v>
       </c>
       <c r="C17" t="n">
-        <v>0.105501</v>
+        <v>0.107373</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112819</v>
+        <v>0.114087</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.13339</v>
+        <v>0.133828</v>
       </c>
       <c r="C18" t="n">
-        <v>0.106102</v>
+        <v>0.109022</v>
       </c>
       <c r="D18" t="n">
-        <v>0.115433</v>
+        <v>0.114291</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13015</v>
+        <v>0.130496</v>
       </c>
       <c r="C19" t="n">
-        <v>0.10529</v>
+        <v>0.106173</v>
       </c>
       <c r="D19" t="n">
-        <v>0.113982</v>
+        <v>0.115985</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.131531</v>
+        <v>0.127328</v>
       </c>
       <c r="C20" t="n">
-        <v>0.10608</v>
+        <v>0.106185</v>
       </c>
       <c r="D20" t="n">
-        <v>0.117233</v>
+        <v>0.114847</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130002</v>
+        <v>0.129949</v>
       </c>
       <c r="C21" t="n">
-        <v>0.110364</v>
+        <v>0.109628</v>
       </c>
       <c r="D21" t="n">
-        <v>0.12203</v>
+        <v>0.11862</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.135503</v>
+        <v>0.131892</v>
       </c>
       <c r="C22" t="n">
-        <v>0.111953</v>
+        <v>0.114685</v>
       </c>
       <c r="D22" t="n">
-        <v>0.127875</v>
+        <v>0.124951</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133586</v>
+        <v>0.135655</v>
       </c>
       <c r="C23" t="n">
-        <v>0.117908</v>
+        <v>0.117537</v>
       </c>
       <c r="D23" t="n">
-        <v>0.116048</v>
+        <v>0.114688</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.138854</v>
+        <v>0.145005</v>
       </c>
       <c r="C24" t="n">
-        <v>0.105392</v>
+        <v>0.111391</v>
       </c>
       <c r="D24" t="n">
-        <v>0.115657</v>
+        <v>0.11562</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.140223</v>
+        <v>0.141021</v>
       </c>
       <c r="C25" t="n">
-        <v>0.107756</v>
+        <v>0.10787</v>
       </c>
       <c r="D25" t="n">
-        <v>0.11574</v>
+        <v>0.115294</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.14</v>
+        <v>0.138032</v>
       </c>
       <c r="C26" t="n">
-        <v>0.106825</v>
+        <v>0.105529</v>
       </c>
       <c r="D26" t="n">
-        <v>0.116396</v>
+        <v>0.117059</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.139404</v>
+        <v>0.139533</v>
       </c>
       <c r="C27" t="n">
-        <v>0.110673</v>
+        <v>0.105569</v>
       </c>
       <c r="D27" t="n">
-        <v>0.116333</v>
+        <v>0.115848</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138544</v>
+        <v>0.138004</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108248</v>
+        <v>0.108135</v>
       </c>
       <c r="D28" t="n">
-        <v>0.11767</v>
+        <v>0.116466</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.142752</v>
+        <v>0.138312</v>
       </c>
       <c r="C29" t="n">
-        <v>0.110461</v>
+        <v>0.111017</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117477</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.145905</v>
+        <v>0.139221</v>
       </c>
       <c r="C30" t="n">
-        <v>0.108078</v>
+        <v>0.111195</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120576</v>
+        <v>0.115446</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141107</v>
+        <v>0.138462</v>
       </c>
       <c r="C31" t="n">
-        <v>0.113259</v>
+        <v>0.110884</v>
       </c>
       <c r="D31" t="n">
-        <v>0.118015</v>
+        <v>0.117469</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141307</v>
+        <v>0.143063</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112647</v>
+        <v>0.114014</v>
       </c>
       <c r="D32" t="n">
-        <v>0.12166</v>
+        <v>0.118315</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.142317</v>
+        <v>0.14013</v>
       </c>
       <c r="C33" t="n">
-        <v>0.111971</v>
+        <v>0.110469</v>
       </c>
       <c r="D33" t="n">
-        <v>0.124266</v>
+        <v>0.121465</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.140149</v>
+        <v>0.140824</v>
       </c>
       <c r="C34" t="n">
-        <v>0.111638</v>
+        <v>0.116015</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125152</v>
+        <v>0.123437</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.140256</v>
+        <v>0.144837</v>
       </c>
       <c r="C35" t="n">
-        <v>0.114917</v>
+        <v>0.114913</v>
       </c>
       <c r="D35" t="n">
-        <v>0.129522</v>
+        <v>0.128587</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.144685</v>
+        <v>0.143855</v>
       </c>
       <c r="C36" t="n">
-        <v>0.121472</v>
+        <v>0.120476</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131065</v>
+        <v>0.134345</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.145133</v>
+        <v>0.14659</v>
       </c>
       <c r="C37" t="n">
-        <v>0.123425</v>
+        <v>0.123103</v>
       </c>
       <c r="D37" t="n">
-        <v>0.127521</v>
+        <v>0.122992</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.164526</v>
+        <v>0.166637</v>
       </c>
       <c r="C38" t="n">
-        <v>0.120422</v>
+        <v>0.122754</v>
       </c>
       <c r="D38" t="n">
-        <v>0.129302</v>
+        <v>0.128227</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.167626</v>
+        <v>0.167965</v>
       </c>
       <c r="C39" t="n">
-        <v>0.12442</v>
+        <v>0.122021</v>
       </c>
       <c r="D39" t="n">
-        <v>0.127041</v>
+        <v>0.130884</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164585</v>
+        <v>0.167068</v>
       </c>
       <c r="C40" t="n">
-        <v>0.120869</v>
+        <v>0.124606</v>
       </c>
       <c r="D40" t="n">
-        <v>0.127235</v>
+        <v>0.124714</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.166718</v>
+        <v>0.168586</v>
       </c>
       <c r="C41" t="n">
-        <v>0.124489</v>
+        <v>0.125003</v>
       </c>
       <c r="D41" t="n">
-        <v>0.132205</v>
+        <v>0.131294</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.164188</v>
+        <v>0.169786</v>
       </c>
       <c r="C42" t="n">
-        <v>0.122613</v>
+        <v>0.12536</v>
       </c>
       <c r="D42" t="n">
-        <v>0.127579</v>
+        <v>0.12992</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.168177</v>
+        <v>0.172874</v>
       </c>
       <c r="C43" t="n">
-        <v>0.124307</v>
+        <v>0.12376</v>
       </c>
       <c r="D43" t="n">
-        <v>0.130471</v>
+        <v>0.131219</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.16609</v>
+        <v>0.171241</v>
       </c>
       <c r="C44" t="n">
-        <v>0.123214</v>
+        <v>0.12588</v>
       </c>
       <c r="D44" t="n">
-        <v>0.130269</v>
+        <v>0.13143</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.166032</v>
+        <v>0.167852</v>
       </c>
       <c r="C45" t="n">
-        <v>0.12757</v>
+        <v>0.126891</v>
       </c>
       <c r="D45" t="n">
-        <v>0.130804</v>
+        <v>0.127372</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.166396</v>
+        <v>0.168558</v>
       </c>
       <c r="C46" t="n">
-        <v>0.130419</v>
+        <v>0.125028</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129274</v>
+        <v>0.132108</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.159653</v>
+        <v>0.167552</v>
       </c>
       <c r="C47" t="n">
-        <v>0.127063</v>
+        <v>0.129264</v>
       </c>
       <c r="D47" t="n">
-        <v>0.13243</v>
+        <v>0.126719</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.168352</v>
+        <v>0.168027</v>
       </c>
       <c r="C48" t="n">
-        <v>0.127701</v>
+        <v>0.127619</v>
       </c>
       <c r="D48" t="n">
-        <v>0.132773</v>
+        <v>0.138838</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.166623</v>
+        <v>0.169289</v>
       </c>
       <c r="C49" t="n">
-        <v>0.129158</v>
+        <v>0.130253</v>
       </c>
       <c r="D49" t="n">
-        <v>0.136449</v>
+        <v>0.142887</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.164262</v>
+        <v>0.172231</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136919</v>
+        <v>0.130905</v>
       </c>
       <c r="D50" t="n">
-        <v>0.141518</v>
+        <v>0.143985</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17513</v>
+        <v>0.175239</v>
       </c>
       <c r="C51" t="n">
-        <v>0.137626</v>
+        <v>0.138309</v>
       </c>
       <c r="D51" t="n">
-        <v>0.201616</v>
+        <v>0.204393</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174713</v>
+        <v>0.181383</v>
       </c>
       <c r="C52" t="n">
-        <v>0.147039</v>
+        <v>0.141337</v>
       </c>
       <c r="D52" t="n">
-        <v>0.20451</v>
+        <v>0.203332</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.262288</v>
+        <v>0.260526</v>
       </c>
       <c r="C53" t="n">
-        <v>0.199326</v>
+        <v>0.198068</v>
       </c>
       <c r="D53" t="n">
-        <v>0.204619</v>
+        <v>0.201219</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.265621</v>
+        <v>0.260654</v>
       </c>
       <c r="C54" t="n">
-        <v>0.20168</v>
+        <v>0.199687</v>
       </c>
       <c r="D54" t="n">
-        <v>0.206934</v>
+        <v>0.204597</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.270959</v>
+        <v>0.256338</v>
       </c>
       <c r="C55" t="n">
-        <v>0.201403</v>
+        <v>0.194914</v>
       </c>
       <c r="D55" t="n">
-        <v>0.206332</v>
+        <v>0.199973</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261055</v>
+        <v>0.2556</v>
       </c>
       <c r="C56" t="n">
-        <v>0.198952</v>
+        <v>0.197154</v>
       </c>
       <c r="D56" t="n">
-        <v>0.201139</v>
+        <v>0.204384</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.253419</v>
+        <v>0.25528</v>
       </c>
       <c r="C57" t="n">
-        <v>0.198148</v>
+        <v>0.202535</v>
       </c>
       <c r="D57" t="n">
-        <v>0.203003</v>
+        <v>0.20689</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.270844</v>
+        <v>0.265324</v>
       </c>
       <c r="C58" t="n">
-        <v>0.209897</v>
+        <v>0.204241</v>
       </c>
       <c r="D58" t="n">
-        <v>0.210545</v>
+        <v>0.209176</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.265108</v>
+        <v>0.255658</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205783</v>
+        <v>0.201292</v>
       </c>
       <c r="D59" t="n">
-        <v>0.205907</v>
+        <v>0.209621</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.267615</v>
+        <v>0.26368</v>
       </c>
       <c r="C60" t="n">
-        <v>0.198533</v>
+        <v>0.206011</v>
       </c>
       <c r="D60" t="n">
-        <v>0.208623</v>
+        <v>0.207792</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264183</v>
+        <v>0.261008</v>
       </c>
       <c r="C61" t="n">
-        <v>0.208746</v>
+        <v>0.2062</v>
       </c>
       <c r="D61" t="n">
-        <v>0.211026</v>
+        <v>0.213425</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.267778</v>
+        <v>0.258382</v>
       </c>
       <c r="C62" t="n">
-        <v>0.203561</v>
+        <v>0.205353</v>
       </c>
       <c r="D62" t="n">
-        <v>0.214024</v>
+        <v>0.208382</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.262806</v>
+        <v>0.258012</v>
       </c>
       <c r="C63" t="n">
-        <v>0.209058</v>
+        <v>0.20959</v>
       </c>
       <c r="D63" t="n">
-        <v>0.216727</v>
+        <v>0.212295</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264849</v>
+        <v>0.265849</v>
       </c>
       <c r="C64" t="n">
-        <v>0.208306</v>
+        <v>0.207831</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222178</v>
+        <v>0.221252</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266076</v>
+        <v>0.25818</v>
       </c>
       <c r="C65" t="n">
-        <v>0.213826</v>
+        <v>0.214972</v>
       </c>
       <c r="D65" t="n">
-        <v>0.223464</v>
+        <v>0.219563</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.274145</v>
+        <v>0.268183</v>
       </c>
       <c r="C66" t="n">
-        <v>0.222324</v>
+        <v>0.21747</v>
       </c>
       <c r="D66" t="n">
-        <v>0.285827</v>
+        <v>0.290461</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.400425</v>
+        <v>0.404255</v>
       </c>
       <c r="C67" t="n">
-        <v>0.316452</v>
+        <v>0.310184</v>
       </c>
       <c r="D67" t="n">
-        <v>0.298434</v>
+        <v>0.295257</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.406501</v>
+        <v>0.401976</v>
       </c>
       <c r="C68" t="n">
-        <v>0.317335</v>
+        <v>0.309884</v>
       </c>
       <c r="D68" t="n">
-        <v>0.302347</v>
+        <v>0.300908</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.409145</v>
+        <v>0.39682</v>
       </c>
       <c r="C69" t="n">
-        <v>0.311669</v>
+        <v>0.322972</v>
       </c>
       <c r="D69" t="n">
-        <v>0.300435</v>
+        <v>0.300173</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.419382</v>
+        <v>0.398947</v>
       </c>
       <c r="C70" t="n">
-        <v>0.325841</v>
+        <v>0.318907</v>
       </c>
       <c r="D70" t="n">
-        <v>0.299427</v>
+        <v>0.308053</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.429634</v>
+        <v>0.412367</v>
       </c>
       <c r="C71" t="n">
-        <v>0.316628</v>
+        <v>0.312537</v>
       </c>
       <c r="D71" t="n">
-        <v>0.313878</v>
+        <v>0.301179</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.409463</v>
+        <v>0.395619</v>
       </c>
       <c r="C72" t="n">
-        <v>0.322047</v>
+        <v>0.315744</v>
       </c>
       <c r="D72" t="n">
-        <v>0.305756</v>
+        <v>0.31342</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.414172</v>
+        <v>0.399401</v>
       </c>
       <c r="C73" t="n">
-        <v>0.315305</v>
+        <v>0.311548</v>
       </c>
       <c r="D73" t="n">
-        <v>0.296361</v>
+        <v>0.301554</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.39356</v>
+        <v>0.407122</v>
       </c>
       <c r="C74" t="n">
-        <v>0.314174</v>
+        <v>0.313752</v>
       </c>
       <c r="D74" t="n">
-        <v>0.312461</v>
+        <v>0.302637</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.427477</v>
+        <v>0.411825</v>
       </c>
       <c r="C75" t="n">
-        <v>0.324037</v>
+        <v>0.323686</v>
       </c>
       <c r="D75" t="n">
-        <v>0.303484</v>
+        <v>0.307478</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.415325</v>
+        <v>0.410609</v>
       </c>
       <c r="C76" t="n">
-        <v>0.330288</v>
+        <v>0.330331</v>
       </c>
       <c r="D76" t="n">
-        <v>0.318969</v>
+        <v>0.310038</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.411948</v>
+        <v>0.408752</v>
       </c>
       <c r="C77" t="n">
-        <v>0.329173</v>
+        <v>0.323827</v>
       </c>
       <c r="D77" t="n">
-        <v>0.299627</v>
+        <v>0.322328</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.412942</v>
+        <v>0.407076</v>
       </c>
       <c r="C78" t="n">
-        <v>0.32069</v>
+        <v>0.327264</v>
       </c>
       <c r="D78" t="n">
-        <v>0.303441</v>
+        <v>0.321691</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4212</v>
+        <v>0.420397</v>
       </c>
       <c r="C79" t="n">
-        <v>0.330417</v>
+        <v>0.34239</v>
       </c>
       <c r="D79" t="n">
-        <v>0.331741</v>
+        <v>0.331072</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.417524</v>
+        <v>0.423409</v>
       </c>
       <c r="C80" t="n">
-        <v>0.333561</v>
+        <v>0.341326</v>
       </c>
       <c r="D80" t="n">
-        <v>0.421057</v>
+        <v>0.428044</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.54789</v>
+        <v>0.550778</v>
       </c>
       <c r="C81" t="n">
-        <v>0.430339</v>
+        <v>0.434877</v>
       </c>
       <c r="D81" t="n">
-        <v>0.427526</v>
+        <v>0.433757</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.549464</v>
+        <v>0.551095</v>
       </c>
       <c r="C82" t="n">
-        <v>0.417842</v>
+        <v>0.432233</v>
       </c>
       <c r="D82" t="n">
-        <v>0.425396</v>
+        <v>0.431638</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5689419999999999</v>
+        <v>0.552538</v>
       </c>
       <c r="C83" t="n">
-        <v>0.422844</v>
+        <v>0.431221</v>
       </c>
       <c r="D83" t="n">
-        <v>0.418279</v>
+        <v>0.431257</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.561045</v>
+        <v>0.565863</v>
       </c>
       <c r="C84" t="n">
-        <v>0.428705</v>
+        <v>0.428767</v>
       </c>
       <c r="D84" t="n">
-        <v>0.428418</v>
+        <v>0.429386</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.546098</v>
+        <v>0.566563</v>
       </c>
       <c r="C85" t="n">
-        <v>0.432277</v>
+        <v>0.431059</v>
       </c>
       <c r="D85" t="n">
-        <v>0.434651</v>
+        <v>0.422353</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5610039999999999</v>
+        <v>0.542169</v>
       </c>
       <c r="C86" t="n">
-        <v>0.425543</v>
+        <v>0.42528</v>
       </c>
       <c r="D86" t="n">
-        <v>0.437368</v>
+        <v>0.429308</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.54534</v>
+        <v>0.546366</v>
       </c>
       <c r="C87" t="n">
-        <v>0.432982</v>
+        <v>0.441072</v>
       </c>
       <c r="D87" t="n">
-        <v>0.43981</v>
+        <v>0.434405</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.564456</v>
+        <v>0.562676</v>
       </c>
       <c r="C88" t="n">
-        <v>0.429118</v>
+        <v>0.433172</v>
       </c>
       <c r="D88" t="n">
-        <v>0.430745</v>
+        <v>0.43685</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5403790000000001</v>
+        <v>0.542077</v>
       </c>
       <c r="C89" t="n">
-        <v>0.442772</v>
+        <v>0.432166</v>
       </c>
       <c r="D89" t="n">
-        <v>0.436038</v>
+        <v>0.443815</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.560321</v>
+        <v>0.555557</v>
       </c>
       <c r="C90" t="n">
-        <v>0.441992</v>
+        <v>0.428507</v>
       </c>
       <c r="D90" t="n">
-        <v>0.442235</v>
+        <v>0.439568</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.553018</v>
+        <v>0.557005</v>
       </c>
       <c r="C91" t="n">
-        <v>0.448184</v>
+        <v>0.431339</v>
       </c>
       <c r="D91" t="n">
-        <v>0.446637</v>
+        <v>0.455342</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.562311</v>
+        <v>0.544231</v>
       </c>
       <c r="C92" t="n">
-        <v>0.452802</v>
+        <v>0.456089</v>
       </c>
       <c r="D92" t="n">
-        <v>0.44158</v>
+        <v>0.447595</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.564064</v>
+        <v>0.564816</v>
       </c>
       <c r="C93" t="n">
-        <v>0.445326</v>
+        <v>0.448252</v>
       </c>
       <c r="D93" t="n">
-        <v>0.460572</v>
+        <v>0.44593</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.562241</v>
+        <v>0.5682160000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.443519</v>
+        <v>0.450633</v>
       </c>
       <c r="D94" t="n">
-        <v>0.511669</v>
+        <v>0.517879</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.645416</v>
+        <v>0.638926</v>
       </c>
       <c r="C95" t="n">
-        <v>0.49964</v>
+        <v>0.53747</v>
       </c>
       <c r="D95" t="n">
-        <v>0.523124</v>
+        <v>0.533749</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6491</v>
+        <v>0.720096</v>
       </c>
       <c r="C96" t="n">
-        <v>0.508213</v>
+        <v>0.512628</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5265339999999999</v>
+        <v>0.5391280000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.649052</v>
+        <v>0.66064</v>
       </c>
       <c r="C97" t="n">
-        <v>0.501881</v>
+        <v>0.5112719999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.511979</v>
+        <v>0.536098</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.647406</v>
+        <v>0.641084</v>
       </c>
       <c r="C98" t="n">
-        <v>0.511576</v>
+        <v>0.5041</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5178970000000001</v>
+        <v>0.512634</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.644809</v>
+        <v>0.658446</v>
       </c>
       <c r="C99" t="n">
-        <v>0.50168</v>
+        <v>0.5204569999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5291670000000001</v>
+        <v>0.534451</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.640032</v>
+        <v>0.702451</v>
       </c>
       <c r="C100" t="n">
-        <v>0.524273</v>
+        <v>0.548655</v>
       </c>
       <c r="D100" t="n">
-        <v>0.521996</v>
+        <v>0.559755</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.641243</v>
+        <v>0.632694</v>
       </c>
       <c r="C101" t="n">
-        <v>0.517687</v>
+        <v>0.509943</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5349739999999999</v>
+        <v>0.517586</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.648824</v>
+        <v>0.6871390000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.527184</v>
+        <v>0.511971</v>
       </c>
       <c r="D102" t="n">
-        <v>0.531415</v>
+        <v>0.527404</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.638415</v>
+        <v>0.709636</v>
       </c>
       <c r="C103" t="n">
-        <v>0.507404</v>
+        <v>0.524746</v>
       </c>
       <c r="D103" t="n">
-        <v>0.526793</v>
+        <v>0.529205</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.648823</v>
+        <v>0.650084</v>
       </c>
       <c r="C104" t="n">
-        <v>0.522306</v>
+        <v>0.516942</v>
       </c>
       <c r="D104" t="n">
-        <v>0.538378</v>
+        <v>0.539369</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6429240000000001</v>
+        <v>0.657555</v>
       </c>
       <c r="C105" t="n">
-        <v>0.524976</v>
+        <v>0.538372</v>
       </c>
       <c r="D105" t="n">
-        <v>0.533984</v>
+        <v>0.547313</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.643176</v>
+        <v>0.64819</v>
       </c>
       <c r="C106" t="n">
-        <v>0.542002</v>
+        <v>0.546559</v>
       </c>
       <c r="D106" t="n">
-        <v>0.545539</v>
+        <v>0.5537609999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.652799</v>
+        <v>0.661752</v>
       </c>
       <c r="C107" t="n">
-        <v>0.526163</v>
+        <v>0.529104</v>
       </c>
       <c r="D107" t="n">
-        <v>0.571</v>
+        <v>0.538776</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6433</v>
+        <v>0.654127</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5383520000000001</v>
+        <v>0.54562</v>
       </c>
       <c r="D108" t="n">
-        <v>0.615383</v>
+        <v>0.632058</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7271919999999999</v>
+        <v>0.676883</v>
       </c>
       <c r="C109" t="n">
-        <v>0.575037</v>
+        <v>0.547029</v>
       </c>
       <c r="D109" t="n">
-        <v>0.618859</v>
+        <v>0.635856</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.795024</v>
+        <v>0.820589</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5896439999999999</v>
+        <v>0.625207</v>
       </c>
       <c r="D110" t="n">
-        <v>0.610972</v>
+        <v>0.645459</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.796659</v>
+        <v>0.797261</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6118980000000001</v>
+        <v>0.633238</v>
       </c>
       <c r="D111" t="n">
-        <v>0.664628</v>
+        <v>0.63409</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.805161</v>
+        <v>0.924764</v>
       </c>
       <c r="C112" t="n">
-        <v>0.602127</v>
+        <v>0.630019</v>
       </c>
       <c r="D112" t="n">
-        <v>0.61963</v>
+        <v>0.643806</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.792613</v>
+        <v>0.814455</v>
       </c>
       <c r="C113" t="n">
-        <v>0.60033</v>
+        <v>0.630365</v>
       </c>
       <c r="D113" t="n">
-        <v>0.629659</v>
+        <v>0.643303</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9212129999999999</v>
+        <v>0.790126</v>
       </c>
       <c r="C114" t="n">
-        <v>0.616941</v>
+        <v>0.6401790000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.674951</v>
+        <v>0.68594</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.853756</v>
+        <v>0.788726</v>
       </c>
       <c r="C115" t="n">
-        <v>0.645689</v>
+        <v>0.638738</v>
       </c>
       <c r="D115" t="n">
-        <v>0.631748</v>
+        <v>0.654291</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.808661</v>
+        <v>0.82155</v>
       </c>
       <c r="C116" t="n">
-        <v>0.63863</v>
+        <v>0.634072</v>
       </c>
       <c r="D116" t="n">
-        <v>0.656338</v>
+        <v>0.662582</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.783564</v>
+        <v>0.813118</v>
       </c>
       <c r="C117" t="n">
-        <v>0.618801</v>
+        <v>0.6353220000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.621382</v>
+        <v>0.677736</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.817963</v>
+        <v>0.9013910000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.63146</v>
+        <v>0.62815</v>
       </c>
       <c r="D118" t="n">
-        <v>0.634545</v>
+        <v>0.654343</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.789039</v>
+        <v>0.801076</v>
       </c>
       <c r="C119" t="n">
-        <v>0.620922</v>
+        <v>0.642173</v>
       </c>
       <c r="D119" t="n">
-        <v>0.636599</v>
+        <v>0.663348</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.782985</v>
+        <v>0.838439</v>
       </c>
       <c r="C120" t="n">
-        <v>0.639467</v>
+        <v>0.654469</v>
       </c>
       <c r="D120" t="n">
-        <v>0.655035</v>
+        <v>0.658871</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.804678</v>
+        <v>0.912579</v>
       </c>
       <c r="C121" t="n">
-        <v>0.636579</v>
+        <v>0.640112</v>
       </c>
       <c r="D121" t="n">
-        <v>0.663019</v>
+        <v>0.6714909999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.805451</v>
+        <v>0.802631</v>
       </c>
       <c r="C122" t="n">
-        <v>0.677668</v>
+        <v>0.694231</v>
       </c>
       <c r="D122" t="n">
-        <v>0.721585</v>
+        <v>0.684764</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.950362</v>
+        <v>0.88761</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6331560000000001</v>
+        <v>0.663196</v>
       </c>
       <c r="D123" t="n">
-        <v>0.73914</v>
+        <v>0.747803</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.0504</v>
+        <v>1.19355</v>
       </c>
       <c r="C124" t="n">
-        <v>0.721411</v>
+        <v>0.737793</v>
       </c>
       <c r="D124" t="n">
-        <v>0.762269</v>
+        <v>0.752764</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.02477</v>
+        <v>1.03757</v>
       </c>
       <c r="C125" t="n">
-        <v>0.752409</v>
+        <v>0.729449</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7551020000000001</v>
+        <v>0.741559</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.02364</v>
+        <v>1.02047</v>
       </c>
       <c r="C126" t="n">
-        <v>0.746787</v>
+        <v>0.741743</v>
       </c>
       <c r="D126" t="n">
-        <v>0.734833</v>
+        <v>0.742053</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.01908</v>
+        <v>1.03652</v>
       </c>
       <c r="C127" t="n">
-        <v>0.747008</v>
+        <v>0.739977</v>
       </c>
       <c r="D127" t="n">
-        <v>0.751819</v>
+        <v>0.744479</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04491</v>
+        <v>1.03793</v>
       </c>
       <c r="C128" t="n">
-        <v>0.743933</v>
+        <v>0.735375</v>
       </c>
       <c r="D128" t="n">
-        <v>0.762622</v>
+        <v>0.755621</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.02152</v>
+        <v>1.03192</v>
       </c>
       <c r="C129" t="n">
-        <v>0.736693</v>
+        <v>0.743241</v>
       </c>
       <c r="D129" t="n">
-        <v>0.760506</v>
+        <v>0.730145</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.05538</v>
+        <v>1.03956</v>
       </c>
       <c r="C130" t="n">
-        <v>0.752741</v>
+        <v>0.76473</v>
       </c>
       <c r="D130" t="n">
-        <v>0.751657</v>
+        <v>0.753613</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.06182</v>
+        <v>1.0283</v>
       </c>
       <c r="C131" t="n">
-        <v>0.745733</v>
+        <v>0.749245</v>
       </c>
       <c r="D131" t="n">
-        <v>0.77442</v>
+        <v>0.760484</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.02736</v>
+        <v>1.03412</v>
       </c>
       <c r="C132" t="n">
-        <v>0.748632</v>
+        <v>0.74898</v>
       </c>
       <c r="D132" t="n">
-        <v>0.749667</v>
+        <v>0.758228</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.01836</v>
+        <v>1.04509</v>
       </c>
       <c r="C133" t="n">
-        <v>0.763763</v>
+        <v>0.767354</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7660670000000001</v>
+        <v>0.775115</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05213</v>
+        <v>1.05821</v>
       </c>
       <c r="C134" t="n">
-        <v>0.748919</v>
+        <v>0.760693</v>
       </c>
       <c r="D134" t="n">
-        <v>0.769868</v>
+        <v>0.762873</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04047</v>
+        <v>1.04648</v>
       </c>
       <c r="C135" t="n">
-        <v>0.771802</v>
+        <v>0.771204</v>
       </c>
       <c r="D135" t="n">
-        <v>0.773877</v>
+        <v>0.771352</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.04071</v>
+        <v>1.06722</v>
       </c>
       <c r="C136" t="n">
-        <v>0.768497</v>
+        <v>0.789524</v>
       </c>
       <c r="D136" t="n">
-        <v>0.796857</v>
+        <v>0.80631</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06129</v>
+        <v>1.05852</v>
       </c>
       <c r="C137" t="n">
-        <v>0.790758</v>
+        <v>0.801329</v>
       </c>
       <c r="D137" t="n">
-        <v>0.93784</v>
+        <v>0.930891</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33377</v>
+        <v>1.30978</v>
       </c>
       <c r="C138" t="n">
-        <v>0.937905</v>
+        <v>0.93253</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.942527</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32726</v>
+        <v>1.30512</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9394980000000001</v>
+        <v>0.940449</v>
       </c>
       <c r="D139" t="n">
-        <v>0.962502</v>
+        <v>0.953665</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.30489</v>
+        <v>1.30318</v>
       </c>
       <c r="C140" t="n">
-        <v>0.935644</v>
+        <v>0.932111</v>
       </c>
       <c r="D140" t="n">
-        <v>0.936671</v>
+        <v>0.94398</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.32547</v>
+        <v>1.3224</v>
       </c>
       <c r="C141" t="n">
-        <v>0.937992</v>
+        <v>0.930684</v>
       </c>
       <c r="D141" t="n">
-        <v>0.957335</v>
+        <v>0.933933</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.32959</v>
+        <v>1.43998</v>
       </c>
       <c r="C142" t="n">
-        <v>0.949659</v>
+        <v>0.928376</v>
       </c>
       <c r="D142" t="n">
-        <v>0.962823</v>
+        <v>0.938347</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32697</v>
+        <v>1.29249</v>
       </c>
       <c r="C143" t="n">
-        <v>0.955019</v>
+        <v>0.932938</v>
       </c>
       <c r="D143" t="n">
-        <v>0.987273</v>
+        <v>0.941204</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.117427</v>
+        <v>0.120018</v>
       </c>
       <c r="C2" t="n">
-        <v>0.101168</v>
+        <v>0.101246</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111042</v>
+        <v>0.100668</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117825</v>
+        <v>0.121155</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09926500000000001</v>
+        <v>0.100521</v>
       </c>
       <c r="D3" t="n">
-        <v>0.106683</v>
+        <v>0.0980316</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.118051</v>
+        <v>0.117764</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0989776</v>
+        <v>0.101082</v>
       </c>
       <c r="D4" t="n">
-        <v>0.110853</v>
+        <v>0.0972997</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.122925</v>
+        <v>0.118196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10349</v>
+        <v>0.103326</v>
       </c>
       <c r="D5" t="n">
-        <v>0.107656</v>
+        <v>0.0987658</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123499</v>
+        <v>0.124015</v>
       </c>
       <c r="C6" t="n">
-        <v>0.100154</v>
+        <v>0.105681</v>
       </c>
       <c r="D6" t="n">
-        <v>0.114179</v>
+        <v>0.104828</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127829</v>
+        <v>0.12383</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10345</v>
+        <v>0.105615</v>
       </c>
       <c r="D7" t="n">
-        <v>0.116683</v>
+        <v>0.106218</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.125517</v>
+        <v>0.123574</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107225</v>
+        <v>0.105641</v>
       </c>
       <c r="D8" t="n">
-        <v>0.11645</v>
+        <v>0.109859</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.127622</v>
+        <v>0.126037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.110186</v>
+        <v>0.11175</v>
       </c>
       <c r="D9" t="n">
-        <v>0.114052</v>
+        <v>0.12166</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.13676</v>
+        <v>0.132398</v>
       </c>
       <c r="C10" t="n">
-        <v>0.108164</v>
+        <v>0.103495</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11453</v>
+        <v>0.100912</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.134478</v>
+        <v>0.13075</v>
       </c>
       <c r="C11" t="n">
-        <v>0.106213</v>
+        <v>0.101457</v>
       </c>
       <c r="D11" t="n">
-        <v>0.113044</v>
+        <v>0.09881529999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.134922</v>
+        <v>0.133958</v>
       </c>
       <c r="C12" t="n">
-        <v>0.10548</v>
+        <v>0.103076</v>
       </c>
       <c r="D12" t="n">
-        <v>0.112055</v>
+        <v>0.102421</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.134651</v>
+        <v>0.130162</v>
       </c>
       <c r="C13" t="n">
-        <v>0.107729</v>
+        <v>0.10469</v>
       </c>
       <c r="D13" t="n">
-        <v>0.11318</v>
+        <v>0.100131</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.130498</v>
+        <v>0.130771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.105708</v>
+        <v>0.106149</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1106</v>
+        <v>0.102316</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.132266</v>
+        <v>0.129037</v>
       </c>
       <c r="C15" t="n">
-        <v>0.107501</v>
+        <v>0.104043</v>
       </c>
       <c r="D15" t="n">
-        <v>0.114745</v>
+        <v>0.100358</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.13123</v>
+        <v>0.133205</v>
       </c>
       <c r="C16" t="n">
-        <v>0.107621</v>
+        <v>0.104914</v>
       </c>
       <c r="D16" t="n">
-        <v>0.110625</v>
+        <v>0.100819</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.135671</v>
+        <v>0.129203</v>
       </c>
       <c r="C17" t="n">
-        <v>0.107373</v>
+        <v>0.102218</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114087</v>
+        <v>0.102293</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133828</v>
+        <v>0.128429</v>
       </c>
       <c r="C18" t="n">
-        <v>0.109022</v>
+        <v>0.106321</v>
       </c>
       <c r="D18" t="n">
-        <v>0.114291</v>
+        <v>0.10171</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.130496</v>
+        <v>0.130167</v>
       </c>
       <c r="C19" t="n">
-        <v>0.106173</v>
+        <v>0.107083</v>
       </c>
       <c r="D19" t="n">
-        <v>0.115985</v>
+        <v>0.105962</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127328</v>
+        <v>0.128961</v>
       </c>
       <c r="C20" t="n">
-        <v>0.106185</v>
+        <v>0.105141</v>
       </c>
       <c r="D20" t="n">
-        <v>0.114847</v>
+        <v>0.105628</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129949</v>
+        <v>0.130297</v>
       </c>
       <c r="C21" t="n">
-        <v>0.109628</v>
+        <v>0.111969</v>
       </c>
       <c r="D21" t="n">
-        <v>0.11862</v>
+        <v>0.109798</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.131892</v>
+        <v>0.133604</v>
       </c>
       <c r="C22" t="n">
-        <v>0.114685</v>
+        <v>0.113847</v>
       </c>
       <c r="D22" t="n">
-        <v>0.124951</v>
+        <v>0.113349</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.135655</v>
+        <v>0.138743</v>
       </c>
       <c r="C23" t="n">
-        <v>0.117537</v>
+        <v>0.117966</v>
       </c>
       <c r="D23" t="n">
-        <v>0.114688</v>
+        <v>0.123424</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.145005</v>
+        <v>0.141132</v>
       </c>
       <c r="C24" t="n">
-        <v>0.111391</v>
+        <v>0.104736</v>
       </c>
       <c r="D24" t="n">
-        <v>0.11562</v>
+        <v>0.10052</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.141021</v>
+        <v>0.142414</v>
       </c>
       <c r="C25" t="n">
-        <v>0.10787</v>
+        <v>0.109784</v>
       </c>
       <c r="D25" t="n">
-        <v>0.115294</v>
+        <v>0.105577</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.138032</v>
+        <v>0.139597</v>
       </c>
       <c r="C26" t="n">
-        <v>0.105529</v>
+        <v>0.107505</v>
       </c>
       <c r="D26" t="n">
-        <v>0.117059</v>
+        <v>0.103353</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.139533</v>
+        <v>0.139691</v>
       </c>
       <c r="C27" t="n">
-        <v>0.105569</v>
+        <v>0.10784</v>
       </c>
       <c r="D27" t="n">
-        <v>0.115848</v>
+        <v>0.103221</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138004</v>
+        <v>0.141826</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108135</v>
+        <v>0.109369</v>
       </c>
       <c r="D28" t="n">
-        <v>0.116466</v>
+        <v>0.101885</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.138312</v>
+        <v>0.13915</v>
       </c>
       <c r="C29" t="n">
-        <v>0.111017</v>
+        <v>0.105991</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1205</v>
+        <v>0.10547</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.139221</v>
+        <v>0.140406</v>
       </c>
       <c r="C30" t="n">
-        <v>0.111195</v>
+        <v>0.110205</v>
       </c>
       <c r="D30" t="n">
-        <v>0.115446</v>
+        <v>0.106763</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.138462</v>
+        <v>0.140669</v>
       </c>
       <c r="C31" t="n">
-        <v>0.110884</v>
+        <v>0.112952</v>
       </c>
       <c r="D31" t="n">
-        <v>0.117469</v>
+        <v>0.105777</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.143063</v>
+        <v>0.138862</v>
       </c>
       <c r="C32" t="n">
-        <v>0.114014</v>
+        <v>0.112309</v>
       </c>
       <c r="D32" t="n">
-        <v>0.118315</v>
+        <v>0.105209</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.14013</v>
+        <v>0.144747</v>
       </c>
       <c r="C33" t="n">
-        <v>0.110469</v>
+        <v>0.112054</v>
       </c>
       <c r="D33" t="n">
-        <v>0.121465</v>
+        <v>0.105307</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.140824</v>
+        <v>0.141613</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116015</v>
+        <v>0.115805</v>
       </c>
       <c r="D34" t="n">
-        <v>0.123437</v>
+        <v>0.112072</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.144837</v>
+        <v>0.143315</v>
       </c>
       <c r="C35" t="n">
-        <v>0.114913</v>
+        <v>0.116843</v>
       </c>
       <c r="D35" t="n">
-        <v>0.128587</v>
+        <v>0.118201</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.143855</v>
+        <v>0.142368</v>
       </c>
       <c r="C36" t="n">
-        <v>0.120476</v>
+        <v>0.121636</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134345</v>
+        <v>0.122166</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.14659</v>
+        <v>0.146971</v>
       </c>
       <c r="C37" t="n">
-        <v>0.123103</v>
+        <v>0.120717</v>
       </c>
       <c r="D37" t="n">
-        <v>0.122992</v>
+        <v>0.126276</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.166637</v>
+        <v>0.166856</v>
       </c>
       <c r="C38" t="n">
-        <v>0.122754</v>
+        <v>0.123839</v>
       </c>
       <c r="D38" t="n">
-        <v>0.128227</v>
+        <v>0.117353</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.167965</v>
+        <v>0.164314</v>
       </c>
       <c r="C39" t="n">
-        <v>0.122021</v>
+        <v>0.122892</v>
       </c>
       <c r="D39" t="n">
-        <v>0.130884</v>
+        <v>0.118956</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167068</v>
+        <v>0.167159</v>
       </c>
       <c r="C40" t="n">
-        <v>0.124606</v>
+        <v>0.124634</v>
       </c>
       <c r="D40" t="n">
-        <v>0.124714</v>
+        <v>0.119449</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.168586</v>
+        <v>0.164872</v>
       </c>
       <c r="C41" t="n">
-        <v>0.125003</v>
+        <v>0.123954</v>
       </c>
       <c r="D41" t="n">
-        <v>0.131294</v>
+        <v>0.119769</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.169786</v>
+        <v>0.169503</v>
       </c>
       <c r="C42" t="n">
-        <v>0.12536</v>
+        <v>0.126954</v>
       </c>
       <c r="D42" t="n">
-        <v>0.12992</v>
+        <v>0.119118</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.172874</v>
+        <v>0.166067</v>
       </c>
       <c r="C43" t="n">
-        <v>0.12376</v>
+        <v>0.124867</v>
       </c>
       <c r="D43" t="n">
-        <v>0.131219</v>
+        <v>0.121943</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171241</v>
+        <v>0.17005</v>
       </c>
       <c r="C44" t="n">
-        <v>0.12588</v>
+        <v>0.127193</v>
       </c>
       <c r="D44" t="n">
-        <v>0.13143</v>
+        <v>0.121355</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.167852</v>
+        <v>0.167476</v>
       </c>
       <c r="C45" t="n">
-        <v>0.126891</v>
+        <v>0.125701</v>
       </c>
       <c r="D45" t="n">
-        <v>0.127372</v>
+        <v>0.125252</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.168558</v>
+        <v>0.16689</v>
       </c>
       <c r="C46" t="n">
-        <v>0.125028</v>
+        <v>0.127869</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132108</v>
+        <v>0.126196</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.167552</v>
+        <v>0.16999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.129264</v>
+        <v>0.129563</v>
       </c>
       <c r="D47" t="n">
-        <v>0.126719</v>
+        <v>0.126301</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.168027</v>
+        <v>0.164922</v>
       </c>
       <c r="C48" t="n">
-        <v>0.127619</v>
+        <v>0.133049</v>
       </c>
       <c r="D48" t="n">
-        <v>0.138838</v>
+        <v>0.126359</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.169289</v>
+        <v>0.166982</v>
       </c>
       <c r="C49" t="n">
-        <v>0.130253</v>
+        <v>0.127495</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142887</v>
+        <v>0.130205</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172231</v>
+        <v>0.171969</v>
       </c>
       <c r="C50" t="n">
-        <v>0.130905</v>
+        <v>0.138193</v>
       </c>
       <c r="D50" t="n">
-        <v>0.143985</v>
+        <v>0.138907</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175239</v>
+        <v>0.172981</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138309</v>
+        <v>0.137449</v>
       </c>
       <c r="D51" t="n">
-        <v>0.204393</v>
+        <v>0.144931</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.181383</v>
+        <v>0.179697</v>
       </c>
       <c r="C52" t="n">
-        <v>0.141337</v>
+        <v>0.1433</v>
       </c>
       <c r="D52" t="n">
-        <v>0.203332</v>
+        <v>0.149329</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.260526</v>
+        <v>0.255629</v>
       </c>
       <c r="C53" t="n">
-        <v>0.198068</v>
+        <v>0.194185</v>
       </c>
       <c r="D53" t="n">
-        <v>0.201219</v>
+        <v>0.191181</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.260654</v>
+        <v>0.261116</v>
       </c>
       <c r="C54" t="n">
-        <v>0.199687</v>
+        <v>0.196311</v>
       </c>
       <c r="D54" t="n">
-        <v>0.204597</v>
+        <v>0.19572</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.256338</v>
+        <v>0.257249</v>
       </c>
       <c r="C55" t="n">
-        <v>0.194914</v>
+        <v>0.197536</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199973</v>
+        <v>0.195599</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2556</v>
+        <v>0.267858</v>
       </c>
       <c r="C56" t="n">
-        <v>0.197154</v>
+        <v>0.201696</v>
       </c>
       <c r="D56" t="n">
-        <v>0.204384</v>
+        <v>0.199473</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.25528</v>
+        <v>0.257263</v>
       </c>
       <c r="C57" t="n">
-        <v>0.202535</v>
+        <v>0.197379</v>
       </c>
       <c r="D57" t="n">
-        <v>0.20689</v>
+        <v>0.192579</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.265324</v>
+        <v>0.256083</v>
       </c>
       <c r="C58" t="n">
-        <v>0.204241</v>
+        <v>0.205573</v>
       </c>
       <c r="D58" t="n">
-        <v>0.209176</v>
+        <v>0.201732</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.255658</v>
+        <v>0.255441</v>
       </c>
       <c r="C59" t="n">
-        <v>0.201292</v>
+        <v>0.210443</v>
       </c>
       <c r="D59" t="n">
-        <v>0.209621</v>
+        <v>0.199986</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.26368</v>
+        <v>0.259246</v>
       </c>
       <c r="C60" t="n">
-        <v>0.206011</v>
+        <v>0.205658</v>
       </c>
       <c r="D60" t="n">
-        <v>0.207792</v>
+        <v>0.197631</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.261008</v>
+        <v>0.264791</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2062</v>
+        <v>0.209835</v>
       </c>
       <c r="D61" t="n">
-        <v>0.213425</v>
+        <v>0.20286</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.258382</v>
+        <v>0.261682</v>
       </c>
       <c r="C62" t="n">
-        <v>0.205353</v>
+        <v>0.207935</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208382</v>
+        <v>0.201913</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.258012</v>
+        <v>0.258778</v>
       </c>
       <c r="C63" t="n">
-        <v>0.20959</v>
+        <v>0.210524</v>
       </c>
       <c r="D63" t="n">
-        <v>0.212295</v>
+        <v>0.203818</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265849</v>
+        <v>0.264165</v>
       </c>
       <c r="C64" t="n">
-        <v>0.207831</v>
+        <v>0.210927</v>
       </c>
       <c r="D64" t="n">
-        <v>0.221252</v>
+        <v>0.216834</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.25818</v>
+        <v>0.277514</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214972</v>
+        <v>0.216072</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219563</v>
+        <v>0.21324</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.268183</v>
+        <v>0.266395</v>
       </c>
       <c r="C66" t="n">
-        <v>0.21747</v>
+        <v>0.219248</v>
       </c>
       <c r="D66" t="n">
-        <v>0.290461</v>
+        <v>0.230623</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.404255</v>
+        <v>0.407642</v>
       </c>
       <c r="C67" t="n">
-        <v>0.310184</v>
+        <v>0.308474</v>
       </c>
       <c r="D67" t="n">
-        <v>0.295257</v>
+        <v>0.313447</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.401976</v>
+        <v>0.416829</v>
       </c>
       <c r="C68" t="n">
-        <v>0.309884</v>
+        <v>0.323892</v>
       </c>
       <c r="D68" t="n">
-        <v>0.300908</v>
+        <v>0.309648</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.39682</v>
+        <v>0.414272</v>
       </c>
       <c r="C69" t="n">
-        <v>0.322972</v>
+        <v>0.318807</v>
       </c>
       <c r="D69" t="n">
-        <v>0.300173</v>
+        <v>0.315246</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.398947</v>
+        <v>0.392552</v>
       </c>
       <c r="C70" t="n">
-        <v>0.318907</v>
+        <v>0.317151</v>
       </c>
       <c r="D70" t="n">
-        <v>0.308053</v>
+        <v>0.316285</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.412367</v>
+        <v>0.421408</v>
       </c>
       <c r="C71" t="n">
-        <v>0.312537</v>
+        <v>0.309659</v>
       </c>
       <c r="D71" t="n">
-        <v>0.301179</v>
+        <v>0.320234</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.395619</v>
+        <v>0.398696</v>
       </c>
       <c r="C72" t="n">
-        <v>0.315744</v>
+        <v>0.317538</v>
       </c>
       <c r="D72" t="n">
-        <v>0.31342</v>
+        <v>0.313893</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.399401</v>
+        <v>0.417034</v>
       </c>
       <c r="C73" t="n">
-        <v>0.311548</v>
+        <v>0.315477</v>
       </c>
       <c r="D73" t="n">
-        <v>0.301554</v>
+        <v>0.312693</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.407122</v>
+        <v>0.411191</v>
       </c>
       <c r="C74" t="n">
-        <v>0.313752</v>
+        <v>0.324512</v>
       </c>
       <c r="D74" t="n">
-        <v>0.302637</v>
+        <v>0.321971</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.411825</v>
+        <v>0.410136</v>
       </c>
       <c r="C75" t="n">
-        <v>0.323686</v>
+        <v>0.320875</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307478</v>
+        <v>0.3165</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.410609</v>
+        <v>0.411073</v>
       </c>
       <c r="C76" t="n">
-        <v>0.330331</v>
+        <v>0.317691</v>
       </c>
       <c r="D76" t="n">
-        <v>0.310038</v>
+        <v>0.313659</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.408752</v>
+        <v>0.422298</v>
       </c>
       <c r="C77" t="n">
-        <v>0.323827</v>
+        <v>0.313213</v>
       </c>
       <c r="D77" t="n">
-        <v>0.322328</v>
+        <v>0.321666</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.407076</v>
+        <v>0.417022</v>
       </c>
       <c r="C78" t="n">
-        <v>0.327264</v>
+        <v>0.31705</v>
       </c>
       <c r="D78" t="n">
-        <v>0.321691</v>
+        <v>0.327145</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.420397</v>
+        <v>0.412126</v>
       </c>
       <c r="C79" t="n">
-        <v>0.34239</v>
+        <v>0.325087</v>
       </c>
       <c r="D79" t="n">
-        <v>0.331072</v>
+        <v>0.326795</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.423409</v>
+        <v>0.415812</v>
       </c>
       <c r="C80" t="n">
-        <v>0.341326</v>
+        <v>0.323494</v>
       </c>
       <c r="D80" t="n">
-        <v>0.428044</v>
+        <v>0.335969</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.550778</v>
+        <v>0.549519</v>
       </c>
       <c r="C81" t="n">
-        <v>0.434877</v>
+        <v>0.42922</v>
       </c>
       <c r="D81" t="n">
-        <v>0.433757</v>
+        <v>0.430539</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.551095</v>
+        <v>0.564323</v>
       </c>
       <c r="C82" t="n">
-        <v>0.432233</v>
+        <v>0.434056</v>
       </c>
       <c r="D82" t="n">
-        <v>0.431638</v>
+        <v>0.419421</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.552538</v>
+        <v>0.569763</v>
       </c>
       <c r="C83" t="n">
-        <v>0.431221</v>
+        <v>0.425822</v>
       </c>
       <c r="D83" t="n">
-        <v>0.431257</v>
+        <v>0.423848</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.565863</v>
+        <v>0.5524019999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.428767</v>
+        <v>0.427378</v>
       </c>
       <c r="D84" t="n">
-        <v>0.429386</v>
+        <v>0.421995</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.566563</v>
+        <v>0.5410469999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.431059</v>
+        <v>0.430866</v>
       </c>
       <c r="D85" t="n">
-        <v>0.422353</v>
+        <v>0.426955</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.542169</v>
+        <v>0.566497</v>
       </c>
       <c r="C86" t="n">
-        <v>0.42528</v>
+        <v>0.435968</v>
       </c>
       <c r="D86" t="n">
-        <v>0.429308</v>
+        <v>0.43327</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.546366</v>
+        <v>0.566238</v>
       </c>
       <c r="C87" t="n">
-        <v>0.441072</v>
+        <v>0.428815</v>
       </c>
       <c r="D87" t="n">
-        <v>0.434405</v>
+        <v>0.428195</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.562676</v>
+        <v>0.584336</v>
       </c>
       <c r="C88" t="n">
-        <v>0.433172</v>
+        <v>0.42669</v>
       </c>
       <c r="D88" t="n">
-        <v>0.43685</v>
+        <v>0.43193</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.542077</v>
+        <v>0.561762</v>
       </c>
       <c r="C89" t="n">
-        <v>0.432166</v>
+        <v>0.438803</v>
       </c>
       <c r="D89" t="n">
-        <v>0.443815</v>
+        <v>0.435147</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.555557</v>
+        <v>0.575775</v>
       </c>
       <c r="C90" t="n">
-        <v>0.428507</v>
+        <v>0.435124</v>
       </c>
       <c r="D90" t="n">
-        <v>0.439568</v>
+        <v>0.436099</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.557005</v>
+        <v>0.563445</v>
       </c>
       <c r="C91" t="n">
-        <v>0.431339</v>
+        <v>0.439413</v>
       </c>
       <c r="D91" t="n">
-        <v>0.455342</v>
+        <v>0.441128</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.544231</v>
+        <v>0.555994</v>
       </c>
       <c r="C92" t="n">
-        <v>0.456089</v>
+        <v>0.440958</v>
       </c>
       <c r="D92" t="n">
-        <v>0.447595</v>
+        <v>0.43672</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.564816</v>
+        <v>0.558987</v>
       </c>
       <c r="C93" t="n">
-        <v>0.448252</v>
+        <v>0.44225</v>
       </c>
       <c r="D93" t="n">
-        <v>0.44593</v>
+        <v>0.444443</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5682160000000001</v>
+        <v>0.571451</v>
       </c>
       <c r="C94" t="n">
-        <v>0.450633</v>
+        <v>0.452346</v>
       </c>
       <c r="D94" t="n">
-        <v>0.517879</v>
+        <v>0.45846</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.638926</v>
+        <v>0.62906</v>
       </c>
       <c r="C95" t="n">
-        <v>0.53747</v>
+        <v>0.504406</v>
       </c>
       <c r="D95" t="n">
-        <v>0.533749</v>
+        <v>0.504851</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.720096</v>
+        <v>0.656698</v>
       </c>
       <c r="C96" t="n">
-        <v>0.512628</v>
+        <v>0.503316</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5391280000000001</v>
+        <v>0.522856</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.66064</v>
+        <v>0.668744</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5112719999999999</v>
+        <v>0.530955</v>
       </c>
       <c r="D97" t="n">
-        <v>0.536098</v>
+        <v>0.526545</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.641084</v>
+        <v>0.657039</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5041</v>
+        <v>0.523147</v>
       </c>
       <c r="D98" t="n">
-        <v>0.512634</v>
+        <v>0.526513</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.658446</v>
+        <v>0.637665</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5204569999999999</v>
+        <v>0.521028</v>
       </c>
       <c r="D99" t="n">
-        <v>0.534451</v>
+        <v>0.538401</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.702451</v>
+        <v>0.691919</v>
       </c>
       <c r="C100" t="n">
-        <v>0.548655</v>
+        <v>0.503712</v>
       </c>
       <c r="D100" t="n">
-        <v>0.559755</v>
+        <v>0.534262</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.632694</v>
+        <v>0.6579700000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.509943</v>
+        <v>0.516859</v>
       </c>
       <c r="D101" t="n">
-        <v>0.517586</v>
+        <v>0.511081</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6871390000000001</v>
+        <v>0.676233</v>
       </c>
       <c r="C102" t="n">
-        <v>0.511971</v>
+        <v>0.512188</v>
       </c>
       <c r="D102" t="n">
-        <v>0.527404</v>
+        <v>0.55014</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.709636</v>
+        <v>0.710768</v>
       </c>
       <c r="C103" t="n">
-        <v>0.524746</v>
+        <v>0.544828</v>
       </c>
       <c r="D103" t="n">
-        <v>0.529205</v>
+        <v>0.518283</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.650084</v>
+        <v>0.702301</v>
       </c>
       <c r="C104" t="n">
-        <v>0.516942</v>
+        <v>0.553136</v>
       </c>
       <c r="D104" t="n">
-        <v>0.539369</v>
+        <v>0.514535</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.657555</v>
+        <v>0.644058</v>
       </c>
       <c r="C105" t="n">
-        <v>0.538372</v>
+        <v>0.543354</v>
       </c>
       <c r="D105" t="n">
-        <v>0.547313</v>
+        <v>0.548694</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.64819</v>
+        <v>0.705898</v>
       </c>
       <c r="C106" t="n">
-        <v>0.546559</v>
+        <v>0.560895</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5537609999999999</v>
+        <v>0.5724399999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.661752</v>
+        <v>0.70073</v>
       </c>
       <c r="C107" t="n">
-        <v>0.529104</v>
+        <v>0.524794</v>
       </c>
       <c r="D107" t="n">
-        <v>0.538776</v>
+        <v>0.555989</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.654127</v>
+        <v>0.7214930000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.54562</v>
+        <v>0.533528</v>
       </c>
       <c r="D108" t="n">
-        <v>0.632058</v>
+        <v>0.5703240000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.676883</v>
+        <v>0.655294</v>
       </c>
       <c r="C109" t="n">
-        <v>0.547029</v>
+        <v>0.55323</v>
       </c>
       <c r="D109" t="n">
-        <v>0.635856</v>
+        <v>0.594541</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.820589</v>
+        <v>0.7846379999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.625207</v>
+        <v>0.649943</v>
       </c>
       <c r="D110" t="n">
-        <v>0.645459</v>
+        <v>0.647551</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.797261</v>
+        <v>0.913691</v>
       </c>
       <c r="C111" t="n">
-        <v>0.633238</v>
+        <v>0.647813</v>
       </c>
       <c r="D111" t="n">
-        <v>0.63409</v>
+        <v>0.6542480000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.924764</v>
+        <v>0.927501</v>
       </c>
       <c r="C112" t="n">
-        <v>0.630019</v>
+        <v>0.672857</v>
       </c>
       <c r="D112" t="n">
-        <v>0.643806</v>
+        <v>0.65577</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.814455</v>
+        <v>0.8132470000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.630365</v>
+        <v>0.664354</v>
       </c>
       <c r="D113" t="n">
-        <v>0.643303</v>
+        <v>0.660654</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.790126</v>
+        <v>0.9152130000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6401790000000001</v>
+        <v>0.678203</v>
       </c>
       <c r="D114" t="n">
-        <v>0.68594</v>
+        <v>0.619132</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.788726</v>
+        <v>0.922095</v>
       </c>
       <c r="C115" t="n">
-        <v>0.638738</v>
+        <v>0.6591939999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.654291</v>
+        <v>0.651599</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.82155</v>
+        <v>0.786179</v>
       </c>
       <c r="C116" t="n">
-        <v>0.634072</v>
+        <v>0.677659</v>
       </c>
       <c r="D116" t="n">
-        <v>0.662582</v>
+        <v>0.632543</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.813118</v>
+        <v>0.91861</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6353220000000001</v>
+        <v>0.616604</v>
       </c>
       <c r="D117" t="n">
-        <v>0.677736</v>
+        <v>0.681342</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9013910000000001</v>
+        <v>0.820068</v>
       </c>
       <c r="C118" t="n">
-        <v>0.62815</v>
+        <v>0.622695</v>
       </c>
       <c r="D118" t="n">
-        <v>0.654343</v>
+        <v>0.676632</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.801076</v>
+        <v>0.8148030000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.642173</v>
+        <v>0.6121</v>
       </c>
       <c r="D119" t="n">
-        <v>0.663348</v>
+        <v>0.615649</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.838439</v>
+        <v>0.803633</v>
       </c>
       <c r="C120" t="n">
-        <v>0.654469</v>
+        <v>0.629063</v>
       </c>
       <c r="D120" t="n">
-        <v>0.658871</v>
+        <v>0.693175</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.912579</v>
+        <v>0.786521</v>
       </c>
       <c r="C121" t="n">
-        <v>0.640112</v>
+        <v>0.6328</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6714909999999999</v>
+        <v>0.644228</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.802631</v>
+        <v>0.928106</v>
       </c>
       <c r="C122" t="n">
-        <v>0.694231</v>
+        <v>0.645709</v>
       </c>
       <c r="D122" t="n">
-        <v>0.684764</v>
+        <v>0.706291</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.88761</v>
+        <v>0.930043</v>
       </c>
       <c r="C123" t="n">
-        <v>0.663196</v>
+        <v>0.651617</v>
       </c>
       <c r="D123" t="n">
-        <v>0.747803</v>
+        <v>0.719544</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.19355</v>
+        <v>1.18998</v>
       </c>
       <c r="C124" t="n">
-        <v>0.737793</v>
+        <v>0.7384309999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.752764</v>
+        <v>0.724091</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03757</v>
+        <v>1.03092</v>
       </c>
       <c r="C125" t="n">
-        <v>0.729449</v>
+        <v>0.734254</v>
       </c>
       <c r="D125" t="n">
-        <v>0.741559</v>
+        <v>0.738745</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.02047</v>
+        <v>1.02581</v>
       </c>
       <c r="C126" t="n">
-        <v>0.741743</v>
+        <v>0.805555</v>
       </c>
       <c r="D126" t="n">
-        <v>0.742053</v>
+        <v>0.729857</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03652</v>
+        <v>1.02293</v>
       </c>
       <c r="C127" t="n">
-        <v>0.739977</v>
+        <v>0.740435</v>
       </c>
       <c r="D127" t="n">
-        <v>0.744479</v>
+        <v>0.746079</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03793</v>
+        <v>1.02363</v>
       </c>
       <c r="C128" t="n">
-        <v>0.735375</v>
+        <v>0.754351</v>
       </c>
       <c r="D128" t="n">
-        <v>0.755621</v>
+        <v>0.746823</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.03192</v>
+        <v>1.08625</v>
       </c>
       <c r="C129" t="n">
-        <v>0.743241</v>
+        <v>0.8557670000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.730145</v>
+        <v>0.740996</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03956</v>
+        <v>1.03385</v>
       </c>
       <c r="C130" t="n">
-        <v>0.76473</v>
+        <v>0.8309</v>
       </c>
       <c r="D130" t="n">
-        <v>0.753613</v>
+        <v>0.74272</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.0283</v>
+        <v>1.17524</v>
       </c>
       <c r="C131" t="n">
-        <v>0.749245</v>
+        <v>0.744217</v>
       </c>
       <c r="D131" t="n">
-        <v>0.760484</v>
+        <v>0.8606740000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.03412</v>
+        <v>1.03439</v>
       </c>
       <c r="C132" t="n">
-        <v>0.74898</v>
+        <v>0.748228</v>
       </c>
       <c r="D132" t="n">
-        <v>0.758228</v>
+        <v>0.768335</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04509</v>
+        <v>1.06604</v>
       </c>
       <c r="C133" t="n">
-        <v>0.767354</v>
+        <v>0.754423</v>
       </c>
       <c r="D133" t="n">
-        <v>0.775115</v>
+        <v>0.758948</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05821</v>
+        <v>1.04396</v>
       </c>
       <c r="C134" t="n">
-        <v>0.760693</v>
+        <v>0.862177</v>
       </c>
       <c r="D134" t="n">
-        <v>0.762873</v>
+        <v>0.764922</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04648</v>
+        <v>1.0445</v>
       </c>
       <c r="C135" t="n">
-        <v>0.771204</v>
+        <v>0.85878</v>
       </c>
       <c r="D135" t="n">
-        <v>0.771352</v>
+        <v>0.76459</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.06722</v>
+        <v>1.22365</v>
       </c>
       <c r="C136" t="n">
-        <v>0.789524</v>
+        <v>0.77721</v>
       </c>
       <c r="D136" t="n">
-        <v>0.80631</v>
+        <v>0.891189</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05852</v>
+        <v>1.23461</v>
       </c>
       <c r="C137" t="n">
-        <v>0.801329</v>
+        <v>0.820094</v>
       </c>
       <c r="D137" t="n">
-        <v>0.930891</v>
+        <v>0.80033</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30978</v>
+        <v>1.31471</v>
       </c>
       <c r="C138" t="n">
-        <v>0.93253</v>
+        <v>0.94717</v>
       </c>
       <c r="D138" t="n">
-        <v>0.942527</v>
+        <v>0.917543</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30512</v>
+        <v>1.34906</v>
       </c>
       <c r="C139" t="n">
-        <v>0.940449</v>
+        <v>0.934874</v>
       </c>
       <c r="D139" t="n">
-        <v>0.953665</v>
+        <v>1.03513</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.30318</v>
+        <v>1.3107</v>
       </c>
       <c r="C140" t="n">
-        <v>0.932111</v>
+        <v>0.934013</v>
       </c>
       <c r="D140" t="n">
-        <v>0.94398</v>
+        <v>0.961153</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.3224</v>
+        <v>1.35761</v>
       </c>
       <c r="C141" t="n">
-        <v>0.930684</v>
+        <v>0.927906</v>
       </c>
       <c r="D141" t="n">
-        <v>0.933933</v>
+        <v>0.937553</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.43998</v>
+        <v>1.45162</v>
       </c>
       <c r="C142" t="n">
-        <v>0.928376</v>
+        <v>0.928252</v>
       </c>
       <c r="D142" t="n">
-        <v>0.938347</v>
+        <v>0.937353</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.29249</v>
+        <v>1.31667</v>
       </c>
       <c r="C143" t="n">
-        <v>0.932938</v>
+        <v>0.936783</v>
       </c>
       <c r="D143" t="n">
-        <v>0.941204</v>
+        <v>0.935288</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.120018</v>
+        <v>0.119092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.101246</v>
+        <v>0.0956563</v>
       </c>
       <c r="D2" t="n">
-        <v>0.100668</v>
+        <v>0.104253</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.121155</v>
+        <v>0.121292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.100521</v>
+        <v>0.100283</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0980316</v>
+        <v>0.103934</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117764</v>
+        <v>0.115774</v>
       </c>
       <c r="C4" t="n">
-        <v>0.101082</v>
+        <v>0.100215</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0972997</v>
+        <v>0.105146</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118196</v>
+        <v>0.123207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.103326</v>
+        <v>0.107654</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0987658</v>
+        <v>0.108255</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.124015</v>
+        <v>0.123096</v>
       </c>
       <c r="C6" t="n">
-        <v>0.105681</v>
+        <v>0.104235</v>
       </c>
       <c r="D6" t="n">
-        <v>0.104828</v>
+        <v>0.107279</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.12383</v>
+        <v>0.124861</v>
       </c>
       <c r="C7" t="n">
-        <v>0.105615</v>
+        <v>0.103263</v>
       </c>
       <c r="D7" t="n">
-        <v>0.106218</v>
+        <v>0.111411</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.123574</v>
+        <v>0.12652</v>
       </c>
       <c r="C8" t="n">
-        <v>0.105641</v>
+        <v>0.10492</v>
       </c>
       <c r="D8" t="n">
-        <v>0.109859</v>
+        <v>0.117763</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.126037</v>
+        <v>0.125031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11175</v>
+        <v>0.11124</v>
       </c>
       <c r="D9" t="n">
-        <v>0.12166</v>
+        <v>0.131437</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.132398</v>
+        <v>0.129656</v>
       </c>
       <c r="C10" t="n">
-        <v>0.103495</v>
+        <v>0.106126</v>
       </c>
       <c r="D10" t="n">
-        <v>0.100912</v>
+        <v>0.105212</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.13075</v>
+        <v>0.128713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.101457</v>
+        <v>0.105885</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09881529999999999</v>
+        <v>0.10755</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.133958</v>
+        <v>0.130541</v>
       </c>
       <c r="C12" t="n">
-        <v>0.103076</v>
+        <v>0.103306</v>
       </c>
       <c r="D12" t="n">
-        <v>0.102421</v>
+        <v>0.107976</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.130162</v>
+        <v>0.130954</v>
       </c>
       <c r="C13" t="n">
-        <v>0.10469</v>
+        <v>0.106644</v>
       </c>
       <c r="D13" t="n">
-        <v>0.100131</v>
+        <v>0.110991</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.130771</v>
+        <v>0.130948</v>
       </c>
       <c r="C14" t="n">
-        <v>0.106149</v>
+        <v>0.107753</v>
       </c>
       <c r="D14" t="n">
-        <v>0.102316</v>
+        <v>0.1074</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129037</v>
+        <v>0.133072</v>
       </c>
       <c r="C15" t="n">
-        <v>0.104043</v>
+        <v>0.106543</v>
       </c>
       <c r="D15" t="n">
-        <v>0.100358</v>
+        <v>0.108422</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.133205</v>
+        <v>0.131064</v>
       </c>
       <c r="C16" t="n">
-        <v>0.104914</v>
+        <v>0.106814</v>
       </c>
       <c r="D16" t="n">
-        <v>0.100819</v>
+        <v>0.10516</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129203</v>
+        <v>0.133551</v>
       </c>
       <c r="C17" t="n">
-        <v>0.102218</v>
+        <v>0.105334</v>
       </c>
       <c r="D17" t="n">
-        <v>0.102293</v>
+        <v>0.10622</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128429</v>
+        <v>0.129009</v>
       </c>
       <c r="C18" t="n">
-        <v>0.106321</v>
+        <v>0.105895</v>
       </c>
       <c r="D18" t="n">
-        <v>0.10171</v>
+        <v>0.108634</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.130167</v>
+        <v>0.13182</v>
       </c>
       <c r="C19" t="n">
-        <v>0.107083</v>
+        <v>0.105659</v>
       </c>
       <c r="D19" t="n">
-        <v>0.105962</v>
+        <v>0.108345</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128961</v>
+        <v>0.127803</v>
       </c>
       <c r="C20" t="n">
-        <v>0.105141</v>
+        <v>0.10875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.105628</v>
+        <v>0.112562</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130297</v>
+        <v>0.131662</v>
       </c>
       <c r="C21" t="n">
-        <v>0.111969</v>
+        <v>0.106947</v>
       </c>
       <c r="D21" t="n">
-        <v>0.109798</v>
+        <v>0.114781</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.133604</v>
+        <v>0.131082</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113847</v>
+        <v>0.114978</v>
       </c>
       <c r="D22" t="n">
-        <v>0.113349</v>
+        <v>0.122168</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138743</v>
+        <v>0.134418</v>
       </c>
       <c r="C23" t="n">
-        <v>0.117966</v>
+        <v>0.114656</v>
       </c>
       <c r="D23" t="n">
-        <v>0.123424</v>
+        <v>0.132169</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.141132</v>
+        <v>0.136391</v>
       </c>
       <c r="C24" t="n">
-        <v>0.104736</v>
+        <v>0.105426</v>
       </c>
       <c r="D24" t="n">
-        <v>0.10052</v>
+        <v>0.111753</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.142414</v>
+        <v>0.146441</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109784</v>
+        <v>0.107087</v>
       </c>
       <c r="D25" t="n">
-        <v>0.105577</v>
+        <v>0.106889</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.139597</v>
+        <v>0.138834</v>
       </c>
       <c r="C26" t="n">
-        <v>0.107505</v>
+        <v>0.107924</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103353</v>
+        <v>0.108991</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.139691</v>
+        <v>0.14067</v>
       </c>
       <c r="C27" t="n">
-        <v>0.10784</v>
+        <v>0.109404</v>
       </c>
       <c r="D27" t="n">
-        <v>0.103221</v>
+        <v>0.111147</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.141826</v>
+        <v>0.137918</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109369</v>
+        <v>0.108201</v>
       </c>
       <c r="D28" t="n">
-        <v>0.101885</v>
+        <v>0.110571</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.13915</v>
+        <v>0.143834</v>
       </c>
       <c r="C29" t="n">
-        <v>0.105991</v>
+        <v>0.10895</v>
       </c>
       <c r="D29" t="n">
-        <v>0.10547</v>
+        <v>0.112012</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.140406</v>
+        <v>0.142021</v>
       </c>
       <c r="C30" t="n">
-        <v>0.110205</v>
+        <v>0.108353</v>
       </c>
       <c r="D30" t="n">
-        <v>0.106763</v>
+        <v>0.111388</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.140669</v>
+        <v>0.141356</v>
       </c>
       <c r="C31" t="n">
-        <v>0.112952</v>
+        <v>0.111702</v>
       </c>
       <c r="D31" t="n">
-        <v>0.105777</v>
+        <v>0.111243</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.138862</v>
+        <v>0.142679</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112309</v>
+        <v>0.112091</v>
       </c>
       <c r="D32" t="n">
-        <v>0.105209</v>
+        <v>0.11526</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144747</v>
+        <v>0.144573</v>
       </c>
       <c r="C33" t="n">
-        <v>0.112054</v>
+        <v>0.11578</v>
       </c>
       <c r="D33" t="n">
-        <v>0.105307</v>
+        <v>0.115272</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.141613</v>
+        <v>0.144414</v>
       </c>
       <c r="C34" t="n">
-        <v>0.115805</v>
+        <v>0.112233</v>
       </c>
       <c r="D34" t="n">
-        <v>0.112072</v>
+        <v>0.118682</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143315</v>
+        <v>0.144363</v>
       </c>
       <c r="C35" t="n">
-        <v>0.116843</v>
+        <v>0.114385</v>
       </c>
       <c r="D35" t="n">
-        <v>0.118201</v>
+        <v>0.122089</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.142368</v>
+        <v>0.144924</v>
       </c>
       <c r="C36" t="n">
-        <v>0.121636</v>
+        <v>0.119713</v>
       </c>
       <c r="D36" t="n">
-        <v>0.122166</v>
+        <v>0.129209</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146971</v>
+        <v>0.149173</v>
       </c>
       <c r="C37" t="n">
-        <v>0.120717</v>
+        <v>0.124994</v>
       </c>
       <c r="D37" t="n">
-        <v>0.126276</v>
+        <v>0.140235</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.166856</v>
+        <v>0.162501</v>
       </c>
       <c r="C38" t="n">
-        <v>0.123839</v>
+        <v>0.121057</v>
       </c>
       <c r="D38" t="n">
-        <v>0.117353</v>
+        <v>0.12851</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.164314</v>
+        <v>0.168074</v>
       </c>
       <c r="C39" t="n">
-        <v>0.122892</v>
+        <v>0.123349</v>
       </c>
       <c r="D39" t="n">
-        <v>0.118956</v>
+        <v>0.124815</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167159</v>
+        <v>0.167595</v>
       </c>
       <c r="C40" t="n">
-        <v>0.124634</v>
+        <v>0.1233</v>
       </c>
       <c r="D40" t="n">
-        <v>0.119449</v>
+        <v>0.129585</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.164872</v>
+        <v>0.168985</v>
       </c>
       <c r="C41" t="n">
-        <v>0.123954</v>
+        <v>0.12641</v>
       </c>
       <c r="D41" t="n">
-        <v>0.119769</v>
+        <v>0.127186</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.169503</v>
+        <v>0.166899</v>
       </c>
       <c r="C42" t="n">
-        <v>0.126954</v>
+        <v>0.122491</v>
       </c>
       <c r="D42" t="n">
-        <v>0.119118</v>
+        <v>0.130468</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.166067</v>
+        <v>0.167001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.124867</v>
+        <v>0.126957</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121943</v>
+        <v>0.126019</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.17005</v>
+        <v>0.164222</v>
       </c>
       <c r="C44" t="n">
-        <v>0.127193</v>
+        <v>0.127472</v>
       </c>
       <c r="D44" t="n">
-        <v>0.121355</v>
+        <v>0.130574</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.167476</v>
+        <v>0.16805</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125701</v>
+        <v>0.123702</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125252</v>
+        <v>0.127022</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.16689</v>
+        <v>0.165529</v>
       </c>
       <c r="C46" t="n">
-        <v>0.127869</v>
+        <v>0.129606</v>
       </c>
       <c r="D46" t="n">
-        <v>0.126196</v>
+        <v>0.133342</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16999</v>
+        <v>0.163285</v>
       </c>
       <c r="C47" t="n">
-        <v>0.129563</v>
+        <v>0.129022</v>
       </c>
       <c r="D47" t="n">
-        <v>0.126301</v>
+        <v>0.136072</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.164922</v>
+        <v>0.167378</v>
       </c>
       <c r="C48" t="n">
-        <v>0.133049</v>
+        <v>0.137375</v>
       </c>
       <c r="D48" t="n">
-        <v>0.126359</v>
+        <v>0.135694</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.166982</v>
+        <v>0.165818</v>
       </c>
       <c r="C49" t="n">
-        <v>0.127495</v>
+        <v>0.134255</v>
       </c>
       <c r="D49" t="n">
-        <v>0.130205</v>
+        <v>0.137507</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171969</v>
+        <v>0.169754</v>
       </c>
       <c r="C50" t="n">
-        <v>0.138193</v>
+        <v>0.133609</v>
       </c>
       <c r="D50" t="n">
-        <v>0.138907</v>
+        <v>0.143471</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172981</v>
+        <v>0.176555</v>
       </c>
       <c r="C51" t="n">
-        <v>0.137449</v>
+        <v>0.13785</v>
       </c>
       <c r="D51" t="n">
-        <v>0.144931</v>
+        <v>0.146918</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.179697</v>
+        <v>0.17689</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1433</v>
+        <v>0.142587</v>
       </c>
       <c r="D52" t="n">
-        <v>0.149329</v>
+        <v>0.157126</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.255629</v>
+        <v>0.262293</v>
       </c>
       <c r="C53" t="n">
-        <v>0.194185</v>
+        <v>0.195568</v>
       </c>
       <c r="D53" t="n">
-        <v>0.191181</v>
+        <v>0.200655</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.261116</v>
+        <v>0.259824</v>
       </c>
       <c r="C54" t="n">
-        <v>0.196311</v>
+        <v>0.198405</v>
       </c>
       <c r="D54" t="n">
-        <v>0.19572</v>
+        <v>0.201923</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.257249</v>
+        <v>0.258528</v>
       </c>
       <c r="C55" t="n">
-        <v>0.197536</v>
+        <v>0.200388</v>
       </c>
       <c r="D55" t="n">
-        <v>0.195599</v>
+        <v>0.202597</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.267858</v>
+        <v>0.26054</v>
       </c>
       <c r="C56" t="n">
-        <v>0.201696</v>
+        <v>0.200665</v>
       </c>
       <c r="D56" t="n">
-        <v>0.199473</v>
+        <v>0.207143</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.257263</v>
+        <v>0.257535</v>
       </c>
       <c r="C57" t="n">
-        <v>0.197379</v>
+        <v>0.199636</v>
       </c>
       <c r="D57" t="n">
-        <v>0.192579</v>
+        <v>0.201055</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.256083</v>
+        <v>0.257948</v>
       </c>
       <c r="C58" t="n">
-        <v>0.205573</v>
+        <v>0.200691</v>
       </c>
       <c r="D58" t="n">
-        <v>0.201732</v>
+        <v>0.203531</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.255441</v>
+        <v>0.256674</v>
       </c>
       <c r="C59" t="n">
-        <v>0.210443</v>
+        <v>0.202042</v>
       </c>
       <c r="D59" t="n">
-        <v>0.199986</v>
+        <v>0.206836</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.259246</v>
+        <v>0.25433</v>
       </c>
       <c r="C60" t="n">
-        <v>0.205658</v>
+        <v>0.204495</v>
       </c>
       <c r="D60" t="n">
-        <v>0.197631</v>
+        <v>0.206898</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264791</v>
+        <v>0.259339</v>
       </c>
       <c r="C61" t="n">
-        <v>0.209835</v>
+        <v>0.200841</v>
       </c>
       <c r="D61" t="n">
-        <v>0.20286</v>
+        <v>0.207086</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.261682</v>
+        <v>0.256163</v>
       </c>
       <c r="C62" t="n">
-        <v>0.207935</v>
+        <v>0.206065</v>
       </c>
       <c r="D62" t="n">
-        <v>0.201913</v>
+        <v>0.212104</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.258778</v>
+        <v>0.261752</v>
       </c>
       <c r="C63" t="n">
-        <v>0.210524</v>
+        <v>0.214379</v>
       </c>
       <c r="D63" t="n">
-        <v>0.203818</v>
+        <v>0.209717</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264165</v>
+        <v>0.263325</v>
       </c>
       <c r="C64" t="n">
-        <v>0.210927</v>
+        <v>0.209074</v>
       </c>
       <c r="D64" t="n">
-        <v>0.216834</v>
+        <v>0.218467</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.277514</v>
+        <v>0.271494</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216072</v>
+        <v>0.213384</v>
       </c>
       <c r="D65" t="n">
-        <v>0.21324</v>
+        <v>0.219498</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.266395</v>
+        <v>0.263561</v>
       </c>
       <c r="C66" t="n">
-        <v>0.219248</v>
+        <v>0.221899</v>
       </c>
       <c r="D66" t="n">
-        <v>0.230623</v>
+        <v>0.233637</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.407642</v>
+        <v>0.394365</v>
       </c>
       <c r="C67" t="n">
-        <v>0.308474</v>
+        <v>0.309974</v>
       </c>
       <c r="D67" t="n">
-        <v>0.313447</v>
+        <v>0.31311</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.416829</v>
+        <v>0.404711</v>
       </c>
       <c r="C68" t="n">
-        <v>0.323892</v>
+        <v>0.318548</v>
       </c>
       <c r="D68" t="n">
-        <v>0.309648</v>
+        <v>0.310469</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.414272</v>
+        <v>0.396422</v>
       </c>
       <c r="C69" t="n">
-        <v>0.318807</v>
+        <v>0.304576</v>
       </c>
       <c r="D69" t="n">
-        <v>0.315246</v>
+        <v>0.312834</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.392552</v>
+        <v>0.393523</v>
       </c>
       <c r="C70" t="n">
-        <v>0.317151</v>
+        <v>0.322622</v>
       </c>
       <c r="D70" t="n">
-        <v>0.316285</v>
+        <v>0.312938</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.421408</v>
+        <v>0.402309</v>
       </c>
       <c r="C71" t="n">
-        <v>0.309659</v>
+        <v>0.31386</v>
       </c>
       <c r="D71" t="n">
-        <v>0.320234</v>
+        <v>0.318907</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.398696</v>
+        <v>0.403756</v>
       </c>
       <c r="C72" t="n">
-        <v>0.317538</v>
+        <v>0.314955</v>
       </c>
       <c r="D72" t="n">
-        <v>0.313893</v>
+        <v>0.32684</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.417034</v>
+        <v>0.406434</v>
       </c>
       <c r="C73" t="n">
-        <v>0.315477</v>
+        <v>0.321795</v>
       </c>
       <c r="D73" t="n">
-        <v>0.312693</v>
+        <v>0.322251</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.411191</v>
+        <v>0.39535</v>
       </c>
       <c r="C74" t="n">
-        <v>0.324512</v>
+        <v>0.314616</v>
       </c>
       <c r="D74" t="n">
-        <v>0.321971</v>
+        <v>0.322113</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.410136</v>
+        <v>0.406809</v>
       </c>
       <c r="C75" t="n">
-        <v>0.320875</v>
+        <v>0.318638</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3165</v>
+        <v>0.322555</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.411073</v>
+        <v>0.406886</v>
       </c>
       <c r="C76" t="n">
-        <v>0.317691</v>
+        <v>0.32391</v>
       </c>
       <c r="D76" t="n">
-        <v>0.313659</v>
+        <v>0.32704</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.422298</v>
+        <v>0.410365</v>
       </c>
       <c r="C77" t="n">
-        <v>0.313213</v>
+        <v>0.31958</v>
       </c>
       <c r="D77" t="n">
-        <v>0.321666</v>
+        <v>0.323191</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.417022</v>
+        <v>0.407981</v>
       </c>
       <c r="C78" t="n">
-        <v>0.31705</v>
+        <v>0.324371</v>
       </c>
       <c r="D78" t="n">
-        <v>0.327145</v>
+        <v>0.336768</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.412126</v>
+        <v>0.408916</v>
       </c>
       <c r="C79" t="n">
-        <v>0.325087</v>
+        <v>0.325042</v>
       </c>
       <c r="D79" t="n">
-        <v>0.326795</v>
+        <v>0.338153</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.415812</v>
+        <v>0.41546</v>
       </c>
       <c r="C80" t="n">
-        <v>0.323494</v>
+        <v>0.335607</v>
       </c>
       <c r="D80" t="n">
-        <v>0.335969</v>
+        <v>0.343378</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.549519</v>
+        <v>0.544338</v>
       </c>
       <c r="C81" t="n">
-        <v>0.42922</v>
+        <v>0.425542</v>
       </c>
       <c r="D81" t="n">
-        <v>0.430539</v>
+        <v>0.42057</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.564323</v>
+        <v>0.548562</v>
       </c>
       <c r="C82" t="n">
-        <v>0.434056</v>
+        <v>0.429541</v>
       </c>
       <c r="D82" t="n">
-        <v>0.419421</v>
+        <v>0.432262</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.569763</v>
+        <v>0.542907</v>
       </c>
       <c r="C83" t="n">
-        <v>0.425822</v>
+        <v>0.432725</v>
       </c>
       <c r="D83" t="n">
-        <v>0.423848</v>
+        <v>0.425469</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5524019999999999</v>
+        <v>0.5479850000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.427378</v>
+        <v>0.423034</v>
       </c>
       <c r="D84" t="n">
-        <v>0.421995</v>
+        <v>0.429922</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5410469999999999</v>
+        <v>0.552231</v>
       </c>
       <c r="C85" t="n">
-        <v>0.430866</v>
+        <v>0.433504</v>
       </c>
       <c r="D85" t="n">
-        <v>0.426955</v>
+        <v>0.433289</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.566497</v>
+        <v>0.550768</v>
       </c>
       <c r="C86" t="n">
-        <v>0.435968</v>
+        <v>0.425178</v>
       </c>
       <c r="D86" t="n">
-        <v>0.43327</v>
+        <v>0.425229</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.566238</v>
+        <v>0.5592859999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.428815</v>
+        <v>0.434035</v>
       </c>
       <c r="D87" t="n">
-        <v>0.428195</v>
+        <v>0.436613</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.584336</v>
+        <v>0.566024</v>
       </c>
       <c r="C88" t="n">
-        <v>0.42669</v>
+        <v>0.437668</v>
       </c>
       <c r="D88" t="n">
-        <v>0.43193</v>
+        <v>0.435983</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.561762</v>
+        <v>0.565145</v>
       </c>
       <c r="C89" t="n">
-        <v>0.438803</v>
+        <v>0.435509</v>
       </c>
       <c r="D89" t="n">
-        <v>0.435147</v>
+        <v>0.435224</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.575775</v>
+        <v>0.555125</v>
       </c>
       <c r="C90" t="n">
-        <v>0.435124</v>
+        <v>0.427985</v>
       </c>
       <c r="D90" t="n">
-        <v>0.436099</v>
+        <v>0.440698</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.563445</v>
+        <v>0.556354</v>
       </c>
       <c r="C91" t="n">
-        <v>0.439413</v>
+        <v>0.444528</v>
       </c>
       <c r="D91" t="n">
-        <v>0.441128</v>
+        <v>0.444581</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.555994</v>
+        <v>0.548675</v>
       </c>
       <c r="C92" t="n">
-        <v>0.440958</v>
+        <v>0.439831</v>
       </c>
       <c r="D92" t="n">
-        <v>0.43672</v>
+        <v>0.452517</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.558987</v>
+        <v>0.573184</v>
       </c>
       <c r="C93" t="n">
-        <v>0.44225</v>
+        <v>0.448764</v>
       </c>
       <c r="D93" t="n">
-        <v>0.444443</v>
+        <v>0.449996</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.571451</v>
+        <v>0.567654</v>
       </c>
       <c r="C94" t="n">
-        <v>0.452346</v>
+        <v>0.448164</v>
       </c>
       <c r="D94" t="n">
-        <v>0.45846</v>
+        <v>0.466857</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.62906</v>
+        <v>0.642312</v>
       </c>
       <c r="C95" t="n">
-        <v>0.504406</v>
+        <v>0.512124</v>
       </c>
       <c r="D95" t="n">
-        <v>0.504851</v>
+        <v>0.5173410000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.656698</v>
+        <v>0.649555</v>
       </c>
       <c r="C96" t="n">
-        <v>0.503316</v>
+        <v>0.51252</v>
       </c>
       <c r="D96" t="n">
-        <v>0.522856</v>
+        <v>0.504543</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.668744</v>
+        <v>0.651501</v>
       </c>
       <c r="C97" t="n">
-        <v>0.530955</v>
+        <v>0.514998</v>
       </c>
       <c r="D97" t="n">
-        <v>0.526545</v>
+        <v>0.522463</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.657039</v>
+        <v>0.650054</v>
       </c>
       <c r="C98" t="n">
-        <v>0.523147</v>
+        <v>0.503524</v>
       </c>
       <c r="D98" t="n">
-        <v>0.526513</v>
+        <v>0.5074070000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.637665</v>
+        <v>0.639299</v>
       </c>
       <c r="C99" t="n">
-        <v>0.521028</v>
+        <v>0.52373</v>
       </c>
       <c r="D99" t="n">
-        <v>0.538401</v>
+        <v>0.514095</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.691919</v>
+        <v>0.630791</v>
       </c>
       <c r="C100" t="n">
-        <v>0.503712</v>
+        <v>0.52323</v>
       </c>
       <c r="D100" t="n">
-        <v>0.534262</v>
+        <v>0.523694</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6579700000000001</v>
+        <v>0.639588</v>
       </c>
       <c r="C101" t="n">
-        <v>0.516859</v>
+        <v>0.527323</v>
       </c>
       <c r="D101" t="n">
-        <v>0.511081</v>
+        <v>0.535088</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.676233</v>
+        <v>0.645621</v>
       </c>
       <c r="C102" t="n">
-        <v>0.512188</v>
+        <v>0.510168</v>
       </c>
       <c r="D102" t="n">
-        <v>0.55014</v>
+        <v>0.528565</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.710768</v>
+        <v>0.654397</v>
       </c>
       <c r="C103" t="n">
-        <v>0.544828</v>
+        <v>0.511802</v>
       </c>
       <c r="D103" t="n">
-        <v>0.518283</v>
+        <v>0.527278</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.702301</v>
+        <v>0.657296</v>
       </c>
       <c r="C104" t="n">
-        <v>0.553136</v>
+        <v>0.524735</v>
       </c>
       <c r="D104" t="n">
-        <v>0.514535</v>
+        <v>0.536016</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.644058</v>
+        <v>0.674311</v>
       </c>
       <c r="C105" t="n">
-        <v>0.543354</v>
+        <v>0.527025</v>
       </c>
       <c r="D105" t="n">
-        <v>0.548694</v>
+        <v>0.52832</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.705898</v>
+        <v>0.651099</v>
       </c>
       <c r="C106" t="n">
-        <v>0.560895</v>
+        <v>0.529464</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5724399999999999</v>
+        <v>0.536343</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.70073</v>
+        <v>0.631498</v>
       </c>
       <c r="C107" t="n">
-        <v>0.524794</v>
+        <v>0.543099</v>
       </c>
       <c r="D107" t="n">
-        <v>0.555989</v>
+        <v>0.544133</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.7214930000000001</v>
+        <v>0.650772</v>
       </c>
       <c r="C108" t="n">
-        <v>0.533528</v>
+        <v>0.5379159999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5703240000000001</v>
+        <v>0.581357</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.655294</v>
+        <v>0.66031</v>
       </c>
       <c r="C109" t="n">
-        <v>0.55323</v>
+        <v>0.549399</v>
       </c>
       <c r="D109" t="n">
-        <v>0.594541</v>
+        <v>0.583691</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7846379999999999</v>
+        <v>0.778635</v>
       </c>
       <c r="C110" t="n">
-        <v>0.649943</v>
+        <v>0.594269</v>
       </c>
       <c r="D110" t="n">
-        <v>0.647551</v>
+        <v>0.601061</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.913691</v>
+        <v>0.8044790000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.647813</v>
+        <v>0.584565</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6542480000000001</v>
+        <v>0.591754</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.927501</v>
+        <v>0.786642</v>
       </c>
       <c r="C112" t="n">
-        <v>0.672857</v>
+        <v>0.593991</v>
       </c>
       <c r="D112" t="n">
-        <v>0.65577</v>
+        <v>0.591371</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8132470000000001</v>
+        <v>0.809351</v>
       </c>
       <c r="C113" t="n">
-        <v>0.664354</v>
+        <v>0.610666</v>
       </c>
       <c r="D113" t="n">
-        <v>0.660654</v>
+        <v>0.614886</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9152130000000001</v>
+        <v>0.785075</v>
       </c>
       <c r="C114" t="n">
-        <v>0.678203</v>
+        <v>0.601433</v>
       </c>
       <c r="D114" t="n">
-        <v>0.619132</v>
+        <v>0.611231</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.922095</v>
+        <v>0.797785</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6591939999999999</v>
+        <v>0.607602</v>
       </c>
       <c r="D115" t="n">
-        <v>0.651599</v>
+        <v>0.61056</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.786179</v>
+        <v>0.790363</v>
       </c>
       <c r="C116" t="n">
-        <v>0.677659</v>
+        <v>0.610502</v>
       </c>
       <c r="D116" t="n">
-        <v>0.632543</v>
+        <v>0.621488</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.91861</v>
+        <v>0.79399</v>
       </c>
       <c r="C117" t="n">
-        <v>0.616604</v>
+        <v>0.627655</v>
       </c>
       <c r="D117" t="n">
-        <v>0.681342</v>
+        <v>0.623111</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.820068</v>
+        <v>0.786709</v>
       </c>
       <c r="C118" t="n">
-        <v>0.622695</v>
+        <v>0.616476</v>
       </c>
       <c r="D118" t="n">
-        <v>0.676632</v>
+        <v>0.621108</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8148030000000001</v>
+        <v>0.796708</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6121</v>
+        <v>0.633999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.615649</v>
+        <v>0.631481</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.803633</v>
+        <v>0.775549</v>
       </c>
       <c r="C120" t="n">
-        <v>0.629063</v>
+        <v>0.622536</v>
       </c>
       <c r="D120" t="n">
-        <v>0.693175</v>
+        <v>0.63925</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.786521</v>
+        <v>0.798947</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6328</v>
+        <v>0.626316</v>
       </c>
       <c r="D121" t="n">
-        <v>0.644228</v>
+        <v>0.642074</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.928106</v>
+        <v>0.806764</v>
       </c>
       <c r="C122" t="n">
-        <v>0.645709</v>
+        <v>0.624673</v>
       </c>
       <c r="D122" t="n">
-        <v>0.706291</v>
+        <v>0.650505</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.930043</v>
+        <v>0.8075639999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.651617</v>
+        <v>0.641666</v>
       </c>
       <c r="D123" t="n">
-        <v>0.719544</v>
+        <v>0.668887</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.18998</v>
+        <v>1.09972</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7384309999999999</v>
+        <v>0.758505</v>
       </c>
       <c r="D124" t="n">
-        <v>0.724091</v>
+        <v>0.750906</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03092</v>
+        <v>1.04813</v>
       </c>
       <c r="C125" t="n">
-        <v>0.734254</v>
+        <v>0.774271</v>
       </c>
       <c r="D125" t="n">
-        <v>0.738745</v>
+        <v>0.76019</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.02581</v>
+        <v>1.03644</v>
       </c>
       <c r="C126" t="n">
-        <v>0.805555</v>
+        <v>0.762185</v>
       </c>
       <c r="D126" t="n">
-        <v>0.729857</v>
+        <v>0.760871</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.02293</v>
+        <v>1.05165</v>
       </c>
       <c r="C127" t="n">
-        <v>0.740435</v>
+        <v>0.780909</v>
       </c>
       <c r="D127" t="n">
-        <v>0.746079</v>
+        <v>0.755224</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.02363</v>
+        <v>1.03786</v>
       </c>
       <c r="C128" t="n">
-        <v>0.754351</v>
+        <v>0.766332</v>
       </c>
       <c r="D128" t="n">
-        <v>0.746823</v>
+        <v>0.757499</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08625</v>
+        <v>1.06638</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8557670000000001</v>
+        <v>0.776165</v>
       </c>
       <c r="D129" t="n">
-        <v>0.740996</v>
+        <v>0.76708</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03385</v>
+        <v>1.05236</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8309</v>
+        <v>0.768132</v>
       </c>
       <c r="D130" t="n">
-        <v>0.74272</v>
+        <v>0.769518</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.17524</v>
+        <v>1.03583</v>
       </c>
       <c r="C131" t="n">
-        <v>0.744217</v>
+        <v>0.782245</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8606740000000001</v>
+        <v>0.777655</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.03439</v>
+        <v>1.04782</v>
       </c>
       <c r="C132" t="n">
-        <v>0.748228</v>
+        <v>0.777355</v>
       </c>
       <c r="D132" t="n">
-        <v>0.768335</v>
+        <v>0.784783</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.06604</v>
+        <v>1.02704</v>
       </c>
       <c r="C133" t="n">
-        <v>0.754423</v>
+        <v>0.766802</v>
       </c>
       <c r="D133" t="n">
-        <v>0.758948</v>
+        <v>0.784256</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04396</v>
+        <v>1.06037</v>
       </c>
       <c r="C134" t="n">
-        <v>0.862177</v>
+        <v>0.780126</v>
       </c>
       <c r="D134" t="n">
-        <v>0.764922</v>
+        <v>0.7927</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.0445</v>
+        <v>1.0682</v>
       </c>
       <c r="C135" t="n">
-        <v>0.85878</v>
+        <v>0.796625</v>
       </c>
       <c r="D135" t="n">
-        <v>0.76459</v>
+        <v>0.788856</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.22365</v>
+        <v>1.0635</v>
       </c>
       <c r="C136" t="n">
-        <v>0.77721</v>
+        <v>0.7762829999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.891189</v>
+        <v>0.824997</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.23461</v>
+        <v>1.07535</v>
       </c>
       <c r="C137" t="n">
-        <v>0.820094</v>
+        <v>0.789911</v>
       </c>
       <c r="D137" t="n">
-        <v>0.80033</v>
+        <v>0.835156</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.31471</v>
+        <v>1.30113</v>
       </c>
       <c r="C138" t="n">
-        <v>0.94717</v>
+        <v>0.932846</v>
       </c>
       <c r="D138" t="n">
-        <v>0.917543</v>
+        <v>0.939067</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.34906</v>
+        <v>1.40087</v>
       </c>
       <c r="C139" t="n">
-        <v>0.934874</v>
+        <v>0.9214869999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>1.03513</v>
+        <v>0.914173</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.3107</v>
+        <v>1.34605</v>
       </c>
       <c r="C140" t="n">
-        <v>0.934013</v>
+        <v>0.915851</v>
       </c>
       <c r="D140" t="n">
-        <v>0.961153</v>
+        <v>0.921247</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.35761</v>
+        <v>1.31501</v>
       </c>
       <c r="C141" t="n">
-        <v>0.927906</v>
+        <v>0.941537</v>
       </c>
       <c r="D141" t="n">
-        <v>0.937553</v>
+        <v>0.935232</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.45162</v>
+        <v>1.3098</v>
       </c>
       <c r="C142" t="n">
-        <v>0.928252</v>
+        <v>0.932192</v>
       </c>
       <c r="D142" t="n">
-        <v>0.937353</v>
+        <v>0.933375</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.31667</v>
+        <v>1.31001</v>
       </c>
       <c r="C143" t="n">
-        <v>0.936783</v>
+        <v>0.928404</v>
       </c>
       <c r="D143" t="n">
-        <v>0.935288</v>
+        <v>0.931713</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.119092</v>
+        <v>0.113851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0956563</v>
+        <v>0.10804</v>
       </c>
       <c r="D2" t="n">
-        <v>0.104253</v>
+        <v>0.108955</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.121292</v>
+        <v>0.124762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.100283</v>
+        <v>0.105135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.103934</v>
+        <v>0.107959</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.115774</v>
+        <v>0.120767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.100215</v>
+        <v>0.102129</v>
       </c>
       <c r="D4" t="n">
-        <v>0.105146</v>
+        <v>0.105158</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123207</v>
+        <v>0.123246</v>
       </c>
       <c r="C5" t="n">
-        <v>0.107654</v>
+        <v>0.104549</v>
       </c>
       <c r="D5" t="n">
-        <v>0.108255</v>
+        <v>0.112225</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123096</v>
+        <v>0.123598</v>
       </c>
       <c r="C6" t="n">
-        <v>0.104235</v>
+        <v>0.108105</v>
       </c>
       <c r="D6" t="n">
-        <v>0.107279</v>
+        <v>0.107348</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.124861</v>
+        <v>0.120309</v>
       </c>
       <c r="C7" t="n">
-        <v>0.103263</v>
+        <v>0.107075</v>
       </c>
       <c r="D7" t="n">
-        <v>0.111411</v>
+        <v>0.113109</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.12652</v>
+        <v>0.123889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10492</v>
+        <v>0.110476</v>
       </c>
       <c r="D8" t="n">
-        <v>0.117763</v>
+        <v>0.121006</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.125031</v>
+        <v>0.124621</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11124</v>
+        <v>0.11436</v>
       </c>
       <c r="D9" t="n">
-        <v>0.131437</v>
+        <v>0.12692</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.129656</v>
+        <v>0.128816</v>
       </c>
       <c r="C10" t="n">
-        <v>0.106126</v>
+        <v>0.102673</v>
       </c>
       <c r="D10" t="n">
-        <v>0.105212</v>
+        <v>0.107809</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.128713</v>
+        <v>0.131049</v>
       </c>
       <c r="C11" t="n">
-        <v>0.105885</v>
+        <v>0.108187</v>
       </c>
       <c r="D11" t="n">
-        <v>0.10755</v>
+        <v>0.11316</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.130541</v>
+        <v>0.132209</v>
       </c>
       <c r="C12" t="n">
-        <v>0.103306</v>
+        <v>0.103953</v>
       </c>
       <c r="D12" t="n">
-        <v>0.107976</v>
+        <v>0.106337</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.130954</v>
+        <v>0.129023</v>
       </c>
       <c r="C13" t="n">
-        <v>0.106644</v>
+        <v>0.104573</v>
       </c>
       <c r="D13" t="n">
-        <v>0.110991</v>
+        <v>0.107003</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.130948</v>
+        <v>0.137994</v>
       </c>
       <c r="C14" t="n">
-        <v>0.107753</v>
+        <v>0.104958</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1074</v>
+        <v>0.106736</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.133072</v>
+        <v>0.131345</v>
       </c>
       <c r="C15" t="n">
-        <v>0.106543</v>
+        <v>0.105082</v>
       </c>
       <c r="D15" t="n">
-        <v>0.108422</v>
+        <v>0.107066</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.131064</v>
+        <v>0.127554</v>
       </c>
       <c r="C16" t="n">
-        <v>0.106814</v>
+        <v>0.102858</v>
       </c>
       <c r="D16" t="n">
-        <v>0.10516</v>
+        <v>0.107476</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.133551</v>
+        <v>0.127747</v>
       </c>
       <c r="C17" t="n">
-        <v>0.105334</v>
+        <v>0.106052</v>
       </c>
       <c r="D17" t="n">
-        <v>0.10622</v>
+        <v>0.105607</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.129009</v>
+        <v>0.134233</v>
       </c>
       <c r="C18" t="n">
-        <v>0.105895</v>
+        <v>0.104841</v>
       </c>
       <c r="D18" t="n">
-        <v>0.108634</v>
+        <v>0.110308</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13182</v>
+        <v>0.133475</v>
       </c>
       <c r="C19" t="n">
-        <v>0.105659</v>
+        <v>0.106434</v>
       </c>
       <c r="D19" t="n">
-        <v>0.108345</v>
+        <v>0.112343</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127803</v>
+        <v>0.130249</v>
       </c>
       <c r="C20" t="n">
-        <v>0.10875</v>
+        <v>0.109234</v>
       </c>
       <c r="D20" t="n">
-        <v>0.112562</v>
+        <v>0.115864</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.131662</v>
+        <v>0.133455</v>
       </c>
       <c r="C21" t="n">
-        <v>0.106947</v>
+        <v>0.110111</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114781</v>
+        <v>0.117034</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.131082</v>
+        <v>0.132907</v>
       </c>
       <c r="C22" t="n">
-        <v>0.114978</v>
+        <v>0.112074</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122168</v>
+        <v>0.12566</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.134418</v>
+        <v>0.136782</v>
       </c>
       <c r="C23" t="n">
-        <v>0.114656</v>
+        <v>0.115101</v>
       </c>
       <c r="D23" t="n">
-        <v>0.132169</v>
+        <v>0.130963</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136391</v>
+        <v>0.141474</v>
       </c>
       <c r="C24" t="n">
-        <v>0.105426</v>
+        <v>0.107666</v>
       </c>
       <c r="D24" t="n">
-        <v>0.111753</v>
+        <v>0.110857</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.146441</v>
+        <v>0.138631</v>
       </c>
       <c r="C25" t="n">
-        <v>0.107087</v>
+        <v>0.106232</v>
       </c>
       <c r="D25" t="n">
-        <v>0.106889</v>
+        <v>0.108668</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.138834</v>
+        <v>0.137541</v>
       </c>
       <c r="C26" t="n">
-        <v>0.107924</v>
+        <v>0.106642</v>
       </c>
       <c r="D26" t="n">
-        <v>0.108991</v>
+        <v>0.108028</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.14067</v>
+        <v>0.137721</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109404</v>
+        <v>0.107091</v>
       </c>
       <c r="D27" t="n">
-        <v>0.111147</v>
+        <v>0.111173</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.137918</v>
+        <v>0.143069</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108201</v>
+        <v>0.109466</v>
       </c>
       <c r="D28" t="n">
-        <v>0.110571</v>
+        <v>0.112002</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.143834</v>
+        <v>0.137626</v>
       </c>
       <c r="C29" t="n">
-        <v>0.10895</v>
+        <v>0.110209</v>
       </c>
       <c r="D29" t="n">
-        <v>0.112012</v>
+        <v>0.110593</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.142021</v>
+        <v>0.142204</v>
       </c>
       <c r="C30" t="n">
-        <v>0.108353</v>
+        <v>0.107789</v>
       </c>
       <c r="D30" t="n">
-        <v>0.111388</v>
+        <v>0.111481</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141356</v>
+        <v>0.144295</v>
       </c>
       <c r="C31" t="n">
-        <v>0.111702</v>
+        <v>0.108973</v>
       </c>
       <c r="D31" t="n">
-        <v>0.111243</v>
+        <v>0.109521</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.142679</v>
+        <v>0.141629</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112091</v>
+        <v>0.110543</v>
       </c>
       <c r="D32" t="n">
-        <v>0.11526</v>
+        <v>0.113129</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144573</v>
+        <v>0.140215</v>
       </c>
       <c r="C33" t="n">
-        <v>0.11578</v>
+        <v>0.113514</v>
       </c>
       <c r="D33" t="n">
-        <v>0.115272</v>
+        <v>0.117224</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.144414</v>
+        <v>0.144786</v>
       </c>
       <c r="C34" t="n">
-        <v>0.112233</v>
+        <v>0.114616</v>
       </c>
       <c r="D34" t="n">
-        <v>0.118682</v>
+        <v>0.120426</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.144363</v>
+        <v>0.141015</v>
       </c>
       <c r="C35" t="n">
-        <v>0.114385</v>
+        <v>0.117631</v>
       </c>
       <c r="D35" t="n">
-        <v>0.122089</v>
+        <v>0.125441</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.144924</v>
+        <v>0.1433</v>
       </c>
       <c r="C36" t="n">
-        <v>0.119713</v>
+        <v>0.119722</v>
       </c>
       <c r="D36" t="n">
-        <v>0.129209</v>
+        <v>0.132431</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.149173</v>
+        <v>0.148502</v>
       </c>
       <c r="C37" t="n">
-        <v>0.124994</v>
+        <v>0.124472</v>
       </c>
       <c r="D37" t="n">
-        <v>0.140235</v>
+        <v>0.136852</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162501</v>
+        <v>0.166943</v>
       </c>
       <c r="C38" t="n">
-        <v>0.121057</v>
+        <v>0.122464</v>
       </c>
       <c r="D38" t="n">
-        <v>0.12851</v>
+        <v>0.125992</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.168074</v>
+        <v>0.163782</v>
       </c>
       <c r="C39" t="n">
-        <v>0.123349</v>
+        <v>0.120508</v>
       </c>
       <c r="D39" t="n">
-        <v>0.124815</v>
+        <v>0.125123</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167595</v>
+        <v>0.166237</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1233</v>
+        <v>0.122877</v>
       </c>
       <c r="D40" t="n">
-        <v>0.129585</v>
+        <v>0.126682</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.168985</v>
+        <v>0.162665</v>
       </c>
       <c r="C41" t="n">
-        <v>0.12641</v>
+        <v>0.123215</v>
       </c>
       <c r="D41" t="n">
-        <v>0.127186</v>
+        <v>0.124739</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.166899</v>
+        <v>0.166</v>
       </c>
       <c r="C42" t="n">
-        <v>0.122491</v>
+        <v>0.122969</v>
       </c>
       <c r="D42" t="n">
-        <v>0.130468</v>
+        <v>0.129416</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.167001</v>
+        <v>0.16758</v>
       </c>
       <c r="C43" t="n">
-        <v>0.126957</v>
+        <v>0.122366</v>
       </c>
       <c r="D43" t="n">
-        <v>0.126019</v>
+        <v>0.126193</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.164222</v>
+        <v>0.162329</v>
       </c>
       <c r="C44" t="n">
-        <v>0.127472</v>
+        <v>0.127465</v>
       </c>
       <c r="D44" t="n">
-        <v>0.130574</v>
+        <v>0.125868</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.16805</v>
+        <v>0.16486</v>
       </c>
       <c r="C45" t="n">
-        <v>0.123702</v>
+        <v>0.125571</v>
       </c>
       <c r="D45" t="n">
-        <v>0.127022</v>
+        <v>0.128115</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.165529</v>
+        <v>0.169713</v>
       </c>
       <c r="C46" t="n">
-        <v>0.129606</v>
+        <v>0.130788</v>
       </c>
       <c r="D46" t="n">
-        <v>0.133342</v>
+        <v>0.129129</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.163285</v>
+        <v>0.166425</v>
       </c>
       <c r="C47" t="n">
-        <v>0.129022</v>
+        <v>0.132355</v>
       </c>
       <c r="D47" t="n">
-        <v>0.136072</v>
+        <v>0.1293</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167378</v>
+        <v>0.169745</v>
       </c>
       <c r="C48" t="n">
-        <v>0.137375</v>
+        <v>0.127497</v>
       </c>
       <c r="D48" t="n">
-        <v>0.135694</v>
+        <v>0.13645</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165818</v>
+        <v>0.164349</v>
       </c>
       <c r="C49" t="n">
-        <v>0.134255</v>
+        <v>0.131883</v>
       </c>
       <c r="D49" t="n">
-        <v>0.137507</v>
+        <v>0.133561</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169754</v>
+        <v>0.167103</v>
       </c>
       <c r="C50" t="n">
-        <v>0.133609</v>
+        <v>0.132486</v>
       </c>
       <c r="D50" t="n">
-        <v>0.143471</v>
+        <v>0.143263</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176555</v>
+        <v>0.169593</v>
       </c>
       <c r="C51" t="n">
-        <v>0.13785</v>
+        <v>0.138262</v>
       </c>
       <c r="D51" t="n">
-        <v>0.146918</v>
+        <v>0.147166</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17689</v>
+        <v>0.175683</v>
       </c>
       <c r="C52" t="n">
-        <v>0.142587</v>
+        <v>0.139861</v>
       </c>
       <c r="D52" t="n">
-        <v>0.157126</v>
+        <v>0.161321</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.262293</v>
+        <v>0.262452</v>
       </c>
       <c r="C53" t="n">
-        <v>0.195568</v>
+        <v>0.201912</v>
       </c>
       <c r="D53" t="n">
-        <v>0.200655</v>
+        <v>0.197719</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.259824</v>
+        <v>0.258666</v>
       </c>
       <c r="C54" t="n">
-        <v>0.198405</v>
+        <v>0.2014</v>
       </c>
       <c r="D54" t="n">
-        <v>0.201923</v>
+        <v>0.205321</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.258528</v>
+        <v>0.258031</v>
       </c>
       <c r="C55" t="n">
-        <v>0.200388</v>
+        <v>0.207416</v>
       </c>
       <c r="D55" t="n">
-        <v>0.202597</v>
+        <v>0.19738</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.26054</v>
+        <v>0.264998</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200665</v>
+        <v>0.20151</v>
       </c>
       <c r="D56" t="n">
-        <v>0.207143</v>
+        <v>0.209325</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.257535</v>
+        <v>0.263169</v>
       </c>
       <c r="C57" t="n">
-        <v>0.199636</v>
+        <v>0.200796</v>
       </c>
       <c r="D57" t="n">
-        <v>0.201055</v>
+        <v>0.20781</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.257948</v>
+        <v>0.262206</v>
       </c>
       <c r="C58" t="n">
-        <v>0.200691</v>
+        <v>0.197899</v>
       </c>
       <c r="D58" t="n">
-        <v>0.203531</v>
+        <v>0.202559</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.256674</v>
+        <v>0.257468</v>
       </c>
       <c r="C59" t="n">
-        <v>0.202042</v>
+        <v>0.200571</v>
       </c>
       <c r="D59" t="n">
-        <v>0.206836</v>
+        <v>0.202176</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.25433</v>
+        <v>0.260302</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204495</v>
+        <v>0.202058</v>
       </c>
       <c r="D60" t="n">
-        <v>0.206898</v>
+        <v>0.205155</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259339</v>
+        <v>0.262154</v>
       </c>
       <c r="C61" t="n">
-        <v>0.200841</v>
+        <v>0.203676</v>
       </c>
       <c r="D61" t="n">
-        <v>0.207086</v>
+        <v>0.210774</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256163</v>
+        <v>0.264139</v>
       </c>
       <c r="C62" t="n">
-        <v>0.206065</v>
+        <v>0.208817</v>
       </c>
       <c r="D62" t="n">
-        <v>0.212104</v>
+        <v>0.210389</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.261752</v>
+        <v>0.259711</v>
       </c>
       <c r="C63" t="n">
-        <v>0.214379</v>
+        <v>0.207902</v>
       </c>
       <c r="D63" t="n">
-        <v>0.209717</v>
+        <v>0.224027</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.263325</v>
+        <v>0.266265</v>
       </c>
       <c r="C64" t="n">
-        <v>0.209074</v>
+        <v>0.213053</v>
       </c>
       <c r="D64" t="n">
-        <v>0.218467</v>
+        <v>0.217527</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.271494</v>
+        <v>0.268709</v>
       </c>
       <c r="C65" t="n">
-        <v>0.213384</v>
+        <v>0.218284</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219498</v>
+        <v>0.22805</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.263561</v>
+        <v>0.279518</v>
       </c>
       <c r="C66" t="n">
-        <v>0.221899</v>
+        <v>0.220675</v>
       </c>
       <c r="D66" t="n">
-        <v>0.233637</v>
+        <v>0.239699</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.394365</v>
+        <v>0.413295</v>
       </c>
       <c r="C67" t="n">
-        <v>0.309974</v>
+        <v>0.314498</v>
       </c>
       <c r="D67" t="n">
-        <v>0.31311</v>
+        <v>0.311639</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.404711</v>
+        <v>0.399927</v>
       </c>
       <c r="C68" t="n">
-        <v>0.318548</v>
+        <v>0.3111</v>
       </c>
       <c r="D68" t="n">
-        <v>0.310469</v>
+        <v>0.320506</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.396422</v>
+        <v>0.406879</v>
       </c>
       <c r="C69" t="n">
-        <v>0.304576</v>
+        <v>0.310031</v>
       </c>
       <c r="D69" t="n">
-        <v>0.312834</v>
+        <v>0.321772</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.393523</v>
+        <v>0.404092</v>
       </c>
       <c r="C70" t="n">
-        <v>0.322622</v>
+        <v>0.318105</v>
       </c>
       <c r="D70" t="n">
-        <v>0.312938</v>
+        <v>0.320074</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.402309</v>
+        <v>0.391566</v>
       </c>
       <c r="C71" t="n">
-        <v>0.31386</v>
+        <v>0.309943</v>
       </c>
       <c r="D71" t="n">
-        <v>0.318907</v>
+        <v>0.31252</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.403756</v>
+        <v>0.419412</v>
       </c>
       <c r="C72" t="n">
-        <v>0.314955</v>
+        <v>0.320622</v>
       </c>
       <c r="D72" t="n">
-        <v>0.32684</v>
+        <v>0.320535</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.406434</v>
+        <v>0.411778</v>
       </c>
       <c r="C73" t="n">
-        <v>0.321795</v>
+        <v>0.316622</v>
       </c>
       <c r="D73" t="n">
-        <v>0.322251</v>
+        <v>0.328639</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.39535</v>
+        <v>0.415776</v>
       </c>
       <c r="C74" t="n">
-        <v>0.314616</v>
+        <v>0.316992</v>
       </c>
       <c r="D74" t="n">
-        <v>0.322113</v>
+        <v>0.31598</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.406809</v>
+        <v>0.414403</v>
       </c>
       <c r="C75" t="n">
-        <v>0.318638</v>
+        <v>0.326013</v>
       </c>
       <c r="D75" t="n">
-        <v>0.322555</v>
+        <v>0.326427</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.406886</v>
+        <v>0.415919</v>
       </c>
       <c r="C76" t="n">
-        <v>0.32391</v>
+        <v>0.322687</v>
       </c>
       <c r="D76" t="n">
-        <v>0.32704</v>
+        <v>0.327296</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.410365</v>
+        <v>0.405956</v>
       </c>
       <c r="C77" t="n">
-        <v>0.31958</v>
+        <v>0.328257</v>
       </c>
       <c r="D77" t="n">
-        <v>0.323191</v>
+        <v>0.329179</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.407981</v>
+        <v>0.414471</v>
       </c>
       <c r="C78" t="n">
-        <v>0.324371</v>
+        <v>0.316933</v>
       </c>
       <c r="D78" t="n">
-        <v>0.336768</v>
+        <v>0.326653</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.408916</v>
+        <v>0.436453</v>
       </c>
       <c r="C79" t="n">
-        <v>0.325042</v>
+        <v>0.321748</v>
       </c>
       <c r="D79" t="n">
-        <v>0.338153</v>
+        <v>0.332856</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.41546</v>
+        <v>0.424109</v>
       </c>
       <c r="C80" t="n">
-        <v>0.335607</v>
+        <v>0.332821</v>
       </c>
       <c r="D80" t="n">
-        <v>0.343378</v>
+        <v>0.352849</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.544338</v>
+        <v>0.563654</v>
       </c>
       <c r="C81" t="n">
-        <v>0.425542</v>
+        <v>0.431567</v>
       </c>
       <c r="D81" t="n">
-        <v>0.42057</v>
+        <v>0.429166</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.548562</v>
+        <v>0.574684</v>
       </c>
       <c r="C82" t="n">
-        <v>0.429541</v>
+        <v>0.444248</v>
       </c>
       <c r="D82" t="n">
-        <v>0.432262</v>
+        <v>0.435259</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.542907</v>
+        <v>0.575461</v>
       </c>
       <c r="C83" t="n">
-        <v>0.432725</v>
+        <v>0.423836</v>
       </c>
       <c r="D83" t="n">
-        <v>0.425469</v>
+        <v>0.436988</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5479850000000001</v>
+        <v>0.55609</v>
       </c>
       <c r="C84" t="n">
-        <v>0.423034</v>
+        <v>0.43005</v>
       </c>
       <c r="D84" t="n">
-        <v>0.429922</v>
+        <v>0.431878</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.552231</v>
+        <v>0.560294</v>
       </c>
       <c r="C85" t="n">
-        <v>0.433504</v>
+        <v>0.437264</v>
       </c>
       <c r="D85" t="n">
-        <v>0.433289</v>
+        <v>0.429585</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.550768</v>
+        <v>0.559107</v>
       </c>
       <c r="C86" t="n">
-        <v>0.425178</v>
+        <v>0.433448</v>
       </c>
       <c r="D86" t="n">
-        <v>0.425229</v>
+        <v>0.430539</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5592859999999999</v>
+        <v>0.555698</v>
       </c>
       <c r="C87" t="n">
-        <v>0.434035</v>
+        <v>0.439795</v>
       </c>
       <c r="D87" t="n">
-        <v>0.436613</v>
+        <v>0.436231</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.566024</v>
+        <v>0.564924</v>
       </c>
       <c r="C88" t="n">
-        <v>0.437668</v>
+        <v>0.43815</v>
       </c>
       <c r="D88" t="n">
-        <v>0.435983</v>
+        <v>0.44099</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.565145</v>
+        <v>0.555491</v>
       </c>
       <c r="C89" t="n">
-        <v>0.435509</v>
+        <v>0.427976</v>
       </c>
       <c r="D89" t="n">
-        <v>0.435224</v>
+        <v>0.438593</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.555125</v>
+        <v>0.55376</v>
       </c>
       <c r="C90" t="n">
-        <v>0.427985</v>
+        <v>0.444054</v>
       </c>
       <c r="D90" t="n">
-        <v>0.440698</v>
+        <v>0.440866</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.556354</v>
+        <v>0.56116</v>
       </c>
       <c r="C91" t="n">
-        <v>0.444528</v>
+        <v>0.4495</v>
       </c>
       <c r="D91" t="n">
-        <v>0.444581</v>
+        <v>0.442049</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.548675</v>
+        <v>0.568683</v>
       </c>
       <c r="C92" t="n">
-        <v>0.439831</v>
+        <v>0.449038</v>
       </c>
       <c r="D92" t="n">
-        <v>0.452517</v>
+        <v>0.445435</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.573184</v>
+        <v>0.563187</v>
       </c>
       <c r="C93" t="n">
-        <v>0.448764</v>
+        <v>0.449251</v>
       </c>
       <c r="D93" t="n">
-        <v>0.449996</v>
+        <v>0.455693</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.567654</v>
+        <v>0.57779</v>
       </c>
       <c r="C94" t="n">
-        <v>0.448164</v>
+        <v>0.440165</v>
       </c>
       <c r="D94" t="n">
-        <v>0.466857</v>
+        <v>0.467304</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.642312</v>
+        <v>0.64336</v>
       </c>
       <c r="C95" t="n">
-        <v>0.512124</v>
+        <v>0.505409</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5173410000000001</v>
+        <v>0.506821</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.649555</v>
+        <v>0.643583</v>
       </c>
       <c r="C96" t="n">
-        <v>0.51252</v>
+        <v>0.503587</v>
       </c>
       <c r="D96" t="n">
-        <v>0.504543</v>
+        <v>0.50478</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.651501</v>
+        <v>0.654624</v>
       </c>
       <c r="C97" t="n">
-        <v>0.514998</v>
+        <v>0.515505</v>
       </c>
       <c r="D97" t="n">
-        <v>0.522463</v>
+        <v>0.51315</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.650054</v>
+        <v>0.633418</v>
       </c>
       <c r="C98" t="n">
-        <v>0.503524</v>
+        <v>0.520289</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5074070000000001</v>
+        <v>0.541205</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.639299</v>
+        <v>0.647264</v>
       </c>
       <c r="C99" t="n">
-        <v>0.52373</v>
+        <v>0.524929</v>
       </c>
       <c r="D99" t="n">
-        <v>0.514095</v>
+        <v>0.552792</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.630791</v>
+        <v>0.65046</v>
       </c>
       <c r="C100" t="n">
-        <v>0.52323</v>
+        <v>0.511989</v>
       </c>
       <c r="D100" t="n">
-        <v>0.523694</v>
+        <v>0.5111289999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.639588</v>
+        <v>0.706767</v>
       </c>
       <c r="C101" t="n">
-        <v>0.527323</v>
+        <v>0.56419</v>
       </c>
       <c r="D101" t="n">
-        <v>0.535088</v>
+        <v>0.525816</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.645621</v>
+        <v>0.63358</v>
       </c>
       <c r="C102" t="n">
-        <v>0.510168</v>
+        <v>0.533127</v>
       </c>
       <c r="D102" t="n">
-        <v>0.528565</v>
+        <v>0.545223</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.654397</v>
+        <v>0.6446190000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.511802</v>
+        <v>0.548206</v>
       </c>
       <c r="D103" t="n">
-        <v>0.527278</v>
+        <v>0.5195689999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.657296</v>
+        <v>0.6517770000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.524735</v>
+        <v>0.525007</v>
       </c>
       <c r="D104" t="n">
-        <v>0.536016</v>
+        <v>0.527047</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.674311</v>
+        <v>0.642796</v>
       </c>
       <c r="C105" t="n">
-        <v>0.527025</v>
+        <v>0.527346</v>
       </c>
       <c r="D105" t="n">
-        <v>0.52832</v>
+        <v>0.521483</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.651099</v>
+        <v>0.692877</v>
       </c>
       <c r="C106" t="n">
-        <v>0.529464</v>
+        <v>0.526544</v>
       </c>
       <c r="D106" t="n">
-        <v>0.536343</v>
+        <v>0.537344</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.631498</v>
+        <v>0.651004</v>
       </c>
       <c r="C107" t="n">
-        <v>0.543099</v>
+        <v>0.527446</v>
       </c>
       <c r="D107" t="n">
-        <v>0.544133</v>
+        <v>0.5581739999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.650772</v>
+        <v>0.661596</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5379159999999999</v>
+        <v>0.552558</v>
       </c>
       <c r="D108" t="n">
-        <v>0.581357</v>
+        <v>0.563759</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.66031</v>
+        <v>0.6572519999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.549399</v>
+        <v>0.552364</v>
       </c>
       <c r="D109" t="n">
-        <v>0.583691</v>
+        <v>0.591426</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.778635</v>
+        <v>0.801845</v>
       </c>
       <c r="C110" t="n">
-        <v>0.594269</v>
+        <v>0.610644</v>
       </c>
       <c r="D110" t="n">
-        <v>0.601061</v>
+        <v>0.670301</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8044790000000001</v>
+        <v>0.8187990000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.584565</v>
+        <v>0.610787</v>
       </c>
       <c r="D111" t="n">
-        <v>0.591754</v>
+        <v>0.599732</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.786642</v>
+        <v>0.796469</v>
       </c>
       <c r="C112" t="n">
-        <v>0.593991</v>
+        <v>0.598568</v>
       </c>
       <c r="D112" t="n">
-        <v>0.591371</v>
+        <v>0.598274</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.809351</v>
+        <v>0.792446</v>
       </c>
       <c r="C113" t="n">
-        <v>0.610666</v>
+        <v>0.612218</v>
       </c>
       <c r="D113" t="n">
-        <v>0.614886</v>
+        <v>0.600217</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.785075</v>
+        <v>0.797005</v>
       </c>
       <c r="C114" t="n">
-        <v>0.601433</v>
+        <v>0.632516</v>
       </c>
       <c r="D114" t="n">
-        <v>0.611231</v>
+        <v>0.602006</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.797785</v>
+        <v>0.804043</v>
       </c>
       <c r="C115" t="n">
-        <v>0.607602</v>
+        <v>0.598008</v>
       </c>
       <c r="D115" t="n">
-        <v>0.61056</v>
+        <v>0.618795</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.790363</v>
+        <v>0.788953</v>
       </c>
       <c r="C116" t="n">
-        <v>0.610502</v>
+        <v>0.624295</v>
       </c>
       <c r="D116" t="n">
-        <v>0.621488</v>
+        <v>0.619435</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.79399</v>
+        <v>0.794204</v>
       </c>
       <c r="C117" t="n">
-        <v>0.627655</v>
+        <v>0.6165890000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.623111</v>
+        <v>0.642513</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.786709</v>
+        <v>0.818485</v>
       </c>
       <c r="C118" t="n">
-        <v>0.616476</v>
+        <v>0.626725</v>
       </c>
       <c r="D118" t="n">
-        <v>0.621108</v>
+        <v>0.6191179999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.796708</v>
+        <v>0.815024</v>
       </c>
       <c r="C119" t="n">
-        <v>0.633999</v>
+        <v>0.607802</v>
       </c>
       <c r="D119" t="n">
-        <v>0.631481</v>
+        <v>0.626155</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.775549</v>
+        <v>0.800041</v>
       </c>
       <c r="C120" t="n">
-        <v>0.622536</v>
+        <v>0.629143</v>
       </c>
       <c r="D120" t="n">
-        <v>0.63925</v>
+        <v>0.635309</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.798947</v>
+        <v>0.9131899999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.626316</v>
+        <v>0.643128</v>
       </c>
       <c r="D121" t="n">
-        <v>0.642074</v>
+        <v>0.699942</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.806764</v>
+        <v>0.820628</v>
       </c>
       <c r="C122" t="n">
-        <v>0.624673</v>
+        <v>0.647071</v>
       </c>
       <c r="D122" t="n">
-        <v>0.650505</v>
+        <v>0.666804</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8075639999999999</v>
+        <v>0.824616</v>
       </c>
       <c r="C123" t="n">
-        <v>0.641666</v>
+        <v>0.651102</v>
       </c>
       <c r="D123" t="n">
-        <v>0.668887</v>
+        <v>0.690064</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.09972</v>
+        <v>1.04222</v>
       </c>
       <c r="C124" t="n">
-        <v>0.758505</v>
+        <v>0.725287</v>
       </c>
       <c r="D124" t="n">
-        <v>0.750906</v>
+        <v>0.738692</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.04813</v>
+        <v>1.03142</v>
       </c>
       <c r="C125" t="n">
-        <v>0.774271</v>
+        <v>0.836696</v>
       </c>
       <c r="D125" t="n">
-        <v>0.76019</v>
+        <v>0.823694</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03644</v>
+        <v>1.03674</v>
       </c>
       <c r="C126" t="n">
-        <v>0.762185</v>
+        <v>0.733164</v>
       </c>
       <c r="D126" t="n">
-        <v>0.760871</v>
+        <v>0.7459519999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.05165</v>
+        <v>1.0296</v>
       </c>
       <c r="C127" t="n">
-        <v>0.780909</v>
+        <v>0.771551</v>
       </c>
       <c r="D127" t="n">
-        <v>0.755224</v>
+        <v>0.738072</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03786</v>
+        <v>1.03801</v>
       </c>
       <c r="C128" t="n">
-        <v>0.766332</v>
+        <v>0.75836</v>
       </c>
       <c r="D128" t="n">
-        <v>0.757499</v>
+        <v>0.7532219999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.06638</v>
+        <v>1.10018</v>
       </c>
       <c r="C129" t="n">
-        <v>0.776165</v>
+        <v>0.754156</v>
       </c>
       <c r="D129" t="n">
-        <v>0.76708</v>
+        <v>0.752533</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.05236</v>
+        <v>1.02975</v>
       </c>
       <c r="C130" t="n">
-        <v>0.768132</v>
+        <v>0.745331</v>
       </c>
       <c r="D130" t="n">
-        <v>0.769518</v>
+        <v>0.748609</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.03583</v>
+        <v>1.03507</v>
       </c>
       <c r="C131" t="n">
-        <v>0.782245</v>
+        <v>0.748045</v>
       </c>
       <c r="D131" t="n">
-        <v>0.777655</v>
+        <v>0.759371</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04782</v>
+        <v>1.03871</v>
       </c>
       <c r="C132" t="n">
-        <v>0.777355</v>
+        <v>0.871652</v>
       </c>
       <c r="D132" t="n">
-        <v>0.784783</v>
+        <v>0.766344</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.02704</v>
+        <v>1.03433</v>
       </c>
       <c r="C133" t="n">
-        <v>0.766802</v>
+        <v>0.7631</v>
       </c>
       <c r="D133" t="n">
-        <v>0.784256</v>
+        <v>0.760007</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.06037</v>
+        <v>1.0275</v>
       </c>
       <c r="C134" t="n">
-        <v>0.780126</v>
+        <v>0.764968</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7927</v>
+        <v>0.772993</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.0682</v>
+        <v>1.05526</v>
       </c>
       <c r="C135" t="n">
-        <v>0.796625</v>
+        <v>0.7597930000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.788856</v>
+        <v>0.7884640000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.0635</v>
+        <v>1.03946</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7762829999999999</v>
+        <v>0.76358</v>
       </c>
       <c r="D136" t="n">
-        <v>0.824997</v>
+        <v>0.783114</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07535</v>
+        <v>1.07006</v>
       </c>
       <c r="C137" t="n">
-        <v>0.789911</v>
+        <v>0.783097</v>
       </c>
       <c r="D137" t="n">
-        <v>0.835156</v>
+        <v>0.836669</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30113</v>
+        <v>1.34384</v>
       </c>
       <c r="C138" t="n">
-        <v>0.932846</v>
+        <v>0.946542</v>
       </c>
       <c r="D138" t="n">
-        <v>0.939067</v>
+        <v>0.936586</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.40087</v>
+        <v>1.31669</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9214869999999999</v>
+        <v>0.942497</v>
       </c>
       <c r="D139" t="n">
-        <v>0.914173</v>
+        <v>0.930884</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.34605</v>
+        <v>1.30159</v>
       </c>
       <c r="C140" t="n">
-        <v>0.915851</v>
+        <v>0.933914</v>
       </c>
       <c r="D140" t="n">
-        <v>0.921247</v>
+        <v>0.9491889999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.31501</v>
+        <v>1.30784</v>
       </c>
       <c r="C141" t="n">
-        <v>0.941537</v>
+        <v>0.934357</v>
       </c>
       <c r="D141" t="n">
-        <v>0.935232</v>
+        <v>0.942375</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.3098</v>
+        <v>1.40785</v>
       </c>
       <c r="C142" t="n">
-        <v>0.932192</v>
+        <v>0.938204</v>
       </c>
       <c r="D142" t="n">
-        <v>0.933375</v>
+        <v>0.935315</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.31001</v>
+        <v>1.32564</v>
       </c>
       <c r="C143" t="n">
-        <v>0.928404</v>
+        <v>0.931658</v>
       </c>
       <c r="D143" t="n">
-        <v>0.931713</v>
+        <v>0.942353</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.113851</v>
+        <v>0.115382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10804</v>
+        <v>0.0978233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108955</v>
+        <v>0.106158</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.124762</v>
+        <v>0.116039</v>
       </c>
       <c r="C3" t="n">
-        <v>0.105135</v>
+        <v>0.0984508</v>
       </c>
       <c r="D3" t="n">
-        <v>0.107959</v>
+        <v>0.10641</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120767</v>
+        <v>0.11977</v>
       </c>
       <c r="C4" t="n">
-        <v>0.102129</v>
+        <v>0.0969141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.105158</v>
+        <v>0.106985</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123246</v>
+        <v>0.115596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104549</v>
+        <v>0.100297</v>
       </c>
       <c r="D5" t="n">
-        <v>0.112225</v>
+        <v>0.107045</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123598</v>
+        <v>0.115997</v>
       </c>
       <c r="C6" t="n">
-        <v>0.108105</v>
+        <v>0.102748</v>
       </c>
       <c r="D6" t="n">
-        <v>0.107348</v>
+        <v>0.109697</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.120309</v>
+        <v>0.117514</v>
       </c>
       <c r="C7" t="n">
-        <v>0.107075</v>
+        <v>0.105023</v>
       </c>
       <c r="D7" t="n">
-        <v>0.113109</v>
+        <v>0.109101</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.123889</v>
+        <v>0.119514</v>
       </c>
       <c r="C8" t="n">
-        <v>0.110476</v>
+        <v>0.103539</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121006</v>
+        <v>0.116129</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124621</v>
+        <v>0.124062</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11436</v>
+        <v>0.10813</v>
       </c>
       <c r="D9" t="n">
-        <v>0.12692</v>
+        <v>0.122595</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.128816</v>
+        <v>0.126002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.102673</v>
+        <v>0.0994578</v>
       </c>
       <c r="D10" t="n">
-        <v>0.107809</v>
+        <v>0.107253</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.131049</v>
+        <v>0.126278</v>
       </c>
       <c r="C11" t="n">
-        <v>0.108187</v>
+        <v>0.0997186</v>
       </c>
       <c r="D11" t="n">
-        <v>0.11316</v>
+        <v>0.107346</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.132209</v>
+        <v>0.130255</v>
       </c>
       <c r="C12" t="n">
-        <v>0.103953</v>
+        <v>0.101338</v>
       </c>
       <c r="D12" t="n">
-        <v>0.106337</v>
+        <v>0.112648</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.129023</v>
+        <v>0.128666</v>
       </c>
       <c r="C13" t="n">
-        <v>0.104573</v>
+        <v>0.10244</v>
       </c>
       <c r="D13" t="n">
-        <v>0.107003</v>
+        <v>0.108219</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.137994</v>
+        <v>0.125669</v>
       </c>
       <c r="C14" t="n">
-        <v>0.104958</v>
+        <v>0.102364</v>
       </c>
       <c r="D14" t="n">
-        <v>0.106736</v>
+        <v>0.1112</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.131345</v>
+        <v>0.128174</v>
       </c>
       <c r="C15" t="n">
-        <v>0.105082</v>
+        <v>0.101427</v>
       </c>
       <c r="D15" t="n">
-        <v>0.107066</v>
+        <v>0.112611</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127554</v>
+        <v>0.131606</v>
       </c>
       <c r="C16" t="n">
-        <v>0.102858</v>
+        <v>0.101597</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107476</v>
+        <v>0.115416</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127747</v>
+        <v>0.12594</v>
       </c>
       <c r="C17" t="n">
-        <v>0.106052</v>
+        <v>0.10369</v>
       </c>
       <c r="D17" t="n">
-        <v>0.105607</v>
+        <v>0.110413</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.134233</v>
+        <v>0.130618</v>
       </c>
       <c r="C18" t="n">
-        <v>0.104841</v>
+        <v>0.105199</v>
       </c>
       <c r="D18" t="n">
-        <v>0.110308</v>
+        <v>0.115242</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.133475</v>
+        <v>0.132902</v>
       </c>
       <c r="C19" t="n">
-        <v>0.106434</v>
+        <v>0.104424</v>
       </c>
       <c r="D19" t="n">
-        <v>0.112343</v>
+        <v>0.115922</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.130249</v>
+        <v>0.128495</v>
       </c>
       <c r="C20" t="n">
-        <v>0.109234</v>
+        <v>0.10677</v>
       </c>
       <c r="D20" t="n">
-        <v>0.115864</v>
+        <v>0.117839</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.133455</v>
+        <v>0.1322</v>
       </c>
       <c r="C21" t="n">
-        <v>0.110111</v>
+        <v>0.11017</v>
       </c>
       <c r="D21" t="n">
-        <v>0.117034</v>
+        <v>0.119441</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132907</v>
+        <v>0.130921</v>
       </c>
       <c r="C22" t="n">
-        <v>0.112074</v>
+        <v>0.111489</v>
       </c>
       <c r="D22" t="n">
-        <v>0.12566</v>
+        <v>0.129028</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.136782</v>
+        <v>0.138378</v>
       </c>
       <c r="C23" t="n">
-        <v>0.115101</v>
+        <v>0.118273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.130963</v>
+        <v>0.13994</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.141474</v>
+        <v>0.139341</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107666</v>
+        <v>0.107601</v>
       </c>
       <c r="D24" t="n">
-        <v>0.110857</v>
+        <v>0.113177</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.138631</v>
+        <v>0.14739</v>
       </c>
       <c r="C25" t="n">
-        <v>0.106232</v>
+        <v>0.108516</v>
       </c>
       <c r="D25" t="n">
-        <v>0.108668</v>
+        <v>0.113096</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.137541</v>
+        <v>0.139006</v>
       </c>
       <c r="C26" t="n">
-        <v>0.106642</v>
+        <v>0.106011</v>
       </c>
       <c r="D26" t="n">
-        <v>0.108028</v>
+        <v>0.116268</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.137721</v>
+        <v>0.137693</v>
       </c>
       <c r="C27" t="n">
-        <v>0.107091</v>
+        <v>0.10917</v>
       </c>
       <c r="D27" t="n">
-        <v>0.111173</v>
+        <v>0.116916</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.143069</v>
+        <v>0.136594</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109466</v>
+        <v>0.110332</v>
       </c>
       <c r="D28" t="n">
-        <v>0.112002</v>
+        <v>0.115286</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137626</v>
+        <v>0.141302</v>
       </c>
       <c r="C29" t="n">
-        <v>0.110209</v>
+        <v>0.109492</v>
       </c>
       <c r="D29" t="n">
-        <v>0.110593</v>
+        <v>0.116492</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.142204</v>
+        <v>0.136198</v>
       </c>
       <c r="C30" t="n">
-        <v>0.107789</v>
+        <v>0.107683</v>
       </c>
       <c r="D30" t="n">
-        <v>0.111481</v>
+        <v>0.115969</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.144295</v>
+        <v>0.142557</v>
       </c>
       <c r="C31" t="n">
-        <v>0.108973</v>
+        <v>0.109164</v>
       </c>
       <c r="D31" t="n">
-        <v>0.109521</v>
+        <v>0.12327</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141629</v>
+        <v>0.139759</v>
       </c>
       <c r="C32" t="n">
-        <v>0.110543</v>
+        <v>0.112439</v>
       </c>
       <c r="D32" t="n">
-        <v>0.113129</v>
+        <v>0.120267</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.140215</v>
+        <v>0.141496</v>
       </c>
       <c r="C33" t="n">
-        <v>0.113514</v>
+        <v>0.111546</v>
       </c>
       <c r="D33" t="n">
-        <v>0.117224</v>
+        <v>0.121173</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.144786</v>
+        <v>0.140915</v>
       </c>
       <c r="C34" t="n">
-        <v>0.114616</v>
+        <v>0.111349</v>
       </c>
       <c r="D34" t="n">
-        <v>0.120426</v>
+        <v>0.12448</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141015</v>
+        <v>0.141221</v>
       </c>
       <c r="C35" t="n">
-        <v>0.117631</v>
+        <v>0.115417</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125441</v>
+        <v>0.131275</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1433</v>
+        <v>0.143144</v>
       </c>
       <c r="C36" t="n">
-        <v>0.119722</v>
+        <v>0.11634</v>
       </c>
       <c r="D36" t="n">
-        <v>0.132431</v>
+        <v>0.132433</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.148502</v>
+        <v>0.146524</v>
       </c>
       <c r="C37" t="n">
-        <v>0.124472</v>
+        <v>0.120222</v>
       </c>
       <c r="D37" t="n">
-        <v>0.136852</v>
+        <v>0.150066</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.166943</v>
+        <v>0.167953</v>
       </c>
       <c r="C38" t="n">
-        <v>0.122464</v>
+        <v>0.124769</v>
       </c>
       <c r="D38" t="n">
-        <v>0.125992</v>
+        <v>0.131319</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163782</v>
+        <v>0.167087</v>
       </c>
       <c r="C39" t="n">
-        <v>0.120508</v>
+        <v>0.121655</v>
       </c>
       <c r="D39" t="n">
-        <v>0.125123</v>
+        <v>0.131248</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.166237</v>
+        <v>0.167962</v>
       </c>
       <c r="C40" t="n">
-        <v>0.122877</v>
+        <v>0.1213</v>
       </c>
       <c r="D40" t="n">
-        <v>0.126682</v>
+        <v>0.130646</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.162665</v>
+        <v>0.172363</v>
       </c>
       <c r="C41" t="n">
-        <v>0.123215</v>
+        <v>0.122494</v>
       </c>
       <c r="D41" t="n">
-        <v>0.124739</v>
+        <v>0.130716</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.166</v>
+        <v>0.16286</v>
       </c>
       <c r="C42" t="n">
-        <v>0.122969</v>
+        <v>0.122375</v>
       </c>
       <c r="D42" t="n">
-        <v>0.129416</v>
+        <v>0.137081</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.16758</v>
+        <v>0.164754</v>
       </c>
       <c r="C43" t="n">
-        <v>0.122366</v>
+        <v>0.123781</v>
       </c>
       <c r="D43" t="n">
-        <v>0.126193</v>
+        <v>0.136367</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.162329</v>
+        <v>0.162988</v>
       </c>
       <c r="C44" t="n">
-        <v>0.127465</v>
+        <v>0.125751</v>
       </c>
       <c r="D44" t="n">
-        <v>0.125868</v>
+        <v>0.13402</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.16486</v>
+        <v>0.166229</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125571</v>
+        <v>0.12336</v>
       </c>
       <c r="D45" t="n">
-        <v>0.128115</v>
+        <v>0.141864</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.169713</v>
+        <v>0.164635</v>
       </c>
       <c r="C46" t="n">
-        <v>0.130788</v>
+        <v>0.128028</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129129</v>
+        <v>0.139594</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.166425</v>
+        <v>0.169767</v>
       </c>
       <c r="C47" t="n">
-        <v>0.132355</v>
+        <v>0.132584</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1293</v>
+        <v>0.144312</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.169745</v>
+        <v>0.170094</v>
       </c>
       <c r="C48" t="n">
-        <v>0.127497</v>
+        <v>0.131694</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13645</v>
+        <v>0.146959</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164349</v>
+        <v>0.170802</v>
       </c>
       <c r="C49" t="n">
-        <v>0.131883</v>
+        <v>0.131362</v>
       </c>
       <c r="D49" t="n">
-        <v>0.133561</v>
+        <v>0.146949</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.167103</v>
+        <v>0.17385</v>
       </c>
       <c r="C50" t="n">
-        <v>0.132486</v>
+        <v>0.135994</v>
       </c>
       <c r="D50" t="n">
-        <v>0.143263</v>
+        <v>0.150293</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.169593</v>
+        <v>0.174587</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138262</v>
+        <v>0.13596</v>
       </c>
       <c r="D51" t="n">
-        <v>0.147166</v>
+        <v>0.155745</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175683</v>
+        <v>0.174542</v>
       </c>
       <c r="C52" t="n">
-        <v>0.139861</v>
+        <v>0.146327</v>
       </c>
       <c r="D52" t="n">
-        <v>0.161321</v>
+        <v>0.171148</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.262452</v>
+        <v>0.253407</v>
       </c>
       <c r="C53" t="n">
-        <v>0.201912</v>
+        <v>0.193577</v>
       </c>
       <c r="D53" t="n">
-        <v>0.197719</v>
+        <v>0.20319</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.258666</v>
+        <v>0.266061</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2014</v>
+        <v>0.193183</v>
       </c>
       <c r="D54" t="n">
-        <v>0.205321</v>
+        <v>0.202675</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.258031</v>
+        <v>0.251203</v>
       </c>
       <c r="C55" t="n">
-        <v>0.207416</v>
+        <v>0.198439</v>
       </c>
       <c r="D55" t="n">
-        <v>0.19738</v>
+        <v>0.209449</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.264998</v>
+        <v>0.258104</v>
       </c>
       <c r="C56" t="n">
-        <v>0.20151</v>
+        <v>0.205932</v>
       </c>
       <c r="D56" t="n">
-        <v>0.209325</v>
+        <v>0.203997</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.263169</v>
+        <v>0.249415</v>
       </c>
       <c r="C57" t="n">
-        <v>0.200796</v>
+        <v>0.19746</v>
       </c>
       <c r="D57" t="n">
-        <v>0.20781</v>
+        <v>0.20259</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.262206</v>
+        <v>0.260362</v>
       </c>
       <c r="C58" t="n">
-        <v>0.197899</v>
+        <v>0.199041</v>
       </c>
       <c r="D58" t="n">
-        <v>0.202559</v>
+        <v>0.212759</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.257468</v>
+        <v>0.253561</v>
       </c>
       <c r="C59" t="n">
-        <v>0.200571</v>
+        <v>0.20202</v>
       </c>
       <c r="D59" t="n">
-        <v>0.202176</v>
+        <v>0.209923</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.260302</v>
+        <v>0.254688</v>
       </c>
       <c r="C60" t="n">
-        <v>0.202058</v>
+        <v>0.207576</v>
       </c>
       <c r="D60" t="n">
-        <v>0.205155</v>
+        <v>0.20697</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.262154</v>
+        <v>0.253918</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203676</v>
+        <v>0.199533</v>
       </c>
       <c r="D61" t="n">
-        <v>0.210774</v>
+        <v>0.205327</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.264139</v>
+        <v>0.255525</v>
       </c>
       <c r="C62" t="n">
-        <v>0.208817</v>
+        <v>0.206365</v>
       </c>
       <c r="D62" t="n">
-        <v>0.210389</v>
+        <v>0.213357</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259711</v>
+        <v>0.252618</v>
       </c>
       <c r="C63" t="n">
-        <v>0.207902</v>
+        <v>0.203813</v>
       </c>
       <c r="D63" t="n">
-        <v>0.224027</v>
+        <v>0.216523</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.266265</v>
+        <v>0.253705</v>
       </c>
       <c r="C64" t="n">
-        <v>0.213053</v>
+        <v>0.211414</v>
       </c>
       <c r="D64" t="n">
-        <v>0.217527</v>
+        <v>0.215908</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268709</v>
+        <v>0.257301</v>
       </c>
       <c r="C65" t="n">
-        <v>0.218284</v>
+        <v>0.219737</v>
       </c>
       <c r="D65" t="n">
-        <v>0.22805</v>
+        <v>0.227949</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.279518</v>
+        <v>0.258507</v>
       </c>
       <c r="C66" t="n">
-        <v>0.220675</v>
+        <v>0.218139</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239699</v>
+        <v>0.234722</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.413295</v>
+        <v>0.394606</v>
       </c>
       <c r="C67" t="n">
-        <v>0.314498</v>
+        <v>0.306887</v>
       </c>
       <c r="D67" t="n">
-        <v>0.311639</v>
+        <v>0.31323</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.399927</v>
+        <v>0.388166</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3111</v>
+        <v>0.307143</v>
       </c>
       <c r="D68" t="n">
-        <v>0.320506</v>
+        <v>0.314416</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.406879</v>
+        <v>0.398434</v>
       </c>
       <c r="C69" t="n">
-        <v>0.310031</v>
+        <v>0.308386</v>
       </c>
       <c r="D69" t="n">
-        <v>0.321772</v>
+        <v>0.316258</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.404092</v>
+        <v>0.391225</v>
       </c>
       <c r="C70" t="n">
-        <v>0.318105</v>
+        <v>0.308394</v>
       </c>
       <c r="D70" t="n">
-        <v>0.320074</v>
+        <v>0.323605</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.391566</v>
+        <v>0.397559</v>
       </c>
       <c r="C71" t="n">
-        <v>0.309943</v>
+        <v>0.315922</v>
       </c>
       <c r="D71" t="n">
-        <v>0.31252</v>
+        <v>0.324129</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.419412</v>
+        <v>0.411781</v>
       </c>
       <c r="C72" t="n">
-        <v>0.320622</v>
+        <v>0.31759</v>
       </c>
       <c r="D72" t="n">
-        <v>0.320535</v>
+        <v>0.321083</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.411778</v>
+        <v>0.395662</v>
       </c>
       <c r="C73" t="n">
-        <v>0.316622</v>
+        <v>0.314391</v>
       </c>
       <c r="D73" t="n">
-        <v>0.328639</v>
+        <v>0.332124</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.415776</v>
+        <v>0.40252</v>
       </c>
       <c r="C74" t="n">
-        <v>0.316992</v>
+        <v>0.316556</v>
       </c>
       <c r="D74" t="n">
-        <v>0.31598</v>
+        <v>0.322809</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.414403</v>
+        <v>0.405373</v>
       </c>
       <c r="C75" t="n">
-        <v>0.326013</v>
+        <v>0.317692</v>
       </c>
       <c r="D75" t="n">
-        <v>0.326427</v>
+        <v>0.323385</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.415919</v>
+        <v>0.396165</v>
       </c>
       <c r="C76" t="n">
-        <v>0.322687</v>
+        <v>0.313619</v>
       </c>
       <c r="D76" t="n">
-        <v>0.327296</v>
+        <v>0.323623</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.405956</v>
+        <v>0.402576</v>
       </c>
       <c r="C77" t="n">
-        <v>0.328257</v>
+        <v>0.317202</v>
       </c>
       <c r="D77" t="n">
-        <v>0.329179</v>
+        <v>0.331349</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.414471</v>
+        <v>0.414191</v>
       </c>
       <c r="C78" t="n">
-        <v>0.316933</v>
+        <v>0.328523</v>
       </c>
       <c r="D78" t="n">
-        <v>0.326653</v>
+        <v>0.329787</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.436453</v>
+        <v>0.421379</v>
       </c>
       <c r="C79" t="n">
-        <v>0.321748</v>
+        <v>0.329795</v>
       </c>
       <c r="D79" t="n">
-        <v>0.332856</v>
+        <v>0.338638</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.424109</v>
+        <v>0.427133</v>
       </c>
       <c r="C80" t="n">
-        <v>0.332821</v>
+        <v>0.331891</v>
       </c>
       <c r="D80" t="n">
-        <v>0.352849</v>
+        <v>0.360722</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.563654</v>
+        <v>0.544723</v>
       </c>
       <c r="C81" t="n">
-        <v>0.431567</v>
+        <v>0.425621</v>
       </c>
       <c r="D81" t="n">
-        <v>0.429166</v>
+        <v>0.423904</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.574684</v>
+        <v>0.546081</v>
       </c>
       <c r="C82" t="n">
-        <v>0.444248</v>
+        <v>0.42429</v>
       </c>
       <c r="D82" t="n">
-        <v>0.435259</v>
+        <v>0.437732</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.575461</v>
+        <v>0.549926</v>
       </c>
       <c r="C83" t="n">
-        <v>0.423836</v>
+        <v>0.423999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.436988</v>
+        <v>0.437946</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.55609</v>
+        <v>0.539726</v>
       </c>
       <c r="C84" t="n">
-        <v>0.43005</v>
+        <v>0.4419</v>
       </c>
       <c r="D84" t="n">
-        <v>0.431878</v>
+        <v>0.436636</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.560294</v>
+        <v>0.566662</v>
       </c>
       <c r="C85" t="n">
-        <v>0.437264</v>
+        <v>0.426496</v>
       </c>
       <c r="D85" t="n">
-        <v>0.429585</v>
+        <v>0.435551</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.559107</v>
+        <v>0.55575</v>
       </c>
       <c r="C86" t="n">
-        <v>0.433448</v>
+        <v>0.441397</v>
       </c>
       <c r="D86" t="n">
-        <v>0.430539</v>
+        <v>0.44003</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.555698</v>
+        <v>0.565508</v>
       </c>
       <c r="C87" t="n">
-        <v>0.439795</v>
+        <v>0.424616</v>
       </c>
       <c r="D87" t="n">
-        <v>0.436231</v>
+        <v>0.434762</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.564924</v>
+        <v>0.569472</v>
       </c>
       <c r="C88" t="n">
-        <v>0.43815</v>
+        <v>0.442256</v>
       </c>
       <c r="D88" t="n">
-        <v>0.44099</v>
+        <v>0.440059</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.555491</v>
+        <v>0.551204</v>
       </c>
       <c r="C89" t="n">
-        <v>0.427976</v>
+        <v>0.428502</v>
       </c>
       <c r="D89" t="n">
-        <v>0.438593</v>
+        <v>0.443058</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.55376</v>
+        <v>0.56845</v>
       </c>
       <c r="C90" t="n">
-        <v>0.444054</v>
+        <v>0.431809</v>
       </c>
       <c r="D90" t="n">
-        <v>0.440866</v>
+        <v>0.441752</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.56116</v>
+        <v>0.56987</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4495</v>
+        <v>0.436579</v>
       </c>
       <c r="D91" t="n">
-        <v>0.442049</v>
+        <v>0.458237</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.568683</v>
+        <v>0.563686</v>
       </c>
       <c r="C92" t="n">
-        <v>0.449038</v>
+        <v>0.428513</v>
       </c>
       <c r="D92" t="n">
-        <v>0.445435</v>
+        <v>0.451374</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.563187</v>
+        <v>0.583287</v>
       </c>
       <c r="C93" t="n">
-        <v>0.449251</v>
+        <v>0.439613</v>
       </c>
       <c r="D93" t="n">
-        <v>0.455693</v>
+        <v>0.458249</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.57779</v>
+        <v>0.557765</v>
       </c>
       <c r="C94" t="n">
-        <v>0.440165</v>
+        <v>0.45396</v>
       </c>
       <c r="D94" t="n">
-        <v>0.467304</v>
+        <v>0.460907</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.64336</v>
+        <v>0.636592</v>
       </c>
       <c r="C95" t="n">
-        <v>0.505409</v>
+        <v>0.504329</v>
       </c>
       <c r="D95" t="n">
-        <v>0.506821</v>
+        <v>0.511286</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.643583</v>
+        <v>0.639946</v>
       </c>
       <c r="C96" t="n">
-        <v>0.503587</v>
+        <v>0.534759</v>
       </c>
       <c r="D96" t="n">
-        <v>0.50478</v>
+        <v>0.52162</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.654624</v>
+        <v>0.6573059999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.515505</v>
+        <v>0.536486</v>
       </c>
       <c r="D97" t="n">
-        <v>0.51315</v>
+        <v>0.559103</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.633418</v>
+        <v>0.640717</v>
       </c>
       <c r="C98" t="n">
-        <v>0.520289</v>
+        <v>0.509442</v>
       </c>
       <c r="D98" t="n">
-        <v>0.541205</v>
+        <v>0.545559</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.647264</v>
+        <v>0.702796</v>
       </c>
       <c r="C99" t="n">
-        <v>0.524929</v>
+        <v>0.553289</v>
       </c>
       <c r="D99" t="n">
-        <v>0.552792</v>
+        <v>0.544328</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.65046</v>
+        <v>0.7218909999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.511989</v>
+        <v>0.521044</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5111289999999999</v>
+        <v>0.522939</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.706767</v>
+        <v>0.70302</v>
       </c>
       <c r="C101" t="n">
-        <v>0.56419</v>
+        <v>0.509858</v>
       </c>
       <c r="D101" t="n">
-        <v>0.525816</v>
+        <v>0.551852</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.63358</v>
+        <v>0.650186</v>
       </c>
       <c r="C102" t="n">
-        <v>0.533127</v>
+        <v>0.551434</v>
       </c>
       <c r="D102" t="n">
-        <v>0.545223</v>
+        <v>0.5643820000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6446190000000001</v>
+        <v>0.661578</v>
       </c>
       <c r="C103" t="n">
-        <v>0.548206</v>
+        <v>0.51841</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5195689999999999</v>
+        <v>0.532727</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6517770000000001</v>
+        <v>0.7043</v>
       </c>
       <c r="C104" t="n">
-        <v>0.525007</v>
+        <v>0.5128549999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.527047</v>
+        <v>0.538296</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.642796</v>
+        <v>0.659802</v>
       </c>
       <c r="C105" t="n">
-        <v>0.527346</v>
+        <v>0.531003</v>
       </c>
       <c r="D105" t="n">
-        <v>0.521483</v>
+        <v>0.537117</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.692877</v>
+        <v>0.6518119999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.526544</v>
+        <v>0.5244490000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.537344</v>
+        <v>0.529786</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.651004</v>
+        <v>0.6463179999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.527446</v>
+        <v>0.557499</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5581739999999999</v>
+        <v>0.552289</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.661596</v>
+        <v>0.6518929999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.552558</v>
+        <v>0.557874</v>
       </c>
       <c r="D108" t="n">
-        <v>0.563759</v>
+        <v>0.584147</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6572519999999999</v>
+        <v>0.676444</v>
       </c>
       <c r="C109" t="n">
-        <v>0.552364</v>
+        <v>0.54866</v>
       </c>
       <c r="D109" t="n">
-        <v>0.591426</v>
+        <v>0.583053</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.801845</v>
+        <v>0.795766</v>
       </c>
       <c r="C110" t="n">
-        <v>0.610644</v>
+        <v>0.643172</v>
       </c>
       <c r="D110" t="n">
-        <v>0.670301</v>
+        <v>0.605735</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8187990000000001</v>
+        <v>0.8004869999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.610787</v>
+        <v>0.631107</v>
       </c>
       <c r="D111" t="n">
-        <v>0.599732</v>
+        <v>0.618734</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.796469</v>
+        <v>0.818159</v>
       </c>
       <c r="C112" t="n">
-        <v>0.598568</v>
+        <v>0.607797</v>
       </c>
       <c r="D112" t="n">
-        <v>0.598274</v>
+        <v>0.610996</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.792446</v>
+        <v>0.806266</v>
       </c>
       <c r="C113" t="n">
-        <v>0.612218</v>
+        <v>0.6037090000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.600217</v>
+        <v>0.6167589999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.797005</v>
+        <v>0.847047</v>
       </c>
       <c r="C114" t="n">
-        <v>0.632516</v>
+        <v>0.665006</v>
       </c>
       <c r="D114" t="n">
-        <v>0.602006</v>
+        <v>0.6752</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.804043</v>
+        <v>0.799804</v>
       </c>
       <c r="C115" t="n">
-        <v>0.598008</v>
+        <v>0.6452059999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.618795</v>
+        <v>0.614872</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.788953</v>
+        <v>0.799087</v>
       </c>
       <c r="C116" t="n">
-        <v>0.624295</v>
+        <v>0.6821469999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.619435</v>
+        <v>0.6395999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.794204</v>
+        <v>0.832822</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6165890000000001</v>
+        <v>0.652756</v>
       </c>
       <c r="D117" t="n">
-        <v>0.642513</v>
+        <v>0.625275</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.818485</v>
+        <v>0.806857</v>
       </c>
       <c r="C118" t="n">
-        <v>0.626725</v>
+        <v>0.617491</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6191179999999999</v>
+        <v>0.646122</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.815024</v>
+        <v>0.823841</v>
       </c>
       <c r="C119" t="n">
-        <v>0.607802</v>
+        <v>0.6313299999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.626155</v>
+        <v>0.641572</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.800041</v>
+        <v>0.808962</v>
       </c>
       <c r="C120" t="n">
-        <v>0.629143</v>
+        <v>0.624466</v>
       </c>
       <c r="D120" t="n">
-        <v>0.635309</v>
+        <v>0.642374</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9131899999999999</v>
+        <v>0.82157</v>
       </c>
       <c r="C121" t="n">
-        <v>0.643128</v>
+        <v>0.628726</v>
       </c>
       <c r="D121" t="n">
-        <v>0.699942</v>
+        <v>0.63846</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.820628</v>
+        <v>0.804916</v>
       </c>
       <c r="C122" t="n">
-        <v>0.647071</v>
+        <v>0.629061</v>
       </c>
       <c r="D122" t="n">
-        <v>0.666804</v>
+        <v>0.648046</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.824616</v>
+        <v>0.805308</v>
       </c>
       <c r="C123" t="n">
-        <v>0.651102</v>
+        <v>0.627597</v>
       </c>
       <c r="D123" t="n">
-        <v>0.690064</v>
+        <v>0.760063</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.04222</v>
+        <v>1.05731</v>
       </c>
       <c r="C124" t="n">
-        <v>0.725287</v>
+        <v>0.732665</v>
       </c>
       <c r="D124" t="n">
-        <v>0.738692</v>
+        <v>0.750945</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03142</v>
+        <v>1.04156</v>
       </c>
       <c r="C125" t="n">
-        <v>0.836696</v>
+        <v>0.729895</v>
       </c>
       <c r="D125" t="n">
-        <v>0.823694</v>
+        <v>0.743521</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03674</v>
+        <v>1.03365</v>
       </c>
       <c r="C126" t="n">
-        <v>0.733164</v>
+        <v>0.732585</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7459519999999999</v>
+        <v>0.759229</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.0296</v>
+        <v>1.03739</v>
       </c>
       <c r="C127" t="n">
-        <v>0.771551</v>
+        <v>0.763462</v>
       </c>
       <c r="D127" t="n">
-        <v>0.738072</v>
+        <v>0.744506</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03801</v>
+        <v>1.04344</v>
       </c>
       <c r="C128" t="n">
-        <v>0.75836</v>
+        <v>0.754956</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7532219999999999</v>
+        <v>0.779662</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10018</v>
+        <v>1.20167</v>
       </c>
       <c r="C129" t="n">
-        <v>0.754156</v>
+        <v>0.728461</v>
       </c>
       <c r="D129" t="n">
-        <v>0.752533</v>
+        <v>0.752413</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.02975</v>
+        <v>1.04322</v>
       </c>
       <c r="C130" t="n">
-        <v>0.745331</v>
+        <v>0.7450830000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.748609</v>
+        <v>0.75972</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.03507</v>
+        <v>1.04004</v>
       </c>
       <c r="C131" t="n">
-        <v>0.748045</v>
+        <v>0.745801</v>
       </c>
       <c r="D131" t="n">
-        <v>0.759371</v>
+        <v>0.76959</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.03871</v>
+        <v>1.04001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.871652</v>
+        <v>0.766753</v>
       </c>
       <c r="D132" t="n">
-        <v>0.766344</v>
+        <v>0.835059</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03433</v>
+        <v>1.04496</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7631</v>
+        <v>0.754754</v>
       </c>
       <c r="D133" t="n">
-        <v>0.760007</v>
+        <v>0.783392</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.0275</v>
+        <v>1.01607</v>
       </c>
       <c r="C134" t="n">
-        <v>0.764968</v>
+        <v>0.761278</v>
       </c>
       <c r="D134" t="n">
-        <v>0.772993</v>
+        <v>0.759337</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.05526</v>
+        <v>1.059</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7597930000000001</v>
+        <v>0.756392</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7884640000000001</v>
+        <v>0.795114</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.03946</v>
+        <v>1.054</v>
       </c>
       <c r="C136" t="n">
-        <v>0.76358</v>
+        <v>0.76877</v>
       </c>
       <c r="D136" t="n">
-        <v>0.783114</v>
+        <v>0.790073</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07006</v>
+        <v>1.05498</v>
       </c>
       <c r="C137" t="n">
-        <v>0.783097</v>
+        <v>0.774528</v>
       </c>
       <c r="D137" t="n">
-        <v>0.836669</v>
+        <v>0.8386130000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.34384</v>
+        <v>1.41877</v>
       </c>
       <c r="C138" t="n">
-        <v>0.946542</v>
+        <v>0.937617</v>
       </c>
       <c r="D138" t="n">
-        <v>0.936586</v>
+        <v>0.934552</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.31669</v>
+        <v>1.30467</v>
       </c>
       <c r="C139" t="n">
-        <v>0.942497</v>
+        <v>0.929653</v>
       </c>
       <c r="D139" t="n">
-        <v>0.930884</v>
+        <v>0.929963</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.30159</v>
+        <v>1.29914</v>
       </c>
       <c r="C140" t="n">
-        <v>0.933914</v>
+        <v>0.921987</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9491889999999999</v>
+        <v>0.943748</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.30784</v>
+        <v>1.32482</v>
       </c>
       <c r="C141" t="n">
-        <v>0.934357</v>
+        <v>0.940545</v>
       </c>
       <c r="D141" t="n">
-        <v>0.942375</v>
+        <v>0.936908</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.40785</v>
+        <v>1.3112</v>
       </c>
       <c r="C142" t="n">
-        <v>0.938204</v>
+        <v>0.934662</v>
       </c>
       <c r="D142" t="n">
-        <v>0.935315</v>
+        <v>0.9932029999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32564</v>
+        <v>1.3247</v>
       </c>
       <c r="C143" t="n">
-        <v>0.931658</v>
+        <v>0.9374169999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.942353</v>
+        <v>0.935175</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115382</v>
+        <v>0.118259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0978233</v>
+        <v>0.09810670000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.106158</v>
+        <v>0.108821</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116039</v>
+        <v>0.115896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0984508</v>
+        <v>0.09884370000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.10641</v>
+        <v>0.104898</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11977</v>
+        <v>0.114983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0969141</v>
+        <v>0.0979949</v>
       </c>
       <c r="D4" t="n">
-        <v>0.106985</v>
+        <v>0.108411</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.115596</v>
+        <v>0.116929</v>
       </c>
       <c r="C5" t="n">
-        <v>0.100297</v>
+        <v>0.104044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.107045</v>
+        <v>0.112147</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.115997</v>
+        <v>0.11909</v>
       </c>
       <c r="C6" t="n">
-        <v>0.102748</v>
+        <v>0.103624</v>
       </c>
       <c r="D6" t="n">
-        <v>0.109697</v>
+        <v>0.110356</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.117514</v>
+        <v>0.12247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.105023</v>
+        <v>0.101333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.109101</v>
+        <v>0.112913</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119514</v>
+        <v>0.122791</v>
       </c>
       <c r="C8" t="n">
-        <v>0.103539</v>
+        <v>0.10465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.116129</v>
+        <v>0.113717</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124062</v>
+        <v>0.122889</v>
       </c>
       <c r="C9" t="n">
-        <v>0.10813</v>
+        <v>0.108589</v>
       </c>
       <c r="D9" t="n">
-        <v>0.122595</v>
+        <v>0.107361</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126002</v>
+        <v>0.126336</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0994578</v>
+        <v>0.10697</v>
       </c>
       <c r="D10" t="n">
-        <v>0.107253</v>
+        <v>0.11166</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126278</v>
+        <v>0.128599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0997186</v>
+        <v>0.102008</v>
       </c>
       <c r="D11" t="n">
-        <v>0.107346</v>
+        <v>0.110327</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.130255</v>
+        <v>0.129834</v>
       </c>
       <c r="C12" t="n">
-        <v>0.101338</v>
+        <v>0.104875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.112648</v>
+        <v>0.108289</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128666</v>
+        <v>0.130502</v>
       </c>
       <c r="C13" t="n">
-        <v>0.10244</v>
+        <v>0.103622</v>
       </c>
       <c r="D13" t="n">
-        <v>0.108219</v>
+        <v>0.108431</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125669</v>
+        <v>0.128171</v>
       </c>
       <c r="C14" t="n">
-        <v>0.102364</v>
+        <v>0.104031</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1112</v>
+        <v>0.109128</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.128174</v>
+        <v>0.129992</v>
       </c>
       <c r="C15" t="n">
-        <v>0.101427</v>
+        <v>0.104672</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112611</v>
+        <v>0.112957</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.131606</v>
+        <v>0.13321</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101597</v>
+        <v>0.104793</v>
       </c>
       <c r="D16" t="n">
-        <v>0.115416</v>
+        <v>0.112024</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.12594</v>
+        <v>0.135102</v>
       </c>
       <c r="C17" t="n">
-        <v>0.10369</v>
+        <v>0.104288</v>
       </c>
       <c r="D17" t="n">
-        <v>0.110413</v>
+        <v>0.111796</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130618</v>
+        <v>0.131824</v>
       </c>
       <c r="C18" t="n">
-        <v>0.105199</v>
+        <v>0.106268</v>
       </c>
       <c r="D18" t="n">
-        <v>0.115242</v>
+        <v>0.11275</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132902</v>
+        <v>0.130615</v>
       </c>
       <c r="C19" t="n">
-        <v>0.104424</v>
+        <v>0.10592</v>
       </c>
       <c r="D19" t="n">
-        <v>0.115922</v>
+        <v>0.113293</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128495</v>
+        <v>0.132764</v>
       </c>
       <c r="C20" t="n">
-        <v>0.10677</v>
+        <v>0.109625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.117839</v>
+        <v>0.113689</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1322</v>
+        <v>0.134233</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11017</v>
+        <v>0.109159</v>
       </c>
       <c r="D21" t="n">
-        <v>0.119441</v>
+        <v>0.120272</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.130921</v>
+        <v>0.137572</v>
       </c>
       <c r="C22" t="n">
-        <v>0.111489</v>
+        <v>0.115957</v>
       </c>
       <c r="D22" t="n">
-        <v>0.129028</v>
+        <v>0.123569</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138378</v>
+        <v>0.13517</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118273</v>
+        <v>0.116533</v>
       </c>
       <c r="D23" t="n">
-        <v>0.13994</v>
+        <v>0.112786</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.139341</v>
+        <v>0.144219</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107601</v>
+        <v>0.106905</v>
       </c>
       <c r="D24" t="n">
-        <v>0.113177</v>
+        <v>0.114462</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.14739</v>
+        <v>0.143161</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108516</v>
+        <v>0.104669</v>
       </c>
       <c r="D25" t="n">
-        <v>0.113096</v>
+        <v>0.117804</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.139006</v>
+        <v>0.139025</v>
       </c>
       <c r="C26" t="n">
-        <v>0.106011</v>
+        <v>0.107626</v>
       </c>
       <c r="D26" t="n">
-        <v>0.116268</v>
+        <v>0.117973</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.137693</v>
+        <v>0.137028</v>
       </c>
       <c r="C27" t="n">
-        <v>0.10917</v>
+        <v>0.108274</v>
       </c>
       <c r="D27" t="n">
-        <v>0.116916</v>
+        <v>0.114545</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136594</v>
+        <v>0.136829</v>
       </c>
       <c r="C28" t="n">
-        <v>0.110332</v>
+        <v>0.105346</v>
       </c>
       <c r="D28" t="n">
-        <v>0.115286</v>
+        <v>0.119418</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.141302</v>
+        <v>0.141164</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109492</v>
+        <v>0.109195</v>
       </c>
       <c r="D29" t="n">
-        <v>0.116492</v>
+        <v>0.119852</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.136198</v>
+        <v>0.137287</v>
       </c>
       <c r="C30" t="n">
-        <v>0.107683</v>
+        <v>0.108089</v>
       </c>
       <c r="D30" t="n">
-        <v>0.115969</v>
+        <v>0.120126</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.142557</v>
+        <v>0.138636</v>
       </c>
       <c r="C31" t="n">
-        <v>0.109164</v>
+        <v>0.111624</v>
       </c>
       <c r="D31" t="n">
-        <v>0.12327</v>
+        <v>0.118723</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.139759</v>
+        <v>0.142495</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112439</v>
+        <v>0.112554</v>
       </c>
       <c r="D32" t="n">
-        <v>0.120267</v>
+        <v>0.119002</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.141496</v>
+        <v>0.142232</v>
       </c>
       <c r="C33" t="n">
-        <v>0.111546</v>
+        <v>0.112358</v>
       </c>
       <c r="D33" t="n">
-        <v>0.121173</v>
+        <v>0.122224</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.140915</v>
+        <v>0.140234</v>
       </c>
       <c r="C34" t="n">
-        <v>0.111349</v>
+        <v>0.111245</v>
       </c>
       <c r="D34" t="n">
-        <v>0.12448</v>
+        <v>0.124619</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141221</v>
+        <v>0.142681</v>
       </c>
       <c r="C35" t="n">
-        <v>0.115417</v>
+        <v>0.118745</v>
       </c>
       <c r="D35" t="n">
-        <v>0.131275</v>
+        <v>0.124707</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.143144</v>
+        <v>0.143373</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11634</v>
+        <v>0.118189</v>
       </c>
       <c r="D36" t="n">
-        <v>0.132433</v>
+        <v>0.131327</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146524</v>
+        <v>0.146703</v>
       </c>
       <c r="C37" t="n">
-        <v>0.120222</v>
+        <v>0.122666</v>
       </c>
       <c r="D37" t="n">
-        <v>0.150066</v>
+        <v>0.131662</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.167953</v>
+        <v>0.162146</v>
       </c>
       <c r="C38" t="n">
-        <v>0.124769</v>
+        <v>0.121903</v>
       </c>
       <c r="D38" t="n">
-        <v>0.131319</v>
+        <v>0.129081</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.167087</v>
+        <v>0.162094</v>
       </c>
       <c r="C39" t="n">
-        <v>0.121655</v>
+        <v>0.122004</v>
       </c>
       <c r="D39" t="n">
-        <v>0.131248</v>
+        <v>0.136256</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167962</v>
+        <v>0.16053</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1213</v>
+        <v>0.122827</v>
       </c>
       <c r="D40" t="n">
-        <v>0.130646</v>
+        <v>0.130838</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.172363</v>
+        <v>0.16256</v>
       </c>
       <c r="C41" t="n">
-        <v>0.122494</v>
+        <v>0.123632</v>
       </c>
       <c r="D41" t="n">
-        <v>0.130716</v>
+        <v>0.132385</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.16286</v>
+        <v>0.170748</v>
       </c>
       <c r="C42" t="n">
-        <v>0.122375</v>
+        <v>0.123249</v>
       </c>
       <c r="D42" t="n">
-        <v>0.137081</v>
+        <v>0.136072</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.164754</v>
+        <v>0.161825</v>
       </c>
       <c r="C43" t="n">
-        <v>0.123781</v>
+        <v>0.126072</v>
       </c>
       <c r="D43" t="n">
-        <v>0.136367</v>
+        <v>0.132466</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.162988</v>
+        <v>0.162684</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125751</v>
+        <v>0.126826</v>
       </c>
       <c r="D44" t="n">
-        <v>0.13402</v>
+        <v>0.132817</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.166229</v>
+        <v>0.161361</v>
       </c>
       <c r="C45" t="n">
-        <v>0.12336</v>
+        <v>0.126352</v>
       </c>
       <c r="D45" t="n">
-        <v>0.141864</v>
+        <v>0.133721</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.164635</v>
+        <v>0.165922</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128028</v>
+        <v>0.125066</v>
       </c>
       <c r="D46" t="n">
-        <v>0.139594</v>
+        <v>0.132332</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.169767</v>
+        <v>0.166175</v>
       </c>
       <c r="C47" t="n">
-        <v>0.132584</v>
+        <v>0.132259</v>
       </c>
       <c r="D47" t="n">
-        <v>0.144312</v>
+        <v>0.136588</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.170094</v>
+        <v>0.16329</v>
       </c>
       <c r="C48" t="n">
-        <v>0.131694</v>
+        <v>0.126483</v>
       </c>
       <c r="D48" t="n">
-        <v>0.146959</v>
+        <v>0.142516</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.170802</v>
+        <v>0.168745</v>
       </c>
       <c r="C49" t="n">
-        <v>0.131362</v>
+        <v>0.132381</v>
       </c>
       <c r="D49" t="n">
-        <v>0.146949</v>
+        <v>0.140596</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.17385</v>
+        <v>0.163445</v>
       </c>
       <c r="C50" t="n">
-        <v>0.135994</v>
+        <v>0.130536</v>
       </c>
       <c r="D50" t="n">
-        <v>0.150293</v>
+        <v>0.144113</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174587</v>
+        <v>0.174957</v>
       </c>
       <c r="C51" t="n">
-        <v>0.13596</v>
+        <v>0.139244</v>
       </c>
       <c r="D51" t="n">
-        <v>0.155745</v>
+        <v>0.200926</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174542</v>
+        <v>0.177646</v>
       </c>
       <c r="C52" t="n">
-        <v>0.146327</v>
+        <v>0.142959</v>
       </c>
       <c r="D52" t="n">
-        <v>0.171148</v>
+        <v>0.20162</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.253407</v>
+        <v>0.258267</v>
       </c>
       <c r="C53" t="n">
-        <v>0.193577</v>
+        <v>0.191495</v>
       </c>
       <c r="D53" t="n">
-        <v>0.20319</v>
+        <v>0.200447</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.266061</v>
+        <v>0.263609</v>
       </c>
       <c r="C54" t="n">
-        <v>0.193183</v>
+        <v>0.200832</v>
       </c>
       <c r="D54" t="n">
-        <v>0.202675</v>
+        <v>0.202887</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.251203</v>
+        <v>0.254493</v>
       </c>
       <c r="C55" t="n">
-        <v>0.198439</v>
+        <v>0.196511</v>
       </c>
       <c r="D55" t="n">
-        <v>0.209449</v>
+        <v>0.207486</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258104</v>
+        <v>0.265345</v>
       </c>
       <c r="C56" t="n">
-        <v>0.205932</v>
+        <v>0.202549</v>
       </c>
       <c r="D56" t="n">
-        <v>0.203997</v>
+        <v>0.204334</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.249415</v>
+        <v>0.256397</v>
       </c>
       <c r="C57" t="n">
-        <v>0.19746</v>
+        <v>0.200371</v>
       </c>
       <c r="D57" t="n">
-        <v>0.20259</v>
+        <v>0.200953</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.260362</v>
+        <v>0.249007</v>
       </c>
       <c r="C58" t="n">
-        <v>0.199041</v>
+        <v>0.20431</v>
       </c>
       <c r="D58" t="n">
-        <v>0.212759</v>
+        <v>0.202673</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.253561</v>
+        <v>0.260037</v>
       </c>
       <c r="C59" t="n">
-        <v>0.20202</v>
+        <v>0.202712</v>
       </c>
       <c r="D59" t="n">
-        <v>0.209923</v>
+        <v>0.212718</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.254688</v>
+        <v>0.261281</v>
       </c>
       <c r="C60" t="n">
-        <v>0.207576</v>
+        <v>0.201143</v>
       </c>
       <c r="D60" t="n">
-        <v>0.20697</v>
+        <v>0.210088</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.253918</v>
+        <v>0.259876</v>
       </c>
       <c r="C61" t="n">
-        <v>0.199533</v>
+        <v>0.210258</v>
       </c>
       <c r="D61" t="n">
-        <v>0.205327</v>
+        <v>0.217763</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.255525</v>
+        <v>0.261009</v>
       </c>
       <c r="C62" t="n">
-        <v>0.206365</v>
+        <v>0.204237</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213357</v>
+        <v>0.209284</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.252618</v>
+        <v>0.258022</v>
       </c>
       <c r="C63" t="n">
-        <v>0.203813</v>
+        <v>0.208621</v>
       </c>
       <c r="D63" t="n">
-        <v>0.216523</v>
+        <v>0.212635</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.253705</v>
+        <v>0.256062</v>
       </c>
       <c r="C64" t="n">
-        <v>0.211414</v>
+        <v>0.207001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.215908</v>
+        <v>0.22056</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.257301</v>
+        <v>0.260067</v>
       </c>
       <c r="C65" t="n">
-        <v>0.219737</v>
+        <v>0.210743</v>
       </c>
       <c r="D65" t="n">
-        <v>0.227949</v>
+        <v>0.22016</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.258507</v>
+        <v>0.260771</v>
       </c>
       <c r="C66" t="n">
-        <v>0.218139</v>
+        <v>0.222046</v>
       </c>
       <c r="D66" t="n">
-        <v>0.234722</v>
+        <v>0.285911</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.394606</v>
+        <v>0.393076</v>
       </c>
       <c r="C67" t="n">
-        <v>0.306887</v>
+        <v>0.316516</v>
       </c>
       <c r="D67" t="n">
-        <v>0.31323</v>
+        <v>0.295723</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.388166</v>
+        <v>0.410657</v>
       </c>
       <c r="C68" t="n">
-        <v>0.307143</v>
+        <v>0.310123</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314416</v>
+        <v>0.292566</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.398434</v>
+        <v>0.412506</v>
       </c>
       <c r="C69" t="n">
-        <v>0.308386</v>
+        <v>0.32171</v>
       </c>
       <c r="D69" t="n">
-        <v>0.316258</v>
+        <v>0.296702</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.391225</v>
+        <v>0.402863</v>
       </c>
       <c r="C70" t="n">
-        <v>0.308394</v>
+        <v>0.307482</v>
       </c>
       <c r="D70" t="n">
-        <v>0.323605</v>
+        <v>0.290952</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.397559</v>
+        <v>0.403361</v>
       </c>
       <c r="C71" t="n">
-        <v>0.315922</v>
+        <v>0.314993</v>
       </c>
       <c r="D71" t="n">
-        <v>0.324129</v>
+        <v>0.297709</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.411781</v>
+        <v>0.400726</v>
       </c>
       <c r="C72" t="n">
-        <v>0.31759</v>
+        <v>0.321774</v>
       </c>
       <c r="D72" t="n">
-        <v>0.321083</v>
+        <v>0.299337</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.395662</v>
+        <v>0.403367</v>
       </c>
       <c r="C73" t="n">
-        <v>0.314391</v>
+        <v>0.311577</v>
       </c>
       <c r="D73" t="n">
-        <v>0.332124</v>
+        <v>0.298709</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.40252</v>
+        <v>0.394237</v>
       </c>
       <c r="C74" t="n">
-        <v>0.316556</v>
+        <v>0.313574</v>
       </c>
       <c r="D74" t="n">
-        <v>0.322809</v>
+        <v>0.31073</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.405373</v>
+        <v>0.396421</v>
       </c>
       <c r="C75" t="n">
-        <v>0.317692</v>
+        <v>0.316161</v>
       </c>
       <c r="D75" t="n">
-        <v>0.323385</v>
+        <v>0.298257</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.396165</v>
+        <v>0.402565</v>
       </c>
       <c r="C76" t="n">
-        <v>0.313619</v>
+        <v>0.311676</v>
       </c>
       <c r="D76" t="n">
-        <v>0.323623</v>
+        <v>0.305812</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.402576</v>
+        <v>0.408931</v>
       </c>
       <c r="C77" t="n">
-        <v>0.317202</v>
+        <v>0.31404</v>
       </c>
       <c r="D77" t="n">
-        <v>0.331349</v>
+        <v>0.29364</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.414191</v>
+        <v>0.39898</v>
       </c>
       <c r="C78" t="n">
-        <v>0.328523</v>
+        <v>0.317671</v>
       </c>
       <c r="D78" t="n">
-        <v>0.329787</v>
+        <v>0.313977</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.421379</v>
+        <v>0.407416</v>
       </c>
       <c r="C79" t="n">
-        <v>0.329795</v>
+        <v>0.325791</v>
       </c>
       <c r="D79" t="n">
-        <v>0.338638</v>
+        <v>0.310038</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.427133</v>
+        <v>0.411692</v>
       </c>
       <c r="C80" t="n">
-        <v>0.331891</v>
+        <v>0.320341</v>
       </c>
       <c r="D80" t="n">
-        <v>0.360722</v>
+        <v>0.430232</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.544723</v>
+        <v>0.548921</v>
       </c>
       <c r="C81" t="n">
-        <v>0.425621</v>
+        <v>0.423822</v>
       </c>
       <c r="D81" t="n">
-        <v>0.423904</v>
+        <v>0.432941</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.546081</v>
+        <v>0.549862</v>
       </c>
       <c r="C82" t="n">
-        <v>0.42429</v>
+        <v>0.431604</v>
       </c>
       <c r="D82" t="n">
-        <v>0.437732</v>
+        <v>0.417193</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.549926</v>
+        <v>0.5469309999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.423999</v>
+        <v>0.436578</v>
       </c>
       <c r="D83" t="n">
-        <v>0.437946</v>
+        <v>0.43057</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.539726</v>
+        <v>0.551666</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4419</v>
+        <v>0.42323</v>
       </c>
       <c r="D84" t="n">
-        <v>0.436636</v>
+        <v>0.43251</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.566662</v>
+        <v>0.551411</v>
       </c>
       <c r="C85" t="n">
-        <v>0.426496</v>
+        <v>0.425726</v>
       </c>
       <c r="D85" t="n">
-        <v>0.435551</v>
+        <v>0.430982</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.55575</v>
+        <v>0.543311</v>
       </c>
       <c r="C86" t="n">
-        <v>0.441397</v>
+        <v>0.428485</v>
       </c>
       <c r="D86" t="n">
-        <v>0.44003</v>
+        <v>0.435202</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.565508</v>
+        <v>0.545892</v>
       </c>
       <c r="C87" t="n">
-        <v>0.424616</v>
+        <v>0.433602</v>
       </c>
       <c r="D87" t="n">
-        <v>0.434762</v>
+        <v>0.42454</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.569472</v>
+        <v>0.562597</v>
       </c>
       <c r="C88" t="n">
-        <v>0.442256</v>
+        <v>0.444669</v>
       </c>
       <c r="D88" t="n">
-        <v>0.440059</v>
+        <v>0.441464</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.551204</v>
+        <v>0.550493</v>
       </c>
       <c r="C89" t="n">
-        <v>0.428502</v>
+        <v>0.435339</v>
       </c>
       <c r="D89" t="n">
-        <v>0.443058</v>
+        <v>0.434392</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.56845</v>
+        <v>0.556613</v>
       </c>
       <c r="C90" t="n">
-        <v>0.431809</v>
+        <v>0.437624</v>
       </c>
       <c r="D90" t="n">
-        <v>0.441752</v>
+        <v>0.437369</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.56987</v>
+        <v>0.559106</v>
       </c>
       <c r="C91" t="n">
-        <v>0.436579</v>
+        <v>0.435726</v>
       </c>
       <c r="D91" t="n">
-        <v>0.458237</v>
+        <v>0.444105</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.563686</v>
+        <v>0.559735</v>
       </c>
       <c r="C92" t="n">
-        <v>0.428513</v>
+        <v>0.438346</v>
       </c>
       <c r="D92" t="n">
-        <v>0.451374</v>
+        <v>0.443649</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.583287</v>
+        <v>0.563019</v>
       </c>
       <c r="C93" t="n">
-        <v>0.439613</v>
+        <v>0.443447</v>
       </c>
       <c r="D93" t="n">
-        <v>0.458249</v>
+        <v>0.456368</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.557765</v>
+        <v>0.573306</v>
       </c>
       <c r="C94" t="n">
-        <v>0.45396</v>
+        <v>0.467527</v>
       </c>
       <c r="D94" t="n">
-        <v>0.460907</v>
+        <v>0.517327</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.636592</v>
+        <v>0.637731</v>
       </c>
       <c r="C95" t="n">
-        <v>0.504329</v>
+        <v>0.516459</v>
       </c>
       <c r="D95" t="n">
-        <v>0.511286</v>
+        <v>0.548106</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.639946</v>
+        <v>0.63403</v>
       </c>
       <c r="C96" t="n">
-        <v>0.534759</v>
+        <v>0.512128</v>
       </c>
       <c r="D96" t="n">
-        <v>0.52162</v>
+        <v>0.509579</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6573059999999999</v>
+        <v>0.643697</v>
       </c>
       <c r="C97" t="n">
-        <v>0.536486</v>
+        <v>0.514543</v>
       </c>
       <c r="D97" t="n">
-        <v>0.559103</v>
+        <v>0.509691</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.640717</v>
+        <v>0.660462</v>
       </c>
       <c r="C98" t="n">
-        <v>0.509442</v>
+        <v>0.512788</v>
       </c>
       <c r="D98" t="n">
-        <v>0.545559</v>
+        <v>0.516166</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.702796</v>
+        <v>0.638736</v>
       </c>
       <c r="C99" t="n">
-        <v>0.553289</v>
+        <v>0.525637</v>
       </c>
       <c r="D99" t="n">
-        <v>0.544328</v>
+        <v>0.526335</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.7218909999999999</v>
+        <v>0.649733</v>
       </c>
       <c r="C100" t="n">
-        <v>0.521044</v>
+        <v>0.5124880000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.522939</v>
+        <v>0.52314</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.70302</v>
+        <v>0.648077</v>
       </c>
       <c r="C101" t="n">
-        <v>0.509858</v>
+        <v>0.5141829999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.551852</v>
+        <v>0.515998</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.650186</v>
+        <v>0.643744</v>
       </c>
       <c r="C102" t="n">
-        <v>0.551434</v>
+        <v>0.528462</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5643820000000001</v>
+        <v>0.528874</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.661578</v>
+        <v>0.688215</v>
       </c>
       <c r="C103" t="n">
-        <v>0.51841</v>
+        <v>0.521421</v>
       </c>
       <c r="D103" t="n">
-        <v>0.532727</v>
+        <v>0.539096</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.7043</v>
+        <v>0.6567460000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5128549999999999</v>
+        <v>0.513801</v>
       </c>
       <c r="D104" t="n">
-        <v>0.538296</v>
+        <v>0.537655</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.659802</v>
+        <v>0.650259</v>
       </c>
       <c r="C105" t="n">
-        <v>0.531003</v>
+        <v>0.527761</v>
       </c>
       <c r="D105" t="n">
-        <v>0.537117</v>
+        <v>0.531066</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6518119999999999</v>
+        <v>0.667014</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5244490000000001</v>
+        <v>0.549193</v>
       </c>
       <c r="D106" t="n">
-        <v>0.529786</v>
+        <v>0.541672</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6463179999999999</v>
+        <v>0.6592710000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.557499</v>
+        <v>0.544898</v>
       </c>
       <c r="D107" t="n">
-        <v>0.552289</v>
+        <v>0.5469810000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6518929999999999</v>
+        <v>0.650323</v>
       </c>
       <c r="C108" t="n">
-        <v>0.557874</v>
+        <v>0.555057</v>
       </c>
       <c r="D108" t="n">
-        <v>0.584147</v>
+        <v>0.65024</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.676444</v>
+        <v>0.671024</v>
       </c>
       <c r="C109" t="n">
-        <v>0.54866</v>
+        <v>0.575135</v>
       </c>
       <c r="D109" t="n">
-        <v>0.583053</v>
+        <v>0.611063</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.795766</v>
+        <v>0.819327</v>
       </c>
       <c r="C110" t="n">
-        <v>0.643172</v>
+        <v>0.596406</v>
       </c>
       <c r="D110" t="n">
-        <v>0.605735</v>
+        <v>0.626068</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8004869999999999</v>
+        <v>0.7915</v>
       </c>
       <c r="C111" t="n">
-        <v>0.631107</v>
+        <v>0.604603</v>
       </c>
       <c r="D111" t="n">
-        <v>0.618734</v>
+        <v>0.608285</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.818159</v>
+        <v>0.812513</v>
       </c>
       <c r="C112" t="n">
-        <v>0.607797</v>
+        <v>0.6511400000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.610996</v>
+        <v>0.620416</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.806266</v>
+        <v>0.798223</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6037090000000001</v>
+        <v>0.61436</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6167589999999999</v>
+        <v>0.631223</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.847047</v>
+        <v>0.82322</v>
       </c>
       <c r="C114" t="n">
-        <v>0.665006</v>
+        <v>0.6664600000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6752</v>
+        <v>0.6716299999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.799804</v>
+        <v>0.922717</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6452059999999999</v>
+        <v>0.610022</v>
       </c>
       <c r="D115" t="n">
-        <v>0.614872</v>
+        <v>0.635832</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.799087</v>
+        <v>0.787857</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6821469999999999</v>
+        <v>0.619177</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6395999999999999</v>
+        <v>0.632168</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.832822</v>
+        <v>0.785201</v>
       </c>
       <c r="C117" t="n">
-        <v>0.652756</v>
+        <v>0.666095</v>
       </c>
       <c r="D117" t="n">
-        <v>0.625275</v>
+        <v>0.655435</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.806857</v>
+        <v>0.781806</v>
       </c>
       <c r="C118" t="n">
-        <v>0.617491</v>
+        <v>0.616075</v>
       </c>
       <c r="D118" t="n">
-        <v>0.646122</v>
+        <v>0.6411019999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.823841</v>
+        <v>0.797388</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6313299999999999</v>
+        <v>0.642052</v>
       </c>
       <c r="D119" t="n">
-        <v>0.641572</v>
+        <v>0.6383720000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.808962</v>
+        <v>0.786027</v>
       </c>
       <c r="C120" t="n">
-        <v>0.624466</v>
+        <v>0.674184</v>
       </c>
       <c r="D120" t="n">
-        <v>0.642374</v>
+        <v>0.661807</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.82157</v>
+        <v>0.806998</v>
       </c>
       <c r="C121" t="n">
-        <v>0.628726</v>
+        <v>0.659032</v>
       </c>
       <c r="D121" t="n">
-        <v>0.63846</v>
+        <v>0.647162</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.804916</v>
+        <v>0.829584</v>
       </c>
       <c r="C122" t="n">
-        <v>0.629061</v>
+        <v>0.635512</v>
       </c>
       <c r="D122" t="n">
-        <v>0.648046</v>
+        <v>0.646528</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.805308</v>
+        <v>0.818133</v>
       </c>
       <c r="C123" t="n">
-        <v>0.627597</v>
+        <v>0.656763</v>
       </c>
       <c r="D123" t="n">
-        <v>0.760063</v>
+        <v>0.7446700000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.05731</v>
+        <v>1.04541</v>
       </c>
       <c r="C124" t="n">
-        <v>0.732665</v>
+        <v>0.737689</v>
       </c>
       <c r="D124" t="n">
-        <v>0.750945</v>
+        <v>0.789716</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.04156</v>
+        <v>1.03565</v>
       </c>
       <c r="C125" t="n">
-        <v>0.729895</v>
+        <v>0.760242</v>
       </c>
       <c r="D125" t="n">
-        <v>0.743521</v>
+        <v>0.763277</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03365</v>
+        <v>1.07</v>
       </c>
       <c r="C126" t="n">
-        <v>0.732585</v>
+        <v>0.758243</v>
       </c>
       <c r="D126" t="n">
-        <v>0.759229</v>
+        <v>0.745149</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03739</v>
+        <v>1.05561</v>
       </c>
       <c r="C127" t="n">
-        <v>0.763462</v>
+        <v>0.734007</v>
       </c>
       <c r="D127" t="n">
-        <v>0.744506</v>
+        <v>0.762996</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04344</v>
+        <v>1.04712</v>
       </c>
       <c r="C128" t="n">
-        <v>0.754956</v>
+        <v>0.750773</v>
       </c>
       <c r="D128" t="n">
-        <v>0.779662</v>
+        <v>0.794719</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.20167</v>
+        <v>1.08713</v>
       </c>
       <c r="C129" t="n">
-        <v>0.728461</v>
+        <v>0.752758</v>
       </c>
       <c r="D129" t="n">
-        <v>0.752413</v>
+        <v>0.891303</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.04322</v>
+        <v>1.0429</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7450830000000001</v>
+        <v>0.844073</v>
       </c>
       <c r="D130" t="n">
-        <v>0.75972</v>
+        <v>0.877439</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.04004</v>
+        <v>1.04551</v>
       </c>
       <c r="C131" t="n">
-        <v>0.745801</v>
+        <v>0.737807</v>
       </c>
       <c r="D131" t="n">
-        <v>0.76959</v>
+        <v>0.817134</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04001</v>
+        <v>1.03608</v>
       </c>
       <c r="C132" t="n">
-        <v>0.766753</v>
+        <v>0.861611</v>
       </c>
       <c r="D132" t="n">
-        <v>0.835059</v>
+        <v>0.787178</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04496</v>
+        <v>1.23861</v>
       </c>
       <c r="C133" t="n">
-        <v>0.754754</v>
+        <v>0.867451</v>
       </c>
       <c r="D133" t="n">
-        <v>0.783392</v>
+        <v>0.794638</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.01607</v>
+        <v>1.20917</v>
       </c>
       <c r="C134" t="n">
-        <v>0.761278</v>
+        <v>0.751189</v>
       </c>
       <c r="D134" t="n">
-        <v>0.759337</v>
+        <v>0.7813059999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.059</v>
+        <v>1.0606</v>
       </c>
       <c r="C135" t="n">
-        <v>0.756392</v>
+        <v>0.816226</v>
       </c>
       <c r="D135" t="n">
-        <v>0.795114</v>
+        <v>0.827089</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.054</v>
+        <v>1.06214</v>
       </c>
       <c r="C136" t="n">
-        <v>0.76877</v>
+        <v>0.778854</v>
       </c>
       <c r="D136" t="n">
-        <v>0.790073</v>
+        <v>0.81221</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05498</v>
+        <v>1.0665</v>
       </c>
       <c r="C137" t="n">
-        <v>0.774528</v>
+        <v>0.788142</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8386130000000001</v>
+        <v>0.929575</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.41877</v>
+        <v>1.35363</v>
       </c>
       <c r="C138" t="n">
-        <v>0.937617</v>
+        <v>0.926914</v>
       </c>
       <c r="D138" t="n">
-        <v>0.934552</v>
+        <v>0.947341</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30467</v>
+        <v>1.32429</v>
       </c>
       <c r="C139" t="n">
-        <v>0.929653</v>
+        <v>0.928389</v>
       </c>
       <c r="D139" t="n">
-        <v>0.929963</v>
+        <v>0.936883</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29914</v>
+        <v>1.31685</v>
       </c>
       <c r="C140" t="n">
-        <v>0.921987</v>
+        <v>0.9431389999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.943748</v>
+        <v>0.938271</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.32482</v>
+        <v>1.3389</v>
       </c>
       <c r="C141" t="n">
-        <v>0.940545</v>
+        <v>0.963902</v>
       </c>
       <c r="D141" t="n">
-        <v>0.936908</v>
+        <v>0.930033</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.3112</v>
+        <v>1.29165</v>
       </c>
       <c r="C142" t="n">
-        <v>0.934662</v>
+        <v>0.945777</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9932029999999999</v>
+        <v>0.946902</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.3247</v>
+        <v>1.30734</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9374169999999999</v>
+        <v>0.93227</v>
       </c>
       <c r="D143" t="n">
-        <v>0.935175</v>
+        <v>0.940696</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.118259</v>
+        <v>0.116949</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09810670000000001</v>
+        <v>0.102106</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108821</v>
+        <v>0.105019</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115896</v>
+        <v>0.118507</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09884370000000001</v>
+        <v>0.0975125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.104898</v>
+        <v>0.108039</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.114983</v>
+        <v>0.117506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0979949</v>
+        <v>0.101268</v>
       </c>
       <c r="D4" t="n">
-        <v>0.108411</v>
+        <v>0.110032</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116929</v>
+        <v>0.118668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104044</v>
+        <v>0.103265</v>
       </c>
       <c r="D5" t="n">
-        <v>0.112147</v>
+        <v>0.112212</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11909</v>
+        <v>0.124208</v>
       </c>
       <c r="C6" t="n">
-        <v>0.103624</v>
+        <v>0.10267</v>
       </c>
       <c r="D6" t="n">
-        <v>0.110356</v>
+        <v>0.117337</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.12247</v>
+        <v>0.122378</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101333</v>
+        <v>0.108751</v>
       </c>
       <c r="D7" t="n">
-        <v>0.112913</v>
+        <v>0.120731</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.122791</v>
+        <v>0.122848</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10465</v>
+        <v>0.107746</v>
       </c>
       <c r="D8" t="n">
-        <v>0.113717</v>
+        <v>0.120583</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122889</v>
+        <v>0.126392</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108589</v>
+        <v>0.112637</v>
       </c>
       <c r="D9" t="n">
-        <v>0.107361</v>
+        <v>0.110483</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126336</v>
+        <v>0.135164</v>
       </c>
       <c r="C10" t="n">
-        <v>0.10697</v>
+        <v>0.107681</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11166</v>
+        <v>0.112834</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.128599</v>
+        <v>0.132236</v>
       </c>
       <c r="C11" t="n">
-        <v>0.102008</v>
+        <v>0.104189</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110327</v>
+        <v>0.113553</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.129834</v>
+        <v>0.132314</v>
       </c>
       <c r="C12" t="n">
-        <v>0.104875</v>
+        <v>0.105876</v>
       </c>
       <c r="D12" t="n">
-        <v>0.108289</v>
+        <v>0.110693</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.130502</v>
+        <v>0.131387</v>
       </c>
       <c r="C13" t="n">
-        <v>0.103622</v>
+        <v>0.104421</v>
       </c>
       <c r="D13" t="n">
-        <v>0.108431</v>
+        <v>0.114286</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128171</v>
+        <v>0.130726</v>
       </c>
       <c r="C14" t="n">
-        <v>0.104031</v>
+        <v>0.105633</v>
       </c>
       <c r="D14" t="n">
-        <v>0.109128</v>
+        <v>0.115537</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129992</v>
+        <v>0.134302</v>
       </c>
       <c r="C15" t="n">
-        <v>0.104672</v>
+        <v>0.102631</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112957</v>
+        <v>0.113602</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.13321</v>
+        <v>0.127489</v>
       </c>
       <c r="C16" t="n">
-        <v>0.104793</v>
+        <v>0.107947</v>
       </c>
       <c r="D16" t="n">
-        <v>0.112024</v>
+        <v>0.113095</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.135102</v>
+        <v>0.128712</v>
       </c>
       <c r="C17" t="n">
-        <v>0.104288</v>
+        <v>0.106819</v>
       </c>
       <c r="D17" t="n">
-        <v>0.111796</v>
+        <v>0.115167</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.131824</v>
+        <v>0.131929</v>
       </c>
       <c r="C18" t="n">
-        <v>0.106268</v>
+        <v>0.105879</v>
       </c>
       <c r="D18" t="n">
-        <v>0.11275</v>
+        <v>0.116835</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.130615</v>
+        <v>0.131873</v>
       </c>
       <c r="C19" t="n">
-        <v>0.10592</v>
+        <v>0.105706</v>
       </c>
       <c r="D19" t="n">
-        <v>0.113293</v>
+        <v>0.113353</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.132764</v>
+        <v>0.132931</v>
       </c>
       <c r="C20" t="n">
-        <v>0.109625</v>
+        <v>0.109977</v>
       </c>
       <c r="D20" t="n">
-        <v>0.113689</v>
+        <v>0.120181</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.134233</v>
+        <v>0.131216</v>
       </c>
       <c r="C21" t="n">
-        <v>0.109159</v>
+        <v>0.109926</v>
       </c>
       <c r="D21" t="n">
-        <v>0.120272</v>
+        <v>0.121688</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.137572</v>
+        <v>0.133356</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115957</v>
+        <v>0.112069</v>
       </c>
       <c r="D22" t="n">
-        <v>0.123569</v>
+        <v>0.130792</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.13517</v>
+        <v>0.135751</v>
       </c>
       <c r="C23" t="n">
-        <v>0.116533</v>
+        <v>0.117099</v>
       </c>
       <c r="D23" t="n">
-        <v>0.112786</v>
+        <v>0.116492</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.144219</v>
+        <v>0.140954</v>
       </c>
       <c r="C24" t="n">
-        <v>0.106905</v>
+        <v>0.106234</v>
       </c>
       <c r="D24" t="n">
-        <v>0.114462</v>
+        <v>0.115309</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.143161</v>
+        <v>0.142756</v>
       </c>
       <c r="C25" t="n">
-        <v>0.104669</v>
+        <v>0.108193</v>
       </c>
       <c r="D25" t="n">
-        <v>0.117804</v>
+        <v>0.115297</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.139025</v>
+        <v>0.138502</v>
       </c>
       <c r="C26" t="n">
-        <v>0.107626</v>
+        <v>0.110167</v>
       </c>
       <c r="D26" t="n">
-        <v>0.117973</v>
+        <v>0.11674</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.137028</v>
+        <v>0.140505</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108274</v>
+        <v>0.110053</v>
       </c>
       <c r="D27" t="n">
-        <v>0.114545</v>
+        <v>0.116064</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136829</v>
+        <v>0.139322</v>
       </c>
       <c r="C28" t="n">
-        <v>0.105346</v>
+        <v>0.109037</v>
       </c>
       <c r="D28" t="n">
-        <v>0.119418</v>
+        <v>0.119367</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.141164</v>
+        <v>0.140532</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109195</v>
+        <v>0.108607</v>
       </c>
       <c r="D29" t="n">
-        <v>0.119852</v>
+        <v>0.114735</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137287</v>
+        <v>0.141762</v>
       </c>
       <c r="C30" t="n">
-        <v>0.108089</v>
+        <v>0.109831</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120126</v>
+        <v>0.118007</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.138636</v>
+        <v>0.144464</v>
       </c>
       <c r="C31" t="n">
-        <v>0.111624</v>
+        <v>0.11345</v>
       </c>
       <c r="D31" t="n">
-        <v>0.118723</v>
+        <v>0.11896</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.142495</v>
+        <v>0.142497</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112554</v>
+        <v>0.110623</v>
       </c>
       <c r="D32" t="n">
-        <v>0.119002</v>
+        <v>0.120151</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.142232</v>
+        <v>0.144359</v>
       </c>
       <c r="C33" t="n">
-        <v>0.112358</v>
+        <v>0.113088</v>
       </c>
       <c r="D33" t="n">
-        <v>0.122224</v>
+        <v>0.120591</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.140234</v>
+        <v>0.14059</v>
       </c>
       <c r="C34" t="n">
-        <v>0.111245</v>
+        <v>0.111482</v>
       </c>
       <c r="D34" t="n">
-        <v>0.124619</v>
+        <v>0.121557</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142681</v>
+        <v>0.143891</v>
       </c>
       <c r="C35" t="n">
-        <v>0.118745</v>
+        <v>0.11639</v>
       </c>
       <c r="D35" t="n">
-        <v>0.124707</v>
+        <v>0.129427</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.143373</v>
+        <v>0.144085</v>
       </c>
       <c r="C36" t="n">
-        <v>0.118189</v>
+        <v>0.118574</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131327</v>
+        <v>0.134968</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146703</v>
+        <v>0.142706</v>
       </c>
       <c r="C37" t="n">
-        <v>0.122666</v>
+        <v>0.124548</v>
       </c>
       <c r="D37" t="n">
-        <v>0.131662</v>
+        <v>0.130475</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162146</v>
+        <v>0.166269</v>
       </c>
       <c r="C38" t="n">
-        <v>0.121903</v>
+        <v>0.121772</v>
       </c>
       <c r="D38" t="n">
-        <v>0.129081</v>
+        <v>0.138593</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.162094</v>
+        <v>0.166005</v>
       </c>
       <c r="C39" t="n">
-        <v>0.122004</v>
+        <v>0.12383</v>
       </c>
       <c r="D39" t="n">
-        <v>0.136256</v>
+        <v>0.136317</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.16053</v>
+        <v>0.170106</v>
       </c>
       <c r="C40" t="n">
-        <v>0.122827</v>
+        <v>0.121147</v>
       </c>
       <c r="D40" t="n">
-        <v>0.130838</v>
+        <v>0.136843</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.16256</v>
+        <v>0.165838</v>
       </c>
       <c r="C41" t="n">
-        <v>0.123632</v>
+        <v>0.127304</v>
       </c>
       <c r="D41" t="n">
-        <v>0.132385</v>
+        <v>0.132487</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.170748</v>
+        <v>0.169215</v>
       </c>
       <c r="C42" t="n">
-        <v>0.123249</v>
+        <v>0.123223</v>
       </c>
       <c r="D42" t="n">
-        <v>0.136072</v>
+        <v>0.13349</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.161825</v>
+        <v>0.166071</v>
       </c>
       <c r="C43" t="n">
-        <v>0.126072</v>
+        <v>0.123733</v>
       </c>
       <c r="D43" t="n">
-        <v>0.132466</v>
+        <v>0.137934</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.162684</v>
+        <v>0.168799</v>
       </c>
       <c r="C44" t="n">
-        <v>0.126826</v>
+        <v>0.126259</v>
       </c>
       <c r="D44" t="n">
-        <v>0.132817</v>
+        <v>0.140066</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.161361</v>
+        <v>0.168028</v>
       </c>
       <c r="C45" t="n">
-        <v>0.126352</v>
+        <v>0.126417</v>
       </c>
       <c r="D45" t="n">
-        <v>0.133721</v>
+        <v>0.137385</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.165922</v>
+        <v>0.164023</v>
       </c>
       <c r="C46" t="n">
-        <v>0.125066</v>
+        <v>0.130481</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132332</v>
+        <v>0.136314</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.166175</v>
+        <v>0.167001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.132259</v>
+        <v>0.125634</v>
       </c>
       <c r="D47" t="n">
-        <v>0.136588</v>
+        <v>0.137995</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.16329</v>
+        <v>0.172065</v>
       </c>
       <c r="C48" t="n">
-        <v>0.126483</v>
+        <v>0.130682</v>
       </c>
       <c r="D48" t="n">
-        <v>0.142516</v>
+        <v>0.138464</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.168745</v>
+        <v>0.16965</v>
       </c>
       <c r="C49" t="n">
-        <v>0.132381</v>
+        <v>0.131666</v>
       </c>
       <c r="D49" t="n">
-        <v>0.140596</v>
+        <v>0.14807</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.163445</v>
+        <v>0.173216</v>
       </c>
       <c r="C50" t="n">
-        <v>0.130536</v>
+        <v>0.133972</v>
       </c>
       <c r="D50" t="n">
-        <v>0.144113</v>
+        <v>0.147107</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174957</v>
+        <v>0.172346</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139244</v>
+        <v>0.139834</v>
       </c>
       <c r="D51" t="n">
-        <v>0.200926</v>
+        <v>0.205095</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177646</v>
+        <v>0.175351</v>
       </c>
       <c r="C52" t="n">
-        <v>0.142959</v>
+        <v>0.143842</v>
       </c>
       <c r="D52" t="n">
-        <v>0.20162</v>
+        <v>0.204145</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.258267</v>
+        <v>0.261785</v>
       </c>
       <c r="C53" t="n">
-        <v>0.191495</v>
+        <v>0.194337</v>
       </c>
       <c r="D53" t="n">
-        <v>0.200447</v>
+        <v>0.206969</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.263609</v>
+        <v>0.258403</v>
       </c>
       <c r="C54" t="n">
-        <v>0.200832</v>
+        <v>0.200396</v>
       </c>
       <c r="D54" t="n">
-        <v>0.202887</v>
+        <v>0.20956</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.254493</v>
+        <v>0.262152</v>
       </c>
       <c r="C55" t="n">
-        <v>0.196511</v>
+        <v>0.199035</v>
       </c>
       <c r="D55" t="n">
-        <v>0.207486</v>
+        <v>0.205072</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.265345</v>
+        <v>0.251187</v>
       </c>
       <c r="C56" t="n">
-        <v>0.202549</v>
+        <v>0.200802</v>
       </c>
       <c r="D56" t="n">
-        <v>0.204334</v>
+        <v>0.204056</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.256397</v>
+        <v>0.255127</v>
       </c>
       <c r="C57" t="n">
-        <v>0.200371</v>
+        <v>0.201163</v>
       </c>
       <c r="D57" t="n">
-        <v>0.200953</v>
+        <v>0.208711</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.249007</v>
+        <v>0.254714</v>
       </c>
       <c r="C58" t="n">
-        <v>0.20431</v>
+        <v>0.205819</v>
       </c>
       <c r="D58" t="n">
-        <v>0.202673</v>
+        <v>0.203358</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.260037</v>
+        <v>0.25882</v>
       </c>
       <c r="C59" t="n">
-        <v>0.202712</v>
+        <v>0.196993</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212718</v>
+        <v>0.20368</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.261281</v>
+        <v>0.25588</v>
       </c>
       <c r="C60" t="n">
-        <v>0.201143</v>
+        <v>0.202645</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210088</v>
+        <v>0.212412</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259876</v>
+        <v>0.255234</v>
       </c>
       <c r="C61" t="n">
-        <v>0.210258</v>
+        <v>0.196263</v>
       </c>
       <c r="D61" t="n">
-        <v>0.217763</v>
+        <v>0.207998</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.261009</v>
+        <v>0.266216</v>
       </c>
       <c r="C62" t="n">
-        <v>0.204237</v>
+        <v>0.204887</v>
       </c>
       <c r="D62" t="n">
-        <v>0.209284</v>
+        <v>0.216818</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.258022</v>
+        <v>0.256038</v>
       </c>
       <c r="C63" t="n">
-        <v>0.208621</v>
+        <v>0.206428</v>
       </c>
       <c r="D63" t="n">
-        <v>0.212635</v>
+        <v>0.21517</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.256062</v>
+        <v>0.265507</v>
       </c>
       <c r="C64" t="n">
-        <v>0.207001</v>
+        <v>0.2163</v>
       </c>
       <c r="D64" t="n">
-        <v>0.22056</v>
+        <v>0.226243</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.260067</v>
+        <v>0.268351</v>
       </c>
       <c r="C65" t="n">
-        <v>0.210743</v>
+        <v>0.210854</v>
       </c>
       <c r="D65" t="n">
-        <v>0.22016</v>
+        <v>0.230315</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.260771</v>
+        <v>0.268365</v>
       </c>
       <c r="C66" t="n">
-        <v>0.222046</v>
+        <v>0.221453</v>
       </c>
       <c r="D66" t="n">
-        <v>0.285911</v>
+        <v>0.292957</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.393076</v>
+        <v>0.394346</v>
       </c>
       <c r="C67" t="n">
-        <v>0.316516</v>
+        <v>0.312571</v>
       </c>
       <c r="D67" t="n">
-        <v>0.295723</v>
+        <v>0.295895</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.410657</v>
+        <v>0.406954</v>
       </c>
       <c r="C68" t="n">
-        <v>0.310123</v>
+        <v>0.31486</v>
       </c>
       <c r="D68" t="n">
-        <v>0.292566</v>
+        <v>0.301326</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.412506</v>
+        <v>0.40713</v>
       </c>
       <c r="C69" t="n">
-        <v>0.32171</v>
+        <v>0.311609</v>
       </c>
       <c r="D69" t="n">
-        <v>0.296702</v>
+        <v>0.305847</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.402863</v>
+        <v>0.398584</v>
       </c>
       <c r="C70" t="n">
-        <v>0.307482</v>
+        <v>0.311095</v>
       </c>
       <c r="D70" t="n">
-        <v>0.290952</v>
+        <v>0.30195</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.403361</v>
+        <v>0.403434</v>
       </c>
       <c r="C71" t="n">
-        <v>0.314993</v>
+        <v>0.32345</v>
       </c>
       <c r="D71" t="n">
-        <v>0.297709</v>
+        <v>0.295369</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.400726</v>
+        <v>0.397247</v>
       </c>
       <c r="C72" t="n">
-        <v>0.321774</v>
+        <v>0.317204</v>
       </c>
       <c r="D72" t="n">
-        <v>0.299337</v>
+        <v>0.297143</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.403367</v>
+        <v>0.41601</v>
       </c>
       <c r="C73" t="n">
-        <v>0.311577</v>
+        <v>0.314235</v>
       </c>
       <c r="D73" t="n">
-        <v>0.298709</v>
+        <v>0.304241</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.394237</v>
+        <v>0.406761</v>
       </c>
       <c r="C74" t="n">
-        <v>0.313574</v>
+        <v>0.324368</v>
       </c>
       <c r="D74" t="n">
-        <v>0.31073</v>
+        <v>0.311541</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.396421</v>
+        <v>0.413007</v>
       </c>
       <c r="C75" t="n">
-        <v>0.316161</v>
+        <v>0.315988</v>
       </c>
       <c r="D75" t="n">
-        <v>0.298257</v>
+        <v>0.314208</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.402565</v>
+        <v>0.423918</v>
       </c>
       <c r="C76" t="n">
-        <v>0.311676</v>
+        <v>0.322771</v>
       </c>
       <c r="D76" t="n">
-        <v>0.305812</v>
+        <v>0.318338</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.408931</v>
+        <v>0.415843</v>
       </c>
       <c r="C77" t="n">
-        <v>0.31404</v>
+        <v>0.316725</v>
       </c>
       <c r="D77" t="n">
-        <v>0.29364</v>
+        <v>0.325648</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.39898</v>
+        <v>0.419044</v>
       </c>
       <c r="C78" t="n">
-        <v>0.317671</v>
+        <v>0.319465</v>
       </c>
       <c r="D78" t="n">
-        <v>0.313977</v>
+        <v>0.322429</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.407416</v>
+        <v>0.413751</v>
       </c>
       <c r="C79" t="n">
-        <v>0.325791</v>
+        <v>0.323688</v>
       </c>
       <c r="D79" t="n">
-        <v>0.310038</v>
+        <v>0.311925</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.411692</v>
+        <v>0.427625</v>
       </c>
       <c r="C80" t="n">
-        <v>0.320341</v>
+        <v>0.328035</v>
       </c>
       <c r="D80" t="n">
-        <v>0.430232</v>
+        <v>0.425192</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.548921</v>
+        <v>0.555532</v>
       </c>
       <c r="C81" t="n">
-        <v>0.423822</v>
+        <v>0.42925</v>
       </c>
       <c r="D81" t="n">
-        <v>0.432941</v>
+        <v>0.425481</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.549862</v>
+        <v>0.561696</v>
       </c>
       <c r="C82" t="n">
-        <v>0.431604</v>
+        <v>0.423369</v>
       </c>
       <c r="D82" t="n">
-        <v>0.417193</v>
+        <v>0.425804</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5469309999999999</v>
+        <v>0.547455</v>
       </c>
       <c r="C83" t="n">
-        <v>0.436578</v>
+        <v>0.422928</v>
       </c>
       <c r="D83" t="n">
-        <v>0.43057</v>
+        <v>0.445654</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.551666</v>
+        <v>0.552713</v>
       </c>
       <c r="C84" t="n">
-        <v>0.42323</v>
+        <v>0.431414</v>
       </c>
       <c r="D84" t="n">
-        <v>0.43251</v>
+        <v>0.440308</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.551411</v>
+        <v>0.561156</v>
       </c>
       <c r="C85" t="n">
-        <v>0.425726</v>
+        <v>0.439788</v>
       </c>
       <c r="D85" t="n">
-        <v>0.430982</v>
+        <v>0.441072</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.543311</v>
+        <v>0.5531470000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.428485</v>
+        <v>0.429422</v>
       </c>
       <c r="D86" t="n">
-        <v>0.435202</v>
+        <v>0.43711</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.545892</v>
+        <v>0.551502</v>
       </c>
       <c r="C87" t="n">
-        <v>0.433602</v>
+        <v>0.425114</v>
       </c>
       <c r="D87" t="n">
-        <v>0.42454</v>
+        <v>0.441614</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.562597</v>
+        <v>0.557216</v>
       </c>
       <c r="C88" t="n">
-        <v>0.444669</v>
+        <v>0.439528</v>
       </c>
       <c r="D88" t="n">
-        <v>0.441464</v>
+        <v>0.443071</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.550493</v>
+        <v>0.548219</v>
       </c>
       <c r="C89" t="n">
-        <v>0.435339</v>
+        <v>0.430463</v>
       </c>
       <c r="D89" t="n">
-        <v>0.434392</v>
+        <v>0.446466</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.556613</v>
+        <v>0.568868</v>
       </c>
       <c r="C90" t="n">
-        <v>0.437624</v>
+        <v>0.437631</v>
       </c>
       <c r="D90" t="n">
-        <v>0.437369</v>
+        <v>0.439885</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.559106</v>
+        <v>0.554875</v>
       </c>
       <c r="C91" t="n">
-        <v>0.435726</v>
+        <v>0.429479</v>
       </c>
       <c r="D91" t="n">
-        <v>0.444105</v>
+        <v>0.446973</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.559735</v>
+        <v>0.551051</v>
       </c>
       <c r="C92" t="n">
-        <v>0.438346</v>
+        <v>0.448848</v>
       </c>
       <c r="D92" t="n">
-        <v>0.443649</v>
+        <v>0.45286</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.563019</v>
+        <v>0.576726</v>
       </c>
       <c r="C93" t="n">
-        <v>0.443447</v>
+        <v>0.442247</v>
       </c>
       <c r="D93" t="n">
-        <v>0.456368</v>
+        <v>0.462085</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.573306</v>
+        <v>0.570513</v>
       </c>
       <c r="C94" t="n">
-        <v>0.467527</v>
+        <v>0.452779</v>
       </c>
       <c r="D94" t="n">
-        <v>0.517327</v>
+        <v>0.538713</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.637731</v>
+        <v>0.632439</v>
       </c>
       <c r="C95" t="n">
-        <v>0.516459</v>
+        <v>0.498863</v>
       </c>
       <c r="D95" t="n">
-        <v>0.548106</v>
+        <v>0.508749</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.63403</v>
+        <v>0.656164</v>
       </c>
       <c r="C96" t="n">
-        <v>0.512128</v>
+        <v>0.505841</v>
       </c>
       <c r="D96" t="n">
-        <v>0.509579</v>
+        <v>0.517777</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.643697</v>
+        <v>0.664864</v>
       </c>
       <c r="C97" t="n">
-        <v>0.514543</v>
+        <v>0.514508</v>
       </c>
       <c r="D97" t="n">
-        <v>0.509691</v>
+        <v>0.527291</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.660462</v>
+        <v>0.659088</v>
       </c>
       <c r="C98" t="n">
-        <v>0.512788</v>
+        <v>0.513504</v>
       </c>
       <c r="D98" t="n">
-        <v>0.516166</v>
+        <v>0.54327</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.638736</v>
+        <v>0.63173</v>
       </c>
       <c r="C99" t="n">
-        <v>0.525637</v>
+        <v>0.504837</v>
       </c>
       <c r="D99" t="n">
-        <v>0.526335</v>
+        <v>0.530047</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.649733</v>
+        <v>0.640668</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5124880000000001</v>
+        <v>0.510707</v>
       </c>
       <c r="D100" t="n">
-        <v>0.52314</v>
+        <v>0.51281</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.648077</v>
+        <v>0.638259</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5141829999999999</v>
+        <v>0.548798</v>
       </c>
       <c r="D101" t="n">
-        <v>0.515998</v>
+        <v>0.530196</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.643744</v>
+        <v>0.692465</v>
       </c>
       <c r="C102" t="n">
-        <v>0.528462</v>
+        <v>0.531803</v>
       </c>
       <c r="D102" t="n">
-        <v>0.528874</v>
+        <v>0.530564</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.688215</v>
+        <v>0.6592519999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.521421</v>
+        <v>0.543249</v>
       </c>
       <c r="D103" t="n">
-        <v>0.539096</v>
+        <v>0.546439</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6567460000000001</v>
+        <v>0.654787</v>
       </c>
       <c r="C104" t="n">
-        <v>0.513801</v>
+        <v>0.522932</v>
       </c>
       <c r="D104" t="n">
-        <v>0.537655</v>
+        <v>0.532231</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.650259</v>
+        <v>0.658678</v>
       </c>
       <c r="C105" t="n">
-        <v>0.527761</v>
+        <v>0.526282</v>
       </c>
       <c r="D105" t="n">
-        <v>0.531066</v>
+        <v>0.541717</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.667014</v>
+        <v>0.652268</v>
       </c>
       <c r="C106" t="n">
-        <v>0.549193</v>
+        <v>0.528813</v>
       </c>
       <c r="D106" t="n">
-        <v>0.541672</v>
+        <v>0.5409389999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6592710000000001</v>
+        <v>0.6587460000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.544898</v>
+        <v>0.554754</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5469810000000001</v>
+        <v>0.547163</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.650323</v>
+        <v>0.660521</v>
       </c>
       <c r="C108" t="n">
-        <v>0.555057</v>
+        <v>0.565808</v>
       </c>
       <c r="D108" t="n">
-        <v>0.65024</v>
+        <v>0.611228</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.671024</v>
+        <v>0.679709</v>
       </c>
       <c r="C109" t="n">
-        <v>0.575135</v>
+        <v>0.552378</v>
       </c>
       <c r="D109" t="n">
-        <v>0.611063</v>
+        <v>0.609838</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.819327</v>
+        <v>0.803627</v>
       </c>
       <c r="C110" t="n">
-        <v>0.596406</v>
+        <v>0.664675</v>
       </c>
       <c r="D110" t="n">
-        <v>0.626068</v>
+        <v>0.673731</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7915</v>
+        <v>0.789973</v>
       </c>
       <c r="C111" t="n">
-        <v>0.604603</v>
+        <v>0.595249</v>
       </c>
       <c r="D111" t="n">
-        <v>0.608285</v>
+        <v>0.614138</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.812513</v>
+        <v>0.7939000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6511400000000001</v>
+        <v>0.603427</v>
       </c>
       <c r="D112" t="n">
-        <v>0.620416</v>
+        <v>0.608316</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.798223</v>
+        <v>0.792523</v>
       </c>
       <c r="C113" t="n">
-        <v>0.61436</v>
+        <v>0.597479</v>
       </c>
       <c r="D113" t="n">
-        <v>0.631223</v>
+        <v>0.622268</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.82322</v>
+        <v>0.801242</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6664600000000001</v>
+        <v>0.629174</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6716299999999999</v>
+        <v>0.617537</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.922717</v>
+        <v>0.887787</v>
       </c>
       <c r="C115" t="n">
-        <v>0.610022</v>
+        <v>0.599059</v>
       </c>
       <c r="D115" t="n">
-        <v>0.635832</v>
+        <v>0.681717</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.787857</v>
+        <v>0.859264</v>
       </c>
       <c r="C116" t="n">
-        <v>0.619177</v>
+        <v>0.607863</v>
       </c>
       <c r="D116" t="n">
-        <v>0.632168</v>
+        <v>0.6315229999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.785201</v>
+        <v>0.808967</v>
       </c>
       <c r="C117" t="n">
-        <v>0.666095</v>
+        <v>0.629349</v>
       </c>
       <c r="D117" t="n">
-        <v>0.655435</v>
+        <v>0.687071</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.781806</v>
+        <v>0.804291</v>
       </c>
       <c r="C118" t="n">
-        <v>0.616075</v>
+        <v>0.626906</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6411019999999999</v>
+        <v>0.696885</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.797388</v>
+        <v>0.807362</v>
       </c>
       <c r="C119" t="n">
-        <v>0.642052</v>
+        <v>0.669297</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6383720000000001</v>
+        <v>0.636256</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.786027</v>
+        <v>0.819577</v>
       </c>
       <c r="C120" t="n">
-        <v>0.674184</v>
+        <v>0.641279</v>
       </c>
       <c r="D120" t="n">
-        <v>0.661807</v>
+        <v>0.640882</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.806998</v>
+        <v>0.789859</v>
       </c>
       <c r="C121" t="n">
-        <v>0.659032</v>
+        <v>0.632594</v>
       </c>
       <c r="D121" t="n">
-        <v>0.647162</v>
+        <v>0.669346</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.829584</v>
+        <v>0.803789</v>
       </c>
       <c r="C122" t="n">
-        <v>0.635512</v>
+        <v>0.683934</v>
       </c>
       <c r="D122" t="n">
-        <v>0.646528</v>
+        <v>0.653253</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.818133</v>
+        <v>0.830991</v>
       </c>
       <c r="C123" t="n">
-        <v>0.656763</v>
+        <v>0.644725</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7446700000000001</v>
+        <v>0.756462</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.04541</v>
+        <v>1.05207</v>
       </c>
       <c r="C124" t="n">
-        <v>0.737689</v>
+        <v>0.761669</v>
       </c>
       <c r="D124" t="n">
-        <v>0.789716</v>
+        <v>0.740507</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03565</v>
+        <v>1.04784</v>
       </c>
       <c r="C125" t="n">
-        <v>0.760242</v>
+        <v>0.74094</v>
       </c>
       <c r="D125" t="n">
-        <v>0.763277</v>
+        <v>0.754479</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.07</v>
+        <v>1.03042</v>
       </c>
       <c r="C126" t="n">
-        <v>0.758243</v>
+        <v>0.745359</v>
       </c>
       <c r="D126" t="n">
-        <v>0.745149</v>
+        <v>0.734077</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.05561</v>
+        <v>1.03754</v>
       </c>
       <c r="C127" t="n">
-        <v>0.734007</v>
+        <v>0.7723989999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.762996</v>
+        <v>0.757578</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04712</v>
+        <v>1.04711</v>
       </c>
       <c r="C128" t="n">
-        <v>0.750773</v>
+        <v>0.753006</v>
       </c>
       <c r="D128" t="n">
-        <v>0.794719</v>
+        <v>0.749099</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08713</v>
+        <v>1.05258</v>
       </c>
       <c r="C129" t="n">
-        <v>0.752758</v>
+        <v>0.754497</v>
       </c>
       <c r="D129" t="n">
-        <v>0.891303</v>
+        <v>0.7570170000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.0429</v>
+        <v>1.05785</v>
       </c>
       <c r="C130" t="n">
-        <v>0.844073</v>
+        <v>0.750508</v>
       </c>
       <c r="D130" t="n">
-        <v>0.877439</v>
+        <v>0.736837</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.04551</v>
+        <v>1.05167</v>
       </c>
       <c r="C131" t="n">
-        <v>0.737807</v>
+        <v>0.745547</v>
       </c>
       <c r="D131" t="n">
-        <v>0.817134</v>
+        <v>0.756203</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.03608</v>
+        <v>1.02269</v>
       </c>
       <c r="C132" t="n">
-        <v>0.861611</v>
+        <v>0.756444</v>
       </c>
       <c r="D132" t="n">
-        <v>0.787178</v>
+        <v>0.765709</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.23861</v>
+        <v>1.02724</v>
       </c>
       <c r="C133" t="n">
-        <v>0.867451</v>
+        <v>0.747269</v>
       </c>
       <c r="D133" t="n">
-        <v>0.794638</v>
+        <v>0.753252</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.20917</v>
+        <v>1.05044</v>
       </c>
       <c r="C134" t="n">
-        <v>0.751189</v>
+        <v>0.748327</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7813059999999999</v>
+        <v>0.776746</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.0606</v>
+        <v>1.07516</v>
       </c>
       <c r="C135" t="n">
-        <v>0.816226</v>
+        <v>0.761733</v>
       </c>
       <c r="D135" t="n">
-        <v>0.827089</v>
+        <v>0.774651</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.06214</v>
+        <v>1.05485</v>
       </c>
       <c r="C136" t="n">
-        <v>0.778854</v>
+        <v>0.780502</v>
       </c>
       <c r="D136" t="n">
-        <v>0.81221</v>
+        <v>0.795973</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0665</v>
+        <v>1.06265</v>
       </c>
       <c r="C137" t="n">
-        <v>0.788142</v>
+        <v>0.772044</v>
       </c>
       <c r="D137" t="n">
-        <v>0.929575</v>
+        <v>0.955359</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.35363</v>
+        <v>1.33185</v>
       </c>
       <c r="C138" t="n">
-        <v>0.926914</v>
+        <v>0.913343</v>
       </c>
       <c r="D138" t="n">
-        <v>0.947341</v>
+        <v>0.931226</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32429</v>
+        <v>1.32598</v>
       </c>
       <c r="C139" t="n">
-        <v>0.928389</v>
+        <v>0.949213</v>
       </c>
       <c r="D139" t="n">
-        <v>0.936883</v>
+        <v>0.939168</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.31685</v>
+        <v>1.44066</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9431389999999999</v>
+        <v>0.9375329999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.938271</v>
+        <v>0.932787</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.3389</v>
+        <v>1.31738</v>
       </c>
       <c r="C141" t="n">
-        <v>0.963902</v>
+        <v>0.939483</v>
       </c>
       <c r="D141" t="n">
-        <v>0.930033</v>
+        <v>0.941068</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.29165</v>
+        <v>1.31644</v>
       </c>
       <c r="C142" t="n">
-        <v>0.945777</v>
+        <v>0.929141</v>
       </c>
       <c r="D142" t="n">
-        <v>0.946902</v>
+        <v>0.9569029999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.30734</v>
+        <v>1.32047</v>
       </c>
       <c r="C143" t="n">
-        <v>0.93227</v>
+        <v>0.945755</v>
       </c>
       <c r="D143" t="n">
-        <v>0.940696</v>
+        <v>0.940176</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116949</v>
+        <v>0.115927</v>
       </c>
       <c r="C2" t="n">
-        <v>0.102106</v>
+        <v>0.0958833</v>
       </c>
       <c r="D2" t="n">
-        <v>0.105019</v>
+        <v>0.111515</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.118507</v>
+        <v>0.125926</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0975125</v>
+        <v>0.10484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.108039</v>
+        <v>0.112939</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117506</v>
+        <v>0.120193</v>
       </c>
       <c r="C4" t="n">
-        <v>0.101268</v>
+        <v>0.10313</v>
       </c>
       <c r="D4" t="n">
-        <v>0.110032</v>
+        <v>0.114555</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118668</v>
+        <v>0.120237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.103265</v>
+        <v>0.105385</v>
       </c>
       <c r="D5" t="n">
-        <v>0.112212</v>
+        <v>0.111849</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.124208</v>
+        <v>0.12332</v>
       </c>
       <c r="C6" t="n">
-        <v>0.10267</v>
+        <v>0.103711</v>
       </c>
       <c r="D6" t="n">
-        <v>0.117337</v>
+        <v>0.112795</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.122378</v>
+        <v>0.122227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.108751</v>
+        <v>0.105237</v>
       </c>
       <c r="D7" t="n">
-        <v>0.120731</v>
+        <v>0.112856</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.122848</v>
+        <v>0.126057</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107746</v>
+        <v>0.105601</v>
       </c>
       <c r="D8" t="n">
-        <v>0.120583</v>
+        <v>0.115825</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.126392</v>
+        <v>0.128217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.112637</v>
+        <v>0.107494</v>
       </c>
       <c r="D9" t="n">
-        <v>0.110483</v>
+        <v>0.110492</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.135164</v>
+        <v>0.128709</v>
       </c>
       <c r="C10" t="n">
-        <v>0.107681</v>
+        <v>0.102458</v>
       </c>
       <c r="D10" t="n">
-        <v>0.112834</v>
+        <v>0.11614</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.132236</v>
+        <v>0.134593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.104189</v>
+        <v>0.102169</v>
       </c>
       <c r="D11" t="n">
-        <v>0.113553</v>
+        <v>0.114173</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.132314</v>
+        <v>0.128417</v>
       </c>
       <c r="C12" t="n">
-        <v>0.105876</v>
+        <v>0.104517</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110693</v>
+        <v>0.114639</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.131387</v>
+        <v>0.128625</v>
       </c>
       <c r="C13" t="n">
-        <v>0.104421</v>
+        <v>0.10293</v>
       </c>
       <c r="D13" t="n">
-        <v>0.114286</v>
+        <v>0.111687</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.130726</v>
+        <v>0.129344</v>
       </c>
       <c r="C14" t="n">
-        <v>0.105633</v>
+        <v>0.104012</v>
       </c>
       <c r="D14" t="n">
-        <v>0.115537</v>
+        <v>0.112519</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.134302</v>
+        <v>0.128555</v>
       </c>
       <c r="C15" t="n">
-        <v>0.102631</v>
+        <v>0.102444</v>
       </c>
       <c r="D15" t="n">
-        <v>0.113602</v>
+        <v>0.111635</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127489</v>
+        <v>0.130335</v>
       </c>
       <c r="C16" t="n">
-        <v>0.107947</v>
+        <v>0.106291</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113095</v>
+        <v>0.114513</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128712</v>
+        <v>0.130539</v>
       </c>
       <c r="C17" t="n">
-        <v>0.106819</v>
+        <v>0.104382</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115167</v>
+        <v>0.113147</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.131929</v>
+        <v>0.128778</v>
       </c>
       <c r="C18" t="n">
-        <v>0.105879</v>
+        <v>0.103596</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116835</v>
+        <v>0.110124</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131873</v>
+        <v>0.129905</v>
       </c>
       <c r="C19" t="n">
-        <v>0.105706</v>
+        <v>0.107171</v>
       </c>
       <c r="D19" t="n">
-        <v>0.113353</v>
+        <v>0.114113</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.132931</v>
+        <v>0.130125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.109977</v>
+        <v>0.105858</v>
       </c>
       <c r="D20" t="n">
-        <v>0.120181</v>
+        <v>0.116344</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.131216</v>
+        <v>0.13411</v>
       </c>
       <c r="C21" t="n">
-        <v>0.109926</v>
+        <v>0.107929</v>
       </c>
       <c r="D21" t="n">
-        <v>0.121688</v>
+        <v>0.119721</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.133356</v>
+        <v>0.13158</v>
       </c>
       <c r="C22" t="n">
-        <v>0.112069</v>
+        <v>0.110313</v>
       </c>
       <c r="D22" t="n">
-        <v>0.130792</v>
+        <v>0.1247</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.135751</v>
+        <v>0.134505</v>
       </c>
       <c r="C23" t="n">
-        <v>0.117099</v>
+        <v>0.118288</v>
       </c>
       <c r="D23" t="n">
-        <v>0.116492</v>
+        <v>0.12182</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.140954</v>
+        <v>0.140173</v>
       </c>
       <c r="C24" t="n">
-        <v>0.106234</v>
+        <v>0.107543</v>
       </c>
       <c r="D24" t="n">
-        <v>0.115309</v>
+        <v>0.11511</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.142756</v>
+        <v>0.14153</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108193</v>
+        <v>0.107025</v>
       </c>
       <c r="D25" t="n">
-        <v>0.115297</v>
+        <v>0.117169</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.138502</v>
+        <v>0.139281</v>
       </c>
       <c r="C26" t="n">
-        <v>0.110167</v>
+        <v>0.109131</v>
       </c>
       <c r="D26" t="n">
-        <v>0.11674</v>
+        <v>0.118778</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.140505</v>
+        <v>0.139668</v>
       </c>
       <c r="C27" t="n">
-        <v>0.110053</v>
+        <v>0.111415</v>
       </c>
       <c r="D27" t="n">
-        <v>0.116064</v>
+        <v>0.118061</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.139322</v>
+        <v>0.139848</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109037</v>
+        <v>0.106616</v>
       </c>
       <c r="D28" t="n">
-        <v>0.119367</v>
+        <v>0.115637</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.140532</v>
+        <v>0.137168</v>
       </c>
       <c r="C29" t="n">
-        <v>0.108607</v>
+        <v>0.107082</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114735</v>
+        <v>0.118394</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.141762</v>
+        <v>0.136859</v>
       </c>
       <c r="C30" t="n">
-        <v>0.109831</v>
+        <v>0.1093</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118007</v>
+        <v>0.120777</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.144464</v>
+        <v>0.144196</v>
       </c>
       <c r="C31" t="n">
-        <v>0.11345</v>
+        <v>0.110609</v>
       </c>
       <c r="D31" t="n">
-        <v>0.11896</v>
+        <v>0.11897</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.142497</v>
+        <v>0.140094</v>
       </c>
       <c r="C32" t="n">
-        <v>0.110623</v>
+        <v>0.111515</v>
       </c>
       <c r="D32" t="n">
-        <v>0.120151</v>
+        <v>0.120598</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144359</v>
+        <v>0.141547</v>
       </c>
       <c r="C33" t="n">
-        <v>0.113088</v>
+        <v>0.109563</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120591</v>
+        <v>0.122031</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.14059</v>
+        <v>0.142572</v>
       </c>
       <c r="C34" t="n">
-        <v>0.111482</v>
+        <v>0.114456</v>
       </c>
       <c r="D34" t="n">
-        <v>0.121557</v>
+        <v>0.125253</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143891</v>
+        <v>0.144821</v>
       </c>
       <c r="C35" t="n">
-        <v>0.11639</v>
+        <v>0.113864</v>
       </c>
       <c r="D35" t="n">
-        <v>0.129427</v>
+        <v>0.128635</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.144085</v>
+        <v>0.142683</v>
       </c>
       <c r="C36" t="n">
-        <v>0.118574</v>
+        <v>0.119435</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134968</v>
+        <v>0.136306</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.142706</v>
+        <v>0.145424</v>
       </c>
       <c r="C37" t="n">
-        <v>0.124548</v>
+        <v>0.123747</v>
       </c>
       <c r="D37" t="n">
-        <v>0.130475</v>
+        <v>0.137159</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.166269</v>
+        <v>0.164439</v>
       </c>
       <c r="C38" t="n">
-        <v>0.121772</v>
+        <v>0.119256</v>
       </c>
       <c r="D38" t="n">
-        <v>0.138593</v>
+        <v>0.129834</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.166005</v>
+        <v>0.171157</v>
       </c>
       <c r="C39" t="n">
-        <v>0.12383</v>
+        <v>0.125324</v>
       </c>
       <c r="D39" t="n">
-        <v>0.136317</v>
+        <v>0.134065</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.170106</v>
+        <v>0.166428</v>
       </c>
       <c r="C40" t="n">
-        <v>0.121147</v>
+        <v>0.124833</v>
       </c>
       <c r="D40" t="n">
-        <v>0.136843</v>
+        <v>0.132786</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165838</v>
+        <v>0.166338</v>
       </c>
       <c r="C41" t="n">
-        <v>0.127304</v>
+        <v>0.126228</v>
       </c>
       <c r="D41" t="n">
-        <v>0.132487</v>
+        <v>0.136366</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.169215</v>
+        <v>0.162501</v>
       </c>
       <c r="C42" t="n">
-        <v>0.123223</v>
+        <v>0.119827</v>
       </c>
       <c r="D42" t="n">
-        <v>0.13349</v>
+        <v>0.136006</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.166071</v>
+        <v>0.166174</v>
       </c>
       <c r="C43" t="n">
-        <v>0.123733</v>
+        <v>0.12093</v>
       </c>
       <c r="D43" t="n">
-        <v>0.137934</v>
+        <v>0.130718</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.168799</v>
+        <v>0.162763</v>
       </c>
       <c r="C44" t="n">
-        <v>0.126259</v>
+        <v>0.123516</v>
       </c>
       <c r="D44" t="n">
-        <v>0.140066</v>
+        <v>0.134633</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.168028</v>
+        <v>0.169573</v>
       </c>
       <c r="C45" t="n">
-        <v>0.126417</v>
+        <v>0.126082</v>
       </c>
       <c r="D45" t="n">
-        <v>0.137385</v>
+        <v>0.132741</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.164023</v>
+        <v>0.163562</v>
       </c>
       <c r="C46" t="n">
-        <v>0.130481</v>
+        <v>0.127382</v>
       </c>
       <c r="D46" t="n">
-        <v>0.136314</v>
+        <v>0.132537</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.167001</v>
+        <v>0.16745</v>
       </c>
       <c r="C47" t="n">
-        <v>0.125634</v>
+        <v>0.130444</v>
       </c>
       <c r="D47" t="n">
-        <v>0.137995</v>
+        <v>0.137655</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.172065</v>
+        <v>0.167426</v>
       </c>
       <c r="C48" t="n">
-        <v>0.130682</v>
+        <v>0.131798</v>
       </c>
       <c r="D48" t="n">
-        <v>0.138464</v>
+        <v>0.138719</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.16965</v>
+        <v>0.167081</v>
       </c>
       <c r="C49" t="n">
-        <v>0.131666</v>
+        <v>0.133001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14807</v>
+        <v>0.140901</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173216</v>
+        <v>0.165847</v>
       </c>
       <c r="C50" t="n">
-        <v>0.133972</v>
+        <v>0.135425</v>
       </c>
       <c r="D50" t="n">
-        <v>0.147107</v>
+        <v>0.145993</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172346</v>
+        <v>0.172345</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139834</v>
+        <v>0.136851</v>
       </c>
       <c r="D51" t="n">
-        <v>0.205095</v>
+        <v>0.21197</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175351</v>
+        <v>0.17685</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143842</v>
+        <v>0.143349</v>
       </c>
       <c r="D52" t="n">
-        <v>0.204145</v>
+        <v>0.210832</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.261785</v>
+        <v>0.261111</v>
       </c>
       <c r="C53" t="n">
-        <v>0.194337</v>
+        <v>0.195393</v>
       </c>
       <c r="D53" t="n">
-        <v>0.206969</v>
+        <v>0.204147</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.258403</v>
+        <v>0.258522</v>
       </c>
       <c r="C54" t="n">
-        <v>0.200396</v>
+        <v>0.19765</v>
       </c>
       <c r="D54" t="n">
-        <v>0.20956</v>
+        <v>0.2101</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.262152</v>
+        <v>0.255626</v>
       </c>
       <c r="C55" t="n">
-        <v>0.199035</v>
+        <v>0.204277</v>
       </c>
       <c r="D55" t="n">
-        <v>0.205072</v>
+        <v>0.21171</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.251187</v>
+        <v>0.253896</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200802</v>
+        <v>0.196561</v>
       </c>
       <c r="D56" t="n">
-        <v>0.204056</v>
+        <v>0.205044</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.255127</v>
+        <v>0.26173</v>
       </c>
       <c r="C57" t="n">
-        <v>0.201163</v>
+        <v>0.202882</v>
       </c>
       <c r="D57" t="n">
-        <v>0.208711</v>
+        <v>0.207174</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.254714</v>
+        <v>0.261646</v>
       </c>
       <c r="C58" t="n">
-        <v>0.205819</v>
+        <v>0.200842</v>
       </c>
       <c r="D58" t="n">
-        <v>0.203358</v>
+        <v>0.21156</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.25882</v>
+        <v>0.258144</v>
       </c>
       <c r="C59" t="n">
-        <v>0.196993</v>
+        <v>0.203762</v>
       </c>
       <c r="D59" t="n">
-        <v>0.20368</v>
+        <v>0.216801</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.25588</v>
+        <v>0.257317</v>
       </c>
       <c r="C60" t="n">
-        <v>0.202645</v>
+        <v>0.205988</v>
       </c>
       <c r="D60" t="n">
-        <v>0.212412</v>
+        <v>0.210243</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.255234</v>
+        <v>0.257145</v>
       </c>
       <c r="C61" t="n">
-        <v>0.196263</v>
+        <v>0.207653</v>
       </c>
       <c r="D61" t="n">
-        <v>0.207998</v>
+        <v>0.215358</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.266216</v>
+        <v>0.266248</v>
       </c>
       <c r="C62" t="n">
-        <v>0.204887</v>
+        <v>0.202776</v>
       </c>
       <c r="D62" t="n">
-        <v>0.216818</v>
+        <v>0.216676</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.256038</v>
+        <v>0.261306</v>
       </c>
       <c r="C63" t="n">
-        <v>0.206428</v>
+        <v>0.206307</v>
       </c>
       <c r="D63" t="n">
-        <v>0.21517</v>
+        <v>0.220147</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265507</v>
+        <v>0.260663</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2163</v>
+        <v>0.215717</v>
       </c>
       <c r="D64" t="n">
-        <v>0.226243</v>
+        <v>0.218801</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268351</v>
+        <v>0.263624</v>
       </c>
       <c r="C65" t="n">
-        <v>0.210854</v>
+        <v>0.215844</v>
       </c>
       <c r="D65" t="n">
-        <v>0.230315</v>
+        <v>0.232313</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.268365</v>
+        <v>0.269223</v>
       </c>
       <c r="C66" t="n">
-        <v>0.221453</v>
+        <v>0.217918</v>
       </c>
       <c r="D66" t="n">
-        <v>0.292957</v>
+        <v>0.298021</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.394346</v>
+        <v>0.395849</v>
       </c>
       <c r="C67" t="n">
-        <v>0.312571</v>
+        <v>0.320817</v>
       </c>
       <c r="D67" t="n">
-        <v>0.295895</v>
+        <v>0.294442</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.406954</v>
+        <v>0.390719</v>
       </c>
       <c r="C68" t="n">
-        <v>0.31486</v>
+        <v>0.318547</v>
       </c>
       <c r="D68" t="n">
-        <v>0.301326</v>
+        <v>0.294463</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.40713</v>
+        <v>0.391584</v>
       </c>
       <c r="C69" t="n">
-        <v>0.311609</v>
+        <v>0.309824</v>
       </c>
       <c r="D69" t="n">
-        <v>0.305847</v>
+        <v>0.296997</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.398584</v>
+        <v>0.392277</v>
       </c>
       <c r="C70" t="n">
-        <v>0.311095</v>
+        <v>0.314525</v>
       </c>
       <c r="D70" t="n">
-        <v>0.30195</v>
+        <v>0.303784</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.403434</v>
+        <v>0.410985</v>
       </c>
       <c r="C71" t="n">
-        <v>0.32345</v>
+        <v>0.312585</v>
       </c>
       <c r="D71" t="n">
-        <v>0.295369</v>
+        <v>0.29894</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.397247</v>
+        <v>0.398143</v>
       </c>
       <c r="C72" t="n">
-        <v>0.317204</v>
+        <v>0.309902</v>
       </c>
       <c r="D72" t="n">
-        <v>0.297143</v>
+        <v>0.299415</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.41601</v>
+        <v>0.421421</v>
       </c>
       <c r="C73" t="n">
-        <v>0.314235</v>
+        <v>0.318915</v>
       </c>
       <c r="D73" t="n">
-        <v>0.304241</v>
+        <v>0.304556</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.406761</v>
+        <v>0.406006</v>
       </c>
       <c r="C74" t="n">
-        <v>0.324368</v>
+        <v>0.315788</v>
       </c>
       <c r="D74" t="n">
-        <v>0.311541</v>
+        <v>0.305999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.413007</v>
+        <v>0.406778</v>
       </c>
       <c r="C75" t="n">
-        <v>0.315988</v>
+        <v>0.318725</v>
       </c>
       <c r="D75" t="n">
-        <v>0.314208</v>
+        <v>0.310329</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.423918</v>
+        <v>0.396375</v>
       </c>
       <c r="C76" t="n">
-        <v>0.322771</v>
+        <v>0.321274</v>
       </c>
       <c r="D76" t="n">
-        <v>0.318338</v>
+        <v>0.297439</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.415843</v>
+        <v>0.410695</v>
       </c>
       <c r="C77" t="n">
-        <v>0.316725</v>
+        <v>0.324406</v>
       </c>
       <c r="D77" t="n">
-        <v>0.325648</v>
+        <v>0.319461</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.419044</v>
+        <v>0.403391</v>
       </c>
       <c r="C78" t="n">
-        <v>0.319465</v>
+        <v>0.317454</v>
       </c>
       <c r="D78" t="n">
-        <v>0.322429</v>
+        <v>0.330377</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.413751</v>
+        <v>0.416435</v>
       </c>
       <c r="C79" t="n">
-        <v>0.323688</v>
+        <v>0.319939</v>
       </c>
       <c r="D79" t="n">
-        <v>0.311925</v>
+        <v>0.330371</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.427625</v>
+        <v>0.413706</v>
       </c>
       <c r="C80" t="n">
-        <v>0.328035</v>
+        <v>0.328882</v>
       </c>
       <c r="D80" t="n">
-        <v>0.425192</v>
+        <v>0.441434</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.555532</v>
+        <v>0.553637</v>
       </c>
       <c r="C81" t="n">
-        <v>0.42925</v>
+        <v>0.425848</v>
       </c>
       <c r="D81" t="n">
-        <v>0.425481</v>
+        <v>0.43813</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.561696</v>
+        <v>0.552625</v>
       </c>
       <c r="C82" t="n">
-        <v>0.423369</v>
+        <v>0.43126</v>
       </c>
       <c r="D82" t="n">
-        <v>0.425804</v>
+        <v>0.429487</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.547455</v>
+        <v>0.532806</v>
       </c>
       <c r="C83" t="n">
-        <v>0.422928</v>
+        <v>0.439052</v>
       </c>
       <c r="D83" t="n">
-        <v>0.445654</v>
+        <v>0.424874</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.552713</v>
+        <v>0.544473</v>
       </c>
       <c r="C84" t="n">
-        <v>0.431414</v>
+        <v>0.422376</v>
       </c>
       <c r="D84" t="n">
-        <v>0.440308</v>
+        <v>0.424065</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.561156</v>
+        <v>0.544871</v>
       </c>
       <c r="C85" t="n">
-        <v>0.439788</v>
+        <v>0.430843</v>
       </c>
       <c r="D85" t="n">
-        <v>0.441072</v>
+        <v>0.442318</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5531470000000001</v>
+        <v>0.5540119999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.429422</v>
+        <v>0.420807</v>
       </c>
       <c r="D86" t="n">
-        <v>0.43711</v>
+        <v>0.435767</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.551502</v>
+        <v>0.54321</v>
       </c>
       <c r="C87" t="n">
-        <v>0.425114</v>
+        <v>0.430406</v>
       </c>
       <c r="D87" t="n">
-        <v>0.441614</v>
+        <v>0.43727</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.557216</v>
+        <v>0.544768</v>
       </c>
       <c r="C88" t="n">
-        <v>0.439528</v>
+        <v>0.430627</v>
       </c>
       <c r="D88" t="n">
-        <v>0.443071</v>
+        <v>0.448681</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.548219</v>
+        <v>0.558258</v>
       </c>
       <c r="C89" t="n">
-        <v>0.430463</v>
+        <v>0.425675</v>
       </c>
       <c r="D89" t="n">
-        <v>0.446466</v>
+        <v>0.451189</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.568868</v>
+        <v>0.543467</v>
       </c>
       <c r="C90" t="n">
-        <v>0.437631</v>
+        <v>0.430381</v>
       </c>
       <c r="D90" t="n">
-        <v>0.439885</v>
+        <v>0.444394</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.554875</v>
+        <v>0.563273</v>
       </c>
       <c r="C91" t="n">
-        <v>0.429479</v>
+        <v>0.424025</v>
       </c>
       <c r="D91" t="n">
-        <v>0.446973</v>
+        <v>0.450241</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.551051</v>
+        <v>0.562836</v>
       </c>
       <c r="C92" t="n">
-        <v>0.448848</v>
+        <v>0.433001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.45286</v>
+        <v>0.44885</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.576726</v>
+        <v>0.559505</v>
       </c>
       <c r="C93" t="n">
-        <v>0.442247</v>
+        <v>0.450264</v>
       </c>
       <c r="D93" t="n">
-        <v>0.462085</v>
+        <v>0.447556</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.570513</v>
+        <v>0.5705789999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.452779</v>
+        <v>0.450576</v>
       </c>
       <c r="D94" t="n">
-        <v>0.538713</v>
+        <v>0.526336</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.632439</v>
+        <v>0.633123</v>
       </c>
       <c r="C95" t="n">
-        <v>0.498863</v>
+        <v>0.52333</v>
       </c>
       <c r="D95" t="n">
-        <v>0.508749</v>
+        <v>0.531633</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.656164</v>
+        <v>0.646184</v>
       </c>
       <c r="C96" t="n">
-        <v>0.505841</v>
+        <v>0.509846</v>
       </c>
       <c r="D96" t="n">
-        <v>0.517777</v>
+        <v>0.533782</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.664864</v>
+        <v>0.643976</v>
       </c>
       <c r="C97" t="n">
-        <v>0.514508</v>
+        <v>0.51287</v>
       </c>
       <c r="D97" t="n">
-        <v>0.527291</v>
+        <v>0.529425</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.659088</v>
+        <v>0.657287</v>
       </c>
       <c r="C98" t="n">
-        <v>0.513504</v>
+        <v>0.511811</v>
       </c>
       <c r="D98" t="n">
-        <v>0.54327</v>
+        <v>0.532488</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.63173</v>
+        <v>0.634921</v>
       </c>
       <c r="C99" t="n">
-        <v>0.504837</v>
+        <v>0.519444</v>
       </c>
       <c r="D99" t="n">
-        <v>0.530047</v>
+        <v>0.522118</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.640668</v>
+        <v>0.6392330000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.510707</v>
+        <v>0.513521</v>
       </c>
       <c r="D100" t="n">
-        <v>0.51281</v>
+        <v>0.540727</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.638259</v>
+        <v>0.632798</v>
       </c>
       <c r="C101" t="n">
-        <v>0.548798</v>
+        <v>0.51672</v>
       </c>
       <c r="D101" t="n">
-        <v>0.530196</v>
+        <v>0.523916</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.692465</v>
+        <v>0.645441</v>
       </c>
       <c r="C102" t="n">
-        <v>0.531803</v>
+        <v>0.523508</v>
       </c>
       <c r="D102" t="n">
-        <v>0.530564</v>
+        <v>0.530879</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6592519999999999</v>
+        <v>0.654344</v>
       </c>
       <c r="C103" t="n">
-        <v>0.543249</v>
+        <v>0.528516</v>
       </c>
       <c r="D103" t="n">
-        <v>0.546439</v>
+        <v>0.548062</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.654787</v>
+        <v>0.64615</v>
       </c>
       <c r="C104" t="n">
-        <v>0.522932</v>
+        <v>0.520652</v>
       </c>
       <c r="D104" t="n">
-        <v>0.532231</v>
+        <v>0.548092</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.658678</v>
+        <v>0.641468</v>
       </c>
       <c r="C105" t="n">
-        <v>0.526282</v>
+        <v>0.517231</v>
       </c>
       <c r="D105" t="n">
-        <v>0.541717</v>
+        <v>0.533635</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.652268</v>
+        <v>0.653137</v>
       </c>
       <c r="C106" t="n">
-        <v>0.528813</v>
+        <v>0.5382400000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5409389999999999</v>
+        <v>0.5408539999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6587460000000001</v>
+        <v>0.643279</v>
       </c>
       <c r="C107" t="n">
-        <v>0.554754</v>
+        <v>0.5250590000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.547163</v>
+        <v>0.565589</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.660521</v>
+        <v>0.645501</v>
       </c>
       <c r="C108" t="n">
-        <v>0.565808</v>
+        <v>0.535784</v>
       </c>
       <c r="D108" t="n">
-        <v>0.611228</v>
+        <v>0.619109</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.679709</v>
+        <v>0.664654</v>
       </c>
       <c r="C109" t="n">
-        <v>0.552378</v>
+        <v>0.563125</v>
       </c>
       <c r="D109" t="n">
-        <v>0.609838</v>
+        <v>0.638674</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.803627</v>
+        <v>0.793871</v>
       </c>
       <c r="C110" t="n">
-        <v>0.664675</v>
+        <v>0.60268</v>
       </c>
       <c r="D110" t="n">
-        <v>0.673731</v>
+        <v>0.624787</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.789973</v>
+        <v>0.881127</v>
       </c>
       <c r="C111" t="n">
-        <v>0.595249</v>
+        <v>0.599529</v>
       </c>
       <c r="D111" t="n">
-        <v>0.614138</v>
+        <v>0.6271640000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7939000000000001</v>
+        <v>0.793713</v>
       </c>
       <c r="C112" t="n">
-        <v>0.603427</v>
+        <v>0.605167</v>
       </c>
       <c r="D112" t="n">
-        <v>0.608316</v>
+        <v>0.64772</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.792523</v>
+        <v>0.8023749999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.597479</v>
+        <v>0.612687</v>
       </c>
       <c r="D113" t="n">
-        <v>0.622268</v>
+        <v>0.629664</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.801242</v>
+        <v>0.7897690000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.629174</v>
+        <v>0.601801</v>
       </c>
       <c r="D114" t="n">
-        <v>0.617537</v>
+        <v>0.643405</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.887787</v>
+        <v>0.792722</v>
       </c>
       <c r="C115" t="n">
-        <v>0.599059</v>
+        <v>0.610741</v>
       </c>
       <c r="D115" t="n">
-        <v>0.681717</v>
+        <v>0.6450360000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.859264</v>
+        <v>0.799086</v>
       </c>
       <c r="C116" t="n">
-        <v>0.607863</v>
+        <v>0.611943</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6315229999999999</v>
+        <v>0.642421</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.808967</v>
+        <v>0.783287</v>
       </c>
       <c r="C117" t="n">
-        <v>0.629349</v>
+        <v>0.611136</v>
       </c>
       <c r="D117" t="n">
-        <v>0.687071</v>
+        <v>0.648143</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.804291</v>
+        <v>0.789028</v>
       </c>
       <c r="C118" t="n">
-        <v>0.626906</v>
+        <v>0.624298</v>
       </c>
       <c r="D118" t="n">
-        <v>0.696885</v>
+        <v>0.651711</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.807362</v>
+        <v>0.813435</v>
       </c>
       <c r="C119" t="n">
-        <v>0.669297</v>
+        <v>0.626978</v>
       </c>
       <c r="D119" t="n">
-        <v>0.636256</v>
+        <v>0.663829</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.819577</v>
+        <v>0.803422</v>
       </c>
       <c r="C120" t="n">
-        <v>0.641279</v>
+        <v>0.627339</v>
       </c>
       <c r="D120" t="n">
-        <v>0.640882</v>
+        <v>0.644937</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.789859</v>
+        <v>0.821321</v>
       </c>
       <c r="C121" t="n">
-        <v>0.632594</v>
+        <v>0.6419280000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.669346</v>
+        <v>0.674621</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.803789</v>
+        <v>0.815165</v>
       </c>
       <c r="C122" t="n">
-        <v>0.683934</v>
+        <v>0.653486</v>
       </c>
       <c r="D122" t="n">
-        <v>0.653253</v>
+        <v>0.672192</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.830991</v>
+        <v>0.8056140000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.644725</v>
+        <v>0.635286</v>
       </c>
       <c r="D123" t="n">
-        <v>0.756462</v>
+        <v>0.744844</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.05207</v>
+        <v>1.04661</v>
       </c>
       <c r="C124" t="n">
-        <v>0.761669</v>
+        <v>0.738318</v>
       </c>
       <c r="D124" t="n">
-        <v>0.740507</v>
+        <v>0.751263</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.04784</v>
+        <v>1.03959</v>
       </c>
       <c r="C125" t="n">
-        <v>0.74094</v>
+        <v>0.856974</v>
       </c>
       <c r="D125" t="n">
-        <v>0.754479</v>
+        <v>0.759136</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03042</v>
+        <v>1.03442</v>
       </c>
       <c r="C126" t="n">
-        <v>0.745359</v>
+        <v>0.744796</v>
       </c>
       <c r="D126" t="n">
-        <v>0.734077</v>
+        <v>0.756724</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03754</v>
+        <v>1.03699</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7723989999999999</v>
+        <v>0.754668</v>
       </c>
       <c r="D127" t="n">
-        <v>0.757578</v>
+        <v>0.764969</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04711</v>
+        <v>1.02891</v>
       </c>
       <c r="C128" t="n">
-        <v>0.753006</v>
+        <v>0.74059</v>
       </c>
       <c r="D128" t="n">
-        <v>0.749099</v>
+        <v>0.747823</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.05258</v>
+        <v>1.09583</v>
       </c>
       <c r="C129" t="n">
-        <v>0.754497</v>
+        <v>0.733668</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7570170000000001</v>
+        <v>0.748414</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.05785</v>
+        <v>1.05452</v>
       </c>
       <c r="C130" t="n">
-        <v>0.750508</v>
+        <v>0.74077</v>
       </c>
       <c r="D130" t="n">
-        <v>0.736837</v>
+        <v>0.759125</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.05167</v>
+        <v>1.0342</v>
       </c>
       <c r="C131" t="n">
-        <v>0.745547</v>
+        <v>0.75367</v>
       </c>
       <c r="D131" t="n">
-        <v>0.756203</v>
+        <v>0.755757</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.02269</v>
+        <v>1.02614</v>
       </c>
       <c r="C132" t="n">
-        <v>0.756444</v>
+        <v>0.725615</v>
       </c>
       <c r="D132" t="n">
-        <v>0.765709</v>
+        <v>0.769508</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.02724</v>
+        <v>1.0467</v>
       </c>
       <c r="C133" t="n">
-        <v>0.747269</v>
+        <v>0.7723179999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.753252</v>
+        <v>0.751348</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05044</v>
+        <v>1.04097</v>
       </c>
       <c r="C134" t="n">
-        <v>0.748327</v>
+        <v>0.75871</v>
       </c>
       <c r="D134" t="n">
-        <v>0.776746</v>
+        <v>0.77916</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07516</v>
+        <v>1.04754</v>
       </c>
       <c r="C135" t="n">
-        <v>0.761733</v>
+        <v>0.757388</v>
       </c>
       <c r="D135" t="n">
-        <v>0.774651</v>
+        <v>0.790764</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05485</v>
+        <v>1.06509</v>
       </c>
       <c r="C136" t="n">
-        <v>0.780502</v>
+        <v>0.768174</v>
       </c>
       <c r="D136" t="n">
-        <v>0.795973</v>
+        <v>0.79587</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06265</v>
+        <v>1.06659</v>
       </c>
       <c r="C137" t="n">
-        <v>0.772044</v>
+        <v>0.787176</v>
       </c>
       <c r="D137" t="n">
-        <v>0.955359</v>
+        <v>0.920166</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33185</v>
+        <v>1.28198</v>
       </c>
       <c r="C138" t="n">
-        <v>0.913343</v>
+        <v>0.920254</v>
       </c>
       <c r="D138" t="n">
-        <v>0.931226</v>
+        <v>0.955554</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32598</v>
+        <v>1.34761</v>
       </c>
       <c r="C139" t="n">
-        <v>0.949213</v>
+        <v>0.930908</v>
       </c>
       <c r="D139" t="n">
-        <v>0.939168</v>
+        <v>0.943631</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.44066</v>
+        <v>1.37204</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9375329999999999</v>
+        <v>0.921468</v>
       </c>
       <c r="D140" t="n">
-        <v>0.932787</v>
+        <v>0.934403</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.31738</v>
+        <v>1.30169</v>
       </c>
       <c r="C141" t="n">
-        <v>0.939483</v>
+        <v>0.933316</v>
       </c>
       <c r="D141" t="n">
-        <v>0.941068</v>
+        <v>0.94935</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.31644</v>
+        <v>1.31595</v>
       </c>
       <c r="C142" t="n">
-        <v>0.929141</v>
+        <v>0.945002</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9569029999999999</v>
+        <v>0.929032</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32047</v>
+        <v>1.32209</v>
       </c>
       <c r="C143" t="n">
-        <v>0.945755</v>
+        <v>0.944472</v>
       </c>
       <c r="D143" t="n">
-        <v>0.940176</v>
+        <v>0.941944</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.127848</v>
+        <v>0.119149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.29062</v>
+        <v>0.302713</v>
       </c>
       <c r="D2" t="n">
-        <v>0.114278</v>
+        <v>0.113497</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116755</v>
+        <v>0.119859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.311011</v>
+        <v>0.333475</v>
       </c>
       <c r="D3" t="n">
-        <v>0.121875</v>
+        <v>0.116911</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.121524</v>
+        <v>0.122366</v>
       </c>
       <c r="C4" t="n">
-        <v>0.322406</v>
+        <v>0.33852</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11511</v>
+        <v>0.116707</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12347</v>
+        <v>0.12247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.32831</v>
+        <v>0.355153</v>
       </c>
       <c r="D5" t="n">
-        <v>0.122269</v>
+        <v>0.11957</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123172</v>
+        <v>0.122369</v>
       </c>
       <c r="C6" t="n">
-        <v>0.340468</v>
+        <v>0.363299</v>
       </c>
       <c r="D6" t="n">
-        <v>0.118532</v>
+        <v>0.118709</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.126742</v>
+        <v>0.122162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.347401</v>
+        <v>0.368082</v>
       </c>
       <c r="D7" t="n">
-        <v>0.117622</v>
+        <v>0.119149</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119267</v>
+        <v>0.125877</v>
       </c>
       <c r="C8" t="n">
-        <v>0.24927</v>
+        <v>0.274905</v>
       </c>
       <c r="D8" t="n">
-        <v>0.124511</v>
+        <v>0.125923</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124303</v>
+        <v>0.126635</v>
       </c>
       <c r="C9" t="n">
-        <v>0.257637</v>
+        <v>0.264036</v>
       </c>
       <c r="D9" t="n">
-        <v>0.123225</v>
+        <v>0.112782</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.135277</v>
+        <v>0.131519</v>
       </c>
       <c r="C10" t="n">
-        <v>0.261754</v>
+        <v>0.266771</v>
       </c>
       <c r="D10" t="n">
-        <v>0.116346</v>
+        <v>0.113449</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.131578</v>
+        <v>0.130878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.265859</v>
+        <v>0.28427</v>
       </c>
       <c r="D11" t="n">
-        <v>0.116974</v>
+        <v>0.114404</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.130064</v>
+        <v>0.129169</v>
       </c>
       <c r="C12" t="n">
-        <v>0.261947</v>
+        <v>0.288375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.11589</v>
+        <v>0.11573</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128606</v>
+        <v>0.134423</v>
       </c>
       <c r="C13" t="n">
-        <v>0.275645</v>
+        <v>0.301763</v>
       </c>
       <c r="D13" t="n">
-        <v>0.116717</v>
+        <v>0.1194</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.134554</v>
+        <v>0.133284</v>
       </c>
       <c r="C14" t="n">
-        <v>0.285076</v>
+        <v>0.30125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.117654</v>
+        <v>0.116142</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.130057</v>
+        <v>0.131134</v>
       </c>
       <c r="C15" t="n">
-        <v>0.300083</v>
+        <v>0.310136</v>
       </c>
       <c r="D15" t="n">
-        <v>0.118826</v>
+        <v>0.121012</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.132672</v>
+        <v>0.131195</v>
       </c>
       <c r="C16" t="n">
-        <v>0.304788</v>
+        <v>0.321485</v>
       </c>
       <c r="D16" t="n">
-        <v>0.119781</v>
+        <v>0.114567</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131773</v>
+        <v>0.12611</v>
       </c>
       <c r="C17" t="n">
-        <v>0.310895</v>
+        <v>0.340473</v>
       </c>
       <c r="D17" t="n">
-        <v>0.117249</v>
+        <v>0.116557</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130613</v>
+        <v>0.130085</v>
       </c>
       <c r="C18" t="n">
-        <v>0.316125</v>
+        <v>0.351996</v>
       </c>
       <c r="D18" t="n">
-        <v>0.123175</v>
+        <v>0.114588</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.127631</v>
+        <v>0.127836</v>
       </c>
       <c r="C19" t="n">
-        <v>0.33135</v>
+        <v>0.364675</v>
       </c>
       <c r="D19" t="n">
-        <v>0.120844</v>
+        <v>0.119721</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128721</v>
+        <v>0.13235</v>
       </c>
       <c r="C20" t="n">
-        <v>0.354005</v>
+        <v>0.367197</v>
       </c>
       <c r="D20" t="n">
-        <v>0.11873</v>
+        <v>0.121646</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129148</v>
+        <v>0.134857</v>
       </c>
       <c r="C21" t="n">
-        <v>0.367157</v>
+        <v>0.377517</v>
       </c>
       <c r="D21" t="n">
-        <v>0.124637</v>
+        <v>0.119987</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.136727</v>
+        <v>0.135959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.256986</v>
+        <v>0.265841</v>
       </c>
       <c r="D22" t="n">
-        <v>0.125653</v>
+        <v>0.12953</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.134684</v>
+        <v>0.134435</v>
       </c>
       <c r="C23" t="n">
-        <v>0.257339</v>
+        <v>0.272375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.123528</v>
+        <v>0.117498</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136815</v>
+        <v>0.136189</v>
       </c>
       <c r="C24" t="n">
-        <v>0.265161</v>
+        <v>0.282715</v>
       </c>
       <c r="D24" t="n">
-        <v>0.121769</v>
+        <v>0.118583</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.143195</v>
+        <v>0.140651</v>
       </c>
       <c r="C25" t="n">
-        <v>0.272014</v>
+        <v>0.290046</v>
       </c>
       <c r="D25" t="n">
-        <v>0.121571</v>
+        <v>0.124339</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136696</v>
+        <v>0.139293</v>
       </c>
       <c r="C26" t="n">
-        <v>0.278204</v>
+        <v>0.28851</v>
       </c>
       <c r="D26" t="n">
-        <v>0.121244</v>
+        <v>0.121782</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.141796</v>
+        <v>0.143812</v>
       </c>
       <c r="C27" t="n">
-        <v>0.285679</v>
+        <v>0.307439</v>
       </c>
       <c r="D27" t="n">
-        <v>0.121808</v>
+        <v>0.117441</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.140915</v>
+        <v>0.144551</v>
       </c>
       <c r="C28" t="n">
-        <v>0.292075</v>
+        <v>0.305598</v>
       </c>
       <c r="D28" t="n">
-        <v>0.122146</v>
+        <v>0.1256</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.142582</v>
+        <v>0.138096</v>
       </c>
       <c r="C29" t="n">
-        <v>0.307107</v>
+        <v>0.316468</v>
       </c>
       <c r="D29" t="n">
-        <v>0.122408</v>
+        <v>0.120848</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.14113</v>
+        <v>0.14469</v>
       </c>
       <c r="C30" t="n">
-        <v>0.311508</v>
+        <v>0.335037</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121141</v>
+        <v>0.127555</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139014</v>
+        <v>0.139664</v>
       </c>
       <c r="C31" t="n">
-        <v>0.333425</v>
+        <v>0.34739</v>
       </c>
       <c r="D31" t="n">
-        <v>0.130769</v>
+        <v>0.128036</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.138176</v>
+        <v>0.142732</v>
       </c>
       <c r="C32" t="n">
-        <v>0.332722</v>
+        <v>0.352182</v>
       </c>
       <c r="D32" t="n">
-        <v>0.126492</v>
+        <v>0.125706</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144572</v>
+        <v>0.13899</v>
       </c>
       <c r="C33" t="n">
-        <v>0.342302</v>
+        <v>0.375388</v>
       </c>
       <c r="D33" t="n">
-        <v>0.123626</v>
+        <v>0.122675</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.137425</v>
+        <v>0.141581</v>
       </c>
       <c r="C34" t="n">
-        <v>0.349539</v>
+        <v>0.384632</v>
       </c>
       <c r="D34" t="n">
-        <v>0.129138</v>
+        <v>0.127266</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.144151</v>
+        <v>0.138493</v>
       </c>
       <c r="C35" t="n">
-        <v>0.367909</v>
+        <v>0.392377</v>
       </c>
       <c r="D35" t="n">
-        <v>0.135922</v>
+        <v>0.129217</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.142382</v>
+        <v>0.141959</v>
       </c>
       <c r="C36" t="n">
-        <v>0.37732</v>
+        <v>0.402745</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134495</v>
+        <v>0.134809</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.145479</v>
+        <v>0.148355</v>
       </c>
       <c r="C37" t="n">
-        <v>0.264268</v>
+        <v>0.280922</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132474</v>
+        <v>0.137742</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.169493</v>
+        <v>0.165968</v>
       </c>
       <c r="C38" t="n">
-        <v>0.27385</v>
+        <v>0.286615</v>
       </c>
       <c r="D38" t="n">
-        <v>0.136843</v>
+        <v>0.139454</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.160761</v>
+        <v>0.166633</v>
       </c>
       <c r="C39" t="n">
-        <v>0.280579</v>
+        <v>0.290759</v>
       </c>
       <c r="D39" t="n">
-        <v>0.13647</v>
+        <v>0.139415</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.172237</v>
+        <v>0.167409</v>
       </c>
       <c r="C40" t="n">
-        <v>0.283143</v>
+        <v>0.297126</v>
       </c>
       <c r="D40" t="n">
-        <v>0.134521</v>
+        <v>0.139704</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.167464</v>
+        <v>0.164335</v>
       </c>
       <c r="C41" t="n">
-        <v>0.287331</v>
+        <v>0.302729</v>
       </c>
       <c r="D41" t="n">
-        <v>0.132046</v>
+        <v>0.136813</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.164938</v>
+        <v>0.165086</v>
       </c>
       <c r="C42" t="n">
-        <v>0.295055</v>
+        <v>0.312904</v>
       </c>
       <c r="D42" t="n">
-        <v>0.135736</v>
+        <v>0.14232</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.160499</v>
+        <v>0.163444</v>
       </c>
       <c r="C43" t="n">
-        <v>0.308423</v>
+        <v>0.32204</v>
       </c>
       <c r="D43" t="n">
-        <v>0.139129</v>
+        <v>0.139732</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.164778</v>
+        <v>0.166286</v>
       </c>
       <c r="C44" t="n">
-        <v>0.322096</v>
+        <v>0.334966</v>
       </c>
       <c r="D44" t="n">
-        <v>0.14304</v>
+        <v>0.138777</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.168882</v>
+        <v>0.167854</v>
       </c>
       <c r="C45" t="n">
-        <v>0.334751</v>
+        <v>0.358417</v>
       </c>
       <c r="D45" t="n">
-        <v>0.145734</v>
+        <v>0.14084</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.163405</v>
+        <v>0.168848</v>
       </c>
       <c r="C46" t="n">
-        <v>0.342414</v>
+        <v>0.369966</v>
       </c>
       <c r="D46" t="n">
-        <v>0.137757</v>
+        <v>0.140899</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.165391</v>
+        <v>0.166451</v>
       </c>
       <c r="C47" t="n">
-        <v>0.355658</v>
+        <v>0.389306</v>
       </c>
       <c r="D47" t="n">
-        <v>0.142078</v>
+        <v>0.149127</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.166484</v>
+        <v>0.168234</v>
       </c>
       <c r="C48" t="n">
-        <v>0.361639</v>
+        <v>0.404018</v>
       </c>
       <c r="D48" t="n">
-        <v>0.144372</v>
+        <v>0.148766</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.169956</v>
+        <v>0.170726</v>
       </c>
       <c r="C49" t="n">
-        <v>0.385867</v>
+        <v>0.407868</v>
       </c>
       <c r="D49" t="n">
-        <v>0.147848</v>
+        <v>0.148034</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.174227</v>
+        <v>0.169117</v>
       </c>
       <c r="C50" t="n">
-        <v>0.408842</v>
+        <v>0.418108</v>
       </c>
       <c r="D50" t="n">
-        <v>0.151511</v>
+        <v>0.153665</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175208</v>
+        <v>0.170203</v>
       </c>
       <c r="C51" t="n">
-        <v>0.281954</v>
+        <v>0.295365</v>
       </c>
       <c r="D51" t="n">
-        <v>0.206646</v>
+        <v>0.207878</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176802</v>
+        <v>0.174446</v>
       </c>
       <c r="C52" t="n">
-        <v>0.279265</v>
+        <v>0.30859</v>
       </c>
       <c r="D52" t="n">
-        <v>0.210784</v>
+        <v>0.209461</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.26489</v>
+        <v>0.263496</v>
       </c>
       <c r="C53" t="n">
-        <v>0.292142</v>
+        <v>0.301595</v>
       </c>
       <c r="D53" t="n">
-        <v>0.204948</v>
+        <v>0.208046</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.259237</v>
+        <v>0.261117</v>
       </c>
       <c r="C54" t="n">
-        <v>0.307573</v>
+        <v>0.307559</v>
       </c>
       <c r="D54" t="n">
-        <v>0.209871</v>
+        <v>0.209418</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.256676</v>
+        <v>0.257246</v>
       </c>
       <c r="C55" t="n">
-        <v>0.303805</v>
+        <v>0.320051</v>
       </c>
       <c r="D55" t="n">
-        <v>0.207742</v>
+        <v>0.211965</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258253</v>
+        <v>0.258242</v>
       </c>
       <c r="C56" t="n">
-        <v>0.320295</v>
+        <v>0.324492</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202742</v>
+        <v>0.207446</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.256698</v>
+        <v>0.261454</v>
       </c>
       <c r="C57" t="n">
-        <v>0.320639</v>
+        <v>0.340169</v>
       </c>
       <c r="D57" t="n">
-        <v>0.208174</v>
+        <v>0.209328</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.259414</v>
+        <v>0.254754</v>
       </c>
       <c r="C58" t="n">
-        <v>0.341456</v>
+        <v>0.352594</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207576</v>
+        <v>0.205796</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.261386</v>
+        <v>0.26017</v>
       </c>
       <c r="C59" t="n">
-        <v>0.348535</v>
+        <v>0.361128</v>
       </c>
       <c r="D59" t="n">
-        <v>0.208458</v>
+        <v>0.214424</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.264448</v>
+        <v>0.255298</v>
       </c>
       <c r="C60" t="n">
-        <v>0.366733</v>
+        <v>0.377641</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21681</v>
+        <v>0.209674</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.261154</v>
+        <v>0.258881</v>
       </c>
       <c r="C61" t="n">
-        <v>0.376478</v>
+        <v>0.398691</v>
       </c>
       <c r="D61" t="n">
-        <v>0.212525</v>
+        <v>0.219002</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.261222</v>
+        <v>0.263151</v>
       </c>
       <c r="C62" t="n">
-        <v>0.388252</v>
+        <v>0.413927</v>
       </c>
       <c r="D62" t="n">
-        <v>0.215145</v>
+        <v>0.216884</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.265676</v>
+        <v>0.264702</v>
       </c>
       <c r="C63" t="n">
-        <v>0.398886</v>
+        <v>0.420746</v>
       </c>
       <c r="D63" t="n">
-        <v>0.222298</v>
+        <v>0.211285</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.270169</v>
+        <v>0.25513</v>
       </c>
       <c r="C64" t="n">
-        <v>0.426188</v>
+        <v>0.428682</v>
       </c>
       <c r="D64" t="n">
-        <v>0.217713</v>
+        <v>0.223403</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.259759</v>
+        <v>0.276292</v>
       </c>
       <c r="C65" t="n">
-        <v>0.370386</v>
+        <v>0.38746</v>
       </c>
       <c r="D65" t="n">
-        <v>0.228603</v>
+        <v>0.229888</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26461</v>
+        <v>0.267938</v>
       </c>
       <c r="C66" t="n">
-        <v>0.383561</v>
+        <v>0.396416</v>
       </c>
       <c r="D66" t="n">
-        <v>0.294716</v>
+        <v>0.294168</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.41184</v>
+        <v>0.397866</v>
       </c>
       <c r="C67" t="n">
-        <v>0.41785</v>
+        <v>0.403131</v>
       </c>
       <c r="D67" t="n">
-        <v>0.313417</v>
+        <v>0.298258</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.388343</v>
+        <v>0.406156</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3809</v>
+        <v>0.408888</v>
       </c>
       <c r="D68" t="n">
-        <v>0.29759</v>
+        <v>0.294646</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.404638</v>
+        <v>0.38592</v>
       </c>
       <c r="C69" t="n">
-        <v>0.41074</v>
+        <v>0.406954</v>
       </c>
       <c r="D69" t="n">
-        <v>0.295326</v>
+        <v>0.300053</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.410635</v>
+        <v>0.410437</v>
       </c>
       <c r="C70" t="n">
-        <v>0.415429</v>
+        <v>0.423355</v>
       </c>
       <c r="D70" t="n">
-        <v>0.303406</v>
+        <v>0.300237</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.396086</v>
+        <v>0.401495</v>
       </c>
       <c r="C71" t="n">
-        <v>0.420038</v>
+        <v>0.438497</v>
       </c>
       <c r="D71" t="n">
-        <v>0.309263</v>
+        <v>0.300315</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.41019</v>
+        <v>0.419061</v>
       </c>
       <c r="C72" t="n">
-        <v>0.455313</v>
+        <v>0.450883</v>
       </c>
       <c r="D72" t="n">
-        <v>0.307789</v>
+        <v>0.300769</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.413096</v>
+        <v>0.398561</v>
       </c>
       <c r="C73" t="n">
-        <v>0.463551</v>
+        <v>0.458851</v>
       </c>
       <c r="D73" t="n">
-        <v>0.305743</v>
+        <v>0.314457</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.401729</v>
+        <v>0.416567</v>
       </c>
       <c r="C74" t="n">
-        <v>0.485072</v>
+        <v>0.485124</v>
       </c>
       <c r="D74" t="n">
-        <v>0.300774</v>
+        <v>0.303512</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.407301</v>
+        <v>0.405136</v>
       </c>
       <c r="C75" t="n">
-        <v>0.473542</v>
+        <v>0.507192</v>
       </c>
       <c r="D75" t="n">
-        <v>0.310238</v>
+        <v>0.306557</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.40529</v>
+        <v>0.411557</v>
       </c>
       <c r="C76" t="n">
-        <v>0.511412</v>
+        <v>0.5367420000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.307722</v>
+        <v>0.317611</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.402277</v>
+        <v>0.405555</v>
       </c>
       <c r="C77" t="n">
-        <v>0.526714</v>
+        <v>0.546926</v>
       </c>
       <c r="D77" t="n">
-        <v>0.320508</v>
+        <v>0.326612</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.407415</v>
+        <v>0.414359</v>
       </c>
       <c r="C78" t="n">
-        <v>0.53803</v>
+        <v>0.562983</v>
       </c>
       <c r="D78" t="n">
-        <v>0.324841</v>
+        <v>0.326694</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.413755</v>
+        <v>0.411408</v>
       </c>
       <c r="C79" t="n">
-        <v>0.526697</v>
+        <v>0.518191</v>
       </c>
       <c r="D79" t="n">
-        <v>0.318707</v>
+        <v>0.313382</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.423741</v>
+        <v>0.414055</v>
       </c>
       <c r="C80" t="n">
-        <v>0.516302</v>
+        <v>0.534702</v>
       </c>
       <c r="D80" t="n">
-        <v>0.431662</v>
+        <v>0.447422</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.545566</v>
+        <v>0.543831</v>
       </c>
       <c r="C81" t="n">
-        <v>0.529629</v>
+        <v>0.547426</v>
       </c>
       <c r="D81" t="n">
-        <v>0.433601</v>
+        <v>0.42392</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.563741</v>
+        <v>0.558499</v>
       </c>
       <c r="C82" t="n">
-        <v>0.538593</v>
+        <v>0.553656</v>
       </c>
       <c r="D82" t="n">
-        <v>0.427442</v>
+        <v>0.428929</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5364719999999999</v>
+        <v>0.562407</v>
       </c>
       <c r="C83" t="n">
-        <v>0.599734</v>
+        <v>0.557509</v>
       </c>
       <c r="D83" t="n">
-        <v>0.442949</v>
+        <v>0.434914</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.574332</v>
+        <v>0.554182</v>
       </c>
       <c r="C84" t="n">
-        <v>0.571276</v>
+        <v>0.580085</v>
       </c>
       <c r="D84" t="n">
-        <v>0.432033</v>
+        <v>0.432417</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.542019</v>
+        <v>0.564477</v>
       </c>
       <c r="C85" t="n">
-        <v>0.561778</v>
+        <v>0.613231</v>
       </c>
       <c r="D85" t="n">
-        <v>0.440271</v>
+        <v>0.448495</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.557353</v>
+        <v>0.554437</v>
       </c>
       <c r="C86" t="n">
-        <v>0.61589</v>
+        <v>0.617241</v>
       </c>
       <c r="D86" t="n">
-        <v>0.441348</v>
+        <v>0.453034</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.552472</v>
+        <v>0.541857</v>
       </c>
       <c r="C87" t="n">
-        <v>0.632216</v>
+        <v>0.648803</v>
       </c>
       <c r="D87" t="n">
-        <v>0.439213</v>
+        <v>0.45714</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.579499</v>
+        <v>0.550002</v>
       </c>
       <c r="C88" t="n">
-        <v>0.638169</v>
+        <v>0.658849</v>
       </c>
       <c r="D88" t="n">
-        <v>0.453431</v>
+        <v>0.434717</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.560557</v>
+        <v>0.560911</v>
       </c>
       <c r="C89" t="n">
-        <v>0.694273</v>
+        <v>0.725447</v>
       </c>
       <c r="D89" t="n">
-        <v>0.436794</v>
+        <v>0.447658</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.550891</v>
+        <v>0.547356</v>
       </c>
       <c r="C90" t="n">
-        <v>0.736192</v>
+        <v>0.749122</v>
       </c>
       <c r="D90" t="n">
-        <v>0.445125</v>
+        <v>0.445429</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.566168</v>
+        <v>0.557885</v>
       </c>
       <c r="C91" t="n">
-        <v>0.755458</v>
+        <v>0.774671</v>
       </c>
       <c r="D91" t="n">
-        <v>0.450703</v>
+        <v>0.45115</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.565773</v>
+        <v>0.555783</v>
       </c>
       <c r="C92" t="n">
-        <v>0.771681</v>
+        <v>0.783186</v>
       </c>
       <c r="D92" t="n">
-        <v>0.448813</v>
+        <v>0.46662</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.570932</v>
+        <v>0.579484</v>
       </c>
       <c r="C93" t="n">
-        <v>0.799646</v>
+        <v>0.800276</v>
       </c>
       <c r="D93" t="n">
-        <v>0.44943</v>
+        <v>0.454403</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.560213</v>
+        <v>0.573424</v>
       </c>
       <c r="C94" t="n">
-        <v>0.656664</v>
+        <v>0.6603059999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.550158</v>
+        <v>0.531962</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.64296</v>
+        <v>0.651204</v>
       </c>
       <c r="C95" t="n">
-        <v>0.642307</v>
+        <v>0.676414</v>
       </c>
       <c r="D95" t="n">
-        <v>0.516046</v>
+        <v>0.527295</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.659129</v>
+        <v>0.631572</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6833360000000001</v>
+        <v>0.6715370000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.527215</v>
+        <v>0.520851</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.637597</v>
+        <v>0.633934</v>
       </c>
       <c r="C97" t="n">
-        <v>0.674758</v>
+        <v>0.674925</v>
       </c>
       <c r="D97" t="n">
-        <v>0.527794</v>
+        <v>0.527483</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.684933</v>
+        <v>0.655462</v>
       </c>
       <c r="C98" t="n">
-        <v>0.69641</v>
+        <v>0.6964</v>
       </c>
       <c r="D98" t="n">
-        <v>0.524027</v>
+        <v>0.52495</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.655482</v>
+        <v>0.658564</v>
       </c>
       <c r="C99" t="n">
-        <v>0.704061</v>
+        <v>0.72638</v>
       </c>
       <c r="D99" t="n">
-        <v>0.516935</v>
+        <v>0.533328</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.640188</v>
+        <v>0.643185</v>
       </c>
       <c r="C100" t="n">
-        <v>0.724938</v>
+        <v>0.760809</v>
       </c>
       <c r="D100" t="n">
-        <v>0.535851</v>
+        <v>0.533626</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6530589999999999</v>
+        <v>0.718139</v>
       </c>
       <c r="C101" t="n">
-        <v>0.751874</v>
+        <v>0.776484</v>
       </c>
       <c r="D101" t="n">
-        <v>0.552339</v>
+        <v>0.5656099999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.64049</v>
+        <v>0.690789</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8070079999999999</v>
+        <v>0.80745</v>
       </c>
       <c r="D102" t="n">
-        <v>0.547085</v>
+        <v>0.526039</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.697984</v>
+        <v>0.707377</v>
       </c>
       <c r="C103" t="n">
-        <v>0.843306</v>
+        <v>0.864018</v>
       </c>
       <c r="D103" t="n">
-        <v>0.531336</v>
+        <v>0.552125</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.687426</v>
+        <v>0.656069</v>
       </c>
       <c r="C104" t="n">
-        <v>0.889311</v>
+        <v>0.911779</v>
       </c>
       <c r="D104" t="n">
-        <v>0.536556</v>
+        <v>0.533025</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.646355</v>
+        <v>0.645088</v>
       </c>
       <c r="C105" t="n">
-        <v>0.935295</v>
+        <v>0.977339</v>
       </c>
       <c r="D105" t="n">
-        <v>0.556299</v>
+        <v>0.534359</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.653439</v>
+        <v>0.656978</v>
       </c>
       <c r="C106" t="n">
-        <v>0.996875</v>
+        <v>1.02281</v>
       </c>
       <c r="D106" t="n">
-        <v>0.562572</v>
+        <v>0.548059</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.66814</v>
+        <v>0.719591</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03433</v>
+        <v>1.0415</v>
       </c>
       <c r="D107" t="n">
-        <v>0.56337</v>
+        <v>0.546562</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.661014</v>
+        <v>0.653737</v>
       </c>
       <c r="C108" t="n">
-        <v>0.709855</v>
+        <v>0.727705</v>
       </c>
       <c r="D108" t="n">
-        <v>0.61781</v>
+        <v>0.636769</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.719051</v>
+        <v>0.651057</v>
       </c>
       <c r="C109" t="n">
-        <v>0.71979</v>
+        <v>0.728813</v>
       </c>
       <c r="D109" t="n">
-        <v>0.617761</v>
+        <v>0.628957</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.808157</v>
+        <v>0.921878</v>
       </c>
       <c r="C110" t="n">
-        <v>0.743336</v>
+        <v>0.745831</v>
       </c>
       <c r="D110" t="n">
-        <v>0.626741</v>
+        <v>0.67475</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.79942</v>
+        <v>0.795648</v>
       </c>
       <c r="C111" t="n">
-        <v>0.745108</v>
+        <v>0.7633259999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.620793</v>
+        <v>0.635996</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.802638</v>
+        <v>0.799063</v>
       </c>
       <c r="C112" t="n">
-        <v>0.761258</v>
+        <v>0.768262</v>
       </c>
       <c r="D112" t="n">
-        <v>0.62693</v>
+        <v>0.637956</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.793667</v>
+        <v>0.807202</v>
       </c>
       <c r="C113" t="n">
-        <v>0.80975</v>
+        <v>0.785202</v>
       </c>
       <c r="D113" t="n">
-        <v>0.615376</v>
+        <v>0.622495</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8130270000000001</v>
+        <v>0.898793</v>
       </c>
       <c r="C114" t="n">
-        <v>0.80427</v>
+        <v>0.8101429999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.634091</v>
+        <v>0.684146</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.817927</v>
+        <v>0.815426</v>
       </c>
       <c r="C115" t="n">
-        <v>0.832041</v>
+        <v>0.855443</v>
       </c>
       <c r="D115" t="n">
-        <v>0.628413</v>
+        <v>0.635367</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.834933</v>
+        <v>0.830006</v>
       </c>
       <c r="C116" t="n">
-        <v>0.886552</v>
+        <v>0.88404</v>
       </c>
       <c r="D116" t="n">
-        <v>0.644927</v>
+        <v>0.627658</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.797032</v>
+        <v>0.810186</v>
       </c>
       <c r="C117" t="n">
-        <v>0.90277</v>
+        <v>0.935774</v>
       </c>
       <c r="D117" t="n">
-        <v>0.639534</v>
+        <v>0.636534</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.809718</v>
+        <v>0.800912</v>
       </c>
       <c r="C118" t="n">
-        <v>0.981027</v>
+        <v>1.00717</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6334109999999999</v>
+        <v>0.647035</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.785256</v>
+        <v>0.794316</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06943</v>
+        <v>1.09273</v>
       </c>
       <c r="D119" t="n">
-        <v>0.639823</v>
+        <v>0.644072</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.816507</v>
+        <v>0.797777</v>
       </c>
       <c r="C120" t="n">
-        <v>1.10959</v>
+        <v>1.14033</v>
       </c>
       <c r="D120" t="n">
-        <v>0.651618</v>
+        <v>0.641246</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.806572</v>
+        <v>0.819218</v>
       </c>
       <c r="C121" t="n">
-        <v>1.17681</v>
+        <v>1.20082</v>
       </c>
       <c r="D121" t="n">
-        <v>0.664784</v>
+        <v>0.642171</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.813826</v>
+        <v>0.790964</v>
       </c>
       <c r="C122" t="n">
-        <v>0.740808</v>
+        <v>0.748978</v>
       </c>
       <c r="D122" t="n">
-        <v>0.66852</v>
+        <v>0.661287</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.826743</v>
+        <v>0.818504</v>
       </c>
       <c r="C123" t="n">
-        <v>0.758933</v>
+        <v>0.754246</v>
       </c>
       <c r="D123" t="n">
-        <v>0.752843</v>
+        <v>0.729396</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.01542</v>
+        <v>1.03351</v>
       </c>
       <c r="C124" t="n">
-        <v>0.77724</v>
+        <v>0.789221</v>
       </c>
       <c r="D124" t="n">
-        <v>0.752777</v>
+        <v>0.7384039999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.06828</v>
+        <v>1.05003</v>
       </c>
       <c r="C125" t="n">
-        <v>0.780251</v>
+        <v>0.784649</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7472259999999999</v>
+        <v>0.745662</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03312</v>
+        <v>1.01803</v>
       </c>
       <c r="C126" t="n">
-        <v>0.806466</v>
+        <v>0.7920509999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.747456</v>
+        <v>0.774156</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.04431</v>
+        <v>1.04571</v>
       </c>
       <c r="C127" t="n">
-        <v>0.83014</v>
+        <v>0.823439</v>
       </c>
       <c r="D127" t="n">
-        <v>0.753703</v>
+        <v>0.76903</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04071</v>
+        <v>1.03553</v>
       </c>
       <c r="C128" t="n">
-        <v>0.843565</v>
+        <v>0.876816</v>
       </c>
       <c r="D128" t="n">
-        <v>0.736061</v>
+        <v>0.7578279999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.03427</v>
+        <v>1.12165</v>
       </c>
       <c r="C129" t="n">
-        <v>0.874852</v>
+        <v>0.870502</v>
       </c>
       <c r="D129" t="n">
-        <v>0.769909</v>
+        <v>0.742265</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.06761</v>
+        <v>1.03153</v>
       </c>
       <c r="C130" t="n">
-        <v>0.918573</v>
+        <v>0.927111</v>
       </c>
       <c r="D130" t="n">
-        <v>0.776358</v>
+        <v>0.763081</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.01804</v>
+        <v>1.02505</v>
       </c>
       <c r="C131" t="n">
-        <v>0.973959</v>
+        <v>0.976099</v>
       </c>
       <c r="D131" t="n">
-        <v>0.772498</v>
+        <v>0.752947</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.0369</v>
+        <v>1.03078</v>
       </c>
       <c r="C132" t="n">
-        <v>1.01744</v>
+        <v>1.03474</v>
       </c>
       <c r="D132" t="n">
-        <v>0.76431</v>
+        <v>0.761732</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05407</v>
+        <v>1.03904</v>
       </c>
       <c r="C133" t="n">
-        <v>1.09141</v>
+        <v>1.15283</v>
       </c>
       <c r="D133" t="n">
-        <v>0.758972</v>
+        <v>0.773765</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.02439</v>
+        <v>1.04366</v>
       </c>
       <c r="C134" t="n">
-        <v>1.17705</v>
+        <v>1.17836</v>
       </c>
       <c r="D134" t="n">
-        <v>0.789717</v>
+        <v>0.7913480000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.02735</v>
+        <v>1.02975</v>
       </c>
       <c r="C135" t="n">
-        <v>1.23717</v>
+        <v>1.26193</v>
       </c>
       <c r="D135" t="n">
-        <v>0.779616</v>
+        <v>0.786148</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.08592</v>
+        <v>1.03782</v>
       </c>
       <c r="C136" t="n">
-        <v>0.840112</v>
+        <v>0.835163</v>
       </c>
       <c r="D136" t="n">
-        <v>0.795227</v>
+        <v>0.798316</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06023</v>
+        <v>1.0669</v>
       </c>
       <c r="C137" t="n">
-        <v>0.852144</v>
+        <v>0.827654</v>
       </c>
       <c r="D137" t="n">
-        <v>0.943522</v>
+        <v>0.9678369999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.32239</v>
+        <v>1.3375</v>
       </c>
       <c r="C138" t="n">
-        <v>0.851558</v>
+        <v>0.855689</v>
       </c>
       <c r="D138" t="n">
-        <v>0.932915</v>
+        <v>0.96896</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32482</v>
+        <v>1.32602</v>
       </c>
       <c r="C139" t="n">
-        <v>0.855478</v>
+        <v>0.858206</v>
       </c>
       <c r="D139" t="n">
-        <v>0.940746</v>
+        <v>0.966263</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.32784</v>
+        <v>1.32942</v>
       </c>
       <c r="C140" t="n">
-        <v>0.87397</v>
+        <v>0.885127</v>
       </c>
       <c r="D140" t="n">
-        <v>0.936949</v>
+        <v>0.978868</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.38247</v>
+        <v>1.34438</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9014219999999999</v>
+        <v>0.894838</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9378069999999999</v>
+        <v>0.9539840000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.32287</v>
+        <v>1.31597</v>
       </c>
       <c r="C142" t="n">
-        <v>0.914425</v>
+        <v>0.920932</v>
       </c>
       <c r="D142" t="n">
-        <v>0.956286</v>
+        <v>0.950025</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.3241</v>
+        <v>1.2823</v>
       </c>
       <c r="C143" t="n">
-        <v>0.959804</v>
+        <v>0.9001440000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.951968</v>
+        <v>0.958363</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115927</v>
+        <v>0.124522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0958833</v>
+        <v>0.106685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111515</v>
+        <v>0.112852</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.125926</v>
+        <v>0.125095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.10484</v>
+        <v>0.10525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.112939</v>
+        <v>0.116673</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120193</v>
+        <v>0.122106</v>
       </c>
       <c r="C4" t="n">
-        <v>0.10313</v>
+        <v>0.101595</v>
       </c>
       <c r="D4" t="n">
-        <v>0.114555</v>
+        <v>0.111348</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.120237</v>
+        <v>0.126017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.105385</v>
+        <v>0.105748</v>
       </c>
       <c r="D5" t="n">
-        <v>0.111849</v>
+        <v>0.116778</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12332</v>
+        <v>0.128354</v>
       </c>
       <c r="C6" t="n">
-        <v>0.103711</v>
+        <v>0.107117</v>
       </c>
       <c r="D6" t="n">
-        <v>0.112795</v>
+        <v>0.115157</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.122227</v>
+        <v>0.127243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.105237</v>
+        <v>0.109298</v>
       </c>
       <c r="D7" t="n">
-        <v>0.112856</v>
+        <v>0.117289</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.126057</v>
+        <v>0.121137</v>
       </c>
       <c r="C8" t="n">
-        <v>0.105601</v>
+        <v>0.107027</v>
       </c>
       <c r="D8" t="n">
-        <v>0.115825</v>
+        <v>0.119903</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.128217</v>
+        <v>0.124236</v>
       </c>
       <c r="C9" t="n">
-        <v>0.107494</v>
+        <v>0.114716</v>
       </c>
       <c r="D9" t="n">
-        <v>0.110492</v>
+        <v>0.114394</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.128709</v>
+        <v>0.129779</v>
       </c>
       <c r="C10" t="n">
-        <v>0.102458</v>
+        <v>0.103107</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11614</v>
+        <v>0.112519</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.134593</v>
+        <v>0.130931</v>
       </c>
       <c r="C11" t="n">
-        <v>0.102169</v>
+        <v>0.103863</v>
       </c>
       <c r="D11" t="n">
-        <v>0.114173</v>
+        <v>0.115927</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128417</v>
+        <v>0.129339</v>
       </c>
       <c r="C12" t="n">
-        <v>0.104517</v>
+        <v>0.105731</v>
       </c>
       <c r="D12" t="n">
-        <v>0.114639</v>
+        <v>0.111243</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128625</v>
+        <v>0.130746</v>
       </c>
       <c r="C13" t="n">
-        <v>0.10293</v>
+        <v>0.105349</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111687</v>
+        <v>0.111367</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.129344</v>
+        <v>0.131353</v>
       </c>
       <c r="C14" t="n">
-        <v>0.104012</v>
+        <v>0.104413</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112519</v>
+        <v>0.116407</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.128555</v>
+        <v>0.138128</v>
       </c>
       <c r="C15" t="n">
-        <v>0.102444</v>
+        <v>0.106836</v>
       </c>
       <c r="D15" t="n">
-        <v>0.111635</v>
+        <v>0.11759</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.130335</v>
+        <v>0.135599</v>
       </c>
       <c r="C16" t="n">
-        <v>0.106291</v>
+        <v>0.104901</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114513</v>
+        <v>0.115142</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130539</v>
+        <v>0.134564</v>
       </c>
       <c r="C17" t="n">
-        <v>0.104382</v>
+        <v>0.108611</v>
       </c>
       <c r="D17" t="n">
-        <v>0.113147</v>
+        <v>0.116823</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128778</v>
+        <v>0.131848</v>
       </c>
       <c r="C18" t="n">
-        <v>0.103596</v>
+        <v>0.104721</v>
       </c>
       <c r="D18" t="n">
-        <v>0.110124</v>
+        <v>0.117509</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.129905</v>
+        <v>0.132596</v>
       </c>
       <c r="C19" t="n">
-        <v>0.107171</v>
+        <v>0.10965</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114113</v>
+        <v>0.115132</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.130125</v>
+        <v>0.129845</v>
       </c>
       <c r="C20" t="n">
-        <v>0.105858</v>
+        <v>0.110249</v>
       </c>
       <c r="D20" t="n">
-        <v>0.116344</v>
+        <v>0.115337</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.13411</v>
+        <v>0.130355</v>
       </c>
       <c r="C21" t="n">
-        <v>0.107929</v>
+        <v>0.112517</v>
       </c>
       <c r="D21" t="n">
-        <v>0.119721</v>
+        <v>0.119759</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.13158</v>
+        <v>0.134613</v>
       </c>
       <c r="C22" t="n">
-        <v>0.110313</v>
+        <v>0.114811</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1247</v>
+        <v>0.127146</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.134505</v>
+        <v>0.134611</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118288</v>
+        <v>0.114867</v>
       </c>
       <c r="D23" t="n">
-        <v>0.12182</v>
+        <v>0.113628</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.140173</v>
+        <v>0.143033</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107543</v>
+        <v>0.107203</v>
       </c>
       <c r="D24" t="n">
-        <v>0.11511</v>
+        <v>0.116151</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.14153</v>
+        <v>0.13922</v>
       </c>
       <c r="C25" t="n">
-        <v>0.107025</v>
+        <v>0.105672</v>
       </c>
       <c r="D25" t="n">
-        <v>0.117169</v>
+        <v>0.117651</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.139281</v>
+        <v>0.139674</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109131</v>
+        <v>0.106727</v>
       </c>
       <c r="D26" t="n">
-        <v>0.118778</v>
+        <v>0.117172</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.139668</v>
+        <v>0.142476</v>
       </c>
       <c r="C27" t="n">
-        <v>0.111415</v>
+        <v>0.107678</v>
       </c>
       <c r="D27" t="n">
-        <v>0.118061</v>
+        <v>0.119297</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.139848</v>
+        <v>0.144461</v>
       </c>
       <c r="C28" t="n">
-        <v>0.106616</v>
+        <v>0.108676</v>
       </c>
       <c r="D28" t="n">
-        <v>0.115637</v>
+        <v>0.119009</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137168</v>
+        <v>0.138779</v>
       </c>
       <c r="C29" t="n">
-        <v>0.107082</v>
+        <v>0.109133</v>
       </c>
       <c r="D29" t="n">
-        <v>0.118394</v>
+        <v>0.122522</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.136859</v>
+        <v>0.140197</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1093</v>
+        <v>0.108359</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120777</v>
+        <v>0.121202</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.144196</v>
+        <v>0.13673</v>
       </c>
       <c r="C31" t="n">
-        <v>0.110609</v>
+        <v>0.110157</v>
       </c>
       <c r="D31" t="n">
-        <v>0.11897</v>
+        <v>0.118275</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140094</v>
+        <v>0.141399</v>
       </c>
       <c r="C32" t="n">
-        <v>0.111515</v>
+        <v>0.112119</v>
       </c>
       <c r="D32" t="n">
-        <v>0.120598</v>
+        <v>0.121471</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.141547</v>
+        <v>0.139333</v>
       </c>
       <c r="C33" t="n">
-        <v>0.109563</v>
+        <v>0.111569</v>
       </c>
       <c r="D33" t="n">
-        <v>0.122031</v>
+        <v>0.123583</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.142572</v>
+        <v>0.142761</v>
       </c>
       <c r="C34" t="n">
-        <v>0.114456</v>
+        <v>0.111087</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125253</v>
+        <v>0.124384</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.144821</v>
+        <v>0.142705</v>
       </c>
       <c r="C35" t="n">
-        <v>0.113864</v>
+        <v>0.116186</v>
       </c>
       <c r="D35" t="n">
-        <v>0.128635</v>
+        <v>0.128032</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.142683</v>
+        <v>0.142609</v>
       </c>
       <c r="C36" t="n">
-        <v>0.119435</v>
+        <v>0.119281</v>
       </c>
       <c r="D36" t="n">
-        <v>0.136306</v>
+        <v>0.13585</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.145424</v>
+        <v>0.145837</v>
       </c>
       <c r="C37" t="n">
-        <v>0.123747</v>
+        <v>0.121389</v>
       </c>
       <c r="D37" t="n">
-        <v>0.137159</v>
+        <v>0.133686</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.164439</v>
+        <v>0.166882</v>
       </c>
       <c r="C38" t="n">
-        <v>0.119256</v>
+        <v>0.124089</v>
       </c>
       <c r="D38" t="n">
-        <v>0.129834</v>
+        <v>0.131508</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.171157</v>
+        <v>0.167089</v>
       </c>
       <c r="C39" t="n">
-        <v>0.125324</v>
+        <v>0.122278</v>
       </c>
       <c r="D39" t="n">
-        <v>0.134065</v>
+        <v>0.130362</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.166428</v>
+        <v>0.169477</v>
       </c>
       <c r="C40" t="n">
-        <v>0.124833</v>
+        <v>0.123791</v>
       </c>
       <c r="D40" t="n">
-        <v>0.132786</v>
+        <v>0.13375</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.166338</v>
+        <v>0.16847</v>
       </c>
       <c r="C41" t="n">
-        <v>0.126228</v>
+        <v>0.124227</v>
       </c>
       <c r="D41" t="n">
-        <v>0.136366</v>
+        <v>0.136551</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.162501</v>
+        <v>0.163003</v>
       </c>
       <c r="C42" t="n">
-        <v>0.119827</v>
+        <v>0.122985</v>
       </c>
       <c r="D42" t="n">
-        <v>0.136006</v>
+        <v>0.13534</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.166174</v>
+        <v>0.164621</v>
       </c>
       <c r="C43" t="n">
-        <v>0.12093</v>
+        <v>0.121638</v>
       </c>
       <c r="D43" t="n">
-        <v>0.130718</v>
+        <v>0.129442</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.162763</v>
+        <v>0.156883</v>
       </c>
       <c r="C44" t="n">
-        <v>0.123516</v>
+        <v>0.11876</v>
       </c>
       <c r="D44" t="n">
-        <v>0.134633</v>
+        <v>0.13176</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.169573</v>
+        <v>0.171287</v>
       </c>
       <c r="C45" t="n">
-        <v>0.126082</v>
+        <v>0.120548</v>
       </c>
       <c r="D45" t="n">
-        <v>0.132741</v>
+        <v>0.13129</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.163562</v>
+        <v>0.157751</v>
       </c>
       <c r="C46" t="n">
-        <v>0.127382</v>
+        <v>0.121808</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132537</v>
+        <v>0.136295</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16745</v>
+        <v>0.158701</v>
       </c>
       <c r="C47" t="n">
-        <v>0.130444</v>
+        <v>0.12197</v>
       </c>
       <c r="D47" t="n">
-        <v>0.137655</v>
+        <v>0.133975</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167426</v>
+        <v>0.158883</v>
       </c>
       <c r="C48" t="n">
-        <v>0.131798</v>
+        <v>0.130563</v>
       </c>
       <c r="D48" t="n">
-        <v>0.138719</v>
+        <v>0.136014</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.167081</v>
+        <v>0.159602</v>
       </c>
       <c r="C49" t="n">
-        <v>0.133001</v>
+        <v>0.12524</v>
       </c>
       <c r="D49" t="n">
-        <v>0.140901</v>
+        <v>0.13951</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.165847</v>
+        <v>0.163206</v>
       </c>
       <c r="C50" t="n">
-        <v>0.135425</v>
+        <v>0.128058</v>
       </c>
       <c r="D50" t="n">
-        <v>0.145993</v>
+        <v>0.143399</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172345</v>
+        <v>0.168748</v>
       </c>
       <c r="C51" t="n">
-        <v>0.136851</v>
+        <v>0.130684</v>
       </c>
       <c r="D51" t="n">
-        <v>0.21197</v>
+        <v>0.192749</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17685</v>
+        <v>0.166825</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143349</v>
+        <v>0.136175</v>
       </c>
       <c r="D52" t="n">
-        <v>0.210832</v>
+        <v>0.193036</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.261111</v>
+        <v>0.245381</v>
       </c>
       <c r="C53" t="n">
-        <v>0.195393</v>
+        <v>0.18655</v>
       </c>
       <c r="D53" t="n">
-        <v>0.204147</v>
+        <v>0.194148</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.258522</v>
+        <v>0.242889</v>
       </c>
       <c r="C54" t="n">
-        <v>0.19765</v>
+        <v>0.193179</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2101</v>
+        <v>0.194146</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.255626</v>
+        <v>0.247482</v>
       </c>
       <c r="C55" t="n">
-        <v>0.204277</v>
+        <v>0.188017</v>
       </c>
       <c r="D55" t="n">
-        <v>0.21171</v>
+        <v>0.198941</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.253896</v>
+        <v>0.252908</v>
       </c>
       <c r="C56" t="n">
-        <v>0.196561</v>
+        <v>0.200241</v>
       </c>
       <c r="D56" t="n">
-        <v>0.205044</v>
+        <v>0.203019</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.26173</v>
+        <v>0.252815</v>
       </c>
       <c r="C57" t="n">
-        <v>0.202882</v>
+        <v>0.197043</v>
       </c>
       <c r="D57" t="n">
-        <v>0.207174</v>
+        <v>0.201492</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.261646</v>
+        <v>0.253902</v>
       </c>
       <c r="C58" t="n">
-        <v>0.200842</v>
+        <v>0.194555</v>
       </c>
       <c r="D58" t="n">
-        <v>0.21156</v>
+        <v>0.199683</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.258144</v>
+        <v>0.241932</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203762</v>
+        <v>0.192329</v>
       </c>
       <c r="D59" t="n">
-        <v>0.216801</v>
+        <v>0.196893</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.257317</v>
+        <v>0.251392</v>
       </c>
       <c r="C60" t="n">
-        <v>0.205988</v>
+        <v>0.207419</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210243</v>
+        <v>0.197518</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257145</v>
+        <v>0.247896</v>
       </c>
       <c r="C61" t="n">
-        <v>0.207653</v>
+        <v>0.199948</v>
       </c>
       <c r="D61" t="n">
-        <v>0.215358</v>
+        <v>0.203844</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.266248</v>
+        <v>0.24746</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202776</v>
+        <v>0.197962</v>
       </c>
       <c r="D62" t="n">
-        <v>0.216676</v>
+        <v>0.203719</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.261306</v>
+        <v>0.249758</v>
       </c>
       <c r="C63" t="n">
-        <v>0.206307</v>
+        <v>0.199534</v>
       </c>
       <c r="D63" t="n">
-        <v>0.220147</v>
+        <v>0.205992</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.260663</v>
+        <v>0.253911</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215717</v>
+        <v>0.200911</v>
       </c>
       <c r="D64" t="n">
-        <v>0.218801</v>
+        <v>0.209639</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263624</v>
+        <v>0.249021</v>
       </c>
       <c r="C65" t="n">
-        <v>0.215844</v>
+        <v>0.204559</v>
       </c>
       <c r="D65" t="n">
-        <v>0.232313</v>
+        <v>0.215876</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269223</v>
+        <v>0.25476</v>
       </c>
       <c r="C66" t="n">
-        <v>0.217918</v>
+        <v>0.209696</v>
       </c>
       <c r="D66" t="n">
-        <v>0.298021</v>
+        <v>0.286318</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.395849</v>
+        <v>0.369447</v>
       </c>
       <c r="C67" t="n">
-        <v>0.320817</v>
+        <v>0.301325</v>
       </c>
       <c r="D67" t="n">
-        <v>0.294442</v>
+        <v>0.285426</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.390719</v>
+        <v>0.396313</v>
       </c>
       <c r="C68" t="n">
-        <v>0.318547</v>
+        <v>0.300324</v>
       </c>
       <c r="D68" t="n">
-        <v>0.294463</v>
+        <v>0.284094</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.391584</v>
+        <v>0.403906</v>
       </c>
       <c r="C69" t="n">
-        <v>0.309824</v>
+        <v>0.300171</v>
       </c>
       <c r="D69" t="n">
-        <v>0.296997</v>
+        <v>0.286219</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.392277</v>
+        <v>0.393446</v>
       </c>
       <c r="C70" t="n">
-        <v>0.314525</v>
+        <v>0.31432</v>
       </c>
       <c r="D70" t="n">
-        <v>0.303784</v>
+        <v>0.292657</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.410985</v>
+        <v>0.415502</v>
       </c>
       <c r="C71" t="n">
-        <v>0.312585</v>
+        <v>0.315504</v>
       </c>
       <c r="D71" t="n">
-        <v>0.29894</v>
+        <v>0.299897</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.398143</v>
+        <v>0.399397</v>
       </c>
       <c r="C72" t="n">
-        <v>0.309902</v>
+        <v>0.319075</v>
       </c>
       <c r="D72" t="n">
-        <v>0.299415</v>
+        <v>0.306041</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.421421</v>
+        <v>0.418498</v>
       </c>
       <c r="C73" t="n">
-        <v>0.318915</v>
+        <v>0.312933</v>
       </c>
       <c r="D73" t="n">
-        <v>0.304556</v>
+        <v>0.307354</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.406006</v>
+        <v>0.412901</v>
       </c>
       <c r="C74" t="n">
-        <v>0.315788</v>
+        <v>0.330171</v>
       </c>
       <c r="D74" t="n">
-        <v>0.305999</v>
+        <v>0.307918</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.406778</v>
+        <v>0.409898</v>
       </c>
       <c r="C75" t="n">
-        <v>0.318725</v>
+        <v>0.322712</v>
       </c>
       <c r="D75" t="n">
-        <v>0.310329</v>
+        <v>0.314823</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.396375</v>
+        <v>0.415532</v>
       </c>
       <c r="C76" t="n">
-        <v>0.321274</v>
+        <v>0.323419</v>
       </c>
       <c r="D76" t="n">
-        <v>0.297439</v>
+        <v>0.321921</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.410695</v>
+        <v>0.41586</v>
       </c>
       <c r="C77" t="n">
-        <v>0.324406</v>
+        <v>0.328444</v>
       </c>
       <c r="D77" t="n">
-        <v>0.319461</v>
+        <v>0.315377</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.403391</v>
+        <v>0.411232</v>
       </c>
       <c r="C78" t="n">
-        <v>0.317454</v>
+        <v>0.317141</v>
       </c>
       <c r="D78" t="n">
-        <v>0.330377</v>
+        <v>0.304013</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.416435</v>
+        <v>0.415688</v>
       </c>
       <c r="C79" t="n">
-        <v>0.319939</v>
+        <v>0.32493</v>
       </c>
       <c r="D79" t="n">
-        <v>0.330371</v>
+        <v>0.327752</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.413706</v>
+        <v>0.409089</v>
       </c>
       <c r="C80" t="n">
-        <v>0.328882</v>
+        <v>0.339045</v>
       </c>
       <c r="D80" t="n">
-        <v>0.441434</v>
+        <v>0.437838</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.553637</v>
+        <v>0.559574</v>
       </c>
       <c r="C81" t="n">
-        <v>0.425848</v>
+        <v>0.436064</v>
       </c>
       <c r="D81" t="n">
-        <v>0.43813</v>
+        <v>0.422302</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.552625</v>
+        <v>0.558521</v>
       </c>
       <c r="C82" t="n">
-        <v>0.43126</v>
+        <v>0.425765</v>
       </c>
       <c r="D82" t="n">
-        <v>0.429487</v>
+        <v>0.420491</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.532806</v>
+        <v>0.557385</v>
       </c>
       <c r="C83" t="n">
-        <v>0.439052</v>
+        <v>0.425604</v>
       </c>
       <c r="D83" t="n">
-        <v>0.424874</v>
+        <v>0.427471</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.544473</v>
+        <v>0.549671</v>
       </c>
       <c r="C84" t="n">
-        <v>0.422376</v>
+        <v>0.435574</v>
       </c>
       <c r="D84" t="n">
-        <v>0.424065</v>
+        <v>0.439988</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.544871</v>
+        <v>0.556577</v>
       </c>
       <c r="C85" t="n">
-        <v>0.430843</v>
+        <v>0.425914</v>
       </c>
       <c r="D85" t="n">
-        <v>0.442318</v>
+        <v>0.444609</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5540119999999999</v>
+        <v>0.556606</v>
       </c>
       <c r="C86" t="n">
-        <v>0.420807</v>
+        <v>0.420357</v>
       </c>
       <c r="D86" t="n">
-        <v>0.435767</v>
+        <v>0.438157</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.54321</v>
+        <v>0.561953</v>
       </c>
       <c r="C87" t="n">
-        <v>0.430406</v>
+        <v>0.42606</v>
       </c>
       <c r="D87" t="n">
-        <v>0.43727</v>
+        <v>0.432588</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.544768</v>
+        <v>0.562648</v>
       </c>
       <c r="C88" t="n">
-        <v>0.430627</v>
+        <v>0.439386</v>
       </c>
       <c r="D88" t="n">
-        <v>0.448681</v>
+        <v>0.440517</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.558258</v>
+        <v>0.557403</v>
       </c>
       <c r="C89" t="n">
-        <v>0.425675</v>
+        <v>0.429273</v>
       </c>
       <c r="D89" t="n">
-        <v>0.451189</v>
+        <v>0.443276</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.543467</v>
+        <v>0.592434</v>
       </c>
       <c r="C90" t="n">
-        <v>0.430381</v>
+        <v>0.435112</v>
       </c>
       <c r="D90" t="n">
-        <v>0.444394</v>
+        <v>0.451033</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.563273</v>
+        <v>0.559665</v>
       </c>
       <c r="C91" t="n">
-        <v>0.424025</v>
+        <v>0.433291</v>
       </c>
       <c r="D91" t="n">
-        <v>0.450241</v>
+        <v>0.45534</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.562836</v>
+        <v>0.554</v>
       </c>
       <c r="C92" t="n">
-        <v>0.433001</v>
+        <v>0.442672</v>
       </c>
       <c r="D92" t="n">
-        <v>0.44885</v>
+        <v>0.460649</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.559505</v>
+        <v>0.555996</v>
       </c>
       <c r="C93" t="n">
-        <v>0.450264</v>
+        <v>0.440697</v>
       </c>
       <c r="D93" t="n">
-        <v>0.447556</v>
+        <v>0.454992</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5705789999999999</v>
+        <v>0.586963</v>
       </c>
       <c r="C94" t="n">
-        <v>0.450576</v>
+        <v>0.451697</v>
       </c>
       <c r="D94" t="n">
-        <v>0.526336</v>
+        <v>0.556995</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.633123</v>
+        <v>0.708548</v>
       </c>
       <c r="C95" t="n">
-        <v>0.52333</v>
+        <v>0.544123</v>
       </c>
       <c r="D95" t="n">
-        <v>0.531633</v>
+        <v>0.550024</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.646184</v>
+        <v>0.650999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.509846</v>
+        <v>0.531099</v>
       </c>
       <c r="D96" t="n">
-        <v>0.533782</v>
+        <v>0.527332</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.643976</v>
+        <v>0.69804</v>
       </c>
       <c r="C97" t="n">
-        <v>0.51287</v>
+        <v>0.536295</v>
       </c>
       <c r="D97" t="n">
-        <v>0.529425</v>
+        <v>0.54575</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.657287</v>
+        <v>0.6993470000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.511811</v>
+        <v>0.529587</v>
       </c>
       <c r="D98" t="n">
-        <v>0.532488</v>
+        <v>0.555015</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.634921</v>
+        <v>0.644531</v>
       </c>
       <c r="C99" t="n">
-        <v>0.519444</v>
+        <v>0.548715</v>
       </c>
       <c r="D99" t="n">
-        <v>0.522118</v>
+        <v>0.544474</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6392330000000001</v>
+        <v>0.668869</v>
       </c>
       <c r="C100" t="n">
-        <v>0.513521</v>
+        <v>0.510659</v>
       </c>
       <c r="D100" t="n">
-        <v>0.540727</v>
+        <v>0.556992</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.632798</v>
+        <v>0.652095</v>
       </c>
       <c r="C101" t="n">
-        <v>0.51672</v>
+        <v>0.516375</v>
       </c>
       <c r="D101" t="n">
-        <v>0.523916</v>
+        <v>0.558662</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.645441</v>
+        <v>0.710144</v>
       </c>
       <c r="C102" t="n">
-        <v>0.523508</v>
+        <v>0.527695</v>
       </c>
       <c r="D102" t="n">
-        <v>0.530879</v>
+        <v>0.571491</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.654344</v>
+        <v>0.656547</v>
       </c>
       <c r="C103" t="n">
-        <v>0.528516</v>
+        <v>0.533533</v>
       </c>
       <c r="D103" t="n">
-        <v>0.548062</v>
+        <v>0.543988</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.64615</v>
+        <v>0.6914360000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.520652</v>
+        <v>0.546642</v>
       </c>
       <c r="D104" t="n">
-        <v>0.548092</v>
+        <v>0.549254</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.641468</v>
+        <v>0.702932</v>
       </c>
       <c r="C105" t="n">
-        <v>0.517231</v>
+        <v>0.557084</v>
       </c>
       <c r="D105" t="n">
-        <v>0.533635</v>
+        <v>0.5685789999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.653137</v>
+        <v>0.676338</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5382400000000001</v>
+        <v>0.5464599999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5408539999999999</v>
+        <v>0.559958</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.643279</v>
+        <v>0.663517</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5250590000000001</v>
+        <v>0.546956</v>
       </c>
       <c r="D107" t="n">
-        <v>0.565589</v>
+        <v>0.590757</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.645501</v>
+        <v>0.722832</v>
       </c>
       <c r="C108" t="n">
-        <v>0.535784</v>
+        <v>0.566825</v>
       </c>
       <c r="D108" t="n">
-        <v>0.619109</v>
+        <v>0.618093</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.664654</v>
+        <v>0.640858</v>
       </c>
       <c r="C109" t="n">
-        <v>0.563125</v>
+        <v>0.537075</v>
       </c>
       <c r="D109" t="n">
-        <v>0.638674</v>
+        <v>0.629619</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.793871</v>
+        <v>0.81642</v>
       </c>
       <c r="C110" t="n">
-        <v>0.60268</v>
+        <v>0.668458</v>
       </c>
       <c r="D110" t="n">
-        <v>0.624787</v>
+        <v>0.633986</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.881127</v>
+        <v>0.792998</v>
       </c>
       <c r="C111" t="n">
-        <v>0.599529</v>
+        <v>0.599289</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6271640000000001</v>
+        <v>0.6761</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.793713</v>
+        <v>0.814916</v>
       </c>
       <c r="C112" t="n">
-        <v>0.605167</v>
+        <v>0.648627</v>
       </c>
       <c r="D112" t="n">
-        <v>0.64772</v>
+        <v>0.628975</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8023749999999999</v>
+        <v>0.803679</v>
       </c>
       <c r="C113" t="n">
-        <v>0.612687</v>
+        <v>0.613693</v>
       </c>
       <c r="D113" t="n">
-        <v>0.629664</v>
+        <v>0.616035</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7897690000000001</v>
+        <v>0.789485</v>
       </c>
       <c r="C114" t="n">
-        <v>0.601801</v>
+        <v>0.609754</v>
       </c>
       <c r="D114" t="n">
-        <v>0.643405</v>
+        <v>0.631714</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.792722</v>
+        <v>0.808576</v>
       </c>
       <c r="C115" t="n">
-        <v>0.610741</v>
+        <v>0.612278</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6450360000000001</v>
+        <v>0.642109</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.799086</v>
+        <v>0.859616</v>
       </c>
       <c r="C116" t="n">
-        <v>0.611943</v>
+        <v>0.683597</v>
       </c>
       <c r="D116" t="n">
-        <v>0.642421</v>
+        <v>0.6618849999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.783287</v>
+        <v>0.798858</v>
       </c>
       <c r="C117" t="n">
-        <v>0.611136</v>
+        <v>0.686053</v>
       </c>
       <c r="D117" t="n">
-        <v>0.648143</v>
+        <v>0.69328</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.789028</v>
+        <v>0.9288650000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.624298</v>
+        <v>0.625833</v>
       </c>
       <c r="D118" t="n">
-        <v>0.651711</v>
+        <v>0.692742</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.813435</v>
+        <v>0.795894</v>
       </c>
       <c r="C119" t="n">
-        <v>0.626978</v>
+        <v>0.61909</v>
       </c>
       <c r="D119" t="n">
-        <v>0.663829</v>
+        <v>0.640953</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.803422</v>
+        <v>0.920041</v>
       </c>
       <c r="C120" t="n">
-        <v>0.627339</v>
+        <v>0.633099</v>
       </c>
       <c r="D120" t="n">
-        <v>0.644937</v>
+        <v>0.647794</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.821321</v>
+        <v>0.810624</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6419280000000001</v>
+        <v>0.694654</v>
       </c>
       <c r="D121" t="n">
-        <v>0.674621</v>
+        <v>0.653783</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.815165</v>
+        <v>0.8090079999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.653486</v>
+        <v>0.644612</v>
       </c>
       <c r="D122" t="n">
-        <v>0.672192</v>
+        <v>0.6813439999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8056140000000001</v>
+        <v>0.939652</v>
       </c>
       <c r="C123" t="n">
-        <v>0.635286</v>
+        <v>0.664801</v>
       </c>
       <c r="D123" t="n">
-        <v>0.744844</v>
+        <v>0.741361</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.04661</v>
+        <v>1.2354</v>
       </c>
       <c r="C124" t="n">
-        <v>0.738318</v>
+        <v>0.723668</v>
       </c>
       <c r="D124" t="n">
-        <v>0.751263</v>
+        <v>0.749773</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03959</v>
+        <v>1.2097</v>
       </c>
       <c r="C125" t="n">
-        <v>0.856974</v>
+        <v>0.744398</v>
       </c>
       <c r="D125" t="n">
-        <v>0.759136</v>
+        <v>0.745099</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03442</v>
+        <v>1.08273</v>
       </c>
       <c r="C126" t="n">
-        <v>0.744796</v>
+        <v>0.730501</v>
       </c>
       <c r="D126" t="n">
-        <v>0.756724</v>
+        <v>0.7514690000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03699</v>
+        <v>1.04993</v>
       </c>
       <c r="C127" t="n">
-        <v>0.754668</v>
+        <v>0.847225</v>
       </c>
       <c r="D127" t="n">
-        <v>0.764969</v>
+        <v>0.759339</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.02891</v>
+        <v>1.0487</v>
       </c>
       <c r="C128" t="n">
-        <v>0.74059</v>
+        <v>0.751427</v>
       </c>
       <c r="D128" t="n">
-        <v>0.747823</v>
+        <v>0.777766</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.09583</v>
+        <v>1.20894</v>
       </c>
       <c r="C129" t="n">
-        <v>0.733668</v>
+        <v>0.737632</v>
       </c>
       <c r="D129" t="n">
-        <v>0.748414</v>
+        <v>0.856353</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.05452</v>
+        <v>1.02977</v>
       </c>
       <c r="C130" t="n">
-        <v>0.74077</v>
+        <v>0.750057</v>
       </c>
       <c r="D130" t="n">
-        <v>0.759125</v>
+        <v>0.755018</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.0342</v>
+        <v>1.05545</v>
       </c>
       <c r="C131" t="n">
-        <v>0.75367</v>
+        <v>0.744312</v>
       </c>
       <c r="D131" t="n">
-        <v>0.755757</v>
+        <v>0.7642409999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.02614</v>
+        <v>1.0434</v>
       </c>
       <c r="C132" t="n">
-        <v>0.725615</v>
+        <v>0.753103</v>
       </c>
       <c r="D132" t="n">
-        <v>0.769508</v>
+        <v>0.764271</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.0467</v>
+        <v>1.03423</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7723179999999999</v>
+        <v>0.76775</v>
       </c>
       <c r="D133" t="n">
-        <v>0.751348</v>
+        <v>0.77524</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04097</v>
+        <v>1.19315</v>
       </c>
       <c r="C134" t="n">
-        <v>0.75871</v>
+        <v>0.761753</v>
       </c>
       <c r="D134" t="n">
-        <v>0.77916</v>
+        <v>0.7936299999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04754</v>
+        <v>1.05263</v>
       </c>
       <c r="C135" t="n">
-        <v>0.757388</v>
+        <v>0.843381</v>
       </c>
       <c r="D135" t="n">
-        <v>0.790764</v>
+        <v>0.775405</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.06509</v>
+        <v>1.05357</v>
       </c>
       <c r="C136" t="n">
-        <v>0.768174</v>
+        <v>0.888344</v>
       </c>
       <c r="D136" t="n">
-        <v>0.79587</v>
+        <v>0.801134</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06659</v>
+        <v>1.06205</v>
       </c>
       <c r="C137" t="n">
-        <v>0.787176</v>
+        <v>0.787018</v>
       </c>
       <c r="D137" t="n">
-        <v>0.920166</v>
+        <v>0.934063</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.28198</v>
+        <v>1.34177</v>
       </c>
       <c r="C138" t="n">
-        <v>0.920254</v>
+        <v>0.944005</v>
       </c>
       <c r="D138" t="n">
-        <v>0.955554</v>
+        <v>0.928844</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.34761</v>
+        <v>1.32735</v>
       </c>
       <c r="C139" t="n">
-        <v>0.930908</v>
+        <v>0.95245</v>
       </c>
       <c r="D139" t="n">
-        <v>0.943631</v>
+        <v>0.9325369999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.37204</v>
+        <v>1.32252</v>
       </c>
       <c r="C140" t="n">
-        <v>0.921468</v>
+        <v>0.9257880000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.934403</v>
+        <v>0.944092</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.30169</v>
+        <v>1.3185</v>
       </c>
       <c r="C141" t="n">
-        <v>0.933316</v>
+        <v>0.942947</v>
       </c>
       <c r="D141" t="n">
-        <v>0.94935</v>
+        <v>0.951577</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.31595</v>
+        <v>1.34173</v>
       </c>
       <c r="C142" t="n">
-        <v>0.945002</v>
+        <v>0.932961</v>
       </c>
       <c r="D142" t="n">
-        <v>0.929032</v>
+        <v>0.963267</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32209</v>
+        <v>1.43582</v>
       </c>
       <c r="C143" t="n">
-        <v>0.944472</v>
+        <v>1.00186</v>
       </c>
       <c r="D143" t="n">
-        <v>0.941944</v>
+        <v>0.960904</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.124522</v>
+        <v>0.116533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.106685</v>
+        <v>0.102732</v>
       </c>
       <c r="D2" t="n">
-        <v>0.112852</v>
+        <v>0.108476</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.125095</v>
+        <v>0.122511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.10525</v>
+        <v>0.0997527</v>
       </c>
       <c r="D3" t="n">
-        <v>0.116673</v>
+        <v>0.110456</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122106</v>
+        <v>0.116092</v>
       </c>
       <c r="C4" t="n">
-        <v>0.101595</v>
+        <v>0.0991093</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111348</v>
+        <v>0.109489</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.126017</v>
+        <v>0.117223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.105748</v>
+        <v>0.102873</v>
       </c>
       <c r="D5" t="n">
-        <v>0.116778</v>
+        <v>0.113494</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.128354</v>
+        <v>0.129356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.107117</v>
+        <v>0.104334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.115157</v>
+        <v>0.116261</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127243</v>
+        <v>0.128415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.109298</v>
+        <v>0.104521</v>
       </c>
       <c r="D7" t="n">
-        <v>0.117289</v>
+        <v>0.114556</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121137</v>
+        <v>0.124374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107027</v>
+        <v>0.105237</v>
       </c>
       <c r="D8" t="n">
-        <v>0.119903</v>
+        <v>0.117033</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124236</v>
+        <v>0.130139</v>
       </c>
       <c r="C9" t="n">
-        <v>0.114716</v>
+        <v>0.113356</v>
       </c>
       <c r="D9" t="n">
-        <v>0.114394</v>
+        <v>0.114986</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.129779</v>
+        <v>0.136262</v>
       </c>
       <c r="C10" t="n">
-        <v>0.103107</v>
+        <v>0.106752</v>
       </c>
       <c r="D10" t="n">
-        <v>0.112519</v>
+        <v>0.117809</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.130931</v>
+        <v>0.134618</v>
       </c>
       <c r="C11" t="n">
-        <v>0.103863</v>
+        <v>0.105064</v>
       </c>
       <c r="D11" t="n">
-        <v>0.115927</v>
+        <v>0.113562</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.129339</v>
+        <v>0.131211</v>
       </c>
       <c r="C12" t="n">
-        <v>0.105731</v>
+        <v>0.105743</v>
       </c>
       <c r="D12" t="n">
-        <v>0.111243</v>
+        <v>0.113189</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.130746</v>
+        <v>0.134578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.105349</v>
+        <v>0.105301</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111367</v>
+        <v>0.113827</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.131353</v>
+        <v>0.134011</v>
       </c>
       <c r="C14" t="n">
-        <v>0.104413</v>
+        <v>0.106691</v>
       </c>
       <c r="D14" t="n">
-        <v>0.116407</v>
+        <v>0.113442</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.138128</v>
+        <v>0.13191</v>
       </c>
       <c r="C15" t="n">
-        <v>0.106836</v>
+        <v>0.105629</v>
       </c>
       <c r="D15" t="n">
-        <v>0.11759</v>
+        <v>0.116623</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.135599</v>
+        <v>0.130991</v>
       </c>
       <c r="C16" t="n">
-        <v>0.104901</v>
+        <v>0.109135</v>
       </c>
       <c r="D16" t="n">
-        <v>0.115142</v>
+        <v>0.116963</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.134564</v>
+        <v>0.130259</v>
       </c>
       <c r="C17" t="n">
-        <v>0.108611</v>
+        <v>0.105924</v>
       </c>
       <c r="D17" t="n">
-        <v>0.116823</v>
+        <v>0.116057</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.131848</v>
+        <v>0.129977</v>
       </c>
       <c r="C18" t="n">
-        <v>0.104721</v>
+        <v>0.103784</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117509</v>
+        <v>0.114396</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132596</v>
+        <v>0.131334</v>
       </c>
       <c r="C19" t="n">
-        <v>0.10965</v>
+        <v>0.10491</v>
       </c>
       <c r="D19" t="n">
-        <v>0.115132</v>
+        <v>0.120233</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.129845</v>
+        <v>0.134085</v>
       </c>
       <c r="C20" t="n">
-        <v>0.110249</v>
+        <v>0.110689</v>
       </c>
       <c r="D20" t="n">
-        <v>0.115337</v>
+        <v>0.116317</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130355</v>
+        <v>0.133199</v>
       </c>
       <c r="C21" t="n">
-        <v>0.112517</v>
+        <v>0.111048</v>
       </c>
       <c r="D21" t="n">
-        <v>0.119759</v>
+        <v>0.127605</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.134613</v>
+        <v>0.136194</v>
       </c>
       <c r="C22" t="n">
-        <v>0.114811</v>
+        <v>0.114631</v>
       </c>
       <c r="D22" t="n">
-        <v>0.127146</v>
+        <v>0.12875</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.134611</v>
+        <v>0.140903</v>
       </c>
       <c r="C23" t="n">
-        <v>0.114867</v>
+        <v>0.117134</v>
       </c>
       <c r="D23" t="n">
-        <v>0.113628</v>
+        <v>0.117357</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.143033</v>
+        <v>0.13902</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107203</v>
+        <v>0.106253</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116151</v>
+        <v>0.118878</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13922</v>
+        <v>0.146481</v>
       </c>
       <c r="C25" t="n">
-        <v>0.105672</v>
+        <v>0.10575</v>
       </c>
       <c r="D25" t="n">
-        <v>0.117651</v>
+        <v>0.121764</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.139674</v>
+        <v>0.142364</v>
       </c>
       <c r="C26" t="n">
-        <v>0.106727</v>
+        <v>0.109202</v>
       </c>
       <c r="D26" t="n">
-        <v>0.117172</v>
+        <v>0.12175</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.142476</v>
+        <v>0.142383</v>
       </c>
       <c r="C27" t="n">
-        <v>0.107678</v>
+        <v>0.105602</v>
       </c>
       <c r="D27" t="n">
-        <v>0.119297</v>
+        <v>0.120796</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.144461</v>
+        <v>0.137279</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108676</v>
+        <v>0.108486</v>
       </c>
       <c r="D28" t="n">
-        <v>0.119009</v>
+        <v>0.117572</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.138779</v>
+        <v>0.139057</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109133</v>
+        <v>0.110494</v>
       </c>
       <c r="D29" t="n">
-        <v>0.122522</v>
+        <v>0.119968</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.140197</v>
+        <v>0.138137</v>
       </c>
       <c r="C30" t="n">
-        <v>0.108359</v>
+        <v>0.10899</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121202</v>
+        <v>0.120604</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13673</v>
+        <v>0.138713</v>
       </c>
       <c r="C31" t="n">
-        <v>0.110157</v>
+        <v>0.110662</v>
       </c>
       <c r="D31" t="n">
-        <v>0.118275</v>
+        <v>0.123111</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141399</v>
+        <v>0.143748</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112119</v>
+        <v>0.10956</v>
       </c>
       <c r="D32" t="n">
-        <v>0.121471</v>
+        <v>0.123602</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.139333</v>
+        <v>0.13918</v>
       </c>
       <c r="C33" t="n">
-        <v>0.111569</v>
+        <v>0.112031</v>
       </c>
       <c r="D33" t="n">
-        <v>0.123583</v>
+        <v>0.12275</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.142761</v>
+        <v>0.144756</v>
       </c>
       <c r="C34" t="n">
-        <v>0.111087</v>
+        <v>0.112405</v>
       </c>
       <c r="D34" t="n">
-        <v>0.124384</v>
+        <v>0.129286</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142705</v>
+        <v>0.141703</v>
       </c>
       <c r="C35" t="n">
-        <v>0.116186</v>
+        <v>0.118977</v>
       </c>
       <c r="D35" t="n">
-        <v>0.128032</v>
+        <v>0.127347</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.142609</v>
+        <v>0.14005</v>
       </c>
       <c r="C36" t="n">
-        <v>0.119281</v>
+        <v>0.120768</v>
       </c>
       <c r="D36" t="n">
-        <v>0.13585</v>
+        <v>0.135773</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.145837</v>
+        <v>0.147402</v>
       </c>
       <c r="C37" t="n">
-        <v>0.121389</v>
+        <v>0.121451</v>
       </c>
       <c r="D37" t="n">
-        <v>0.133686</v>
+        <v>0.137076</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.166882</v>
+        <v>0.164025</v>
       </c>
       <c r="C38" t="n">
-        <v>0.124089</v>
+        <v>0.122043</v>
       </c>
       <c r="D38" t="n">
-        <v>0.131508</v>
+        <v>0.136413</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.167089</v>
+        <v>0.164405</v>
       </c>
       <c r="C39" t="n">
-        <v>0.122278</v>
+        <v>0.124937</v>
       </c>
       <c r="D39" t="n">
-        <v>0.130362</v>
+        <v>0.136761</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.169477</v>
+        <v>0.167747</v>
       </c>
       <c r="C40" t="n">
-        <v>0.123791</v>
+        <v>0.122665</v>
       </c>
       <c r="D40" t="n">
-        <v>0.13375</v>
+        <v>0.133802</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.16847</v>
+        <v>0.171325</v>
       </c>
       <c r="C41" t="n">
-        <v>0.124227</v>
+        <v>0.12361</v>
       </c>
       <c r="D41" t="n">
-        <v>0.136551</v>
+        <v>0.143041</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.163003</v>
+        <v>0.165673</v>
       </c>
       <c r="C42" t="n">
-        <v>0.122985</v>
+        <v>0.125495</v>
       </c>
       <c r="D42" t="n">
-        <v>0.13534</v>
+        <v>0.135395</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.164621</v>
+        <v>0.165203</v>
       </c>
       <c r="C43" t="n">
-        <v>0.121638</v>
+        <v>0.125708</v>
       </c>
       <c r="D43" t="n">
-        <v>0.129442</v>
+        <v>0.139314</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.156883</v>
+        <v>0.169421</v>
       </c>
       <c r="C44" t="n">
-        <v>0.11876</v>
+        <v>0.121906</v>
       </c>
       <c r="D44" t="n">
-        <v>0.13176</v>
+        <v>0.133196</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.171287</v>
+        <v>0.170312</v>
       </c>
       <c r="C45" t="n">
-        <v>0.120548</v>
+        <v>0.127549</v>
       </c>
       <c r="D45" t="n">
-        <v>0.13129</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.157751</v>
+        <v>0.166002</v>
       </c>
       <c r="C46" t="n">
-        <v>0.121808</v>
+        <v>0.131296</v>
       </c>
       <c r="D46" t="n">
-        <v>0.136295</v>
+        <v>0.141263</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.158701</v>
+        <v>0.176475</v>
       </c>
       <c r="C47" t="n">
-        <v>0.12197</v>
+        <v>0.125865</v>
       </c>
       <c r="D47" t="n">
-        <v>0.133975</v>
+        <v>0.142867</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.158883</v>
+        <v>0.167356</v>
       </c>
       <c r="C48" t="n">
-        <v>0.130563</v>
+        <v>0.129667</v>
       </c>
       <c r="D48" t="n">
-        <v>0.136014</v>
+        <v>0.142825</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.159602</v>
+        <v>0.166855</v>
       </c>
       <c r="C49" t="n">
-        <v>0.12524</v>
+        <v>0.132075</v>
       </c>
       <c r="D49" t="n">
-        <v>0.13951</v>
+        <v>0.151097</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.163206</v>
+        <v>0.171059</v>
       </c>
       <c r="C50" t="n">
-        <v>0.128058</v>
+        <v>0.141715</v>
       </c>
       <c r="D50" t="n">
-        <v>0.143399</v>
+        <v>0.154845</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168748</v>
+        <v>0.169533</v>
       </c>
       <c r="C51" t="n">
-        <v>0.130684</v>
+        <v>0.138043</v>
       </c>
       <c r="D51" t="n">
-        <v>0.192749</v>
+        <v>0.202578</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166825</v>
+        <v>0.173118</v>
       </c>
       <c r="C52" t="n">
-        <v>0.136175</v>
+        <v>0.142125</v>
       </c>
       <c r="D52" t="n">
-        <v>0.193036</v>
+        <v>0.206901</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245381</v>
+        <v>0.257271</v>
       </c>
       <c r="C53" t="n">
-        <v>0.18655</v>
+        <v>0.199015</v>
       </c>
       <c r="D53" t="n">
-        <v>0.194148</v>
+        <v>0.206293</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242889</v>
+        <v>0.25512</v>
       </c>
       <c r="C54" t="n">
-        <v>0.193179</v>
+        <v>0.201514</v>
       </c>
       <c r="D54" t="n">
-        <v>0.194146</v>
+        <v>0.205213</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.247482</v>
+        <v>0.260995</v>
       </c>
       <c r="C55" t="n">
-        <v>0.188017</v>
+        <v>0.198796</v>
       </c>
       <c r="D55" t="n">
-        <v>0.198941</v>
+        <v>0.207706</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.252908</v>
+        <v>0.26075</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200241</v>
+        <v>0.203433</v>
       </c>
       <c r="D56" t="n">
-        <v>0.203019</v>
+        <v>0.209349</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.252815</v>
+        <v>0.262749</v>
       </c>
       <c r="C57" t="n">
-        <v>0.197043</v>
+        <v>0.206272</v>
       </c>
       <c r="D57" t="n">
-        <v>0.201492</v>
+        <v>0.206392</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.253902</v>
+        <v>0.259214</v>
       </c>
       <c r="C58" t="n">
-        <v>0.194555</v>
+        <v>0.197949</v>
       </c>
       <c r="D58" t="n">
-        <v>0.199683</v>
+        <v>0.215231</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.241932</v>
+        <v>0.26412</v>
       </c>
       <c r="C59" t="n">
-        <v>0.192329</v>
+        <v>0.20096</v>
       </c>
       <c r="D59" t="n">
-        <v>0.196893</v>
+        <v>0.211401</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.251392</v>
+        <v>0.261679</v>
       </c>
       <c r="C60" t="n">
-        <v>0.207419</v>
+        <v>0.200105</v>
       </c>
       <c r="D60" t="n">
-        <v>0.197518</v>
+        <v>0.214787</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.247896</v>
+        <v>0.261331</v>
       </c>
       <c r="C61" t="n">
-        <v>0.199948</v>
+        <v>0.204595</v>
       </c>
       <c r="D61" t="n">
-        <v>0.203844</v>
+        <v>0.211663</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.24746</v>
+        <v>0.26045</v>
       </c>
       <c r="C62" t="n">
-        <v>0.197962</v>
+        <v>0.203055</v>
       </c>
       <c r="D62" t="n">
-        <v>0.203719</v>
+        <v>0.214458</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.249758</v>
+        <v>0.265101</v>
       </c>
       <c r="C63" t="n">
-        <v>0.199534</v>
+        <v>0.209363</v>
       </c>
       <c r="D63" t="n">
-        <v>0.205992</v>
+        <v>0.21601</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.253911</v>
+        <v>0.26298</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200911</v>
+        <v>0.209122</v>
       </c>
       <c r="D64" t="n">
-        <v>0.209639</v>
+        <v>0.219167</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.249021</v>
+        <v>0.257718</v>
       </c>
       <c r="C65" t="n">
-        <v>0.204559</v>
+        <v>0.2115</v>
       </c>
       <c r="D65" t="n">
-        <v>0.215876</v>
+        <v>0.22031</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.25476</v>
+        <v>0.265622</v>
       </c>
       <c r="C66" t="n">
-        <v>0.209696</v>
+        <v>0.217028</v>
       </c>
       <c r="D66" t="n">
-        <v>0.286318</v>
+        <v>0.291055</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.369447</v>
+        <v>0.428346</v>
       </c>
       <c r="C67" t="n">
-        <v>0.301325</v>
+        <v>0.326041</v>
       </c>
       <c r="D67" t="n">
-        <v>0.285426</v>
+        <v>0.303578</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.396313</v>
+        <v>0.420936</v>
       </c>
       <c r="C68" t="n">
-        <v>0.300324</v>
+        <v>0.318045</v>
       </c>
       <c r="D68" t="n">
-        <v>0.284094</v>
+        <v>0.305231</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.403906</v>
+        <v>0.422014</v>
       </c>
       <c r="C69" t="n">
-        <v>0.300171</v>
+        <v>0.316534</v>
       </c>
       <c r="D69" t="n">
-        <v>0.286219</v>
+        <v>0.297977</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.393446</v>
+        <v>0.40117</v>
       </c>
       <c r="C70" t="n">
-        <v>0.31432</v>
+        <v>0.320068</v>
       </c>
       <c r="D70" t="n">
-        <v>0.292657</v>
+        <v>0.299546</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.415502</v>
+        <v>0.396361</v>
       </c>
       <c r="C71" t="n">
-        <v>0.315504</v>
+        <v>0.317876</v>
       </c>
       <c r="D71" t="n">
-        <v>0.299897</v>
+        <v>0.314331</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.399397</v>
+        <v>0.407183</v>
       </c>
       <c r="C72" t="n">
-        <v>0.319075</v>
+        <v>0.316171</v>
       </c>
       <c r="D72" t="n">
-        <v>0.306041</v>
+        <v>0.307293</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.418498</v>
+        <v>0.407712</v>
       </c>
       <c r="C73" t="n">
-        <v>0.312933</v>
+        <v>0.324533</v>
       </c>
       <c r="D73" t="n">
-        <v>0.307354</v>
+        <v>0.301215</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.412901</v>
+        <v>0.402874</v>
       </c>
       <c r="C74" t="n">
-        <v>0.330171</v>
+        <v>0.314598</v>
       </c>
       <c r="D74" t="n">
-        <v>0.307918</v>
+        <v>0.320787</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.409898</v>
+        <v>0.416338</v>
       </c>
       <c r="C75" t="n">
-        <v>0.322712</v>
+        <v>0.311419</v>
       </c>
       <c r="D75" t="n">
-        <v>0.314823</v>
+        <v>0.307096</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.415532</v>
+        <v>0.39525</v>
       </c>
       <c r="C76" t="n">
-        <v>0.323419</v>
+        <v>0.323335</v>
       </c>
       <c r="D76" t="n">
-        <v>0.321921</v>
+        <v>0.320379</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.41586</v>
+        <v>0.418254</v>
       </c>
       <c r="C77" t="n">
-        <v>0.328444</v>
+        <v>0.318262</v>
       </c>
       <c r="D77" t="n">
-        <v>0.315377</v>
+        <v>0.315883</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.411232</v>
+        <v>0.406708</v>
       </c>
       <c r="C78" t="n">
-        <v>0.317141</v>
+        <v>0.334062</v>
       </c>
       <c r="D78" t="n">
-        <v>0.304013</v>
+        <v>0.321633</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.415688</v>
+        <v>0.411102</v>
       </c>
       <c r="C79" t="n">
-        <v>0.32493</v>
+        <v>0.325388</v>
       </c>
       <c r="D79" t="n">
-        <v>0.327752</v>
+        <v>0.329154</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.409089</v>
+        <v>0.414788</v>
       </c>
       <c r="C80" t="n">
-        <v>0.339045</v>
+        <v>0.331335</v>
       </c>
       <c r="D80" t="n">
-        <v>0.437838</v>
+        <v>0.423248</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.559574</v>
+        <v>0.533174</v>
       </c>
       <c r="C81" t="n">
-        <v>0.436064</v>
+        <v>0.421939</v>
       </c>
       <c r="D81" t="n">
-        <v>0.422302</v>
+        <v>0.434381</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.558521</v>
+        <v>0.545859</v>
       </c>
       <c r="C82" t="n">
-        <v>0.425765</v>
+        <v>0.42444</v>
       </c>
       <c r="D82" t="n">
-        <v>0.420491</v>
+        <v>0.436501</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.557385</v>
+        <v>0.556264</v>
       </c>
       <c r="C83" t="n">
-        <v>0.425604</v>
+        <v>0.433827</v>
       </c>
       <c r="D83" t="n">
-        <v>0.427471</v>
+        <v>0.428701</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.549671</v>
+        <v>0.544559</v>
       </c>
       <c r="C84" t="n">
-        <v>0.435574</v>
+        <v>0.434526</v>
       </c>
       <c r="D84" t="n">
-        <v>0.439988</v>
+        <v>0.428167</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.556577</v>
+        <v>0.55254</v>
       </c>
       <c r="C85" t="n">
-        <v>0.425914</v>
+        <v>0.42789</v>
       </c>
       <c r="D85" t="n">
-        <v>0.444609</v>
+        <v>0.450477</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.556606</v>
+        <v>0.561002</v>
       </c>
       <c r="C86" t="n">
-        <v>0.420357</v>
+        <v>0.434803</v>
       </c>
       <c r="D86" t="n">
-        <v>0.438157</v>
+        <v>0.436599</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.561953</v>
+        <v>0.556821</v>
       </c>
       <c r="C87" t="n">
-        <v>0.42606</v>
+        <v>0.421543</v>
       </c>
       <c r="D87" t="n">
-        <v>0.432588</v>
+        <v>0.447768</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.562648</v>
+        <v>0.554866</v>
       </c>
       <c r="C88" t="n">
-        <v>0.439386</v>
+        <v>0.441159</v>
       </c>
       <c r="D88" t="n">
-        <v>0.440517</v>
+        <v>0.435828</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.557403</v>
+        <v>0.564213</v>
       </c>
       <c r="C89" t="n">
-        <v>0.429273</v>
+        <v>0.441942</v>
       </c>
       <c r="D89" t="n">
-        <v>0.443276</v>
+        <v>0.440491</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.592434</v>
+        <v>0.554853</v>
       </c>
       <c r="C90" t="n">
-        <v>0.435112</v>
+        <v>0.441589</v>
       </c>
       <c r="D90" t="n">
-        <v>0.451033</v>
+        <v>0.456201</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.559665</v>
+        <v>0.568402</v>
       </c>
       <c r="C91" t="n">
-        <v>0.433291</v>
+        <v>0.431669</v>
       </c>
       <c r="D91" t="n">
-        <v>0.45534</v>
+        <v>0.451802</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.554</v>
+        <v>0.569291</v>
       </c>
       <c r="C92" t="n">
-        <v>0.442672</v>
+        <v>0.450981</v>
       </c>
       <c r="D92" t="n">
-        <v>0.460649</v>
+        <v>0.447535</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.555996</v>
+        <v>0.5620540000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.440697</v>
+        <v>0.437864</v>
       </c>
       <c r="D93" t="n">
-        <v>0.454992</v>
+        <v>0.454311</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.586963</v>
+        <v>0.5717719999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.451697</v>
+        <v>0.448643</v>
       </c>
       <c r="D94" t="n">
-        <v>0.556995</v>
+        <v>0.514171</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.708548</v>
+        <v>0.652332</v>
       </c>
       <c r="C95" t="n">
-        <v>0.544123</v>
+        <v>0.508838</v>
       </c>
       <c r="D95" t="n">
-        <v>0.550024</v>
+        <v>0.525918</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.650999</v>
+        <v>0.6658500000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.531099</v>
+        <v>0.502602</v>
       </c>
       <c r="D96" t="n">
-        <v>0.527332</v>
+        <v>0.537209</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.69804</v>
+        <v>0.65172</v>
       </c>
       <c r="C97" t="n">
-        <v>0.536295</v>
+        <v>0.511511</v>
       </c>
       <c r="D97" t="n">
-        <v>0.54575</v>
+        <v>0.529912</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6993470000000001</v>
+        <v>0.651307</v>
       </c>
       <c r="C98" t="n">
-        <v>0.529587</v>
+        <v>0.503958</v>
       </c>
       <c r="D98" t="n">
-        <v>0.555015</v>
+        <v>0.522887</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.644531</v>
+        <v>0.704526</v>
       </c>
       <c r="C99" t="n">
-        <v>0.548715</v>
+        <v>0.522501</v>
       </c>
       <c r="D99" t="n">
-        <v>0.544474</v>
+        <v>0.526973</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.668869</v>
+        <v>0.6601050000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.510659</v>
+        <v>0.520502</v>
       </c>
       <c r="D100" t="n">
-        <v>0.556992</v>
+        <v>0.535659</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.652095</v>
+        <v>0.6497230000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.516375</v>
+        <v>0.5233910000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.558662</v>
+        <v>0.53372</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.710144</v>
+        <v>0.657479</v>
       </c>
       <c r="C102" t="n">
-        <v>0.527695</v>
+        <v>0.528736</v>
       </c>
       <c r="D102" t="n">
-        <v>0.571491</v>
+        <v>0.53734</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.656547</v>
+        <v>0.653707</v>
       </c>
       <c r="C103" t="n">
-        <v>0.533533</v>
+        <v>0.510598</v>
       </c>
       <c r="D103" t="n">
-        <v>0.543988</v>
+        <v>0.531794</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6914360000000001</v>
+        <v>0.709126</v>
       </c>
       <c r="C104" t="n">
-        <v>0.